--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{690A08BC-A9B0-4158-8041-C9EB33E8ED2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73CBFB-7086-450B-8BB8-198C36A06995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_18" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$5:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_18!$B$5:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -303,13 +303,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -593,7 +593,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -638,7 +638,7 @@
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
@@ -791,71 +791,71 @@
       <c r="B7" s="8">
         <v>45383</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>685435</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>676046</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>565</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>56830</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>10138</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>3511</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <v>78</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <v>1424</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <v>2558</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <v>61296</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <v>3933</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <v>39350</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="12">
         <v>23307</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="12">
         <v>41742</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="12">
         <v>2677</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="12">
         <v>53782</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14">
+      <c r="S7" s="12"/>
+      <c r="T7" s="12">
         <v>127521</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="12">
         <v>6305</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="12">
         <v>5651</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="12">
         <v>2085</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="12">
         <v>12043</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="12">
         <v>15</v>
       </c>
       <c r="Z7" s="5">
@@ -941,71 +941,71 @@
       <c r="B9" s="8">
         <v>45323</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>677153</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>667343</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>559</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>56789</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>10062</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>3444</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <v>78</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <v>1424</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="12">
         <v>2486</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="12">
         <v>60780</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <v>3929</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <v>38626</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="12">
         <v>22931</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="12">
         <v>41445</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="12">
         <v>2656</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="12">
         <v>53234</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14">
+      <c r="S9" s="12"/>
+      <c r="T9" s="12">
         <v>126653</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="12">
         <v>6260</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="12">
         <v>5487</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="12">
         <v>2055</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="12">
         <v>11945</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="12">
         <v>15</v>
       </c>
       <c r="Z9" s="5">
@@ -1093,71 +1093,71 @@
       <c r="B11" s="8">
         <v>45261</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>671002</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>660365</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>554</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>56667</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>10017</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>3376</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <v>78</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <v>1424</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="12">
         <v>2414</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <v>60296</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>3916</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="12">
         <v>38063</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="12">
         <v>22721</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="12">
         <v>40963</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="12">
         <v>2664</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="12">
         <v>53074</v>
       </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12">
         <v>125341</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="12">
         <v>6227</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="12">
         <v>5448</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="12">
         <v>2008</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="12">
         <v>11874</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="12">
         <v>15</v>
       </c>
       <c r="Z11" s="5">
@@ -1243,71 +1243,71 @@
       <c r="B13" s="8">
         <v>45200</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>662911</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>653227</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>551</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>56354</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>9936</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>3354</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <v>78</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>1424</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <v>2325</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="12">
         <v>59524</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <v>3949</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <v>37449</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="12">
         <v>22518</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="12">
         <v>40540</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="12">
         <v>2659</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="12">
         <v>52779</v>
       </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14">
+      <c r="S13" s="12"/>
+      <c r="T13" s="12">
         <v>124007</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="12">
         <v>6157</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="12">
         <v>5337</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="12">
         <v>1958</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="12">
         <v>11701</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="12">
         <v>15</v>
       </c>
       <c r="Z13" s="5">
@@ -1393,71 +1393,71 @@
       <c r="B15" s="8">
         <v>45139</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>655458</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>645999</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>546</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>56186</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>9835</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>3310</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <v>78</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <v>1425</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="12">
         <v>2252</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="12">
         <v>58938</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="12">
         <v>3928</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="12">
         <v>36812</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="12">
         <v>22401</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="12">
         <v>40001</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="12">
         <v>2655</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="12">
         <v>52187</v>
       </c>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14">
+      <c r="S15" s="12"/>
+      <c r="T15" s="12">
         <v>122442</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="12">
         <v>6046</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="12">
         <v>5239</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="12">
         <v>1910</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="12">
         <v>11600</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y15" s="12">
         <v>15</v>
       </c>
       <c r="Z15" s="5">
@@ -1543,71 +1543,71 @@
       <c r="B17" s="8">
         <v>45078</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>647906</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>637598</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>538</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>56139</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>9752</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>3280</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <v>78</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <v>1424</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="12">
         <v>2179</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="12">
         <v>58481</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="12">
         <v>3945</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="12">
         <v>36238</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="12">
         <v>21962</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="12">
         <v>38923</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="12">
         <v>2634</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="12">
         <v>51526</v>
       </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14">
+      <c r="S17" s="12"/>
+      <c r="T17" s="12">
         <v>120827</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="12">
         <v>5957</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="12">
         <v>5099</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="12">
         <v>1866</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="12">
         <v>11503</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y17" s="12">
         <v>15</v>
       </c>
       <c r="Z17" s="5">
@@ -1693,71 +1693,71 @@
       <c r="B19" s="8">
         <v>45017</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>641751</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>630955</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>537</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>55899</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>9670</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>3264</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="12">
         <v>78</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>1424</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="12">
         <v>2114</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="12">
         <v>58008</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="12">
         <v>3930</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="12">
         <v>35633</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="12">
         <v>21736</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="12">
         <v>38964</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="12">
         <v>2631</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="12">
         <v>50759</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14">
+      <c r="S19" s="12"/>
+      <c r="T19" s="12">
         <v>119535</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="12">
         <v>5904</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="12">
         <v>4993</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W19" s="12">
         <v>1785</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X19" s="12">
         <v>11422</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="Y19" s="12">
         <v>15</v>
       </c>
       <c r="Z19" s="5">
@@ -1843,73 +1843,73 @@
       <c r="B21" s="8">
         <v>44958</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>636167</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>625114</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>535</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>55765</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>9522</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>3239</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="12">
         <v>78</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="12">
         <v>1424</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="12">
         <v>2039</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="12">
         <v>57425</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="12">
         <v>3900</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="12">
         <v>34878</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="12">
         <v>21229</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="12">
         <v>38464</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="12">
         <v>2594</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="12">
         <v>49720</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="12">
         <v>1</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="12">
         <v>118529</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="12">
         <v>5852</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="12">
         <v>4936</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W21" s="12">
         <v>1736</v>
       </c>
-      <c r="X21" s="14">
+      <c r="X21" s="12">
         <v>11378</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="Y21" s="12">
         <v>15</v>
       </c>
       <c r="Z21" s="5">
@@ -2008,15 +2008,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73CBFB-7086-450B-8BB8-198C36A06995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91301B08-4CB0-4035-8B5A-389381EE1785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_18" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Ultima actualización: mayo 2024</t>
   </si>
   <si>
     <t>Dirección General de Planeación</t>
-  </si>
-  <si>
-    <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal</t>
   </si>
   <si>
     <t>Periodo</t>
@@ -128,10 +125,25 @@
     <t>Otros</t>
   </si>
   <si>
-    <t>Parque Vehícular 2023 y 2024</t>
+    <t>Camionetas</t>
   </si>
   <si>
-    <t>Camionetas</t>
+    <t>Unidades Motrices2</t>
+  </si>
+  <si>
+    <t>Unidades de Arrastre3</t>
+  </si>
+  <si>
+    <t>Camiones4</t>
+  </si>
+  <si>
+    <t>Semiremolques5</t>
+  </si>
+  <si>
+    <t>Parque Vehícular</t>
+  </si>
+  <si>
+    <t>Fuente: SICT. Subsecretaría de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -275,12 +287,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -307,15 +389,171 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -326,6 +564,46 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:Z82" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26">
+  <autoFilter ref="B5:Z82" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{73EE1048-BC82-45C9-BA9A-56DCEE94CAE8}" name="Periodo" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{FCA07C6E-3FA7-47C9-8581-5AC93BC31DA6}" name="Unidades Motrices" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{C90F00F0-87D6-4ADB-9A5C-389750A3C6EB}" name="Unidades de Arrastre" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{F6B76EA6-ED40-4538-B803-44728D839AB1}" name="Grúas Industriales" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{CEA1E23D-1F8D-4A11-B585-5409CF64F00B}" name="Autobús" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{3529993C-16BB-49B2-AD22-FDF153A239B4}" name="Automóvil" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{085D9A0B-D0C7-418B-A026-95CAC9D97DD1}" name="Camioneta" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{5B4F3524-6771-4D7A-ABCC-E233937491D2}" name="Midibus" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{C9944019-8BB2-432B-8392-8D01E80B1B23}" name="Minibús o Microbús" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{EAEA8BE1-0696-477C-9B05-572AA12475EF}" name="Chofer Guía" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{D64F6140-E179-4385-8308-7CBD7AC3C886}" name="De excursión" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{8D8D8096-3B1A-4D41-9BB6-48438BC8EB55}" name="Turístico " dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{F14B6DC6-11F2-4302-823C-B84C14DEBBF2}" name="Turístico de Lujo" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{0E635F77-DE5B-4C4A-AE45-5CE6B8B30FFF}" name="Unidades Motrices2" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{939EE85A-8474-450F-ADD7-99442E250254}" name="Unidades de Arrastre3" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{02542B11-87C2-4A81-912C-3F1C24E16197}" name="Camiones" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{36E65929-6D9D-45DF-AADD-89A62A04330C}" name="Tractocamiones" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{DF2ECE60-D178-45BC-83DE-5B1472E5EB8E}" name="Semiremolques" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{197BF9C2-788A-432C-BB7E-B0223DE53237}" name="Carga" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{64DED93B-FF6B-471D-A055-1A4B5A5561B5}" name="Pasaje" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{A0B550ED-32B2-4DFD-B495-7F155E29F6BE}" name="Camiones4" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{A69070AD-730C-4BF9-8553-D13BD0054FD9}" name="Camionetas" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{8653CE17-AA1B-4E01-AB45-6BEED98AEC59}" name="Gruas" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{359EDE6A-8E31-4C82-B35F-E80FA158F400}" name="Semiremolques5" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{61673B3B-4A72-4803-8243-8DDF76E61A52}" name="Otros" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,9 +829,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:Z24"/>
+  <dimension ref="B2:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -561,229 +839,231 @@
   <cols>
     <col min="1" max="1" width="5.59765625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" customWidth="1"/>
+    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="14" max="14" width="15.8984375" customWidth="1"/>
+    <col min="15" max="15" width="18.19921875" customWidth="1"/>
+    <col min="16" max="16" width="20.3984375" customWidth="1"/>
+    <col min="17" max="17" width="10.3984375" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" customWidth="1"/>
+    <col min="19" max="19" width="14.8984375" customWidth="1"/>
     <col min="20" max="20" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" customWidth="1"/>
+    <col min="22" max="22" width="11.3984375" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.8984375" customWidth="1"/>
+    <col min="26" max="26" width="6.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.35">
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U4" s="13"/>
       <c r="V4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="T5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="11" t="s">
+      <c r="Y5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B6" s="9">
+      <c r="B6" s="20">
         <v>45413</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="21">
         <v>686433</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="21">
         <v>677060</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="21">
         <v>583</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="21">
         <v>57014</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="21">
         <v>10191</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="21">
         <v>3490</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="21">
         <v>78</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="21">
         <v>1424</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="21">
         <v>2598</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="21">
         <v>61659</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="21">
         <v>3952</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="21">
         <v>39763</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="21">
         <v>22332</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="21">
         <v>41599</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="21">
         <v>2694</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="21">
         <v>54118</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3">
+      <c r="S6" s="21"/>
+      <c r="T6" s="21">
         <v>128107</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="21">
         <v>6329</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="21">
         <v>5765</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="21">
         <v>2112</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="21">
         <v>12080</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="21">
         <v>15</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="22">
         <v>719</v>
       </c>
     </row>
@@ -791,71 +1071,71 @@
       <c r="B7" s="8">
         <v>45383</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="23">
         <v>685435</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="23">
         <v>676046</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="23">
         <v>565</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="23">
         <v>56830</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="23">
         <v>10138</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="23">
         <v>3511</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="23">
         <v>78</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="23">
         <v>1424</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="23">
         <v>2558</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="23">
         <v>61296</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="23">
         <v>3933</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="23">
         <v>39350</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="23">
         <v>23307</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="23">
         <v>41742</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="23">
         <v>2677</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="23">
         <v>53782</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23">
         <v>127521</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="23">
         <v>6305</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="23">
         <v>5651</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="23">
         <v>2085</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="23">
         <v>12043</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="23">
         <v>15</v>
       </c>
       <c r="Z7" s="5">
@@ -941,71 +1221,71 @@
       <c r="B9" s="8">
         <v>45323</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="23">
         <v>677153</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="23">
         <v>667343</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="23">
         <v>559</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="23">
         <v>56789</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="23">
         <v>10062</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="23">
         <v>3444</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="23">
         <v>78</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="23">
         <v>1424</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="23">
         <v>2486</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="23">
         <v>60780</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="23">
         <v>3929</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="23">
         <v>38626</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="23">
         <v>22931</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="23">
         <v>41445</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="23">
         <v>2656</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="23">
         <v>53234</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23">
         <v>126653</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="23">
         <v>6260</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="23">
         <v>5487</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="23">
         <v>2055</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="23">
         <v>11945</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="23">
         <v>15</v>
       </c>
       <c r="Z9" s="5">
@@ -1013,84 +1293,84 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>45292</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>673757</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>663646</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>558</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>56703</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>10044</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>3392</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>78</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>1424</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>2444</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>60551</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="6">
         <v>3920</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="6">
         <v>38302</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="6">
         <v>22717</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="6">
         <v>41276</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="6">
         <v>2661</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="6">
         <v>53153</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="6">
         <v>0</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="6">
         <v>125984</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="6">
         <v>6237</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="6">
         <v>5478</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="6">
         <v>2017</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="6">
         <v>11916</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="6">
         <v>15</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="7">
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B11" s="8">
+    <row r="11" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="15">
         <v>45261</v>
       </c>
       <c r="C11" s="12">
@@ -1160,12 +1440,12 @@
       <c r="Y11" s="12">
         <v>15</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="23">
         <v>716</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B12" s="9">
+    <row r="12" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14">
         <v>45231</v>
       </c>
       <c r="C12" s="3">
@@ -1235,12 +1515,12 @@
       <c r="Y12" s="3">
         <v>15</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="3">
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
+    <row r="13" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
         <v>45200</v>
       </c>
       <c r="C13" s="12">
@@ -1310,12 +1590,12 @@
       <c r="Y13" s="12">
         <v>15</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="Z13" s="23">
         <v>717</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B14" s="9">
+    <row r="14" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="14">
         <v>45170</v>
       </c>
       <c r="C14" s="3">
@@ -1385,12 +1665,12 @@
       <c r="Y14" s="3">
         <v>15</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="3">
         <v>718</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B15" s="8">
+    <row r="15" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="15">
         <v>45139</v>
       </c>
       <c r="C15" s="12">
@@ -1460,12 +1740,12 @@
       <c r="Y15" s="12">
         <v>15</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="23">
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B16" s="9">
+    <row r="16" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="14">
         <v>45108</v>
       </c>
       <c r="C16" s="3">
@@ -1535,12 +1815,12 @@
       <c r="Y16" s="3">
         <v>15</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="3">
         <v>716</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
+    <row r="17" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="15">
         <v>45078</v>
       </c>
       <c r="C17" s="12">
@@ -1610,12 +1890,12 @@
       <c r="Y17" s="12">
         <v>15</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="23">
         <v>715</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B18" s="9">
+    <row r="18" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="14">
         <v>45047</v>
       </c>
       <c r="C18" s="3">
@@ -1685,12 +1965,12 @@
       <c r="Y18" s="3">
         <v>15</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="3">
         <v>717</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B19" s="8">
+    <row r="19" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="15">
         <v>45017</v>
       </c>
       <c r="C19" s="12">
@@ -1760,12 +2040,12 @@
       <c r="Y19" s="12">
         <v>15</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="23">
         <v>713</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
+    <row r="20" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="14">
         <v>44986</v>
       </c>
       <c r="C20" s="3">
@@ -1835,12 +2115,12 @@
       <c r="Y20" s="3">
         <v>15</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="3">
         <v>713</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B21" s="8">
+    <row r="21" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="15">
         <v>44958</v>
       </c>
       <c r="C21" s="12">
@@ -1912,12 +2192,12 @@
       <c r="Y21" s="12">
         <v>15</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="Z21" s="23">
         <v>714</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
+    <row r="22" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="16">
         <v>44927</v>
       </c>
       <c r="C22" s="6">
@@ -1989,26 +2269,4583 @@
       <c r="Y22" s="6">
         <v>15</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="6">
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="2" t="s">
+    <row r="23" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="15">
+        <v>44896</v>
+      </c>
+      <c r="C23" s="12">
+        <v>632252</v>
+      </c>
+      <c r="D23" s="12">
+        <v>620240</v>
+      </c>
+      <c r="E23" s="12">
+        <v>528</v>
+      </c>
+      <c r="F23" s="12">
+        <v>55869</v>
+      </c>
+      <c r="G23" s="12">
+        <v>9451</v>
+      </c>
+      <c r="H23" s="12">
+        <v>3234</v>
+      </c>
+      <c r="I23" s="12">
+        <v>78</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1986</v>
+      </c>
+      <c r="L23" s="12">
+        <v>57083</v>
+      </c>
+      <c r="M23" s="12">
+        <v>3895</v>
+      </c>
+      <c r="N23" s="12">
+        <v>34339</v>
+      </c>
+      <c r="O23" s="12">
+        <v>20924</v>
+      </c>
+      <c r="P23" s="12">
+        <v>38275</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>2577</v>
+      </c>
+      <c r="R23" s="12">
+        <v>49203</v>
+      </c>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12">
+        <v>117636</v>
+      </c>
+      <c r="U23" s="12">
+        <v>5783</v>
+      </c>
+      <c r="V23" s="12">
+        <v>4904</v>
+      </c>
+      <c r="W23" s="12">
+        <v>1678</v>
+      </c>
+      <c r="X23" s="12">
+        <v>11327</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z23" s="23">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="14">
+        <v>44866</v>
+      </c>
+      <c r="C24" s="3">
+        <v>629746</v>
+      </c>
+      <c r="D24" s="3">
+        <v>617778</v>
+      </c>
+      <c r="E24" s="3">
+        <v>528</v>
+      </c>
+      <c r="F24" s="3">
+        <v>55776</v>
+      </c>
+      <c r="G24" s="3">
+        <v>9347</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3197</v>
+      </c>
+      <c r="I24" s="3">
+        <v>77</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1959</v>
+      </c>
+      <c r="L24" s="3">
+        <v>56592</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3885</v>
+      </c>
+      <c r="N24" s="3">
+        <v>33921</v>
+      </c>
+      <c r="O24" s="3">
+        <v>20669</v>
+      </c>
+      <c r="P24" s="3">
+        <v>38043</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2568</v>
+      </c>
+      <c r="R24" s="3">
+        <v>48930</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3">
+        <v>117218</v>
+      </c>
+      <c r="U24" s="3">
+        <v>5770</v>
+      </c>
+      <c r="V24" s="3">
+        <v>4899</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1652</v>
+      </c>
+      <c r="X24" s="3">
+        <v>11234</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="15">
+        <v>44835</v>
+      </c>
+      <c r="C25" s="12">
+        <v>627591</v>
+      </c>
+      <c r="D25" s="12">
+        <v>615376</v>
+      </c>
+      <c r="E25" s="12">
+        <v>528</v>
+      </c>
+      <c r="F25" s="12">
+        <v>55700</v>
+      </c>
+      <c r="G25" s="12">
+        <v>9310</v>
+      </c>
+      <c r="H25" s="12">
+        <v>3164</v>
+      </c>
+      <c r="I25" s="12">
+        <v>77</v>
+      </c>
+      <c r="J25" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K25" s="12">
+        <v>1936</v>
+      </c>
+      <c r="L25" s="12">
+        <v>56336</v>
+      </c>
+      <c r="M25" s="12">
+        <v>3884</v>
+      </c>
+      <c r="N25" s="12">
+        <v>33523</v>
+      </c>
+      <c r="O25" s="12">
+        <v>20457</v>
+      </c>
+      <c r="P25" s="12">
+        <v>37927</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>2574</v>
+      </c>
+      <c r="R25" s="12">
+        <v>48696</v>
+      </c>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12">
+        <v>116809</v>
+      </c>
+      <c r="U25" s="12">
+        <v>5709</v>
+      </c>
+      <c r="V25" s="12">
+        <v>4865</v>
+      </c>
+      <c r="W25" s="12">
+        <v>1637</v>
+      </c>
+      <c r="X25" s="12">
+        <v>11207</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="23">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14">
+        <v>44805</v>
+      </c>
+      <c r="C26" s="3">
+        <v>625802</v>
+      </c>
+      <c r="D26" s="3">
+        <v>613527</v>
+      </c>
+      <c r="E26" s="3">
+        <v>529</v>
+      </c>
+      <c r="F26" s="3">
+        <v>55774</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9280</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3168</v>
+      </c>
+      <c r="I26" s="3">
+        <v>77</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1923</v>
+      </c>
+      <c r="L26" s="3">
+        <v>56179</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3894</v>
+      </c>
+      <c r="N26" s="3">
+        <v>33212</v>
+      </c>
+      <c r="O26" s="3">
+        <v>20145</v>
+      </c>
+      <c r="P26" s="3">
+        <v>37799</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2588</v>
+      </c>
+      <c r="R26" s="3">
+        <v>48487</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3">
+        <v>116524</v>
+      </c>
+      <c r="U26" s="3">
+        <v>5685</v>
+      </c>
+      <c r="V26" s="3">
+        <v>4852</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1602</v>
+      </c>
+      <c r="X26" s="3">
+        <v>11195</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="15">
+        <v>44774</v>
+      </c>
+      <c r="C27" s="12">
+        <v>623225</v>
+      </c>
+      <c r="D27" s="12">
+        <v>611005</v>
+      </c>
+      <c r="E27" s="12">
+        <v>527</v>
+      </c>
+      <c r="F27" s="12">
+        <v>55700</v>
+      </c>
+      <c r="G27" s="12">
+        <v>9285</v>
+      </c>
+      <c r="H27" s="12">
+        <v>3159</v>
+      </c>
+      <c r="I27" s="12">
+        <v>77</v>
+      </c>
+      <c r="J27" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K27" s="12">
+        <v>1959</v>
+      </c>
+      <c r="L27" s="12">
+        <v>56592</v>
+      </c>
+      <c r="M27" s="12">
+        <v>3885</v>
+      </c>
+      <c r="N27" s="12">
+        <v>33921</v>
+      </c>
+      <c r="O27" s="12">
+        <v>19873</v>
+      </c>
+      <c r="P27" s="12">
+        <v>37606</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>2571</v>
+      </c>
+      <c r="R27" s="12">
+        <v>48049</v>
+      </c>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12">
+        <v>115967</v>
+      </c>
+      <c r="U27" s="12">
+        <v>5662</v>
+      </c>
+      <c r="V27" s="12">
+        <v>4804</v>
+      </c>
+      <c r="W27" s="12">
+        <v>1573</v>
+      </c>
+      <c r="X27" s="12">
+        <v>11161</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>16</v>
+      </c>
+      <c r="Z27" s="23">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="14">
+        <v>44743</v>
+      </c>
+      <c r="C28" s="3">
+        <v>619408</v>
+      </c>
+      <c r="D28" s="3">
+        <v>607662</v>
+      </c>
+      <c r="E28" s="3">
+        <v>525</v>
+      </c>
+      <c r="F28" s="3">
+        <v>55704</v>
+      </c>
+      <c r="G28" s="3">
+        <v>9233</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3148</v>
+      </c>
+      <c r="I28" s="3">
+        <v>77</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1866</v>
+      </c>
+      <c r="L28" s="3">
+        <v>55722</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3891</v>
+      </c>
+      <c r="N28" s="3">
+        <v>32461</v>
+      </c>
+      <c r="O28" s="3">
+        <v>19530</v>
+      </c>
+      <c r="P28" s="3">
+        <v>37234</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>2570</v>
+      </c>
+      <c r="R28" s="3">
+        <v>47654</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3">
+        <v>115526</v>
+      </c>
+      <c r="U28" s="3">
+        <v>5597</v>
+      </c>
+      <c r="V28" s="3">
+        <v>4695</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1536</v>
+      </c>
+      <c r="X28" s="3">
+        <v>11130</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="15">
+        <v>44713</v>
+      </c>
+      <c r="C29" s="12">
+        <v>618040</v>
+      </c>
+      <c r="D29" s="12">
+        <v>606724</v>
+      </c>
+      <c r="E29" s="12">
+        <v>525</v>
+      </c>
+      <c r="F29" s="12">
+        <v>55570</v>
+      </c>
+      <c r="G29" s="12">
+        <v>9217</v>
+      </c>
+      <c r="H29" s="12">
+        <v>3142</v>
+      </c>
+      <c r="I29" s="12">
+        <v>77</v>
+      </c>
+      <c r="J29" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K29" s="12">
+        <v>1855</v>
+      </c>
+      <c r="L29" s="12">
+        <v>55624</v>
+      </c>
+      <c r="M29" s="12">
+        <v>3889</v>
+      </c>
+      <c r="N29" s="12">
+        <v>32272</v>
+      </c>
+      <c r="O29" s="12">
+        <v>19269</v>
+      </c>
+      <c r="P29" s="12">
+        <v>37056</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>2562</v>
+      </c>
+      <c r="R29" s="12">
+        <v>47342</v>
+      </c>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12">
+        <v>114809</v>
+      </c>
+      <c r="U29" s="12">
+        <v>5569</v>
+      </c>
+      <c r="V29" s="12">
+        <v>4673</v>
+      </c>
+      <c r="W29" s="12">
+        <v>1516</v>
+      </c>
+      <c r="X29" s="12">
+        <v>11114</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>16</v>
+      </c>
+      <c r="Z29" s="23">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="14">
+        <v>44682</v>
+      </c>
+      <c r="C30" s="3">
+        <v>616795</v>
+      </c>
+      <c r="D30" s="3">
+        <v>605191</v>
+      </c>
+      <c r="E30" s="3">
+        <v>525</v>
+      </c>
+      <c r="F30" s="3">
+        <v>55673</v>
+      </c>
+      <c r="G30" s="3">
+        <v>9298</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3152</v>
+      </c>
+      <c r="I30" s="3">
+        <v>77</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1846</v>
+      </c>
+      <c r="L30" s="3">
+        <v>55382</v>
+      </c>
+      <c r="M30" s="3">
+        <v>3892</v>
+      </c>
+      <c r="N30" s="3">
+        <v>32033</v>
+      </c>
+      <c r="O30" s="3">
+        <v>19167</v>
+      </c>
+      <c r="P30" s="3">
+        <v>36662</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>2569</v>
+      </c>
+      <c r="R30" s="3">
+        <v>47224</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3">
+        <v>114792</v>
+      </c>
+      <c r="U30" s="3">
+        <v>5511</v>
+      </c>
+      <c r="V30" s="3">
+        <v>4622</v>
+      </c>
+      <c r="W30" s="3">
+        <v>1474</v>
+      </c>
+      <c r="X30" s="3">
+        <v>11085</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="15">
+        <v>44652</v>
+      </c>
+      <c r="C31" s="12">
+        <v>614317</v>
+      </c>
+      <c r="D31" s="12">
+        <v>602581</v>
+      </c>
+      <c r="E31" s="12">
+        <v>524</v>
+      </c>
+      <c r="F31" s="12">
+        <v>55683</v>
+      </c>
+      <c r="G31" s="12">
+        <v>9224</v>
+      </c>
+      <c r="H31" s="12">
+        <v>3107</v>
+      </c>
+      <c r="I31" s="12">
+        <v>77</v>
+      </c>
+      <c r="J31" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K31" s="12">
+        <v>1833</v>
+      </c>
+      <c r="L31" s="12">
+        <v>55240</v>
+      </c>
+      <c r="M31" s="12">
+        <v>3885</v>
+      </c>
+      <c r="N31" s="12">
+        <v>31772</v>
+      </c>
+      <c r="O31" s="12">
+        <v>18897</v>
+      </c>
+      <c r="P31" s="12">
+        <v>36589</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>2571</v>
+      </c>
+      <c r="R31" s="12">
+        <v>46753</v>
+      </c>
+      <c r="S31" s="12">
+        <v>1</v>
+      </c>
+      <c r="T31" s="12">
+        <v>114370</v>
+      </c>
+      <c r="U31" s="12">
+        <v>5457</v>
+      </c>
+      <c r="V31" s="12">
+        <v>4577</v>
+      </c>
+      <c r="W31" s="12">
+        <v>1352</v>
+      </c>
+      <c r="X31" s="12">
+        <v>11060</v>
+      </c>
+      <c r="Y31" s="12">
+        <v>16</v>
+      </c>
+      <c r="Z31" s="23">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="14">
+        <v>44621</v>
+      </c>
+      <c r="C32" s="3">
+        <v>611918</v>
+      </c>
+      <c r="D32" s="3">
+        <v>600194</v>
+      </c>
+      <c r="E32" s="3">
+        <v>523</v>
+      </c>
+      <c r="F32" s="3">
+        <v>55693</v>
+      </c>
+      <c r="G32" s="3">
+        <v>9204</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3089</v>
+      </c>
+      <c r="I32" s="3">
+        <v>77</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1820</v>
+      </c>
+      <c r="L32" s="3">
+        <v>55146</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3885</v>
+      </c>
+      <c r="N32" s="3">
+        <v>31565</v>
+      </c>
+      <c r="O32" s="3">
+        <v>18897</v>
+      </c>
+      <c r="P32" s="3">
+        <v>36589</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2568</v>
+      </c>
+      <c r="R32" s="3">
+        <v>46254</v>
+      </c>
+      <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="Z24" s="2" t="s">
+      <c r="T32" s="3">
+        <v>113789</v>
+      </c>
+      <c r="U32" s="3">
+        <v>5441</v>
+      </c>
+      <c r="V32" s="3">
+        <v>4530</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1276</v>
+      </c>
+      <c r="X32" s="3">
+        <v>11016</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="15">
+        <v>44593</v>
+      </c>
+      <c r="C33" s="12">
+        <v>609072</v>
+      </c>
+      <c r="D33" s="12">
+        <v>597797</v>
+      </c>
+      <c r="E33" s="12">
+        <v>523</v>
+      </c>
+      <c r="F33" s="12">
+        <v>55620</v>
+      </c>
+      <c r="G33" s="12">
+        <v>9119</v>
+      </c>
+      <c r="H33" s="12">
+        <v>3048</v>
+      </c>
+      <c r="I33" s="12">
+        <v>77</v>
+      </c>
+      <c r="J33" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K33" s="12">
+        <v>1803</v>
+      </c>
+      <c r="L33" s="12">
+        <v>54943</v>
+      </c>
+      <c r="M33" s="12">
+        <v>3886</v>
+      </c>
+      <c r="N33" s="12">
+        <v>31259</v>
+      </c>
+      <c r="O33" s="12">
+        <v>18473</v>
+      </c>
+      <c r="P33" s="12">
+        <v>35996</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>2581</v>
+      </c>
+      <c r="R33" s="12">
+        <v>45940</v>
+      </c>
+      <c r="S33" s="12">
         <v>1</v>
       </c>
+      <c r="T33" s="12">
+        <v>112805</v>
+      </c>
+      <c r="U33" s="12">
+        <v>5407</v>
+      </c>
+      <c r="V33" s="12">
+        <v>4480</v>
+      </c>
+      <c r="W33" s="12">
+        <v>1159</v>
+      </c>
+      <c r="X33" s="12">
+        <v>10978</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>16</v>
+      </c>
+      <c r="Z33" s="23">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="16">
+        <v>44562</v>
+      </c>
+      <c r="C34" s="6">
+        <v>607150</v>
+      </c>
+      <c r="D34" s="6">
+        <v>596005</v>
+      </c>
+      <c r="E34" s="6">
+        <v>524</v>
+      </c>
+      <c r="F34" s="6">
+        <v>55683</v>
+      </c>
+      <c r="G34" s="6">
+        <v>9107</v>
+      </c>
+      <c r="H34" s="6">
+        <v>3044</v>
+      </c>
+      <c r="I34" s="6">
+        <v>77</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1424</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1789</v>
+      </c>
+      <c r="L34" s="6">
+        <v>54848</v>
+      </c>
+      <c r="M34" s="6">
+        <v>3889</v>
+      </c>
+      <c r="N34" s="6">
+        <v>31054</v>
+      </c>
+      <c r="O34" s="6">
+        <v>18394</v>
+      </c>
+      <c r="P34" s="6">
+        <v>35736</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>2573</v>
+      </c>
+      <c r="R34" s="6">
+        <v>45388</v>
+      </c>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6">
+        <v>112333</v>
+      </c>
+      <c r="U34" s="6">
+        <v>5355</v>
+      </c>
+      <c r="V34" s="6">
+        <v>4440</v>
+      </c>
+      <c r="W34" s="6">
+        <v>1030</v>
+      </c>
+      <c r="X34" s="6">
+        <v>10960</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="15">
+        <v>44531</v>
+      </c>
+      <c r="C35" s="12">
+        <v>606090</v>
+      </c>
+      <c r="D35" s="12">
+        <v>594443</v>
+      </c>
+      <c r="E35" s="12">
+        <v>520</v>
+      </c>
+      <c r="F35" s="12">
+        <v>55717</v>
+      </c>
+      <c r="G35" s="12">
+        <v>9091</v>
+      </c>
+      <c r="H35" s="12">
+        <v>3021</v>
+      </c>
+      <c r="I35" s="12">
+        <v>77</v>
+      </c>
+      <c r="J35" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K35" s="12">
+        <v>1787</v>
+      </c>
+      <c r="L35" s="12">
+        <v>54743</v>
+      </c>
+      <c r="M35" s="12">
+        <v>3888</v>
+      </c>
+      <c r="N35" s="12">
+        <v>30885</v>
+      </c>
+      <c r="O35" s="12">
+        <v>18334</v>
+      </c>
+      <c r="P35" s="12">
+        <v>35952</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>2604</v>
+      </c>
+      <c r="R35" s="12">
+        <v>45157</v>
+      </c>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12">
+        <v>111857</v>
+      </c>
+      <c r="U35" s="12">
+        <v>5309</v>
+      </c>
+      <c r="V35" s="12">
+        <v>4400</v>
+      </c>
+      <c r="W35" s="12">
+        <v>957</v>
+      </c>
+      <c r="X35" s="12">
+        <v>10938</v>
+      </c>
+      <c r="Y35" s="12">
+        <v>16</v>
+      </c>
+      <c r="Z35" s="23">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="14">
+        <v>44501</v>
+      </c>
+      <c r="C36" s="3">
+        <v>603380</v>
+      </c>
+      <c r="D36" s="3">
+        <v>591451</v>
+      </c>
+      <c r="E36" s="3">
+        <v>519</v>
+      </c>
+      <c r="F36" s="3">
+        <v>55656</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9054</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2985</v>
+      </c>
+      <c r="I36" s="3">
+        <v>77</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1775</v>
+      </c>
+      <c r="L36" s="3">
+        <v>54335</v>
+      </c>
+      <c r="M36" s="3">
+        <v>3888</v>
+      </c>
+      <c r="N36" s="3">
+        <v>30589</v>
+      </c>
+      <c r="O36" s="3">
+        <v>18224</v>
+      </c>
+      <c r="P36" s="3">
+        <v>35977</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>2594</v>
+      </c>
+      <c r="R36" s="3">
+        <v>44663</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3">
+        <v>110970</v>
+      </c>
+      <c r="U36" s="3">
+        <v>5249</v>
+      </c>
+      <c r="V36" s="3">
+        <v>4357</v>
+      </c>
+      <c r="W36" s="3">
+        <v>868</v>
+      </c>
+      <c r="X36" s="3">
+        <v>10873</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="15">
+        <v>44470</v>
+      </c>
+      <c r="C37" s="12">
+        <v>602061</v>
+      </c>
+      <c r="D37" s="12">
+        <v>590200</v>
+      </c>
+      <c r="E37" s="12">
+        <v>520</v>
+      </c>
+      <c r="F37" s="12">
+        <v>55685</v>
+      </c>
+      <c r="G37" s="12">
+        <v>8999</v>
+      </c>
+      <c r="H37" s="12">
+        <v>2982</v>
+      </c>
+      <c r="I37" s="12">
+        <v>77</v>
+      </c>
+      <c r="J37" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K37" s="12">
+        <v>1768</v>
+      </c>
+      <c r="L37" s="12">
+        <v>54086</v>
+      </c>
+      <c r="M37" s="12">
+        <v>3885</v>
+      </c>
+      <c r="N37" s="12">
+        <v>30303</v>
+      </c>
+      <c r="O37" s="12">
+        <v>18211</v>
+      </c>
+      <c r="P37" s="12">
+        <v>36050</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>2611</v>
+      </c>
+      <c r="R37" s="12">
+        <v>44484</v>
+      </c>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12">
+        <v>110396</v>
+      </c>
+      <c r="U37" s="12">
+        <v>5205</v>
+      </c>
+      <c r="V37" s="12">
+        <v>4316</v>
+      </c>
+      <c r="W37" s="12">
+        <v>836</v>
+      </c>
+      <c r="X37" s="12">
+        <v>10858</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>16</v>
+      </c>
+      <c r="Z37" s="23">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="14">
+        <v>44440</v>
+      </c>
+      <c r="C38" s="3">
+        <v>599199</v>
+      </c>
+      <c r="D38" s="3">
+        <v>586326</v>
+      </c>
+      <c r="E38" s="3">
+        <v>516</v>
+      </c>
+      <c r="F38" s="3">
+        <v>55678</v>
+      </c>
+      <c r="G38" s="3">
+        <v>8883</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2962</v>
+      </c>
+      <c r="I38" s="3">
+        <v>77</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1761</v>
+      </c>
+      <c r="L38" s="3">
+        <v>53840</v>
+      </c>
+      <c r="M38" s="3">
+        <v>3878</v>
+      </c>
+      <c r="N38" s="3">
+        <v>30091</v>
+      </c>
+      <c r="O38" s="3">
+        <v>18180</v>
+      </c>
+      <c r="P38" s="3">
+        <v>35973</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>2618</v>
+      </c>
+      <c r="R38" s="3">
+        <v>43957</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3">
+        <v>110047</v>
+      </c>
+      <c r="U38" s="3">
+        <v>5137</v>
+      </c>
+      <c r="V38" s="3">
+        <v>4253</v>
+      </c>
+      <c r="W38" s="3">
+        <v>705</v>
+      </c>
+      <c r="X38" s="3">
+        <v>10790</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="15">
+        <v>44409</v>
+      </c>
+      <c r="C39" s="12">
+        <v>597975</v>
+      </c>
+      <c r="D39" s="12">
+        <v>583854</v>
+      </c>
+      <c r="E39" s="12">
+        <v>505</v>
+      </c>
+      <c r="F39" s="12">
+        <v>55668</v>
+      </c>
+      <c r="G39" s="12">
+        <v>8821</v>
+      </c>
+      <c r="H39" s="12">
+        <v>2977</v>
+      </c>
+      <c r="I39" s="12">
+        <v>77</v>
+      </c>
+      <c r="J39" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K39" s="12">
+        <v>1753</v>
+      </c>
+      <c r="L39" s="12">
+        <v>53278</v>
+      </c>
+      <c r="M39" s="12">
+        <v>3892</v>
+      </c>
+      <c r="N39" s="12">
+        <v>29694</v>
+      </c>
+      <c r="O39" s="12">
+        <v>18180</v>
+      </c>
+      <c r="P39" s="12">
+        <v>35973</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>2605</v>
+      </c>
+      <c r="R39" s="12">
+        <v>42961</v>
+      </c>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12">
+        <v>138152</v>
+      </c>
+      <c r="U39" s="12">
+        <v>6095</v>
+      </c>
+      <c r="V39" s="12">
+        <v>4045</v>
+      </c>
+      <c r="W39" s="12">
+        <v>666</v>
+      </c>
+      <c r="X39" s="12">
+        <v>10713</v>
+      </c>
+      <c r="Y39" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z39" s="23">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="14">
+        <v>44378</v>
+      </c>
+      <c r="C40" s="3">
+        <v>594590</v>
+      </c>
+      <c r="D40" s="3">
+        <v>580812</v>
+      </c>
+      <c r="E40" s="3">
+        <v>505</v>
+      </c>
+      <c r="F40" s="3">
+        <v>55750</v>
+      </c>
+      <c r="G40" s="3">
+        <v>8821</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2979</v>
+      </c>
+      <c r="I40" s="3">
+        <v>77</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1754</v>
+      </c>
+      <c r="L40" s="3">
+        <v>53393</v>
+      </c>
+      <c r="M40" s="3">
+        <v>3894</v>
+      </c>
+      <c r="N40" s="3">
+        <v>29714</v>
+      </c>
+      <c r="O40" s="3">
+        <v>17962</v>
+      </c>
+      <c r="P40" s="3">
+        <v>36188</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>2604</v>
+      </c>
+      <c r="R40" s="3">
+        <v>42900</v>
+      </c>
+      <c r="S40" s="3">
+        <v>1</v>
+      </c>
+      <c r="T40" s="3">
+        <v>109339</v>
+      </c>
+      <c r="U40" s="3">
+        <v>5068</v>
+      </c>
+      <c r="V40" s="3">
+        <v>4043</v>
+      </c>
+      <c r="W40" s="3">
+        <v>666</v>
+      </c>
+      <c r="X40" s="3">
+        <v>10697</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="15">
+        <v>44348</v>
+      </c>
+      <c r="C41" s="12">
+        <v>593307</v>
+      </c>
+      <c r="D41" s="12">
+        <v>578970</v>
+      </c>
+      <c r="E41" s="12">
+        <v>511</v>
+      </c>
+      <c r="F41" s="12">
+        <v>55681</v>
+      </c>
+      <c r="G41" s="12">
+        <v>8835</v>
+      </c>
+      <c r="H41" s="12">
+        <v>2976</v>
+      </c>
+      <c r="I41" s="12">
+        <v>77</v>
+      </c>
+      <c r="J41" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K41" s="12">
+        <v>1750</v>
+      </c>
+      <c r="L41" s="12">
+        <v>53077</v>
+      </c>
+      <c r="M41" s="12">
+        <v>3889</v>
+      </c>
+      <c r="N41" s="12">
+        <v>29454</v>
+      </c>
+      <c r="O41" s="12">
+        <v>20219</v>
+      </c>
+      <c r="P41" s="12">
+        <v>37753</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>2598</v>
+      </c>
+      <c r="R41" s="12">
+        <v>42432</v>
+      </c>
+      <c r="S41" s="12">
+        <v>1</v>
+      </c>
+      <c r="T41" s="12">
+        <v>109131</v>
+      </c>
+      <c r="U41" s="12">
+        <v>4950</v>
+      </c>
+      <c r="V41" s="12">
+        <v>4018</v>
+      </c>
+      <c r="W41" s="12">
+        <v>650</v>
+      </c>
+      <c r="X41" s="12">
+        <v>10710</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z41" s="23">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="14">
+        <v>44317</v>
+      </c>
+      <c r="C42" s="3">
+        <v>590245</v>
+      </c>
+      <c r="D42" s="3">
+        <v>576050</v>
+      </c>
+      <c r="E42" s="3">
+        <v>510</v>
+      </c>
+      <c r="F42" s="3">
+        <v>55725</v>
+      </c>
+      <c r="G42" s="3">
+        <v>8835</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2957</v>
+      </c>
+      <c r="I42" s="3">
+        <v>77</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1740</v>
+      </c>
+      <c r="L42" s="3">
+        <v>52924</v>
+      </c>
+      <c r="M42" s="3">
+        <v>3886</v>
+      </c>
+      <c r="N42" s="3">
+        <v>29218</v>
+      </c>
+      <c r="O42" s="3">
+        <v>17867</v>
+      </c>
+      <c r="P42" s="3">
+        <v>36460</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>2606</v>
+      </c>
+      <c r="R42" s="3">
+        <v>42065</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3">
+        <v>108383</v>
+      </c>
+      <c r="U42" s="3">
+        <v>4897</v>
+      </c>
+      <c r="V42" s="3">
+        <v>3940</v>
+      </c>
+      <c r="W42" s="3">
+        <v>634</v>
+      </c>
+      <c r="X42" s="3">
+        <v>10660</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="15">
+        <v>44287</v>
+      </c>
+      <c r="C43" s="12">
+        <v>588077</v>
+      </c>
+      <c r="D43" s="12">
+        <v>573877</v>
+      </c>
+      <c r="E43" s="12">
+        <v>509</v>
+      </c>
+      <c r="F43" s="12">
+        <v>55905</v>
+      </c>
+      <c r="G43" s="12">
+        <v>8876</v>
+      </c>
+      <c r="H43" s="12">
+        <v>2941</v>
+      </c>
+      <c r="I43" s="12">
+        <v>77</v>
+      </c>
+      <c r="J43" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K43" s="12">
+        <v>1741</v>
+      </c>
+      <c r="L43" s="12">
+        <v>52732</v>
+      </c>
+      <c r="M43" s="12">
+        <v>3884</v>
+      </c>
+      <c r="N43" s="12">
+        <v>29115</v>
+      </c>
+      <c r="O43" s="12">
+        <v>17854</v>
+      </c>
+      <c r="P43" s="12">
+        <v>36552</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>2596</v>
+      </c>
+      <c r="R43" s="12">
+        <v>41550</v>
+      </c>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12">
+        <v>107848</v>
+      </c>
+      <c r="U43" s="12">
+        <v>4861</v>
+      </c>
+      <c r="V43" s="12">
+        <v>3840</v>
+      </c>
+      <c r="W43" s="12">
+        <v>623</v>
+      </c>
+      <c r="X43" s="12">
+        <v>10625</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z43" s="23">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="14">
+        <v>44256</v>
+      </c>
+      <c r="C44" s="3">
+        <v>586093</v>
+      </c>
+      <c r="D44" s="3">
+        <v>571129</v>
+      </c>
+      <c r="E44" s="3">
+        <v>508</v>
+      </c>
+      <c r="F44" s="3">
+        <v>56021</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8878</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2934</v>
+      </c>
+      <c r="I44" s="3">
+        <v>77</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1732</v>
+      </c>
+      <c r="L44" s="3">
+        <v>52504</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3883</v>
+      </c>
+      <c r="N44" s="3">
+        <v>29014</v>
+      </c>
+      <c r="O44" s="3">
+        <v>17887</v>
+      </c>
+      <c r="P44" s="3">
+        <v>36498</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>2578</v>
+      </c>
+      <c r="R44" s="3">
+        <v>40750</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>107480</v>
+      </c>
+      <c r="U44" s="3">
+        <v>4839</v>
+      </c>
+      <c r="V44" s="3">
+        <v>3789</v>
+      </c>
+      <c r="W44" s="3">
+        <v>621</v>
+      </c>
+      <c r="X44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="15">
+        <v>44228</v>
+      </c>
+      <c r="C45" s="12">
+        <v>583440</v>
+      </c>
+      <c r="D45" s="12">
+        <v>567677</v>
+      </c>
+      <c r="E45" s="12">
+        <v>507</v>
+      </c>
+      <c r="F45" s="12">
+        <v>56059</v>
+      </c>
+      <c r="G45" s="12">
+        <v>8871</v>
+      </c>
+      <c r="H45" s="12">
+        <v>2921</v>
+      </c>
+      <c r="I45" s="12">
+        <v>77</v>
+      </c>
+      <c r="J45" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K45" s="12">
+        <v>1728</v>
+      </c>
+      <c r="L45" s="12">
+        <v>52301</v>
+      </c>
+      <c r="M45" s="12">
+        <v>3880</v>
+      </c>
+      <c r="N45" s="12">
+        <v>28867</v>
+      </c>
+      <c r="O45" s="12">
+        <v>17889</v>
+      </c>
+      <c r="P45" s="12">
+        <v>36421</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>2569</v>
+      </c>
+      <c r="R45" s="12">
+        <v>39851</v>
+      </c>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12">
+        <v>106898</v>
+      </c>
+      <c r="U45" s="12">
+        <v>4801</v>
+      </c>
+      <c r="V45" s="12">
+        <v>3689</v>
+      </c>
+      <c r="W45" s="12">
+        <v>585</v>
+      </c>
+      <c r="X45" s="12">
+        <v>10566</v>
+      </c>
+      <c r="Y45" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z45" s="23">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="16">
+        <v>44197</v>
+      </c>
+      <c r="C46" s="6">
+        <v>581299</v>
+      </c>
+      <c r="D46" s="6">
+        <v>565156</v>
+      </c>
+      <c r="E46" s="6">
+        <v>507</v>
+      </c>
+      <c r="F46" s="6">
+        <v>56230</v>
+      </c>
+      <c r="G46" s="6">
+        <v>8897</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2930</v>
+      </c>
+      <c r="I46" s="6">
+        <v>77</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1424</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1727</v>
+      </c>
+      <c r="L46" s="6">
+        <v>52149</v>
+      </c>
+      <c r="M46" s="6">
+        <v>3874</v>
+      </c>
+      <c r="N46" s="6">
+        <v>28827</v>
+      </c>
+      <c r="O46" s="6">
+        <v>17957</v>
+      </c>
+      <c r="P46" s="6">
+        <v>36403</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>2555</v>
+      </c>
+      <c r="R46" s="6">
+        <v>39272</v>
+      </c>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6">
+        <v>106698</v>
+      </c>
+      <c r="U46" s="6">
+        <v>4780</v>
+      </c>
+      <c r="V46" s="6">
+        <v>3642</v>
+      </c>
+      <c r="W46" s="6">
+        <v>578</v>
+      </c>
+      <c r="X46" s="6">
+        <v>10557</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="15">
+        <v>44166</v>
+      </c>
+      <c r="C47" s="12">
+        <v>580035</v>
+      </c>
+      <c r="D47" s="12">
+        <v>563400</v>
+      </c>
+      <c r="E47" s="12">
+        <v>505</v>
+      </c>
+      <c r="F47" s="12">
+        <v>56274</v>
+      </c>
+      <c r="G47" s="12">
+        <v>8916</v>
+      </c>
+      <c r="H47" s="12">
+        <v>2933</v>
+      </c>
+      <c r="I47" s="12">
+        <v>77</v>
+      </c>
+      <c r="J47" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K47" s="12">
+        <v>1736</v>
+      </c>
+      <c r="L47" s="12">
+        <v>52012</v>
+      </c>
+      <c r="M47" s="12">
+        <v>3877</v>
+      </c>
+      <c r="N47" s="12">
+        <v>28815</v>
+      </c>
+      <c r="O47" s="12">
+        <v>18007</v>
+      </c>
+      <c r="P47" s="12">
+        <v>36384</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>2551</v>
+      </c>
+      <c r="R47" s="12">
+        <v>38799</v>
+      </c>
+      <c r="S47" s="12">
+        <v>0</v>
+      </c>
+      <c r="T47" s="12">
+        <v>106486</v>
+      </c>
+      <c r="U47" s="12">
+        <v>4754</v>
+      </c>
+      <c r="V47" s="12">
+        <v>3612</v>
+      </c>
+      <c r="W47" s="12">
+        <v>569</v>
+      </c>
+      <c r="X47" s="12">
+        <v>10542</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z47" s="23">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="14">
+        <v>44136</v>
+      </c>
+      <c r="C48" s="3">
+        <v>576835</v>
+      </c>
+      <c r="D48" s="3">
+        <v>560383</v>
+      </c>
+      <c r="E48" s="3">
+        <v>501</v>
+      </c>
+      <c r="F48" s="3">
+        <v>56253</v>
+      </c>
+      <c r="G48" s="3">
+        <v>8958</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2929</v>
+      </c>
+      <c r="I48" s="3">
+        <v>77</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1734</v>
+      </c>
+      <c r="L48" s="3">
+        <v>51472</v>
+      </c>
+      <c r="M48" s="3">
+        <v>3876</v>
+      </c>
+      <c r="N48" s="3">
+        <v>28607</v>
+      </c>
+      <c r="O48" s="3">
+        <v>17914</v>
+      </c>
+      <c r="P48" s="3">
+        <v>36355</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2550</v>
+      </c>
+      <c r="R48" s="3">
+        <v>37952</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>106174</v>
+      </c>
+      <c r="U48" s="3">
+        <v>4716</v>
+      </c>
+      <c r="V48" s="3">
+        <v>3542</v>
+      </c>
+      <c r="W48" s="3">
+        <v>553</v>
+      </c>
+      <c r="X48" s="3">
+        <v>10450</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="15">
+        <v>44105</v>
+      </c>
+      <c r="C49" s="12">
+        <v>574056</v>
+      </c>
+      <c r="D49" s="12">
+        <v>556941</v>
+      </c>
+      <c r="E49" s="12">
+        <v>499</v>
+      </c>
+      <c r="F49" s="12">
+        <v>56245</v>
+      </c>
+      <c r="G49" s="12">
+        <v>8933</v>
+      </c>
+      <c r="H49" s="12">
+        <v>2902</v>
+      </c>
+      <c r="I49" s="12">
+        <v>77</v>
+      </c>
+      <c r="J49" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K49" s="12">
+        <v>1739</v>
+      </c>
+      <c r="L49" s="12">
+        <v>51341</v>
+      </c>
+      <c r="M49" s="12">
+        <v>3877</v>
+      </c>
+      <c r="N49" s="12">
+        <v>28460</v>
+      </c>
+      <c r="O49" s="12">
+        <v>17784</v>
+      </c>
+      <c r="P49" s="12">
+        <v>36186</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>2539</v>
+      </c>
+      <c r="R49" s="12">
+        <v>37095</v>
+      </c>
+      <c r="S49" s="12">
+        <v>1</v>
+      </c>
+      <c r="T49" s="12">
+        <v>105781</v>
+      </c>
+      <c r="U49" s="12">
+        <v>4675</v>
+      </c>
+      <c r="V49" s="12">
+        <v>3405</v>
+      </c>
+      <c r="W49" s="12">
+        <v>535</v>
+      </c>
+      <c r="X49" s="12">
+        <v>10417</v>
+      </c>
+      <c r="Y49" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z49" s="23">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="14">
+        <v>44075</v>
+      </c>
+      <c r="C50" s="3">
+        <v>571367</v>
+      </c>
+      <c r="D50" s="3">
+        <v>552611</v>
+      </c>
+      <c r="E50" s="3">
+        <v>495</v>
+      </c>
+      <c r="F50" s="3">
+        <v>56341</v>
+      </c>
+      <c r="G50" s="3">
+        <v>9019</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2941</v>
+      </c>
+      <c r="I50" s="3">
+        <v>77</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1746</v>
+      </c>
+      <c r="L50" s="3">
+        <v>51196</v>
+      </c>
+      <c r="M50" s="3">
+        <v>3879</v>
+      </c>
+      <c r="N50" s="3">
+        <v>28351</v>
+      </c>
+      <c r="O50" s="3">
+        <v>17563</v>
+      </c>
+      <c r="P50" s="3">
+        <v>35861</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>2521</v>
+      </c>
+      <c r="R50" s="3">
+        <v>36352</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3">
+        <v>105315</v>
+      </c>
+      <c r="U50" s="3">
+        <v>4640</v>
+      </c>
+      <c r="V50" s="3">
+        <v>3253</v>
+      </c>
+      <c r="W50" s="3">
+        <v>533</v>
+      </c>
+      <c r="X50" s="3">
+        <v>10374</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="15">
+        <v>44044</v>
+      </c>
+      <c r="C51" s="12">
+        <v>569174</v>
+      </c>
+      <c r="D51" s="12">
+        <v>549631</v>
+      </c>
+      <c r="E51" s="12">
+        <v>496</v>
+      </c>
+      <c r="F51" s="12">
+        <v>56348</v>
+      </c>
+      <c r="G51" s="12">
+        <v>9127</v>
+      </c>
+      <c r="H51" s="12">
+        <v>2959</v>
+      </c>
+      <c r="I51" s="12">
+        <v>77</v>
+      </c>
+      <c r="J51" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K51" s="12">
+        <v>1745</v>
+      </c>
+      <c r="L51" s="12">
+        <v>51089</v>
+      </c>
+      <c r="M51" s="12">
+        <v>3866</v>
+      </c>
+      <c r="N51" s="12">
+        <v>28370</v>
+      </c>
+      <c r="O51" s="12">
+        <v>17421</v>
+      </c>
+      <c r="P51" s="12">
+        <v>35866</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>2504</v>
+      </c>
+      <c r="R51" s="12">
+        <v>35789</v>
+      </c>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12">
+        <v>104940</v>
+      </c>
+      <c r="U51" s="12">
+        <v>4612</v>
+      </c>
+      <c r="V51" s="12">
+        <v>3208</v>
+      </c>
+      <c r="W51" s="12">
+        <v>503</v>
+      </c>
+      <c r="X51" s="12">
+        <v>10368</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z51" s="23">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="14">
+        <v>44013</v>
+      </c>
+      <c r="C52" s="3">
+        <v>567168</v>
+      </c>
+      <c r="D52" s="3">
+        <v>547540</v>
+      </c>
+      <c r="E52" s="3">
+        <v>498</v>
+      </c>
+      <c r="F52" s="3">
+        <v>56269</v>
+      </c>
+      <c r="G52" s="3">
+        <v>9193</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2973</v>
+      </c>
+      <c r="I52" s="3">
+        <v>77</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1747</v>
+      </c>
+      <c r="L52" s="3">
+        <v>50966</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3857</v>
+      </c>
+      <c r="N52" s="3">
+        <v>28348</v>
+      </c>
+      <c r="O52" s="3">
+        <v>17331</v>
+      </c>
+      <c r="P52" s="3">
+        <v>35832</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>2489</v>
+      </c>
+      <c r="R52" s="3">
+        <v>35300</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3">
+        <v>104554</v>
+      </c>
+      <c r="U52" s="3">
+        <v>4605</v>
+      </c>
+      <c r="V52" s="3">
+        <v>3183</v>
+      </c>
+      <c r="W52" s="3">
+        <v>491</v>
+      </c>
+      <c r="X52" s="3">
+        <v>10340</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="15">
+        <v>43983</v>
+      </c>
+      <c r="C53" s="12">
+        <v>566042</v>
+      </c>
+      <c r="D53" s="12">
+        <v>545916</v>
+      </c>
+      <c r="E53" s="12">
+        <v>498</v>
+      </c>
+      <c r="F53" s="12">
+        <v>56291</v>
+      </c>
+      <c r="G53" s="12">
+        <v>9187</v>
+      </c>
+      <c r="H53" s="12">
+        <v>2980</v>
+      </c>
+      <c r="I53" s="12">
+        <v>77</v>
+      </c>
+      <c r="J53" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K53" s="12">
+        <v>1748</v>
+      </c>
+      <c r="L53" s="12">
+        <v>50878</v>
+      </c>
+      <c r="M53" s="12">
+        <v>3863</v>
+      </c>
+      <c r="N53" s="12">
+        <v>28349</v>
+      </c>
+      <c r="O53" s="12">
+        <v>17359</v>
+      </c>
+      <c r="P53" s="12">
+        <v>35902</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>2485</v>
+      </c>
+      <c r="R53" s="12">
+        <v>35117</v>
+      </c>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12">
+        <v>104123</v>
+      </c>
+      <c r="U53" s="12">
+        <v>4584</v>
+      </c>
+      <c r="V53" s="12">
+        <v>3179</v>
+      </c>
+      <c r="W53" s="12">
+        <v>489</v>
+      </c>
+      <c r="X53" s="12">
+        <v>10327</v>
+      </c>
+      <c r="Y53" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z53" s="23">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="14">
+        <v>43952</v>
+      </c>
+      <c r="C54" s="3">
+        <v>565980</v>
+      </c>
+      <c r="D54" s="3">
+        <v>545400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>499</v>
+      </c>
+      <c r="F54" s="3">
+        <v>56275</v>
+      </c>
+      <c r="G54" s="3">
+        <v>9187</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2982</v>
+      </c>
+      <c r="I54" s="3">
+        <v>77</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1755</v>
+      </c>
+      <c r="L54" s="3">
+        <v>50805</v>
+      </c>
+      <c r="M54" s="3">
+        <v>3864</v>
+      </c>
+      <c r="N54" s="3">
+        <v>28294</v>
+      </c>
+      <c r="O54" s="3">
+        <v>17361</v>
+      </c>
+      <c r="P54" s="3">
+        <v>36010</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>2485</v>
+      </c>
+      <c r="R54" s="3">
+        <v>34872</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3">
+        <v>104093</v>
+      </c>
+      <c r="U54" s="3">
+        <v>4584</v>
+      </c>
+      <c r="V54" s="3">
+        <v>3174</v>
+      </c>
+      <c r="W54" s="3">
+        <v>486</v>
+      </c>
+      <c r="X54" s="3">
+        <v>10322</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="15">
+        <v>43922</v>
+      </c>
+      <c r="C55" s="12">
+        <v>565883</v>
+      </c>
+      <c r="D55" s="12">
+        <v>545244</v>
+      </c>
+      <c r="E55" s="12">
+        <v>499</v>
+      </c>
+      <c r="F55" s="12">
+        <v>56275</v>
+      </c>
+      <c r="G55" s="12">
+        <v>9189</v>
+      </c>
+      <c r="H55" s="12">
+        <v>2982</v>
+      </c>
+      <c r="I55" s="12">
+        <v>77</v>
+      </c>
+      <c r="J55" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K55" s="12">
+        <v>1755</v>
+      </c>
+      <c r="L55" s="12">
+        <v>50796</v>
+      </c>
+      <c r="M55" s="12">
+        <v>3864</v>
+      </c>
+      <c r="N55" s="12">
+        <v>28297</v>
+      </c>
+      <c r="O55" s="12">
+        <v>17361</v>
+      </c>
+      <c r="P55" s="12">
+        <v>36010</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>2485</v>
+      </c>
+      <c r="R55" s="12">
+        <v>34862</v>
+      </c>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12">
+        <v>104076</v>
+      </c>
+      <c r="U55" s="12">
+        <v>4584</v>
+      </c>
+      <c r="V55" s="12">
+        <v>3174</v>
+      </c>
+      <c r="W55" s="12">
+        <v>486</v>
+      </c>
+      <c r="X55" s="12">
+        <v>10322</v>
+      </c>
+      <c r="Y55" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z55" s="23">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="14">
+        <v>43891</v>
+      </c>
+      <c r="C56" s="3">
+        <v>565809</v>
+      </c>
+      <c r="D56" s="3">
+        <v>545128</v>
+      </c>
+      <c r="E56" s="3">
+        <v>499</v>
+      </c>
+      <c r="F56" s="3">
+        <v>56281</v>
+      </c>
+      <c r="G56" s="3">
+        <v>9189</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2982</v>
+      </c>
+      <c r="I56" s="3">
+        <v>77</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1755</v>
+      </c>
+      <c r="L56" s="3">
+        <v>50794</v>
+      </c>
+      <c r="M56" s="3">
+        <v>3867</v>
+      </c>
+      <c r="N56" s="3">
+        <v>28301</v>
+      </c>
+      <c r="O56" s="3">
+        <v>17361</v>
+      </c>
+      <c r="P56" s="3">
+        <v>36010</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>2487</v>
+      </c>
+      <c r="R56" s="3">
+        <v>34874</v>
+      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3">
+        <v>104084</v>
+      </c>
+      <c r="U56" s="3">
+        <v>4585</v>
+      </c>
+      <c r="V56" s="3">
+        <v>3174</v>
+      </c>
+      <c r="W56" s="3">
+        <v>486</v>
+      </c>
+      <c r="X56" s="3">
+        <v>10319</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="15">
+        <v>43862</v>
+      </c>
+      <c r="C57" s="12">
+        <v>564089</v>
+      </c>
+      <c r="D57" s="12">
+        <v>542595</v>
+      </c>
+      <c r="E57" s="12">
+        <v>496</v>
+      </c>
+      <c r="F57" s="12">
+        <v>56248</v>
+      </c>
+      <c r="G57" s="12">
+        <v>9180</v>
+      </c>
+      <c r="H57" s="12">
+        <v>2964</v>
+      </c>
+      <c r="I57" s="12">
+        <v>77</v>
+      </c>
+      <c r="J57" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K57" s="12">
+        <v>1745</v>
+      </c>
+      <c r="L57" s="12">
+        <v>50693</v>
+      </c>
+      <c r="M57" s="12">
+        <v>3869</v>
+      </c>
+      <c r="N57" s="12">
+        <v>28110</v>
+      </c>
+      <c r="O57" s="12">
+        <v>16719</v>
+      </c>
+      <c r="P57" s="12">
+        <v>35910</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>2467</v>
+      </c>
+      <c r="R57" s="12">
+        <v>34546</v>
+      </c>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12">
+        <v>103491</v>
+      </c>
+      <c r="U57" s="12">
+        <v>4545</v>
+      </c>
+      <c r="V57" s="12">
+        <v>3124</v>
+      </c>
+      <c r="W57" s="12">
+        <v>480</v>
+      </c>
+      <c r="X57" s="12">
+        <v>10285</v>
+      </c>
+      <c r="Y57" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z57" s="23">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="16">
+        <v>43831</v>
+      </c>
+      <c r="C58" s="6">
+        <v>562170</v>
+      </c>
+      <c r="D58" s="6">
+        <v>539768</v>
+      </c>
+      <c r="E58" s="6">
+        <v>496</v>
+      </c>
+      <c r="F58" s="6">
+        <v>56222</v>
+      </c>
+      <c r="G58" s="6">
+        <v>9165</v>
+      </c>
+      <c r="H58" s="6">
+        <v>2963</v>
+      </c>
+      <c r="I58" s="6">
+        <v>77</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1424</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1747</v>
+      </c>
+      <c r="L58" s="6">
+        <v>50528</v>
+      </c>
+      <c r="M58" s="6">
+        <v>3862</v>
+      </c>
+      <c r="N58" s="6">
+        <v>27916</v>
+      </c>
+      <c r="O58" s="6">
+        <v>16577</v>
+      </c>
+      <c r="P58" s="6">
+        <v>35720</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>2434</v>
+      </c>
+      <c r="R58" s="6">
+        <v>34311</v>
+      </c>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6">
+        <v>102764</v>
+      </c>
+      <c r="U58" s="6">
+        <v>4504</v>
+      </c>
+      <c r="V58" s="6">
+        <v>3103</v>
+      </c>
+      <c r="W58" s="6">
+        <v>461</v>
+      </c>
+      <c r="X58" s="6">
+        <v>10273</v>
+      </c>
+      <c r="Y58" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z58" s="6">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="15">
+        <v>43800</v>
+      </c>
+      <c r="C59" s="12">
+        <v>561061</v>
+      </c>
+      <c r="D59" s="12">
+        <v>537813</v>
+      </c>
+      <c r="E59" s="12">
+        <v>497</v>
+      </c>
+      <c r="F59" s="12">
+        <v>56256</v>
+      </c>
+      <c r="G59" s="12">
+        <v>9149</v>
+      </c>
+      <c r="H59" s="12">
+        <v>2965</v>
+      </c>
+      <c r="I59" s="12">
+        <v>77</v>
+      </c>
+      <c r="J59" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K59" s="12">
+        <v>1747</v>
+      </c>
+      <c r="L59" s="12">
+        <v>50432</v>
+      </c>
+      <c r="M59" s="12">
+        <v>3858</v>
+      </c>
+      <c r="N59" s="12">
+        <v>27818</v>
+      </c>
+      <c r="O59" s="12">
+        <v>16663</v>
+      </c>
+      <c r="P59" s="12">
+        <v>35664</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>2427</v>
+      </c>
+      <c r="R59" s="12">
+        <v>33984</v>
+      </c>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12">
+        <v>102021</v>
+      </c>
+      <c r="U59" s="12">
+        <v>4466</v>
+      </c>
+      <c r="V59" s="12">
+        <v>3102</v>
+      </c>
+      <c r="W59" s="12">
+        <v>462</v>
+      </c>
+      <c r="X59" s="12">
+        <v>10222</v>
+      </c>
+      <c r="Y59" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z59" s="23">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="14">
+        <v>43770</v>
+      </c>
+      <c r="C60" s="3">
+        <v>558626</v>
+      </c>
+      <c r="D60" s="3">
+        <v>535724</v>
+      </c>
+      <c r="E60" s="3">
+        <v>493</v>
+      </c>
+      <c r="F60" s="3">
+        <v>55998</v>
+      </c>
+      <c r="G60" s="3">
+        <v>9075</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2960</v>
+      </c>
+      <c r="I60" s="3">
+        <v>77</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1424</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1718</v>
+      </c>
+      <c r="L60" s="3">
+        <v>50135</v>
+      </c>
+      <c r="M60" s="3">
+        <v>3846</v>
+      </c>
+      <c r="N60" s="3">
+        <v>27391</v>
+      </c>
+      <c r="O60" s="3">
+        <v>16776</v>
+      </c>
+      <c r="P60" s="3">
+        <v>35622</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>2417</v>
+      </c>
+      <c r="R60" s="3">
+        <v>33833</v>
+      </c>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3">
+        <v>101688</v>
+      </c>
+      <c r="U60" s="3">
+        <v>4382</v>
+      </c>
+      <c r="V60" s="3">
+        <v>3068</v>
+      </c>
+      <c r="W60" s="3">
+        <v>453</v>
+      </c>
+      <c r="X60" s="3">
+        <v>10134</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="15">
+        <v>43739</v>
+      </c>
+      <c r="C61" s="12">
+        <v>556346</v>
+      </c>
+      <c r="D61" s="12">
+        <v>533069</v>
+      </c>
+      <c r="E61" s="12">
+        <v>492</v>
+      </c>
+      <c r="F61" s="12">
+        <v>55871</v>
+      </c>
+      <c r="G61" s="12">
+        <v>9008</v>
+      </c>
+      <c r="H61" s="12">
+        <v>2938</v>
+      </c>
+      <c r="I61" s="12">
+        <v>77</v>
+      </c>
+      <c r="J61" s="12">
+        <v>1424</v>
+      </c>
+      <c r="K61" s="12">
+        <v>1711</v>
+      </c>
+      <c r="L61" s="12">
+        <v>49943</v>
+      </c>
+      <c r="M61" s="12">
+        <v>3804</v>
+      </c>
+      <c r="N61" s="12">
+        <v>27062</v>
+      </c>
+      <c r="O61" s="12">
+        <v>16772</v>
+      </c>
+      <c r="P61" s="12">
+        <v>35650</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>2402</v>
+      </c>
+      <c r="R61" s="12">
+        <v>33575</v>
+      </c>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12">
+        <v>101067</v>
+      </c>
+      <c r="U61" s="12">
+        <v>4305</v>
+      </c>
+      <c r="V61" s="12">
+        <v>3036</v>
+      </c>
+      <c r="W61" s="12">
+        <v>442</v>
+      </c>
+      <c r="X61" s="12">
+        <v>10077</v>
+      </c>
+      <c r="Y61" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z61" s="23">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="14">
+        <v>43709</v>
+      </c>
+      <c r="C62" s="3">
+        <v>519860</v>
+      </c>
+      <c r="D62" s="3">
+        <v>505944</v>
+      </c>
+      <c r="E62" s="3">
+        <v>449</v>
+      </c>
+      <c r="F62" s="3">
+        <v>49255</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6176</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2186</v>
+      </c>
+      <c r="I62" s="3">
+        <v>73</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1413</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1713</v>
+      </c>
+      <c r="L62" s="3">
+        <v>43268</v>
+      </c>
+      <c r="M62" s="3">
+        <v>3801</v>
+      </c>
+      <c r="N62" s="3">
+        <v>26781</v>
+      </c>
+      <c r="O62" s="3">
+        <v>14771</v>
+      </c>
+      <c r="P62" s="3">
+        <v>34056</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>2388</v>
+      </c>
+      <c r="R62" s="3">
+        <v>33239</v>
+      </c>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3">
+        <v>100098</v>
+      </c>
+      <c r="U62" s="3">
+        <v>4230</v>
+      </c>
+      <c r="V62" s="3">
+        <v>2983</v>
+      </c>
+      <c r="W62" s="3">
+        <v>435</v>
+      </c>
+      <c r="X62" s="3">
+        <v>10048</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="15">
+        <v>43678</v>
+      </c>
+      <c r="C63" s="12">
+        <v>517666</v>
+      </c>
+      <c r="D63" s="12">
+        <v>503486</v>
+      </c>
+      <c r="E63" s="12">
+        <v>449</v>
+      </c>
+      <c r="F63" s="12">
+        <v>49171</v>
+      </c>
+      <c r="G63" s="12">
+        <v>6156</v>
+      </c>
+      <c r="H63" s="12">
+        <v>2183</v>
+      </c>
+      <c r="I63" s="12">
+        <v>73</v>
+      </c>
+      <c r="J63" s="12">
+        <v>1413</v>
+      </c>
+      <c r="K63" s="12">
+        <v>1710</v>
+      </c>
+      <c r="L63" s="12">
+        <v>43104</v>
+      </c>
+      <c r="M63" s="12">
+        <v>3785</v>
+      </c>
+      <c r="N63" s="12">
+        <v>26582</v>
+      </c>
+      <c r="O63" s="12">
+        <v>14832</v>
+      </c>
+      <c r="P63" s="12">
+        <v>34205</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>2384</v>
+      </c>
+      <c r="R63" s="12">
+        <v>33006</v>
+      </c>
+      <c r="S63" s="12">
+        <v>0</v>
+      </c>
+      <c r="T63" s="12">
+        <v>99490</v>
+      </c>
+      <c r="U63" s="12">
+        <v>4173</v>
+      </c>
+      <c r="V63" s="12">
+        <v>2926</v>
+      </c>
+      <c r="W63" s="12">
+        <v>420</v>
+      </c>
+      <c r="X63" s="12">
+        <v>10026</v>
+      </c>
+      <c r="Y63" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z63" s="23">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="14">
+        <v>43647</v>
+      </c>
+      <c r="C64" s="3">
+        <v>514393</v>
+      </c>
+      <c r="D64" s="3">
+        <v>498050</v>
+      </c>
+      <c r="E64" s="3">
+        <v>446</v>
+      </c>
+      <c r="F64" s="3">
+        <v>49300</v>
+      </c>
+      <c r="G64" s="3">
+        <v>6708</v>
+      </c>
+      <c r="H64" s="3">
+        <v>2319</v>
+      </c>
+      <c r="I64" s="3">
+        <v>74</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1417</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1686</v>
+      </c>
+      <c r="L64" s="3">
+        <v>43264</v>
+      </c>
+      <c r="M64" s="3">
+        <v>3716</v>
+      </c>
+      <c r="N64" s="3">
+        <v>25831</v>
+      </c>
+      <c r="O64" s="3">
+        <v>14426</v>
+      </c>
+      <c r="P64" s="3">
+        <v>33360</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>2308</v>
+      </c>
+      <c r="R64" s="3">
+        <v>31727</v>
+      </c>
+      <c r="S64" s="3">
+        <v>1</v>
+      </c>
+      <c r="T64" s="3">
+        <v>98049</v>
+      </c>
+      <c r="U64" s="3">
+        <v>4070</v>
+      </c>
+      <c r="V64" s="3">
+        <v>2777</v>
+      </c>
+      <c r="W64" s="3">
+        <v>374</v>
+      </c>
+      <c r="X64" s="3">
+        <v>9942</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="15">
+        <v>43617</v>
+      </c>
+      <c r="C65" s="12">
+        <v>512802</v>
+      </c>
+      <c r="D65" s="12">
+        <v>497796</v>
+      </c>
+      <c r="E65" s="12">
+        <v>444</v>
+      </c>
+      <c r="F65" s="12">
+        <v>49053</v>
+      </c>
+      <c r="G65" s="12">
+        <v>6156</v>
+      </c>
+      <c r="H65" s="12">
+        <v>2222</v>
+      </c>
+      <c r="I65" s="12">
+        <v>73</v>
+      </c>
+      <c r="J65" s="12">
+        <v>1413</v>
+      </c>
+      <c r="K65" s="12">
+        <v>1694</v>
+      </c>
+      <c r="L65" s="12">
+        <v>42573</v>
+      </c>
+      <c r="M65" s="12">
+        <v>3733</v>
+      </c>
+      <c r="N65" s="12">
+        <v>25944</v>
+      </c>
+      <c r="O65" s="12">
+        <v>14578</v>
+      </c>
+      <c r="P65" s="12">
+        <v>33417</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>2333</v>
+      </c>
+      <c r="R65" s="12">
+        <v>32236</v>
+      </c>
+      <c r="S65" s="12">
+        <v>0</v>
+      </c>
+      <c r="T65" s="12">
+        <v>98138</v>
+      </c>
+      <c r="U65" s="12">
+        <v>4072</v>
+      </c>
+      <c r="V65" s="12">
+        <v>2785</v>
+      </c>
+      <c r="W65" s="12">
+        <v>376</v>
+      </c>
+      <c r="X65" s="12">
+        <v>9919</v>
+      </c>
+      <c r="Y65" s="12">
+        <v>17</v>
+      </c>
+      <c r="Z65" s="23">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="14">
+        <v>43586</v>
+      </c>
+      <c r="C66" s="3">
+        <v>506850</v>
+      </c>
+      <c r="D66" s="3">
+        <v>499239</v>
+      </c>
+      <c r="E66" s="3">
+        <v>454</v>
+      </c>
+      <c r="F66" s="3">
+        <v>48604</v>
+      </c>
+      <c r="G66" s="3">
+        <v>7085</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2531</v>
+      </c>
+      <c r="I66" s="3">
+        <v>78</v>
+      </c>
+      <c r="J66" s="3">
+        <v>239</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2615</v>
+      </c>
+      <c r="L66" s="3">
+        <v>39728</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4268</v>
+      </c>
+      <c r="N66" s="3">
+        <v>28174</v>
+      </c>
+      <c r="O66" s="3">
+        <v>16305</v>
+      </c>
+      <c r="P66" s="3">
+        <v>35097</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>2307</v>
+      </c>
+      <c r="R66" s="3">
+        <v>31892</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1</v>
+      </c>
+      <c r="T66" s="3">
+        <v>98003</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3983</v>
+      </c>
+      <c r="V66" s="3">
+        <v>2752</v>
+      </c>
+      <c r="W66" s="3">
+        <v>374</v>
+      </c>
+      <c r="X66" s="3">
+        <v>11506</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="15">
+        <v>43556</v>
+      </c>
+      <c r="C67" s="12">
+        <v>504046</v>
+      </c>
+      <c r="D67" s="12">
+        <v>496323</v>
+      </c>
+      <c r="E67" s="12">
+        <v>451</v>
+      </c>
+      <c r="F67" s="12">
+        <v>48409</v>
+      </c>
+      <c r="G67" s="12">
+        <v>7032</v>
+      </c>
+      <c r="H67" s="12">
+        <v>2531</v>
+      </c>
+      <c r="I67" s="12">
+        <v>78</v>
+      </c>
+      <c r="J67" s="12">
+        <v>239</v>
+      </c>
+      <c r="K67" s="12">
+        <v>2596</v>
+      </c>
+      <c r="L67" s="12">
+        <v>39439</v>
+      </c>
+      <c r="M67" s="12">
+        <v>4234</v>
+      </c>
+      <c r="N67" s="12">
+        <v>27848</v>
+      </c>
+      <c r="O67" s="12">
+        <v>16180</v>
+      </c>
+      <c r="P67" s="12">
+        <v>34956</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>2284</v>
+      </c>
+      <c r="R67" s="12">
+        <v>31444</v>
+      </c>
+      <c r="S67" s="12">
+        <v>0</v>
+      </c>
+      <c r="T67" s="12">
+        <v>97190</v>
+      </c>
+      <c r="U67" s="12">
+        <v>3921</v>
+      </c>
+      <c r="V67" s="12">
+        <v>2705</v>
+      </c>
+      <c r="W67" s="12">
+        <v>364</v>
+      </c>
+      <c r="X67" s="12">
+        <v>11482</v>
+      </c>
+      <c r="Y67" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z67" s="23">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="14">
+        <v>43525</v>
+      </c>
+      <c r="C68" s="3">
+        <v>501424</v>
+      </c>
+      <c r="D68" s="3">
+        <v>493291</v>
+      </c>
+      <c r="E68" s="3">
+        <v>452</v>
+      </c>
+      <c r="F68" s="3">
+        <v>48079</v>
+      </c>
+      <c r="G68" s="3">
+        <v>7029</v>
+      </c>
+      <c r="H68" s="3">
+        <v>2509</v>
+      </c>
+      <c r="I68" s="3">
+        <v>77</v>
+      </c>
+      <c r="J68" s="3">
+        <v>239</v>
+      </c>
+      <c r="K68" s="3">
+        <v>2577</v>
+      </c>
+      <c r="L68" s="3">
+        <v>39178</v>
+      </c>
+      <c r="M68" s="3">
+        <v>4173</v>
+      </c>
+      <c r="N68" s="3">
+        <v>27415</v>
+      </c>
+      <c r="O68" s="3">
+        <v>15815</v>
+      </c>
+      <c r="P68" s="3">
+        <v>34582</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>2266</v>
+      </c>
+      <c r="R68" s="3">
+        <v>30934</v>
+      </c>
+      <c r="S68" s="3">
+        <v>1</v>
+      </c>
+      <c r="T68" s="3">
+        <v>96704</v>
+      </c>
+      <c r="U68" s="3">
+        <v>3869</v>
+      </c>
+      <c r="V68" s="3">
+        <v>2699</v>
+      </c>
+      <c r="W68" s="3">
+        <v>360</v>
+      </c>
+      <c r="X68" s="3">
+        <v>11467</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="15">
+        <v>43497</v>
+      </c>
+      <c r="C69" s="12">
+        <v>499221</v>
+      </c>
+      <c r="D69" s="12">
+        <v>490327</v>
+      </c>
+      <c r="E69" s="12">
+        <v>454</v>
+      </c>
+      <c r="F69" s="12">
+        <v>47999</v>
+      </c>
+      <c r="G69" s="12">
+        <v>7029</v>
+      </c>
+      <c r="H69" s="12">
+        <v>2518</v>
+      </c>
+      <c r="I69" s="12">
+        <v>77</v>
+      </c>
+      <c r="J69" s="12">
+        <v>239</v>
+      </c>
+      <c r="K69" s="12">
+        <v>2576</v>
+      </c>
+      <c r="L69" s="12">
+        <v>38838</v>
+      </c>
+      <c r="M69" s="12">
+        <v>4155</v>
+      </c>
+      <c r="N69" s="12">
+        <v>27148</v>
+      </c>
+      <c r="O69" s="12">
+        <v>15484</v>
+      </c>
+      <c r="P69" s="12">
+        <v>34221</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>2252</v>
+      </c>
+      <c r="R69" s="12">
+        <v>30634</v>
+      </c>
+      <c r="S69" s="12">
+        <v>1</v>
+      </c>
+      <c r="T69" s="12">
+        <v>96127</v>
+      </c>
+      <c r="U69" s="12">
+        <v>3815</v>
+      </c>
+      <c r="V69" s="12">
+        <v>2658</v>
+      </c>
+      <c r="W69" s="12">
+        <v>352</v>
+      </c>
+      <c r="X69" s="12">
+        <v>11454</v>
+      </c>
+      <c r="Y69" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z69" s="23">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="16">
+        <v>43466</v>
+      </c>
+      <c r="C70" s="6">
+        <v>497141</v>
+      </c>
+      <c r="D70" s="6">
+        <v>488120</v>
+      </c>
+      <c r="E70" s="6">
+        <v>452</v>
+      </c>
+      <c r="F70" s="6">
+        <v>47859</v>
+      </c>
+      <c r="G70" s="6">
+        <v>6968</v>
+      </c>
+      <c r="H70" s="6">
+        <v>2504</v>
+      </c>
+      <c r="I70" s="6">
+        <v>77</v>
+      </c>
+      <c r="J70" s="6">
+        <v>239</v>
+      </c>
+      <c r="K70" s="6">
+        <v>2565</v>
+      </c>
+      <c r="L70" s="6">
+        <v>38626</v>
+      </c>
+      <c r="M70" s="6">
+        <v>4150</v>
+      </c>
+      <c r="N70" s="6">
+        <v>26845</v>
+      </c>
+      <c r="O70" s="6">
+        <v>15304</v>
+      </c>
+      <c r="P70" s="6">
+        <v>34009</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>2246</v>
+      </c>
+      <c r="R70" s="6">
+        <v>30488</v>
+      </c>
+      <c r="S70" s="6">
+        <v>1</v>
+      </c>
+      <c r="T70" s="6">
+        <v>95504</v>
+      </c>
+      <c r="U70" s="6">
+        <v>3778</v>
+      </c>
+      <c r="V70" s="6">
+        <v>2638</v>
+      </c>
+      <c r="W70" s="6">
+        <v>344</v>
+      </c>
+      <c r="X70" s="6">
+        <v>11417</v>
+      </c>
+      <c r="Y70" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z70" s="6">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="15">
+        <v>43435</v>
+      </c>
+      <c r="C71" s="12">
+        <v>496057</v>
+      </c>
+      <c r="D71" s="12">
+        <v>486335</v>
+      </c>
+      <c r="E71" s="12">
+        <v>464</v>
+      </c>
+      <c r="F71" s="12">
+        <v>47780</v>
+      </c>
+      <c r="G71" s="12">
+        <v>6994</v>
+      </c>
+      <c r="H71" s="12">
+        <v>2508</v>
+      </c>
+      <c r="I71" s="12">
+        <v>78</v>
+      </c>
+      <c r="J71" s="12">
+        <v>239</v>
+      </c>
+      <c r="K71" s="12">
+        <v>2565</v>
+      </c>
+      <c r="L71" s="12">
+        <v>38415</v>
+      </c>
+      <c r="M71" s="12">
+        <v>4053</v>
+      </c>
+      <c r="N71" s="12">
+        <v>26683</v>
+      </c>
+      <c r="O71" s="12">
+        <v>15554</v>
+      </c>
+      <c r="P71" s="12">
+        <v>34018</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>2235</v>
+      </c>
+      <c r="R71" s="12">
+        <v>30111</v>
+      </c>
+      <c r="S71" s="12">
+        <v>1</v>
+      </c>
+      <c r="T71" s="12">
+        <v>94864</v>
+      </c>
+      <c r="U71" s="12">
+        <v>3723</v>
+      </c>
+      <c r="V71" s="12">
+        <v>2618</v>
+      </c>
+      <c r="W71" s="12">
+        <v>329</v>
+      </c>
+      <c r="X71" s="12">
+        <v>11369</v>
+      </c>
+      <c r="Y71" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z71" s="23">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="14">
+        <v>43405</v>
+      </c>
+      <c r="C72" s="3">
+        <v>493248</v>
+      </c>
+      <c r="D72" s="3">
+        <v>484343</v>
+      </c>
+      <c r="E72" s="3">
+        <v>467</v>
+      </c>
+      <c r="F72" s="3">
+        <v>47445</v>
+      </c>
+      <c r="G72" s="3">
+        <v>6904</v>
+      </c>
+      <c r="H72" s="3">
+        <v>2451</v>
+      </c>
+      <c r="I72" s="3">
+        <v>78</v>
+      </c>
+      <c r="J72" s="3">
+        <v>239</v>
+      </c>
+      <c r="K72" s="3">
+        <v>2547</v>
+      </c>
+      <c r="L72" s="3">
+        <v>38053</v>
+      </c>
+      <c r="M72" s="3">
+        <v>4033</v>
+      </c>
+      <c r="N72" s="3">
+        <v>26245</v>
+      </c>
+      <c r="O72" s="3">
+        <v>15368</v>
+      </c>
+      <c r="P72" s="3">
+        <v>34089</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>2228</v>
+      </c>
+      <c r="R72" s="3">
+        <v>29848</v>
+      </c>
+      <c r="S72" s="3">
+        <v>1</v>
+      </c>
+      <c r="T72" s="3">
+        <v>94351</v>
+      </c>
+      <c r="U72" s="3">
+        <v>3704</v>
+      </c>
+      <c r="V72" s="3">
+        <v>2563</v>
+      </c>
+      <c r="W72" s="3">
+        <v>326</v>
+      </c>
+      <c r="X72" s="3">
+        <v>11268</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="15">
+        <v>43374</v>
+      </c>
+      <c r="C73" s="12">
+        <v>489853</v>
+      </c>
+      <c r="D73" s="12">
+        <v>481195</v>
+      </c>
+      <c r="E73" s="12">
+        <v>466</v>
+      </c>
+      <c r="F73" s="12">
+        <v>47019</v>
+      </c>
+      <c r="G73" s="12">
+        <v>6820</v>
+      </c>
+      <c r="H73" s="12">
+        <v>2443</v>
+      </c>
+      <c r="I73" s="12">
+        <v>78</v>
+      </c>
+      <c r="J73" s="12">
+        <v>239</v>
+      </c>
+      <c r="K73" s="12">
+        <v>2529</v>
+      </c>
+      <c r="L73" s="12">
+        <v>37565</v>
+      </c>
+      <c r="M73" s="12">
+        <v>3997</v>
+      </c>
+      <c r="N73" s="12">
+        <v>25847</v>
+      </c>
+      <c r="O73" s="12">
+        <v>15208</v>
+      </c>
+      <c r="P73" s="12">
+        <v>33793</v>
+      </c>
+      <c r="Q73" s="12">
+        <v>2228</v>
+      </c>
+      <c r="R73" s="12">
+        <v>29565</v>
+      </c>
+      <c r="S73" s="12">
+        <v>1</v>
+      </c>
+      <c r="T73" s="12">
+        <v>93792</v>
+      </c>
+      <c r="U73" s="12">
+        <v>3636</v>
+      </c>
+      <c r="V73" s="12">
+        <v>2514</v>
+      </c>
+      <c r="W73" s="12">
+        <v>326</v>
+      </c>
+      <c r="X73" s="12">
+        <v>11160</v>
+      </c>
+      <c r="Y73" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z73" s="23">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="14">
+        <v>43344</v>
+      </c>
+      <c r="C74" s="3">
+        <v>486879</v>
+      </c>
+      <c r="D74" s="3">
+        <v>478202</v>
+      </c>
+      <c r="E74" s="3">
+        <v>463</v>
+      </c>
+      <c r="F74" s="3">
+        <v>46939</v>
+      </c>
+      <c r="G74" s="3">
+        <v>6767</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2420</v>
+      </c>
+      <c r="I74" s="3">
+        <v>78</v>
+      </c>
+      <c r="J74" s="3">
+        <v>239</v>
+      </c>
+      <c r="K74" s="3">
+        <v>2504</v>
+      </c>
+      <c r="L74" s="3">
+        <v>37159</v>
+      </c>
+      <c r="M74" s="3">
+        <v>3981</v>
+      </c>
+      <c r="N74" s="3">
+        <v>25505</v>
+      </c>
+      <c r="O74" s="3">
+        <v>15063</v>
+      </c>
+      <c r="P74" s="3">
+        <v>33501</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>2207</v>
+      </c>
+      <c r="R74" s="3">
+        <v>29169</v>
+      </c>
+      <c r="S74" s="3">
+        <v>1</v>
+      </c>
+      <c r="T74" s="3">
+        <v>92716</v>
+      </c>
+      <c r="U74" s="3">
+        <v>3571</v>
+      </c>
+      <c r="V74" s="3">
+        <v>2389</v>
+      </c>
+      <c r="W74" s="3">
+        <v>323</v>
+      </c>
+      <c r="X74" s="3">
+        <v>11118</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="15">
+        <v>43313</v>
+      </c>
+      <c r="C75" s="12">
+        <v>483912</v>
+      </c>
+      <c r="D75" s="12">
+        <v>475735</v>
+      </c>
+      <c r="E75" s="12">
+        <v>464</v>
+      </c>
+      <c r="F75" s="12">
+        <v>46660</v>
+      </c>
+      <c r="G75" s="12">
+        <v>6663</v>
+      </c>
+      <c r="H75" s="12">
+        <v>2389</v>
+      </c>
+      <c r="I75" s="12">
+        <v>78</v>
+      </c>
+      <c r="J75" s="12">
+        <v>239</v>
+      </c>
+      <c r="K75" s="12">
+        <v>2507</v>
+      </c>
+      <c r="L75" s="12">
+        <v>36747</v>
+      </c>
+      <c r="M75" s="12">
+        <v>3969</v>
+      </c>
+      <c r="N75" s="12">
+        <v>25211</v>
+      </c>
+      <c r="O75" s="12">
+        <v>14925</v>
+      </c>
+      <c r="P75" s="12">
+        <v>33302</v>
+      </c>
+      <c r="Q75" s="12">
+        <v>2187</v>
+      </c>
+      <c r="R75" s="12">
+        <v>28883</v>
+      </c>
+      <c r="S75" s="12">
+        <v>1</v>
+      </c>
+      <c r="T75" s="12">
+        <v>91723</v>
+      </c>
+      <c r="U75" s="12">
+        <v>3516</v>
+      </c>
+      <c r="V75" s="12">
+        <v>2314</v>
+      </c>
+      <c r="W75" s="12">
+        <v>311</v>
+      </c>
+      <c r="X75" s="12">
+        <v>11021</v>
+      </c>
+      <c r="Y75" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z75" s="23">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="14">
+        <v>43282</v>
+      </c>
+      <c r="C76" s="3">
+        <v>480495</v>
+      </c>
+      <c r="D76" s="3">
+        <v>472364</v>
+      </c>
+      <c r="E76" s="3">
+        <v>464</v>
+      </c>
+      <c r="F76" s="3">
+        <v>46648</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6624</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2371</v>
+      </c>
+      <c r="I76" s="3">
+        <v>78</v>
+      </c>
+      <c r="J76" s="3">
+        <v>239</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2485</v>
+      </c>
+      <c r="L76" s="3">
+        <v>36570</v>
+      </c>
+      <c r="M76" s="3">
+        <v>3920</v>
+      </c>
+      <c r="N76" s="3">
+        <v>24802</v>
+      </c>
+      <c r="O76" s="3">
+        <v>14924</v>
+      </c>
+      <c r="P76" s="3">
+        <v>33187</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>2173</v>
+      </c>
+      <c r="R76" s="3">
+        <v>28394</v>
+      </c>
+      <c r="S76" s="3">
+        <v>1</v>
+      </c>
+      <c r="T76" s="3">
+        <v>90924</v>
+      </c>
+      <c r="U76" s="3">
+        <v>3442</v>
+      </c>
+      <c r="V76" s="3">
+        <v>2249</v>
+      </c>
+      <c r="W76" s="3">
+        <v>304</v>
+      </c>
+      <c r="X76" s="3">
+        <v>10962</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="15">
+        <v>43252</v>
+      </c>
+      <c r="C77" s="12">
+        <v>477880</v>
+      </c>
+      <c r="D77" s="12">
+        <v>469513</v>
+      </c>
+      <c r="E77" s="12">
+        <v>458</v>
+      </c>
+      <c r="F77" s="12">
+        <v>46538</v>
+      </c>
+      <c r="G77" s="12">
+        <v>6550</v>
+      </c>
+      <c r="H77" s="12">
+        <v>2387</v>
+      </c>
+      <c r="I77" s="12">
+        <v>78</v>
+      </c>
+      <c r="J77" s="12">
+        <v>237</v>
+      </c>
+      <c r="K77" s="12">
+        <v>2479</v>
+      </c>
+      <c r="L77" s="12">
+        <v>36256</v>
+      </c>
+      <c r="M77" s="12">
+        <v>3901</v>
+      </c>
+      <c r="N77" s="12">
+        <v>24520</v>
+      </c>
+      <c r="O77" s="12">
+        <v>14804</v>
+      </c>
+      <c r="P77" s="12">
+        <v>33150</v>
+      </c>
+      <c r="Q77" s="12">
+        <v>2178</v>
+      </c>
+      <c r="R77" s="12">
+        <v>27975</v>
+      </c>
+      <c r="S77" s="12">
+        <v>0</v>
+      </c>
+      <c r="T77" s="12">
+        <v>89534</v>
+      </c>
+      <c r="U77" s="12">
+        <v>3365</v>
+      </c>
+      <c r="V77" s="12">
+        <v>2210</v>
+      </c>
+      <c r="W77" s="12">
+        <v>299</v>
+      </c>
+      <c r="X77" s="12">
+        <v>10862</v>
+      </c>
+      <c r="Y77" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z77" s="23">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="14">
+        <v>43221</v>
+      </c>
+      <c r="C78" s="3">
+        <v>476241</v>
+      </c>
+      <c r="D78" s="3">
+        <v>467827</v>
+      </c>
+      <c r="E78" s="3">
+        <v>459</v>
+      </c>
+      <c r="F78" s="3">
+        <v>46438</v>
+      </c>
+      <c r="G78" s="3">
+        <v>6498</v>
+      </c>
+      <c r="H78" s="3">
+        <v>2366</v>
+      </c>
+      <c r="I78" s="3">
+        <v>78</v>
+      </c>
+      <c r="J78" s="3">
+        <v>237</v>
+      </c>
+      <c r="K78" s="3">
+        <v>2474</v>
+      </c>
+      <c r="L78" s="3">
+        <v>35832</v>
+      </c>
+      <c r="M78" s="3">
+        <v>3883</v>
+      </c>
+      <c r="N78" s="3">
+        <v>24299</v>
+      </c>
+      <c r="O78" s="3">
+        <v>14847</v>
+      </c>
+      <c r="P78" s="3">
+        <v>33272</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>2165</v>
+      </c>
+      <c r="R78" s="3">
+        <v>27577</v>
+      </c>
+      <c r="S78" s="3">
+        <v>1</v>
+      </c>
+      <c r="T78" s="3">
+        <v>88473</v>
+      </c>
+      <c r="U78" s="3">
+        <v>3325</v>
+      </c>
+      <c r="V78" s="3">
+        <v>2133</v>
+      </c>
+      <c r="W78" s="3">
+        <v>301</v>
+      </c>
+      <c r="X78" s="3">
+        <v>10800</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="15">
+        <v>43191</v>
+      </c>
+      <c r="C79" s="12">
+        <v>472271</v>
+      </c>
+      <c r="D79" s="12">
+        <v>463807</v>
+      </c>
+      <c r="E79" s="12">
+        <v>455</v>
+      </c>
+      <c r="F79" s="12">
+        <v>46120</v>
+      </c>
+      <c r="G79" s="12">
+        <v>6441</v>
+      </c>
+      <c r="H79" s="12">
+        <v>2324</v>
+      </c>
+      <c r="I79" s="12">
+        <v>77</v>
+      </c>
+      <c r="J79" s="12">
+        <v>237</v>
+      </c>
+      <c r="K79" s="12">
+        <v>2458</v>
+      </c>
+      <c r="L79" s="12">
+        <v>35484</v>
+      </c>
+      <c r="M79" s="12">
+        <v>3859</v>
+      </c>
+      <c r="N79" s="12">
+        <v>24075</v>
+      </c>
+      <c r="O79" s="12">
+        <v>14872</v>
+      </c>
+      <c r="P79" s="12">
+        <v>33210</v>
+      </c>
+      <c r="Q79" s="12">
+        <v>2154</v>
+      </c>
+      <c r="R79" s="12">
+        <v>27204</v>
+      </c>
+      <c r="S79" s="12">
+        <v>1</v>
+      </c>
+      <c r="T79" s="12">
+        <v>86985</v>
+      </c>
+      <c r="U79" s="12">
+        <v>3231</v>
+      </c>
+      <c r="V79" s="12">
+        <v>2040</v>
+      </c>
+      <c r="W79" s="12">
+        <v>294</v>
+      </c>
+      <c r="X79" s="12">
+        <v>10741</v>
+      </c>
+      <c r="Y79" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z79" s="23">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="14">
+        <v>43160</v>
+      </c>
+      <c r="C80" s="3">
+        <v>469020</v>
+      </c>
+      <c r="D80" s="3">
+        <v>460731</v>
+      </c>
+      <c r="E80" s="3">
+        <v>454</v>
+      </c>
+      <c r="F80" s="3">
+        <v>45917</v>
+      </c>
+      <c r="G80" s="3">
+        <v>6371</v>
+      </c>
+      <c r="H80" s="3">
+        <v>2319</v>
+      </c>
+      <c r="I80" s="3">
+        <v>77</v>
+      </c>
+      <c r="J80" s="3">
+        <v>237</v>
+      </c>
+      <c r="K80" s="3">
+        <v>2444</v>
+      </c>
+      <c r="L80" s="3">
+        <v>35184</v>
+      </c>
+      <c r="M80" s="3">
+        <v>3843</v>
+      </c>
+      <c r="N80" s="3">
+        <v>23647</v>
+      </c>
+      <c r="O80" s="3">
+        <v>14554</v>
+      </c>
+      <c r="P80" s="3">
+        <v>33107</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>2146</v>
+      </c>
+      <c r="R80" s="3">
+        <v>26742</v>
+      </c>
+      <c r="S80" s="3">
+        <v>1</v>
+      </c>
+      <c r="T80" s="3">
+        <v>86342</v>
+      </c>
+      <c r="U80" s="3">
+        <v>3169</v>
+      </c>
+      <c r="V80" s="3">
+        <v>2018</v>
+      </c>
+      <c r="W80" s="3">
+        <v>288</v>
+      </c>
+      <c r="X80" s="3">
+        <v>10741</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z80" s="3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="15">
+        <v>43132</v>
+      </c>
+      <c r="C81" s="12">
+        <v>466319</v>
+      </c>
+      <c r="D81" s="12">
+        <v>457242</v>
+      </c>
+      <c r="E81" s="12">
+        <v>451</v>
+      </c>
+      <c r="F81" s="12">
+        <v>45640</v>
+      </c>
+      <c r="G81" s="12">
+        <v>6287</v>
+      </c>
+      <c r="H81" s="12">
+        <v>2262</v>
+      </c>
+      <c r="I81" s="12">
+        <v>77</v>
+      </c>
+      <c r="J81" s="12">
+        <v>237</v>
+      </c>
+      <c r="K81" s="12">
+        <v>2424</v>
+      </c>
+      <c r="L81" s="12">
+        <v>34703</v>
+      </c>
+      <c r="M81" s="12">
+        <v>3824</v>
+      </c>
+      <c r="N81" s="12">
+        <v>23309</v>
+      </c>
+      <c r="O81" s="12">
+        <v>14393</v>
+      </c>
+      <c r="P81" s="12">
+        <v>32986</v>
+      </c>
+      <c r="Q81" s="12">
+        <v>2120</v>
+      </c>
+      <c r="R81" s="12">
+        <v>26331</v>
+      </c>
+      <c r="S81" s="12">
+        <v>1</v>
+      </c>
+      <c r="T81" s="12">
+        <v>85658</v>
+      </c>
+      <c r="U81" s="12">
+        <v>3120</v>
+      </c>
+      <c r="V81" s="12">
+        <v>1980</v>
+      </c>
+      <c r="W81" s="12">
+        <v>285</v>
+      </c>
+      <c r="X81" s="12">
+        <v>10688</v>
+      </c>
+      <c r="Y81" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z81" s="23">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="16">
+        <v>43101</v>
+      </c>
+      <c r="C82" s="6">
+        <v>464622</v>
+      </c>
+      <c r="D82" s="6">
+        <v>455453</v>
+      </c>
+      <c r="E82" s="6">
+        <v>451</v>
+      </c>
+      <c r="F82" s="6">
+        <v>45676</v>
+      </c>
+      <c r="G82" s="6">
+        <v>6259</v>
+      </c>
+      <c r="H82" s="6">
+        <v>2255</v>
+      </c>
+      <c r="I82" s="6">
+        <v>77</v>
+      </c>
+      <c r="J82" s="6">
+        <v>237</v>
+      </c>
+      <c r="K82" s="6">
+        <v>2406</v>
+      </c>
+      <c r="L82" s="6">
+        <v>34385</v>
+      </c>
+      <c r="M82" s="6">
+        <v>3836</v>
+      </c>
+      <c r="N82" s="6">
+        <v>23129</v>
+      </c>
+      <c r="O82" s="6">
+        <v>14404</v>
+      </c>
+      <c r="P82" s="6">
+        <v>32894</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>2092</v>
+      </c>
+      <c r="R82" s="6">
+        <v>26133</v>
+      </c>
+      <c r="S82" s="6">
+        <v>1</v>
+      </c>
+      <c r="T82" s="6">
+        <v>84912</v>
+      </c>
+      <c r="U82" s="6">
+        <v>3077</v>
+      </c>
+      <c r="V82" s="6">
+        <v>1949</v>
+      </c>
+      <c r="W82" s="6">
+        <v>278</v>
+      </c>
+      <c r="X82" s="6">
+        <v>10682</v>
+      </c>
+      <c r="Y82" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z82" s="6">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z83" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="Z84" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="8">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="X4:Z4"/>
@@ -2020,5 +6857,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70B392-C6C9-4B82-993E-9D979ED012AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CDD2E8-111C-487F-97F1-C09E124B9BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Transfer</t>
   </si>
   <si>
-    <t>Trasnporte privado</t>
-  </si>
-  <si>
-    <t>Paqueteria y mensajeria</t>
-  </si>
-  <si>
     <t>Servicio auxiliar</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
   </si>
   <si>
     <t>Camioneta</t>
-  </si>
-  <si>
-    <t>Midibus</t>
   </si>
   <si>
     <t>Minibús o Microbús</t>
@@ -107,31 +98,10 @@
     <t>Tractocamiones</t>
   </si>
   <si>
-    <t>Semiremolques</t>
-  </si>
-  <si>
-    <t>Gruas</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
     <t>Camionetas</t>
-  </si>
-  <si>
-    <t>Unidades Motrices2</t>
-  </si>
-  <si>
-    <t>Unidades de Arrastre3</t>
-  </si>
-  <si>
-    <t>Camiones4</t>
-  </si>
-  <si>
-    <t>Semiremolques5</t>
-  </si>
-  <si>
-    <t>Parque Vehícular</t>
   </si>
   <si>
     <t>Fuente: SICT. Subsecretaría de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
@@ -144,6 +114,72 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Parque Vehicular</t>
+  </si>
+  <si>
+    <t>Transporte privado</t>
+  </si>
+  <si>
+    <t>Paquetería y mensajería</t>
+  </si>
+  <si>
+    <t>Minibús</t>
+  </si>
+  <si>
+    <t>Semirremolques</t>
+  </si>
+  <si>
+    <t>Grúas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades Motrices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades de Arrastre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camiones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semirremolques </t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -353,30 +389,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +414,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -403,15 +439,39 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -483,6 +543,17 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -499,41 +570,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Montserrat Medium"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -548,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA85" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA85" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="B5:AA85" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
@@ -558,32 +594,32 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{73EE1048-BC82-45C9-BA9A-56DCEE94CAE8}" name="Año" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{53A0E9A2-340C-4843-8FEC-3FE7F1D69CE1}" name="Mes" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{FCA07C6E-3FA7-47C9-8581-5AC93BC31DA6}" name="Unidades Motrices" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C90F00F0-87D6-4ADB-9A5C-389750A3C6EB}" name="Unidades de Arrastre" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F6B76EA6-ED40-4538-B803-44728D839AB1}" name="Grúas Industriales" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{CEA1E23D-1F8D-4A11-B585-5409CF64F00B}" name="Autobús" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{3529993C-16BB-49B2-AD22-FDF153A239B4}" name="Automóvil" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{085D9A0B-D0C7-418B-A026-95CAC9D97DD1}" name="Camioneta" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{5B4F3524-6771-4D7A-ABCC-E233937491D2}" name="Midibus" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{C9944019-8BB2-432B-8392-8D01E80B1B23}" name="Minibús o Microbús" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{EAEA8BE1-0696-477C-9B05-572AA12475EF}" name="Chofer Guía" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{D64F6140-E179-4385-8308-7CBD7AC3C886}" name="De excursión" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{8D8D8096-3B1A-4D41-9BB6-48438BC8EB55}" name="Turístico " dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{F14B6DC6-11F2-4302-823C-B84C14DEBBF2}" name="Turístico de Lujo" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{0E635F77-DE5B-4C4A-AE45-5CE6B8B30FFF}" name="Unidades Motrices2" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{939EE85A-8474-450F-ADD7-99442E250254}" name="Unidades de Arrastre3" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{02542B11-87C2-4A81-912C-3F1C24E16197}" name="Camiones" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{36E65929-6D9D-45DF-AADD-89A62A04330C}" name="Tractocamiones" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{DF2ECE60-D178-45BC-83DE-5B1472E5EB8E}" name="Semiremolques" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{197BF9C2-788A-432C-BB7E-B0223DE53237}" name="Carga" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{64DED93B-FF6B-471D-A055-1A4B5A5561B5}" name="Pasaje" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{A0B550ED-32B2-4DFD-B495-7F155E29F6BE}" name="Camiones4" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{A69070AD-730C-4BF9-8553-D13BD0054FD9}" name="Camionetas" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{8653CE17-AA1B-4E01-AB45-6BEED98AEC59}" name="Gruas" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{359EDE6A-8E31-4C82-B35F-E80FA158F400}" name="Semiremolques5" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{61673B3B-4A72-4803-8243-8DDF76E61A52}" name="Otros" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{73EE1048-BC82-45C9-BA9A-56DCEE94CAE8}" name="Año" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{53A0E9A2-340C-4843-8FEC-3FE7F1D69CE1}" name="Mes" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{FCA07C6E-3FA7-47C9-8581-5AC93BC31DA6}" name="Unidades Motrices" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C90F00F0-87D6-4ADB-9A5C-389750A3C6EB}" name="Unidades de Arrastre" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{F6B76EA6-ED40-4538-B803-44728D839AB1}" name="Grúas Industriales" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{CEA1E23D-1F8D-4A11-B585-5409CF64F00B}" name="Autobús" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{3529993C-16BB-49B2-AD22-FDF153A239B4}" name="Automóvil" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{085D9A0B-D0C7-418B-A026-95CAC9D97DD1}" name="Camioneta" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{5B4F3524-6771-4D7A-ABCC-E233937491D2}" name="Minibús" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{C9944019-8BB2-432B-8392-8D01E80B1B23}" name="Minibús o Microbús" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{EAEA8BE1-0696-477C-9B05-572AA12475EF}" name="Chofer Guía" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{D64F6140-E179-4385-8308-7CBD7AC3C886}" name="De excursión" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{8D8D8096-3B1A-4D41-9BB6-48438BC8EB55}" name="Turístico " dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{F14B6DC6-11F2-4302-823C-B84C14DEBBF2}" name="Turístico de Lujo" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{0E635F77-DE5B-4C4A-AE45-5CE6B8B30FFF}" name="Unidades Motrices " dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{939EE85A-8474-450F-ADD7-99442E250254}" name="Unidades de Arrastre " dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{02542B11-87C2-4A81-912C-3F1C24E16197}" name="Camiones" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{36E65929-6D9D-45DF-AADD-89A62A04330C}" name="Tractocamiones" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{DF2ECE60-D178-45BC-83DE-5B1472E5EB8E}" name="Semirremolques" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{197BF9C2-788A-432C-BB7E-B0223DE53237}" name="Carga" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{64DED93B-FF6B-471D-A055-1A4B5A5561B5}" name="Pasaje" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{A0B550ED-32B2-4DFD-B495-7F155E29F6BE}" name="Camiones " dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{A69070AD-730C-4BF9-8553-D13BD0054FD9}" name="Camionetas" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{8653CE17-AA1B-4E01-AB45-6BEED98AEC59}" name="Grúas" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{359EDE6A-8E31-4C82-B35F-E80FA158F400}" name="Semirremolques " dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{61673B3B-4A72-4803-8243-8DDF76E61A52}" name="Otros" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -850,7 +886,7 @@
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -858,201 +894,201 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16" t="s">
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16" t="s">
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="H5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="I5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="X5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B6" s="17">
+      <c r="B6" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="18">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8">
         <v>704941</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>696064</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>608</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>57429</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>10315</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>3562</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>78</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>1424</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>2725</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>62582</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>3959</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>40692</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>23711</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>42607</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <v>2706</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <v>54463</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9">
+      <c r="T6" s="8"/>
+      <c r="U6" s="8">
         <v>129480</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="8">
         <v>6405</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="8">
         <v>5956</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="8">
         <v>2159</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="8">
         <v>12295</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="8">
         <v>15</v>
       </c>
       <c r="AA6" s="5">
@@ -1060,11 +1096,11 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="19">
+      <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="20">
-        <v>7</v>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D7" s="3">
         <v>700064</v>
@@ -1138,77 +1174,77 @@
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="18">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8">
         <v>694997</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>686081</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>592</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>57318</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>10276</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>3508</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>78</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>1424</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>2665</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>61927</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>3963</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>40050</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>22350</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="8">
         <v>41750</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <v>2698</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <v>54175</v>
       </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8">
         <v>128557</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="8">
         <v>6363</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="8">
         <v>5857</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="8">
         <v>2129</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="8">
         <v>12153</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="8">
         <v>15</v>
       </c>
       <c r="AA8" s="5">
@@ -1216,11 +1252,11 @@
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B9" s="19">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="20">
-        <v>5</v>
+      <c r="C9" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D9" s="3">
         <v>686433</v>
@@ -1294,77 +1330,77 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="18">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8">
         <v>685435</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>676046</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>565</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>56830</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>10138</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>3511</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>78</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>1424</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>2558</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>61296</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>3933</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>39350</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>23307</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="8">
         <v>41742</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <v>2677</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <v>53782</v>
       </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9">
+      <c r="T10" s="8"/>
+      <c r="U10" s="8">
         <v>127521</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="8">
         <v>6305</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="8">
         <v>5651</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="8">
         <v>2085</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="8">
         <v>12043</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="8">
         <v>15</v>
       </c>
       <c r="AA10" s="5">
@@ -1372,11 +1408,11 @@
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B11" s="19">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="20">
-        <v>3</v>
+      <c r="C11" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="3">
         <v>681551</v>
@@ -1450,77 +1486,77 @@
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="18">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8">
         <v>677153</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>667343</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>559</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>56789</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>10062</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>3444</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>78</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>1424</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>2486</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>60780</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>3929</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>38626</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>22931</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <v>41445</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <v>2656</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <v>53234</v>
       </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9">
+      <c r="T12" s="8"/>
+      <c r="U12" s="8">
         <v>126653</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <v>6260</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="8">
         <v>5487</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="8">
         <v>2055</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="8">
         <v>11945</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="8">
         <v>15</v>
       </c>
       <c r="AA12" s="5">
@@ -1528,11 +1564,11 @@
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B13" s="21">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="22">
-        <v>1</v>
+      <c r="C13" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="6">
         <v>673757</v>
@@ -1608,89 +1644,89 @@
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B14" s="18">
+      <c r="B14" s="12">
         <v>2023</v>
       </c>
-      <c r="C14" s="18">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8">
         <v>671002</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>660365</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>554</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>56667</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>10017</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>3376</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>78</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>1424</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>2414</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>60296</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <v>3916</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="8">
         <v>38063</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="8">
         <v>22721</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="8">
         <v>40963</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="8">
         <v>2664</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <v>53074</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9">
+      <c r="T14" s="8"/>
+      <c r="U14" s="8">
         <v>125341</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="8">
         <v>6227</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="8">
         <v>5448</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="8">
         <v>2008</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="8">
         <v>11874</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="8">
         <v>15</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="8">
         <v>716</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="20">
+      <c r="B15" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="20">
-        <v>11</v>
+      <c r="C15" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="3">
         <v>667021</v>
@@ -1764,89 +1800,89 @@
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B16" s="18">
+      <c r="B16" s="12">
         <v>2023</v>
       </c>
-      <c r="C16" s="18">
-        <v>10</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8">
         <v>662911</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>653227</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>551</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>56354</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>9936</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>3354</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>78</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>1424</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>2325</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>59524</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <v>3949</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="8">
         <v>37449</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="8">
         <v>22518</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="8">
         <v>40540</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="8">
         <v>2659</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <v>52779</v>
       </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9">
+      <c r="T16" s="8"/>
+      <c r="U16" s="8">
         <v>124007</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="8">
         <v>6157</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="8">
         <v>5337</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="8">
         <v>1958</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="8">
         <v>11701</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="8">
         <v>15</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="8">
         <v>717</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B17" s="20">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="20">
-        <v>9</v>
+      <c r="C17" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D17" s="3">
         <v>659020</v>
@@ -1920,89 +1956,89 @@
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B18" s="18">
+      <c r="B18" s="12">
         <v>2023</v>
       </c>
-      <c r="C18" s="18">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8">
         <v>655458</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>645999</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>546</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>56186</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>9835</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>3310</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>78</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>1425</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>2252</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>58938</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>3928</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="8">
         <v>36812</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="8">
         <v>22401</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="8">
         <v>40001</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="8">
         <v>2655</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <v>52187</v>
       </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9">
+      <c r="T18" s="8"/>
+      <c r="U18" s="8">
         <v>122442</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="8">
         <v>6046</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="8">
         <v>5239</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="8">
         <v>1910</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="8">
         <v>11600</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="8">
         <v>15</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="8">
         <v>719</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B19" s="20">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="20">
-        <v>7</v>
+      <c r="C19" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="3">
         <v>651761</v>
@@ -2076,89 +2112,89 @@
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B20" s="18">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="18">
-        <v>6</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8">
         <v>647906</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>637598</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>538</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>56139</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>9752</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>3280</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>78</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>1424</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>2179</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>58481</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>3945</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="8">
         <v>36238</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="8">
         <v>21962</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="8">
         <v>38923</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="8">
         <v>2634</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="8">
         <v>51526</v>
       </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9">
+      <c r="T20" s="8"/>
+      <c r="U20" s="8">
         <v>120827</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="8">
         <v>5957</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="8">
         <v>5099</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="8">
         <v>1866</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="8">
         <v>11503</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="8">
         <v>15</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="8">
         <v>715</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B21" s="20">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="20">
-        <v>5</v>
+      <c r="C21" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D21" s="3">
         <v>645139</v>
@@ -2232,89 +2268,89 @@
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B22" s="18">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="18">
-        <v>4</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="8">
         <v>641751</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>630955</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>537</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>55899</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>9670</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>3264</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>78</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>1424</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>2114</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>58008</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>3930</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <v>35633</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="8">
         <v>21736</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="8">
         <v>38964</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="8">
         <v>2631</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="8">
         <v>50759</v>
       </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9">
+      <c r="T22" s="8"/>
+      <c r="U22" s="8">
         <v>119535</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="8">
         <v>5904</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="8">
         <v>4993</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="8">
         <v>1785</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="8">
         <v>11422</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="8">
         <v>15</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="8">
         <v>713</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B23" s="20">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="20">
-        <v>3</v>
+      <c r="C23" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="3">
         <v>639200</v>
@@ -2388,91 +2424,91 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B24" s="18">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="18">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="8">
         <v>636167</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>625114</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>535</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>55765</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>9522</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>3239</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>78</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>1424</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>2039</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>57425</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>3900</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="8">
         <v>34878</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="8">
         <v>21229</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="8">
         <v>38464</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="8">
         <v>2594</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="8">
         <v>49720</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <v>1</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <v>118529</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="8">
         <v>5852</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="8">
         <v>4936</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24" s="8">
         <v>1736</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Y24" s="8">
         <v>11378</v>
       </c>
-      <c r="Z24" s="9">
+      <c r="Z24" s="8">
         <v>15</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA24" s="8">
         <v>714</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B25" s="22">
+      <c r="B25" s="16">
         <v>2023</v>
       </c>
-      <c r="C25" s="22">
-        <v>1</v>
+      <c r="C25" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D25" s="6">
         <v>633934</v>
@@ -2548,89 +2584,89 @@
       </c>
     </row>
     <row r="26" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="18">
+      <c r="B26" s="12">
         <v>2022</v>
       </c>
-      <c r="C26" s="18">
-        <v>12</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="8">
         <v>632252</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>620240</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>528</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>55869</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>9451</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>3234</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>78</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>1424</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>1986</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <v>57083</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <v>3895</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="8">
         <v>34339</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="8">
         <v>20924</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="8">
         <v>38275</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="8">
         <v>2577</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="8">
         <v>49203</v>
       </c>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9">
+      <c r="T26" s="8"/>
+      <c r="U26" s="8">
         <v>117636</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V26" s="8">
         <v>5783</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W26" s="8">
         <v>4904</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="8">
         <v>1678</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y26" s="8">
         <v>11327</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Z26" s="8">
         <v>14</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AA26" s="8">
         <v>706</v>
       </c>
     </row>
     <row r="27" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="20">
+      <c r="B27" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="20">
-        <v>11</v>
+      <c r="C27" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D27" s="3">
         <v>629746</v>
@@ -2704,89 +2740,89 @@
       </c>
     </row>
     <row r="28" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18">
+      <c r="B28" s="12">
         <v>2022</v>
       </c>
-      <c r="C28" s="18">
-        <v>10</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="8">
         <v>627591</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>615376</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>528</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>55700</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>9310</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>3164</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>77</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>1424</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>1936</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <v>56336</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <v>3884</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="8">
         <v>33523</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="8">
         <v>20457</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="8">
         <v>37927</v>
       </c>
-      <c r="R28" s="9">
+      <c r="R28" s="8">
         <v>2574</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S28" s="8">
         <v>48696</v>
       </c>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9">
+      <c r="T28" s="8"/>
+      <c r="U28" s="8">
         <v>116809</v>
       </c>
-      <c r="V28" s="9">
+      <c r="V28" s="8">
         <v>5709</v>
       </c>
-      <c r="W28" s="9">
+      <c r="W28" s="8">
         <v>4865</v>
       </c>
-      <c r="X28" s="9">
+      <c r="X28" s="8">
         <v>1637</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Y28" s="8">
         <v>11207</v>
       </c>
-      <c r="Z28" s="9">
+      <c r="Z28" s="8">
         <v>15</v>
       </c>
-      <c r="AA28" s="9">
+      <c r="AA28" s="8">
         <v>706</v>
       </c>
     </row>
     <row r="29" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="20">
-        <v>9</v>
+      <c r="C29" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D29" s="3">
         <v>625802</v>
@@ -2860,89 +2896,89 @@
       </c>
     </row>
     <row r="30" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18">
+      <c r="B30" s="12">
         <v>2022</v>
       </c>
-      <c r="C30" s="18">
-        <v>8</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="8">
         <v>623225</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>611005</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>527</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>55700</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>9285</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>3159</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>77</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <v>1424</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>1959</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <v>56592</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <v>3885</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="8">
         <v>33921</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="8">
         <v>19873</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="8">
         <v>37606</v>
       </c>
-      <c r="R30" s="9">
+      <c r="R30" s="8">
         <v>2571</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="8">
         <v>48049</v>
       </c>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9">
+      <c r="T30" s="8"/>
+      <c r="U30" s="8">
         <v>115967</v>
       </c>
-      <c r="V30" s="9">
+      <c r="V30" s="8">
         <v>5662</v>
       </c>
-      <c r="W30" s="9">
+      <c r="W30" s="8">
         <v>4804</v>
       </c>
-      <c r="X30" s="9">
+      <c r="X30" s="8">
         <v>1573</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="Y30" s="8">
         <v>11161</v>
       </c>
-      <c r="Z30" s="9">
+      <c r="Z30" s="8">
         <v>16</v>
       </c>
-      <c r="AA30" s="9">
+      <c r="AA30" s="8">
         <v>699</v>
       </c>
     </row>
     <row r="31" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="20">
-        <v>7</v>
+      <c r="C31" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D31" s="3">
         <v>619408</v>
@@ -3016,89 +3052,89 @@
       </c>
     </row>
     <row r="32" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="18">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="18">
-        <v>6</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="8">
         <v>618040</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>606724</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>525</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>55570</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>9217</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>3142</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>77</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="8">
         <v>1424</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="8">
         <v>1855</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
         <v>55624</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="8">
         <v>3889</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="8">
         <v>32272</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="8">
         <v>19269</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="8">
         <v>37056</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R32" s="8">
         <v>2562</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S32" s="8">
         <v>47342</v>
       </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9">
+      <c r="T32" s="8"/>
+      <c r="U32" s="8">
         <v>114809</v>
       </c>
-      <c r="V32" s="9">
+      <c r="V32" s="8">
         <v>5569</v>
       </c>
-      <c r="W32" s="9">
+      <c r="W32" s="8">
         <v>4673</v>
       </c>
-      <c r="X32" s="9">
+      <c r="X32" s="8">
         <v>1516</v>
       </c>
-      <c r="Y32" s="9">
+      <c r="Y32" s="8">
         <v>11114</v>
       </c>
-      <c r="Z32" s="9">
+      <c r="Z32" s="8">
         <v>16</v>
       </c>
-      <c r="AA32" s="9">
+      <c r="AA32" s="8">
         <v>695</v>
       </c>
     </row>
     <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="20">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="20">
-        <v>5</v>
+      <c r="C33" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="3">
         <v>616795</v>
@@ -3172,91 +3208,91 @@
       </c>
     </row>
     <row r="34" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="18">
-        <v>4</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="8">
         <v>614317</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>602581</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>524</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>55683</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>9224</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <v>3107</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <v>77</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <v>1424</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <v>1833</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <v>55240</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="8">
         <v>3885</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="8">
         <v>31772</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="8">
         <v>18897</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="8">
         <v>36589</v>
       </c>
-      <c r="R34" s="9">
+      <c r="R34" s="8">
         <v>2571</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S34" s="8">
         <v>46753</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T34" s="8">
         <v>1</v>
       </c>
-      <c r="U34" s="9">
+      <c r="U34" s="8">
         <v>114370</v>
       </c>
-      <c r="V34" s="9">
+      <c r="V34" s="8">
         <v>5457</v>
       </c>
-      <c r="W34" s="9">
+      <c r="W34" s="8">
         <v>4577</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X34" s="8">
         <v>1352</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="Y34" s="8">
         <v>11060</v>
       </c>
-      <c r="Z34" s="9">
+      <c r="Z34" s="8">
         <v>16</v>
       </c>
-      <c r="AA34" s="9">
+      <c r="AA34" s="8">
         <v>696</v>
       </c>
     </row>
     <row r="35" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="20">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="20">
-        <v>3</v>
+      <c r="C35" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D35" s="3">
         <v>611918</v>
@@ -3332,91 +3368,91 @@
       </c>
     </row>
     <row r="36" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="18">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="18">
-        <v>2</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="8">
         <v>609072</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>597797</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>523</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>55620</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>9119</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>3048</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <v>77</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <v>1424</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>1803</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>54943</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <v>3886</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="8">
         <v>31259</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="8">
         <v>18473</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="8">
         <v>35996</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R36" s="8">
         <v>2581</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="8">
         <v>45940</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="8">
         <v>1</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="8">
         <v>112805</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V36" s="8">
         <v>5407</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="8">
         <v>4480</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="8">
         <v>1159</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="8">
         <v>10978</v>
       </c>
-      <c r="Z36" s="9">
+      <c r="Z36" s="8">
         <v>16</v>
       </c>
-      <c r="AA36" s="9">
+      <c r="AA36" s="8">
         <v>693</v>
       </c>
     </row>
     <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="22">
+      <c r="B37" s="16">
         <v>2022</v>
       </c>
-      <c r="C37" s="22">
-        <v>1</v>
+      <c r="C37" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="6">
         <v>607150</v>
@@ -3490,89 +3526,89 @@
       </c>
     </row>
     <row r="38" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="18">
+      <c r="B38" s="12">
         <v>2021</v>
       </c>
-      <c r="C38" s="18">
-        <v>12</v>
-      </c>
-      <c r="D38" s="9">
+      <c r="C38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="8">
         <v>606090</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>594443</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>520</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>55717</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <v>9091</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <v>3021</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="8">
         <v>77</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <v>1424</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="8">
         <v>1787</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
         <v>54743</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="8">
         <v>3888</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="8">
         <v>30885</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="8">
         <v>18334</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="8">
         <v>35952</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R38" s="8">
         <v>2604</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S38" s="8">
         <v>45157</v>
       </c>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9">
+      <c r="T38" s="8"/>
+      <c r="U38" s="8">
         <v>111857</v>
       </c>
-      <c r="V38" s="9">
+      <c r="V38" s="8">
         <v>5309</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W38" s="8">
         <v>4400</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X38" s="8">
         <v>957</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y38" s="8">
         <v>10938</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="Z38" s="8">
         <v>16</v>
       </c>
-      <c r="AA38" s="9">
+      <c r="AA38" s="8">
         <v>692</v>
       </c>
     </row>
     <row r="39" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="20">
+      <c r="B39" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="20">
-        <v>11</v>
+      <c r="C39" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D39" s="3">
         <v>603380</v>
@@ -3646,89 +3682,89 @@
       </c>
     </row>
     <row r="40" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="18">
+      <c r="B40" s="12">
         <v>2021</v>
       </c>
-      <c r="C40" s="18">
-        <v>10</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="8">
         <v>602061</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>590200</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>520</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>55685</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>8999</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>2982</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <v>77</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="8">
         <v>1424</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>1768</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <v>54086</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="8">
         <v>3885</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="8">
         <v>30303</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="8">
         <v>18211</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="8">
         <v>36050</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="8">
         <v>2611</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="8">
         <v>44484</v>
       </c>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9">
+      <c r="T40" s="8"/>
+      <c r="U40" s="8">
         <v>110396</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V40" s="8">
         <v>5205</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="8">
         <v>4316</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="8">
         <v>836</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y40" s="8">
         <v>10858</v>
       </c>
-      <c r="Z40" s="9">
+      <c r="Z40" s="8">
         <v>16</v>
       </c>
-      <c r="AA40" s="9">
+      <c r="AA40" s="8">
         <v>689</v>
       </c>
     </row>
     <row r="41" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20">
+      <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="20">
-        <v>9</v>
+      <c r="C41" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D41" s="3">
         <v>599199</v>
@@ -3802,89 +3838,89 @@
       </c>
     </row>
     <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="18">
+      <c r="B42" s="12">
         <v>2021</v>
       </c>
-      <c r="C42" s="18">
-        <v>8</v>
-      </c>
-      <c r="D42" s="9">
+      <c r="C42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="8">
         <v>597975</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>583854</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>505</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>55668</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>8821</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <v>2977</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <v>77</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="8">
         <v>1424</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>1753</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="8">
         <v>53278</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="8">
         <v>3892</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="8">
         <v>29694</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="8">
         <v>18180</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="Q42" s="8">
         <v>35973</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R42" s="8">
         <v>2605</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S42" s="8">
         <v>42961</v>
       </c>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9">
+      <c r="T42" s="8"/>
+      <c r="U42" s="8">
         <v>138152</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="8">
         <v>6095</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W42" s="8">
         <v>4045</v>
       </c>
-      <c r="X42" s="9">
+      <c r="X42" s="8">
         <v>666</v>
       </c>
-      <c r="Y42" s="9">
+      <c r="Y42" s="8">
         <v>10713</v>
       </c>
-      <c r="Z42" s="9">
+      <c r="Z42" s="8">
         <v>17</v>
       </c>
-      <c r="AA42" s="9">
+      <c r="AA42" s="8">
         <v>682</v>
       </c>
     </row>
     <row r="43" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="20">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="20">
-        <v>7</v>
+      <c r="C43" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>594590</v>
@@ -3960,91 +3996,91 @@
       </c>
     </row>
     <row r="44" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="18">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="18">
-        <v>6</v>
-      </c>
-      <c r="D44" s="9">
+      <c r="C44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="8">
         <v>593307</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>578970</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>511</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>55681</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
         <v>8835</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <v>2976</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="8">
         <v>77</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="8">
         <v>1424</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="8">
         <v>1750</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <v>53077</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="8">
         <v>3889</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O44" s="8">
         <v>29454</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="8">
         <v>20219</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="Q44" s="8">
         <v>37753</v>
       </c>
-      <c r="R44" s="9">
+      <c r="R44" s="8">
         <v>2598</v>
       </c>
-      <c r="S44" s="9">
+      <c r="S44" s="8">
         <v>42432</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T44" s="8">
         <v>1</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U44" s="8">
         <v>109131</v>
       </c>
-      <c r="V44" s="9">
+      <c r="V44" s="8">
         <v>4950</v>
       </c>
-      <c r="W44" s="9">
+      <c r="W44" s="8">
         <v>4018</v>
       </c>
-      <c r="X44" s="9">
+      <c r="X44" s="8">
         <v>650</v>
       </c>
-      <c r="Y44" s="9">
+      <c r="Y44" s="8">
         <v>10710</v>
       </c>
-      <c r="Z44" s="9">
+      <c r="Z44" s="8">
         <v>17</v>
       </c>
-      <c r="AA44" s="9">
+      <c r="AA44" s="8">
         <v>680</v>
       </c>
     </row>
     <row r="45" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="20">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="20">
-        <v>5</v>
+      <c r="C45" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>590245</v>
@@ -4118,89 +4154,89 @@
       </c>
     </row>
     <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="18">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="18">
-        <v>4</v>
-      </c>
-      <c r="D46" s="9">
+      <c r="C46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="8">
         <v>588077</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>573877</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>509</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>55905</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>8876</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <v>2941</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="8">
         <v>77</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="8">
         <v>1424</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="8">
         <v>1741</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="8">
         <v>52732</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="8">
         <v>3884</v>
       </c>
-      <c r="O46" s="9">
+      <c r="O46" s="8">
         <v>29115</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P46" s="8">
         <v>17854</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="Q46" s="8">
         <v>36552</v>
       </c>
-      <c r="R46" s="9">
+      <c r="R46" s="8">
         <v>2596</v>
       </c>
-      <c r="S46" s="9">
+      <c r="S46" s="8">
         <v>41550</v>
       </c>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9">
+      <c r="T46" s="8"/>
+      <c r="U46" s="8">
         <v>107848</v>
       </c>
-      <c r="V46" s="9">
+      <c r="V46" s="8">
         <v>4861</v>
       </c>
-      <c r="W46" s="9">
+      <c r="W46" s="8">
         <v>3840</v>
       </c>
-      <c r="X46" s="9">
+      <c r="X46" s="8">
         <v>623</v>
       </c>
-      <c r="Y46" s="9">
+      <c r="Y46" s="8">
         <v>10625</v>
       </c>
-      <c r="Z46" s="9">
+      <c r="Z46" s="8">
         <v>17</v>
       </c>
-      <c r="AA46" s="9">
+      <c r="AA46" s="8">
         <v>679</v>
       </c>
     </row>
     <row r="47" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="20">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="20">
-        <v>3</v>
+      <c r="C47" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>586093</v>
@@ -4276,89 +4312,89 @@
       </c>
     </row>
     <row r="48" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="18">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="18">
-        <v>2</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="8">
         <v>583440</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>567677</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>507</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>56059</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>8871</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="8">
         <v>2921</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="8">
         <v>77</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="8">
         <v>1424</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="8">
         <v>1728</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="8">
         <v>52301</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="8">
         <v>3880</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48" s="8">
         <v>28867</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="8">
         <v>17889</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="8">
         <v>36421</v>
       </c>
-      <c r="R48" s="9">
+      <c r="R48" s="8">
         <v>2569</v>
       </c>
-      <c r="S48" s="9">
+      <c r="S48" s="8">
         <v>39851</v>
       </c>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9">
+      <c r="T48" s="8"/>
+      <c r="U48" s="8">
         <v>106898</v>
       </c>
-      <c r="V48" s="9">
+      <c r="V48" s="8">
         <v>4801</v>
       </c>
-      <c r="W48" s="9">
+      <c r="W48" s="8">
         <v>3689</v>
       </c>
-      <c r="X48" s="9">
+      <c r="X48" s="8">
         <v>585</v>
       </c>
-      <c r="Y48" s="9">
+      <c r="Y48" s="8">
         <v>10566</v>
       </c>
-      <c r="Z48" s="9">
+      <c r="Z48" s="8">
         <v>17</v>
       </c>
-      <c r="AA48" s="9">
+      <c r="AA48" s="8">
         <v>674</v>
       </c>
     </row>
     <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="22">
+      <c r="B49" s="16">
         <v>2021</v>
       </c>
-      <c r="C49" s="22">
-        <v>1</v>
+      <c r="C49" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D49" s="6">
         <v>581299</v>
@@ -4432,91 +4468,91 @@
       </c>
     </row>
     <row r="50" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="18">
+      <c r="B50" s="12">
         <v>2020</v>
       </c>
-      <c r="C50" s="18">
-        <v>12</v>
-      </c>
-      <c r="D50" s="9">
+      <c r="C50" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="8">
         <v>580035</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>563400</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>505</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>56274</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>8916</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="8">
         <v>2933</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="8">
         <v>77</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="8">
         <v>1424</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="8">
         <v>1736</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="8">
         <v>52012</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="8">
         <v>3877</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O50" s="8">
         <v>28815</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="8">
         <v>18007</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q50" s="8">
         <v>36384</v>
       </c>
-      <c r="R50" s="9">
+      <c r="R50" s="8">
         <v>2551</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S50" s="8">
         <v>38799</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="8">
         <v>0</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="8">
         <v>106486</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="8">
         <v>4754</v>
       </c>
-      <c r="W50" s="9">
+      <c r="W50" s="8">
         <v>3612</v>
       </c>
-      <c r="X50" s="9">
+      <c r="X50" s="8">
         <v>569</v>
       </c>
-      <c r="Y50" s="9">
+      <c r="Y50" s="8">
         <v>10542</v>
       </c>
-      <c r="Z50" s="9">
+      <c r="Z50" s="8">
         <v>17</v>
       </c>
-      <c r="AA50" s="9">
+      <c r="AA50" s="8">
         <v>670</v>
       </c>
     </row>
     <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="20">
+      <c r="B51" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="20">
-        <v>11</v>
+      <c r="C51" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D51" s="3">
         <v>576835</v>
@@ -4592,91 +4628,91 @@
       </c>
     </row>
     <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="18">
+      <c r="B52" s="12">
         <v>2020</v>
       </c>
-      <c r="C52" s="18">
-        <v>10</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C52" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="8">
         <v>574056</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>556941</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="8">
         <v>499</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="8">
         <v>56245</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="8">
         <v>8933</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="8">
         <v>2902</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="8">
         <v>77</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="8">
         <v>1424</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="8">
         <v>1739</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="8">
         <v>51341</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="8">
         <v>3877</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O52" s="8">
         <v>28460</v>
       </c>
-      <c r="P52" s="9">
+      <c r="P52" s="8">
         <v>17784</v>
       </c>
-      <c r="Q52" s="9">
+      <c r="Q52" s="8">
         <v>36186</v>
       </c>
-      <c r="R52" s="9">
+      <c r="R52" s="8">
         <v>2539</v>
       </c>
-      <c r="S52" s="9">
+      <c r="S52" s="8">
         <v>37095</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T52" s="8">
         <v>1</v>
       </c>
-      <c r="U52" s="9">
+      <c r="U52" s="8">
         <v>105781</v>
       </c>
-      <c r="V52" s="9">
+      <c r="V52" s="8">
         <v>4675</v>
       </c>
-      <c r="W52" s="9">
+      <c r="W52" s="8">
         <v>3405</v>
       </c>
-      <c r="X52" s="9">
+      <c r="X52" s="8">
         <v>535</v>
       </c>
-      <c r="Y52" s="9">
+      <c r="Y52" s="8">
         <v>10417</v>
       </c>
-      <c r="Z52" s="9">
+      <c r="Z52" s="8">
         <v>17</v>
       </c>
-      <c r="AA52" s="9">
+      <c r="AA52" s="8">
         <v>666</v>
       </c>
     </row>
     <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="20">
+      <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="20">
-        <v>9</v>
+      <c r="C53" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D53" s="3">
         <v>571367</v>
@@ -4750,89 +4786,89 @@
       </c>
     </row>
     <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="18">
+      <c r="B54" s="12">
         <v>2020</v>
       </c>
-      <c r="C54" s="18">
-        <v>8</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="C54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="8">
         <v>569174</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>549631</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>496</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <v>56348</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>9127</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="8">
         <v>2959</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="8">
         <v>77</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="8">
         <v>1424</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="8">
         <v>1745</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="8">
         <v>51089</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="8">
         <v>3866</v>
       </c>
-      <c r="O54" s="9">
+      <c r="O54" s="8">
         <v>28370</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P54" s="8">
         <v>17421</v>
       </c>
-      <c r="Q54" s="9">
+      <c r="Q54" s="8">
         <v>35866</v>
       </c>
-      <c r="R54" s="9">
+      <c r="R54" s="8">
         <v>2504</v>
       </c>
-      <c r="S54" s="9">
+      <c r="S54" s="8">
         <v>35789</v>
       </c>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9">
+      <c r="T54" s="8"/>
+      <c r="U54" s="8">
         <v>104940</v>
       </c>
-      <c r="V54" s="9">
+      <c r="V54" s="8">
         <v>4612</v>
       </c>
-      <c r="W54" s="9">
+      <c r="W54" s="8">
         <v>3208</v>
       </c>
-      <c r="X54" s="9">
+      <c r="X54" s="8">
         <v>503</v>
       </c>
-      <c r="Y54" s="9">
+      <c r="Y54" s="8">
         <v>10368</v>
       </c>
-      <c r="Z54" s="9">
+      <c r="Z54" s="8">
         <v>17</v>
       </c>
-      <c r="AA54" s="9">
+      <c r="AA54" s="8">
         <v>662</v>
       </c>
     </row>
     <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="20">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="20">
-        <v>7</v>
+      <c r="C55" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D55" s="3">
         <v>567168</v>
@@ -4906,89 +4942,89 @@
       </c>
     </row>
     <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="18">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="18">
-        <v>6</v>
-      </c>
-      <c r="D56" s="9">
+      <c r="C56" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="8">
         <v>566042</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>545916</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>498</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="8">
         <v>56291</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="8">
         <v>9187</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="8">
         <v>2980</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="8">
         <v>77</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="8">
         <v>1424</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L56" s="8">
         <v>1748</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="8">
         <v>50878</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N56" s="8">
         <v>3863</v>
       </c>
-      <c r="O56" s="9">
+      <c r="O56" s="8">
         <v>28349</v>
       </c>
-      <c r="P56" s="9">
+      <c r="P56" s="8">
         <v>17359</v>
       </c>
-      <c r="Q56" s="9">
+      <c r="Q56" s="8">
         <v>35902</v>
       </c>
-      <c r="R56" s="9">
+      <c r="R56" s="8">
         <v>2485</v>
       </c>
-      <c r="S56" s="9">
+      <c r="S56" s="8">
         <v>35117</v>
       </c>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9">
+      <c r="T56" s="8"/>
+      <c r="U56" s="8">
         <v>104123</v>
       </c>
-      <c r="V56" s="9">
+      <c r="V56" s="8">
         <v>4584</v>
       </c>
-      <c r="W56" s="9">
+      <c r="W56" s="8">
         <v>3179</v>
       </c>
-      <c r="X56" s="9">
+      <c r="X56" s="8">
         <v>489</v>
       </c>
-      <c r="Y56" s="9">
+      <c r="Y56" s="8">
         <v>10327</v>
       </c>
-      <c r="Z56" s="9">
+      <c r="Z56" s="8">
         <v>17</v>
       </c>
-      <c r="AA56" s="9">
+      <c r="AA56" s="8">
         <v>661</v>
       </c>
     </row>
     <row r="57" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="20">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="20">
-        <v>5</v>
+      <c r="C57" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D57" s="3">
         <v>565980</v>
@@ -5062,89 +5098,89 @@
       </c>
     </row>
     <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="18">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="18">
-        <v>4</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C58" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="8">
         <v>565883</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>545244</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>499</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="8">
         <v>56275</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="8">
         <v>9189</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="8">
         <v>2982</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="8">
         <v>77</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="8">
         <v>1424</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="8">
         <v>1755</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M58" s="8">
         <v>50796</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N58" s="8">
         <v>3864</v>
       </c>
-      <c r="O58" s="9">
+      <c r="O58" s="8">
         <v>28297</v>
       </c>
-      <c r="P58" s="9">
+      <c r="P58" s="8">
         <v>17361</v>
       </c>
-      <c r="Q58" s="9">
+      <c r="Q58" s="8">
         <v>36010</v>
       </c>
-      <c r="R58" s="9">
+      <c r="R58" s="8">
         <v>2485</v>
       </c>
-      <c r="S58" s="9">
+      <c r="S58" s="8">
         <v>34862</v>
       </c>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9">
+      <c r="T58" s="8"/>
+      <c r="U58" s="8">
         <v>104076</v>
       </c>
-      <c r="V58" s="9">
+      <c r="V58" s="8">
         <v>4584</v>
       </c>
-      <c r="W58" s="9">
+      <c r="W58" s="8">
         <v>3174</v>
       </c>
-      <c r="X58" s="9">
+      <c r="X58" s="8">
         <v>486</v>
       </c>
-      <c r="Y58" s="9">
+      <c r="Y58" s="8">
         <v>10322</v>
       </c>
-      <c r="Z58" s="9">
+      <c r="Z58" s="8">
         <v>17</v>
       </c>
-      <c r="AA58" s="9">
+      <c r="AA58" s="8">
         <v>661</v>
       </c>
     </row>
     <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="20">
-        <v>3</v>
+      <c r="C59" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D59" s="3">
         <v>565809</v>
@@ -5218,89 +5254,89 @@
       </c>
     </row>
     <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="18">
-        <v>2</v>
-      </c>
-      <c r="D60" s="9">
+      <c r="C60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="8">
         <v>564089</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>542595</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>496</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="8">
         <v>56248</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="8">
         <v>9180</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="8">
         <v>2964</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="8">
         <v>77</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="8">
         <v>1424</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L60" s="8">
         <v>1745</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M60" s="8">
         <v>50693</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N60" s="8">
         <v>3869</v>
       </c>
-      <c r="O60" s="9">
+      <c r="O60" s="8">
         <v>28110</v>
       </c>
-      <c r="P60" s="9">
+      <c r="P60" s="8">
         <v>16719</v>
       </c>
-      <c r="Q60" s="9">
+      <c r="Q60" s="8">
         <v>35910</v>
       </c>
-      <c r="R60" s="9">
+      <c r="R60" s="8">
         <v>2467</v>
       </c>
-      <c r="S60" s="9">
+      <c r="S60" s="8">
         <v>34546</v>
       </c>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9">
+      <c r="T60" s="8"/>
+      <c r="U60" s="8">
         <v>103491</v>
       </c>
-      <c r="V60" s="9">
+      <c r="V60" s="8">
         <v>4545</v>
       </c>
-      <c r="W60" s="9">
+      <c r="W60" s="8">
         <v>3124</v>
       </c>
-      <c r="X60" s="9">
+      <c r="X60" s="8">
         <v>480</v>
       </c>
-      <c r="Y60" s="9">
+      <c r="Y60" s="8">
         <v>10285</v>
       </c>
-      <c r="Z60" s="9">
+      <c r="Z60" s="8">
         <v>17</v>
       </c>
-      <c r="AA60" s="9">
+      <c r="AA60" s="8">
         <v>662</v>
       </c>
     </row>
     <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="22">
+      <c r="B61" s="16">
         <v>2020</v>
       </c>
-      <c r="C61" s="22">
-        <v>1</v>
+      <c r="C61" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D61" s="6">
         <v>562170</v>
@@ -5374,89 +5410,89 @@
       </c>
     </row>
     <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="18">
+      <c r="B62" s="12">
         <v>2019</v>
       </c>
-      <c r="C62" s="18">
-        <v>12</v>
-      </c>
-      <c r="D62" s="9">
+      <c r="C62" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="8">
         <v>561061</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>537813</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>497</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="8">
         <v>56256</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="8">
         <v>9149</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="8">
         <v>2965</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="8">
         <v>77</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="8">
         <v>1424</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="8">
         <v>1747</v>
       </c>
-      <c r="M62" s="9">
+      <c r="M62" s="8">
         <v>50432</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="8">
         <v>3858</v>
       </c>
-      <c r="O62" s="9">
+      <c r="O62" s="8">
         <v>27818</v>
       </c>
-      <c r="P62" s="9">
+      <c r="P62" s="8">
         <v>16663</v>
       </c>
-      <c r="Q62" s="9">
+      <c r="Q62" s="8">
         <v>35664</v>
       </c>
-      <c r="R62" s="9">
+      <c r="R62" s="8">
         <v>2427</v>
       </c>
-      <c r="S62" s="9">
+      <c r="S62" s="8">
         <v>33984</v>
       </c>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9">
+      <c r="T62" s="8"/>
+      <c r="U62" s="8">
         <v>102021</v>
       </c>
-      <c r="V62" s="9">
+      <c r="V62" s="8">
         <v>4466</v>
       </c>
-      <c r="W62" s="9">
+      <c r="W62" s="8">
         <v>3102</v>
       </c>
-      <c r="X62" s="9">
+      <c r="X62" s="8">
         <v>462</v>
       </c>
-      <c r="Y62" s="9">
+      <c r="Y62" s="8">
         <v>10222</v>
       </c>
-      <c r="Z62" s="9">
+      <c r="Z62" s="8">
         <v>17</v>
       </c>
-      <c r="AA62" s="9">
+      <c r="AA62" s="8">
         <v>661</v>
       </c>
     </row>
     <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="20">
+      <c r="B63" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="20">
-        <v>11</v>
+      <c r="C63" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D63" s="3">
         <v>558626</v>
@@ -5530,89 +5566,89 @@
       </c>
     </row>
     <row r="64" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="18">
+      <c r="B64" s="12">
         <v>2019</v>
       </c>
-      <c r="C64" s="18">
-        <v>10</v>
-      </c>
-      <c r="D64" s="9">
+      <c r="C64" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="8">
         <v>556346</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>533069</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>492</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="8">
         <v>55871</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="8">
         <v>9008</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="8">
         <v>2938</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="8">
         <v>77</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="8">
         <v>1424</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L64" s="8">
         <v>1711</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="8">
         <v>49943</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N64" s="8">
         <v>3804</v>
       </c>
-      <c r="O64" s="9">
+      <c r="O64" s="8">
         <v>27062</v>
       </c>
-      <c r="P64" s="9">
+      <c r="P64" s="8">
         <v>16772</v>
       </c>
-      <c r="Q64" s="9">
+      <c r="Q64" s="8">
         <v>35650</v>
       </c>
-      <c r="R64" s="9">
+      <c r="R64" s="8">
         <v>2402</v>
       </c>
-      <c r="S64" s="9">
+      <c r="S64" s="8">
         <v>33575</v>
       </c>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9">
+      <c r="T64" s="8"/>
+      <c r="U64" s="8">
         <v>101067</v>
       </c>
-      <c r="V64" s="9">
+      <c r="V64" s="8">
         <v>4305</v>
       </c>
-      <c r="W64" s="9">
+      <c r="W64" s="8">
         <v>3036</v>
       </c>
-      <c r="X64" s="9">
+      <c r="X64" s="8">
         <v>442</v>
       </c>
-      <c r="Y64" s="9">
+      <c r="Y64" s="8">
         <v>10077</v>
       </c>
-      <c r="Z64" s="9">
+      <c r="Z64" s="8">
         <v>17</v>
       </c>
-      <c r="AA64" s="9">
+      <c r="AA64" s="8">
         <v>658</v>
       </c>
     </row>
     <row r="65" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="20">
+      <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="20">
-        <v>9</v>
+      <c r="C65" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D65" s="3">
         <v>519860</v>
@@ -5686,91 +5722,91 @@
       </c>
     </row>
     <row r="66" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="18">
+      <c r="B66" s="12">
         <v>2019</v>
       </c>
-      <c r="C66" s="18">
-        <v>8</v>
-      </c>
-      <c r="D66" s="9">
+      <c r="C66" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="8">
         <v>517666</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>503486</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>449</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="8">
         <v>49171</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>6156</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="8">
         <v>2183</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="8">
         <v>73</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K66" s="8">
         <v>1413</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L66" s="8">
         <v>1710</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="8">
         <v>43104</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66" s="8">
         <v>3785</v>
       </c>
-      <c r="O66" s="9">
+      <c r="O66" s="8">
         <v>26582</v>
       </c>
-      <c r="P66" s="9">
+      <c r="P66" s="8">
         <v>14832</v>
       </c>
-      <c r="Q66" s="9">
+      <c r="Q66" s="8">
         <v>34205</v>
       </c>
-      <c r="R66" s="9">
+      <c r="R66" s="8">
         <v>2384</v>
       </c>
-      <c r="S66" s="9">
+      <c r="S66" s="8">
         <v>33006</v>
       </c>
-      <c r="T66" s="9">
+      <c r="T66" s="8">
         <v>0</v>
       </c>
-      <c r="U66" s="9">
+      <c r="U66" s="8">
         <v>99490</v>
       </c>
-      <c r="V66" s="9">
+      <c r="V66" s="8">
         <v>4173</v>
       </c>
-      <c r="W66" s="9">
+      <c r="W66" s="8">
         <v>2926</v>
       </c>
-      <c r="X66" s="9">
+      <c r="X66" s="8">
         <v>420</v>
       </c>
-      <c r="Y66" s="9">
+      <c r="Y66" s="8">
         <v>10026</v>
       </c>
-      <c r="Z66" s="9">
+      <c r="Z66" s="8">
         <v>17</v>
       </c>
-      <c r="AA66" s="9">
+      <c r="AA66" s="8">
         <v>653</v>
       </c>
     </row>
     <row r="67" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="20">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="20">
-        <v>7</v>
+      <c r="C67" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D67" s="3">
         <v>514393</v>
@@ -5846,91 +5882,91 @@
       </c>
     </row>
     <row r="68" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="18">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="18">
-        <v>6</v>
-      </c>
-      <c r="D68" s="9">
+      <c r="C68" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="8">
         <v>512802</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>497796</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>444</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="8">
         <v>49053</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="8">
         <v>6156</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="8">
         <v>2222</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="8">
         <v>73</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K68" s="8">
         <v>1413</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68" s="8">
         <v>1694</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68" s="8">
         <v>42573</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N68" s="8">
         <v>3733</v>
       </c>
-      <c r="O68" s="9">
+      <c r="O68" s="8">
         <v>25944</v>
       </c>
-      <c r="P68" s="9">
+      <c r="P68" s="8">
         <v>14578</v>
       </c>
-      <c r="Q68" s="9">
+      <c r="Q68" s="8">
         <v>33417</v>
       </c>
-      <c r="R68" s="9">
+      <c r="R68" s="8">
         <v>2333</v>
       </c>
-      <c r="S68" s="9">
+      <c r="S68" s="8">
         <v>32236</v>
       </c>
-      <c r="T68" s="9">
+      <c r="T68" s="8">
         <v>0</v>
       </c>
-      <c r="U68" s="9">
+      <c r="U68" s="8">
         <v>98138</v>
       </c>
-      <c r="V68" s="9">
+      <c r="V68" s="8">
         <v>4072</v>
       </c>
-      <c r="W68" s="9">
+      <c r="W68" s="8">
         <v>2785</v>
       </c>
-      <c r="X68" s="9">
+      <c r="X68" s="8">
         <v>376</v>
       </c>
-      <c r="Y68" s="9">
+      <c r="Y68" s="8">
         <v>9919</v>
       </c>
-      <c r="Z68" s="9">
+      <c r="Z68" s="8">
         <v>17</v>
       </c>
-      <c r="AA68" s="9">
+      <c r="AA68" s="8">
         <v>674</v>
       </c>
     </row>
     <row r="69" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="20">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="20">
-        <v>5</v>
+      <c r="C69" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D69" s="3">
         <v>506850</v>
@@ -6006,91 +6042,91 @@
       </c>
     </row>
     <row r="70" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="18">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="18">
-        <v>4</v>
-      </c>
-      <c r="D70" s="9">
+      <c r="C70" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="8">
         <v>504046</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>496323</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <v>451</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="8">
         <v>48409</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="8">
         <v>7032</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="8">
         <v>2531</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J70" s="8">
         <v>78</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K70" s="8">
         <v>239</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L70" s="8">
         <v>2596</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M70" s="8">
         <v>39439</v>
       </c>
-      <c r="N70" s="9">
+      <c r="N70" s="8">
         <v>4234</v>
       </c>
-      <c r="O70" s="9">
+      <c r="O70" s="8">
         <v>27848</v>
       </c>
-      <c r="P70" s="9">
+      <c r="P70" s="8">
         <v>16180</v>
       </c>
-      <c r="Q70" s="9">
+      <c r="Q70" s="8">
         <v>34956</v>
       </c>
-      <c r="R70" s="9">
+      <c r="R70" s="8">
         <v>2284</v>
       </c>
-      <c r="S70" s="9">
+      <c r="S70" s="8">
         <v>31444</v>
       </c>
-      <c r="T70" s="9">
+      <c r="T70" s="8">
         <v>0</v>
       </c>
-      <c r="U70" s="9">
+      <c r="U70" s="8">
         <v>97190</v>
       </c>
-      <c r="V70" s="9">
+      <c r="V70" s="8">
         <v>3921</v>
       </c>
-      <c r="W70" s="9">
+      <c r="W70" s="8">
         <v>2705</v>
       </c>
-      <c r="X70" s="9">
+      <c r="X70" s="8">
         <v>364</v>
       </c>
-      <c r="Y70" s="9">
+      <c r="Y70" s="8">
         <v>11482</v>
       </c>
-      <c r="Z70" s="9">
+      <c r="Z70" s="8">
         <v>12</v>
       </c>
-      <c r="AA70" s="9">
+      <c r="AA70" s="8">
         <v>807</v>
       </c>
     </row>
     <row r="71" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="20">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="20">
-        <v>3</v>
+      <c r="C71" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D71" s="3">
         <v>501424</v>
@@ -6166,91 +6202,91 @@
       </c>
     </row>
     <row r="72" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="18">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="18">
-        <v>2</v>
-      </c>
-      <c r="D72" s="9">
+      <c r="C72" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="8">
         <v>499221</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>490327</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <v>454</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="8">
         <v>47999</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="8">
         <v>7029</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="8">
         <v>2518</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="8">
         <v>77</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="8">
         <v>239</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L72" s="8">
         <v>2576</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M72" s="8">
         <v>38838</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N72" s="8">
         <v>4155</v>
       </c>
-      <c r="O72" s="9">
+      <c r="O72" s="8">
         <v>27148</v>
       </c>
-      <c r="P72" s="9">
+      <c r="P72" s="8">
         <v>15484</v>
       </c>
-      <c r="Q72" s="9">
+      <c r="Q72" s="8">
         <v>34221</v>
       </c>
-      <c r="R72" s="9">
+      <c r="R72" s="8">
         <v>2252</v>
       </c>
-      <c r="S72" s="9">
+      <c r="S72" s="8">
         <v>30634</v>
       </c>
-      <c r="T72" s="9">
+      <c r="T72" s="8">
         <v>1</v>
       </c>
-      <c r="U72" s="9">
+      <c r="U72" s="8">
         <v>96127</v>
       </c>
-      <c r="V72" s="9">
+      <c r="V72" s="8">
         <v>3815</v>
       </c>
-      <c r="W72" s="9">
+      <c r="W72" s="8">
         <v>2658</v>
       </c>
-      <c r="X72" s="9">
+      <c r="X72" s="8">
         <v>352</v>
       </c>
-      <c r="Y72" s="9">
+      <c r="Y72" s="8">
         <v>11454</v>
       </c>
-      <c r="Z72" s="9">
+      <c r="Z72" s="8">
         <v>12</v>
       </c>
-      <c r="AA72" s="9">
+      <c r="AA72" s="8">
         <v>810</v>
       </c>
     </row>
     <row r="73" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="22">
+      <c r="B73" s="16">
         <v>2019</v>
       </c>
-      <c r="C73" s="22">
-        <v>1</v>
+      <c r="C73" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D73" s="6">
         <v>497141</v>
@@ -6326,91 +6362,91 @@
       </c>
     </row>
     <row r="74" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="18">
+      <c r="B74" s="12">
         <v>2018</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="8">
+        <v>496057</v>
+      </c>
+      <c r="E74" s="8">
+        <v>486335</v>
+      </c>
+      <c r="F74" s="8">
+        <v>464</v>
+      </c>
+      <c r="G74" s="8">
+        <v>47780</v>
+      </c>
+      <c r="H74" s="8">
+        <v>6994</v>
+      </c>
+      <c r="I74" s="8">
+        <v>2508</v>
+      </c>
+      <c r="J74" s="8">
+        <v>78</v>
+      </c>
+      <c r="K74" s="8">
+        <v>239</v>
+      </c>
+      <c r="L74" s="8">
+        <v>2565</v>
+      </c>
+      <c r="M74" s="8">
+        <v>38415</v>
+      </c>
+      <c r="N74" s="8">
+        <v>4053</v>
+      </c>
+      <c r="O74" s="8">
+        <v>26683</v>
+      </c>
+      <c r="P74" s="8">
+        <v>15554</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>34018</v>
+      </c>
+      <c r="R74" s="8">
+        <v>2235</v>
+      </c>
+      <c r="S74" s="8">
+        <v>30111</v>
+      </c>
+      <c r="T74" s="8">
+        <v>1</v>
+      </c>
+      <c r="U74" s="8">
+        <v>94864</v>
+      </c>
+      <c r="V74" s="8">
+        <v>3723</v>
+      </c>
+      <c r="W74" s="8">
+        <v>2618</v>
+      </c>
+      <c r="X74" s="8">
+        <v>329</v>
+      </c>
+      <c r="Y74" s="8">
+        <v>11369</v>
+      </c>
+      <c r="Z74" s="8">
         <v>12</v>
       </c>
-      <c r="D74" s="9">
-        <v>496057</v>
-      </c>
-      <c r="E74" s="9">
-        <v>486335</v>
-      </c>
-      <c r="F74" s="9">
-        <v>464</v>
-      </c>
-      <c r="G74" s="9">
-        <v>47780</v>
-      </c>
-      <c r="H74" s="9">
-        <v>6994</v>
-      </c>
-      <c r="I74" s="9">
-        <v>2508</v>
-      </c>
-      <c r="J74" s="9">
-        <v>78</v>
-      </c>
-      <c r="K74" s="9">
-        <v>239</v>
-      </c>
-      <c r="L74" s="9">
-        <v>2565</v>
-      </c>
-      <c r="M74" s="9">
-        <v>38415</v>
-      </c>
-      <c r="N74" s="9">
-        <v>4053</v>
-      </c>
-      <c r="O74" s="9">
-        <v>26683</v>
-      </c>
-      <c r="P74" s="9">
-        <v>15554</v>
-      </c>
-      <c r="Q74" s="9">
-        <v>34018</v>
-      </c>
-      <c r="R74" s="9">
-        <v>2235</v>
-      </c>
-      <c r="S74" s="9">
-        <v>30111</v>
-      </c>
-      <c r="T74" s="9">
-        <v>1</v>
-      </c>
-      <c r="U74" s="9">
-        <v>94864</v>
-      </c>
-      <c r="V74" s="9">
-        <v>3723</v>
-      </c>
-      <c r="W74" s="9">
-        <v>2618</v>
-      </c>
-      <c r="X74" s="9">
-        <v>329</v>
-      </c>
-      <c r="Y74" s="9">
-        <v>11369</v>
-      </c>
-      <c r="Z74" s="9">
-        <v>12</v>
-      </c>
-      <c r="AA74" s="9">
+      <c r="AA74" s="8">
         <v>804</v>
       </c>
     </row>
     <row r="75" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="20">
+      <c r="B75" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="20">
-        <v>11</v>
+      <c r="C75" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D75" s="3">
         <v>493248</v>
@@ -6486,91 +6522,91 @@
       </c>
     </row>
     <row r="76" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="18">
+      <c r="B76" s="12">
         <v>2018</v>
       </c>
-      <c r="C76" s="18">
-        <v>10</v>
-      </c>
-      <c r="D76" s="9">
+      <c r="C76" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="8">
         <v>489853</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>481195</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <v>466</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="8">
         <v>47019</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <v>6820</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="8">
         <v>2443</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="8">
         <v>78</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K76" s="8">
         <v>239</v>
       </c>
-      <c r="L76" s="9">
+      <c r="L76" s="8">
         <v>2529</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M76" s="8">
         <v>37565</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="8">
         <v>3997</v>
       </c>
-      <c r="O76" s="9">
+      <c r="O76" s="8">
         <v>25847</v>
       </c>
-      <c r="P76" s="9">
+      <c r="P76" s="8">
         <v>15208</v>
       </c>
-      <c r="Q76" s="9">
+      <c r="Q76" s="8">
         <v>33793</v>
       </c>
-      <c r="R76" s="9">
+      <c r="R76" s="8">
         <v>2228</v>
       </c>
-      <c r="S76" s="9">
+      <c r="S76" s="8">
         <v>29565</v>
       </c>
-      <c r="T76" s="9">
+      <c r="T76" s="8">
         <v>1</v>
       </c>
-      <c r="U76" s="9">
+      <c r="U76" s="8">
         <v>93792</v>
       </c>
-      <c r="V76" s="9">
+      <c r="V76" s="8">
         <v>3636</v>
       </c>
-      <c r="W76" s="9">
+      <c r="W76" s="8">
         <v>2514</v>
       </c>
-      <c r="X76" s="9">
+      <c r="X76" s="8">
         <v>326</v>
       </c>
-      <c r="Y76" s="9">
+      <c r="Y76" s="8">
         <v>11160</v>
       </c>
-      <c r="Z76" s="9">
+      <c r="Z76" s="8">
         <v>12</v>
       </c>
-      <c r="AA76" s="9">
+      <c r="AA76" s="8">
         <v>796</v>
       </c>
     </row>
     <row r="77" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="20">
+      <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="20">
-        <v>9</v>
+      <c r="C77" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D77" s="3">
         <v>486879</v>
@@ -6646,91 +6682,91 @@
       </c>
     </row>
     <row r="78" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="18">
+      <c r="B78" s="12">
         <v>2018</v>
       </c>
-      <c r="C78" s="18">
-        <v>8</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C78" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="8">
         <v>483912</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>475735</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <v>464</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="8">
         <v>46660</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="8">
         <v>6663</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="8">
         <v>2389</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J78" s="8">
         <v>78</v>
       </c>
-      <c r="K78" s="9">
+      <c r="K78" s="8">
         <v>239</v>
       </c>
-      <c r="L78" s="9">
+      <c r="L78" s="8">
         <v>2507</v>
       </c>
-      <c r="M78" s="9">
+      <c r="M78" s="8">
         <v>36747</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N78" s="8">
         <v>3969</v>
       </c>
-      <c r="O78" s="9">
+      <c r="O78" s="8">
         <v>25211</v>
       </c>
-      <c r="P78" s="9">
+      <c r="P78" s="8">
         <v>14925</v>
       </c>
-      <c r="Q78" s="9">
+      <c r="Q78" s="8">
         <v>33302</v>
       </c>
-      <c r="R78" s="9">
+      <c r="R78" s="8">
         <v>2187</v>
       </c>
-      <c r="S78" s="9">
+      <c r="S78" s="8">
         <v>28883</v>
       </c>
-      <c r="T78" s="9">
+      <c r="T78" s="8">
         <v>1</v>
       </c>
-      <c r="U78" s="9">
+      <c r="U78" s="8">
         <v>91723</v>
       </c>
-      <c r="V78" s="9">
+      <c r="V78" s="8">
         <v>3516</v>
       </c>
-      <c r="W78" s="9">
+      <c r="W78" s="8">
         <v>2314</v>
       </c>
-      <c r="X78" s="9">
+      <c r="X78" s="8">
         <v>311</v>
       </c>
-      <c r="Y78" s="9">
+      <c r="Y78" s="8">
         <v>11021</v>
       </c>
-      <c r="Z78" s="9">
+      <c r="Z78" s="8">
         <v>12</v>
       </c>
-      <c r="AA78" s="9">
+      <c r="AA78" s="8">
         <v>787</v>
       </c>
     </row>
     <row r="79" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="20">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="20">
-        <v>7</v>
+      <c r="C79" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D79" s="3">
         <v>480495</v>
@@ -6806,91 +6842,91 @@
       </c>
     </row>
     <row r="80" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="18">
+      <c r="B80" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="18">
-        <v>6</v>
-      </c>
-      <c r="D80" s="9">
+      <c r="C80" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="8">
         <v>477880</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <v>469513</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="8">
         <v>458</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="8">
         <v>46538</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="8">
         <v>6550</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="8">
         <v>2387</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J80" s="8">
         <v>78</v>
       </c>
-      <c r="K80" s="9">
+      <c r="K80" s="8">
         <v>237</v>
       </c>
-      <c r="L80" s="9">
+      <c r="L80" s="8">
         <v>2479</v>
       </c>
-      <c r="M80" s="9">
+      <c r="M80" s="8">
         <v>36256</v>
       </c>
-      <c r="N80" s="9">
+      <c r="N80" s="8">
         <v>3901</v>
       </c>
-      <c r="O80" s="9">
+      <c r="O80" s="8">
         <v>24520</v>
       </c>
-      <c r="P80" s="9">
+      <c r="P80" s="8">
         <v>14804</v>
       </c>
-      <c r="Q80" s="9">
+      <c r="Q80" s="8">
         <v>33150</v>
       </c>
-      <c r="R80" s="9">
+      <c r="R80" s="8">
         <v>2178</v>
       </c>
-      <c r="S80" s="9">
+      <c r="S80" s="8">
         <v>27975</v>
       </c>
-      <c r="T80" s="9">
+      <c r="T80" s="8">
         <v>0</v>
       </c>
-      <c r="U80" s="9">
+      <c r="U80" s="8">
         <v>89534</v>
       </c>
-      <c r="V80" s="9">
+      <c r="V80" s="8">
         <v>3365</v>
       </c>
-      <c r="W80" s="9">
+      <c r="W80" s="8">
         <v>2210</v>
       </c>
-      <c r="X80" s="9">
+      <c r="X80" s="8">
         <v>299</v>
       </c>
-      <c r="Y80" s="9">
+      <c r="Y80" s="8">
         <v>10862</v>
       </c>
-      <c r="Z80" s="9">
+      <c r="Z80" s="8">
         <v>12</v>
       </c>
-      <c r="AA80" s="9">
+      <c r="AA80" s="8">
         <v>783</v>
       </c>
     </row>
     <row r="81" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="20">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="20">
-        <v>5</v>
+      <c r="C81" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D81" s="3">
         <v>476241</v>
@@ -6966,91 +7002,91 @@
       </c>
     </row>
     <row r="82" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="18">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="18">
-        <v>4</v>
-      </c>
-      <c r="D82" s="9">
+      <c r="C82" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="8">
         <v>472271</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>463807</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="8">
         <v>455</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="8">
         <v>46120</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="8">
         <v>6441</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I82" s="8">
         <v>2324</v>
       </c>
-      <c r="J82" s="9">
+      <c r="J82" s="8">
         <v>77</v>
       </c>
-      <c r="K82" s="9">
+      <c r="K82" s="8">
         <v>237</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L82" s="8">
         <v>2458</v>
       </c>
-      <c r="M82" s="9">
+      <c r="M82" s="8">
         <v>35484</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N82" s="8">
         <v>3859</v>
       </c>
-      <c r="O82" s="9">
+      <c r="O82" s="8">
         <v>24075</v>
       </c>
-      <c r="P82" s="9">
+      <c r="P82" s="8">
         <v>14872</v>
       </c>
-      <c r="Q82" s="9">
+      <c r="Q82" s="8">
         <v>33210</v>
       </c>
-      <c r="R82" s="9">
+      <c r="R82" s="8">
         <v>2154</v>
       </c>
-      <c r="S82" s="9">
+      <c r="S82" s="8">
         <v>27204</v>
       </c>
-      <c r="T82" s="9">
+      <c r="T82" s="8">
         <v>1</v>
       </c>
-      <c r="U82" s="9">
+      <c r="U82" s="8">
         <v>86985</v>
       </c>
-      <c r="V82" s="9">
+      <c r="V82" s="8">
         <v>3231</v>
       </c>
-      <c r="W82" s="9">
+      <c r="W82" s="8">
         <v>2040</v>
       </c>
-      <c r="X82" s="9">
+      <c r="X82" s="8">
         <v>294</v>
       </c>
-      <c r="Y82" s="9">
+      <c r="Y82" s="8">
         <v>10741</v>
       </c>
-      <c r="Z82" s="9">
+      <c r="Z82" s="8">
         <v>12</v>
       </c>
-      <c r="AA82" s="9">
+      <c r="AA82" s="8">
         <v>784</v>
       </c>
     </row>
     <row r="83" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="20">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="20">
-        <v>3</v>
+      <c r="C83" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D83" s="3">
         <v>469020</v>
@@ -7126,91 +7162,91 @@
       </c>
     </row>
     <row r="84" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="18">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="18">
-        <v>2</v>
-      </c>
-      <c r="D84" s="9">
+      <c r="C84" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="8">
         <v>466319</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>457242</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="8">
         <v>451</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="8">
         <v>45640</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="8">
         <v>6287</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="8">
         <v>2262</v>
       </c>
-      <c r="J84" s="9">
+      <c r="J84" s="8">
         <v>77</v>
       </c>
-      <c r="K84" s="9">
+      <c r="K84" s="8">
         <v>237</v>
       </c>
-      <c r="L84" s="9">
+      <c r="L84" s="8">
         <v>2424</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="8">
         <v>34703</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84" s="8">
         <v>3824</v>
       </c>
-      <c r="O84" s="9">
+      <c r="O84" s="8">
         <v>23309</v>
       </c>
-      <c r="P84" s="9">
+      <c r="P84" s="8">
         <v>14393</v>
       </c>
-      <c r="Q84" s="9">
+      <c r="Q84" s="8">
         <v>32986</v>
       </c>
-      <c r="R84" s="9">
+      <c r="R84" s="8">
         <v>2120</v>
       </c>
-      <c r="S84" s="9">
+      <c r="S84" s="8">
         <v>26331</v>
       </c>
-      <c r="T84" s="9">
+      <c r="T84" s="8">
         <v>1</v>
       </c>
-      <c r="U84" s="9">
+      <c r="U84" s="8">
         <v>85658</v>
       </c>
-      <c r="V84" s="9">
+      <c r="V84" s="8">
         <v>3120</v>
       </c>
-      <c r="W84" s="9">
+      <c r="W84" s="8">
         <v>1980</v>
       </c>
-      <c r="X84" s="9">
+      <c r="X84" s="8">
         <v>285</v>
       </c>
-      <c r="Y84" s="9">
+      <c r="Y84" s="8">
         <v>10688</v>
       </c>
-      <c r="Z84" s="9">
+      <c r="Z84" s="8">
         <v>12</v>
       </c>
-      <c r="AA84" s="9">
+      <c r="AA84" s="8">
         <v>779</v>
       </c>
     </row>
     <row r="85" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="22">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="22">
-        <v>1</v>
+      <c r="C85" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D85" s="6">
         <v>464622</v>
@@ -7287,13 +7323,13 @@
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AA86" s="2"/>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AA87" s="2"/>
     </row>

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698BD03C-DA51-4580-B1C8-5595D9C24E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C628C179-22D1-4EC5-9999-697C7D663725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_18" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -193,33 +193,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -227,7 +227,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -520,19 +520,19 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -548,7 +548,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -584,8 +584,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA86" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
-  <autoFilter ref="B5:AA86" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA87" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B5:AA87" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -628,7 +628,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -636,28 +636,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -666,14 +666,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -848,52 +848,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA88"/>
+  <dimension ref="B2:AA89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" customWidth="1"/>
-    <col min="11" max="11" width="18.09765625" customWidth="1"/>
-    <col min="12" max="12" width="11.8984375" customWidth="1"/>
-    <col min="13" max="13" width="12.8984375" customWidth="1"/>
-    <col min="15" max="15" width="15.8984375" customWidth="1"/>
-    <col min="16" max="16" width="18.19921875" customWidth="1"/>
-    <col min="17" max="17" width="20.3984375" customWidth="1"/>
-    <col min="18" max="18" width="10.3984375" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" customWidth="1"/>
-    <col min="20" max="20" width="14.8984375" customWidth="1"/>
-    <col min="21" max="21" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" customWidth="1"/>
-    <col min="23" max="23" width="11.3984375" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.8984375" customWidth="1"/>
-    <col min="27" max="27" width="6.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="21" t="s">
@@ -937,7 +938,7 @@
       <c r="Z4" s="22"/>
       <c r="AA4" s="22"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>23</v>
       </c>
@@ -1017,6397 +1018,6475 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B6" s="13">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="8">
+        <v>714747</v>
+      </c>
+      <c r="E6" s="8">
+        <v>704375</v>
+      </c>
+      <c r="F6" s="8">
+        <v>622</v>
+      </c>
+      <c r="G6" s="8">
+        <v>57602</v>
+      </c>
+      <c r="H6" s="8">
+        <v>10485</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3617</v>
+      </c>
+      <c r="J6" s="8">
+        <v>78</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1424</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2767</v>
+      </c>
+      <c r="M6" s="8">
+        <v>63040</v>
+      </c>
+      <c r="N6" s="8">
+        <v>3930</v>
+      </c>
+      <c r="O6" s="8">
+        <v>41410</v>
+      </c>
+      <c r="P6" s="8">
+        <v>30328</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>43596</v>
+      </c>
+      <c r="R6" s="8">
+        <v>2697</v>
+      </c>
+      <c r="S6" s="8">
+        <v>54722</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8">
+        <v>130250</v>
+      </c>
+      <c r="V6" s="8">
+        <v>6446</v>
+      </c>
+      <c r="W6" s="8">
+        <v>6199</v>
+      </c>
+      <c r="X6" s="8">
+        <v>2214</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>12449</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <v>709391</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <v>699945</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>611</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>57472</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="3">
         <v>10407</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="3">
         <v>3578</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="3">
         <v>78</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K7" s="3">
         <v>1424</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L7" s="3">
         <v>2740</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M7" s="3">
         <v>62737</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N7" s="3">
         <v>3931</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O7" s="3">
         <v>41077</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P7" s="3">
         <v>23934</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q7" s="3">
         <v>43117</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R7" s="3">
         <v>2694</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S7" s="3">
         <v>54701</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3">
         <v>129830</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V7" s="3">
         <v>6417</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W7" s="3">
         <v>6046</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X7" s="3">
         <v>2192</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y7" s="3">
         <v>12349</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z7" s="3">
         <v>15</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA7" s="4">
         <v>726</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="11">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>704941</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>696064</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>608</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <v>57429</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H8" s="8">
         <v>10315</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="8">
         <v>3562</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8" s="8">
         <v>78</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K8" s="8">
         <v>1424</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L8" s="8">
         <v>2725</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M8" s="8">
         <v>62582</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N8" s="8">
         <v>3959</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O8" s="8">
         <v>40692</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P8" s="8">
         <v>23711</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q8" s="8">
         <v>42607</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R8" s="8">
         <v>2706</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S8" s="8">
         <v>54463</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8">
         <v>129480</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V8" s="8">
         <v>6405</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W8" s="8">
         <v>5956</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X8" s="8">
         <v>2159</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y8" s="8">
         <v>12295</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z8" s="8">
         <v>15</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA8" s="5">
         <v>726</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B8" s="13">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>700064</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>691573</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>594</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>57394</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <v>10310</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="3">
         <v>3516</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J9" s="3">
         <v>78</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K9" s="3">
         <v>1424</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L9" s="3">
         <v>2697</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M9" s="3">
         <v>62263</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N9" s="3">
         <v>3963</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O9" s="3">
         <v>40451</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P9" s="3">
         <v>22543</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q9" s="3">
         <v>42013</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R9" s="3">
         <v>2714</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S9" s="3">
         <v>54287</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3">
         <v>129145</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V9" s="3">
         <v>6391</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W9" s="3">
         <v>5917</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X9" s="3">
         <v>2148</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y9" s="3">
         <v>12231</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z9" s="3">
         <v>15</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA9" s="4">
         <v>724</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B9" s="11">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>694997</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>686081</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>592</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>57318</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="8">
         <v>10276</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <v>3508</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="8">
         <v>78</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K10" s="8">
         <v>1424</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L10" s="8">
         <v>2665</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M10" s="8">
         <v>61927</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N10" s="8">
         <v>3963</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O10" s="8">
         <v>40050</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P10" s="8">
         <v>22350</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q10" s="8">
         <v>41750</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R10" s="8">
         <v>2698</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S10" s="8">
         <v>54175</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8">
+      <c r="T10" s="8"/>
+      <c r="U10" s="8">
         <v>128557</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V10" s="8">
         <v>6363</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W10" s="8">
         <v>5857</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X10" s="8">
         <v>2129</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y10" s="8">
         <v>12153</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z10" s="8">
         <v>15</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA10" s="5">
         <v>724</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B10" s="13">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>686433</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>677060</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>583</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>57014</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>10191</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <v>3490</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="3">
         <v>78</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <v>1424</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L11" s="3">
         <v>2598</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M11" s="3">
         <v>61659</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N11" s="3">
         <v>3952</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O11" s="3">
         <v>39763</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P11" s="3">
         <v>22332</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q11" s="3">
         <v>41599</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R11" s="3">
         <v>2694</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S11" s="3">
         <v>54118</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3">
         <v>128107</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V11" s="3">
         <v>6329</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W11" s="3">
         <v>5765</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X11" s="3">
         <v>2112</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y11" s="3">
         <v>12080</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z11" s="3">
         <v>15</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA11" s="4">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B11" s="11">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>685435</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>676046</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>565</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>56830</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <v>10138</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <v>3511</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J12" s="8">
         <v>78</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K12" s="8">
         <v>1424</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L12" s="8">
         <v>2558</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M12" s="8">
         <v>61296</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N12" s="8">
         <v>3933</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O12" s="8">
         <v>39350</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P12" s="8">
         <v>23307</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q12" s="8">
         <v>41742</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R12" s="8">
         <v>2677</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S12" s="8">
         <v>53782</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8">
+      <c r="T12" s="8"/>
+      <c r="U12" s="8">
         <v>127521</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V12" s="8">
         <v>6305</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W12" s="8">
         <v>5651</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X12" s="8">
         <v>2085</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y12" s="8">
         <v>12043</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z12" s="8">
         <v>15</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA12" s="5">
         <v>716</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B12" s="13">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>681551</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>671878</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>559</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>56791</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <v>10077</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <v>3472</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="3">
         <v>78</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="3">
         <v>1424</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L13" s="3">
         <v>2515</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M13" s="3">
         <v>60940</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N13" s="3">
         <v>3927</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O13" s="3">
         <v>38916</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P13" s="3">
         <v>23100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q13" s="3">
         <v>41499</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R13" s="3">
         <v>2662</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S13" s="3">
         <v>53501</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3">
         <v>127002</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V13" s="3">
         <v>6283</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W13" s="3">
         <v>5537</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X13" s="3">
         <v>2066</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y13" s="3">
         <v>12002</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z13" s="3">
         <v>15</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA13" s="4">
         <v>716</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B13" s="11">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>677153</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>667343</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>559</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>56789</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>10062</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <v>3444</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J14" s="8">
         <v>78</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K14" s="8">
         <v>1424</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L14" s="8">
         <v>2486</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M14" s="8">
         <v>60780</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N14" s="8">
         <v>3929</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="8">
         <v>38626</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P14" s="8">
         <v>22931</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q14" s="8">
         <v>41445</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R14" s="8">
         <v>2656</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S14" s="8">
         <v>53234</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8">
+      <c r="T14" s="8"/>
+      <c r="U14" s="8">
         <v>126653</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V14" s="8">
         <v>6260</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W14" s="8">
         <v>5487</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X14" s="8">
         <v>2055</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y14" s="8">
         <v>11945</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z14" s="8">
         <v>15</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA14" s="5">
         <v>718</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>673757</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>663646</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>558</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <v>56703</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="6">
         <v>10044</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="6">
         <v>3392</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J15" s="6">
         <v>78</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K15" s="6">
         <v>1424</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L15" s="6">
         <v>2444</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M15" s="6">
         <v>60551</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N15" s="6">
         <v>3920</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O15" s="6">
         <v>38302</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P15" s="6">
         <v>22717</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q15" s="6">
         <v>41276</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R15" s="6">
         <v>2661</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S15" s="6">
         <v>53153</v>
       </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6">
+      <c r="T15" s="6"/>
+      <c r="U15" s="6">
         <v>125984</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V15" s="6">
         <v>6237</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W15" s="6">
         <v>5478</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X15" s="6">
         <v>2017</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y15" s="6">
         <v>11916</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z15" s="6">
         <v>15</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA15" s="7">
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="12">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
         <v>2023</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>671002</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>660365</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>554</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>56667</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <v>10017</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <v>3376</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J16" s="8">
         <v>78</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K16" s="8">
         <v>1424</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L16" s="8">
         <v>2414</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M16" s="8">
         <v>60296</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N16" s="8">
         <v>3916</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O16" s="8">
         <v>38063</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P16" s="8">
         <v>22721</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q16" s="8">
         <v>40963</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R16" s="8">
         <v>2664</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S16" s="8">
         <v>53074</v>
       </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8">
+      <c r="T16" s="8"/>
+      <c r="U16" s="8">
         <v>125341</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V16" s="8">
         <v>6227</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W16" s="8">
         <v>5448</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X16" s="8">
         <v>2008</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y16" s="8">
         <v>11874</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z16" s="8">
         <v>15</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA16" s="8">
         <v>716</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>667021</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>657017</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>553</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>56501</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>10008</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>3368</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>78</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>1424</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>2373</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M17" s="3">
         <v>59864</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N17" s="3">
         <v>3939</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O17" s="3">
         <v>37756</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P17" s="3">
         <v>22668</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q17" s="3">
         <v>40739</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R17" s="3">
         <v>2663</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S17" s="3">
         <v>52920</v>
       </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3">
         <v>124918</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V17" s="3">
         <v>6223</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W17" s="3">
         <v>5332</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X17" s="3">
         <v>1985</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y17" s="3">
         <v>11762</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z17" s="3">
         <v>15</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA17" s="3">
         <v>718</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B17" s="12">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
         <v>2023</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>662911</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>653227</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>551</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>56354</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>9936</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>3354</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J18" s="8">
         <v>78</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K18" s="8">
         <v>1424</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L18" s="8">
         <v>2325</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M18" s="8">
         <v>59524</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N18" s="8">
         <v>3949</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O18" s="8">
         <v>37449</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P18" s="8">
         <v>22518</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q18" s="8">
         <v>40540</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R18" s="8">
         <v>2659</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S18" s="8">
         <v>52779</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8">
+      <c r="T18" s="8"/>
+      <c r="U18" s="8">
         <v>124007</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V18" s="8">
         <v>6157</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W18" s="8">
         <v>5337</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X18" s="8">
         <v>1958</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y18" s="8">
         <v>11701</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z18" s="8">
         <v>15</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AA18" s="8">
         <v>717</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>659020</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>649665</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>551</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>56273</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <v>9895</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="3">
         <v>3359</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J19" s="3">
         <v>78</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K19" s="3">
         <v>1424</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L19" s="3">
         <v>2288</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M19" s="3">
         <v>59153</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N19" s="3">
         <v>3952</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O19" s="3">
         <v>37177</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P19" s="3">
         <v>22508</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q19" s="3">
         <v>40324</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R19" s="3">
         <v>2654</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S19" s="3">
         <v>52458</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3">
         <v>123192</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V19" s="3">
         <v>6122</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W19" s="3">
         <v>5256</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X19" s="3">
         <v>1931</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y19" s="3">
         <v>11636</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z19" s="3">
         <v>15</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA19" s="3">
         <v>718</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B19" s="12">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>655458</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>645999</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>546</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>56186</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <v>9835</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="8">
         <v>3310</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="8">
         <v>78</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K20" s="8">
         <v>1425</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L20" s="8">
         <v>2252</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M20" s="8">
         <v>58938</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N20" s="8">
         <v>3928</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O20" s="8">
         <v>36812</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P20" s="8">
         <v>22401</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q20" s="8">
         <v>40001</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R20" s="8">
         <v>2655</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S20" s="8">
         <v>52187</v>
       </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8">
+      <c r="T20" s="8"/>
+      <c r="U20" s="8">
         <v>122442</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V20" s="8">
         <v>6046</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W20" s="8">
         <v>5239</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X20" s="8">
         <v>1910</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="Y20" s="8">
         <v>11600</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z20" s="8">
         <v>15</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AA20" s="8">
         <v>719</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>651761</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>641907</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>541</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>56170</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <v>9810</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <v>3301</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="3">
         <v>78</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K21" s="3">
         <v>1424</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L21" s="3">
         <v>2219</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M21" s="3">
         <v>58734</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N21" s="3">
         <v>3934</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O21" s="3">
         <v>36467</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P21" s="3">
         <v>22206</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q21" s="3">
         <v>39383</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R21" s="3">
         <v>2640</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S21" s="3">
         <v>51887</v>
       </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3">
         <v>121511</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V21" s="3">
         <v>5992</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W21" s="3">
         <v>5150</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X21" s="3">
         <v>1888</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y21" s="3">
         <v>11575</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z21" s="3">
         <v>15</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA21" s="3">
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B21" s="12">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>647906</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>637598</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>538</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>56139</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>9752</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="8">
         <v>3280</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <v>78</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K22" s="8">
         <v>1424</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L22" s="8">
         <v>2179</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M22" s="8">
         <v>58481</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N22" s="8">
         <v>3945</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O22" s="8">
         <v>36238</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P22" s="8">
         <v>21962</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q22" s="8">
         <v>38923</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R22" s="8">
         <v>2634</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S22" s="8">
         <v>51526</v>
       </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8">
+      <c r="T22" s="8"/>
+      <c r="U22" s="8">
         <v>120827</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V22" s="8">
         <v>5957</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W22" s="8">
         <v>5099</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X22" s="8">
         <v>1866</v>
       </c>
-      <c r="Y21" s="8">
+      <c r="Y22" s="8">
         <v>11503</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z22" s="8">
         <v>15</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AA22" s="8">
         <v>715</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>645139</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>634226</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>537</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>55988</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>9716</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <v>3277</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J23" s="3">
         <v>78</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K23" s="3">
         <v>1424</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L23" s="3">
         <v>2130</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M23" s="3">
         <v>58224</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N23" s="3">
         <v>3934</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O23" s="3">
         <v>35910</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P23" s="3">
         <v>21848</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q23" s="3">
         <v>38619</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R23" s="3">
         <v>2634</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S23" s="3">
         <v>51228</v>
       </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3">
         <v>120089</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V23" s="3">
         <v>5928</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W23" s="3">
         <v>5046</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X23" s="3">
         <v>1829</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y23" s="3">
         <v>11484</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z23" s="3">
         <v>15</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA23" s="3">
         <v>717</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B23" s="12">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>641751</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>630955</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>537</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>55899</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>9670</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24" s="8">
         <v>3264</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="8">
         <v>78</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K24" s="8">
         <v>1424</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L24" s="8">
         <v>2114</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M24" s="8">
         <v>58008</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N24" s="8">
         <v>3930</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O24" s="8">
         <v>35633</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P24" s="8">
         <v>21736</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q24" s="8">
         <v>38964</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R24" s="8">
         <v>2631</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S24" s="8">
         <v>50759</v>
       </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8">
+      <c r="T24" s="8"/>
+      <c r="U24" s="8">
         <v>119535</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V24" s="8">
         <v>5904</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W24" s="8">
         <v>4993</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X24" s="8">
         <v>1785</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Y24" s="8">
         <v>11422</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="Z24" s="8">
         <v>15</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="AA24" s="8">
         <v>713</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B24" s="14">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>639200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>628078</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>535</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>55839</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>9614</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <v>3257</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J25" s="3">
         <v>78</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K25" s="3">
         <v>1424</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L25" s="3">
         <v>2091</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M25" s="3">
         <v>57753</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N25" s="3">
         <v>3924</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O25" s="3">
         <v>35418</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P25" s="3">
         <v>21601</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q25" s="3">
         <v>38737</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R25" s="3">
         <v>2613</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S25" s="3">
         <v>50312</v>
       </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3">
+      <c r="T25" s="3"/>
+      <c r="U25" s="3">
         <v>119109</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V25" s="3">
         <v>5878</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W25" s="3">
         <v>4974</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X25" s="3">
         <v>1760</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y25" s="3">
         <v>11402</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z25" s="3">
         <v>15</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA25" s="3">
         <v>713</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B25" s="12">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>636167</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>625114</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>535</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>55765</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>9522</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="8">
         <v>3239</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J26" s="8">
         <v>78</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K26" s="8">
         <v>1424</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L26" s="8">
         <v>2039</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M26" s="8">
         <v>57425</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N26" s="8">
         <v>3900</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O26" s="8">
         <v>34878</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P26" s="8">
         <v>21229</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q26" s="8">
         <v>38464</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R26" s="8">
         <v>2594</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S26" s="8">
         <v>49720</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T26" s="8">
         <v>1</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U26" s="8">
         <v>118529</v>
       </c>
-      <c r="V25" s="8">
+      <c r="V26" s="8">
         <v>5852</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W26" s="8">
         <v>4936</v>
       </c>
-      <c r="X25" s="8">
+      <c r="X26" s="8">
         <v>1736</v>
       </c>
-      <c r="Y25" s="8">
+      <c r="Y26" s="8">
         <v>11378</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="Z26" s="8">
         <v>15</v>
       </c>
-      <c r="AA25" s="8">
+      <c r="AA26" s="8">
         <v>714</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B26" s="16">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>633934</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>622491</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>534</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>55802</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="6">
         <v>9494</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I27" s="6">
         <v>3245</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J27" s="6">
         <v>78</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K27" s="6">
         <v>1424</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L27" s="6">
         <v>2009</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M27" s="6">
         <v>57250</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N27" s="6">
         <v>3899</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O27" s="6">
         <v>34654</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P27" s="6">
         <v>20907</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q27" s="6">
         <v>38288</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R27" s="6">
         <v>2590</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S27" s="6">
         <v>49582</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T27" s="6">
         <v>1</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U27" s="6">
         <v>118075</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V27" s="6">
         <v>5811</v>
       </c>
-      <c r="W26" s="6">
+      <c r="W27" s="6">
         <v>4917</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X27" s="6">
         <v>1700</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y27" s="6">
         <v>11348</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z27" s="6">
         <v>15</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AA27" s="6">
         <v>712</v>
       </c>
     </row>
-    <row r="27" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="12">
+    <row r="28" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
         <v>2022</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>632252</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>620240</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>528</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>55869</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>9451</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="8">
         <v>3234</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="8">
         <v>78</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K28" s="8">
         <v>1424</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L28" s="8">
         <v>1986</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M28" s="8">
         <v>57083</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N28" s="8">
         <v>3895</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O28" s="8">
         <v>34339</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P28" s="8">
         <v>20924</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q28" s="8">
         <v>38275</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R28" s="8">
         <v>2577</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S28" s="8">
         <v>49203</v>
       </c>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8">
+      <c r="T28" s="8"/>
+      <c r="U28" s="8">
         <v>117636</v>
       </c>
-      <c r="V27" s="8">
+      <c r="V28" s="8">
         <v>5783</v>
       </c>
-      <c r="W27" s="8">
+      <c r="W28" s="8">
         <v>4904</v>
       </c>
-      <c r="X27" s="8">
+      <c r="X28" s="8">
         <v>1678</v>
       </c>
-      <c r="Y27" s="8">
+      <c r="Y28" s="8">
         <v>11327</v>
       </c>
-      <c r="Z27" s="8">
+      <c r="Z28" s="8">
         <v>14</v>
       </c>
-      <c r="AA27" s="8">
+      <c r="AA28" s="8">
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
+    <row r="29" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>629746</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <v>617778</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>528</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>55776</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <v>9347</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="3">
         <v>3197</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J29" s="3">
         <v>77</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K29" s="3">
         <v>1424</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L29" s="3">
         <v>1959</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M29" s="3">
         <v>56592</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N29" s="3">
         <v>3885</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O29" s="3">
         <v>33921</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P29" s="3">
         <v>20669</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q29" s="3">
         <v>38043</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R29" s="3">
         <v>2568</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S29" s="3">
         <v>48930</v>
       </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3">
+      <c r="T29" s="3"/>
+      <c r="U29" s="3">
         <v>117218</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V29" s="3">
         <v>5770</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W29" s="3">
         <v>4899</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X29" s="3">
         <v>1652</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y29" s="3">
         <v>11234</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z29" s="3">
         <v>15</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA29" s="3">
         <v>707</v>
       </c>
     </row>
-    <row r="29" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="12">
+    <row r="30" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
         <v>2022</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>627591</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>615376</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>528</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>55700</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>9310</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30" s="8">
         <v>3164</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J30" s="8">
         <v>77</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K30" s="8">
         <v>1424</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L30" s="8">
         <v>1936</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M30" s="8">
         <v>56336</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N30" s="8">
         <v>3884</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O30" s="8">
         <v>33523</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P30" s="8">
         <v>20457</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q30" s="8">
         <v>37927</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R30" s="8">
         <v>2574</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S30" s="8">
         <v>48696</v>
       </c>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8">
+      <c r="T30" s="8"/>
+      <c r="U30" s="8">
         <v>116809</v>
       </c>
-      <c r="V29" s="8">
+      <c r="V30" s="8">
         <v>5709</v>
       </c>
-      <c r="W29" s="8">
+      <c r="W30" s="8">
         <v>4865</v>
       </c>
-      <c r="X29" s="8">
+      <c r="X30" s="8">
         <v>1637</v>
       </c>
-      <c r="Y29" s="8">
+      <c r="Y30" s="8">
         <v>11207</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="Z30" s="8">
         <v>15</v>
       </c>
-      <c r="AA29" s="8">
+      <c r="AA30" s="8">
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+    <row r="31" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>625802</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>613527</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="3">
         <v>529</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>55774</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="3">
         <v>9280</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="3">
         <v>3168</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J31" s="3">
         <v>77</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K31" s="3">
         <v>1424</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L31" s="3">
         <v>1923</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M31" s="3">
         <v>56179</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N31" s="3">
         <v>3894</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O31" s="3">
         <v>33212</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P31" s="3">
         <v>20145</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q31" s="3">
         <v>37799</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R31" s="3">
         <v>2588</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S31" s="3">
         <v>48487</v>
       </c>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3">
+      <c r="T31" s="3"/>
+      <c r="U31" s="3">
         <v>116524</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V31" s="3">
         <v>5685</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W31" s="3">
         <v>4852</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X31" s="3">
         <v>1602</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y31" s="3">
         <v>11195</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Z31" s="3">
         <v>15</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AA31" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="31" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="12">
+    <row r="32" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>623225</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>611005</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <v>527</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <v>55700</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="8">
         <v>9285</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="8">
         <v>3159</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J32" s="8">
         <v>77</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K32" s="8">
         <v>1424</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L32" s="8">
         <v>1959</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M32" s="8">
         <v>56592</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N32" s="8">
         <v>3885</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O32" s="8">
         <v>33921</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P32" s="8">
         <v>19873</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q32" s="8">
         <v>37606</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R32" s="8">
         <v>2571</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S32" s="8">
         <v>48049</v>
       </c>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8">
+      <c r="T32" s="8"/>
+      <c r="U32" s="8">
         <v>115967</v>
       </c>
-      <c r="V31" s="8">
+      <c r="V32" s="8">
         <v>5662</v>
       </c>
-      <c r="W31" s="8">
+      <c r="W32" s="8">
         <v>4804</v>
       </c>
-      <c r="X31" s="8">
+      <c r="X32" s="8">
         <v>1573</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="Y32" s="8">
         <v>11161</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="Z32" s="8">
         <v>16</v>
       </c>
-      <c r="AA31" s="8">
+      <c r="AA32" s="8">
         <v>699</v>
       </c>
     </row>
-    <row r="32" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="14">
+    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>619408</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="3">
         <v>607662</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>525</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>55704</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H33" s="3">
         <v>9233</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I33" s="3">
         <v>3148</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J33" s="3">
         <v>77</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K33" s="3">
         <v>1424</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L33" s="3">
         <v>1866</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M33" s="3">
         <v>55722</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N33" s="3">
         <v>3891</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O33" s="3">
         <v>32461</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P33" s="3">
         <v>19530</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q33" s="3">
         <v>37234</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R33" s="3">
         <v>2570</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S33" s="3">
         <v>47654</v>
       </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3">
+      <c r="T33" s="3"/>
+      <c r="U33" s="3">
         <v>115526</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V33" s="3">
         <v>5597</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W33" s="3">
         <v>4695</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X33" s="3">
         <v>1536</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y33" s="3">
         <v>11130</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Z33" s="3">
         <v>16</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA33" s="3">
         <v>696</v>
       </c>
     </row>
-    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="12">
+    <row r="34" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>618040</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>606724</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>525</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>55570</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H34" s="8">
         <v>9217</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I34" s="8">
         <v>3142</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J34" s="8">
         <v>77</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K34" s="8">
         <v>1424</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L34" s="8">
         <v>1855</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M34" s="8">
         <v>55624</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N34" s="8">
         <v>3889</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O34" s="8">
         <v>32272</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P34" s="8">
         <v>19269</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q34" s="8">
         <v>37056</v>
       </c>
-      <c r="R33" s="8">
+      <c r="R34" s="8">
         <v>2562</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S34" s="8">
         <v>47342</v>
       </c>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8">
+      <c r="T34" s="8"/>
+      <c r="U34" s="8">
         <v>114809</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V34" s="8">
         <v>5569</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W34" s="8">
         <v>4673</v>
       </c>
-      <c r="X33" s="8">
+      <c r="X34" s="8">
         <v>1516</v>
       </c>
-      <c r="Y33" s="8">
+      <c r="Y34" s="8">
         <v>11114</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="Z34" s="8">
         <v>16</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AA34" s="8">
         <v>695</v>
       </c>
     </row>
-    <row r="34" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="14">
+    <row r="35" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="3">
         <v>616795</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E35" s="3">
         <v>605191</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>525</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>55673</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H35" s="3">
         <v>9298</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I35" s="3">
         <v>3152</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J35" s="3">
         <v>77</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K35" s="3">
         <v>1424</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L35" s="3">
         <v>1846</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M35" s="3">
         <v>55382</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N35" s="3">
         <v>3892</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O35" s="3">
         <v>32033</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P35" s="3">
         <v>19167</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q35" s="3">
         <v>36662</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R35" s="3">
         <v>2569</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S35" s="3">
         <v>47224</v>
       </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3">
+      <c r="T35" s="3"/>
+      <c r="U35" s="3">
         <v>114792</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V35" s="3">
         <v>5511</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W35" s="3">
         <v>4622</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X35" s="3">
         <v>1474</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Y35" s="3">
         <v>11085</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="Z35" s="3">
         <v>16</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA35" s="3">
         <v>695</v>
       </c>
     </row>
-    <row r="35" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="12">
+    <row r="36" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <v>614317</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <v>602581</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F36" s="8">
         <v>524</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G36" s="8">
         <v>55683</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H36" s="8">
         <v>9224</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I36" s="8">
         <v>3107</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J36" s="8">
         <v>77</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K36" s="8">
         <v>1424</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L36" s="8">
         <v>1833</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M36" s="8">
         <v>55240</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N36" s="8">
         <v>3885</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O36" s="8">
         <v>31772</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P36" s="8">
         <v>18897</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q36" s="8">
         <v>36589</v>
       </c>
-      <c r="R35" s="8">
+      <c r="R36" s="8">
         <v>2571</v>
       </c>
-      <c r="S35" s="8">
+      <c r="S36" s="8">
         <v>46753</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T36" s="8">
         <v>1</v>
       </c>
-      <c r="U35" s="8">
+      <c r="U36" s="8">
         <v>114370</v>
       </c>
-      <c r="V35" s="8">
+      <c r="V36" s="8">
         <v>5457</v>
       </c>
-      <c r="W35" s="8">
+      <c r="W36" s="8">
         <v>4577</v>
       </c>
-      <c r="X35" s="8">
+      <c r="X36" s="8">
         <v>1352</v>
       </c>
-      <c r="Y35" s="8">
+      <c r="Y36" s="8">
         <v>11060</v>
       </c>
-      <c r="Z35" s="8">
+      <c r="Z36" s="8">
         <v>16</v>
       </c>
-      <c r="AA35" s="8">
+      <c r="AA36" s="8">
         <v>696</v>
       </c>
     </row>
-    <row r="36" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="14">
+    <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="3">
         <v>611918</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E37" s="3">
         <v>600194</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="3">
         <v>523</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G37" s="3">
         <v>55693</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H37" s="3">
         <v>9204</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I37" s="3">
         <v>3089</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J37" s="3">
         <v>77</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K37" s="3">
         <v>1424</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L37" s="3">
         <v>1820</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M37" s="3">
         <v>55146</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N37" s="3">
         <v>3885</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O37" s="3">
         <v>31565</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P37" s="3">
         <v>18897</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q37" s="3">
         <v>36589</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R37" s="3">
         <v>2568</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S37" s="3">
         <v>46254</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T37" s="3">
         <v>0</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U37" s="3">
         <v>113789</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V37" s="3">
         <v>5441</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W37" s="3">
         <v>4530</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X37" s="3">
         <v>1276</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Y37" s="3">
         <v>11016</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="Z37" s="3">
         <v>16</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AA37" s="3">
         <v>694</v>
       </c>
     </row>
-    <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="12">
+    <row r="38" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>609072</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>597797</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <v>523</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <v>55620</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H38" s="8">
         <v>9119</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I38" s="8">
         <v>3048</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J38" s="8">
         <v>77</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K38" s="8">
         <v>1424</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L38" s="8">
         <v>1803</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M38" s="8">
         <v>54943</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N38" s="8">
         <v>3886</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O38" s="8">
         <v>31259</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P38" s="8">
         <v>18473</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q38" s="8">
         <v>35996</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R38" s="8">
         <v>2581</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S38" s="8">
         <v>45940</v>
       </c>
-      <c r="T37" s="8">
+      <c r="T38" s="8">
         <v>1</v>
       </c>
-      <c r="U37" s="8">
+      <c r="U38" s="8">
         <v>112805</v>
       </c>
-      <c r="V37" s="8">
+      <c r="V38" s="8">
         <v>5407</v>
       </c>
-      <c r="W37" s="8">
+      <c r="W38" s="8">
         <v>4480</v>
       </c>
-      <c r="X37" s="8">
+      <c r="X38" s="8">
         <v>1159</v>
       </c>
-      <c r="Y37" s="8">
+      <c r="Y38" s="8">
         <v>10978</v>
       </c>
-      <c r="Z37" s="8">
+      <c r="Z38" s="8">
         <v>16</v>
       </c>
-      <c r="AA37" s="8">
+      <c r="AA38" s="8">
         <v>693</v>
       </c>
     </row>
-    <row r="38" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="16">
+    <row r="39" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>607150</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>596005</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>524</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>55683</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="6">
         <v>9107</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I39" s="6">
         <v>3044</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J39" s="6">
         <v>77</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K39" s="6">
         <v>1424</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L39" s="6">
         <v>1789</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M39" s="6">
         <v>54848</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N39" s="6">
         <v>3889</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O39" s="6">
         <v>31054</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P39" s="6">
         <v>18394</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q39" s="6">
         <v>35736</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R39" s="6">
         <v>2573</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S39" s="6">
         <v>45388</v>
       </c>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6">
+      <c r="T39" s="6"/>
+      <c r="U39" s="6">
         <v>112333</v>
       </c>
-      <c r="V38" s="6">
+      <c r="V39" s="6">
         <v>5355</v>
       </c>
-      <c r="W38" s="6">
+      <c r="W39" s="6">
         <v>4440</v>
       </c>
-      <c r="X38" s="6">
+      <c r="X39" s="6">
         <v>1030</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Y39" s="6">
         <v>10960</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="Z39" s="6">
         <v>16</v>
       </c>
-      <c r="AA38" s="6">
+      <c r="AA39" s="6">
         <v>693</v>
       </c>
     </row>
-    <row r="39" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="12">
+    <row r="40" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12">
         <v>2021</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>606090</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="8">
         <v>594443</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <v>520</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <v>55717</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H40" s="8">
         <v>9091</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I40" s="8">
         <v>3021</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="8">
         <v>77</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K40" s="8">
         <v>1424</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L40" s="8">
         <v>1787</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M40" s="8">
         <v>54743</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N40" s="8">
         <v>3888</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O40" s="8">
         <v>30885</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P40" s="8">
         <v>18334</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q40" s="8">
         <v>35952</v>
       </c>
-      <c r="R39" s="8">
+      <c r="R40" s="8">
         <v>2604</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S40" s="8">
         <v>45157</v>
       </c>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8">
+      <c r="T40" s="8"/>
+      <c r="U40" s="8">
         <v>111857</v>
       </c>
-      <c r="V39" s="8">
+      <c r="V40" s="8">
         <v>5309</v>
       </c>
-      <c r="W39" s="8">
+      <c r="W40" s="8">
         <v>4400</v>
       </c>
-      <c r="X39" s="8">
+      <c r="X40" s="8">
         <v>957</v>
       </c>
-      <c r="Y39" s="8">
+      <c r="Y40" s="8">
         <v>10938</v>
       </c>
-      <c r="Z39" s="8">
+      <c r="Z40" s="8">
         <v>16</v>
       </c>
-      <c r="AA39" s="8">
+      <c r="AA40" s="8">
         <v>692</v>
       </c>
     </row>
-    <row r="40" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="14">
+    <row r="41" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <v>603380</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="3">
         <v>591451</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="3">
         <v>519</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="3">
         <v>55656</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H41" s="3">
         <v>9054</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I41" s="3">
         <v>2985</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J41" s="3">
         <v>77</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K41" s="3">
         <v>1424</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L41" s="3">
         <v>1775</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M41" s="3">
         <v>54335</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N41" s="3">
         <v>3888</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O41" s="3">
         <v>30589</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P41" s="3">
         <v>18224</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q41" s="3">
         <v>35977</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R41" s="3">
         <v>2594</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S41" s="3">
         <v>44663</v>
       </c>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3">
+      <c r="T41" s="3"/>
+      <c r="U41" s="3">
         <v>110970</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V41" s="3">
         <v>5249</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W41" s="3">
         <v>4357</v>
       </c>
-      <c r="X40" s="3">
+      <c r="X41" s="3">
         <v>868</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="Y41" s="3">
         <v>10873</v>
       </c>
-      <c r="Z40" s="3">
+      <c r="Z41" s="3">
         <v>16</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AA41" s="3">
         <v>692</v>
       </c>
     </row>
-    <row r="41" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="12">
+    <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12">
         <v>2021</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>602061</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="8">
         <v>590200</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="8">
         <v>520</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <v>55685</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H42" s="8">
         <v>8999</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I42" s="8">
         <v>2982</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J42" s="8">
         <v>77</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K42" s="8">
         <v>1424</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L42" s="8">
         <v>1768</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M42" s="8">
         <v>54086</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N42" s="8">
         <v>3885</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O42" s="8">
         <v>30303</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P42" s="8">
         <v>18211</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q42" s="8">
         <v>36050</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R42" s="8">
         <v>2611</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S42" s="8">
         <v>44484</v>
       </c>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8">
+      <c r="T42" s="8"/>
+      <c r="U42" s="8">
         <v>110396</v>
       </c>
-      <c r="V41" s="8">
+      <c r="V42" s="8">
         <v>5205</v>
       </c>
-      <c r="W41" s="8">
+      <c r="W42" s="8">
         <v>4316</v>
       </c>
-      <c r="X41" s="8">
+      <c r="X42" s="8">
         <v>836</v>
       </c>
-      <c r="Y41" s="8">
+      <c r="Y42" s="8">
         <v>10858</v>
       </c>
-      <c r="Z41" s="8">
+      <c r="Z42" s="8">
         <v>16</v>
       </c>
-      <c r="AA41" s="8">
+      <c r="AA42" s="8">
         <v>689</v>
       </c>
     </row>
-    <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14">
+    <row r="43" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="3">
         <v>599199</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="3">
         <v>586326</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <v>516</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="3">
         <v>55678</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H43" s="3">
         <v>8883</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I43" s="3">
         <v>2962</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J43" s="3">
         <v>77</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K43" s="3">
         <v>1424</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L43" s="3">
         <v>1761</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M43" s="3">
         <v>53840</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N43" s="3">
         <v>3878</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O43" s="3">
         <v>30091</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P43" s="3">
         <v>18180</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q43" s="3">
         <v>35973</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R43" s="3">
         <v>2618</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S43" s="3">
         <v>43957</v>
       </c>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3">
+      <c r="T43" s="3"/>
+      <c r="U43" s="3">
         <v>110047</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V43" s="3">
         <v>5137</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W43" s="3">
         <v>4253</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X43" s="3">
         <v>705</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y43" s="3">
         <v>10790</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z43" s="3">
         <v>16</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA43" s="3">
         <v>686</v>
       </c>
     </row>
-    <row r="43" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="12">
+    <row r="44" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <v>597975</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E44" s="8">
         <v>583854</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F44" s="8">
         <v>505</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G44" s="8">
         <v>55668</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H44" s="8">
         <v>8821</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I44" s="8">
         <v>2977</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J44" s="8">
         <v>77</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K44" s="8">
         <v>1424</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L44" s="8">
         <v>1753</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M44" s="8">
         <v>53278</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N44" s="8">
         <v>3892</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O44" s="8">
         <v>29694</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P44" s="8">
         <v>18180</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q44" s="8">
         <v>35973</v>
       </c>
-      <c r="R43" s="8">
+      <c r="R44" s="8">
         <v>2605</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S44" s="8">
         <v>42961</v>
       </c>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8">
+      <c r="T44" s="8"/>
+      <c r="U44" s="8">
         <v>138152</v>
       </c>
-      <c r="V43" s="8">
+      <c r="V44" s="8">
         <v>6095</v>
       </c>
-      <c r="W43" s="8">
+      <c r="W44" s="8">
         <v>4045</v>
       </c>
-      <c r="X43" s="8">
+      <c r="X44" s="8">
         <v>666</v>
       </c>
-      <c r="Y43" s="8">
+      <c r="Y44" s="8">
         <v>10713</v>
       </c>
-      <c r="Z43" s="8">
+      <c r="Z44" s="8">
         <v>17</v>
       </c>
-      <c r="AA43" s="8">
+      <c r="AA44" s="8">
         <v>682</v>
       </c>
     </row>
-    <row r="44" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="14">
+    <row r="45" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="3">
         <v>594590</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="3">
         <v>580812</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <v>505</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="3">
         <v>55750</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H45" s="3">
         <v>8821</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I45" s="3">
         <v>2979</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J45" s="3">
         <v>77</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K45" s="3">
         <v>1424</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L45" s="3">
         <v>1754</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M45" s="3">
         <v>53393</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N45" s="3">
         <v>3894</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O45" s="3">
         <v>29714</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P45" s="3">
         <v>17962</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q45" s="3">
         <v>36188</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R45" s="3">
         <v>2604</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S45" s="3">
         <v>42900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T45" s="3">
         <v>1</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U45" s="3">
         <v>109339</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V45" s="3">
         <v>5068</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W45" s="3">
         <v>4043</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X45" s="3">
         <v>666</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y45" s="3">
         <v>10697</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z45" s="3">
         <v>17</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA45" s="3">
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="12">
+    <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>593307</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E46" s="8">
         <v>578970</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="8">
         <v>511</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <v>55681</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H46" s="8">
         <v>8835</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I46" s="8">
         <v>2976</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J46" s="8">
         <v>77</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K46" s="8">
         <v>1424</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L46" s="8">
         <v>1750</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M46" s="8">
         <v>53077</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N46" s="8">
         <v>3889</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O46" s="8">
         <v>29454</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P46" s="8">
         <v>20219</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q46" s="8">
         <v>37753</v>
       </c>
-      <c r="R45" s="8">
+      <c r="R46" s="8">
         <v>2598</v>
       </c>
-      <c r="S45" s="8">
+      <c r="S46" s="8">
         <v>42432</v>
       </c>
-      <c r="T45" s="8">
+      <c r="T46" s="8">
         <v>1</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U46" s="8">
         <v>109131</v>
       </c>
-      <c r="V45" s="8">
+      <c r="V46" s="8">
         <v>4950</v>
       </c>
-      <c r="W45" s="8">
+      <c r="W46" s="8">
         <v>4018</v>
       </c>
-      <c r="X45" s="8">
+      <c r="X46" s="8">
         <v>650</v>
       </c>
-      <c r="Y45" s="8">
+      <c r="Y46" s="8">
         <v>10710</v>
       </c>
-      <c r="Z45" s="8">
+      <c r="Z46" s="8">
         <v>17</v>
       </c>
-      <c r="AA45" s="8">
+      <c r="AA46" s="8">
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="14">
+    <row r="47" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="3">
         <v>590245</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E47" s="3">
         <v>576050</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F47" s="3">
         <v>510</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G47" s="3">
         <v>55725</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H47" s="3">
         <v>8835</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I47" s="3">
         <v>2957</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J47" s="3">
         <v>77</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K47" s="3">
         <v>1424</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L47" s="3">
         <v>1740</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M47" s="3">
         <v>52924</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N47" s="3">
         <v>3886</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O47" s="3">
         <v>29218</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P47" s="3">
         <v>17867</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q47" s="3">
         <v>36460</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R47" s="3">
         <v>2606</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S47" s="3">
         <v>42065</v>
       </c>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3">
+      <c r="T47" s="3"/>
+      <c r="U47" s="3">
         <v>108383</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V47" s="3">
         <v>4897</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W47" s="3">
         <v>3940</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X47" s="3">
         <v>634</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y47" s="3">
         <v>10660</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="Z47" s="3">
         <v>17</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AA47" s="3">
         <v>680</v>
       </c>
     </row>
-    <row r="47" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="12">
+    <row r="48" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <v>588077</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E48" s="8">
         <v>573877</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F48" s="8">
         <v>509</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G48" s="8">
         <v>55905</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H48" s="8">
         <v>8876</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I48" s="8">
         <v>2941</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J48" s="8">
         <v>77</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K48" s="8">
         <v>1424</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L48" s="8">
         <v>1741</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M48" s="8">
         <v>52732</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N48" s="8">
         <v>3884</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O48" s="8">
         <v>29115</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P48" s="8">
         <v>17854</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q48" s="8">
         <v>36552</v>
       </c>
-      <c r="R47" s="8">
+      <c r="R48" s="8">
         <v>2596</v>
       </c>
-      <c r="S47" s="8">
+      <c r="S48" s="8">
         <v>41550</v>
       </c>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8">
+      <c r="T48" s="8"/>
+      <c r="U48" s="8">
         <v>107848</v>
       </c>
-      <c r="V47" s="8">
+      <c r="V48" s="8">
         <v>4861</v>
       </c>
-      <c r="W47" s="8">
+      <c r="W48" s="8">
         <v>3840</v>
       </c>
-      <c r="X47" s="8">
+      <c r="X48" s="8">
         <v>623</v>
       </c>
-      <c r="Y47" s="8">
+      <c r="Y48" s="8">
         <v>10625</v>
       </c>
-      <c r="Z47" s="8">
+      <c r="Z48" s="8">
         <v>17</v>
       </c>
-      <c r="AA47" s="8">
+      <c r="AA48" s="8">
         <v>679</v>
       </c>
     </row>
-    <row r="48" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="14">
+    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <v>586093</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="3">
         <v>571129</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>508</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>56021</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="3">
         <v>8878</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I49" s="3">
         <v>2934</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J49" s="3">
         <v>77</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K49" s="3">
         <v>1424</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L49" s="3">
         <v>1732</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M49" s="3">
         <v>52504</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N49" s="3">
         <v>3883</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O49" s="3">
         <v>29014</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P49" s="3">
         <v>17887</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q49" s="3">
         <v>36498</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R49" s="3">
         <v>2578</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S49" s="3">
         <v>40750</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U49" s="3">
         <v>107480</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V49" s="3">
         <v>4839</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W49" s="3">
         <v>3789</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X49" s="3">
         <v>621</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y49" s="3">
         <v>10600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z49" s="3">
         <v>17</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA49" s="3">
         <v>678</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="12">
+    <row r="50" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>583440</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="8">
         <v>567677</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F50" s="8">
         <v>507</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="8">
         <v>56059</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H50" s="8">
         <v>8871</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I50" s="8">
         <v>2921</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J50" s="8">
         <v>77</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K50" s="8">
         <v>1424</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L50" s="8">
         <v>1728</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M50" s="8">
         <v>52301</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N50" s="8">
         <v>3880</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O50" s="8">
         <v>28867</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P50" s="8">
         <v>17889</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q50" s="8">
         <v>36421</v>
       </c>
-      <c r="R49" s="8">
+      <c r="R50" s="8">
         <v>2569</v>
       </c>
-      <c r="S49" s="8">
+      <c r="S50" s="8">
         <v>39851</v>
       </c>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8">
+      <c r="T50" s="8"/>
+      <c r="U50" s="8">
         <v>106898</v>
       </c>
-      <c r="V49" s="8">
+      <c r="V50" s="8">
         <v>4801</v>
       </c>
-      <c r="W49" s="8">
+      <c r="W50" s="8">
         <v>3689</v>
       </c>
-      <c r="X49" s="8">
+      <c r="X50" s="8">
         <v>585</v>
       </c>
-      <c r="Y49" s="8">
+      <c r="Y50" s="8">
         <v>10566</v>
       </c>
-      <c r="Z49" s="8">
+      <c r="Z50" s="8">
         <v>17</v>
       </c>
-      <c r="AA49" s="8">
+      <c r="AA50" s="8">
         <v>674</v>
       </c>
     </row>
-    <row r="50" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="16">
+    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>581299</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>565156</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>507</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="6">
         <v>56230</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H51" s="6">
         <v>8897</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I51" s="6">
         <v>2930</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J51" s="6">
         <v>77</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K51" s="6">
         <v>1424</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L51" s="6">
         <v>1727</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M51" s="6">
         <v>52149</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N51" s="6">
         <v>3874</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O51" s="6">
         <v>28827</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P51" s="6">
         <v>17957</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q51" s="6">
         <v>36403</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R51" s="6">
         <v>2555</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S51" s="6">
         <v>39272</v>
       </c>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6">
+      <c r="T51" s="6"/>
+      <c r="U51" s="6">
         <v>106698</v>
       </c>
-      <c r="V50" s="6">
+      <c r="V51" s="6">
         <v>4780</v>
       </c>
-      <c r="W50" s="6">
+      <c r="W51" s="6">
         <v>3642</v>
       </c>
-      <c r="X50" s="6">
+      <c r="X51" s="6">
         <v>578</v>
       </c>
-      <c r="Y50" s="6">
+      <c r="Y51" s="6">
         <v>10557</v>
       </c>
-      <c r="Z50" s="6">
+      <c r="Z51" s="6">
         <v>17</v>
       </c>
-      <c r="AA50" s="6">
+      <c r="AA51" s="6">
         <v>671</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="12">
+    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12">
         <v>2020</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <v>580035</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="8">
         <v>563400</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F52" s="8">
         <v>505</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="8">
         <v>56274</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H52" s="8">
         <v>8916</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I52" s="8">
         <v>2933</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J52" s="8">
         <v>77</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K52" s="8">
         <v>1424</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L52" s="8">
         <v>1736</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M52" s="8">
         <v>52012</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N52" s="8">
         <v>3877</v>
       </c>
-      <c r="O51" s="8">
+      <c r="O52" s="8">
         <v>28815</v>
       </c>
-      <c r="P51" s="8">
+      <c r="P52" s="8">
         <v>18007</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q52" s="8">
         <v>36384</v>
       </c>
-      <c r="R51" s="8">
+      <c r="R52" s="8">
         <v>2551</v>
       </c>
-      <c r="S51" s="8">
+      <c r="S52" s="8">
         <v>38799</v>
       </c>
-      <c r="T51" s="8">
+      <c r="T52" s="8">
         <v>0</v>
       </c>
-      <c r="U51" s="8">
+      <c r="U52" s="8">
         <v>106486</v>
       </c>
-      <c r="V51" s="8">
+      <c r="V52" s="8">
         <v>4754</v>
       </c>
-      <c r="W51" s="8">
+      <c r="W52" s="8">
         <v>3612</v>
       </c>
-      <c r="X51" s="8">
+      <c r="X52" s="8">
         <v>569</v>
       </c>
-      <c r="Y51" s="8">
+      <c r="Y52" s="8">
         <v>10542</v>
       </c>
-      <c r="Z51" s="8">
+      <c r="Z52" s="8">
         <v>17</v>
       </c>
-      <c r="AA51" s="8">
+      <c r="AA52" s="8">
         <v>670</v>
       </c>
     </row>
-    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="14">
+    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="3">
         <v>576835</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <v>560383</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="3">
         <v>501</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G53" s="3">
         <v>56253</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="3">
         <v>8958</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I53" s="3">
         <v>2929</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J53" s="3">
         <v>77</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K53" s="3">
         <v>1424</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L53" s="3">
         <v>1734</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M53" s="3">
         <v>51472</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N53" s="3">
         <v>3876</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O53" s="3">
         <v>28607</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P53" s="3">
         <v>17914</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q53" s="3">
         <v>36355</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R53" s="3">
         <v>2550</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S53" s="3">
         <v>37952</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T53" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U53" s="3">
         <v>106174</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V53" s="3">
         <v>4716</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W53" s="3">
         <v>3542</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X53" s="3">
         <v>553</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y53" s="3">
         <v>10450</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z53" s="3">
         <v>17</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA53" s="3">
         <v>665</v>
       </c>
     </row>
-    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="12">
+    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="12">
         <v>2020</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <v>574056</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E54" s="8">
         <v>556941</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F54" s="8">
         <v>499</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <v>56245</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H54" s="8">
         <v>8933</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I54" s="8">
         <v>2902</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J54" s="8">
         <v>77</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K54" s="8">
         <v>1424</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L54" s="8">
         <v>1739</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M54" s="8">
         <v>51341</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N54" s="8">
         <v>3877</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O54" s="8">
         <v>28460</v>
       </c>
-      <c r="P53" s="8">
+      <c r="P54" s="8">
         <v>17784</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q54" s="8">
         <v>36186</v>
       </c>
-      <c r="R53" s="8">
+      <c r="R54" s="8">
         <v>2539</v>
       </c>
-      <c r="S53" s="8">
+      <c r="S54" s="8">
         <v>37095</v>
       </c>
-      <c r="T53" s="8">
+      <c r="T54" s="8">
         <v>1</v>
       </c>
-      <c r="U53" s="8">
+      <c r="U54" s="8">
         <v>105781</v>
       </c>
-      <c r="V53" s="8">
+      <c r="V54" s="8">
         <v>4675</v>
       </c>
-      <c r="W53" s="8">
+      <c r="W54" s="8">
         <v>3405</v>
       </c>
-      <c r="X53" s="8">
+      <c r="X54" s="8">
         <v>535</v>
       </c>
-      <c r="Y53" s="8">
+      <c r="Y54" s="8">
         <v>10417</v>
       </c>
-      <c r="Z53" s="8">
+      <c r="Z54" s="8">
         <v>17</v>
       </c>
-      <c r="AA53" s="8">
+      <c r="AA54" s="8">
         <v>666</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="14">
+    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="3">
         <v>571367</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="3">
         <v>552611</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F55" s="3">
         <v>495</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G55" s="3">
         <v>56341</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H55" s="3">
         <v>9019</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I55" s="3">
         <v>2941</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J55" s="3">
         <v>77</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K55" s="3">
         <v>1424</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L55" s="3">
         <v>1746</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M55" s="3">
         <v>51196</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N55" s="3">
         <v>3879</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O55" s="3">
         <v>28351</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P55" s="3">
         <v>17563</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q55" s="3">
         <v>35861</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R55" s="3">
         <v>2521</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S55" s="3">
         <v>36352</v>
       </c>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3">
         <v>105315</v>
       </c>
-      <c r="V54" s="3">
+      <c r="V55" s="3">
         <v>4640</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W55" s="3">
         <v>3253</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X55" s="3">
         <v>533</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y55" s="3">
         <v>10374</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="Z55" s="3">
         <v>17</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AA55" s="3">
         <v>666</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="12">
+    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="8">
         <v>569174</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E56" s="8">
         <v>549631</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F56" s="8">
         <v>496</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G56" s="8">
         <v>56348</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H56" s="8">
         <v>9127</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I56" s="8">
         <v>2959</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J56" s="8">
         <v>77</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K56" s="8">
         <v>1424</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L56" s="8">
         <v>1745</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M56" s="8">
         <v>51089</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N56" s="8">
         <v>3866</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O56" s="8">
         <v>28370</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P56" s="8">
         <v>17421</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="Q56" s="8">
         <v>35866</v>
       </c>
-      <c r="R55" s="8">
+      <c r="R56" s="8">
         <v>2504</v>
       </c>
-      <c r="S55" s="8">
+      <c r="S56" s="8">
         <v>35789</v>
       </c>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8">
+      <c r="T56" s="8"/>
+      <c r="U56" s="8">
         <v>104940</v>
       </c>
-      <c r="V55" s="8">
+      <c r="V56" s="8">
         <v>4612</v>
       </c>
-      <c r="W55" s="8">
+      <c r="W56" s="8">
         <v>3208</v>
       </c>
-      <c r="X55" s="8">
+      <c r="X56" s="8">
         <v>503</v>
       </c>
-      <c r="Y55" s="8">
+      <c r="Y56" s="8">
         <v>10368</v>
       </c>
-      <c r="Z55" s="8">
+      <c r="Z56" s="8">
         <v>17</v>
       </c>
-      <c r="AA55" s="8">
+      <c r="AA56" s="8">
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="14">
+    <row r="57" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D57" s="3">
         <v>567168</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E57" s="3">
         <v>547540</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="3">
         <v>498</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G57" s="3">
         <v>56269</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H57" s="3">
         <v>9193</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I57" s="3">
         <v>2973</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J57" s="3">
         <v>77</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K57" s="3">
         <v>1424</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L57" s="3">
         <v>1747</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M57" s="3">
         <v>50966</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N57" s="3">
         <v>3857</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O57" s="3">
         <v>28348</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P57" s="3">
         <v>17331</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="Q57" s="3">
         <v>35832</v>
       </c>
-      <c r="R56" s="3">
+      <c r="R57" s="3">
         <v>2489</v>
       </c>
-      <c r="S56" s="3">
+      <c r="S57" s="3">
         <v>35300</v>
       </c>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3">
+      <c r="T57" s="3"/>
+      <c r="U57" s="3">
         <v>104554</v>
       </c>
-      <c r="V56" s="3">
+      <c r="V57" s="3">
         <v>4605</v>
       </c>
-      <c r="W56" s="3">
+      <c r="W57" s="3">
         <v>3183</v>
       </c>
-      <c r="X56" s="3">
+      <c r="X57" s="3">
         <v>491</v>
       </c>
-      <c r="Y56" s="3">
+      <c r="Y57" s="3">
         <v>10340</v>
       </c>
-      <c r="Z56" s="3">
+      <c r="Z57" s="3">
         <v>16</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AA57" s="3">
         <v>662</v>
       </c>
     </row>
-    <row r="57" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="12">
+    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>566042</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>545916</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F58" s="8">
         <v>498</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <v>56291</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H58" s="8">
         <v>9187</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I58" s="8">
         <v>2980</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J58" s="8">
         <v>77</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K58" s="8">
         <v>1424</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L58" s="8">
         <v>1748</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M58" s="8">
         <v>50878</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N58" s="8">
         <v>3863</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O58" s="8">
         <v>28349</v>
       </c>
-      <c r="P57" s="8">
+      <c r="P58" s="8">
         <v>17359</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q58" s="8">
         <v>35902</v>
       </c>
-      <c r="R57" s="8">
+      <c r="R58" s="8">
         <v>2485</v>
       </c>
-      <c r="S57" s="8">
+      <c r="S58" s="8">
         <v>35117</v>
       </c>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8">
+      <c r="T58" s="8"/>
+      <c r="U58" s="8">
         <v>104123</v>
       </c>
-      <c r="V57" s="8">
+      <c r="V58" s="8">
         <v>4584</v>
       </c>
-      <c r="W57" s="8">
+      <c r="W58" s="8">
         <v>3179</v>
       </c>
-      <c r="X57" s="8">
+      <c r="X58" s="8">
         <v>489</v>
       </c>
-      <c r="Y57" s="8">
+      <c r="Y58" s="8">
         <v>10327</v>
       </c>
-      <c r="Z57" s="8">
+      <c r="Z58" s="8">
         <v>17</v>
       </c>
-      <c r="AA57" s="8">
+      <c r="AA58" s="8">
         <v>661</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="14">
+    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D59" s="3">
         <v>565980</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="3">
         <v>545400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F59" s="3">
         <v>499</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G59" s="3">
         <v>56275</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H59" s="3">
         <v>9187</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I59" s="3">
         <v>2982</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J59" s="3">
         <v>77</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K59" s="3">
         <v>1424</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L59" s="3">
         <v>1755</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M59" s="3">
         <v>50805</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N59" s="3">
         <v>3864</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O59" s="3">
         <v>28294</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P59" s="3">
         <v>17361</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q59" s="3">
         <v>36010</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R59" s="3">
         <v>2485</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S59" s="3">
         <v>34872</v>
       </c>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3">
+      <c r="T59" s="3"/>
+      <c r="U59" s="3">
         <v>104093</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V59" s="3">
         <v>4584</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W59" s="3">
         <v>3174</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X59" s="3">
         <v>486</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y59" s="3">
         <v>10322</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="Z59" s="3">
         <v>17</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA59" s="3">
         <v>661</v>
       </c>
     </row>
-    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="12">
+    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="8">
         <v>565883</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E60" s="8">
         <v>545244</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F60" s="8">
         <v>499</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G60" s="8">
         <v>56275</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H60" s="8">
         <v>9189</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I60" s="8">
         <v>2982</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J60" s="8">
         <v>77</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K60" s="8">
         <v>1424</v>
       </c>
-      <c r="L59" s="8">
+      <c r="L60" s="8">
         <v>1755</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M60" s="8">
         <v>50796</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N60" s="8">
         <v>3864</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O60" s="8">
         <v>28297</v>
       </c>
-      <c r="P59" s="8">
+      <c r="P60" s="8">
         <v>17361</v>
       </c>
-      <c r="Q59" s="8">
+      <c r="Q60" s="8">
         <v>36010</v>
       </c>
-      <c r="R59" s="8">
+      <c r="R60" s="8">
         <v>2485</v>
       </c>
-      <c r="S59" s="8">
+      <c r="S60" s="8">
         <v>34862</v>
       </c>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8">
+      <c r="T60" s="8"/>
+      <c r="U60" s="8">
         <v>104076</v>
       </c>
-      <c r="V59" s="8">
+      <c r="V60" s="8">
         <v>4584</v>
       </c>
-      <c r="W59" s="8">
+      <c r="W60" s="8">
         <v>3174</v>
       </c>
-      <c r="X59" s="8">
+      <c r="X60" s="8">
         <v>486</v>
       </c>
-      <c r="Y59" s="8">
+      <c r="Y60" s="8">
         <v>10322</v>
       </c>
-      <c r="Z59" s="8">
+      <c r="Z60" s="8">
         <v>17</v>
       </c>
-      <c r="AA59" s="8">
+      <c r="AA60" s="8">
         <v>661</v>
       </c>
     </row>
-    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="14">
+    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D61" s="3">
         <v>565809</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E61" s="3">
         <v>545128</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="3">
         <v>499</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G61" s="3">
         <v>56281</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H61" s="3">
         <v>9189</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I61" s="3">
         <v>2982</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J61" s="3">
         <v>77</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K61" s="3">
         <v>1424</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L61" s="3">
         <v>1755</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M61" s="3">
         <v>50794</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N61" s="3">
         <v>3867</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O61" s="3">
         <v>28301</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P61" s="3">
         <v>17361</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q61" s="3">
         <v>36010</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R61" s="3">
         <v>2487</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S61" s="3">
         <v>34874</v>
       </c>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3">
+      <c r="T61" s="3"/>
+      <c r="U61" s="3">
         <v>104084</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V61" s="3">
         <v>4585</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W61" s="3">
         <v>3174</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X61" s="3">
         <v>486</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Y61" s="3">
         <v>10319</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="Z61" s="3">
         <v>17</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AA61" s="3">
         <v>661</v>
       </c>
     </row>
-    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="12">
+    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <v>564089</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>542595</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F62" s="8">
         <v>496</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="8">
         <v>56248</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H62" s="8">
         <v>9180</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I62" s="8">
         <v>2964</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J62" s="8">
         <v>77</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K62" s="8">
         <v>1424</v>
       </c>
-      <c r="L61" s="8">
+      <c r="L62" s="8">
         <v>1745</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M62" s="8">
         <v>50693</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N62" s="8">
         <v>3869</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O62" s="8">
         <v>28110</v>
       </c>
-      <c r="P61" s="8">
+      <c r="P62" s="8">
         <v>16719</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="Q62" s="8">
         <v>35910</v>
       </c>
-      <c r="R61" s="8">
+      <c r="R62" s="8">
         <v>2467</v>
       </c>
-      <c r="S61" s="8">
+      <c r="S62" s="8">
         <v>34546</v>
       </c>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8">
+      <c r="T62" s="8"/>
+      <c r="U62" s="8">
         <v>103491</v>
       </c>
-      <c r="V61" s="8">
+      <c r="V62" s="8">
         <v>4545</v>
       </c>
-      <c r="W61" s="8">
+      <c r="W62" s="8">
         <v>3124</v>
       </c>
-      <c r="X61" s="8">
+      <c r="X62" s="8">
         <v>480</v>
       </c>
-      <c r="Y61" s="8">
+      <c r="Y62" s="8">
         <v>10285</v>
       </c>
-      <c r="Z61" s="8">
+      <c r="Z62" s="8">
         <v>17</v>
       </c>
-      <c r="AA61" s="8">
+      <c r="AA62" s="8">
         <v>662</v>
       </c>
     </row>
-    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="16">
+    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="16">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>562170</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>539768</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>496</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>56222</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H63" s="6">
         <v>9165</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I63" s="6">
         <v>2963</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J63" s="6">
         <v>77</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K63" s="6">
         <v>1424</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L63" s="6">
         <v>1747</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M63" s="6">
         <v>50528</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N63" s="6">
         <v>3862</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O63" s="6">
         <v>27916</v>
       </c>
-      <c r="P62" s="6">
+      <c r="P63" s="6">
         <v>16577</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="Q63" s="6">
         <v>35720</v>
       </c>
-      <c r="R62" s="6">
+      <c r="R63" s="6">
         <v>2434</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S63" s="6">
         <v>34311</v>
       </c>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6">
+      <c r="T63" s="6"/>
+      <c r="U63" s="6">
         <v>102764</v>
       </c>
-      <c r="V62" s="6">
+      <c r="V63" s="6">
         <v>4504</v>
       </c>
-      <c r="W62" s="6">
+      <c r="W63" s="6">
         <v>3103</v>
       </c>
-      <c r="X62" s="6">
+      <c r="X63" s="6">
         <v>461</v>
       </c>
-      <c r="Y62" s="6">
+      <c r="Y63" s="6">
         <v>10273</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="Z63" s="6">
         <v>17</v>
       </c>
-      <c r="AA62" s="6">
+      <c r="AA63" s="6">
         <v>663</v>
       </c>
     </row>
-    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="12">
+    <row r="64" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="12">
         <v>2019</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>561061</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="8">
         <v>537813</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="8">
         <v>497</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <v>56256</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H64" s="8">
         <v>9149</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I64" s="8">
         <v>2965</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J64" s="8">
         <v>77</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K64" s="8">
         <v>1424</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L64" s="8">
         <v>1747</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M64" s="8">
         <v>50432</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N64" s="8">
         <v>3858</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O64" s="8">
         <v>27818</v>
       </c>
-      <c r="P63" s="8">
+      <c r="P64" s="8">
         <v>16663</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="Q64" s="8">
         <v>35664</v>
       </c>
-      <c r="R63" s="8">
+      <c r="R64" s="8">
         <v>2427</v>
       </c>
-      <c r="S63" s="8">
+      <c r="S64" s="8">
         <v>33984</v>
       </c>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8">
+      <c r="T64" s="8"/>
+      <c r="U64" s="8">
         <v>102021</v>
       </c>
-      <c r="V63" s="8">
+      <c r="V64" s="8">
         <v>4466</v>
       </c>
-      <c r="W63" s="8">
+      <c r="W64" s="8">
         <v>3102</v>
       </c>
-      <c r="X63" s="8">
+      <c r="X64" s="8">
         <v>462</v>
       </c>
-      <c r="Y63" s="8">
+      <c r="Y64" s="8">
         <v>10222</v>
       </c>
-      <c r="Z63" s="8">
+      <c r="Z64" s="8">
         <v>17</v>
       </c>
-      <c r="AA63" s="8">
+      <c r="AA64" s="8">
         <v>661</v>
       </c>
     </row>
-    <row r="64" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="14">
+    <row r="65" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D65" s="3">
         <v>558626</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E65" s="3">
         <v>535724</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F65" s="3">
         <v>493</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G65" s="3">
         <v>55998</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H65" s="3">
         <v>9075</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I65" s="3">
         <v>2960</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J65" s="3">
         <v>77</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K65" s="3">
         <v>1424</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L65" s="3">
         <v>1718</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M65" s="3">
         <v>50135</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N65" s="3">
         <v>3846</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O65" s="3">
         <v>27391</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P65" s="3">
         <v>16776</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="Q65" s="3">
         <v>35622</v>
       </c>
-      <c r="R64" s="3">
+      <c r="R65" s="3">
         <v>2417</v>
       </c>
-      <c r="S64" s="3">
+      <c r="S65" s="3">
         <v>33833</v>
       </c>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3">
+      <c r="T65" s="3"/>
+      <c r="U65" s="3">
         <v>101688</v>
       </c>
-      <c r="V64" s="3">
+      <c r="V65" s="3">
         <v>4382</v>
       </c>
-      <c r="W64" s="3">
+      <c r="W65" s="3">
         <v>3068</v>
       </c>
-      <c r="X64" s="3">
+      <c r="X65" s="3">
         <v>453</v>
       </c>
-      <c r="Y64" s="3">
+      <c r="Y65" s="3">
         <v>10134</v>
       </c>
-      <c r="Z64" s="3">
+      <c r="Z65" s="3">
         <v>17</v>
       </c>
-      <c r="AA64" s="3">
+      <c r="AA65" s="3">
         <v>660</v>
       </c>
     </row>
-    <row r="65" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="12">
+    <row r="66" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="12">
         <v>2019</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <v>556346</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E66" s="8">
         <v>533069</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F66" s="8">
         <v>492</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <v>55871</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H66" s="8">
         <v>9008</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I66" s="8">
         <v>2938</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J66" s="8">
         <v>77</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K66" s="8">
         <v>1424</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L66" s="8">
         <v>1711</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M66" s="8">
         <v>49943</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N66" s="8">
         <v>3804</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O66" s="8">
         <v>27062</v>
       </c>
-      <c r="P65" s="8">
+      <c r="P66" s="8">
         <v>16772</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="Q66" s="8">
         <v>35650</v>
       </c>
-      <c r="R65" s="8">
+      <c r="R66" s="8">
         <v>2402</v>
       </c>
-      <c r="S65" s="8">
+      <c r="S66" s="8">
         <v>33575</v>
       </c>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8">
+      <c r="T66" s="8"/>
+      <c r="U66" s="8">
         <v>101067</v>
       </c>
-      <c r="V65" s="8">
+      <c r="V66" s="8">
         <v>4305</v>
       </c>
-      <c r="W65" s="8">
+      <c r="W66" s="8">
         <v>3036</v>
       </c>
-      <c r="X65" s="8">
+      <c r="X66" s="8">
         <v>442</v>
       </c>
-      <c r="Y65" s="8">
+      <c r="Y66" s="8">
         <v>10077</v>
       </c>
-      <c r="Z65" s="8">
+      <c r="Z66" s="8">
         <v>17</v>
       </c>
-      <c r="AA65" s="8">
+      <c r="AA66" s="8">
         <v>658</v>
       </c>
     </row>
-    <row r="66" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="14">
+    <row r="67" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D67" s="3">
         <v>519860</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E67" s="3">
         <v>505944</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="3">
         <v>449</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G67" s="3">
         <v>49255</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H67" s="3">
         <v>6176</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I67" s="3">
         <v>2186</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J67" s="3">
         <v>73</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K67" s="3">
         <v>1413</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L67" s="3">
         <v>1713</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M67" s="3">
         <v>43268</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N67" s="3">
         <v>3801</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O67" s="3">
         <v>26781</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P67" s="3">
         <v>14771</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q67" s="3">
         <v>34056</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R67" s="3">
         <v>2388</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S67" s="3">
         <v>33239</v>
       </c>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3">
         <v>100098</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V67" s="3">
         <v>4230</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W67" s="3">
         <v>2983</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X67" s="3">
         <v>435</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y67" s="3">
         <v>10048</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="Z67" s="3">
         <v>17</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AA67" s="3">
         <v>655</v>
       </c>
     </row>
-    <row r="67" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="12">
+    <row r="68" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="8">
         <v>517666</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E68" s="8">
         <v>503486</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F68" s="8">
         <v>449</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G68" s="8">
         <v>49171</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H68" s="8">
         <v>6156</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I68" s="8">
         <v>2183</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J68" s="8">
         <v>73</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K68" s="8">
         <v>1413</v>
       </c>
-      <c r="L67" s="8">
+      <c r="L68" s="8">
         <v>1710</v>
       </c>
-      <c r="M67" s="8">
+      <c r="M68" s="8">
         <v>43104</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N68" s="8">
         <v>3785</v>
       </c>
-      <c r="O67" s="8">
+      <c r="O68" s="8">
         <v>26582</v>
       </c>
-      <c r="P67" s="8">
+      <c r="P68" s="8">
         <v>14832</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="Q68" s="8">
         <v>34205</v>
       </c>
-      <c r="R67" s="8">
+      <c r="R68" s="8">
         <v>2384</v>
       </c>
-      <c r="S67" s="8">
+      <c r="S68" s="8">
         <v>33006</v>
       </c>
-      <c r="T67" s="8">
+      <c r="T68" s="8">
         <v>0</v>
       </c>
-      <c r="U67" s="8">
+      <c r="U68" s="8">
         <v>99490</v>
       </c>
-      <c r="V67" s="8">
+      <c r="V68" s="8">
         <v>4173</v>
       </c>
-      <c r="W67" s="8">
+      <c r="W68" s="8">
         <v>2926</v>
       </c>
-      <c r="X67" s="8">
+      <c r="X68" s="8">
         <v>420</v>
       </c>
-      <c r="Y67" s="8">
+      <c r="Y68" s="8">
         <v>10026</v>
       </c>
-      <c r="Z67" s="8">
+      <c r="Z68" s="8">
         <v>17</v>
       </c>
-      <c r="AA67" s="8">
+      <c r="AA68" s="8">
         <v>653</v>
       </c>
     </row>
-    <row r="68" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="14">
+    <row r="69" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D69" s="3">
         <v>514393</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E69" s="3">
         <v>498050</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F69" s="3">
         <v>446</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G69" s="3">
         <v>49300</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H69" s="3">
         <v>6708</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I69" s="3">
         <v>2319</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J69" s="3">
         <v>74</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K69" s="3">
         <v>1417</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L69" s="3">
         <v>1686</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M69" s="3">
         <v>43264</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N69" s="3">
         <v>3716</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O69" s="3">
         <v>25831</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P69" s="3">
         <v>14426</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="Q69" s="3">
         <v>33360</v>
       </c>
-      <c r="R68" s="3">
+      <c r="R69" s="3">
         <v>2308</v>
       </c>
-      <c r="S68" s="3">
+      <c r="S69" s="3">
         <v>31727</v>
       </c>
-      <c r="T68" s="3">
+      <c r="T69" s="3">
         <v>1</v>
       </c>
-      <c r="U68" s="3">
+      <c r="U69" s="3">
         <v>98049</v>
       </c>
-      <c r="V68" s="3">
+      <c r="V69" s="3">
         <v>4070</v>
       </c>
-      <c r="W68" s="3">
+      <c r="W69" s="3">
         <v>2777</v>
       </c>
-      <c r="X68" s="3">
+      <c r="X69" s="3">
         <v>374</v>
       </c>
-      <c r="Y68" s="3">
+      <c r="Y69" s="3">
         <v>9942</v>
       </c>
-      <c r="Z68" s="3">
+      <c r="Z69" s="3">
         <v>17</v>
       </c>
-      <c r="AA68" s="3">
+      <c r="AA69" s="3">
         <v>647</v>
       </c>
     </row>
-    <row r="69" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="12">
+    <row r="70" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <v>512802</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E70" s="8">
         <v>497796</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F70" s="8">
         <v>444</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <v>49053</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H70" s="8">
         <v>6156</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I70" s="8">
         <v>2222</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J70" s="8">
         <v>73</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K70" s="8">
         <v>1413</v>
       </c>
-      <c r="L69" s="8">
+      <c r="L70" s="8">
         <v>1694</v>
       </c>
-      <c r="M69" s="8">
+      <c r="M70" s="8">
         <v>42573</v>
       </c>
-      <c r="N69" s="8">
+      <c r="N70" s="8">
         <v>3733</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O70" s="8">
         <v>25944</v>
       </c>
-      <c r="P69" s="8">
+      <c r="P70" s="8">
         <v>14578</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="Q70" s="8">
         <v>33417</v>
       </c>
-      <c r="R69" s="8">
+      <c r="R70" s="8">
         <v>2333</v>
       </c>
-      <c r="S69" s="8">
+      <c r="S70" s="8">
         <v>32236</v>
       </c>
-      <c r="T69" s="8">
+      <c r="T70" s="8">
         <v>0</v>
       </c>
-      <c r="U69" s="8">
+      <c r="U70" s="8">
         <v>98138</v>
       </c>
-      <c r="V69" s="8">
+      <c r="V70" s="8">
         <v>4072</v>
       </c>
-      <c r="W69" s="8">
+      <c r="W70" s="8">
         <v>2785</v>
       </c>
-      <c r="X69" s="8">
+      <c r="X70" s="8">
         <v>376</v>
       </c>
-      <c r="Y69" s="8">
+      <c r="Y70" s="8">
         <v>9919</v>
       </c>
-      <c r="Z69" s="8">
+      <c r="Z70" s="8">
         <v>17</v>
       </c>
-      <c r="AA69" s="8">
+      <c r="AA70" s="8">
         <v>674</v>
       </c>
     </row>
-    <row r="70" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="14">
+    <row r="71" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <v>506850</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E71" s="3">
         <v>499239</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="3">
         <v>454</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="3">
         <v>48604</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H71" s="3">
         <v>7085</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I71" s="3">
         <v>2531</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J71" s="3">
         <v>78</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K71" s="3">
         <v>239</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L71" s="3">
         <v>2615</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M71" s="3">
         <v>39728</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N71" s="3">
         <v>4268</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O71" s="3">
         <v>28174</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P71" s="3">
         <v>16305</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="Q71" s="3">
         <v>35097</v>
       </c>
-      <c r="R70" s="3">
+      <c r="R71" s="3">
         <v>2307</v>
       </c>
-      <c r="S70" s="3">
+      <c r="S71" s="3">
         <v>31892</v>
       </c>
-      <c r="T70" s="3">
+      <c r="T71" s="3">
         <v>1</v>
       </c>
-      <c r="U70" s="3">
+      <c r="U71" s="3">
         <v>98003</v>
       </c>
-      <c r="V70" s="3">
+      <c r="V71" s="3">
         <v>3983</v>
       </c>
-      <c r="W70" s="3">
+      <c r="W71" s="3">
         <v>2752</v>
       </c>
-      <c r="X70" s="3">
+      <c r="X71" s="3">
         <v>374</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Y71" s="3">
         <v>11506</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="Z71" s="3">
         <v>12</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AA71" s="3">
         <v>810</v>
       </c>
     </row>
-    <row r="71" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="12">
+    <row r="72" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="8">
         <v>504046</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E72" s="8">
         <v>496323</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F72" s="8">
         <v>451</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="8">
         <v>48409</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H72" s="8">
         <v>7032</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I72" s="8">
         <v>2531</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J72" s="8">
         <v>78</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K72" s="8">
         <v>239</v>
       </c>
-      <c r="L71" s="8">
+      <c r="L72" s="8">
         <v>2596</v>
       </c>
-      <c r="M71" s="8">
+      <c r="M72" s="8">
         <v>39439</v>
       </c>
-      <c r="N71" s="8">
+      <c r="N72" s="8">
         <v>4234</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O72" s="8">
         <v>27848</v>
       </c>
-      <c r="P71" s="8">
+      <c r="P72" s="8">
         <v>16180</v>
       </c>
-      <c r="Q71" s="8">
+      <c r="Q72" s="8">
         <v>34956</v>
       </c>
-      <c r="R71" s="8">
+      <c r="R72" s="8">
         <v>2284</v>
       </c>
-      <c r="S71" s="8">
+      <c r="S72" s="8">
         <v>31444</v>
       </c>
-      <c r="T71" s="8">
+      <c r="T72" s="8">
         <v>0</v>
       </c>
-      <c r="U71" s="8">
+      <c r="U72" s="8">
         <v>97190</v>
       </c>
-      <c r="V71" s="8">
+      <c r="V72" s="8">
         <v>3921</v>
       </c>
-      <c r="W71" s="8">
+      <c r="W72" s="8">
         <v>2705</v>
       </c>
-      <c r="X71" s="8">
+      <c r="X72" s="8">
         <v>364</v>
       </c>
-      <c r="Y71" s="8">
+      <c r="Y72" s="8">
         <v>11482</v>
       </c>
-      <c r="Z71" s="8">
+      <c r="Z72" s="8">
         <v>12</v>
       </c>
-      <c r="AA71" s="8">
+      <c r="AA72" s="8">
         <v>807</v>
       </c>
     </row>
-    <row r="72" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="14">
+    <row r="73" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="3">
         <v>501424</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E73" s="3">
         <v>493291</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="3">
         <v>452</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G73" s="3">
         <v>48079</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H73" s="3">
         <v>7029</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I73" s="3">
         <v>2509</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J73" s="3">
         <v>77</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K73" s="3">
         <v>239</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L73" s="3">
         <v>2577</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M73" s="3">
         <v>39178</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N73" s="3">
         <v>4173</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O73" s="3">
         <v>27415</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P73" s="3">
         <v>15815</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q73" s="3">
         <v>34582</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R73" s="3">
         <v>2266</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S73" s="3">
         <v>30934</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T73" s="3">
         <v>1</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U73" s="3">
         <v>96704</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V73" s="3">
         <v>3869</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W73" s="3">
         <v>2699</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X73" s="3">
         <v>360</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y73" s="3">
         <v>11467</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z73" s="3">
         <v>12</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA73" s="3">
         <v>808</v>
       </c>
     </row>
-    <row r="73" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="12">
+    <row r="74" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <v>499221</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>490327</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="8">
         <v>454</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <v>47999</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H74" s="8">
         <v>7029</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I74" s="8">
         <v>2518</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J74" s="8">
         <v>77</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K74" s="8">
         <v>239</v>
       </c>
-      <c r="L73" s="8">
+      <c r="L74" s="8">
         <v>2576</v>
       </c>
-      <c r="M73" s="8">
+      <c r="M74" s="8">
         <v>38838</v>
       </c>
-      <c r="N73" s="8">
+      <c r="N74" s="8">
         <v>4155</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O74" s="8">
         <v>27148</v>
       </c>
-      <c r="P73" s="8">
+      <c r="P74" s="8">
         <v>15484</v>
       </c>
-      <c r="Q73" s="8">
+      <c r="Q74" s="8">
         <v>34221</v>
       </c>
-      <c r="R73" s="8">
+      <c r="R74" s="8">
         <v>2252</v>
       </c>
-      <c r="S73" s="8">
+      <c r="S74" s="8">
         <v>30634</v>
       </c>
-      <c r="T73" s="8">
+      <c r="T74" s="8">
         <v>1</v>
       </c>
-      <c r="U73" s="8">
+      <c r="U74" s="8">
         <v>96127</v>
       </c>
-      <c r="V73" s="8">
+      <c r="V74" s="8">
         <v>3815</v>
       </c>
-      <c r="W73" s="8">
+      <c r="W74" s="8">
         <v>2658</v>
       </c>
-      <c r="X73" s="8">
+      <c r="X74" s="8">
         <v>352</v>
       </c>
-      <c r="Y73" s="8">
+      <c r="Y74" s="8">
         <v>11454</v>
       </c>
-      <c r="Z73" s="8">
+      <c r="Z74" s="8">
         <v>12</v>
       </c>
-      <c r="AA73" s="8">
+      <c r="AA74" s="8">
         <v>810</v>
       </c>
     </row>
-    <row r="74" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="16">
+    <row r="75" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="16">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>497141</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>488120</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>452</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="6">
         <v>47859</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H75" s="6">
         <v>6968</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I75" s="6">
         <v>2504</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J75" s="6">
         <v>77</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K75" s="6">
         <v>239</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L75" s="6">
         <v>2565</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M75" s="6">
         <v>38626</v>
       </c>
-      <c r="N74" s="6">
+      <c r="N75" s="6">
         <v>4150</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O75" s="6">
         <v>26845</v>
       </c>
-      <c r="P74" s="6">
+      <c r="P75" s="6">
         <v>15304</v>
       </c>
-      <c r="Q74" s="6">
+      <c r="Q75" s="6">
         <v>34009</v>
       </c>
-      <c r="R74" s="6">
+      <c r="R75" s="6">
         <v>2246</v>
       </c>
-      <c r="S74" s="6">
+      <c r="S75" s="6">
         <v>30488</v>
       </c>
-      <c r="T74" s="6">
+      <c r="T75" s="6">
         <v>1</v>
       </c>
-      <c r="U74" s="6">
+      <c r="U75" s="6">
         <v>95504</v>
       </c>
-      <c r="V74" s="6">
+      <c r="V75" s="6">
         <v>3778</v>
       </c>
-      <c r="W74" s="6">
+      <c r="W75" s="6">
         <v>2638</v>
       </c>
-      <c r="X74" s="6">
+      <c r="X75" s="6">
         <v>344</v>
       </c>
-      <c r="Y74" s="6">
+      <c r="Y75" s="6">
         <v>11417</v>
       </c>
-      <c r="Z74" s="6">
+      <c r="Z75" s="6">
         <v>12</v>
       </c>
-      <c r="AA74" s="6">
+      <c r="AA75" s="6">
         <v>804</v>
       </c>
     </row>
-    <row r="75" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="12">
+    <row r="76" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="12">
         <v>2018</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>496057</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="8">
         <v>486335</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F76" s="8">
         <v>464</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <v>47780</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H76" s="8">
         <v>6994</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I76" s="8">
         <v>2508</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J76" s="8">
         <v>78</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K76" s="8">
         <v>239</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L76" s="8">
         <v>2565</v>
       </c>
-      <c r="M75" s="8">
+      <c r="M76" s="8">
         <v>38415</v>
       </c>
-      <c r="N75" s="8">
+      <c r="N76" s="8">
         <v>4053</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O76" s="8">
         <v>26683</v>
       </c>
-      <c r="P75" s="8">
+      <c r="P76" s="8">
         <v>15554</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="Q76" s="8">
         <v>34018</v>
       </c>
-      <c r="R75" s="8">
+      <c r="R76" s="8">
         <v>2235</v>
       </c>
-      <c r="S75" s="8">
+      <c r="S76" s="8">
         <v>30111</v>
       </c>
-      <c r="T75" s="8">
+      <c r="T76" s="8">
         <v>1</v>
       </c>
-      <c r="U75" s="8">
+      <c r="U76" s="8">
         <v>94864</v>
       </c>
-      <c r="V75" s="8">
+      <c r="V76" s="8">
         <v>3723</v>
       </c>
-      <c r="W75" s="8">
+      <c r="W76" s="8">
         <v>2618</v>
       </c>
-      <c r="X75" s="8">
+      <c r="X76" s="8">
         <v>329</v>
       </c>
-      <c r="Y75" s="8">
+      <c r="Y76" s="8">
         <v>11369</v>
       </c>
-      <c r="Z75" s="8">
+      <c r="Z76" s="8">
         <v>12</v>
       </c>
-      <c r="AA75" s="8">
+      <c r="AA76" s="8">
         <v>804</v>
       </c>
     </row>
-    <row r="76" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
+    <row r="77" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>493248</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E77" s="3">
         <v>484343</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F77" s="3">
         <v>467</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G77" s="3">
         <v>47445</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H77" s="3">
         <v>6904</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I77" s="3">
         <v>2451</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J77" s="3">
         <v>78</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K77" s="3">
         <v>239</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L77" s="3">
         <v>2547</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M77" s="3">
         <v>38053</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N77" s="3">
         <v>4033</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O77" s="3">
         <v>26245</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P77" s="3">
         <v>15368</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q77" s="3">
         <v>34089</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R77" s="3">
         <v>2228</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S77" s="3">
         <v>29848</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T77" s="3">
         <v>1</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U77" s="3">
         <v>94351</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V77" s="3">
         <v>3704</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W77" s="3">
         <v>2563</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X77" s="3">
         <v>326</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Y77" s="3">
         <v>11268</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="Z77" s="3">
         <v>12</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AA77" s="3">
         <v>798</v>
       </c>
     </row>
-    <row r="77" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="12">
+    <row r="78" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="12">
         <v>2018</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <v>489853</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>481195</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F78" s="8">
         <v>466</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <v>47019</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H78" s="8">
         <v>6820</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I78" s="8">
         <v>2443</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J78" s="8">
         <v>78</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K78" s="8">
         <v>239</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L78" s="8">
         <v>2529</v>
       </c>
-      <c r="M77" s="8">
+      <c r="M78" s="8">
         <v>37565</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N78" s="8">
         <v>3997</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O78" s="8">
         <v>25847</v>
       </c>
-      <c r="P77" s="8">
+      <c r="P78" s="8">
         <v>15208</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="Q78" s="8">
         <v>33793</v>
       </c>
-      <c r="R77" s="8">
+      <c r="R78" s="8">
         <v>2228</v>
       </c>
-      <c r="S77" s="8">
+      <c r="S78" s="8">
         <v>29565</v>
       </c>
-      <c r="T77" s="8">
+      <c r="T78" s="8">
         <v>1</v>
       </c>
-      <c r="U77" s="8">
+      <c r="U78" s="8">
         <v>93792</v>
       </c>
-      <c r="V77" s="8">
+      <c r="V78" s="8">
         <v>3636</v>
       </c>
-      <c r="W77" s="8">
+      <c r="W78" s="8">
         <v>2514</v>
       </c>
-      <c r="X77" s="8">
+      <c r="X78" s="8">
         <v>326</v>
       </c>
-      <c r="Y77" s="8">
+      <c r="Y78" s="8">
         <v>11160</v>
       </c>
-      <c r="Z77" s="8">
+      <c r="Z78" s="8">
         <v>12</v>
       </c>
-      <c r="AA77" s="8">
+      <c r="AA78" s="8">
         <v>796</v>
       </c>
     </row>
-    <row r="78" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
+    <row r="79" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D79" s="3">
         <v>486879</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E79" s="3">
         <v>478202</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="3">
         <v>463</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G79" s="3">
         <v>46939</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H79" s="3">
         <v>6767</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I79" s="3">
         <v>2420</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J79" s="3">
         <v>78</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K79" s="3">
         <v>239</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L79" s="3">
         <v>2504</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M79" s="3">
         <v>37159</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N79" s="3">
         <v>3981</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O79" s="3">
         <v>25505</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P79" s="3">
         <v>15063</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="Q79" s="3">
         <v>33501</v>
       </c>
-      <c r="R78" s="3">
+      <c r="R79" s="3">
         <v>2207</v>
       </c>
-      <c r="S78" s="3">
+      <c r="S79" s="3">
         <v>29169</v>
       </c>
-      <c r="T78" s="3">
+      <c r="T79" s="3">
         <v>1</v>
       </c>
-      <c r="U78" s="3">
+      <c r="U79" s="3">
         <v>92716</v>
       </c>
-      <c r="V78" s="3">
+      <c r="V79" s="3">
         <v>3571</v>
       </c>
-      <c r="W78" s="3">
+      <c r="W79" s="3">
         <v>2389</v>
       </c>
-      <c r="X78" s="3">
+      <c r="X79" s="3">
         <v>323</v>
       </c>
-      <c r="Y78" s="3">
+      <c r="Y79" s="3">
         <v>11118</v>
       </c>
-      <c r="Z78" s="3">
+      <c r="Z79" s="3">
         <v>12</v>
       </c>
-      <c r="AA78" s="3">
+      <c r="AA79" s="3">
         <v>793</v>
       </c>
     </row>
-    <row r="79" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="12">
+    <row r="80" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>483912</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <v>475735</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F80" s="8">
         <v>464</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="8">
         <v>46660</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H80" s="8">
         <v>6663</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I80" s="8">
         <v>2389</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J80" s="8">
         <v>78</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K80" s="8">
         <v>239</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L80" s="8">
         <v>2507</v>
       </c>
-      <c r="M79" s="8">
+      <c r="M80" s="8">
         <v>36747</v>
       </c>
-      <c r="N79" s="8">
+      <c r="N80" s="8">
         <v>3969</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O80" s="8">
         <v>25211</v>
       </c>
-      <c r="P79" s="8">
+      <c r="P80" s="8">
         <v>14925</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="Q80" s="8">
         <v>33302</v>
       </c>
-      <c r="R79" s="8">
+      <c r="R80" s="8">
         <v>2187</v>
       </c>
-      <c r="S79" s="8">
+      <c r="S80" s="8">
         <v>28883</v>
       </c>
-      <c r="T79" s="8">
+      <c r="T80" s="8">
         <v>1</v>
       </c>
-      <c r="U79" s="8">
+      <c r="U80" s="8">
         <v>91723</v>
       </c>
-      <c r="V79" s="8">
+      <c r="V80" s="8">
         <v>3516</v>
       </c>
-      <c r="W79" s="8">
+      <c r="W80" s="8">
         <v>2314</v>
       </c>
-      <c r="X79" s="8">
+      <c r="X80" s="8">
         <v>311</v>
       </c>
-      <c r="Y79" s="8">
+      <c r="Y80" s="8">
         <v>11021</v>
       </c>
-      <c r="Z79" s="8">
+      <c r="Z80" s="8">
         <v>12</v>
       </c>
-      <c r="AA79" s="8">
+      <c r="AA80" s="8">
         <v>787</v>
       </c>
     </row>
-    <row r="80" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
+    <row r="81" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D81" s="3">
         <v>480495</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E81" s="3">
         <v>472364</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F81" s="3">
         <v>464</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G81" s="3">
         <v>46648</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H81" s="3">
         <v>6624</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I81" s="3">
         <v>2371</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J81" s="3">
         <v>78</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K81" s="3">
         <v>239</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L81" s="3">
         <v>2485</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M81" s="3">
         <v>36570</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N81" s="3">
         <v>3920</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O81" s="3">
         <v>24802</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P81" s="3">
         <v>14924</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="Q81" s="3">
         <v>33187</v>
       </c>
-      <c r="R80" s="3">
+      <c r="R81" s="3">
         <v>2173</v>
       </c>
-      <c r="S80" s="3">
+      <c r="S81" s="3">
         <v>28394</v>
       </c>
-      <c r="T80" s="3">
+      <c r="T81" s="3">
         <v>1</v>
       </c>
-      <c r="U80" s="3">
+      <c r="U81" s="3">
         <v>90924</v>
       </c>
-      <c r="V80" s="3">
+      <c r="V81" s="3">
         <v>3442</v>
       </c>
-      <c r="W80" s="3">
+      <c r="W81" s="3">
         <v>2249</v>
       </c>
-      <c r="X80" s="3">
+      <c r="X81" s="3">
         <v>304</v>
       </c>
-      <c r="Y80" s="3">
+      <c r="Y81" s="3">
         <v>10962</v>
       </c>
-      <c r="Z80" s="3">
+      <c r="Z81" s="3">
         <v>12</v>
       </c>
-      <c r="AA80" s="3">
+      <c r="AA81" s="3">
         <v>784</v>
       </c>
     </row>
-    <row r="81" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="12">
+    <row r="82" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <v>477880</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>469513</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F82" s="8">
         <v>458</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <v>46538</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H82" s="8">
         <v>6550</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I82" s="8">
         <v>2387</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J82" s="8">
         <v>78</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K82" s="8">
         <v>237</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L82" s="8">
         <v>2479</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M82" s="8">
         <v>36256</v>
       </c>
-      <c r="N81" s="8">
+      <c r="N82" s="8">
         <v>3901</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O82" s="8">
         <v>24520</v>
       </c>
-      <c r="P81" s="8">
+      <c r="P82" s="8">
         <v>14804</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="Q82" s="8">
         <v>33150</v>
       </c>
-      <c r="R81" s="8">
+      <c r="R82" s="8">
         <v>2178</v>
       </c>
-      <c r="S81" s="8">
+      <c r="S82" s="8">
         <v>27975</v>
       </c>
-      <c r="T81" s="8">
+      <c r="T82" s="8">
         <v>0</v>
       </c>
-      <c r="U81" s="8">
+      <c r="U82" s="8">
         <v>89534</v>
       </c>
-      <c r="V81" s="8">
+      <c r="V82" s="8">
         <v>3365</v>
       </c>
-      <c r="W81" s="8">
+      <c r="W82" s="8">
         <v>2210</v>
       </c>
-      <c r="X81" s="8">
+      <c r="X82" s="8">
         <v>299</v>
       </c>
-      <c r="Y81" s="8">
+      <c r="Y82" s="8">
         <v>10862</v>
       </c>
-      <c r="Z81" s="8">
+      <c r="Z82" s="8">
         <v>12</v>
       </c>
-      <c r="AA81" s="8">
+      <c r="AA82" s="8">
         <v>783</v>
       </c>
     </row>
-    <row r="82" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
+    <row r="83" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D83" s="3">
         <v>476241</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E83" s="3">
         <v>467827</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F83" s="3">
         <v>459</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G83" s="3">
         <v>46438</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H83" s="3">
         <v>6498</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I83" s="3">
         <v>2366</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J83" s="3">
         <v>78</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K83" s="3">
         <v>237</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L83" s="3">
         <v>2474</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M83" s="3">
         <v>35832</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N83" s="3">
         <v>3883</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O83" s="3">
         <v>24299</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P83" s="3">
         <v>14847</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="Q83" s="3">
         <v>33272</v>
       </c>
-      <c r="R82" s="3">
+      <c r="R83" s="3">
         <v>2165</v>
       </c>
-      <c r="S82" s="3">
+      <c r="S83" s="3">
         <v>27577</v>
       </c>
-      <c r="T82" s="3">
+      <c r="T83" s="3">
         <v>1</v>
       </c>
-      <c r="U82" s="3">
+      <c r="U83" s="3">
         <v>88473</v>
       </c>
-      <c r="V82" s="3">
+      <c r="V83" s="3">
         <v>3325</v>
       </c>
-      <c r="W82" s="3">
+      <c r="W83" s="3">
         <v>2133</v>
       </c>
-      <c r="X82" s="3">
+      <c r="X83" s="3">
         <v>301</v>
       </c>
-      <c r="Y82" s="3">
+      <c r="Y83" s="3">
         <v>10800</v>
       </c>
-      <c r="Z82" s="3">
+      <c r="Z83" s="3">
         <v>12</v>
       </c>
-      <c r="AA82" s="3">
+      <c r="AA83" s="3">
         <v>786</v>
       </c>
     </row>
-    <row r="83" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="12">
+    <row r="84" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <v>472271</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="8">
         <v>463807</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F84" s="8">
         <v>455</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="8">
         <v>46120</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H84" s="8">
         <v>6441</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I84" s="8">
         <v>2324</v>
       </c>
-      <c r="J83" s="8">
+      <c r="J84" s="8">
         <v>77</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K84" s="8">
         <v>237</v>
       </c>
-      <c r="L83" s="8">
+      <c r="L84" s="8">
         <v>2458</v>
       </c>
-      <c r="M83" s="8">
+      <c r="M84" s="8">
         <v>35484</v>
       </c>
-      <c r="N83" s="8">
+      <c r="N84" s="8">
         <v>3859</v>
       </c>
-      <c r="O83" s="8">
+      <c r="O84" s="8">
         <v>24075</v>
       </c>
-      <c r="P83" s="8">
+      <c r="P84" s="8">
         <v>14872</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="Q84" s="8">
         <v>33210</v>
       </c>
-      <c r="R83" s="8">
+      <c r="R84" s="8">
         <v>2154</v>
       </c>
-      <c r="S83" s="8">
+      <c r="S84" s="8">
         <v>27204</v>
       </c>
-      <c r="T83" s="8">
+      <c r="T84" s="8">
         <v>1</v>
       </c>
-      <c r="U83" s="8">
+      <c r="U84" s="8">
         <v>86985</v>
       </c>
-      <c r="V83" s="8">
+      <c r="V84" s="8">
         <v>3231</v>
       </c>
-      <c r="W83" s="8">
+      <c r="W84" s="8">
         <v>2040</v>
       </c>
-      <c r="X83" s="8">
+      <c r="X84" s="8">
         <v>294</v>
       </c>
-      <c r="Y83" s="8">
+      <c r="Y84" s="8">
         <v>10741</v>
       </c>
-      <c r="Z83" s="8">
+      <c r="Z84" s="8">
         <v>12</v>
       </c>
-      <c r="AA83" s="8">
+      <c r="AA84" s="8">
         <v>784</v>
       </c>
     </row>
-    <row r="84" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="14">
+    <row r="85" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D85" s="3">
         <v>469020</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E85" s="3">
         <v>460731</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F85" s="3">
         <v>454</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G85" s="3">
         <v>45917</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H85" s="3">
         <v>6371</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I85" s="3">
         <v>2319</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J85" s="3">
         <v>77</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K85" s="3">
         <v>237</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L85" s="3">
         <v>2444</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M85" s="3">
         <v>35184</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N85" s="3">
         <v>3843</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O85" s="3">
         <v>23647</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P85" s="3">
         <v>14554</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="Q85" s="3">
         <v>33107</v>
       </c>
-      <c r="R84" s="3">
+      <c r="R85" s="3">
         <v>2146</v>
       </c>
-      <c r="S84" s="3">
+      <c r="S85" s="3">
         <v>26742</v>
       </c>
-      <c r="T84" s="3">
+      <c r="T85" s="3">
         <v>1</v>
       </c>
-      <c r="U84" s="3">
+      <c r="U85" s="3">
         <v>86342</v>
       </c>
-      <c r="V84" s="3">
+      <c r="V85" s="3">
         <v>3169</v>
       </c>
-      <c r="W84" s="3">
+      <c r="W85" s="3">
         <v>2018</v>
       </c>
-      <c r="X84" s="3">
+      <c r="X85" s="3">
         <v>288</v>
       </c>
-      <c r="Y84" s="3">
+      <c r="Y85" s="3">
         <v>10741</v>
       </c>
-      <c r="Z84" s="3">
+      <c r="Z85" s="3">
         <v>12</v>
       </c>
-      <c r="AA84" s="3">
+      <c r="AA85" s="3">
         <v>781</v>
       </c>
     </row>
-    <row r="85" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="12">
+    <row r="86" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <v>466319</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="8">
         <v>457242</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F86" s="8">
         <v>451</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <v>45640</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H86" s="8">
         <v>6287</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I86" s="8">
         <v>2262</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J86" s="8">
         <v>77</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K86" s="8">
         <v>237</v>
       </c>
-      <c r="L85" s="8">
+      <c r="L86" s="8">
         <v>2424</v>
       </c>
-      <c r="M85" s="8">
+      <c r="M86" s="8">
         <v>34703</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N86" s="8">
         <v>3824</v>
       </c>
-      <c r="O85" s="8">
+      <c r="O86" s="8">
         <v>23309</v>
       </c>
-      <c r="P85" s="8">
+      <c r="P86" s="8">
         <v>14393</v>
       </c>
-      <c r="Q85" s="8">
+      <c r="Q86" s="8">
         <v>32986</v>
       </c>
-      <c r="R85" s="8">
+      <c r="R86" s="8">
         <v>2120</v>
       </c>
-      <c r="S85" s="8">
+      <c r="S86" s="8">
         <v>26331</v>
       </c>
-      <c r="T85" s="8">
+      <c r="T86" s="8">
         <v>1</v>
       </c>
-      <c r="U85" s="8">
+      <c r="U86" s="8">
         <v>85658</v>
       </c>
-      <c r="V85" s="8">
+      <c r="V86" s="8">
         <v>3120</v>
       </c>
-      <c r="W85" s="8">
+      <c r="W86" s="8">
         <v>1980</v>
       </c>
-      <c r="X85" s="8">
+      <c r="X86" s="8">
         <v>285</v>
       </c>
-      <c r="Y85" s="8">
+      <c r="Y86" s="8">
         <v>10688</v>
       </c>
-      <c r="Z85" s="8">
+      <c r="Z86" s="8">
         <v>12</v>
       </c>
-      <c r="AA85" s="8">
+      <c r="AA86" s="8">
         <v>779</v>
       </c>
     </row>
-    <row r="86" spans="2:27" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="16">
+    <row r="87" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <v>464622</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>455453</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="6">
         <v>451</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="6">
         <v>45676</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H87" s="6">
         <v>6259</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I87" s="6">
         <v>2255</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J87" s="6">
         <v>77</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K87" s="6">
         <v>237</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L87" s="6">
         <v>2406</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M87" s="6">
         <v>34385</v>
       </c>
-      <c r="N86" s="6">
+      <c r="N87" s="6">
         <v>3836</v>
       </c>
-      <c r="O86" s="6">
+      <c r="O87" s="6">
         <v>23129</v>
       </c>
-      <c r="P86" s="6">
+      <c r="P87" s="6">
         <v>14404</v>
       </c>
-      <c r="Q86" s="6">
+      <c r="Q87" s="6">
         <v>32894</v>
       </c>
-      <c r="R86" s="6">
+      <c r="R87" s="6">
         <v>2092</v>
       </c>
-      <c r="S86" s="6">
+      <c r="S87" s="6">
         <v>26133</v>
       </c>
-      <c r="T86" s="6">
+      <c r="T87" s="6">
         <v>1</v>
       </c>
-      <c r="U86" s="6">
+      <c r="U87" s="6">
         <v>84912</v>
       </c>
-      <c r="V86" s="6">
+      <c r="V87" s="6">
         <v>3077</v>
       </c>
-      <c r="W86" s="6">
+      <c r="W87" s="6">
         <v>1949</v>
       </c>
-      <c r="X86" s="6">
+      <c r="X87" s="6">
         <v>278</v>
       </c>
-      <c r="Y86" s="6">
+      <c r="Y87" s="6">
         <v>10682</v>
       </c>
-      <c r="Z86" s="6">
+      <c r="Z87" s="6">
         <v>12</v>
       </c>
-      <c r="AA86" s="6">
+      <c r="AA87" s="6">
         <v>782</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>46</v>
       </c>
-      <c r="AA87" s="2"/>
-    </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+      <c r="AA88" s="2"/>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>21</v>
       </c>
-      <c r="AA88" s="2"/>
+      <c r="AA89" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D6F5B-32DF-49B0-84F7-587BF27F03D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17339886-DA6B-435B-BAD5-14EFCC994651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -398,12 +398,6 @@
     <xf numFmtId="17" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -444,6 +438,12 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -923,8 +923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA88" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
-  <autoFilter ref="B5:AA88" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA89" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="B5:AA89" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1186,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA90"/>
+  <dimension ref="B2:AA91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1225,7 +1225,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1"/>
@@ -1236,6674 +1236,6752 @@
     <row r="4" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="s">
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="24"/>
+      <c r="W4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6" t="s">
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="Z5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="14">
+        <v>723462</v>
+      </c>
+      <c r="E6" s="14">
+        <v>711776</v>
+      </c>
+      <c r="F6" s="14">
+        <v>646</v>
+      </c>
+      <c r="G6" s="14">
+        <v>57703</v>
+      </c>
+      <c r="H6" s="14">
+        <v>10583</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3665</v>
+      </c>
+      <c r="J6" s="14">
+        <v>78</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1424</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2822</v>
+      </c>
+      <c r="M6" s="14">
+        <v>63686</v>
+      </c>
+      <c r="N6" s="14">
+        <v>3961</v>
+      </c>
+      <c r="O6" s="14">
+        <v>42142</v>
+      </c>
+      <c r="P6" s="14">
+        <v>30781</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>44100</v>
+      </c>
+      <c r="R6" s="14">
+        <v>2703</v>
+      </c>
+      <c r="S6" s="14">
+        <v>55043</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14">
+        <v>131335</v>
+      </c>
+      <c r="V6" s="14">
+        <v>6513</v>
+      </c>
+      <c r="W6" s="14">
+        <v>6439</v>
+      </c>
+      <c r="X6" s="14">
+        <v>2237</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>12704</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B7" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="11">
         <v>719185</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="11">
         <v>708450</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="11">
         <v>630</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="11">
         <v>57548</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="11">
         <v>10520</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="11">
         <v>3634</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="11">
         <v>78</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K7" s="11">
         <v>1424</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L7" s="11">
         <v>2786</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M7" s="11">
         <v>63307</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N7" s="11">
         <v>3939</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O7" s="11">
         <v>41751</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P7" s="11">
         <v>30659</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q7" s="11">
         <v>43660</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R7" s="11">
         <v>2692</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S7" s="11">
         <v>54807</v>
       </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11">
         <v>130783</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V7" s="11">
         <v>6476</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W7" s="11">
         <v>6362</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X7" s="11">
         <v>2229</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y7" s="11">
         <v>12572</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z7" s="11">
         <v>15</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA7" s="12">
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B7" s="15">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D8" s="14">
         <v>714747</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="14">
         <v>704375</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="14">
         <v>622</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G8" s="14">
         <v>57602</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H8" s="14">
         <v>10485</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I8" s="14">
         <v>3617</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J8" s="14">
         <v>78</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K8" s="14">
         <v>1424</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L8" s="14">
         <v>2767</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M8" s="14">
         <v>63040</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N8" s="14">
         <v>3930</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O8" s="14">
         <v>41410</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P8" s="14">
         <v>30328</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q8" s="14">
         <v>43596</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R8" s="14">
         <v>2697</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S8" s="14">
         <v>54722</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14">
         <v>130250</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V8" s="14">
         <v>6446</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W8" s="14">
         <v>6199</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X8" s="14">
         <v>2214</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y8" s="14">
         <v>12449</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z8" s="14">
         <v>15</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA8" s="14">
         <v>727</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="11">
         <v>709391</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="11">
         <v>699945</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="11">
         <v>611</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="11">
         <v>57472</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="11">
         <v>10407</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="11">
         <v>3578</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J9" s="11">
         <v>78</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K9" s="11">
         <v>1424</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L9" s="11">
         <v>2740</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M9" s="11">
         <v>62737</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N9" s="11">
         <v>3931</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O9" s="11">
         <v>41077</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P9" s="11">
         <v>23934</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q9" s="11">
         <v>43117</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R9" s="11">
         <v>2694</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S9" s="11">
         <v>54701</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13">
+      <c r="T9" s="11"/>
+      <c r="U9" s="11">
         <v>129830</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V9" s="11">
         <v>6417</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W9" s="11">
         <v>6046</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X9" s="11">
         <v>2192</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y9" s="11">
         <v>12349</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z9" s="11">
         <v>15</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA9" s="12">
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B9" s="17">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D10" s="14">
         <v>704941</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="14">
         <v>696064</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="14">
         <v>608</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G10" s="14">
         <v>57429</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H10" s="14">
         <v>10315</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I10" s="14">
         <v>3562</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J10" s="14">
         <v>78</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K10" s="14">
         <v>1424</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L10" s="14">
         <v>2725</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M10" s="14">
         <v>62582</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N10" s="14">
         <v>3959</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O10" s="14">
         <v>40692</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P10" s="14">
         <v>23711</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q10" s="14">
         <v>42607</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R10" s="14">
         <v>2706</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S10" s="14">
         <v>54463</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14">
         <v>129480</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V10" s="14">
         <v>6405</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W10" s="14">
         <v>5956</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X10" s="14">
         <v>2159</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y10" s="14">
         <v>12295</v>
       </c>
-      <c r="Z9" s="16">
+      <c r="Z10" s="14">
         <v>15</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA10" s="16">
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="11">
         <v>700064</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="11">
         <v>691573</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="11">
         <v>594</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="11">
         <v>57394</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="11">
         <v>10310</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="11">
         <v>3516</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J11" s="11">
         <v>78</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K11" s="11">
         <v>1424</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L11" s="11">
         <v>2697</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M11" s="11">
         <v>62263</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N11" s="11">
         <v>3963</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O11" s="11">
         <v>40451</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P11" s="11">
         <v>22543</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q11" s="11">
         <v>42013</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R11" s="11">
         <v>2714</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S11" s="11">
         <v>54287</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11">
         <v>129145</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V11" s="11">
         <v>6391</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W11" s="11">
         <v>5917</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X11" s="11">
         <v>2148</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y11" s="11">
         <v>12231</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="Z11" s="11">
         <v>15</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AA11" s="12">
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B11" s="17">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="14">
         <v>694997</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E12" s="14">
         <v>686081</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="14">
         <v>592</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G12" s="14">
         <v>57318</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H12" s="14">
         <v>10276</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I12" s="14">
         <v>3508</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J12" s="14">
         <v>78</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K12" s="14">
         <v>1424</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L12" s="14">
         <v>2665</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M12" s="14">
         <v>61927</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N12" s="14">
         <v>3963</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O12" s="14">
         <v>40050</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P12" s="14">
         <v>22350</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q12" s="14">
         <v>41750</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R12" s="14">
         <v>2698</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S12" s="14">
         <v>54175</v>
       </c>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16">
+      <c r="T12" s="14"/>
+      <c r="U12" s="14">
         <v>128557</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V12" s="14">
         <v>6363</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W12" s="14">
         <v>5857</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X12" s="14">
         <v>2129</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y12" s="14">
         <v>12153</v>
       </c>
-      <c r="Z11" s="16">
+      <c r="Z12" s="14">
         <v>15</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AA12" s="16">
         <v>724</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="11">
         <v>686433</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="11">
         <v>677060</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="11">
         <v>583</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="11">
         <v>57014</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="11">
         <v>10191</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="11">
         <v>3490</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J13" s="11">
         <v>78</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K13" s="11">
         <v>1424</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L13" s="11">
         <v>2598</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M13" s="11">
         <v>61659</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N13" s="11">
         <v>3952</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O13" s="11">
         <v>39763</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P13" s="11">
         <v>22332</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q13" s="11">
         <v>41599</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R13" s="11">
         <v>2694</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S13" s="11">
         <v>54118</v>
       </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13">
+      <c r="T13" s="11"/>
+      <c r="U13" s="11">
         <v>128107</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V13" s="11">
         <v>6329</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W13" s="11">
         <v>5765</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X13" s="11">
         <v>2112</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y13" s="11">
         <v>12080</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z13" s="11">
         <v>15</v>
       </c>
-      <c r="AA12" s="14">
+      <c r="AA13" s="12">
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B13" s="17">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="14">
         <v>685435</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="14">
         <v>676046</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="14">
         <v>565</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="14">
         <v>56830</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H14" s="14">
         <v>10138</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I14" s="14">
         <v>3511</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J14" s="14">
         <v>78</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K14" s="14">
         <v>1424</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L14" s="14">
         <v>2558</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M14" s="14">
         <v>61296</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N14" s="14">
         <v>3933</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O14" s="14">
         <v>39350</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P14" s="14">
         <v>23307</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q14" s="14">
         <v>41742</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R14" s="14">
         <v>2677</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S14" s="14">
         <v>53782</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16">
+      <c r="T14" s="14"/>
+      <c r="U14" s="14">
         <v>127521</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V14" s="14">
         <v>6305</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W14" s="14">
         <v>5651</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X14" s="14">
         <v>2085</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y14" s="14">
         <v>12043</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="Z14" s="14">
         <v>15</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AA14" s="16">
         <v>716</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="11">
         <v>681551</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="11">
         <v>671878</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="11">
         <v>559</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="11">
         <v>56791</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="11">
         <v>10077</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="11">
         <v>3472</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="11">
         <v>78</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="11">
         <v>1424</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L15" s="11">
         <v>2515</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M15" s="11">
         <v>60940</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N15" s="11">
         <v>3927</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O15" s="11">
         <v>38916</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P15" s="11">
         <v>23100</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q15" s="11">
         <v>41499</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R15" s="11">
         <v>2662</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S15" s="11">
         <v>53501</v>
       </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13">
+      <c r="T15" s="11"/>
+      <c r="U15" s="11">
         <v>127002</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V15" s="11">
         <v>6283</v>
       </c>
-      <c r="W14" s="13">
+      <c r="W15" s="11">
         <v>5537</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X15" s="11">
         <v>2066</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="Y15" s="11">
         <v>12002</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="Z15" s="11">
         <v>15</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA15" s="12">
         <v>716</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B15" s="17">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="14">
         <v>677153</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="14">
         <v>667343</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="14">
         <v>559</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="14">
         <v>56789</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="14">
         <v>10062</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I16" s="14">
         <v>3444</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J16" s="14">
         <v>78</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K16" s="14">
         <v>1424</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L16" s="14">
         <v>2486</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M16" s="14">
         <v>60780</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N16" s="14">
         <v>3929</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O16" s="14">
         <v>38626</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P16" s="14">
         <v>22931</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q16" s="14">
         <v>41445</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R16" s="14">
         <v>2656</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S16" s="14">
         <v>53234</v>
       </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16">
+      <c r="T16" s="14"/>
+      <c r="U16" s="14">
         <v>126653</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V16" s="14">
         <v>6260</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W16" s="14">
         <v>5487</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X16" s="14">
         <v>2055</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y16" s="14">
         <v>11945</v>
       </c>
-      <c r="Z15" s="16">
+      <c r="Z16" s="14">
         <v>15</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AA16" s="16">
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B16" s="19">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B17" s="17">
         <v>2024</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="19">
         <v>673757</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E17" s="19">
         <v>663646</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F17" s="19">
         <v>558</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G17" s="19">
         <v>56703</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H17" s="19">
         <v>10044</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I17" s="19">
         <v>3392</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J17" s="19">
         <v>78</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K17" s="19">
         <v>1424</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L17" s="19">
         <v>2444</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M17" s="19">
         <v>60551</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N17" s="19">
         <v>3920</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O17" s="19">
         <v>38302</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P17" s="19">
         <v>22717</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q17" s="19">
         <v>41276</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R17" s="19">
         <v>2661</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S17" s="19">
         <v>53153</v>
       </c>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21">
+      <c r="T17" s="19"/>
+      <c r="U17" s="19">
         <v>125984</v>
       </c>
-      <c r="V16" s="21">
+      <c r="V17" s="19">
         <v>6237</v>
       </c>
-      <c r="W16" s="21">
+      <c r="W17" s="19">
         <v>5478</v>
       </c>
-      <c r="X16" s="21">
+      <c r="X17" s="19">
         <v>2017</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="Y17" s="19">
         <v>11916</v>
       </c>
-      <c r="Z16" s="21">
+      <c r="Z17" s="19">
         <v>15</v>
       </c>
-      <c r="AA16" s="22">
+      <c r="AA17" s="20">
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
+    <row r="18" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="14">
         <v>671002</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="14">
         <v>660365</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="14">
         <v>554</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G18" s="14">
         <v>56667</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H18" s="14">
         <v>10017</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I18" s="14">
         <v>3376</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J18" s="14">
         <v>78</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K18" s="14">
         <v>1424</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L18" s="14">
         <v>2414</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M18" s="14">
         <v>60296</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N18" s="14">
         <v>3916</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O18" s="14">
         <v>38063</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P18" s="14">
         <v>22721</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q18" s="14">
         <v>40963</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R18" s="14">
         <v>2664</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S18" s="14">
         <v>53074</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16">
+      <c r="T18" s="14"/>
+      <c r="U18" s="14">
         <v>125341</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V18" s="14">
         <v>6227</v>
       </c>
-      <c r="W17" s="16">
+      <c r="W18" s="14">
         <v>5448</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X18" s="14">
         <v>2008</v>
       </c>
-      <c r="Y17" s="16">
+      <c r="Y18" s="14">
         <v>11874</v>
       </c>
-      <c r="Z17" s="16">
+      <c r="Z18" s="14">
         <v>15</v>
       </c>
-      <c r="AA17" s="16">
+      <c r="AA18" s="14">
         <v>716</v>
       </c>
     </row>
-    <row r="18" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="12">
+    <row r="19" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>2023</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="11">
         <v>667021</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="11">
         <v>657017</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="11">
         <v>553</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="11">
         <v>56501</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="11">
         <v>10008</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="11">
         <v>3368</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J19" s="11">
         <v>78</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K19" s="11">
         <v>1424</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L19" s="11">
         <v>2373</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M19" s="11">
         <v>59864</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N19" s="11">
         <v>3939</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O19" s="11">
         <v>37756</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P19" s="11">
         <v>22668</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q19" s="11">
         <v>40739</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R19" s="11">
         <v>2663</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S19" s="11">
         <v>52920</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13">
+      <c r="T19" s="11"/>
+      <c r="U19" s="11">
         <v>124918</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V19" s="11">
         <v>6223</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W19" s="11">
         <v>5332</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X19" s="11">
         <v>1985</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="Y19" s="11">
         <v>11762</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="Z19" s="11">
         <v>15</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AA19" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="19" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15">
+    <row r="20" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="14">
         <v>662911</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="14">
         <v>653227</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="14">
         <v>551</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="14">
         <v>56354</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="14">
         <v>9936</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="14">
         <v>3354</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J20" s="14">
         <v>78</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K20" s="14">
         <v>1424</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L20" s="14">
         <v>2325</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M20" s="14">
         <v>59524</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N20" s="14">
         <v>3949</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O20" s="14">
         <v>37449</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P20" s="14">
         <v>22518</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q20" s="14">
         <v>40540</v>
       </c>
-      <c r="R19" s="16">
+      <c r="R20" s="14">
         <v>2659</v>
       </c>
-      <c r="S19" s="16">
+      <c r="S20" s="14">
         <v>52779</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16">
+      <c r="T20" s="14"/>
+      <c r="U20" s="14">
         <v>124007</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V20" s="14">
         <v>6157</v>
       </c>
-      <c r="W19" s="16">
+      <c r="W20" s="14">
         <v>5337</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X20" s="14">
         <v>1958</v>
       </c>
-      <c r="Y19" s="16">
+      <c r="Y20" s="14">
         <v>11701</v>
       </c>
-      <c r="Z19" s="16">
+      <c r="Z20" s="14">
         <v>15</v>
       </c>
-      <c r="AA19" s="16">
+      <c r="AA20" s="14">
         <v>717</v>
       </c>
     </row>
-    <row r="20" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="12">
+    <row r="21" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="11">
         <v>659020</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="11">
         <v>649665</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="11">
         <v>551</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="11">
         <v>56273</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="11">
         <v>9895</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="11">
         <v>3359</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="11">
         <v>78</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K21" s="11">
         <v>1424</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L21" s="11">
         <v>2288</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M21" s="11">
         <v>59153</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N21" s="11">
         <v>3952</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O21" s="11">
         <v>37177</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P21" s="11">
         <v>22508</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q21" s="11">
         <v>40324</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R21" s="11">
         <v>2654</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S21" s="11">
         <v>52458</v>
       </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13">
+      <c r="T21" s="11"/>
+      <c r="U21" s="11">
         <v>123192</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V21" s="11">
         <v>6122</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W21" s="11">
         <v>5256</v>
       </c>
-      <c r="X20" s="13">
+      <c r="X21" s="11">
         <v>1931</v>
       </c>
-      <c r="Y20" s="13">
+      <c r="Y21" s="11">
         <v>11636</v>
       </c>
-      <c r="Z20" s="13">
+      <c r="Z21" s="11">
         <v>15</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA21" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="21" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15">
+    <row r="22" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D22" s="14">
         <v>655458</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E22" s="14">
         <v>645999</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F22" s="14">
         <v>546</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G22" s="14">
         <v>56186</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H22" s="14">
         <v>9835</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="14">
         <v>3310</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J22" s="14">
         <v>78</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K22" s="14">
         <v>1425</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L22" s="14">
         <v>2252</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M22" s="14">
         <v>58938</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N22" s="14">
         <v>3928</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O22" s="14">
         <v>36812</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P22" s="14">
         <v>22401</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q22" s="14">
         <v>40001</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R22" s="14">
         <v>2655</v>
       </c>
-      <c r="S21" s="16">
+      <c r="S22" s="14">
         <v>52187</v>
       </c>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16">
+      <c r="T22" s="14"/>
+      <c r="U22" s="14">
         <v>122442</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V22" s="14">
         <v>6046</v>
       </c>
-      <c r="W21" s="16">
+      <c r="W22" s="14">
         <v>5239</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X22" s="14">
         <v>1910</v>
       </c>
-      <c r="Y21" s="16">
+      <c r="Y22" s="14">
         <v>11600</v>
       </c>
-      <c r="Z21" s="16">
+      <c r="Z22" s="14">
         <v>15</v>
       </c>
-      <c r="AA21" s="16">
+      <c r="AA22" s="14">
         <v>719</v>
       </c>
     </row>
-    <row r="22" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="12">
+    <row r="23" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="11">
         <v>651761</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="11">
         <v>641907</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="11">
         <v>541</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="11">
         <v>56170</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="11">
         <v>9810</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="11">
         <v>3301</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="11">
         <v>78</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="11">
         <v>1424</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L23" s="11">
         <v>2219</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M23" s="11">
         <v>58734</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N23" s="11">
         <v>3934</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O23" s="11">
         <v>36467</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P23" s="11">
         <v>22206</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q23" s="11">
         <v>39383</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R23" s="11">
         <v>2640</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S23" s="11">
         <v>51887</v>
       </c>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13">
+      <c r="T23" s="11"/>
+      <c r="U23" s="11">
         <v>121511</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V23" s="11">
         <v>5992</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W23" s="11">
         <v>5150</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X23" s="11">
         <v>1888</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="Y23" s="11">
         <v>11575</v>
       </c>
-      <c r="Z22" s="13">
+      <c r="Z23" s="11">
         <v>15</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA23" s="11">
         <v>716</v>
       </c>
     </row>
-    <row r="23" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15">
+    <row r="24" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="14">
         <v>647906</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E24" s="14">
         <v>637598</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="14">
         <v>538</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G24" s="14">
         <v>56139</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H24" s="14">
         <v>9752</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I24" s="14">
         <v>3280</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J24" s="14">
         <v>78</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K24" s="14">
         <v>1424</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L24" s="14">
         <v>2179</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M24" s="14">
         <v>58481</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N24" s="14">
         <v>3945</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O24" s="14">
         <v>36238</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P24" s="14">
         <v>21962</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q24" s="14">
         <v>38923</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R24" s="14">
         <v>2634</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S24" s="14">
         <v>51526</v>
       </c>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16">
+      <c r="T24" s="14"/>
+      <c r="U24" s="14">
         <v>120827</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V24" s="14">
         <v>5957</v>
       </c>
-      <c r="W23" s="16">
+      <c r="W24" s="14">
         <v>5099</v>
       </c>
-      <c r="X23" s="16">
+      <c r="X24" s="14">
         <v>1866</v>
       </c>
-      <c r="Y23" s="16">
+      <c r="Y24" s="14">
         <v>11503</v>
       </c>
-      <c r="Z23" s="16">
+      <c r="Z24" s="14">
         <v>15</v>
       </c>
-      <c r="AA23" s="16">
+      <c r="AA24" s="14">
         <v>715</v>
       </c>
     </row>
-    <row r="24" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="12">
+    <row r="25" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="11">
         <v>645139</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="11">
         <v>634226</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="11">
         <v>537</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="11">
         <v>55988</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="11">
         <v>9716</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="11">
         <v>3277</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J25" s="11">
         <v>78</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K25" s="11">
         <v>1424</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L25" s="11">
         <v>2130</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M25" s="11">
         <v>58224</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N25" s="11">
         <v>3934</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O25" s="11">
         <v>35910</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P25" s="11">
         <v>21848</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q25" s="11">
         <v>38619</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R25" s="11">
         <v>2634</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S25" s="11">
         <v>51228</v>
       </c>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13">
+      <c r="T25" s="11"/>
+      <c r="U25" s="11">
         <v>120089</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V25" s="11">
         <v>5928</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W25" s="11">
         <v>5046</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X25" s="11">
         <v>1829</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="Y25" s="11">
         <v>11484</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="Z25" s="11">
         <v>15</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA25" s="11">
         <v>717</v>
       </c>
     </row>
-    <row r="25" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15">
+    <row r="26" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="14">
         <v>641751</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E26" s="14">
         <v>630955</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F26" s="14">
         <v>537</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G26" s="14">
         <v>55899</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H26" s="14">
         <v>9670</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I26" s="14">
         <v>3264</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J26" s="14">
         <v>78</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K26" s="14">
         <v>1424</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L26" s="14">
         <v>2114</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M26" s="14">
         <v>58008</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N26" s="14">
         <v>3930</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O26" s="14">
         <v>35633</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P26" s="14">
         <v>21736</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q26" s="14">
         <v>38964</v>
       </c>
-      <c r="R25" s="16">
+      <c r="R26" s="14">
         <v>2631</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S26" s="14">
         <v>50759</v>
       </c>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16">
+      <c r="T26" s="14"/>
+      <c r="U26" s="14">
         <v>119535</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V26" s="14">
         <v>5904</v>
       </c>
-      <c r="W25" s="16">
+      <c r="W26" s="14">
         <v>4993</v>
       </c>
-      <c r="X25" s="16">
+      <c r="X26" s="14">
         <v>1785</v>
       </c>
-      <c r="Y25" s="16">
+      <c r="Y26" s="14">
         <v>11422</v>
       </c>
-      <c r="Z25" s="16">
+      <c r="Z26" s="14">
         <v>15</v>
       </c>
-      <c r="AA25" s="16">
+      <c r="AA26" s="14">
         <v>713</v>
       </c>
     </row>
-    <row r="26" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12">
+    <row r="27" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="11">
         <v>639200</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="11">
         <v>628078</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="11">
         <v>535</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="11">
         <v>55839</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="11">
         <v>9614</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="11">
         <v>3257</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="11">
         <v>78</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K27" s="11">
         <v>1424</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L27" s="11">
         <v>2091</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M27" s="11">
         <v>57753</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N27" s="11">
         <v>3924</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O27" s="11">
         <v>35418</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P27" s="11">
         <v>21601</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q27" s="11">
         <v>38737</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R27" s="11">
         <v>2613</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S27" s="11">
         <v>50312</v>
       </c>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11">
         <v>119109</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V27" s="11">
         <v>5878</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W27" s="11">
         <v>4974</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X27" s="11">
         <v>1760</v>
       </c>
-      <c r="Y26" s="13">
+      <c r="Y27" s="11">
         <v>11402</v>
       </c>
-      <c r="Z26" s="13">
+      <c r="Z27" s="11">
         <v>15</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA27" s="11">
         <v>713</v>
       </c>
     </row>
-    <row r="27" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="15">
+    <row r="28" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="14">
         <v>636167</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="14">
         <v>625114</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="14">
         <v>535</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="14">
         <v>55765</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H28" s="14">
         <v>9522</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I28" s="14">
         <v>3239</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J28" s="14">
         <v>78</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K28" s="14">
         <v>1424</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L28" s="14">
         <v>2039</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M28" s="14">
         <v>57425</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N28" s="14">
         <v>3900</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O28" s="14">
         <v>34878</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P28" s="14">
         <v>21229</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q28" s="14">
         <v>38464</v>
       </c>
-      <c r="R27" s="16">
+      <c r="R28" s="14">
         <v>2594</v>
       </c>
-      <c r="S27" s="16">
+      <c r="S28" s="14">
         <v>49720</v>
       </c>
-      <c r="T27" s="16">
+      <c r="T28" s="14">
         <v>1</v>
       </c>
-      <c r="U27" s="16">
+      <c r="U28" s="14">
         <v>118529</v>
       </c>
-      <c r="V27" s="16">
+      <c r="V28" s="14">
         <v>5852</v>
       </c>
-      <c r="W27" s="16">
+      <c r="W28" s="14">
         <v>4936</v>
       </c>
-      <c r="X27" s="16">
+      <c r="X28" s="14">
         <v>1736</v>
       </c>
-      <c r="Y27" s="16">
+      <c r="Y28" s="14">
         <v>11378</v>
       </c>
-      <c r="Z27" s="16">
+      <c r="Z28" s="14">
         <v>15</v>
       </c>
-      <c r="AA27" s="16">
+      <c r="AA28" s="14">
         <v>714</v>
       </c>
     </row>
-    <row r="28" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="20">
+    <row r="29" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="18">
         <v>2023</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D29" s="19">
         <v>633934</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E29" s="19">
         <v>622491</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F29" s="19">
         <v>534</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G29" s="19">
         <v>55802</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H29" s="19">
         <v>9494</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I29" s="19">
         <v>3245</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J29" s="19">
         <v>78</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K29" s="19">
         <v>1424</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L29" s="19">
         <v>2009</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M29" s="19">
         <v>57250</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N29" s="19">
         <v>3899</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O29" s="19">
         <v>34654</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P29" s="19">
         <v>20907</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q29" s="19">
         <v>38288</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R29" s="19">
         <v>2590</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S29" s="19">
         <v>49582</v>
       </c>
-      <c r="T28" s="21">
+      <c r="T29" s="19">
         <v>1</v>
       </c>
-      <c r="U28" s="21">
+      <c r="U29" s="19">
         <v>118075</v>
       </c>
-      <c r="V28" s="21">
+      <c r="V29" s="19">
         <v>5811</v>
       </c>
-      <c r="W28" s="21">
+      <c r="W29" s="19">
         <v>4917</v>
       </c>
-      <c r="X28" s="21">
+      <c r="X29" s="19">
         <v>1700</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y29" s="19">
         <v>11348</v>
       </c>
-      <c r="Z28" s="21">
+      <c r="Z29" s="19">
         <v>15</v>
       </c>
-      <c r="AA28" s="21">
+      <c r="AA29" s="19">
         <v>712</v>
       </c>
     </row>
-    <row r="29" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
+    <row r="30" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="14">
         <v>632252</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="14">
         <v>620240</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="14">
         <v>528</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G30" s="14">
         <v>55869</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H30" s="14">
         <v>9451</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I30" s="14">
         <v>3234</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J30" s="14">
         <v>78</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K30" s="14">
         <v>1424</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L30" s="14">
         <v>1986</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M30" s="14">
         <v>57083</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N30" s="14">
         <v>3895</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O30" s="14">
         <v>34339</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P30" s="14">
         <v>20924</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q30" s="14">
         <v>38275</v>
       </c>
-      <c r="R29" s="16">
+      <c r="R30" s="14">
         <v>2577</v>
       </c>
-      <c r="S29" s="16">
+      <c r="S30" s="14">
         <v>49203</v>
       </c>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16">
+      <c r="T30" s="14"/>
+      <c r="U30" s="14">
         <v>117636</v>
       </c>
-      <c r="V29" s="16">
+      <c r="V30" s="14">
         <v>5783</v>
       </c>
-      <c r="W29" s="16">
+      <c r="W30" s="14">
         <v>4904</v>
       </c>
-      <c r="X29" s="16">
+      <c r="X30" s="14">
         <v>1678</v>
       </c>
-      <c r="Y29" s="16">
+      <c r="Y30" s="14">
         <v>11327</v>
       </c>
-      <c r="Z29" s="16">
+      <c r="Z30" s="14">
         <v>14</v>
       </c>
-      <c r="AA29" s="16">
+      <c r="AA30" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="12">
+    <row r="31" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
         <v>2022</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="11">
         <v>629746</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="11">
         <v>617778</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="11">
         <v>528</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="11">
         <v>55776</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="11">
         <v>9347</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="11">
         <v>3197</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J31" s="11">
         <v>77</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K31" s="11">
         <v>1424</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L31" s="11">
         <v>1959</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M31" s="11">
         <v>56592</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N31" s="11">
         <v>3885</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O31" s="11">
         <v>33921</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P31" s="11">
         <v>20669</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q31" s="11">
         <v>38043</v>
       </c>
-      <c r="R30" s="13">
+      <c r="R31" s="11">
         <v>2568</v>
       </c>
-      <c r="S30" s="13">
+      <c r="S31" s="11">
         <v>48930</v>
       </c>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13">
+      <c r="T31" s="11"/>
+      <c r="U31" s="11">
         <v>117218</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V31" s="11">
         <v>5770</v>
       </c>
-      <c r="W30" s="13">
+      <c r="W31" s="11">
         <v>4899</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X31" s="11">
         <v>1652</v>
       </c>
-      <c r="Y30" s="13">
+      <c r="Y31" s="11">
         <v>11234</v>
       </c>
-      <c r="Z30" s="13">
+      <c r="Z31" s="11">
         <v>15</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA31" s="11">
         <v>707</v>
       </c>
     </row>
-    <row r="31" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="15">
+    <row r="32" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="14">
         <v>627591</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="14">
         <v>615376</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="14">
         <v>528</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="14">
         <v>55700</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="14">
         <v>9310</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="14">
         <v>3164</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="14">
         <v>77</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K32" s="14">
         <v>1424</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L32" s="14">
         <v>1936</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M32" s="14">
         <v>56336</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N32" s="14">
         <v>3884</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O32" s="14">
         <v>33523</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P32" s="14">
         <v>20457</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q32" s="14">
         <v>37927</v>
       </c>
-      <c r="R31" s="16">
+      <c r="R32" s="14">
         <v>2574</v>
       </c>
-      <c r="S31" s="16">
+      <c r="S32" s="14">
         <v>48696</v>
       </c>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16">
+      <c r="T32" s="14"/>
+      <c r="U32" s="14">
         <v>116809</v>
       </c>
-      <c r="V31" s="16">
+      <c r="V32" s="14">
         <v>5709</v>
       </c>
-      <c r="W31" s="16">
+      <c r="W32" s="14">
         <v>4865</v>
       </c>
-      <c r="X31" s="16">
+      <c r="X32" s="14">
         <v>1637</v>
       </c>
-      <c r="Y31" s="16">
+      <c r="Y32" s="14">
         <v>11207</v>
       </c>
-      <c r="Z31" s="16">
+      <c r="Z32" s="14">
         <v>15</v>
       </c>
-      <c r="AA31" s="16">
+      <c r="AA32" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="32" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12">
+    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="11">
         <v>625802</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="11">
         <v>613527</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="11">
         <v>529</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="11">
         <v>55774</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="11">
         <v>9280</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="11">
         <v>3168</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J33" s="11">
         <v>77</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K33" s="11">
         <v>1424</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L33" s="11">
         <v>1923</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M33" s="11">
         <v>56179</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N33" s="11">
         <v>3894</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O33" s="11">
         <v>33212</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P33" s="11">
         <v>20145</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q33" s="11">
         <v>37799</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R33" s="11">
         <v>2588</v>
       </c>
-      <c r="S32" s="13">
+      <c r="S33" s="11">
         <v>48487</v>
       </c>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13">
+      <c r="T33" s="11"/>
+      <c r="U33" s="11">
         <v>116524</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V33" s="11">
         <v>5685</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W33" s="11">
         <v>4852</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X33" s="11">
         <v>1602</v>
       </c>
-      <c r="Y32" s="13">
+      <c r="Y33" s="11">
         <v>11195</v>
       </c>
-      <c r="Z32" s="13">
+      <c r="Z33" s="11">
         <v>15</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AA33" s="11">
         <v>698</v>
       </c>
     </row>
-    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="15">
+    <row r="34" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="14">
         <v>623225</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E34" s="14">
         <v>611005</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F34" s="14">
         <v>527</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G34" s="14">
         <v>55700</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H34" s="14">
         <v>9285</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I34" s="14">
         <v>3159</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J34" s="14">
         <v>77</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K34" s="14">
         <v>1424</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L34" s="14">
         <v>1959</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M34" s="14">
         <v>56592</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N34" s="14">
         <v>3885</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O34" s="14">
         <v>33921</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P34" s="14">
         <v>19873</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q34" s="14">
         <v>37606</v>
       </c>
-      <c r="R33" s="16">
+      <c r="R34" s="14">
         <v>2571</v>
       </c>
-      <c r="S33" s="16">
+      <c r="S34" s="14">
         <v>48049</v>
       </c>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16">
+      <c r="T34" s="14"/>
+      <c r="U34" s="14">
         <v>115967</v>
       </c>
-      <c r="V33" s="16">
+      <c r="V34" s="14">
         <v>5662</v>
       </c>
-      <c r="W33" s="16">
+      <c r="W34" s="14">
         <v>4804</v>
       </c>
-      <c r="X33" s="16">
+      <c r="X34" s="14">
         <v>1573</v>
       </c>
-      <c r="Y33" s="16">
+      <c r="Y34" s="14">
         <v>11161</v>
       </c>
-      <c r="Z33" s="16">
+      <c r="Z34" s="14">
         <v>16</v>
       </c>
-      <c r="AA33" s="16">
+      <c r="AA34" s="14">
         <v>699</v>
       </c>
     </row>
-    <row r="34" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="12">
+    <row r="35" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="11">
         <v>619408</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="11">
         <v>607662</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="11">
         <v>525</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="11">
         <v>55704</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="11">
         <v>9233</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="11">
         <v>3148</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J35" s="11">
         <v>77</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K35" s="11">
         <v>1424</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L35" s="11">
         <v>1866</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M35" s="11">
         <v>55722</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N35" s="11">
         <v>3891</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O35" s="11">
         <v>32461</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P35" s="11">
         <v>19530</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q35" s="11">
         <v>37234</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R35" s="11">
         <v>2570</v>
       </c>
-      <c r="S34" s="13">
+      <c r="S35" s="11">
         <v>47654</v>
       </c>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13">
+      <c r="T35" s="11"/>
+      <c r="U35" s="11">
         <v>115526</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V35" s="11">
         <v>5597</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W35" s="11">
         <v>4695</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X35" s="11">
         <v>1536</v>
       </c>
-      <c r="Y34" s="13">
+      <c r="Y35" s="11">
         <v>11130</v>
       </c>
-      <c r="Z34" s="13">
+      <c r="Z35" s="11">
         <v>16</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AA35" s="11">
         <v>696</v>
       </c>
     </row>
-    <row r="35" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="15">
+    <row r="36" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="14">
         <v>618040</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E36" s="14">
         <v>606724</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F36" s="14">
         <v>525</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G36" s="14">
         <v>55570</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H36" s="14">
         <v>9217</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I36" s="14">
         <v>3142</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J36" s="14">
         <v>77</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K36" s="14">
         <v>1424</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L36" s="14">
         <v>1855</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M36" s="14">
         <v>55624</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N36" s="14">
         <v>3889</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O36" s="14">
         <v>32272</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P36" s="14">
         <v>19269</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q36" s="14">
         <v>37056</v>
       </c>
-      <c r="R35" s="16">
+      <c r="R36" s="14">
         <v>2562</v>
       </c>
-      <c r="S35" s="16">
+      <c r="S36" s="14">
         <v>47342</v>
       </c>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16">
+      <c r="T36" s="14"/>
+      <c r="U36" s="14">
         <v>114809</v>
       </c>
-      <c r="V35" s="16">
+      <c r="V36" s="14">
         <v>5569</v>
       </c>
-      <c r="W35" s="16">
+      <c r="W36" s="14">
         <v>4673</v>
       </c>
-      <c r="X35" s="16">
+      <c r="X36" s="14">
         <v>1516</v>
       </c>
-      <c r="Y35" s="16">
+      <c r="Y36" s="14">
         <v>11114</v>
       </c>
-      <c r="Z35" s="16">
+      <c r="Z36" s="14">
         <v>16</v>
       </c>
-      <c r="AA35" s="16">
+      <c r="AA36" s="14">
         <v>695</v>
       </c>
     </row>
-    <row r="36" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="12">
+    <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="11">
         <v>616795</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="11">
         <v>605191</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="11">
         <v>525</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="11">
         <v>55673</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="11">
         <v>9298</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="11">
         <v>3152</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J37" s="11">
         <v>77</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K37" s="11">
         <v>1424</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L37" s="11">
         <v>1846</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M37" s="11">
         <v>55382</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N37" s="11">
         <v>3892</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O37" s="11">
         <v>32033</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P37" s="11">
         <v>19167</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q37" s="11">
         <v>36662</v>
       </c>
-      <c r="R36" s="13">
+      <c r="R37" s="11">
         <v>2569</v>
       </c>
-      <c r="S36" s="13">
+      <c r="S37" s="11">
         <v>47224</v>
       </c>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13">
+      <c r="T37" s="11"/>
+      <c r="U37" s="11">
         <v>114792</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V37" s="11">
         <v>5511</v>
       </c>
-      <c r="W36" s="13">
+      <c r="W37" s="11">
         <v>4622</v>
       </c>
-      <c r="X36" s="13">
+      <c r="X37" s="11">
         <v>1474</v>
       </c>
-      <c r="Y36" s="13">
+      <c r="Y37" s="11">
         <v>11085</v>
       </c>
-      <c r="Z36" s="13">
+      <c r="Z37" s="11">
         <v>16</v>
       </c>
-      <c r="AA36" s="13">
+      <c r="AA37" s="11">
         <v>695</v>
       </c>
     </row>
-    <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="15">
+    <row r="38" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="14">
         <v>614317</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E38" s="14">
         <v>602581</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F38" s="14">
         <v>524</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="14">
         <v>55683</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H38" s="14">
         <v>9224</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I38" s="14">
         <v>3107</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J38" s="14">
         <v>77</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K38" s="14">
         <v>1424</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L38" s="14">
         <v>1833</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M38" s="14">
         <v>55240</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N38" s="14">
         <v>3885</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O38" s="14">
         <v>31772</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P38" s="14">
         <v>18897</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q38" s="14">
         <v>36589</v>
       </c>
-      <c r="R37" s="16">
+      <c r="R38" s="14">
         <v>2571</v>
       </c>
-      <c r="S37" s="16">
+      <c r="S38" s="14">
         <v>46753</v>
       </c>
-      <c r="T37" s="16">
+      <c r="T38" s="14">
         <v>1</v>
       </c>
-      <c r="U37" s="16">
+      <c r="U38" s="14">
         <v>114370</v>
       </c>
-      <c r="V37" s="16">
+      <c r="V38" s="14">
         <v>5457</v>
       </c>
-      <c r="W37" s="16">
+      <c r="W38" s="14">
         <v>4577</v>
       </c>
-      <c r="X37" s="16">
+      <c r="X38" s="14">
         <v>1352</v>
       </c>
-      <c r="Y37" s="16">
+      <c r="Y38" s="14">
         <v>11060</v>
       </c>
-      <c r="Z37" s="16">
+      <c r="Z38" s="14">
         <v>16</v>
       </c>
-      <c r="AA37" s="16">
+      <c r="AA38" s="14">
         <v>696</v>
       </c>
     </row>
-    <row r="38" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="12">
+    <row r="39" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="11">
         <v>611918</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="11">
         <v>600194</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="11">
         <v>523</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="11">
         <v>55693</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="11">
         <v>9204</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="11">
         <v>3089</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="11">
         <v>77</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K39" s="11">
         <v>1424</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L39" s="11">
         <v>1820</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M39" s="11">
         <v>55146</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N39" s="11">
         <v>3885</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O39" s="11">
         <v>31565</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P39" s="11">
         <v>18897</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q39" s="11">
         <v>36589</v>
       </c>
-      <c r="R38" s="13">
+      <c r="R39" s="11">
         <v>2568</v>
       </c>
-      <c r="S38" s="13">
+      <c r="S39" s="11">
         <v>46254</v>
       </c>
-      <c r="T38" s="13">
+      <c r="T39" s="11">
         <v>0</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U39" s="11">
         <v>113789</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V39" s="11">
         <v>5441</v>
       </c>
-      <c r="W38" s="13">
+      <c r="W39" s="11">
         <v>4530</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X39" s="11">
         <v>1276</v>
       </c>
-      <c r="Y38" s="13">
+      <c r="Y39" s="11">
         <v>11016</v>
       </c>
-      <c r="Z38" s="13">
+      <c r="Z39" s="11">
         <v>16</v>
       </c>
-      <c r="AA38" s="13">
+      <c r="AA39" s="11">
         <v>694</v>
       </c>
     </row>
-    <row r="39" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="15">
+    <row r="40" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="14">
         <v>609072</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="14">
         <v>597797</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="14">
         <v>523</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G40" s="14">
         <v>55620</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H40" s="14">
         <v>9119</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I40" s="14">
         <v>3048</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J40" s="14">
         <v>77</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K40" s="14">
         <v>1424</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L40" s="14">
         <v>1803</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M40" s="14">
         <v>54943</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N40" s="14">
         <v>3886</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O40" s="14">
         <v>31259</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P40" s="14">
         <v>18473</v>
       </c>
-      <c r="Q39" s="16">
+      <c r="Q40" s="14">
         <v>35996</v>
       </c>
-      <c r="R39" s="16">
+      <c r="R40" s="14">
         <v>2581</v>
       </c>
-      <c r="S39" s="16">
+      <c r="S40" s="14">
         <v>45940</v>
       </c>
-      <c r="T39" s="16">
+      <c r="T40" s="14">
         <v>1</v>
       </c>
-      <c r="U39" s="16">
+      <c r="U40" s="14">
         <v>112805</v>
       </c>
-      <c r="V39" s="16">
+      <c r="V40" s="14">
         <v>5407</v>
       </c>
-      <c r="W39" s="16">
+      <c r="W40" s="14">
         <v>4480</v>
       </c>
-      <c r="X39" s="16">
+      <c r="X40" s="14">
         <v>1159</v>
       </c>
-      <c r="Y39" s="16">
+      <c r="Y40" s="14">
         <v>10978</v>
       </c>
-      <c r="Z39" s="16">
+      <c r="Z40" s="14">
         <v>16</v>
       </c>
-      <c r="AA39" s="16">
+      <c r="AA40" s="14">
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="20">
+    <row r="41" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="18">
         <v>2022</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D41" s="19">
         <v>607150</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E41" s="19">
         <v>596005</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F41" s="19">
         <v>524</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G41" s="19">
         <v>55683</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H41" s="19">
         <v>9107</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I41" s="19">
         <v>3044</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J41" s="19">
         <v>77</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K41" s="19">
         <v>1424</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L41" s="19">
         <v>1789</v>
       </c>
-      <c r="M40" s="21">
+      <c r="M41" s="19">
         <v>54848</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N41" s="19">
         <v>3889</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O41" s="19">
         <v>31054</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P41" s="19">
         <v>18394</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="Q41" s="19">
         <v>35736</v>
       </c>
-      <c r="R40" s="21">
+      <c r="R41" s="19">
         <v>2573</v>
       </c>
-      <c r="S40" s="21">
+      <c r="S41" s="19">
         <v>45388</v>
       </c>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21">
+      <c r="T41" s="19"/>
+      <c r="U41" s="19">
         <v>112333</v>
       </c>
-      <c r="V40" s="21">
+      <c r="V41" s="19">
         <v>5355</v>
       </c>
-      <c r="W40" s="21">
+      <c r="W41" s="19">
         <v>4440</v>
       </c>
-      <c r="X40" s="21">
+      <c r="X41" s="19">
         <v>1030</v>
       </c>
-      <c r="Y40" s="21">
+      <c r="Y41" s="19">
         <v>10960</v>
       </c>
-      <c r="Z40" s="21">
+      <c r="Z41" s="19">
         <v>16</v>
       </c>
-      <c r="AA40" s="21">
+      <c r="AA41" s="19">
         <v>693</v>
       </c>
     </row>
-    <row r="41" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
+    <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="14">
         <v>606090</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="14">
         <v>594443</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="14">
         <v>520</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G42" s="14">
         <v>55717</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H42" s="14">
         <v>9091</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I42" s="14">
         <v>3021</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J42" s="14">
         <v>77</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K42" s="14">
         <v>1424</v>
       </c>
-      <c r="L41" s="16">
+      <c r="L42" s="14">
         <v>1787</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M42" s="14">
         <v>54743</v>
       </c>
-      <c r="N41" s="16">
+      <c r="N42" s="14">
         <v>3888</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O42" s="14">
         <v>30885</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P42" s="14">
         <v>18334</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q42" s="14">
         <v>35952</v>
       </c>
-      <c r="R41" s="16">
+      <c r="R42" s="14">
         <v>2604</v>
       </c>
-      <c r="S41" s="16">
+      <c r="S42" s="14">
         <v>45157</v>
       </c>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16">
+      <c r="T42" s="14"/>
+      <c r="U42" s="14">
         <v>111857</v>
       </c>
-      <c r="V41" s="16">
+      <c r="V42" s="14">
         <v>5309</v>
       </c>
-      <c r="W41" s="16">
+      <c r="W42" s="14">
         <v>4400</v>
       </c>
-      <c r="X41" s="16">
+      <c r="X42" s="14">
         <v>957</v>
       </c>
-      <c r="Y41" s="16">
+      <c r="Y42" s="14">
         <v>10938</v>
       </c>
-      <c r="Z41" s="16">
+      <c r="Z42" s="14">
         <v>16</v>
       </c>
-      <c r="AA41" s="16">
+      <c r="AA42" s="14">
         <v>692</v>
       </c>
     </row>
-    <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="12">
+    <row r="43" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="10">
         <v>2021</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="11">
         <v>603380</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="11">
         <v>591451</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="11">
         <v>519</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="11">
         <v>55656</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="11">
         <v>9054</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="11">
         <v>2985</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J43" s="11">
         <v>77</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K43" s="11">
         <v>1424</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L43" s="11">
         <v>1775</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M43" s="11">
         <v>54335</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N43" s="11">
         <v>3888</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O43" s="11">
         <v>30589</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P43" s="11">
         <v>18224</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q43" s="11">
         <v>35977</v>
       </c>
-      <c r="R42" s="13">
+      <c r="R43" s="11">
         <v>2594</v>
       </c>
-      <c r="S42" s="13">
+      <c r="S43" s="11">
         <v>44663</v>
       </c>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13">
+      <c r="T43" s="11"/>
+      <c r="U43" s="11">
         <v>110970</v>
       </c>
-      <c r="V42" s="13">
+      <c r="V43" s="11">
         <v>5249</v>
       </c>
-      <c r="W42" s="13">
+      <c r="W43" s="11">
         <v>4357</v>
       </c>
-      <c r="X42" s="13">
+      <c r="X43" s="11">
         <v>868</v>
       </c>
-      <c r="Y42" s="13">
+      <c r="Y43" s="11">
         <v>10873</v>
       </c>
-      <c r="Z42" s="13">
+      <c r="Z43" s="11">
         <v>16</v>
       </c>
-      <c r="AA42" s="13">
+      <c r="AA43" s="11">
         <v>692</v>
       </c>
     </row>
-    <row r="43" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="15">
+    <row r="44" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="14">
         <v>602061</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E44" s="14">
         <v>590200</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F44" s="14">
         <v>520</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G44" s="14">
         <v>55685</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H44" s="14">
         <v>8999</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I44" s="14">
         <v>2982</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J44" s="14">
         <v>77</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K44" s="14">
         <v>1424</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L44" s="14">
         <v>1768</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M44" s="14">
         <v>54086</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N44" s="14">
         <v>3885</v>
       </c>
-      <c r="O43" s="16">
+      <c r="O44" s="14">
         <v>30303</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P44" s="14">
         <v>18211</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q44" s="14">
         <v>36050</v>
       </c>
-      <c r="R43" s="16">
+      <c r="R44" s="14">
         <v>2611</v>
       </c>
-      <c r="S43" s="16">
+      <c r="S44" s="14">
         <v>44484</v>
       </c>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16">
+      <c r="T44" s="14"/>
+      <c r="U44" s="14">
         <v>110396</v>
       </c>
-      <c r="V43" s="16">
+      <c r="V44" s="14">
         <v>5205</v>
       </c>
-      <c r="W43" s="16">
+      <c r="W44" s="14">
         <v>4316</v>
       </c>
-      <c r="X43" s="16">
+      <c r="X44" s="14">
         <v>836</v>
       </c>
-      <c r="Y43" s="16">
+      <c r="Y44" s="14">
         <v>10858</v>
       </c>
-      <c r="Z43" s="16">
+      <c r="Z44" s="14">
         <v>16</v>
       </c>
-      <c r="AA43" s="16">
+      <c r="AA44" s="14">
         <v>689</v>
       </c>
     </row>
-    <row r="44" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="12">
+    <row r="45" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="11">
         <v>599199</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="11">
         <v>586326</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="11">
         <v>516</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="11">
         <v>55678</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="11">
         <v>8883</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="11">
         <v>2962</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J45" s="11">
         <v>77</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K45" s="11">
         <v>1424</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L45" s="11">
         <v>1761</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M45" s="11">
         <v>53840</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N45" s="11">
         <v>3878</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O45" s="11">
         <v>30091</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P45" s="11">
         <v>18180</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="Q45" s="11">
         <v>35973</v>
       </c>
-      <c r="R44" s="13">
+      <c r="R45" s="11">
         <v>2618</v>
       </c>
-      <c r="S44" s="13">
+      <c r="S45" s="11">
         <v>43957</v>
       </c>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13">
+      <c r="T45" s="11"/>
+      <c r="U45" s="11">
         <v>110047</v>
       </c>
-      <c r="V44" s="13">
+      <c r="V45" s="11">
         <v>5137</v>
       </c>
-      <c r="W44" s="13">
+      <c r="W45" s="11">
         <v>4253</v>
       </c>
-      <c r="X44" s="13">
+      <c r="X45" s="11">
         <v>705</v>
       </c>
-      <c r="Y44" s="13">
+      <c r="Y45" s="11">
         <v>10790</v>
       </c>
-      <c r="Z44" s="13">
+      <c r="Z45" s="11">
         <v>16</v>
       </c>
-      <c r="AA44" s="13">
+      <c r="AA45" s="11">
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="15">
+    <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="14">
         <v>597975</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E46" s="14">
         <v>583854</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F46" s="14">
         <v>505</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G46" s="14">
         <v>55668</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H46" s="14">
         <v>8821</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I46" s="14">
         <v>2977</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J46" s="14">
         <v>77</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K46" s="14">
         <v>1424</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L46" s="14">
         <v>1753</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M46" s="14">
         <v>53278</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N46" s="14">
         <v>3892</v>
       </c>
-      <c r="O45" s="16">
+      <c r="O46" s="14">
         <v>29694</v>
       </c>
-      <c r="P45" s="16">
+      <c r="P46" s="14">
         <v>18180</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q46" s="14">
         <v>35973</v>
       </c>
-      <c r="R45" s="16">
+      <c r="R46" s="14">
         <v>2605</v>
       </c>
-      <c r="S45" s="16">
+      <c r="S46" s="14">
         <v>42961</v>
       </c>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16">
+      <c r="T46" s="14"/>
+      <c r="U46" s="14">
         <v>138152</v>
       </c>
-      <c r="V45" s="16">
+      <c r="V46" s="14">
         <v>6095</v>
       </c>
-      <c r="W45" s="16">
+      <c r="W46" s="14">
         <v>4045</v>
       </c>
-      <c r="X45" s="16">
+      <c r="X46" s="14">
         <v>666</v>
       </c>
-      <c r="Y45" s="16">
+      <c r="Y46" s="14">
         <v>10713</v>
       </c>
-      <c r="Z45" s="16">
+      <c r="Z46" s="14">
         <v>17</v>
       </c>
-      <c r="AA45" s="16">
+      <c r="AA46" s="14">
         <v>682</v>
       </c>
     </row>
-    <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="12">
+    <row r="47" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="11">
         <v>594590</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="11">
         <v>580812</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="11">
         <v>505</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="11">
         <v>55750</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="11">
         <v>8821</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="11">
         <v>2979</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J47" s="11">
         <v>77</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K47" s="11">
         <v>1424</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L47" s="11">
         <v>1754</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M47" s="11">
         <v>53393</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N47" s="11">
         <v>3894</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O47" s="11">
         <v>29714</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P47" s="11">
         <v>17962</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="Q47" s="11">
         <v>36188</v>
       </c>
-      <c r="R46" s="13">
+      <c r="R47" s="11">
         <v>2604</v>
       </c>
-      <c r="S46" s="13">
+      <c r="S47" s="11">
         <v>42900</v>
       </c>
-      <c r="T46" s="13">
+      <c r="T47" s="11">
         <v>1</v>
       </c>
-      <c r="U46" s="13">
+      <c r="U47" s="11">
         <v>109339</v>
       </c>
-      <c r="V46" s="13">
+      <c r="V47" s="11">
         <v>5068</v>
       </c>
-      <c r="W46" s="13">
+      <c r="W47" s="11">
         <v>4043</v>
       </c>
-      <c r="X46" s="13">
+      <c r="X47" s="11">
         <v>666</v>
       </c>
-      <c r="Y46" s="13">
+      <c r="Y47" s="11">
         <v>10697</v>
       </c>
-      <c r="Z46" s="13">
+      <c r="Z47" s="11">
         <v>17</v>
       </c>
-      <c r="AA46" s="13">
+      <c r="AA47" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="47" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="15">
+    <row r="48" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="14">
         <v>593307</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="14">
         <v>578970</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="14">
         <v>511</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G48" s="14">
         <v>55681</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H48" s="14">
         <v>8835</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I48" s="14">
         <v>2976</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J48" s="14">
         <v>77</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K48" s="14">
         <v>1424</v>
       </c>
-      <c r="L47" s="16">
+      <c r="L48" s="14">
         <v>1750</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M48" s="14">
         <v>53077</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N48" s="14">
         <v>3889</v>
       </c>
-      <c r="O47" s="16">
+      <c r="O48" s="14">
         <v>29454</v>
       </c>
-      <c r="P47" s="16">
+      <c r="P48" s="14">
         <v>20219</v>
       </c>
-      <c r="Q47" s="16">
+      <c r="Q48" s="14">
         <v>37753</v>
       </c>
-      <c r="R47" s="16">
+      <c r="R48" s="14">
         <v>2598</v>
       </c>
-      <c r="S47" s="16">
+      <c r="S48" s="14">
         <v>42432</v>
       </c>
-      <c r="T47" s="16">
+      <c r="T48" s="14">
         <v>1</v>
       </c>
-      <c r="U47" s="16">
+      <c r="U48" s="14">
         <v>109131</v>
       </c>
-      <c r="V47" s="16">
+      <c r="V48" s="14">
         <v>4950</v>
       </c>
-      <c r="W47" s="16">
+      <c r="W48" s="14">
         <v>4018</v>
       </c>
-      <c r="X47" s="16">
+      <c r="X48" s="14">
         <v>650</v>
       </c>
-      <c r="Y47" s="16">
+      <c r="Y48" s="14">
         <v>10710</v>
       </c>
-      <c r="Z47" s="16">
+      <c r="Z48" s="14">
         <v>17</v>
       </c>
-      <c r="AA47" s="16">
+      <c r="AA48" s="14">
         <v>680</v>
       </c>
     </row>
-    <row r="48" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="12">
+    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="11">
         <v>590245</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="11">
         <v>576050</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="11">
         <v>510</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="11">
         <v>55725</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="11">
         <v>8835</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I49" s="11">
         <v>2957</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J49" s="11">
         <v>77</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K49" s="11">
         <v>1424</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L49" s="11">
         <v>1740</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M49" s="11">
         <v>52924</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N49" s="11">
         <v>3886</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O49" s="11">
         <v>29218</v>
       </c>
-      <c r="P48" s="13">
+      <c r="P49" s="11">
         <v>17867</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="Q49" s="11">
         <v>36460</v>
       </c>
-      <c r="R48" s="13">
+      <c r="R49" s="11">
         <v>2606</v>
       </c>
-      <c r="S48" s="13">
+      <c r="S49" s="11">
         <v>42065</v>
       </c>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13">
+      <c r="T49" s="11"/>
+      <c r="U49" s="11">
         <v>108383</v>
       </c>
-      <c r="V48" s="13">
+      <c r="V49" s="11">
         <v>4897</v>
       </c>
-      <c r="W48" s="13">
+      <c r="W49" s="11">
         <v>3940</v>
       </c>
-      <c r="X48" s="13">
+      <c r="X49" s="11">
         <v>634</v>
       </c>
-      <c r="Y48" s="13">
+      <c r="Y49" s="11">
         <v>10660</v>
       </c>
-      <c r="Z48" s="13">
+      <c r="Z49" s="11">
         <v>17</v>
       </c>
-      <c r="AA48" s="13">
+      <c r="AA49" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="15">
+    <row r="50" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="14">
         <v>588077</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E50" s="14">
         <v>573877</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F50" s="14">
         <v>509</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G50" s="14">
         <v>55905</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H50" s="14">
         <v>8876</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I50" s="14">
         <v>2941</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J50" s="14">
         <v>77</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K50" s="14">
         <v>1424</v>
       </c>
-      <c r="L49" s="16">
+      <c r="L50" s="14">
         <v>1741</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M50" s="14">
         <v>52732</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N50" s="14">
         <v>3884</v>
       </c>
-      <c r="O49" s="16">
+      <c r="O50" s="14">
         <v>29115</v>
       </c>
-      <c r="P49" s="16">
+      <c r="P50" s="14">
         <v>17854</v>
       </c>
-      <c r="Q49" s="16">
+      <c r="Q50" s="14">
         <v>36552</v>
       </c>
-      <c r="R49" s="16">
+      <c r="R50" s="14">
         <v>2596</v>
       </c>
-      <c r="S49" s="16">
+      <c r="S50" s="14">
         <v>41550</v>
       </c>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16">
+      <c r="T50" s="14"/>
+      <c r="U50" s="14">
         <v>107848</v>
       </c>
-      <c r="V49" s="16">
+      <c r="V50" s="14">
         <v>4861</v>
       </c>
-      <c r="W49" s="16">
+      <c r="W50" s="14">
         <v>3840</v>
       </c>
-      <c r="X49" s="16">
+      <c r="X50" s="14">
         <v>623</v>
       </c>
-      <c r="Y49" s="16">
+      <c r="Y50" s="14">
         <v>10625</v>
       </c>
-      <c r="Z49" s="16">
+      <c r="Z50" s="14">
         <v>17</v>
       </c>
-      <c r="AA49" s="16">
+      <c r="AA50" s="14">
         <v>679</v>
       </c>
     </row>
-    <row r="50" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="12">
+    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="11">
         <v>586093</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="11">
         <v>571129</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="11">
         <v>508</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="11">
         <v>56021</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="11">
         <v>8878</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="11">
         <v>2934</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="11">
         <v>77</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K51" s="11">
         <v>1424</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L51" s="11">
         <v>1732</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M51" s="11">
         <v>52504</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N51" s="11">
         <v>3883</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O51" s="11">
         <v>29014</v>
       </c>
-      <c r="P50" s="13">
+      <c r="P51" s="11">
         <v>17887</v>
       </c>
-      <c r="Q50" s="13">
+      <c r="Q51" s="11">
         <v>36498</v>
       </c>
-      <c r="R50" s="13">
+      <c r="R51" s="11">
         <v>2578</v>
       </c>
-      <c r="S50" s="13">
+      <c r="S51" s="11">
         <v>40750</v>
       </c>
-      <c r="T50" s="13">
+      <c r="T51" s="11">
         <v>0</v>
       </c>
-      <c r="U50" s="13">
+      <c r="U51" s="11">
         <v>107480</v>
       </c>
-      <c r="V50" s="13">
+      <c r="V51" s="11">
         <v>4839</v>
       </c>
-      <c r="W50" s="13">
+      <c r="W51" s="11">
         <v>3789</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X51" s="11">
         <v>621</v>
       </c>
-      <c r="Y50" s="13">
+      <c r="Y51" s="11">
         <v>10600</v>
       </c>
-      <c r="Z50" s="13">
+      <c r="Z51" s="11">
         <v>17</v>
       </c>
-      <c r="AA50" s="13">
+      <c r="AA51" s="11">
         <v>678</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="15">
+    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="14">
         <v>583440</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="14">
         <v>567677</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="14">
         <v>507</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="14">
         <v>56059</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H52" s="14">
         <v>8871</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I52" s="14">
         <v>2921</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J52" s="14">
         <v>77</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K52" s="14">
         <v>1424</v>
       </c>
-      <c r="L51" s="16">
+      <c r="L52" s="14">
         <v>1728</v>
       </c>
-      <c r="M51" s="16">
+      <c r="M52" s="14">
         <v>52301</v>
       </c>
-      <c r="N51" s="16">
+      <c r="N52" s="14">
         <v>3880</v>
       </c>
-      <c r="O51" s="16">
+      <c r="O52" s="14">
         <v>28867</v>
       </c>
-      <c r="P51" s="16">
+      <c r="P52" s="14">
         <v>17889</v>
       </c>
-      <c r="Q51" s="16">
+      <c r="Q52" s="14">
         <v>36421</v>
       </c>
-      <c r="R51" s="16">
+      <c r="R52" s="14">
         <v>2569</v>
       </c>
-      <c r="S51" s="16">
+      <c r="S52" s="14">
         <v>39851</v>
       </c>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16">
+      <c r="T52" s="14"/>
+      <c r="U52" s="14">
         <v>106898</v>
       </c>
-      <c r="V51" s="16">
+      <c r="V52" s="14">
         <v>4801</v>
       </c>
-      <c r="W51" s="16">
+      <c r="W52" s="14">
         <v>3689</v>
       </c>
-      <c r="X51" s="16">
+      <c r="X52" s="14">
         <v>585</v>
       </c>
-      <c r="Y51" s="16">
+      <c r="Y52" s="14">
         <v>10566</v>
       </c>
-      <c r="Z51" s="16">
+      <c r="Z52" s="14">
         <v>17</v>
       </c>
-      <c r="AA51" s="16">
+      <c r="AA52" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="20">
+    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="18">
         <v>2021</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D53" s="19">
         <v>581299</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E53" s="19">
         <v>565156</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F53" s="19">
         <v>507</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G53" s="19">
         <v>56230</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H53" s="19">
         <v>8897</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I53" s="19">
         <v>2930</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J53" s="19">
         <v>77</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K53" s="19">
         <v>1424</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L53" s="19">
         <v>1727</v>
       </c>
-      <c r="M52" s="21">
+      <c r="M53" s="19">
         <v>52149</v>
       </c>
-      <c r="N52" s="21">
+      <c r="N53" s="19">
         <v>3874</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O53" s="19">
         <v>28827</v>
       </c>
-      <c r="P52" s="21">
+      <c r="P53" s="19">
         <v>17957</v>
       </c>
-      <c r="Q52" s="21">
+      <c r="Q53" s="19">
         <v>36403</v>
       </c>
-      <c r="R52" s="21">
+      <c r="R53" s="19">
         <v>2555</v>
       </c>
-      <c r="S52" s="21">
+      <c r="S53" s="19">
         <v>39272</v>
       </c>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21">
+      <c r="T53" s="19"/>
+      <c r="U53" s="19">
         <v>106698</v>
       </c>
-      <c r="V52" s="21">
+      <c r="V53" s="19">
         <v>4780</v>
       </c>
-      <c r="W52" s="21">
+      <c r="W53" s="19">
         <v>3642</v>
       </c>
-      <c r="X52" s="21">
+      <c r="X53" s="19">
         <v>578</v>
       </c>
-      <c r="Y52" s="21">
+      <c r="Y53" s="19">
         <v>10557</v>
       </c>
-      <c r="Z52" s="21">
+      <c r="Z53" s="19">
         <v>17</v>
       </c>
-      <c r="AA52" s="21">
+      <c r="AA53" s="19">
         <v>671</v>
       </c>
     </row>
-    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
+    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="14">
         <v>580035</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="14">
         <v>563400</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="14">
         <v>505</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="14">
         <v>56274</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H54" s="14">
         <v>8916</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I54" s="14">
         <v>2933</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J54" s="14">
         <v>77</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K54" s="14">
         <v>1424</v>
       </c>
-      <c r="L53" s="16">
+      <c r="L54" s="14">
         <v>1736</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M54" s="14">
         <v>52012</v>
       </c>
-      <c r="N53" s="16">
+      <c r="N54" s="14">
         <v>3877</v>
       </c>
-      <c r="O53" s="16">
+      <c r="O54" s="14">
         <v>28815</v>
       </c>
-      <c r="P53" s="16">
+      <c r="P54" s="14">
         <v>18007</v>
       </c>
-      <c r="Q53" s="16">
+      <c r="Q54" s="14">
         <v>36384</v>
       </c>
-      <c r="R53" s="16">
+      <c r="R54" s="14">
         <v>2551</v>
       </c>
-      <c r="S53" s="16">
+      <c r="S54" s="14">
         <v>38799</v>
       </c>
-      <c r="T53" s="16">
+      <c r="T54" s="14">
         <v>0</v>
       </c>
-      <c r="U53" s="16">
+      <c r="U54" s="14">
         <v>106486</v>
       </c>
-      <c r="V53" s="16">
+      <c r="V54" s="14">
         <v>4754</v>
       </c>
-      <c r="W53" s="16">
+      <c r="W54" s="14">
         <v>3612</v>
       </c>
-      <c r="X53" s="16">
+      <c r="X54" s="14">
         <v>569</v>
       </c>
-      <c r="Y53" s="16">
+      <c r="Y54" s="14">
         <v>10542</v>
       </c>
-      <c r="Z53" s="16">
+      <c r="Z54" s="14">
         <v>17</v>
       </c>
-      <c r="AA53" s="16">
+      <c r="AA54" s="14">
         <v>670</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="12">
+    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="10">
         <v>2020</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="11">
         <v>576835</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="11">
         <v>560383</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="11">
         <v>501</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="11">
         <v>56253</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="11">
         <v>8958</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="11">
         <v>2929</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J55" s="11">
         <v>77</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K55" s="11">
         <v>1424</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L55" s="11">
         <v>1734</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M55" s="11">
         <v>51472</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N55" s="11">
         <v>3876</v>
       </c>
-      <c r="O54" s="13">
+      <c r="O55" s="11">
         <v>28607</v>
       </c>
-      <c r="P54" s="13">
+      <c r="P55" s="11">
         <v>17914</v>
       </c>
-      <c r="Q54" s="13">
+      <c r="Q55" s="11">
         <v>36355</v>
       </c>
-      <c r="R54" s="13">
+      <c r="R55" s="11">
         <v>2550</v>
       </c>
-      <c r="S54" s="13">
+      <c r="S55" s="11">
         <v>37952</v>
       </c>
-      <c r="T54" s="13">
+      <c r="T55" s="11">
         <v>0</v>
       </c>
-      <c r="U54" s="13">
+      <c r="U55" s="11">
         <v>106174</v>
       </c>
-      <c r="V54" s="13">
+      <c r="V55" s="11">
         <v>4716</v>
       </c>
-      <c r="W54" s="13">
+      <c r="W55" s="11">
         <v>3542</v>
       </c>
-      <c r="X54" s="13">
+      <c r="X55" s="11">
         <v>553</v>
       </c>
-      <c r="Y54" s="13">
+      <c r="Y55" s="11">
         <v>10450</v>
       </c>
-      <c r="Z54" s="13">
+      <c r="Z55" s="11">
         <v>17</v>
       </c>
-      <c r="AA54" s="13">
+      <c r="AA55" s="11">
         <v>665</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="15">
+    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="14">
         <v>574056</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E56" s="14">
         <v>556941</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F56" s="14">
         <v>499</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G56" s="14">
         <v>56245</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H56" s="14">
         <v>8933</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I56" s="14">
         <v>2902</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J56" s="14">
         <v>77</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K56" s="14">
         <v>1424</v>
       </c>
-      <c r="L55" s="16">
+      <c r="L56" s="14">
         <v>1739</v>
       </c>
-      <c r="M55" s="16">
+      <c r="M56" s="14">
         <v>51341</v>
       </c>
-      <c r="N55" s="16">
+      <c r="N56" s="14">
         <v>3877</v>
       </c>
-      <c r="O55" s="16">
+      <c r="O56" s="14">
         <v>28460</v>
       </c>
-      <c r="P55" s="16">
+      <c r="P56" s="14">
         <v>17784</v>
       </c>
-      <c r="Q55" s="16">
+      <c r="Q56" s="14">
         <v>36186</v>
       </c>
-      <c r="R55" s="16">
+      <c r="R56" s="14">
         <v>2539</v>
       </c>
-      <c r="S55" s="16">
+      <c r="S56" s="14">
         <v>37095</v>
       </c>
-      <c r="T55" s="16">
+      <c r="T56" s="14">
         <v>1</v>
       </c>
-      <c r="U55" s="16">
+      <c r="U56" s="14">
         <v>105781</v>
       </c>
-      <c r="V55" s="16">
+      <c r="V56" s="14">
         <v>4675</v>
       </c>
-      <c r="W55" s="16">
+      <c r="W56" s="14">
         <v>3405</v>
       </c>
-      <c r="X55" s="16">
+      <c r="X56" s="14">
         <v>535</v>
       </c>
-      <c r="Y55" s="16">
+      <c r="Y56" s="14">
         <v>10417</v>
       </c>
-      <c r="Z55" s="16">
+      <c r="Z56" s="14">
         <v>17</v>
       </c>
-      <c r="AA55" s="16">
+      <c r="AA56" s="14">
         <v>666</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="12">
+    <row r="57" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="11">
         <v>571367</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="11">
         <v>552611</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="11">
         <v>495</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="11">
         <v>56341</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="11">
         <v>9019</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I57" s="11">
         <v>2941</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J57" s="11">
         <v>77</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K57" s="11">
         <v>1424</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L57" s="11">
         <v>1746</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M57" s="11">
         <v>51196</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N57" s="11">
         <v>3879</v>
       </c>
-      <c r="O56" s="13">
+      <c r="O57" s="11">
         <v>28351</v>
       </c>
-      <c r="P56" s="13">
+      <c r="P57" s="11">
         <v>17563</v>
       </c>
-      <c r="Q56" s="13">
+      <c r="Q57" s="11">
         <v>35861</v>
       </c>
-      <c r="R56" s="13">
+      <c r="R57" s="11">
         <v>2521</v>
       </c>
-      <c r="S56" s="13">
+      <c r="S57" s="11">
         <v>36352</v>
       </c>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13">
+      <c r="T57" s="11"/>
+      <c r="U57" s="11">
         <v>105315</v>
       </c>
-      <c r="V56" s="13">
+      <c r="V57" s="11">
         <v>4640</v>
       </c>
-      <c r="W56" s="13">
+      <c r="W57" s="11">
         <v>3253</v>
       </c>
-      <c r="X56" s="13">
+      <c r="X57" s="11">
         <v>533</v>
       </c>
-      <c r="Y56" s="13">
+      <c r="Y57" s="11">
         <v>10374</v>
       </c>
-      <c r="Z56" s="13">
+      <c r="Z57" s="11">
         <v>17</v>
       </c>
-      <c r="AA56" s="13">
+      <c r="AA57" s="11">
         <v>666</v>
       </c>
     </row>
-    <row r="57" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="15">
+    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="14">
         <v>569174</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E58" s="14">
         <v>549631</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F58" s="14">
         <v>496</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G58" s="14">
         <v>56348</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H58" s="14">
         <v>9127</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I58" s="14">
         <v>2959</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J58" s="14">
         <v>77</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K58" s="14">
         <v>1424</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L58" s="14">
         <v>1745</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M58" s="14">
         <v>51089</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N58" s="14">
         <v>3866</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O58" s="14">
         <v>28370</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P58" s="14">
         <v>17421</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q58" s="14">
         <v>35866</v>
       </c>
-      <c r="R57" s="16">
+      <c r="R58" s="14">
         <v>2504</v>
       </c>
-      <c r="S57" s="16">
+      <c r="S58" s="14">
         <v>35789</v>
       </c>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16">
+      <c r="T58" s="14"/>
+      <c r="U58" s="14">
         <v>104940</v>
       </c>
-      <c r="V57" s="16">
+      <c r="V58" s="14">
         <v>4612</v>
       </c>
-      <c r="W57" s="16">
+      <c r="W58" s="14">
         <v>3208</v>
       </c>
-      <c r="X57" s="16">
+      <c r="X58" s="14">
         <v>503</v>
       </c>
-      <c r="Y57" s="16">
+      <c r="Y58" s="14">
         <v>10368</v>
       </c>
-      <c r="Z57" s="16">
+      <c r="Z58" s="14">
         <v>17</v>
       </c>
-      <c r="AA57" s="16">
+      <c r="AA58" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="12">
+    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="11">
         <v>567168</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="11">
         <v>547540</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="11">
         <v>498</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="11">
         <v>56269</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="11">
         <v>9193</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="11">
         <v>2973</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="11">
         <v>77</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K59" s="11">
         <v>1424</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L59" s="11">
         <v>1747</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M59" s="11">
         <v>50966</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N59" s="11">
         <v>3857</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O59" s="11">
         <v>28348</v>
       </c>
-      <c r="P58" s="13">
+      <c r="P59" s="11">
         <v>17331</v>
       </c>
-      <c r="Q58" s="13">
+      <c r="Q59" s="11">
         <v>35832</v>
       </c>
-      <c r="R58" s="13">
+      <c r="R59" s="11">
         <v>2489</v>
       </c>
-      <c r="S58" s="13">
+      <c r="S59" s="11">
         <v>35300</v>
       </c>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13">
+      <c r="T59" s="11"/>
+      <c r="U59" s="11">
         <v>104554</v>
       </c>
-      <c r="V58" s="13">
+      <c r="V59" s="11">
         <v>4605</v>
       </c>
-      <c r="W58" s="13">
+      <c r="W59" s="11">
         <v>3183</v>
       </c>
-      <c r="X58" s="13">
+      <c r="X59" s="11">
         <v>491</v>
       </c>
-      <c r="Y58" s="13">
+      <c r="Y59" s="11">
         <v>10340</v>
       </c>
-      <c r="Z58" s="13">
+      <c r="Z59" s="11">
         <v>16</v>
       </c>
-      <c r="AA58" s="13">
+      <c r="AA59" s="11">
         <v>662</v>
       </c>
     </row>
-    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="15">
+    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="14">
         <v>566042</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="14">
         <v>545916</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="14">
         <v>498</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G60" s="14">
         <v>56291</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H60" s="14">
         <v>9187</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I60" s="14">
         <v>2980</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J60" s="14">
         <v>77</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K60" s="14">
         <v>1424</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L60" s="14">
         <v>1748</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M60" s="14">
         <v>50878</v>
       </c>
-      <c r="N59" s="16">
+      <c r="N60" s="14">
         <v>3863</v>
       </c>
-      <c r="O59" s="16">
+      <c r="O60" s="14">
         <v>28349</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P60" s="14">
         <v>17359</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q60" s="14">
         <v>35902</v>
       </c>
-      <c r="R59" s="16">
+      <c r="R60" s="14">
         <v>2485</v>
       </c>
-      <c r="S59" s="16">
+      <c r="S60" s="14">
         <v>35117</v>
       </c>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16">
+      <c r="T60" s="14"/>
+      <c r="U60" s="14">
         <v>104123</v>
       </c>
-      <c r="V59" s="16">
+      <c r="V60" s="14">
         <v>4584</v>
       </c>
-      <c r="W59" s="16">
+      <c r="W60" s="14">
         <v>3179</v>
       </c>
-      <c r="X59" s="16">
+      <c r="X60" s="14">
         <v>489</v>
       </c>
-      <c r="Y59" s="16">
+      <c r="Y60" s="14">
         <v>10327</v>
       </c>
-      <c r="Z59" s="16">
+      <c r="Z60" s="14">
         <v>17</v>
       </c>
-      <c r="AA59" s="16">
+      <c r="AA60" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="12">
+    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="11">
         <v>565980</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="11">
         <v>545400</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="11">
         <v>499</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="11">
         <v>56275</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="11">
         <v>9187</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="11">
         <v>2982</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="11">
         <v>77</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K61" s="11">
         <v>1424</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L61" s="11">
         <v>1755</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M61" s="11">
         <v>50805</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N61" s="11">
         <v>3864</v>
       </c>
-      <c r="O60" s="13">
+      <c r="O61" s="11">
         <v>28294</v>
       </c>
-      <c r="P60" s="13">
+      <c r="P61" s="11">
         <v>17361</v>
       </c>
-      <c r="Q60" s="13">
+      <c r="Q61" s="11">
         <v>36010</v>
       </c>
-      <c r="R60" s="13">
+      <c r="R61" s="11">
         <v>2485</v>
       </c>
-      <c r="S60" s="13">
+      <c r="S61" s="11">
         <v>34872</v>
       </c>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13">
+      <c r="T61" s="11"/>
+      <c r="U61" s="11">
         <v>104093</v>
       </c>
-      <c r="V60" s="13">
+      <c r="V61" s="11">
         <v>4584</v>
       </c>
-      <c r="W60" s="13">
+      <c r="W61" s="11">
         <v>3174</v>
       </c>
-      <c r="X60" s="13">
+      <c r="X61" s="11">
         <v>486</v>
       </c>
-      <c r="Y60" s="13">
+      <c r="Y61" s="11">
         <v>10322</v>
       </c>
-      <c r="Z60" s="13">
+      <c r="Z61" s="11">
         <v>17</v>
       </c>
-      <c r="AA60" s="13">
+      <c r="AA61" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="15">
+    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="14">
         <v>565883</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E62" s="14">
         <v>545244</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F62" s="14">
         <v>499</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G62" s="14">
         <v>56275</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H62" s="14">
         <v>9189</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I62" s="14">
         <v>2982</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J62" s="14">
         <v>77</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K62" s="14">
         <v>1424</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L62" s="14">
         <v>1755</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M62" s="14">
         <v>50796</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N62" s="14">
         <v>3864</v>
       </c>
-      <c r="O61" s="16">
+      <c r="O62" s="14">
         <v>28297</v>
       </c>
-      <c r="P61" s="16">
+      <c r="P62" s="14">
         <v>17361</v>
       </c>
-      <c r="Q61" s="16">
+      <c r="Q62" s="14">
         <v>36010</v>
       </c>
-      <c r="R61" s="16">
+      <c r="R62" s="14">
         <v>2485</v>
       </c>
-      <c r="S61" s="16">
+      <c r="S62" s="14">
         <v>34862</v>
       </c>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16">
+      <c r="T62" s="14"/>
+      <c r="U62" s="14">
         <v>104076</v>
       </c>
-      <c r="V61" s="16">
+      <c r="V62" s="14">
         <v>4584</v>
       </c>
-      <c r="W61" s="16">
+      <c r="W62" s="14">
         <v>3174</v>
       </c>
-      <c r="X61" s="16">
+      <c r="X62" s="14">
         <v>486</v>
       </c>
-      <c r="Y61" s="16">
+      <c r="Y62" s="14">
         <v>10322</v>
       </c>
-      <c r="Z61" s="16">
+      <c r="Z62" s="14">
         <v>17</v>
       </c>
-      <c r="AA61" s="16">
+      <c r="AA62" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="12">
+    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="11">
         <v>565809</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="11">
         <v>545128</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="11">
         <v>499</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="11">
         <v>56281</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="11">
         <v>9189</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="11">
         <v>2982</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="11">
         <v>77</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K63" s="11">
         <v>1424</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L63" s="11">
         <v>1755</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M63" s="11">
         <v>50794</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N63" s="11">
         <v>3867</v>
       </c>
-      <c r="O62" s="13">
+      <c r="O63" s="11">
         <v>28301</v>
       </c>
-      <c r="P62" s="13">
+      <c r="P63" s="11">
         <v>17361</v>
       </c>
-      <c r="Q62" s="13">
+      <c r="Q63" s="11">
         <v>36010</v>
       </c>
-      <c r="R62" s="13">
+      <c r="R63" s="11">
         <v>2487</v>
       </c>
-      <c r="S62" s="13">
+      <c r="S63" s="11">
         <v>34874</v>
       </c>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13">
+      <c r="T63" s="11"/>
+      <c r="U63" s="11">
         <v>104084</v>
       </c>
-      <c r="V62" s="13">
+      <c r="V63" s="11">
         <v>4585</v>
       </c>
-      <c r="W62" s="13">
+      <c r="W63" s="11">
         <v>3174</v>
       </c>
-      <c r="X62" s="13">
+      <c r="X63" s="11">
         <v>486</v>
       </c>
-      <c r="Y62" s="13">
+      <c r="Y63" s="11">
         <v>10319</v>
       </c>
-      <c r="Z62" s="13">
+      <c r="Z63" s="11">
         <v>17</v>
       </c>
-      <c r="AA62" s="13">
+      <c r="AA63" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="15">
+    <row r="64" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="14">
         <v>564089</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="14">
         <v>542595</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="14">
         <v>496</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="14">
         <v>56248</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H64" s="14">
         <v>9180</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I64" s="14">
         <v>2964</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J64" s="14">
         <v>77</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K64" s="14">
         <v>1424</v>
       </c>
-      <c r="L63" s="16">
+      <c r="L64" s="14">
         <v>1745</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M64" s="14">
         <v>50693</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N64" s="14">
         <v>3869</v>
       </c>
-      <c r="O63" s="16">
+      <c r="O64" s="14">
         <v>28110</v>
       </c>
-      <c r="P63" s="16">
+      <c r="P64" s="14">
         <v>16719</v>
       </c>
-      <c r="Q63" s="16">
+      <c r="Q64" s="14">
         <v>35910</v>
       </c>
-      <c r="R63" s="16">
+      <c r="R64" s="14">
         <v>2467</v>
       </c>
-      <c r="S63" s="16">
+      <c r="S64" s="14">
         <v>34546</v>
       </c>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16">
+      <c r="T64" s="14"/>
+      <c r="U64" s="14">
         <v>103491</v>
       </c>
-      <c r="V63" s="16">
+      <c r="V64" s="14">
         <v>4545</v>
       </c>
-      <c r="W63" s="16">
+      <c r="W64" s="14">
         <v>3124</v>
       </c>
-      <c r="X63" s="16">
+      <c r="X64" s="14">
         <v>480</v>
       </c>
-      <c r="Y63" s="16">
+      <c r="Y64" s="14">
         <v>10285</v>
       </c>
-      <c r="Z63" s="16">
+      <c r="Z64" s="14">
         <v>17</v>
       </c>
-      <c r="AA63" s="16">
+      <c r="AA64" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="64" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="20">
+    <row r="65" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="18">
         <v>2020</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D65" s="19">
         <v>562170</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E65" s="19">
         <v>539768</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F65" s="19">
         <v>496</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G65" s="19">
         <v>56222</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H65" s="19">
         <v>9165</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I65" s="19">
         <v>2963</v>
       </c>
-      <c r="J64" s="21">
+      <c r="J65" s="19">
         <v>77</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K65" s="19">
         <v>1424</v>
       </c>
-      <c r="L64" s="21">
+      <c r="L65" s="19">
         <v>1747</v>
       </c>
-      <c r="M64" s="21">
+      <c r="M65" s="19">
         <v>50528</v>
       </c>
-      <c r="N64" s="21">
+      <c r="N65" s="19">
         <v>3862</v>
       </c>
-      <c r="O64" s="21">
+      <c r="O65" s="19">
         <v>27916</v>
       </c>
-      <c r="P64" s="21">
+      <c r="P65" s="19">
         <v>16577</v>
       </c>
-      <c r="Q64" s="21">
+      <c r="Q65" s="19">
         <v>35720</v>
       </c>
-      <c r="R64" s="21">
+      <c r="R65" s="19">
         <v>2434</v>
       </c>
-      <c r="S64" s="21">
+      <c r="S65" s="19">
         <v>34311</v>
       </c>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21">
+      <c r="T65" s="19"/>
+      <c r="U65" s="19">
         <v>102764</v>
       </c>
-      <c r="V64" s="21">
+      <c r="V65" s="19">
         <v>4504</v>
       </c>
-      <c r="W64" s="21">
+      <c r="W65" s="19">
         <v>3103</v>
       </c>
-      <c r="X64" s="21">
+      <c r="X65" s="19">
         <v>461</v>
       </c>
-      <c r="Y64" s="21">
+      <c r="Y65" s="19">
         <v>10273</v>
       </c>
-      <c r="Z64" s="21">
+      <c r="Z65" s="19">
         <v>17</v>
       </c>
-      <c r="AA64" s="21">
+      <c r="AA65" s="19">
         <v>663</v>
       </c>
     </row>
-    <row r="65" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
+    <row r="66" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="14">
         <v>561061</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="14">
         <v>537813</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="14">
         <v>497</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G66" s="14">
         <v>56256</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H66" s="14">
         <v>9149</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I66" s="14">
         <v>2965</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J66" s="14">
         <v>77</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K66" s="14">
         <v>1424</v>
       </c>
-      <c r="L65" s="16">
+      <c r="L66" s="14">
         <v>1747</v>
       </c>
-      <c r="M65" s="16">
+      <c r="M66" s="14">
         <v>50432</v>
       </c>
-      <c r="N65" s="16">
+      <c r="N66" s="14">
         <v>3858</v>
       </c>
-      <c r="O65" s="16">
+      <c r="O66" s="14">
         <v>27818</v>
       </c>
-      <c r="P65" s="16">
+      <c r="P66" s="14">
         <v>16663</v>
       </c>
-      <c r="Q65" s="16">
+      <c r="Q66" s="14">
         <v>35664</v>
       </c>
-      <c r="R65" s="16">
+      <c r="R66" s="14">
         <v>2427</v>
       </c>
-      <c r="S65" s="16">
+      <c r="S66" s="14">
         <v>33984</v>
       </c>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16">
+      <c r="T66" s="14"/>
+      <c r="U66" s="14">
         <v>102021</v>
       </c>
-      <c r="V65" s="16">
+      <c r="V66" s="14">
         <v>4466</v>
       </c>
-      <c r="W65" s="16">
+      <c r="W66" s="14">
         <v>3102</v>
       </c>
-      <c r="X65" s="16">
+      <c r="X66" s="14">
         <v>462</v>
       </c>
-      <c r="Y65" s="16">
+      <c r="Y66" s="14">
         <v>10222</v>
       </c>
-      <c r="Z65" s="16">
+      <c r="Z66" s="14">
         <v>17</v>
       </c>
-      <c r="AA65" s="16">
+      <c r="AA66" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="66" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="12">
+    <row r="67" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10">
         <v>2019</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="11">
         <v>558626</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="11">
         <v>535724</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="11">
         <v>493</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="11">
         <v>55998</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="11">
         <v>9075</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I67" s="11">
         <v>2960</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J67" s="11">
         <v>77</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K67" s="11">
         <v>1424</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L67" s="11">
         <v>1718</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M67" s="11">
         <v>50135</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N67" s="11">
         <v>3846</v>
       </c>
-      <c r="O66" s="13">
+      <c r="O67" s="11">
         <v>27391</v>
       </c>
-      <c r="P66" s="13">
+      <c r="P67" s="11">
         <v>16776</v>
       </c>
-      <c r="Q66" s="13">
+      <c r="Q67" s="11">
         <v>35622</v>
       </c>
-      <c r="R66" s="13">
+      <c r="R67" s="11">
         <v>2417</v>
       </c>
-      <c r="S66" s="13">
+      <c r="S67" s="11">
         <v>33833</v>
       </c>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13">
+      <c r="T67" s="11"/>
+      <c r="U67" s="11">
         <v>101688</v>
       </c>
-      <c r="V66" s="13">
+      <c r="V67" s="11">
         <v>4382</v>
       </c>
-      <c r="W66" s="13">
+      <c r="W67" s="11">
         <v>3068</v>
       </c>
-      <c r="X66" s="13">
+      <c r="X67" s="11">
         <v>453</v>
       </c>
-      <c r="Y66" s="13">
+      <c r="Y67" s="11">
         <v>10134</v>
       </c>
-      <c r="Z66" s="13">
+      <c r="Z67" s="11">
         <v>17</v>
       </c>
-      <c r="AA66" s="13">
+      <c r="AA67" s="11">
         <v>660</v>
       </c>
     </row>
-    <row r="67" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="15">
+    <row r="68" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="14">
         <v>556346</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E68" s="14">
         <v>533069</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F68" s="14">
         <v>492</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G68" s="14">
         <v>55871</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H68" s="14">
         <v>9008</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I68" s="14">
         <v>2938</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J68" s="14">
         <v>77</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K68" s="14">
         <v>1424</v>
       </c>
-      <c r="L67" s="16">
+      <c r="L68" s="14">
         <v>1711</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M68" s="14">
         <v>49943</v>
       </c>
-      <c r="N67" s="16">
+      <c r="N68" s="14">
         <v>3804</v>
       </c>
-      <c r="O67" s="16">
+      <c r="O68" s="14">
         <v>27062</v>
       </c>
-      <c r="P67" s="16">
+      <c r="P68" s="14">
         <v>16772</v>
       </c>
-      <c r="Q67" s="16">
+      <c r="Q68" s="14">
         <v>35650</v>
       </c>
-      <c r="R67" s="16">
+      <c r="R68" s="14">
         <v>2402</v>
       </c>
-      <c r="S67" s="16">
+      <c r="S68" s="14">
         <v>33575</v>
       </c>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16">
+      <c r="T68" s="14"/>
+      <c r="U68" s="14">
         <v>101067</v>
       </c>
-      <c r="V67" s="16">
+      <c r="V68" s="14">
         <v>4305</v>
       </c>
-      <c r="W67" s="16">
+      <c r="W68" s="14">
         <v>3036</v>
       </c>
-      <c r="X67" s="16">
+      <c r="X68" s="14">
         <v>442</v>
       </c>
-      <c r="Y67" s="16">
+      <c r="Y68" s="14">
         <v>10077</v>
       </c>
-      <c r="Z67" s="16">
+      <c r="Z68" s="14">
         <v>17</v>
       </c>
-      <c r="AA67" s="16">
+      <c r="AA68" s="14">
         <v>658</v>
       </c>
     </row>
-    <row r="68" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="12">
+    <row r="69" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="11">
         <v>519860</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="11">
         <v>505944</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="11">
         <v>449</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="11">
         <v>49255</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="11">
         <v>6176</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I69" s="11">
         <v>2186</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J69" s="11">
         <v>73</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K69" s="11">
         <v>1413</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L69" s="11">
         <v>1713</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M69" s="11">
         <v>43268</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N69" s="11">
         <v>3801</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O69" s="11">
         <v>26781</v>
       </c>
-      <c r="P68" s="13">
+      <c r="P69" s="11">
         <v>14771</v>
       </c>
-      <c r="Q68" s="13">
+      <c r="Q69" s="11">
         <v>34056</v>
       </c>
-      <c r="R68" s="13">
+      <c r="R69" s="11">
         <v>2388</v>
       </c>
-      <c r="S68" s="13">
+      <c r="S69" s="11">
         <v>33239</v>
       </c>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13">
+      <c r="T69" s="11"/>
+      <c r="U69" s="11">
         <v>100098</v>
       </c>
-      <c r="V68" s="13">
+      <c r="V69" s="11">
         <v>4230</v>
       </c>
-      <c r="W68" s="13">
+      <c r="W69" s="11">
         <v>2983</v>
       </c>
-      <c r="X68" s="13">
+      <c r="X69" s="11">
         <v>435</v>
       </c>
-      <c r="Y68" s="13">
+      <c r="Y69" s="11">
         <v>10048</v>
       </c>
-      <c r="Z68" s="13">
+      <c r="Z69" s="11">
         <v>17</v>
       </c>
-      <c r="AA68" s="13">
+      <c r="AA69" s="11">
         <v>655</v>
       </c>
     </row>
-    <row r="69" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="15">
+    <row r="70" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="14">
         <v>517666</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E70" s="14">
         <v>503486</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F70" s="14">
         <v>449</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G70" s="14">
         <v>49171</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H70" s="14">
         <v>6156</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I70" s="14">
         <v>2183</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J70" s="14">
         <v>73</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K70" s="14">
         <v>1413</v>
       </c>
-      <c r="L69" s="16">
+      <c r="L70" s="14">
         <v>1710</v>
       </c>
-      <c r="M69" s="16">
+      <c r="M70" s="14">
         <v>43104</v>
       </c>
-      <c r="N69" s="16">
+      <c r="N70" s="14">
         <v>3785</v>
       </c>
-      <c r="O69" s="16">
+      <c r="O70" s="14">
         <v>26582</v>
       </c>
-      <c r="P69" s="16">
+      <c r="P70" s="14">
         <v>14832</v>
       </c>
-      <c r="Q69" s="16">
+      <c r="Q70" s="14">
         <v>34205</v>
       </c>
-      <c r="R69" s="16">
+      <c r="R70" s="14">
         <v>2384</v>
       </c>
-      <c r="S69" s="16">
+      <c r="S70" s="14">
         <v>33006</v>
       </c>
-      <c r="T69" s="16">
+      <c r="T70" s="14">
         <v>0</v>
       </c>
-      <c r="U69" s="16">
+      <c r="U70" s="14">
         <v>99490</v>
       </c>
-      <c r="V69" s="16">
+      <c r="V70" s="14">
         <v>4173</v>
       </c>
-      <c r="W69" s="16">
+      <c r="W70" s="14">
         <v>2926</v>
       </c>
-      <c r="X69" s="16">
+      <c r="X70" s="14">
         <v>420</v>
       </c>
-      <c r="Y69" s="16">
+      <c r="Y70" s="14">
         <v>10026</v>
       </c>
-      <c r="Z69" s="16">
+      <c r="Z70" s="14">
         <v>17</v>
       </c>
-      <c r="AA69" s="16">
+      <c r="AA70" s="14">
         <v>653</v>
       </c>
     </row>
-    <row r="70" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="12">
+    <row r="71" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="11">
         <v>514393</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="11">
         <v>498050</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="11">
         <v>446</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="11">
         <v>49300</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="11">
         <v>6708</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="11">
         <v>2319</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J71" s="11">
         <v>74</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K71" s="11">
         <v>1417</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L71" s="11">
         <v>1686</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M71" s="11">
         <v>43264</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N71" s="11">
         <v>3716</v>
       </c>
-      <c r="O70" s="13">
+      <c r="O71" s="11">
         <v>25831</v>
       </c>
-      <c r="P70" s="13">
+      <c r="P71" s="11">
         <v>14426</v>
       </c>
-      <c r="Q70" s="13">
+      <c r="Q71" s="11">
         <v>33360</v>
       </c>
-      <c r="R70" s="13">
+      <c r="R71" s="11">
         <v>2308</v>
       </c>
-      <c r="S70" s="13">
+      <c r="S71" s="11">
         <v>31727</v>
       </c>
-      <c r="T70" s="13">
+      <c r="T71" s="11">
         <v>1</v>
       </c>
-      <c r="U70" s="13">
+      <c r="U71" s="11">
         <v>98049</v>
       </c>
-      <c r="V70" s="13">
+      <c r="V71" s="11">
         <v>4070</v>
       </c>
-      <c r="W70" s="13">
+      <c r="W71" s="11">
         <v>2777</v>
       </c>
-      <c r="X70" s="13">
+      <c r="X71" s="11">
         <v>374</v>
       </c>
-      <c r="Y70" s="13">
+      <c r="Y71" s="11">
         <v>9942</v>
       </c>
-      <c r="Z70" s="13">
+      <c r="Z71" s="11">
         <v>17</v>
       </c>
-      <c r="AA70" s="13">
+      <c r="AA71" s="11">
         <v>647</v>
       </c>
     </row>
-    <row r="71" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="15">
+    <row r="72" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="14">
         <v>512802</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="14">
         <v>497796</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="14">
         <v>444</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G72" s="14">
         <v>49053</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H72" s="14">
         <v>6156</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I72" s="14">
         <v>2222</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J72" s="14">
         <v>73</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K72" s="14">
         <v>1413</v>
       </c>
-      <c r="L71" s="16">
+      <c r="L72" s="14">
         <v>1694</v>
       </c>
-      <c r="M71" s="16">
+      <c r="M72" s="14">
         <v>42573</v>
       </c>
-      <c r="N71" s="16">
+      <c r="N72" s="14">
         <v>3733</v>
       </c>
-      <c r="O71" s="16">
+      <c r="O72" s="14">
         <v>25944</v>
       </c>
-      <c r="P71" s="16">
+      <c r="P72" s="14">
         <v>14578</v>
       </c>
-      <c r="Q71" s="16">
+      <c r="Q72" s="14">
         <v>33417</v>
       </c>
-      <c r="R71" s="16">
+      <c r="R72" s="14">
         <v>2333</v>
       </c>
-      <c r="S71" s="16">
+      <c r="S72" s="14">
         <v>32236</v>
       </c>
-      <c r="T71" s="16">
+      <c r="T72" s="14">
         <v>0</v>
       </c>
-      <c r="U71" s="16">
+      <c r="U72" s="14">
         <v>98138</v>
       </c>
-      <c r="V71" s="16">
+      <c r="V72" s="14">
         <v>4072</v>
       </c>
-      <c r="W71" s="16">
+      <c r="W72" s="14">
         <v>2785</v>
       </c>
-      <c r="X71" s="16">
+      <c r="X72" s="14">
         <v>376</v>
       </c>
-      <c r="Y71" s="16">
+      <c r="Y72" s="14">
         <v>9919</v>
       </c>
-      <c r="Z71" s="16">
+      <c r="Z72" s="14">
         <v>17</v>
       </c>
-      <c r="AA71" s="16">
+      <c r="AA72" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="72" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="12">
+    <row r="73" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="11">
         <v>506850</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="11">
         <v>499239</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="11">
         <v>454</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="11">
         <v>48604</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H73" s="11">
         <v>7085</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I73" s="11">
         <v>2531</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J73" s="11">
         <v>78</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K73" s="11">
         <v>239</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L73" s="11">
         <v>2615</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M73" s="11">
         <v>39728</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N73" s="11">
         <v>4268</v>
       </c>
-      <c r="O72" s="13">
+      <c r="O73" s="11">
         <v>28174</v>
       </c>
-      <c r="P72" s="13">
+      <c r="P73" s="11">
         <v>16305</v>
       </c>
-      <c r="Q72" s="13">
+      <c r="Q73" s="11">
         <v>35097</v>
       </c>
-      <c r="R72" s="13">
+      <c r="R73" s="11">
         <v>2307</v>
       </c>
-      <c r="S72" s="13">
+      <c r="S73" s="11">
         <v>31892</v>
       </c>
-      <c r="T72" s="13">
+      <c r="T73" s="11">
         <v>1</v>
       </c>
-      <c r="U72" s="13">
+      <c r="U73" s="11">
         <v>98003</v>
       </c>
-      <c r="V72" s="13">
+      <c r="V73" s="11">
         <v>3983</v>
       </c>
-      <c r="W72" s="13">
+      <c r="W73" s="11">
         <v>2752</v>
       </c>
-      <c r="X72" s="13">
+      <c r="X73" s="11">
         <v>374</v>
       </c>
-      <c r="Y72" s="13">
+      <c r="Y73" s="11">
         <v>11506</v>
       </c>
-      <c r="Z72" s="13">
+      <c r="Z73" s="11">
         <v>12</v>
       </c>
-      <c r="AA72" s="13">
+      <c r="AA73" s="11">
         <v>810</v>
       </c>
     </row>
-    <row r="73" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="15">
+    <row r="74" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="14">
         <v>504046</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E74" s="14">
         <v>496323</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F74" s="14">
         <v>451</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G74" s="14">
         <v>48409</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H74" s="14">
         <v>7032</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I74" s="14">
         <v>2531</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J74" s="14">
         <v>78</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K74" s="14">
         <v>239</v>
       </c>
-      <c r="L73" s="16">
+      <c r="L74" s="14">
         <v>2596</v>
       </c>
-      <c r="M73" s="16">
+      <c r="M74" s="14">
         <v>39439</v>
       </c>
-      <c r="N73" s="16">
+      <c r="N74" s="14">
         <v>4234</v>
       </c>
-      <c r="O73" s="16">
+      <c r="O74" s="14">
         <v>27848</v>
       </c>
-      <c r="P73" s="16">
+      <c r="P74" s="14">
         <v>16180</v>
       </c>
-      <c r="Q73" s="16">
+      <c r="Q74" s="14">
         <v>34956</v>
       </c>
-      <c r="R73" s="16">
+      <c r="R74" s="14">
         <v>2284</v>
       </c>
-      <c r="S73" s="16">
+      <c r="S74" s="14">
         <v>31444</v>
       </c>
-      <c r="T73" s="16">
+      <c r="T74" s="14">
         <v>0</v>
       </c>
-      <c r="U73" s="16">
+      <c r="U74" s="14">
         <v>97190</v>
       </c>
-      <c r="V73" s="16">
+      <c r="V74" s="14">
         <v>3921</v>
       </c>
-      <c r="W73" s="16">
+      <c r="W74" s="14">
         <v>2705</v>
       </c>
-      <c r="X73" s="16">
+      <c r="X74" s="14">
         <v>364</v>
       </c>
-      <c r="Y73" s="16">
+      <c r="Y74" s="14">
         <v>11482</v>
       </c>
-      <c r="Z73" s="16">
+      <c r="Z74" s="14">
         <v>12</v>
       </c>
-      <c r="AA73" s="16">
+      <c r="AA74" s="14">
         <v>807</v>
       </c>
     </row>
-    <row r="74" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="12">
+    <row r="75" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="11">
         <v>501424</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="11">
         <v>493291</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="11">
         <v>452</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="11">
         <v>48079</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="11">
         <v>7029</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="11">
         <v>2509</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J75" s="11">
         <v>77</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K75" s="11">
         <v>239</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L75" s="11">
         <v>2577</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M75" s="11">
         <v>39178</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N75" s="11">
         <v>4173</v>
       </c>
-      <c r="O74" s="13">
+      <c r="O75" s="11">
         <v>27415</v>
       </c>
-      <c r="P74" s="13">
+      <c r="P75" s="11">
         <v>15815</v>
       </c>
-      <c r="Q74" s="13">
+      <c r="Q75" s="11">
         <v>34582</v>
       </c>
-      <c r="R74" s="13">
+      <c r="R75" s="11">
         <v>2266</v>
       </c>
-      <c r="S74" s="13">
+      <c r="S75" s="11">
         <v>30934</v>
       </c>
-      <c r="T74" s="13">
+      <c r="T75" s="11">
         <v>1</v>
       </c>
-      <c r="U74" s="13">
+      <c r="U75" s="11">
         <v>96704</v>
       </c>
-      <c r="V74" s="13">
+      <c r="V75" s="11">
         <v>3869</v>
       </c>
-      <c r="W74" s="13">
+      <c r="W75" s="11">
         <v>2699</v>
       </c>
-      <c r="X74" s="13">
+      <c r="X75" s="11">
         <v>360</v>
       </c>
-      <c r="Y74" s="13">
+      <c r="Y75" s="11">
         <v>11467</v>
       </c>
-      <c r="Z74" s="13">
+      <c r="Z75" s="11">
         <v>12</v>
       </c>
-      <c r="AA74" s="13">
+      <c r="AA75" s="11">
         <v>808</v>
       </c>
     </row>
-    <row r="75" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="15">
+    <row r="76" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="14">
         <v>499221</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="14">
         <v>490327</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="14">
         <v>454</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G76" s="14">
         <v>47999</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H76" s="14">
         <v>7029</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I76" s="14">
         <v>2518</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J76" s="14">
         <v>77</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K76" s="14">
         <v>239</v>
       </c>
-      <c r="L75" s="16">
+      <c r="L76" s="14">
         <v>2576</v>
       </c>
-      <c r="M75" s="16">
+      <c r="M76" s="14">
         <v>38838</v>
       </c>
-      <c r="N75" s="16">
+      <c r="N76" s="14">
         <v>4155</v>
       </c>
-      <c r="O75" s="16">
+      <c r="O76" s="14">
         <v>27148</v>
       </c>
-      <c r="P75" s="16">
+      <c r="P76" s="14">
         <v>15484</v>
       </c>
-      <c r="Q75" s="16">
+      <c r="Q76" s="14">
         <v>34221</v>
       </c>
-      <c r="R75" s="16">
+      <c r="R76" s="14">
         <v>2252</v>
       </c>
-      <c r="S75" s="16">
+      <c r="S76" s="14">
         <v>30634</v>
       </c>
-      <c r="T75" s="16">
+      <c r="T76" s="14">
         <v>1</v>
       </c>
-      <c r="U75" s="16">
+      <c r="U76" s="14">
         <v>96127</v>
       </c>
-      <c r="V75" s="16">
+      <c r="V76" s="14">
         <v>3815</v>
       </c>
-      <c r="W75" s="16">
+      <c r="W76" s="14">
         <v>2658</v>
       </c>
-      <c r="X75" s="16">
+      <c r="X76" s="14">
         <v>352</v>
       </c>
-      <c r="Y75" s="16">
+      <c r="Y76" s="14">
         <v>11454</v>
       </c>
-      <c r="Z75" s="16">
+      <c r="Z76" s="14">
         <v>12</v>
       </c>
-      <c r="AA75" s="16">
+      <c r="AA76" s="14">
         <v>810</v>
       </c>
     </row>
-    <row r="76" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="20">
+    <row r="77" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="18">
         <v>2019</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D77" s="19">
         <v>497141</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E77" s="19">
         <v>488120</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F77" s="19">
         <v>452</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G77" s="19">
         <v>47859</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H77" s="19">
         <v>6968</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I77" s="19">
         <v>2504</v>
       </c>
-      <c r="J76" s="21">
+      <c r="J77" s="19">
         <v>77</v>
       </c>
-      <c r="K76" s="21">
+      <c r="K77" s="19">
         <v>239</v>
       </c>
-      <c r="L76" s="21">
+      <c r="L77" s="19">
         <v>2565</v>
       </c>
-      <c r="M76" s="21">
+      <c r="M77" s="19">
         <v>38626</v>
       </c>
-      <c r="N76" s="21">
+      <c r="N77" s="19">
         <v>4150</v>
       </c>
-      <c r="O76" s="21">
+      <c r="O77" s="19">
         <v>26845</v>
       </c>
-      <c r="P76" s="21">
+      <c r="P77" s="19">
         <v>15304</v>
       </c>
-      <c r="Q76" s="21">
+      <c r="Q77" s="19">
         <v>34009</v>
       </c>
-      <c r="R76" s="21">
+      <c r="R77" s="19">
         <v>2246</v>
       </c>
-      <c r="S76" s="21">
+      <c r="S77" s="19">
         <v>30488</v>
       </c>
-      <c r="T76" s="21">
+      <c r="T77" s="19">
         <v>1</v>
       </c>
-      <c r="U76" s="21">
+      <c r="U77" s="19">
         <v>95504</v>
       </c>
-      <c r="V76" s="21">
+      <c r="V77" s="19">
         <v>3778</v>
       </c>
-      <c r="W76" s="21">
+      <c r="W77" s="19">
         <v>2638</v>
       </c>
-      <c r="X76" s="21">
+      <c r="X77" s="19">
         <v>344</v>
       </c>
-      <c r="Y76" s="21">
+      <c r="Y77" s="19">
         <v>11417</v>
       </c>
-      <c r="Z76" s="21">
+      <c r="Z77" s="19">
         <v>12</v>
       </c>
-      <c r="AA76" s="21">
+      <c r="AA77" s="19">
         <v>804</v>
       </c>
     </row>
-    <row r="77" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
+    <row r="78" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="14">
         <v>496057</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E78" s="14">
         <v>486335</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="14">
         <v>464</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G78" s="14">
         <v>47780</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H78" s="14">
         <v>6994</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I78" s="14">
         <v>2508</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J78" s="14">
         <v>78</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K78" s="14">
         <v>239</v>
       </c>
-      <c r="L77" s="16">
+      <c r="L78" s="14">
         <v>2565</v>
       </c>
-      <c r="M77" s="16">
+      <c r="M78" s="14">
         <v>38415</v>
       </c>
-      <c r="N77" s="16">
+      <c r="N78" s="14">
         <v>4053</v>
       </c>
-      <c r="O77" s="16">
+      <c r="O78" s="14">
         <v>26683</v>
       </c>
-      <c r="P77" s="16">
+      <c r="P78" s="14">
         <v>15554</v>
       </c>
-      <c r="Q77" s="16">
+      <c r="Q78" s="14">
         <v>34018</v>
       </c>
-      <c r="R77" s="16">
+      <c r="R78" s="14">
         <v>2235</v>
       </c>
-      <c r="S77" s="16">
+      <c r="S78" s="14">
         <v>30111</v>
       </c>
-      <c r="T77" s="16">
+      <c r="T78" s="14">
         <v>1</v>
       </c>
-      <c r="U77" s="16">
+      <c r="U78" s="14">
         <v>94864</v>
       </c>
-      <c r="V77" s="16">
+      <c r="V78" s="14">
         <v>3723</v>
       </c>
-      <c r="W77" s="16">
+      <c r="W78" s="14">
         <v>2618</v>
       </c>
-      <c r="X77" s="16">
+      <c r="X78" s="14">
         <v>329</v>
       </c>
-      <c r="Y77" s="16">
+      <c r="Y78" s="14">
         <v>11369</v>
       </c>
-      <c r="Z77" s="16">
+      <c r="Z78" s="14">
         <v>12</v>
       </c>
-      <c r="AA77" s="16">
+      <c r="AA78" s="14">
         <v>804</v>
       </c>
     </row>
-    <row r="78" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="12">
+    <row r="79" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="11">
         <v>493248</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="11">
         <v>484343</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="11">
         <v>467</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="11">
         <v>47445</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="11">
         <v>6904</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="11">
         <v>2451</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J79" s="11">
         <v>78</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K79" s="11">
         <v>239</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L79" s="11">
         <v>2547</v>
       </c>
-      <c r="M78" s="13">
+      <c r="M79" s="11">
         <v>38053</v>
       </c>
-      <c r="N78" s="13">
+      <c r="N79" s="11">
         <v>4033</v>
       </c>
-      <c r="O78" s="13">
+      <c r="O79" s="11">
         <v>26245</v>
       </c>
-      <c r="P78" s="13">
+      <c r="P79" s="11">
         <v>15368</v>
       </c>
-      <c r="Q78" s="13">
+      <c r="Q79" s="11">
         <v>34089</v>
       </c>
-      <c r="R78" s="13">
+      <c r="R79" s="11">
         <v>2228</v>
       </c>
-      <c r="S78" s="13">
+      <c r="S79" s="11">
         <v>29848</v>
       </c>
-      <c r="T78" s="13">
+      <c r="T79" s="11">
         <v>1</v>
       </c>
-      <c r="U78" s="13">
+      <c r="U79" s="11">
         <v>94351</v>
       </c>
-      <c r="V78" s="13">
+      <c r="V79" s="11">
         <v>3704</v>
       </c>
-      <c r="W78" s="13">
+      <c r="W79" s="11">
         <v>2563</v>
       </c>
-      <c r="X78" s="13">
+      <c r="X79" s="11">
         <v>326</v>
       </c>
-      <c r="Y78" s="13">
+      <c r="Y79" s="11">
         <v>11268</v>
       </c>
-      <c r="Z78" s="13">
+      <c r="Z79" s="11">
         <v>12</v>
       </c>
-      <c r="AA78" s="13">
+      <c r="AA79" s="11">
         <v>798</v>
       </c>
     </row>
-    <row r="79" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
+    <row r="80" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="14">
         <v>489853</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E80" s="14">
         <v>481195</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="14">
         <v>466</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G80" s="14">
         <v>47019</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H80" s="14">
         <v>6820</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I80" s="14">
         <v>2443</v>
       </c>
-      <c r="J79" s="16">
+      <c r="J80" s="14">
         <v>78</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K80" s="14">
         <v>239</v>
       </c>
-      <c r="L79" s="16">
+      <c r="L80" s="14">
         <v>2529</v>
       </c>
-      <c r="M79" s="16">
+      <c r="M80" s="14">
         <v>37565</v>
       </c>
-      <c r="N79" s="16">
+      <c r="N80" s="14">
         <v>3997</v>
       </c>
-      <c r="O79" s="16">
+      <c r="O80" s="14">
         <v>25847</v>
       </c>
-      <c r="P79" s="16">
+      <c r="P80" s="14">
         <v>15208</v>
       </c>
-      <c r="Q79" s="16">
+      <c r="Q80" s="14">
         <v>33793</v>
       </c>
-      <c r="R79" s="16">
+      <c r="R80" s="14">
         <v>2228</v>
       </c>
-      <c r="S79" s="16">
+      <c r="S80" s="14">
         <v>29565</v>
       </c>
-      <c r="T79" s="16">
+      <c r="T80" s="14">
         <v>1</v>
       </c>
-      <c r="U79" s="16">
+      <c r="U80" s="14">
         <v>93792</v>
       </c>
-      <c r="V79" s="16">
+      <c r="V80" s="14">
         <v>3636</v>
       </c>
-      <c r="W79" s="16">
+      <c r="W80" s="14">
         <v>2514</v>
       </c>
-      <c r="X79" s="16">
+      <c r="X80" s="14">
         <v>326</v>
       </c>
-      <c r="Y79" s="16">
+      <c r="Y80" s="14">
         <v>11160</v>
       </c>
-      <c r="Z79" s="16">
+      <c r="Z80" s="14">
         <v>12</v>
       </c>
-      <c r="AA79" s="16">
+      <c r="AA80" s="14">
         <v>796</v>
       </c>
     </row>
-    <row r="80" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="12">
+    <row r="81" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="11">
         <v>486879</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="11">
         <v>478202</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="11">
         <v>463</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="11">
         <v>46939</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="11">
         <v>6767</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="11">
         <v>2420</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J81" s="11">
         <v>78</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K81" s="11">
         <v>239</v>
       </c>
-      <c r="L80" s="13">
+      <c r="L81" s="11">
         <v>2504</v>
       </c>
-      <c r="M80" s="13">
+      <c r="M81" s="11">
         <v>37159</v>
       </c>
-      <c r="N80" s="13">
+      <c r="N81" s="11">
         <v>3981</v>
       </c>
-      <c r="O80" s="13">
+      <c r="O81" s="11">
         <v>25505</v>
       </c>
-      <c r="P80" s="13">
+      <c r="P81" s="11">
         <v>15063</v>
       </c>
-      <c r="Q80" s="13">
+      <c r="Q81" s="11">
         <v>33501</v>
       </c>
-      <c r="R80" s="13">
+      <c r="R81" s="11">
         <v>2207</v>
       </c>
-      <c r="S80" s="13">
+      <c r="S81" s="11">
         <v>29169</v>
       </c>
-      <c r="T80" s="13">
+      <c r="T81" s="11">
         <v>1</v>
       </c>
-      <c r="U80" s="13">
+      <c r="U81" s="11">
         <v>92716</v>
       </c>
-      <c r="V80" s="13">
+      <c r="V81" s="11">
         <v>3571</v>
       </c>
-      <c r="W80" s="13">
+      <c r="W81" s="11">
         <v>2389</v>
       </c>
-      <c r="X80" s="13">
+      <c r="X81" s="11">
         <v>323</v>
       </c>
-      <c r="Y80" s="13">
+      <c r="Y81" s="11">
         <v>11118</v>
       </c>
-      <c r="Z80" s="13">
+      <c r="Z81" s="11">
         <v>12</v>
       </c>
-      <c r="AA80" s="13">
+      <c r="AA81" s="11">
         <v>793</v>
       </c>
     </row>
-    <row r="81" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="15">
+    <row r="82" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="14">
         <v>483912</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E82" s="14">
         <v>475735</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F82" s="14">
         <v>464</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G82" s="14">
         <v>46660</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H82" s="14">
         <v>6663</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I82" s="14">
         <v>2389</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J82" s="14">
         <v>78</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K82" s="14">
         <v>239</v>
       </c>
-      <c r="L81" s="16">
+      <c r="L82" s="14">
         <v>2507</v>
       </c>
-      <c r="M81" s="16">
+      <c r="M82" s="14">
         <v>36747</v>
       </c>
-      <c r="N81" s="16">
+      <c r="N82" s="14">
         <v>3969</v>
       </c>
-      <c r="O81" s="16">
+      <c r="O82" s="14">
         <v>25211</v>
       </c>
-      <c r="P81" s="16">
+      <c r="P82" s="14">
         <v>14925</v>
       </c>
-      <c r="Q81" s="16">
+      <c r="Q82" s="14">
         <v>33302</v>
       </c>
-      <c r="R81" s="16">
+      <c r="R82" s="14">
         <v>2187</v>
       </c>
-      <c r="S81" s="16">
+      <c r="S82" s="14">
         <v>28883</v>
       </c>
-      <c r="T81" s="16">
+      <c r="T82" s="14">
         <v>1</v>
       </c>
-      <c r="U81" s="16">
+      <c r="U82" s="14">
         <v>91723</v>
       </c>
-      <c r="V81" s="16">
+      <c r="V82" s="14">
         <v>3516</v>
       </c>
-      <c r="W81" s="16">
+      <c r="W82" s="14">
         <v>2314</v>
       </c>
-      <c r="X81" s="16">
+      <c r="X82" s="14">
         <v>311</v>
       </c>
-      <c r="Y81" s="16">
+      <c r="Y82" s="14">
         <v>11021</v>
       </c>
-      <c r="Z81" s="16">
+      <c r="Z82" s="14">
         <v>12</v>
       </c>
-      <c r="AA81" s="16">
+      <c r="AA82" s="14">
         <v>787</v>
       </c>
     </row>
-    <row r="82" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="12">
+    <row r="83" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="11">
         <v>480495</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="11">
         <v>472364</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="11">
         <v>464</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="11">
         <v>46648</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="11">
         <v>6624</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="11">
         <v>2371</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J83" s="11">
         <v>78</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K83" s="11">
         <v>239</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L83" s="11">
         <v>2485</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M83" s="11">
         <v>36570</v>
       </c>
-      <c r="N82" s="13">
+      <c r="N83" s="11">
         <v>3920</v>
       </c>
-      <c r="O82" s="13">
+      <c r="O83" s="11">
         <v>24802</v>
       </c>
-      <c r="P82" s="13">
+      <c r="P83" s="11">
         <v>14924</v>
       </c>
-      <c r="Q82" s="13">
+      <c r="Q83" s="11">
         <v>33187</v>
       </c>
-      <c r="R82" s="13">
+      <c r="R83" s="11">
         <v>2173</v>
       </c>
-      <c r="S82" s="13">
+      <c r="S83" s="11">
         <v>28394</v>
       </c>
-      <c r="T82" s="13">
+      <c r="T83" s="11">
         <v>1</v>
       </c>
-      <c r="U82" s="13">
+      <c r="U83" s="11">
         <v>90924</v>
       </c>
-      <c r="V82" s="13">
+      <c r="V83" s="11">
         <v>3442</v>
       </c>
-      <c r="W82" s="13">
+      <c r="W83" s="11">
         <v>2249</v>
       </c>
-      <c r="X82" s="13">
+      <c r="X83" s="11">
         <v>304</v>
       </c>
-      <c r="Y82" s="13">
+      <c r="Y83" s="11">
         <v>10962</v>
       </c>
-      <c r="Z82" s="13">
+      <c r="Z83" s="11">
         <v>12</v>
       </c>
-      <c r="AA82" s="13">
+      <c r="AA83" s="11">
         <v>784</v>
       </c>
     </row>
-    <row r="83" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="15">
+    <row r="84" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="14">
         <v>477880</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E84" s="14">
         <v>469513</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F84" s="14">
         <v>458</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G84" s="14">
         <v>46538</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H84" s="14">
         <v>6550</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I84" s="14">
         <v>2387</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J84" s="14">
         <v>78</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K84" s="14">
         <v>237</v>
       </c>
-      <c r="L83" s="16">
+      <c r="L84" s="14">
         <v>2479</v>
       </c>
-      <c r="M83" s="16">
+      <c r="M84" s="14">
         <v>36256</v>
       </c>
-      <c r="N83" s="16">
+      <c r="N84" s="14">
         <v>3901</v>
       </c>
-      <c r="O83" s="16">
+      <c r="O84" s="14">
         <v>24520</v>
       </c>
-      <c r="P83" s="16">
+      <c r="P84" s="14">
         <v>14804</v>
       </c>
-      <c r="Q83" s="16">
+      <c r="Q84" s="14">
         <v>33150</v>
       </c>
-      <c r="R83" s="16">
+      <c r="R84" s="14">
         <v>2178</v>
       </c>
-      <c r="S83" s="16">
+      <c r="S84" s="14">
         <v>27975</v>
       </c>
-      <c r="T83" s="16">
+      <c r="T84" s="14">
         <v>0</v>
       </c>
-      <c r="U83" s="16">
+      <c r="U84" s="14">
         <v>89534</v>
       </c>
-      <c r="V83" s="16">
+      <c r="V84" s="14">
         <v>3365</v>
       </c>
-      <c r="W83" s="16">
+      <c r="W84" s="14">
         <v>2210</v>
       </c>
-      <c r="X83" s="16">
+      <c r="X84" s="14">
         <v>299</v>
       </c>
-      <c r="Y83" s="16">
+      <c r="Y84" s="14">
         <v>10862</v>
       </c>
-      <c r="Z83" s="16">
+      <c r="Z84" s="14">
         <v>12</v>
       </c>
-      <c r="AA83" s="16">
+      <c r="AA84" s="14">
         <v>783</v>
       </c>
     </row>
-    <row r="84" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="12">
+    <row r="85" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="11">
         <v>476241</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="11">
         <v>467827</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="11">
         <v>459</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="11">
         <v>46438</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H85" s="11">
         <v>6498</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="11">
         <v>2366</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J85" s="11">
         <v>78</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K85" s="11">
         <v>237</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L85" s="11">
         <v>2474</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M85" s="11">
         <v>35832</v>
       </c>
-      <c r="N84" s="13">
+      <c r="N85" s="11">
         <v>3883</v>
       </c>
-      <c r="O84" s="13">
+      <c r="O85" s="11">
         <v>24299</v>
       </c>
-      <c r="P84" s="13">
+      <c r="P85" s="11">
         <v>14847</v>
       </c>
-      <c r="Q84" s="13">
+      <c r="Q85" s="11">
         <v>33272</v>
       </c>
-      <c r="R84" s="13">
+      <c r="R85" s="11">
         <v>2165</v>
       </c>
-      <c r="S84" s="13">
+      <c r="S85" s="11">
         <v>27577</v>
       </c>
-      <c r="T84" s="13">
+      <c r="T85" s="11">
         <v>1</v>
       </c>
-      <c r="U84" s="13">
+      <c r="U85" s="11">
         <v>88473</v>
       </c>
-      <c r="V84" s="13">
+      <c r="V85" s="11">
         <v>3325</v>
       </c>
-      <c r="W84" s="13">
+      <c r="W85" s="11">
         <v>2133</v>
       </c>
-      <c r="X84" s="13">
+      <c r="X85" s="11">
         <v>301</v>
       </c>
-      <c r="Y84" s="13">
+      <c r="Y85" s="11">
         <v>10800</v>
       </c>
-      <c r="Z84" s="13">
+      <c r="Z85" s="11">
         <v>12</v>
       </c>
-      <c r="AA84" s="13">
+      <c r="AA85" s="11">
         <v>786</v>
       </c>
     </row>
-    <row r="85" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="15">
+    <row r="86" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="14">
         <v>472271</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E86" s="14">
         <v>463807</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F86" s="14">
         <v>455</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G86" s="14">
         <v>46120</v>
       </c>
-      <c r="H85" s="16">
+      <c r="H86" s="14">
         <v>6441</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I86" s="14">
         <v>2324</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J86" s="14">
         <v>77</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K86" s="14">
         <v>237</v>
       </c>
-      <c r="L85" s="16">
+      <c r="L86" s="14">
         <v>2458</v>
       </c>
-      <c r="M85" s="16">
+      <c r="M86" s="14">
         <v>35484</v>
       </c>
-      <c r="N85" s="16">
+      <c r="N86" s="14">
         <v>3859</v>
       </c>
-      <c r="O85" s="16">
+      <c r="O86" s="14">
         <v>24075</v>
       </c>
-      <c r="P85" s="16">
+      <c r="P86" s="14">
         <v>14872</v>
       </c>
-      <c r="Q85" s="16">
+      <c r="Q86" s="14">
         <v>33210</v>
       </c>
-      <c r="R85" s="16">
+      <c r="R86" s="14">
         <v>2154</v>
       </c>
-      <c r="S85" s="16">
+      <c r="S86" s="14">
         <v>27204</v>
       </c>
-      <c r="T85" s="16">
+      <c r="T86" s="14">
         <v>1</v>
       </c>
-      <c r="U85" s="16">
+      <c r="U86" s="14">
         <v>86985</v>
       </c>
-      <c r="V85" s="16">
+      <c r="V86" s="14">
         <v>3231</v>
       </c>
-      <c r="W85" s="16">
+      <c r="W86" s="14">
         <v>2040</v>
       </c>
-      <c r="X85" s="16">
+      <c r="X86" s="14">
         <v>294</v>
       </c>
-      <c r="Y85" s="16">
+      <c r="Y86" s="14">
         <v>10741</v>
       </c>
-      <c r="Z85" s="16">
+      <c r="Z86" s="14">
         <v>12</v>
       </c>
-      <c r="AA85" s="16">
+      <c r="AA86" s="14">
         <v>784</v>
       </c>
     </row>
-    <row r="86" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="12">
+    <row r="87" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="11">
         <v>469020</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="11">
         <v>460731</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="11">
         <v>454</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="11">
         <v>45917</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="11">
         <v>6371</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="11">
         <v>2319</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J87" s="11">
         <v>77</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K87" s="11">
         <v>237</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L87" s="11">
         <v>2444</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M87" s="11">
         <v>35184</v>
       </c>
-      <c r="N86" s="13">
+      <c r="N87" s="11">
         <v>3843</v>
       </c>
-      <c r="O86" s="13">
+      <c r="O87" s="11">
         <v>23647</v>
       </c>
-      <c r="P86" s="13">
+      <c r="P87" s="11">
         <v>14554</v>
       </c>
-      <c r="Q86" s="13">
+      <c r="Q87" s="11">
         <v>33107</v>
       </c>
-      <c r="R86" s="13">
+      <c r="R87" s="11">
         <v>2146</v>
       </c>
-      <c r="S86" s="13">
+      <c r="S87" s="11">
         <v>26742</v>
       </c>
-      <c r="T86" s="13">
+      <c r="T87" s="11">
         <v>1</v>
       </c>
-      <c r="U86" s="13">
+      <c r="U87" s="11">
         <v>86342</v>
       </c>
-      <c r="V86" s="13">
+      <c r="V87" s="11">
         <v>3169</v>
       </c>
-      <c r="W86" s="13">
+      <c r="W87" s="11">
         <v>2018</v>
       </c>
-      <c r="X86" s="13">
+      <c r="X87" s="11">
         <v>288</v>
       </c>
-      <c r="Y86" s="13">
+      <c r="Y87" s="11">
         <v>10741</v>
       </c>
-      <c r="Z86" s="13">
+      <c r="Z87" s="11">
         <v>12</v>
       </c>
-      <c r="AA86" s="13">
+      <c r="AA87" s="11">
         <v>781</v>
       </c>
     </row>
-    <row r="87" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="15">
+    <row r="88" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="14">
         <v>466319</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E88" s="14">
         <v>457242</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F88" s="14">
         <v>451</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G88" s="14">
         <v>45640</v>
       </c>
-      <c r="H87" s="16">
+      <c r="H88" s="14">
         <v>6287</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I88" s="14">
         <v>2262</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J88" s="14">
         <v>77</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K88" s="14">
         <v>237</v>
       </c>
-      <c r="L87" s="16">
+      <c r="L88" s="14">
         <v>2424</v>
       </c>
-      <c r="M87" s="16">
+      <c r="M88" s="14">
         <v>34703</v>
       </c>
-      <c r="N87" s="16">
+      <c r="N88" s="14">
         <v>3824</v>
       </c>
-      <c r="O87" s="16">
+      <c r="O88" s="14">
         <v>23309</v>
       </c>
-      <c r="P87" s="16">
+      <c r="P88" s="14">
         <v>14393</v>
       </c>
-      <c r="Q87" s="16">
+      <c r="Q88" s="14">
         <v>32986</v>
       </c>
-      <c r="R87" s="16">
+      <c r="R88" s="14">
         <v>2120</v>
       </c>
-      <c r="S87" s="16">
+      <c r="S88" s="14">
         <v>26331</v>
       </c>
-      <c r="T87" s="16">
+      <c r="T88" s="14">
         <v>1</v>
       </c>
-      <c r="U87" s="16">
+      <c r="U88" s="14">
         <v>85658</v>
       </c>
-      <c r="V87" s="16">
+      <c r="V88" s="14">
         <v>3120</v>
       </c>
-      <c r="W87" s="16">
+      <c r="W88" s="14">
         <v>1980</v>
       </c>
-      <c r="X87" s="16">
+      <c r="X88" s="14">
         <v>285</v>
       </c>
-      <c r="Y87" s="16">
+      <c r="Y88" s="14">
         <v>10688</v>
       </c>
-      <c r="Z87" s="16">
+      <c r="Z88" s="14">
         <v>12</v>
       </c>
-      <c r="AA87" s="16">
+      <c r="AA88" s="14">
         <v>779</v>
       </c>
     </row>
-    <row r="88" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="20">
+    <row r="89" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="18">
         <v>2018</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C89" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D89" s="19">
         <v>464622</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E89" s="19">
         <v>455453</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F89" s="19">
         <v>451</v>
       </c>
-      <c r="G88" s="21">
+      <c r="G89" s="19">
         <v>45676</v>
       </c>
-      <c r="H88" s="21">
+      <c r="H89" s="19">
         <v>6259</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I89" s="19">
         <v>2255</v>
       </c>
-      <c r="J88" s="21">
+      <c r="J89" s="19">
         <v>77</v>
       </c>
-      <c r="K88" s="21">
+      <c r="K89" s="19">
         <v>237</v>
       </c>
-      <c r="L88" s="21">
+      <c r="L89" s="19">
         <v>2406</v>
       </c>
-      <c r="M88" s="21">
+      <c r="M89" s="19">
         <v>34385</v>
       </c>
-      <c r="N88" s="21">
+      <c r="N89" s="19">
         <v>3836</v>
       </c>
-      <c r="O88" s="21">
+      <c r="O89" s="19">
         <v>23129</v>
       </c>
-      <c r="P88" s="21">
+      <c r="P89" s="19">
         <v>14404</v>
       </c>
-      <c r="Q88" s="21">
+      <c r="Q89" s="19">
         <v>32894</v>
       </c>
-      <c r="R88" s="21">
+      <c r="R89" s="19">
         <v>2092</v>
       </c>
-      <c r="S88" s="21">
+      <c r="S89" s="19">
         <v>26133</v>
       </c>
-      <c r="T88" s="21">
+      <c r="T89" s="19">
         <v>1</v>
       </c>
-      <c r="U88" s="21">
+      <c r="U89" s="19">
         <v>84912</v>
       </c>
-      <c r="V88" s="21">
+      <c r="V89" s="19">
         <v>3077</v>
       </c>
-      <c r="W88" s="21">
+      <c r="W89" s="19">
         <v>1949</v>
       </c>
-      <c r="X88" s="21">
+      <c r="X89" s="19">
         <v>278</v>
       </c>
-      <c r="Y88" s="21">
+      <c r="Y89" s="19">
         <v>10682</v>
       </c>
-      <c r="Z88" s="21">
+      <c r="Z89" s="19">
         <v>12</v>
       </c>
-      <c r="AA88" s="21">
+      <c r="AA89" s="19">
         <v>782</v>
       </c>
-    </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA89" s="23"/>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA90" s="21"/>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA90" s="23"/>
+      <c r="AA91" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17339886-DA6B-435B-BAD5-14EFCC994651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E563AC-5F1C-4614-B4FC-222317979C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_18" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -261,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -383,12 +383,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,6 +455,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -844,13 +863,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -872,6 +884,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -923,8 +942,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA89" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
-  <autoFilter ref="B5:AA89" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA90" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="B5:AA90" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1186,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA91"/>
+  <dimension ref="B2:AA92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1358,6630 +1377,6708 @@
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="25">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="27">
+        <v>726109</v>
+      </c>
+      <c r="E6" s="27">
+        <v>714727</v>
+      </c>
+      <c r="F6" s="27">
+        <v>656</v>
+      </c>
+      <c r="G6" s="27">
+        <v>57695</v>
+      </c>
+      <c r="H6" s="27">
+        <v>10586</v>
+      </c>
+      <c r="I6" s="27">
+        <v>3675</v>
+      </c>
+      <c r="J6" s="27">
+        <v>78</v>
+      </c>
+      <c r="K6" s="27">
+        <v>1424</v>
+      </c>
+      <c r="L6" s="27">
+        <v>2835</v>
+      </c>
+      <c r="M6" s="27">
+        <v>63834</v>
+      </c>
+      <c r="N6" s="27">
+        <v>3964</v>
+      </c>
+      <c r="O6" s="27">
+        <v>42332</v>
+      </c>
+      <c r="P6" s="27">
+        <v>30802</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>44075</v>
+      </c>
+      <c r="R6" s="27">
+        <v>2701</v>
+      </c>
+      <c r="S6" s="27">
+        <v>55096</v>
+      </c>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27">
+        <v>131751</v>
+      </c>
+      <c r="V6" s="27">
+        <v>6534</v>
+      </c>
+      <c r="W6" s="27">
+        <v>6466</v>
+      </c>
+      <c r="X6" s="27">
+        <v>2244</v>
+      </c>
+      <c r="Y6" s="27">
+        <v>12757</v>
+      </c>
+      <c r="Z6" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="14">
         <v>723462</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E7" s="14">
         <v>711776</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F7" s="14">
         <v>646</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G7" s="14">
         <v>57703</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H7" s="14">
         <v>10583</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I7" s="14">
         <v>3665</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J7" s="14">
         <v>78</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K7" s="14">
         <v>1424</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L7" s="14">
         <v>2822</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M7" s="14">
         <v>63686</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N7" s="14">
         <v>3961</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O7" s="14">
         <v>42142</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P7" s="14">
         <v>30781</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q7" s="14">
         <v>44100</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R7" s="14">
         <v>2703</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S7" s="14">
         <v>55043</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14">
+      <c r="T7" s="14"/>
+      <c r="U7" s="14">
         <v>131335</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V7" s="14">
         <v>6513</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W7" s="14">
         <v>6439</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X7" s="14">
         <v>2237</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y7" s="14">
         <v>12704</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z7" s="14">
         <v>15</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA7" s="14">
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>719185</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>708450</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>630</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>57548</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="11">
         <v>10520</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I8" s="11">
         <v>3634</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J8" s="11">
         <v>78</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K8" s="11">
         <v>1424</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L8" s="11">
         <v>2786</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M8" s="11">
         <v>63307</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N8" s="11">
         <v>3939</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O8" s="11">
         <v>41751</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P8" s="11">
         <v>30659</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q8" s="11">
         <v>43660</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R8" s="11">
         <v>2692</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S8" s="11">
         <v>54807</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11">
+      <c r="T8" s="11"/>
+      <c r="U8" s="11">
         <v>130783</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V8" s="11">
         <v>6476</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W8" s="11">
         <v>6362</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X8" s="11">
         <v>2229</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y8" s="11">
         <v>12572</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z8" s="11">
         <v>15</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA8" s="12">
         <v>727</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <v>714747</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <v>704375</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F9" s="14">
         <v>622</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="14">
         <v>57602</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="14">
         <v>10485</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>3617</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J9" s="14">
         <v>78</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="14">
         <v>1424</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L9" s="14">
         <v>2767</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M9" s="14">
         <v>63040</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N9" s="14">
         <v>3930</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O9" s="14">
         <v>41410</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P9" s="14">
         <v>30328</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q9" s="14">
         <v>43596</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R9" s="14">
         <v>2697</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S9" s="14">
         <v>54722</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14">
         <v>130250</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V9" s="14">
         <v>6446</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W9" s="14">
         <v>6199</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X9" s="14">
         <v>2214</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y9" s="14">
         <v>12449</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z9" s="14">
         <v>15</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA9" s="14">
         <v>727</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>709391</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>699945</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>611</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>57472</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="11">
         <v>10407</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I10" s="11">
         <v>3578</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J10" s="11">
         <v>78</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K10" s="11">
         <v>1424</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L10" s="11">
         <v>2740</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M10" s="11">
         <v>62737</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N10" s="11">
         <v>3931</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O10" s="11">
         <v>41077</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P10" s="11">
         <v>23934</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q10" s="11">
         <v>43117</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R10" s="11">
         <v>2694</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S10" s="11">
         <v>54701</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11">
+      <c r="T10" s="11"/>
+      <c r="U10" s="11">
         <v>129830</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V10" s="11">
         <v>6417</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W10" s="11">
         <v>6046</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X10" s="11">
         <v>2192</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y10" s="11">
         <v>12349</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z10" s="11">
         <v>15</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA10" s="12">
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>704941</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="14">
         <v>696064</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="14">
         <v>608</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="14">
         <v>57429</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="14">
         <v>10315</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>3562</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="14">
         <v>78</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K11" s="14">
         <v>1424</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L11" s="14">
         <v>2725</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M11" s="14">
         <v>62582</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N11" s="14">
         <v>3959</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O11" s="14">
         <v>40692</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P11" s="14">
         <v>23711</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q11" s="14">
         <v>42607</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R11" s="14">
         <v>2706</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S11" s="14">
         <v>54463</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14">
+      <c r="T11" s="14"/>
+      <c r="U11" s="14">
         <v>129480</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V11" s="14">
         <v>6405</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W11" s="14">
         <v>5956</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X11" s="14">
         <v>2159</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y11" s="14">
         <v>12295</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z11" s="14">
         <v>15</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AA11" s="16">
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B11" s="9">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>700064</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>691573</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>594</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>57394</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="11">
         <v>10310</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I12" s="11">
         <v>3516</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J12" s="11">
         <v>78</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K12" s="11">
         <v>1424</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L12" s="11">
         <v>2697</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M12" s="11">
         <v>62263</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N12" s="11">
         <v>3963</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O12" s="11">
         <v>40451</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P12" s="11">
         <v>22543</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q12" s="11">
         <v>42013</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R12" s="11">
         <v>2714</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S12" s="11">
         <v>54287</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11">
+      <c r="T12" s="11"/>
+      <c r="U12" s="11">
         <v>129145</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V12" s="11">
         <v>6391</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W12" s="11">
         <v>5917</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X12" s="11">
         <v>2148</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y12" s="11">
         <v>12231</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z12" s="11">
         <v>15</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA12" s="12">
         <v>724</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B12" s="15">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>694997</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="14">
         <v>686081</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="14">
         <v>592</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="14">
         <v>57318</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H13" s="14">
         <v>10276</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>3508</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J13" s="14">
         <v>78</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K13" s="14">
         <v>1424</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L13" s="14">
         <v>2665</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M13" s="14">
         <v>61927</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N13" s="14">
         <v>3963</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O13" s="14">
         <v>40050</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P13" s="14">
         <v>22350</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q13" s="14">
         <v>41750</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R13" s="14">
         <v>2698</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S13" s="14">
         <v>54175</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14">
+      <c r="T13" s="14"/>
+      <c r="U13" s="14">
         <v>128557</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V13" s="14">
         <v>6363</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W13" s="14">
         <v>5857</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X13" s="14">
         <v>2129</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y13" s="14">
         <v>12153</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z13" s="14">
         <v>15</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA13" s="16">
         <v>724</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B13" s="9">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>686433</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>677060</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>583</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>57014</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <v>10191</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I14" s="11">
         <v>3490</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J14" s="11">
         <v>78</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <v>1424</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L14" s="11">
         <v>2598</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M14" s="11">
         <v>61659</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N14" s="11">
         <v>3952</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O14" s="11">
         <v>39763</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P14" s="11">
         <v>22332</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q14" s="11">
         <v>41599</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R14" s="11">
         <v>2694</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S14" s="11">
         <v>54118</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11">
+      <c r="T14" s="11"/>
+      <c r="U14" s="11">
         <v>128107</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V14" s="11">
         <v>6329</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W14" s="11">
         <v>5765</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X14" s="11">
         <v>2112</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y14" s="11">
         <v>12080</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z14" s="11">
         <v>15</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA14" s="12">
         <v>719</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B14" s="15">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>685435</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>676046</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="14">
         <v>565</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="14">
         <v>56830</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="14">
         <v>10138</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>3511</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J15" s="14">
         <v>78</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="14">
         <v>1424</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L15" s="14">
         <v>2558</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M15" s="14">
         <v>61296</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N15" s="14">
         <v>3933</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O15" s="14">
         <v>39350</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P15" s="14">
         <v>23307</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q15" s="14">
         <v>41742</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R15" s="14">
         <v>2677</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S15" s="14">
         <v>53782</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14">
+      <c r="T15" s="14"/>
+      <c r="U15" s="14">
         <v>127521</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V15" s="14">
         <v>6305</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W15" s="14">
         <v>5651</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X15" s="14">
         <v>2085</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y15" s="14">
         <v>12043</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z15" s="14">
         <v>15</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AA15" s="16">
         <v>716</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B15" s="9">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>681551</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>671878</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>559</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>56791</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H16" s="11">
         <v>10077</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I16" s="11">
         <v>3472</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J16" s="11">
         <v>78</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="11">
         <v>1424</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L16" s="11">
         <v>2515</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M16" s="11">
         <v>60940</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N16" s="11">
         <v>3927</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O16" s="11">
         <v>38916</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P16" s="11">
         <v>23100</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q16" s="11">
         <v>41499</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R16" s="11">
         <v>2662</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S16" s="11">
         <v>53501</v>
       </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11">
+      <c r="T16" s="11"/>
+      <c r="U16" s="11">
         <v>127002</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V16" s="11">
         <v>6283</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W16" s="11">
         <v>5537</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X16" s="11">
         <v>2066</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y16" s="11">
         <v>12002</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z16" s="11">
         <v>15</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA16" s="12">
         <v>716</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B16" s="15">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>677153</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="14">
         <v>667343</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="14">
         <v>559</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="14">
         <v>56789</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="14">
         <v>10062</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>3444</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J17" s="14">
         <v>78</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <v>1424</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L17" s="14">
         <v>2486</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M17" s="14">
         <v>60780</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N17" s="14">
         <v>3929</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O17" s="14">
         <v>38626</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P17" s="14">
         <v>22931</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q17" s="14">
         <v>41445</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R17" s="14">
         <v>2656</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S17" s="14">
         <v>53234</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14">
+      <c r="T17" s="14"/>
+      <c r="U17" s="14">
         <v>126653</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V17" s="14">
         <v>6260</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W17" s="14">
         <v>5487</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X17" s="14">
         <v>2055</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y17" s="14">
         <v>11945</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="Z17" s="14">
         <v>15</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AA17" s="16">
         <v>718</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B17" s="17">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B18" s="17">
         <v>2024</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D18" s="19">
         <v>673757</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E18" s="19">
         <v>663646</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F18" s="19">
         <v>558</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G18" s="19">
         <v>56703</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H18" s="19">
         <v>10044</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I18" s="19">
         <v>3392</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J18" s="19">
         <v>78</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K18" s="19">
         <v>1424</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L18" s="19">
         <v>2444</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M18" s="19">
         <v>60551</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N18" s="19">
         <v>3920</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O18" s="19">
         <v>38302</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P18" s="19">
         <v>22717</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q18" s="19">
         <v>41276</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R18" s="19">
         <v>2661</v>
       </c>
-      <c r="S17" s="19">
+      <c r="S18" s="19">
         <v>53153</v>
       </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19">
+      <c r="T18" s="19"/>
+      <c r="U18" s="19">
         <v>125984</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V18" s="19">
         <v>6237</v>
       </c>
-      <c r="W17" s="19">
+      <c r="W18" s="19">
         <v>5478</v>
       </c>
-      <c r="X17" s="19">
+      <c r="X18" s="19">
         <v>2017</v>
       </c>
-      <c r="Y17" s="19">
+      <c r="Y18" s="19">
         <v>11916</v>
       </c>
-      <c r="Z17" s="19">
+      <c r="Z18" s="19">
         <v>15</v>
       </c>
-      <c r="AA17" s="20">
+      <c r="AA18" s="20">
         <v>717</v>
       </c>
     </row>
-    <row r="18" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+    <row r="19" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <v>671002</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="14">
         <v>660365</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="14">
         <v>554</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="14">
         <v>56667</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="14">
         <v>10017</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>3376</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <v>78</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="14">
         <v>1424</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L19" s="14">
         <v>2414</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M19" s="14">
         <v>60296</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N19" s="14">
         <v>3916</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O19" s="14">
         <v>38063</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P19" s="14">
         <v>22721</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q19" s="14">
         <v>40963</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R19" s="14">
         <v>2664</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S19" s="14">
         <v>53074</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14">
+      <c r="T19" s="14"/>
+      <c r="U19" s="14">
         <v>125341</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V19" s="14">
         <v>6227</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W19" s="14">
         <v>5448</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X19" s="14">
         <v>2008</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y19" s="14">
         <v>11874</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="Z19" s="14">
         <v>15</v>
       </c>
-      <c r="AA18" s="14">
+      <c r="AA19" s="14">
         <v>716</v>
       </c>
     </row>
-    <row r="19" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+    <row r="20" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>667021</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>657017</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>553</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>56501</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H20" s="11">
         <v>10008</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I20" s="11">
         <v>3368</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J20" s="11">
         <v>78</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K20" s="11">
         <v>1424</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L20" s="11">
         <v>2373</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M20" s="11">
         <v>59864</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N20" s="11">
         <v>3939</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O20" s="11">
         <v>37756</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P20" s="11">
         <v>22668</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q20" s="11">
         <v>40739</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R20" s="11">
         <v>2663</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S20" s="11">
         <v>52920</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11">
+      <c r="T20" s="11"/>
+      <c r="U20" s="11">
         <v>124918</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V20" s="11">
         <v>6223</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W20" s="11">
         <v>5332</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X20" s="11">
         <v>1985</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y20" s="11">
         <v>11762</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z20" s="11">
         <v>15</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AA20" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="20" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+    <row r="21" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <v>662911</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="14">
         <v>653227</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F21" s="14">
         <v>551</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="14">
         <v>56354</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="14">
         <v>9936</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>3354</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <v>78</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="14">
         <v>1424</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L21" s="14">
         <v>2325</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M21" s="14">
         <v>59524</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N21" s="14">
         <v>3949</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O21" s="14">
         <v>37449</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P21" s="14">
         <v>22518</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q21" s="14">
         <v>40540</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R21" s="14">
         <v>2659</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S21" s="14">
         <v>52779</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14">
+      <c r="T21" s="14"/>
+      <c r="U21" s="14">
         <v>124007</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V21" s="14">
         <v>6157</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W21" s="14">
         <v>5337</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X21" s="14">
         <v>1958</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y21" s="14">
         <v>11701</v>
       </c>
-      <c r="Z20" s="14">
+      <c r="Z21" s="14">
         <v>15</v>
       </c>
-      <c r="AA20" s="14">
+      <c r="AA21" s="14">
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+    <row r="22" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>659020</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>649665</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>551</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>56273</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="11">
         <v>9895</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <v>3359</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J22" s="11">
         <v>78</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <v>1424</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L22" s="11">
         <v>2288</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M22" s="11">
         <v>59153</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N22" s="11">
         <v>3952</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="11">
         <v>37177</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P22" s="11">
         <v>22508</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q22" s="11">
         <v>40324</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R22" s="11">
         <v>2654</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S22" s="11">
         <v>52458</v>
       </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11">
+      <c r="T22" s="11"/>
+      <c r="U22" s="11">
         <v>123192</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V22" s="11">
         <v>6122</v>
       </c>
-      <c r="W21" s="11">
+      <c r="W22" s="11">
         <v>5256</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X22" s="11">
         <v>1931</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Y22" s="11">
         <v>11636</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z22" s="11">
         <v>15</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AA22" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="22" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+    <row r="23" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <v>655458</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="14">
         <v>645999</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F23" s="14">
         <v>546</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="14">
         <v>56186</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="14">
         <v>9835</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>3310</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="14">
         <v>78</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K23" s="14">
         <v>1425</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L23" s="14">
         <v>2252</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M23" s="14">
         <v>58938</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N23" s="14">
         <v>3928</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O23" s="14">
         <v>36812</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P23" s="14">
         <v>22401</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q23" s="14">
         <v>40001</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R23" s="14">
         <v>2655</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S23" s="14">
         <v>52187</v>
       </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14">
+      <c r="T23" s="14"/>
+      <c r="U23" s="14">
         <v>122442</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V23" s="14">
         <v>6046</v>
       </c>
-      <c r="W22" s="14">
+      <c r="W23" s="14">
         <v>5239</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X23" s="14">
         <v>1910</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="Y23" s="14">
         <v>11600</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="Z23" s="14">
         <v>15</v>
       </c>
-      <c r="AA22" s="14">
+      <c r="AA23" s="14">
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+    <row r="24" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>651761</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>641907</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>541</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>56170</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="11">
         <v>9810</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I24" s="11">
         <v>3301</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J24" s="11">
         <v>78</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K24" s="11">
         <v>1424</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L24" s="11">
         <v>2219</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M24" s="11">
         <v>58734</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N24" s="11">
         <v>3934</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O24" s="11">
         <v>36467</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P24" s="11">
         <v>22206</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q24" s="11">
         <v>39383</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R24" s="11">
         <v>2640</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S24" s="11">
         <v>51887</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11">
+      <c r="T24" s="11"/>
+      <c r="U24" s="11">
         <v>121511</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V24" s="11">
         <v>5992</v>
       </c>
-      <c r="W23" s="11">
+      <c r="W24" s="11">
         <v>5150</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X24" s="11">
         <v>1888</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="Y24" s="11">
         <v>11575</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z24" s="11">
         <v>15</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AA24" s="11">
         <v>716</v>
       </c>
     </row>
-    <row r="24" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+    <row r="25" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <v>647906</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E25" s="14">
         <v>637598</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F25" s="14">
         <v>538</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G25" s="14">
         <v>56139</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>9752</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>3280</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J25" s="14">
         <v>78</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K25" s="14">
         <v>1424</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L25" s="14">
         <v>2179</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M25" s="14">
         <v>58481</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N25" s="14">
         <v>3945</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O25" s="14">
         <v>36238</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P25" s="14">
         <v>21962</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q25" s="14">
         <v>38923</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R25" s="14">
         <v>2634</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S25" s="14">
         <v>51526</v>
       </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14">
+      <c r="T25" s="14"/>
+      <c r="U25" s="14">
         <v>120827</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V25" s="14">
         <v>5957</v>
       </c>
-      <c r="W24" s="14">
+      <c r="W25" s="14">
         <v>5099</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X25" s="14">
         <v>1866</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="Y25" s="14">
         <v>11503</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="Z25" s="14">
         <v>15</v>
       </c>
-      <c r="AA24" s="14">
+      <c r="AA25" s="14">
         <v>715</v>
       </c>
     </row>
-    <row r="25" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+    <row r="26" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>645139</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>634226</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>537</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>55988</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H26" s="11">
         <v>9716</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I26" s="11">
         <v>3277</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J26" s="11">
         <v>78</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K26" s="11">
         <v>1424</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L26" s="11">
         <v>2130</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M26" s="11">
         <v>58224</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N26" s="11">
         <v>3934</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O26" s="11">
         <v>35910</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P26" s="11">
         <v>21848</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q26" s="11">
         <v>38619</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R26" s="11">
         <v>2634</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S26" s="11">
         <v>51228</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11">
+      <c r="T26" s="11"/>
+      <c r="U26" s="11">
         <v>120089</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V26" s="11">
         <v>5928</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W26" s="11">
         <v>5046</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X26" s="11">
         <v>1829</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y26" s="11">
         <v>11484</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z26" s="11">
         <v>15</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA26" s="11">
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
+    <row r="27" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>641751</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="14">
         <v>630955</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F27" s="14">
         <v>537</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="14">
         <v>55899</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <v>9670</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>3264</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J27" s="14">
         <v>78</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K27" s="14">
         <v>1424</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L27" s="14">
         <v>2114</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M27" s="14">
         <v>58008</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N27" s="14">
         <v>3930</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O27" s="14">
         <v>35633</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P27" s="14">
         <v>21736</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q27" s="14">
         <v>38964</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R27" s="14">
         <v>2631</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S27" s="14">
         <v>50759</v>
       </c>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14">
+      <c r="T27" s="14"/>
+      <c r="U27" s="14">
         <v>119535</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V27" s="14">
         <v>5904</v>
       </c>
-      <c r="W26" s="14">
+      <c r="W27" s="14">
         <v>4993</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X27" s="14">
         <v>1785</v>
       </c>
-      <c r="Y26" s="14">
+      <c r="Y27" s="14">
         <v>11422</v>
       </c>
-      <c r="Z26" s="14">
+      <c r="Z27" s="14">
         <v>15</v>
       </c>
-      <c r="AA26" s="14">
+      <c r="AA27" s="14">
         <v>713</v>
       </c>
     </row>
-    <row r="27" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+    <row r="28" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>639200</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>628078</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>535</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>55839</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H28" s="11">
         <v>9614</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I28" s="11">
         <v>3257</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J28" s="11">
         <v>78</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K28" s="11">
         <v>1424</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L28" s="11">
         <v>2091</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M28" s="11">
         <v>57753</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N28" s="11">
         <v>3924</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O28" s="11">
         <v>35418</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P28" s="11">
         <v>21601</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q28" s="11">
         <v>38737</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R28" s="11">
         <v>2613</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S28" s="11">
         <v>50312</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11">
+      <c r="T28" s="11"/>
+      <c r="U28" s="11">
         <v>119109</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V28" s="11">
         <v>5878</v>
       </c>
-      <c r="W27" s="11">
+      <c r="W28" s="11">
         <v>4974</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X28" s="11">
         <v>1760</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="Y28" s="11">
         <v>11402</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="Z28" s="11">
         <v>15</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AA28" s="11">
         <v>713</v>
       </c>
     </row>
-    <row r="28" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13">
+    <row r="29" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <v>636167</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>625114</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F29" s="14">
         <v>535</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <v>55765</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>9522</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>3239</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <v>78</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K29" s="14">
         <v>1424</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L29" s="14">
         <v>2039</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M29" s="14">
         <v>57425</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N29" s="14">
         <v>3900</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O29" s="14">
         <v>34878</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P29" s="14">
         <v>21229</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q29" s="14">
         <v>38464</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R29" s="14">
         <v>2594</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S29" s="14">
         <v>49720</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T29" s="14">
         <v>1</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U29" s="14">
         <v>118529</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V29" s="14">
         <v>5852</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W29" s="14">
         <v>4936</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X29" s="14">
         <v>1736</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="Y29" s="14">
         <v>11378</v>
       </c>
-      <c r="Z28" s="14">
+      <c r="Z29" s="14">
         <v>15</v>
       </c>
-      <c r="AA28" s="14">
+      <c r="AA29" s="14">
         <v>714</v>
       </c>
     </row>
-    <row r="29" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="18">
+    <row r="30" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="18">
         <v>2023</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D30" s="19">
         <v>633934</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="19">
         <v>622491</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F30" s="19">
         <v>534</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G30" s="19">
         <v>55802</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H30" s="19">
         <v>9494</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I30" s="19">
         <v>3245</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J30" s="19">
         <v>78</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K30" s="19">
         <v>1424</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L30" s="19">
         <v>2009</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M30" s="19">
         <v>57250</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N30" s="19">
         <v>3899</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O30" s="19">
         <v>34654</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P30" s="19">
         <v>20907</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q30" s="19">
         <v>38288</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R30" s="19">
         <v>2590</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S30" s="19">
         <v>49582</v>
       </c>
-      <c r="T29" s="19">
+      <c r="T30" s="19">
         <v>1</v>
       </c>
-      <c r="U29" s="19">
+      <c r="U30" s="19">
         <v>118075</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V30" s="19">
         <v>5811</v>
       </c>
-      <c r="W29" s="19">
+      <c r="W30" s="19">
         <v>4917</v>
       </c>
-      <c r="X29" s="19">
+      <c r="X30" s="19">
         <v>1700</v>
       </c>
-      <c r="Y29" s="19">
+      <c r="Y30" s="19">
         <v>11348</v>
       </c>
-      <c r="Z29" s="19">
+      <c r="Z30" s="19">
         <v>15</v>
       </c>
-      <c r="AA29" s="19">
+      <c r="AA30" s="19">
         <v>712</v>
       </c>
     </row>
-    <row r="30" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13">
+    <row r="31" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <v>632252</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E31" s="14">
         <v>620240</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F31" s="14">
         <v>528</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G31" s="14">
         <v>55869</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="14">
         <v>9451</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I31" s="14">
         <v>3234</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J31" s="14">
         <v>78</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K31" s="14">
         <v>1424</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L31" s="14">
         <v>1986</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M31" s="14">
         <v>57083</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N31" s="14">
         <v>3895</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O31" s="14">
         <v>34339</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P31" s="14">
         <v>20924</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q31" s="14">
         <v>38275</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R31" s="14">
         <v>2577</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S31" s="14">
         <v>49203</v>
       </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14">
+      <c r="T31" s="14"/>
+      <c r="U31" s="14">
         <v>117636</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V31" s="14">
         <v>5783</v>
       </c>
-      <c r="W30" s="14">
+      <c r="W31" s="14">
         <v>4904</v>
       </c>
-      <c r="X30" s="14">
+      <c r="X31" s="14">
         <v>1678</v>
       </c>
-      <c r="Y30" s="14">
+      <c r="Y31" s="14">
         <v>11327</v>
       </c>
-      <c r="Z30" s="14">
+      <c r="Z31" s="14">
         <v>14</v>
       </c>
-      <c r="AA30" s="14">
+      <c r="AA31" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="31" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+    <row r="32" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>629746</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>617778</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>528</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>55776</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H32" s="11">
         <v>9347</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I32" s="11">
         <v>3197</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J32" s="11">
         <v>77</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K32" s="11">
         <v>1424</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L32" s="11">
         <v>1959</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M32" s="11">
         <v>56592</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N32" s="11">
         <v>3885</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O32" s="11">
         <v>33921</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P32" s="11">
         <v>20669</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q32" s="11">
         <v>38043</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R32" s="11">
         <v>2568</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S32" s="11">
         <v>48930</v>
       </c>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11">
+      <c r="T32" s="11"/>
+      <c r="U32" s="11">
         <v>117218</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V32" s="11">
         <v>5770</v>
       </c>
-      <c r="W31" s="11">
+      <c r="W32" s="11">
         <v>4899</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X32" s="11">
         <v>1652</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="Y32" s="11">
         <v>11234</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z32" s="11">
         <v>15</v>
       </c>
-      <c r="AA31" s="11">
+      <c r="AA32" s="11">
         <v>707</v>
       </c>
     </row>
-    <row r="32" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
+    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <v>627591</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>615376</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F33" s="14">
         <v>528</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <v>55700</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <v>9310</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>3164</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="14">
         <v>77</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="14">
         <v>1424</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L33" s="14">
         <v>1936</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M33" s="14">
         <v>56336</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <v>3884</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O33" s="14">
         <v>33523</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P33" s="14">
         <v>20457</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q33" s="14">
         <v>37927</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R33" s="14">
         <v>2574</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S33" s="14">
         <v>48696</v>
       </c>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14">
+      <c r="T33" s="14"/>
+      <c r="U33" s="14">
         <v>116809</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V33" s="14">
         <v>5709</v>
       </c>
-      <c r="W32" s="14">
+      <c r="W33" s="14">
         <v>4865</v>
       </c>
-      <c r="X32" s="14">
+      <c r="X33" s="14">
         <v>1637</v>
       </c>
-      <c r="Y32" s="14">
+      <c r="Y33" s="14">
         <v>11207</v>
       </c>
-      <c r="Z32" s="14">
+      <c r="Z33" s="14">
         <v>15</v>
       </c>
-      <c r="AA32" s="14">
+      <c r="AA33" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+    <row r="34" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>625802</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>613527</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>529</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>55774</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H34" s="11">
         <v>9280</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I34" s="11">
         <v>3168</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J34" s="11">
         <v>77</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K34" s="11">
         <v>1424</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L34" s="11">
         <v>1923</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M34" s="11">
         <v>56179</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N34" s="11">
         <v>3894</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O34" s="11">
         <v>33212</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P34" s="11">
         <v>20145</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q34" s="11">
         <v>37799</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R34" s="11">
         <v>2588</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S34" s="11">
         <v>48487</v>
       </c>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11">
+      <c r="T34" s="11"/>
+      <c r="U34" s="11">
         <v>116524</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V34" s="11">
         <v>5685</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W34" s="11">
         <v>4852</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X34" s="11">
         <v>1602</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="Y34" s="11">
         <v>11195</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z34" s="11">
         <v>15</v>
       </c>
-      <c r="AA33" s="11">
+      <c r="AA34" s="11">
         <v>698</v>
       </c>
     </row>
-    <row r="34" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="13">
+    <row r="35" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <v>623225</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E35" s="14">
         <v>611005</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F35" s="14">
         <v>527</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="14">
         <v>55700</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H35" s="14">
         <v>9285</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I35" s="14">
         <v>3159</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J35" s="14">
         <v>77</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K35" s="14">
         <v>1424</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L35" s="14">
         <v>1959</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M35" s="14">
         <v>56592</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <v>3885</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O35" s="14">
         <v>33921</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P35" s="14">
         <v>19873</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q35" s="14">
         <v>37606</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R35" s="14">
         <v>2571</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S35" s="14">
         <v>48049</v>
       </c>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14">
+      <c r="T35" s="14"/>
+      <c r="U35" s="14">
         <v>115967</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V35" s="14">
         <v>5662</v>
       </c>
-      <c r="W34" s="14">
+      <c r="W35" s="14">
         <v>4804</v>
       </c>
-      <c r="X34" s="14">
+      <c r="X35" s="14">
         <v>1573</v>
       </c>
-      <c r="Y34" s="14">
+      <c r="Y35" s="14">
         <v>11161</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z35" s="14">
         <v>16</v>
       </c>
-      <c r="AA34" s="14">
+      <c r="AA35" s="14">
         <v>699</v>
       </c>
     </row>
-    <row r="35" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+    <row r="36" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>619408</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>607662</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>525</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>55704</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H36" s="11">
         <v>9233</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I36" s="11">
         <v>3148</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J36" s="11">
         <v>77</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K36" s="11">
         <v>1424</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L36" s="11">
         <v>1866</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M36" s="11">
         <v>55722</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N36" s="11">
         <v>3891</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O36" s="11">
         <v>32461</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P36" s="11">
         <v>19530</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q36" s="11">
         <v>37234</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R36" s="11">
         <v>2570</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S36" s="11">
         <v>47654</v>
       </c>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11">
+      <c r="T36" s="11"/>
+      <c r="U36" s="11">
         <v>115526</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V36" s="11">
         <v>5597</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W36" s="11">
         <v>4695</v>
       </c>
-      <c r="X35" s="11">
+      <c r="X36" s="11">
         <v>1536</v>
       </c>
-      <c r="Y35" s="11">
+      <c r="Y36" s="11">
         <v>11130</v>
       </c>
-      <c r="Z35" s="11">
+      <c r="Z36" s="11">
         <v>16</v>
       </c>
-      <c r="AA35" s="11">
+      <c r="AA36" s="11">
         <v>696</v>
       </c>
     </row>
-    <row r="36" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="13">
+    <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <v>618040</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>606724</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>525</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>55570</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H37" s="14">
         <v>9217</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I37" s="14">
         <v>3142</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J37" s="14">
         <v>77</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K37" s="14">
         <v>1424</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L37" s="14">
         <v>1855</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M37" s="14">
         <v>55624</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N37" s="14">
         <v>3889</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O37" s="14">
         <v>32272</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P37" s="14">
         <v>19269</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q37" s="14">
         <v>37056</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R37" s="14">
         <v>2562</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S37" s="14">
         <v>47342</v>
       </c>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14">
+      <c r="T37" s="14"/>
+      <c r="U37" s="14">
         <v>114809</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V37" s="14">
         <v>5569</v>
       </c>
-      <c r="W36" s="14">
+      <c r="W37" s="14">
         <v>4673</v>
       </c>
-      <c r="X36" s="14">
+      <c r="X37" s="14">
         <v>1516</v>
       </c>
-      <c r="Y36" s="14">
+      <c r="Y37" s="14">
         <v>11114</v>
       </c>
-      <c r="Z36" s="14">
+      <c r="Z37" s="14">
         <v>16</v>
       </c>
-      <c r="AA36" s="14">
+      <c r="AA37" s="14">
         <v>695</v>
       </c>
     </row>
-    <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+    <row r="38" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>616795</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>605191</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>525</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>55673</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H38" s="11">
         <v>9298</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I38" s="11">
         <v>3152</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J38" s="11">
         <v>77</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K38" s="11">
         <v>1424</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L38" s="11">
         <v>1846</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M38" s="11">
         <v>55382</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N38" s="11">
         <v>3892</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O38" s="11">
         <v>32033</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P38" s="11">
         <v>19167</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q38" s="11">
         <v>36662</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R38" s="11">
         <v>2569</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S38" s="11">
         <v>47224</v>
       </c>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11">
+      <c r="T38" s="11"/>
+      <c r="U38" s="11">
         <v>114792</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V38" s="11">
         <v>5511</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W38" s="11">
         <v>4622</v>
       </c>
-      <c r="X37" s="11">
+      <c r="X38" s="11">
         <v>1474</v>
       </c>
-      <c r="Y37" s="11">
+      <c r="Y38" s="11">
         <v>11085</v>
       </c>
-      <c r="Z37" s="11">
+      <c r="Z38" s="11">
         <v>16</v>
       </c>
-      <c r="AA37" s="11">
+      <c r="AA38" s="11">
         <v>695</v>
       </c>
     </row>
-    <row r="38" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="13">
+    <row r="39" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <v>614317</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="14">
         <v>602581</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F39" s="14">
         <v>524</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>55683</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H39" s="14">
         <v>9224</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I39" s="14">
         <v>3107</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J39" s="14">
         <v>77</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K39" s="14">
         <v>1424</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L39" s="14">
         <v>1833</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M39" s="14">
         <v>55240</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N39" s="14">
         <v>3885</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O39" s="14">
         <v>31772</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P39" s="14">
         <v>18897</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q39" s="14">
         <v>36589</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R39" s="14">
         <v>2571</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S39" s="14">
         <v>46753</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T39" s="14">
         <v>1</v>
       </c>
-      <c r="U38" s="14">
+      <c r="U39" s="14">
         <v>114370</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V39" s="14">
         <v>5457</v>
       </c>
-      <c r="W38" s="14">
+      <c r="W39" s="14">
         <v>4577</v>
       </c>
-      <c r="X38" s="14">
+      <c r="X39" s="14">
         <v>1352</v>
       </c>
-      <c r="Y38" s="14">
+      <c r="Y39" s="14">
         <v>11060</v>
       </c>
-      <c r="Z38" s="14">
+      <c r="Z39" s="14">
         <v>16</v>
       </c>
-      <c r="AA38" s="14">
+      <c r="AA39" s="14">
         <v>696</v>
       </c>
     </row>
-    <row r="39" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+    <row r="40" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>611918</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>600194</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>523</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>55693</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H40" s="11">
         <v>9204</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I40" s="11">
         <v>3089</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J40" s="11">
         <v>77</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K40" s="11">
         <v>1424</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L40" s="11">
         <v>1820</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M40" s="11">
         <v>55146</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N40" s="11">
         <v>3885</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O40" s="11">
         <v>31565</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P40" s="11">
         <v>18897</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q40" s="11">
         <v>36589</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R40" s="11">
         <v>2568</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S40" s="11">
         <v>46254</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T40" s="11">
         <v>0</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U40" s="11">
         <v>113789</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V40" s="11">
         <v>5441</v>
       </c>
-      <c r="W39" s="11">
+      <c r="W40" s="11">
         <v>4530</v>
       </c>
-      <c r="X39" s="11">
+      <c r="X40" s="11">
         <v>1276</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Y40" s="11">
         <v>11016</v>
       </c>
-      <c r="Z39" s="11">
+      <c r="Z40" s="11">
         <v>16</v>
       </c>
-      <c r="AA39" s="11">
+      <c r="AA40" s="11">
         <v>694</v>
       </c>
     </row>
-    <row r="40" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="13">
+    <row r="41" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <v>609072</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>597797</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>523</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>55620</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H41" s="14">
         <v>9119</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>3048</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J41" s="14">
         <v>77</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K41" s="14">
         <v>1424</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L41" s="14">
         <v>1803</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M41" s="14">
         <v>54943</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N41" s="14">
         <v>3886</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O41" s="14">
         <v>31259</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P41" s="14">
         <v>18473</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q41" s="14">
         <v>35996</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R41" s="14">
         <v>2581</v>
       </c>
-      <c r="S40" s="14">
+      <c r="S41" s="14">
         <v>45940</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T41" s="14">
         <v>1</v>
       </c>
-      <c r="U40" s="14">
+      <c r="U41" s="14">
         <v>112805</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V41" s="14">
         <v>5407</v>
       </c>
-      <c r="W40" s="14">
+      <c r="W41" s="14">
         <v>4480</v>
       </c>
-      <c r="X40" s="14">
+      <c r="X41" s="14">
         <v>1159</v>
       </c>
-      <c r="Y40" s="14">
+      <c r="Y41" s="14">
         <v>10978</v>
       </c>
-      <c r="Z40" s="14">
+      <c r="Z41" s="14">
         <v>16</v>
       </c>
-      <c r="AA40" s="14">
+      <c r="AA41" s="14">
         <v>693</v>
       </c>
     </row>
-    <row r="41" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="18">
+    <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="18">
         <v>2022</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D42" s="19">
         <v>607150</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="19">
         <v>596005</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="19">
         <v>524</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G42" s="19">
         <v>55683</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H42" s="19">
         <v>9107</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I42" s="19">
         <v>3044</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J42" s="19">
         <v>77</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K42" s="19">
         <v>1424</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L42" s="19">
         <v>1789</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M42" s="19">
         <v>54848</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N42" s="19">
         <v>3889</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O42" s="19">
         <v>31054</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P42" s="19">
         <v>18394</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q42" s="19">
         <v>35736</v>
       </c>
-      <c r="R41" s="19">
+      <c r="R42" s="19">
         <v>2573</v>
       </c>
-      <c r="S41" s="19">
+      <c r="S42" s="19">
         <v>45388</v>
       </c>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19">
+      <c r="T42" s="19"/>
+      <c r="U42" s="19">
         <v>112333</v>
       </c>
-      <c r="V41" s="19">
+      <c r="V42" s="19">
         <v>5355</v>
       </c>
-      <c r="W41" s="19">
+      <c r="W42" s="19">
         <v>4440</v>
       </c>
-      <c r="X41" s="19">
+      <c r="X42" s="19">
         <v>1030</v>
       </c>
-      <c r="Y41" s="19">
+      <c r="Y42" s="19">
         <v>10960</v>
       </c>
-      <c r="Z41" s="19">
+      <c r="Z42" s="19">
         <v>16</v>
       </c>
-      <c r="AA41" s="19">
+      <c r="AA42" s="19">
         <v>693</v>
       </c>
     </row>
-    <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="13">
+    <row r="43" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <v>606090</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <v>594443</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="14">
         <v>520</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <v>55717</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H43" s="14">
         <v>9091</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I43" s="14">
         <v>3021</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J43" s="14">
         <v>77</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K43" s="14">
         <v>1424</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L43" s="14">
         <v>1787</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M43" s="14">
         <v>54743</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N43" s="14">
         <v>3888</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O43" s="14">
         <v>30885</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P43" s="14">
         <v>18334</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q43" s="14">
         <v>35952</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R43" s="14">
         <v>2604</v>
       </c>
-      <c r="S42" s="14">
+      <c r="S43" s="14">
         <v>45157</v>
       </c>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14">
+      <c r="T43" s="14"/>
+      <c r="U43" s="14">
         <v>111857</v>
       </c>
-      <c r="V42" s="14">
+      <c r="V43" s="14">
         <v>5309</v>
       </c>
-      <c r="W42" s="14">
+      <c r="W43" s="14">
         <v>4400</v>
       </c>
-      <c r="X42" s="14">
+      <c r="X43" s="14">
         <v>957</v>
       </c>
-      <c r="Y42" s="14">
+      <c r="Y43" s="14">
         <v>10938</v>
       </c>
-      <c r="Z42" s="14">
+      <c r="Z43" s="14">
         <v>16</v>
       </c>
-      <c r="AA42" s="14">
+      <c r="AA43" s="14">
         <v>692</v>
       </c>
     </row>
-    <row r="43" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+    <row r="44" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>603380</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>591451</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>519</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44" s="11">
         <v>55656</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H44" s="11">
         <v>9054</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I44" s="11">
         <v>2985</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J44" s="11">
         <v>77</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K44" s="11">
         <v>1424</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L44" s="11">
         <v>1775</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M44" s="11">
         <v>54335</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N44" s="11">
         <v>3888</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O44" s="11">
         <v>30589</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P44" s="11">
         <v>18224</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q44" s="11">
         <v>35977</v>
       </c>
-      <c r="R43" s="11">
+      <c r="R44" s="11">
         <v>2594</v>
       </c>
-      <c r="S43" s="11">
+      <c r="S44" s="11">
         <v>44663</v>
       </c>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11">
+      <c r="T44" s="11"/>
+      <c r="U44" s="11">
         <v>110970</v>
       </c>
-      <c r="V43" s="11">
+      <c r="V44" s="11">
         <v>5249</v>
       </c>
-      <c r="W43" s="11">
+      <c r="W44" s="11">
         <v>4357</v>
       </c>
-      <c r="X43" s="11">
+      <c r="X44" s="11">
         <v>868</v>
       </c>
-      <c r="Y43" s="11">
+      <c r="Y44" s="11">
         <v>10873</v>
       </c>
-      <c r="Z43" s="11">
+      <c r="Z44" s="11">
         <v>16</v>
       </c>
-      <c r="AA43" s="11">
+      <c r="AA44" s="11">
         <v>692</v>
       </c>
     </row>
-    <row r="44" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="13">
+    <row r="45" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <v>602061</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>590200</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>520</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>55685</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="14">
         <v>8999</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I45" s="14">
         <v>2982</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J45" s="14">
         <v>77</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K45" s="14">
         <v>1424</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L45" s="14">
         <v>1768</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M45" s="14">
         <v>54086</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N45" s="14">
         <v>3885</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O45" s="14">
         <v>30303</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P45" s="14">
         <v>18211</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q45" s="14">
         <v>36050</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R45" s="14">
         <v>2611</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S45" s="14">
         <v>44484</v>
       </c>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14">
+      <c r="T45" s="14"/>
+      <c r="U45" s="14">
         <v>110396</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V45" s="14">
         <v>5205</v>
       </c>
-      <c r="W44" s="14">
+      <c r="W45" s="14">
         <v>4316</v>
       </c>
-      <c r="X44" s="14">
+      <c r="X45" s="14">
         <v>836</v>
       </c>
-      <c r="Y44" s="14">
+      <c r="Y45" s="14">
         <v>10858</v>
       </c>
-      <c r="Z44" s="14">
+      <c r="Z45" s="14">
         <v>16</v>
       </c>
-      <c r="AA44" s="14">
+      <c r="AA45" s="14">
         <v>689</v>
       </c>
     </row>
-    <row r="45" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+    <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>599199</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>586326</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>516</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>55678</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H46" s="11">
         <v>8883</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I46" s="11">
         <v>2962</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J46" s="11">
         <v>77</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K46" s="11">
         <v>1424</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L46" s="11">
         <v>1761</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M46" s="11">
         <v>53840</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N46" s="11">
         <v>3878</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O46" s="11">
         <v>30091</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P46" s="11">
         <v>18180</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q46" s="11">
         <v>35973</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R46" s="11">
         <v>2618</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S46" s="11">
         <v>43957</v>
       </c>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11">
+      <c r="T46" s="11"/>
+      <c r="U46" s="11">
         <v>110047</v>
       </c>
-      <c r="V45" s="11">
+      <c r="V46" s="11">
         <v>5137</v>
       </c>
-      <c r="W45" s="11">
+      <c r="W46" s="11">
         <v>4253</v>
       </c>
-      <c r="X45" s="11">
+      <c r="X46" s="11">
         <v>705</v>
       </c>
-      <c r="Y45" s="11">
+      <c r="Y46" s="11">
         <v>10790</v>
       </c>
-      <c r="Z45" s="11">
+      <c r="Z46" s="11">
         <v>16</v>
       </c>
-      <c r="AA45" s="11">
+      <c r="AA46" s="11">
         <v>686</v>
       </c>
     </row>
-    <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13">
+    <row r="47" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <v>597975</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <v>583854</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F47" s="14">
         <v>505</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <v>55668</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H47" s="14">
         <v>8821</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I47" s="14">
         <v>2977</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J47" s="14">
         <v>77</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K47" s="14">
         <v>1424</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L47" s="14">
         <v>1753</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M47" s="14">
         <v>53278</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N47" s="14">
         <v>3892</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O47" s="14">
         <v>29694</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P47" s="14">
         <v>18180</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q47" s="14">
         <v>35973</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R47" s="14">
         <v>2605</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S47" s="14">
         <v>42961</v>
       </c>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14">
+      <c r="T47" s="14"/>
+      <c r="U47" s="14">
         <v>138152</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V47" s="14">
         <v>6095</v>
       </c>
-      <c r="W46" s="14">
+      <c r="W47" s="14">
         <v>4045</v>
       </c>
-      <c r="X46" s="14">
+      <c r="X47" s="14">
         <v>666</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Y47" s="14">
         <v>10713</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="Z47" s="14">
         <v>17</v>
       </c>
-      <c r="AA46" s="14">
+      <c r="AA47" s="14">
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+    <row r="48" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>594590</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>580812</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>505</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>55750</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H48" s="11">
         <v>8821</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I48" s="11">
         <v>2979</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J48" s="11">
         <v>77</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K48" s="11">
         <v>1424</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L48" s="11">
         <v>1754</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M48" s="11">
         <v>53393</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N48" s="11">
         <v>3894</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O48" s="11">
         <v>29714</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P48" s="11">
         <v>17962</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q48" s="11">
         <v>36188</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R48" s="11">
         <v>2604</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S48" s="11">
         <v>42900</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T48" s="11">
         <v>1</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U48" s="11">
         <v>109339</v>
       </c>
-      <c r="V47" s="11">
+      <c r="V48" s="11">
         <v>5068</v>
       </c>
-      <c r="W47" s="11">
+      <c r="W48" s="11">
         <v>4043</v>
       </c>
-      <c r="X47" s="11">
+      <c r="X48" s="11">
         <v>666</v>
       </c>
-      <c r="Y47" s="11">
+      <c r="Y48" s="11">
         <v>10697</v>
       </c>
-      <c r="Z47" s="11">
+      <c r="Z48" s="11">
         <v>17</v>
       </c>
-      <c r="AA47" s="11">
+      <c r="AA48" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="48" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="13">
+    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <v>593307</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>578970</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>511</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <v>55681</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H49" s="14">
         <v>8835</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="14">
         <v>2976</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J49" s="14">
         <v>77</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="14">
         <v>1424</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L49" s="14">
         <v>1750</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M49" s="14">
         <v>53077</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N49" s="14">
         <v>3889</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O49" s="14">
         <v>29454</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P49" s="14">
         <v>20219</v>
       </c>
-      <c r="Q48" s="14">
+      <c r="Q49" s="14">
         <v>37753</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R49" s="14">
         <v>2598</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S49" s="14">
         <v>42432</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T49" s="14">
         <v>1</v>
       </c>
-      <c r="U48" s="14">
+      <c r="U49" s="14">
         <v>109131</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V49" s="14">
         <v>4950</v>
       </c>
-      <c r="W48" s="14">
+      <c r="W49" s="14">
         <v>4018</v>
       </c>
-      <c r="X48" s="14">
+      <c r="X49" s="14">
         <v>650</v>
       </c>
-      <c r="Y48" s="14">
+      <c r="Y49" s="14">
         <v>10710</v>
       </c>
-      <c r="Z48" s="14">
+      <c r="Z49" s="14">
         <v>17</v>
       </c>
-      <c r="AA48" s="14">
+      <c r="AA49" s="14">
         <v>680</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+    <row r="50" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>590245</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>576050</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>510</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>55725</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H50" s="11">
         <v>8835</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I50" s="11">
         <v>2957</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J50" s="11">
         <v>77</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K50" s="11">
         <v>1424</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L50" s="11">
         <v>1740</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M50" s="11">
         <v>52924</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N50" s="11">
         <v>3886</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O50" s="11">
         <v>29218</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P50" s="11">
         <v>17867</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="Q50" s="11">
         <v>36460</v>
       </c>
-      <c r="R49" s="11">
+      <c r="R50" s="11">
         <v>2606</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S50" s="11">
         <v>42065</v>
       </c>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11">
+      <c r="T50" s="11"/>
+      <c r="U50" s="11">
         <v>108383</v>
       </c>
-      <c r="V49" s="11">
+      <c r="V50" s="11">
         <v>4897</v>
       </c>
-      <c r="W49" s="11">
+      <c r="W50" s="11">
         <v>3940</v>
       </c>
-      <c r="X49" s="11">
+      <c r="X50" s="11">
         <v>634</v>
       </c>
-      <c r="Y49" s="11">
+      <c r="Y50" s="11">
         <v>10660</v>
       </c>
-      <c r="Z49" s="11">
+      <c r="Z50" s="11">
         <v>17</v>
       </c>
-      <c r="AA49" s="11">
+      <c r="AA50" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="50" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="13">
+    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <v>588077</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="14">
         <v>573877</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>509</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <v>55905</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H51" s="14">
         <v>8876</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I51" s="14">
         <v>2941</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J51" s="14">
         <v>77</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K51" s="14">
         <v>1424</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L51" s="14">
         <v>1741</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M51" s="14">
         <v>52732</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N51" s="14">
         <v>3884</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O51" s="14">
         <v>29115</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P51" s="14">
         <v>17854</v>
       </c>
-      <c r="Q50" s="14">
+      <c r="Q51" s="14">
         <v>36552</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R51" s="14">
         <v>2596</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S51" s="14">
         <v>41550</v>
       </c>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14">
+      <c r="T51" s="14"/>
+      <c r="U51" s="14">
         <v>107848</v>
       </c>
-      <c r="V50" s="14">
+      <c r="V51" s="14">
         <v>4861</v>
       </c>
-      <c r="W50" s="14">
+      <c r="W51" s="14">
         <v>3840</v>
       </c>
-      <c r="X50" s="14">
+      <c r="X51" s="14">
         <v>623</v>
       </c>
-      <c r="Y50" s="14">
+      <c r="Y51" s="14">
         <v>10625</v>
       </c>
-      <c r="Z50" s="14">
+      <c r="Z51" s="14">
         <v>17</v>
       </c>
-      <c r="AA50" s="14">
+      <c r="AA51" s="14">
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>586093</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>571129</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>508</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>56021</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H52" s="11">
         <v>8878</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I52" s="11">
         <v>2934</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J52" s="11">
         <v>77</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K52" s="11">
         <v>1424</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L52" s="11">
         <v>1732</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M52" s="11">
         <v>52504</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N52" s="11">
         <v>3883</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O52" s="11">
         <v>29014</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P52" s="11">
         <v>17887</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q52" s="11">
         <v>36498</v>
       </c>
-      <c r="R51" s="11">
+      <c r="R52" s="11">
         <v>2578</v>
       </c>
-      <c r="S51" s="11">
+      <c r="S52" s="11">
         <v>40750</v>
       </c>
-      <c r="T51" s="11">
+      <c r="T52" s="11">
         <v>0</v>
       </c>
-      <c r="U51" s="11">
+      <c r="U52" s="11">
         <v>107480</v>
       </c>
-      <c r="V51" s="11">
+      <c r="V52" s="11">
         <v>4839</v>
       </c>
-      <c r="W51" s="11">
+      <c r="W52" s="11">
         <v>3789</v>
       </c>
-      <c r="X51" s="11">
+      <c r="X52" s="11">
         <v>621</v>
       </c>
-      <c r="Y51" s="11">
+      <c r="Y52" s="11">
         <v>10600</v>
       </c>
-      <c r="Z51" s="11">
+      <c r="Z52" s="11">
         <v>17</v>
       </c>
-      <c r="AA51" s="11">
+      <c r="AA52" s="11">
         <v>678</v>
       </c>
     </row>
-    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="13">
+    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <v>583440</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>567677</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>507</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <v>56059</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>8871</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I53" s="14">
         <v>2921</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J53" s="14">
         <v>77</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K53" s="14">
         <v>1424</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L53" s="14">
         <v>1728</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M53" s="14">
         <v>52301</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N53" s="14">
         <v>3880</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O53" s="14">
         <v>28867</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P53" s="14">
         <v>17889</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q53" s="14">
         <v>36421</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R53" s="14">
         <v>2569</v>
       </c>
-      <c r="S52" s="14">
+      <c r="S53" s="14">
         <v>39851</v>
       </c>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14">
+      <c r="T53" s="14"/>
+      <c r="U53" s="14">
         <v>106898</v>
       </c>
-      <c r="V52" s="14">
+      <c r="V53" s="14">
         <v>4801</v>
       </c>
-      <c r="W52" s="14">
+      <c r="W53" s="14">
         <v>3689</v>
       </c>
-      <c r="X52" s="14">
+      <c r="X53" s="14">
         <v>585</v>
       </c>
-      <c r="Y52" s="14">
+      <c r="Y53" s="14">
         <v>10566</v>
       </c>
-      <c r="Z52" s="14">
+      <c r="Z53" s="14">
         <v>17</v>
       </c>
-      <c r="AA52" s="14">
+      <c r="AA53" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="18">
+    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="18">
         <v>2021</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D54" s="19">
         <v>581299</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="19">
         <v>565156</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F54" s="19">
         <v>507</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G54" s="19">
         <v>56230</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H54" s="19">
         <v>8897</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I54" s="19">
         <v>2930</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J54" s="19">
         <v>77</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K54" s="19">
         <v>1424</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L54" s="19">
         <v>1727</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M54" s="19">
         <v>52149</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N54" s="19">
         <v>3874</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O54" s="19">
         <v>28827</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P54" s="19">
         <v>17957</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q54" s="19">
         <v>36403</v>
       </c>
-      <c r="R53" s="19">
+      <c r="R54" s="19">
         <v>2555</v>
       </c>
-      <c r="S53" s="19">
+      <c r="S54" s="19">
         <v>39272</v>
       </c>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19">
+      <c r="T54" s="19"/>
+      <c r="U54" s="19">
         <v>106698</v>
       </c>
-      <c r="V53" s="19">
+      <c r="V54" s="19">
         <v>4780</v>
       </c>
-      <c r="W53" s="19">
+      <c r="W54" s="19">
         <v>3642</v>
       </c>
-      <c r="X53" s="19">
+      <c r="X54" s="19">
         <v>578</v>
       </c>
-      <c r="Y53" s="19">
+      <c r="Y54" s="19">
         <v>10557</v>
       </c>
-      <c r="Z53" s="19">
+      <c r="Z54" s="19">
         <v>17</v>
       </c>
-      <c r="AA53" s="19">
+      <c r="AA54" s="19">
         <v>671</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="13">
+    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <v>580035</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E55" s="14">
         <v>563400</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F55" s="14">
         <v>505</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <v>56274</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H55" s="14">
         <v>8916</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I55" s="14">
         <v>2933</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J55" s="14">
         <v>77</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K55" s="14">
         <v>1424</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L55" s="14">
         <v>1736</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M55" s="14">
         <v>52012</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N55" s="14">
         <v>3877</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O55" s="14">
         <v>28815</v>
       </c>
-      <c r="P54" s="14">
+      <c r="P55" s="14">
         <v>18007</v>
       </c>
-      <c r="Q54" s="14">
+      <c r="Q55" s="14">
         <v>36384</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R55" s="14">
         <v>2551</v>
       </c>
-      <c r="S54" s="14">
+      <c r="S55" s="14">
         <v>38799</v>
       </c>
-      <c r="T54" s="14">
+      <c r="T55" s="14">
         <v>0</v>
       </c>
-      <c r="U54" s="14">
+      <c r="U55" s="14">
         <v>106486</v>
       </c>
-      <c r="V54" s="14">
+      <c r="V55" s="14">
         <v>4754</v>
       </c>
-      <c r="W54" s="14">
+      <c r="W55" s="14">
         <v>3612</v>
       </c>
-      <c r="X54" s="14">
+      <c r="X55" s="14">
         <v>569</v>
       </c>
-      <c r="Y54" s="14">
+      <c r="Y55" s="14">
         <v>10542</v>
       </c>
-      <c r="Z54" s="14">
+      <c r="Z55" s="14">
         <v>17</v>
       </c>
-      <c r="AA54" s="14">
+      <c r="AA55" s="14">
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>576835</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>560383</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>501</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>56253</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H56" s="11">
         <v>8958</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I56" s="11">
         <v>2929</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J56" s="11">
         <v>77</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K56" s="11">
         <v>1424</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L56" s="11">
         <v>1734</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M56" s="11">
         <v>51472</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N56" s="11">
         <v>3876</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O56" s="11">
         <v>28607</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P56" s="11">
         <v>17914</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="Q56" s="11">
         <v>36355</v>
       </c>
-      <c r="R55" s="11">
+      <c r="R56" s="11">
         <v>2550</v>
       </c>
-      <c r="S55" s="11">
+      <c r="S56" s="11">
         <v>37952</v>
       </c>
-      <c r="T55" s="11">
+      <c r="T56" s="11">
         <v>0</v>
       </c>
-      <c r="U55" s="11">
+      <c r="U56" s="11">
         <v>106174</v>
       </c>
-      <c r="V55" s="11">
+      <c r="V56" s="11">
         <v>4716</v>
       </c>
-      <c r="W55" s="11">
+      <c r="W56" s="11">
         <v>3542</v>
       </c>
-      <c r="X55" s="11">
+      <c r="X56" s="11">
         <v>553</v>
       </c>
-      <c r="Y55" s="11">
+      <c r="Y56" s="11">
         <v>10450</v>
       </c>
-      <c r="Z55" s="11">
+      <c r="Z56" s="11">
         <v>17</v>
       </c>
-      <c r="AA55" s="11">
+      <c r="AA56" s="11">
         <v>665</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="13">
+    <row r="57" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <v>574056</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="14">
         <v>556941</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="14">
         <v>499</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <v>56245</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="14">
         <v>8933</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="14">
         <v>2902</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J57" s="14">
         <v>77</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K57" s="14">
         <v>1424</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L57" s="14">
         <v>1739</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M57" s="14">
         <v>51341</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N57" s="14">
         <v>3877</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O57" s="14">
         <v>28460</v>
       </c>
-      <c r="P56" s="14">
+      <c r="P57" s="14">
         <v>17784</v>
       </c>
-      <c r="Q56" s="14">
+      <c r="Q57" s="14">
         <v>36186</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R57" s="14">
         <v>2539</v>
       </c>
-      <c r="S56" s="14">
+      <c r="S57" s="14">
         <v>37095</v>
       </c>
-      <c r="T56" s="14">
+      <c r="T57" s="14">
         <v>1</v>
       </c>
-      <c r="U56" s="14">
+      <c r="U57" s="14">
         <v>105781</v>
       </c>
-      <c r="V56" s="14">
+      <c r="V57" s="14">
         <v>4675</v>
       </c>
-      <c r="W56" s="14">
+      <c r="W57" s="14">
         <v>3405</v>
       </c>
-      <c r="X56" s="14">
+      <c r="X57" s="14">
         <v>535</v>
       </c>
-      <c r="Y56" s="14">
+      <c r="Y57" s="14">
         <v>10417</v>
       </c>
-      <c r="Z56" s="14">
+      <c r="Z57" s="14">
         <v>17</v>
       </c>
-      <c r="AA56" s="14">
+      <c r="AA57" s="14">
         <v>666</v>
       </c>
     </row>
-    <row r="57" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>571367</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>552611</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>495</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>56341</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H58" s="11">
         <v>9019</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I58" s="11">
         <v>2941</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J58" s="11">
         <v>77</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K58" s="11">
         <v>1424</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L58" s="11">
         <v>1746</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M58" s="11">
         <v>51196</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N58" s="11">
         <v>3879</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O58" s="11">
         <v>28351</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P58" s="11">
         <v>17563</v>
       </c>
-      <c r="Q57" s="11">
+      <c r="Q58" s="11">
         <v>35861</v>
       </c>
-      <c r="R57" s="11">
+      <c r="R58" s="11">
         <v>2521</v>
       </c>
-      <c r="S57" s="11">
+      <c r="S58" s="11">
         <v>36352</v>
       </c>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11">
+      <c r="T58" s="11"/>
+      <c r="U58" s="11">
         <v>105315</v>
       </c>
-      <c r="V57" s="11">
+      <c r="V58" s="11">
         <v>4640</v>
       </c>
-      <c r="W57" s="11">
+      <c r="W58" s="11">
         <v>3253</v>
       </c>
-      <c r="X57" s="11">
+      <c r="X58" s="11">
         <v>533</v>
       </c>
-      <c r="Y57" s="11">
+      <c r="Y58" s="11">
         <v>10374</v>
       </c>
-      <c r="Z57" s="11">
+      <c r="Z58" s="11">
         <v>17</v>
       </c>
-      <c r="AA57" s="11">
+      <c r="AA58" s="11">
         <v>666</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="13">
+    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <v>569174</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E59" s="14">
         <v>549631</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F59" s="14">
         <v>496</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <v>56348</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>9127</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <v>2959</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J59" s="14">
         <v>77</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K59" s="14">
         <v>1424</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L59" s="14">
         <v>1745</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M59" s="14">
         <v>51089</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N59" s="14">
         <v>3866</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O59" s="14">
         <v>28370</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P59" s="14">
         <v>17421</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="Q59" s="14">
         <v>35866</v>
       </c>
-      <c r="R58" s="14">
+      <c r="R59" s="14">
         <v>2504</v>
       </c>
-      <c r="S58" s="14">
+      <c r="S59" s="14">
         <v>35789</v>
       </c>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14">
+      <c r="T59" s="14"/>
+      <c r="U59" s="14">
         <v>104940</v>
       </c>
-      <c r="V58" s="14">
+      <c r="V59" s="14">
         <v>4612</v>
       </c>
-      <c r="W58" s="14">
+      <c r="W59" s="14">
         <v>3208</v>
       </c>
-      <c r="X58" s="14">
+      <c r="X59" s="14">
         <v>503</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Y59" s="14">
         <v>10368</v>
       </c>
-      <c r="Z58" s="14">
+      <c r="Z59" s="14">
         <v>17</v>
       </c>
-      <c r="AA58" s="14">
+      <c r="AA59" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>567168</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>547540</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>498</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>56269</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H60" s="11">
         <v>9193</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I60" s="11">
         <v>2973</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J60" s="11">
         <v>77</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K60" s="11">
         <v>1424</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L60" s="11">
         <v>1747</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M60" s="11">
         <v>50966</v>
       </c>
-      <c r="N59" s="11">
+      <c r="N60" s="11">
         <v>3857</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O60" s="11">
         <v>28348</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P60" s="11">
         <v>17331</v>
       </c>
-      <c r="Q59" s="11">
+      <c r="Q60" s="11">
         <v>35832</v>
       </c>
-      <c r="R59" s="11">
+      <c r="R60" s="11">
         <v>2489</v>
       </c>
-      <c r="S59" s="11">
+      <c r="S60" s="11">
         <v>35300</v>
       </c>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11">
+      <c r="T60" s="11"/>
+      <c r="U60" s="11">
         <v>104554</v>
       </c>
-      <c r="V59" s="11">
+      <c r="V60" s="11">
         <v>4605</v>
       </c>
-      <c r="W59" s="11">
+      <c r="W60" s="11">
         <v>3183</v>
       </c>
-      <c r="X59" s="11">
+      <c r="X60" s="11">
         <v>491</v>
       </c>
-      <c r="Y59" s="11">
+      <c r="Y60" s="11">
         <v>10340</v>
       </c>
-      <c r="Z59" s="11">
+      <c r="Z60" s="11">
         <v>16</v>
       </c>
-      <c r="AA59" s="11">
+      <c r="AA60" s="11">
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="13">
+    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <v>566042</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E61" s="14">
         <v>545916</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>498</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <v>56291</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="14">
         <v>9187</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I61" s="14">
         <v>2980</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J61" s="14">
         <v>77</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="14">
         <v>1424</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L61" s="14">
         <v>1748</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M61" s="14">
         <v>50878</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N61" s="14">
         <v>3863</v>
       </c>
-      <c r="O60" s="14">
+      <c r="O61" s="14">
         <v>28349</v>
       </c>
-      <c r="P60" s="14">
+      <c r="P61" s="14">
         <v>17359</v>
       </c>
-      <c r="Q60" s="14">
+      <c r="Q61" s="14">
         <v>35902</v>
       </c>
-      <c r="R60" s="14">
+      <c r="R61" s="14">
         <v>2485</v>
       </c>
-      <c r="S60" s="14">
+      <c r="S61" s="14">
         <v>35117</v>
       </c>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14">
+      <c r="T61" s="14"/>
+      <c r="U61" s="14">
         <v>104123</v>
       </c>
-      <c r="V60" s="14">
+      <c r="V61" s="14">
         <v>4584</v>
       </c>
-      <c r="W60" s="14">
+      <c r="W61" s="14">
         <v>3179</v>
       </c>
-      <c r="X60" s="14">
+      <c r="X61" s="14">
         <v>489</v>
       </c>
-      <c r="Y60" s="14">
+      <c r="Y61" s="14">
         <v>10327</v>
       </c>
-      <c r="Z60" s="14">
+      <c r="Z61" s="14">
         <v>17</v>
       </c>
-      <c r="AA60" s="14">
+      <c r="AA61" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>565980</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>545400</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>499</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>56275</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H62" s="11">
         <v>9187</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I62" s="11">
         <v>2982</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J62" s="11">
         <v>77</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K62" s="11">
         <v>1424</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L62" s="11">
         <v>1755</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M62" s="11">
         <v>50805</v>
       </c>
-      <c r="N61" s="11">
+      <c r="N62" s="11">
         <v>3864</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O62" s="11">
         <v>28294</v>
       </c>
-      <c r="P61" s="11">
+      <c r="P62" s="11">
         <v>17361</v>
       </c>
-      <c r="Q61" s="11">
+      <c r="Q62" s="11">
         <v>36010</v>
       </c>
-      <c r="R61" s="11">
+      <c r="R62" s="11">
         <v>2485</v>
       </c>
-      <c r="S61" s="11">
+      <c r="S62" s="11">
         <v>34872</v>
       </c>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11">
+      <c r="T62" s="11"/>
+      <c r="U62" s="11">
         <v>104093</v>
       </c>
-      <c r="V61" s="11">
+      <c r="V62" s="11">
         <v>4584</v>
       </c>
-      <c r="W61" s="11">
+      <c r="W62" s="11">
         <v>3174</v>
       </c>
-      <c r="X61" s="11">
+      <c r="X62" s="11">
         <v>486</v>
       </c>
-      <c r="Y61" s="11">
+      <c r="Y62" s="11">
         <v>10322</v>
       </c>
-      <c r="Z61" s="11">
+      <c r="Z62" s="11">
         <v>17</v>
       </c>
-      <c r="AA61" s="11">
+      <c r="AA62" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="13">
+    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>565883</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>545244</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>499</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>56275</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H63" s="14">
         <v>9189</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="14">
         <v>2982</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J63" s="14">
         <v>77</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="14">
         <v>1424</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L63" s="14">
         <v>1755</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M63" s="14">
         <v>50796</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N63" s="14">
         <v>3864</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O63" s="14">
         <v>28297</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P63" s="14">
         <v>17361</v>
       </c>
-      <c r="Q62" s="14">
+      <c r="Q63" s="14">
         <v>36010</v>
       </c>
-      <c r="R62" s="14">
+      <c r="R63" s="14">
         <v>2485</v>
       </c>
-      <c r="S62" s="14">
+      <c r="S63" s="14">
         <v>34862</v>
       </c>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14">
+      <c r="T63" s="14"/>
+      <c r="U63" s="14">
         <v>104076</v>
       </c>
-      <c r="V62" s="14">
+      <c r="V63" s="14">
         <v>4584</v>
       </c>
-      <c r="W62" s="14">
+      <c r="W63" s="14">
         <v>3174</v>
       </c>
-      <c r="X62" s="14">
+      <c r="X63" s="14">
         <v>486</v>
       </c>
-      <c r="Y62" s="14">
+      <c r="Y63" s="14">
         <v>10322</v>
       </c>
-      <c r="Z62" s="14">
+      <c r="Z63" s="14">
         <v>17</v>
       </c>
-      <c r="AA62" s="14">
+      <c r="AA63" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+    <row r="64" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>565809</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>545128</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>499</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>56281</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H64" s="11">
         <v>9189</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I64" s="11">
         <v>2982</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J64" s="11">
         <v>77</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K64" s="11">
         <v>1424</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L64" s="11">
         <v>1755</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M64" s="11">
         <v>50794</v>
       </c>
-      <c r="N63" s="11">
+      <c r="N64" s="11">
         <v>3867</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O64" s="11">
         <v>28301</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P64" s="11">
         <v>17361</v>
       </c>
-      <c r="Q63" s="11">
+      <c r="Q64" s="11">
         <v>36010</v>
       </c>
-      <c r="R63" s="11">
+      <c r="R64" s="11">
         <v>2487</v>
       </c>
-      <c r="S63" s="11">
+      <c r="S64" s="11">
         <v>34874</v>
       </c>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11">
+      <c r="T64" s="11"/>
+      <c r="U64" s="11">
         <v>104084</v>
       </c>
-      <c r="V63" s="11">
+      <c r="V64" s="11">
         <v>4585</v>
       </c>
-      <c r="W63" s="11">
+      <c r="W64" s="11">
         <v>3174</v>
       </c>
-      <c r="X63" s="11">
+      <c r="X64" s="11">
         <v>486</v>
       </c>
-      <c r="Y63" s="11">
+      <c r="Y64" s="11">
         <v>10319</v>
       </c>
-      <c r="Z63" s="11">
+      <c r="Z64" s="11">
         <v>17</v>
       </c>
-      <c r="AA63" s="11">
+      <c r="AA64" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="64" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="13">
+    <row r="65" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <v>564089</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>542595</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>496</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>56248</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="14">
         <v>9180</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="14">
         <v>2964</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J65" s="14">
         <v>77</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K65" s="14">
         <v>1424</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L65" s="14">
         <v>1745</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M65" s="14">
         <v>50693</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N65" s="14">
         <v>3869</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O65" s="14">
         <v>28110</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P65" s="14">
         <v>16719</v>
       </c>
-      <c r="Q64" s="14">
+      <c r="Q65" s="14">
         <v>35910</v>
       </c>
-      <c r="R64" s="14">
+      <c r="R65" s="14">
         <v>2467</v>
       </c>
-      <c r="S64" s="14">
+      <c r="S65" s="14">
         <v>34546</v>
       </c>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14">
+      <c r="T65" s="14"/>
+      <c r="U65" s="14">
         <v>103491</v>
       </c>
-      <c r="V64" s="14">
+      <c r="V65" s="14">
         <v>4545</v>
       </c>
-      <c r="W64" s="14">
+      <c r="W65" s="14">
         <v>3124</v>
       </c>
-      <c r="X64" s="14">
+      <c r="X65" s="14">
         <v>480</v>
       </c>
-      <c r="Y64" s="14">
+      <c r="Y65" s="14">
         <v>10285</v>
       </c>
-      <c r="Z64" s="14">
+      <c r="Z65" s="14">
         <v>17</v>
       </c>
-      <c r="AA64" s="14">
+      <c r="AA65" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="65" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="18">
+    <row r="66" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="18">
         <v>2020</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D66" s="19">
         <v>562170</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="19">
         <v>539768</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="19">
         <v>496</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="19">
         <v>56222</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H66" s="19">
         <v>9165</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I66" s="19">
         <v>2963</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J66" s="19">
         <v>77</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K66" s="19">
         <v>1424</v>
       </c>
-      <c r="L65" s="19">
+      <c r="L66" s="19">
         <v>1747</v>
       </c>
-      <c r="M65" s="19">
+      <c r="M66" s="19">
         <v>50528</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N66" s="19">
         <v>3862</v>
       </c>
-      <c r="O65" s="19">
+      <c r="O66" s="19">
         <v>27916</v>
       </c>
-      <c r="P65" s="19">
+      <c r="P66" s="19">
         <v>16577</v>
       </c>
-      <c r="Q65" s="19">
+      <c r="Q66" s="19">
         <v>35720</v>
       </c>
-      <c r="R65" s="19">
+      <c r="R66" s="19">
         <v>2434</v>
       </c>
-      <c r="S65" s="19">
+      <c r="S66" s="19">
         <v>34311</v>
       </c>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19">
+      <c r="T66" s="19"/>
+      <c r="U66" s="19">
         <v>102764</v>
       </c>
-      <c r="V65" s="19">
+      <c r="V66" s="19">
         <v>4504</v>
       </c>
-      <c r="W65" s="19">
+      <c r="W66" s="19">
         <v>3103</v>
       </c>
-      <c r="X65" s="19">
+      <c r="X66" s="19">
         <v>461</v>
       </c>
-      <c r="Y65" s="19">
+      <c r="Y66" s="19">
         <v>10273</v>
       </c>
-      <c r="Z65" s="19">
+      <c r="Z66" s="19">
         <v>17</v>
       </c>
-      <c r="AA65" s="19">
+      <c r="AA66" s="19">
         <v>663</v>
       </c>
     </row>
-    <row r="66" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="13">
+    <row r="67" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <v>561061</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E67" s="14">
         <v>537813</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F67" s="14">
         <v>497</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <v>56256</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="14">
         <v>9149</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I67" s="14">
         <v>2965</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J67" s="14">
         <v>77</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K67" s="14">
         <v>1424</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L67" s="14">
         <v>1747</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M67" s="14">
         <v>50432</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N67" s="14">
         <v>3858</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O67" s="14">
         <v>27818</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P67" s="14">
         <v>16663</v>
       </c>
-      <c r="Q66" s="14">
+      <c r="Q67" s="14">
         <v>35664</v>
       </c>
-      <c r="R66" s="14">
+      <c r="R67" s="14">
         <v>2427</v>
       </c>
-      <c r="S66" s="14">
+      <c r="S67" s="14">
         <v>33984</v>
       </c>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14">
+      <c r="T67" s="14"/>
+      <c r="U67" s="14">
         <v>102021</v>
       </c>
-      <c r="V66" s="14">
+      <c r="V67" s="14">
         <v>4466</v>
       </c>
-      <c r="W66" s="14">
+      <c r="W67" s="14">
         <v>3102</v>
       </c>
-      <c r="X66" s="14">
+      <c r="X67" s="14">
         <v>462</v>
       </c>
-      <c r="Y66" s="14">
+      <c r="Y67" s="14">
         <v>10222</v>
       </c>
-      <c r="Z66" s="14">
+      <c r="Z67" s="14">
         <v>17</v>
       </c>
-      <c r="AA66" s="14">
+      <c r="AA67" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="67" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+    <row r="68" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>558626</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>535724</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>493</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G68" s="11">
         <v>55998</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H68" s="11">
         <v>9075</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I68" s="11">
         <v>2960</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J68" s="11">
         <v>77</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K68" s="11">
         <v>1424</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L68" s="11">
         <v>1718</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M68" s="11">
         <v>50135</v>
       </c>
-      <c r="N67" s="11">
+      <c r="N68" s="11">
         <v>3846</v>
       </c>
-      <c r="O67" s="11">
+      <c r="O68" s="11">
         <v>27391</v>
       </c>
-      <c r="P67" s="11">
+      <c r="P68" s="11">
         <v>16776</v>
       </c>
-      <c r="Q67" s="11">
+      <c r="Q68" s="11">
         <v>35622</v>
       </c>
-      <c r="R67" s="11">
+      <c r="R68" s="11">
         <v>2417</v>
       </c>
-      <c r="S67" s="11">
+      <c r="S68" s="11">
         <v>33833</v>
       </c>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11">
+      <c r="T68" s="11"/>
+      <c r="U68" s="11">
         <v>101688</v>
       </c>
-      <c r="V67" s="11">
+      <c r="V68" s="11">
         <v>4382</v>
       </c>
-      <c r="W67" s="11">
+      <c r="W68" s="11">
         <v>3068</v>
       </c>
-      <c r="X67" s="11">
+      <c r="X68" s="11">
         <v>453</v>
       </c>
-      <c r="Y67" s="11">
+      <c r="Y68" s="11">
         <v>10134</v>
       </c>
-      <c r="Z67" s="11">
+      <c r="Z68" s="11">
         <v>17</v>
       </c>
-      <c r="AA67" s="11">
+      <c r="AA68" s="11">
         <v>660</v>
       </c>
     </row>
-    <row r="68" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="13">
+    <row r="69" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <v>556346</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>533069</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="14">
         <v>492</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>55871</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="14">
         <v>9008</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="14">
         <v>2938</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J69" s="14">
         <v>77</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K69" s="14">
         <v>1424</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L69" s="14">
         <v>1711</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M69" s="14">
         <v>49943</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N69" s="14">
         <v>3804</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O69" s="14">
         <v>27062</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P69" s="14">
         <v>16772</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q69" s="14">
         <v>35650</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R69" s="14">
         <v>2402</v>
       </c>
-      <c r="S68" s="14">
+      <c r="S69" s="14">
         <v>33575</v>
       </c>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14">
+      <c r="T69" s="14"/>
+      <c r="U69" s="14">
         <v>101067</v>
       </c>
-      <c r="V68" s="14">
+      <c r="V69" s="14">
         <v>4305</v>
       </c>
-      <c r="W68" s="14">
+      <c r="W69" s="14">
         <v>3036</v>
       </c>
-      <c r="X68" s="14">
+      <c r="X69" s="14">
         <v>442</v>
       </c>
-      <c r="Y68" s="14">
+      <c r="Y69" s="14">
         <v>10077</v>
       </c>
-      <c r="Z68" s="14">
+      <c r="Z69" s="14">
         <v>17</v>
       </c>
-      <c r="AA68" s="14">
+      <c r="AA69" s="14">
         <v>658</v>
       </c>
     </row>
-    <row r="69" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+    <row r="70" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>519860</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>505944</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>449</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>49255</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H70" s="11">
         <v>6176</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I70" s="11">
         <v>2186</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J70" s="11">
         <v>73</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K70" s="11">
         <v>1413</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L70" s="11">
         <v>1713</v>
       </c>
-      <c r="M69" s="11">
+      <c r="M70" s="11">
         <v>43268</v>
       </c>
-      <c r="N69" s="11">
+      <c r="N70" s="11">
         <v>3801</v>
       </c>
-      <c r="O69" s="11">
+      <c r="O70" s="11">
         <v>26781</v>
       </c>
-      <c r="P69" s="11">
+      <c r="P70" s="11">
         <v>14771</v>
       </c>
-      <c r="Q69" s="11">
+      <c r="Q70" s="11">
         <v>34056</v>
       </c>
-      <c r="R69" s="11">
+      <c r="R70" s="11">
         <v>2388</v>
       </c>
-      <c r="S69" s="11">
+      <c r="S70" s="11">
         <v>33239</v>
       </c>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11">
+      <c r="T70" s="11"/>
+      <c r="U70" s="11">
         <v>100098</v>
       </c>
-      <c r="V69" s="11">
+      <c r="V70" s="11">
         <v>4230</v>
       </c>
-      <c r="W69" s="11">
+      <c r="W70" s="11">
         <v>2983</v>
       </c>
-      <c r="X69" s="11">
+      <c r="X70" s="11">
         <v>435</v>
       </c>
-      <c r="Y69" s="11">
+      <c r="Y70" s="11">
         <v>10048</v>
       </c>
-      <c r="Z69" s="11">
+      <c r="Z70" s="11">
         <v>17</v>
       </c>
-      <c r="AA69" s="11">
+      <c r="AA70" s="11">
         <v>655</v>
       </c>
     </row>
-    <row r="70" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13">
+    <row r="71" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <v>517666</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E71" s="14">
         <v>503486</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F71" s="14">
         <v>449</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <v>49171</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H71" s="14">
         <v>6156</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I71" s="14">
         <v>2183</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J71" s="14">
         <v>73</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K71" s="14">
         <v>1413</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L71" s="14">
         <v>1710</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M71" s="14">
         <v>43104</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N71" s="14">
         <v>3785</v>
       </c>
-      <c r="O70" s="14">
+      <c r="O71" s="14">
         <v>26582</v>
       </c>
-      <c r="P70" s="14">
+      <c r="P71" s="14">
         <v>14832</v>
       </c>
-      <c r="Q70" s="14">
+      <c r="Q71" s="14">
         <v>34205</v>
       </c>
-      <c r="R70" s="14">
+      <c r="R71" s="14">
         <v>2384</v>
       </c>
-      <c r="S70" s="14">
+      <c r="S71" s="14">
         <v>33006</v>
       </c>
-      <c r="T70" s="14">
+      <c r="T71" s="14">
         <v>0</v>
       </c>
-      <c r="U70" s="14">
+      <c r="U71" s="14">
         <v>99490</v>
       </c>
-      <c r="V70" s="14">
+      <c r="V71" s="14">
         <v>4173</v>
       </c>
-      <c r="W70" s="14">
+      <c r="W71" s="14">
         <v>2926</v>
       </c>
-      <c r="X70" s="14">
+      <c r="X71" s="14">
         <v>420</v>
       </c>
-      <c r="Y70" s="14">
+      <c r="Y71" s="14">
         <v>10026</v>
       </c>
-      <c r="Z70" s="14">
+      <c r="Z71" s="14">
         <v>17</v>
       </c>
-      <c r="AA70" s="14">
+      <c r="AA71" s="14">
         <v>653</v>
       </c>
     </row>
-    <row r="71" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+    <row r="72" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>514393</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>498050</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>446</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>49300</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H72" s="11">
         <v>6708</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I72" s="11">
         <v>2319</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J72" s="11">
         <v>74</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K72" s="11">
         <v>1417</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L72" s="11">
         <v>1686</v>
       </c>
-      <c r="M71" s="11">
+      <c r="M72" s="11">
         <v>43264</v>
       </c>
-      <c r="N71" s="11">
+      <c r="N72" s="11">
         <v>3716</v>
       </c>
-      <c r="O71" s="11">
+      <c r="O72" s="11">
         <v>25831</v>
       </c>
-      <c r="P71" s="11">
+      <c r="P72" s="11">
         <v>14426</v>
       </c>
-      <c r="Q71" s="11">
+      <c r="Q72" s="11">
         <v>33360</v>
       </c>
-      <c r="R71" s="11">
+      <c r="R72" s="11">
         <v>2308</v>
       </c>
-      <c r="S71" s="11">
+      <c r="S72" s="11">
         <v>31727</v>
       </c>
-      <c r="T71" s="11">
+      <c r="T72" s="11">
         <v>1</v>
       </c>
-      <c r="U71" s="11">
+      <c r="U72" s="11">
         <v>98049</v>
       </c>
-      <c r="V71" s="11">
+      <c r="V72" s="11">
         <v>4070</v>
       </c>
-      <c r="W71" s="11">
+      <c r="W72" s="11">
         <v>2777</v>
       </c>
-      <c r="X71" s="11">
+      <c r="X72" s="11">
         <v>374</v>
       </c>
-      <c r="Y71" s="11">
+      <c r="Y72" s="11">
         <v>9942</v>
       </c>
-      <c r="Z71" s="11">
+      <c r="Z72" s="11">
         <v>17</v>
       </c>
-      <c r="AA71" s="11">
+      <c r="AA72" s="11">
         <v>647</v>
       </c>
     </row>
-    <row r="72" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="13">
+    <row r="73" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <v>512802</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E73" s="14">
         <v>497796</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F73" s="14">
         <v>444</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <v>49053</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H73" s="14">
         <v>6156</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I73" s="14">
         <v>2222</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J73" s="14">
         <v>73</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K73" s="14">
         <v>1413</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L73" s="14">
         <v>1694</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M73" s="14">
         <v>42573</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N73" s="14">
         <v>3733</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O73" s="14">
         <v>25944</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P73" s="14">
         <v>14578</v>
       </c>
-      <c r="Q72" s="14">
+      <c r="Q73" s="14">
         <v>33417</v>
       </c>
-      <c r="R72" s="14">
+      <c r="R73" s="14">
         <v>2333</v>
       </c>
-      <c r="S72" s="14">
+      <c r="S73" s="14">
         <v>32236</v>
       </c>
-      <c r="T72" s="14">
+      <c r="T73" s="14">
         <v>0</v>
       </c>
-      <c r="U72" s="14">
+      <c r="U73" s="14">
         <v>98138</v>
       </c>
-      <c r="V72" s="14">
+      <c r="V73" s="14">
         <v>4072</v>
       </c>
-      <c r="W72" s="14">
+      <c r="W73" s="14">
         <v>2785</v>
       </c>
-      <c r="X72" s="14">
+      <c r="X73" s="14">
         <v>376</v>
       </c>
-      <c r="Y72" s="14">
+      <c r="Y73" s="14">
         <v>9919</v>
       </c>
-      <c r="Z72" s="14">
+      <c r="Z73" s="14">
         <v>17</v>
       </c>
-      <c r="AA72" s="14">
+      <c r="AA73" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="73" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+    <row r="74" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>506850</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>499239</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>454</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>48604</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <v>7085</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I74" s="11">
         <v>2531</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J74" s="11">
         <v>78</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K74" s="11">
         <v>239</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L74" s="11">
         <v>2615</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M74" s="11">
         <v>39728</v>
       </c>
-      <c r="N73" s="11">
+      <c r="N74" s="11">
         <v>4268</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O74" s="11">
         <v>28174</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P74" s="11">
         <v>16305</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="Q74" s="11">
         <v>35097</v>
       </c>
-      <c r="R73" s="11">
+      <c r="R74" s="11">
         <v>2307</v>
       </c>
-      <c r="S73" s="11">
+      <c r="S74" s="11">
         <v>31892</v>
       </c>
-      <c r="T73" s="11">
+      <c r="T74" s="11">
         <v>1</v>
       </c>
-      <c r="U73" s="11">
+      <c r="U74" s="11">
         <v>98003</v>
       </c>
-      <c r="V73" s="11">
+      <c r="V74" s="11">
         <v>3983</v>
       </c>
-      <c r="W73" s="11">
+      <c r="W74" s="11">
         <v>2752</v>
       </c>
-      <c r="X73" s="11">
+      <c r="X74" s="11">
         <v>374</v>
       </c>
-      <c r="Y73" s="11">
+      <c r="Y74" s="11">
         <v>11506</v>
       </c>
-      <c r="Z73" s="11">
+      <c r="Z74" s="11">
         <v>12</v>
       </c>
-      <c r="AA73" s="11">
+      <c r="AA74" s="11">
         <v>810</v>
       </c>
     </row>
-    <row r="74" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="13">
+    <row r="75" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <v>504046</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E75" s="14">
         <v>496323</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F75" s="14">
         <v>451</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <v>48409</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="14">
         <v>7032</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="14">
         <v>2531</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J75" s="14">
         <v>78</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K75" s="14">
         <v>239</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L75" s="14">
         <v>2596</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M75" s="14">
         <v>39439</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N75" s="14">
         <v>4234</v>
       </c>
-      <c r="O74" s="14">
+      <c r="O75" s="14">
         <v>27848</v>
       </c>
-      <c r="P74" s="14">
+      <c r="P75" s="14">
         <v>16180</v>
       </c>
-      <c r="Q74" s="14">
+      <c r="Q75" s="14">
         <v>34956</v>
       </c>
-      <c r="R74" s="14">
+      <c r="R75" s="14">
         <v>2284</v>
       </c>
-      <c r="S74" s="14">
+      <c r="S75" s="14">
         <v>31444</v>
       </c>
-      <c r="T74" s="14">
+      <c r="T75" s="14">
         <v>0</v>
       </c>
-      <c r="U74" s="14">
+      <c r="U75" s="14">
         <v>97190</v>
       </c>
-      <c r="V74" s="14">
+      <c r="V75" s="14">
         <v>3921</v>
       </c>
-      <c r="W74" s="14">
+      <c r="W75" s="14">
         <v>2705</v>
       </c>
-      <c r="X74" s="14">
+      <c r="X75" s="14">
         <v>364</v>
       </c>
-      <c r="Y74" s="14">
+      <c r="Y75" s="14">
         <v>11482</v>
       </c>
-      <c r="Z74" s="14">
+      <c r="Z75" s="14">
         <v>12</v>
       </c>
-      <c r="AA74" s="14">
+      <c r="AA75" s="14">
         <v>807</v>
       </c>
     </row>
-    <row r="75" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+    <row r="76" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>501424</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>493291</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>452</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>48079</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H76" s="11">
         <v>7029</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I76" s="11">
         <v>2509</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J76" s="11">
         <v>77</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K76" s="11">
         <v>239</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L76" s="11">
         <v>2577</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M76" s="11">
         <v>39178</v>
       </c>
-      <c r="N75" s="11">
+      <c r="N76" s="11">
         <v>4173</v>
       </c>
-      <c r="O75" s="11">
+      <c r="O76" s="11">
         <v>27415</v>
       </c>
-      <c r="P75" s="11">
+      <c r="P76" s="11">
         <v>15815</v>
       </c>
-      <c r="Q75" s="11">
+      <c r="Q76" s="11">
         <v>34582</v>
       </c>
-      <c r="R75" s="11">
+      <c r="R76" s="11">
         <v>2266</v>
       </c>
-      <c r="S75" s="11">
+      <c r="S76" s="11">
         <v>30934</v>
       </c>
-      <c r="T75" s="11">
+      <c r="T76" s="11">
         <v>1</v>
       </c>
-      <c r="U75" s="11">
+      <c r="U76" s="11">
         <v>96704</v>
       </c>
-      <c r="V75" s="11">
+      <c r="V76" s="11">
         <v>3869</v>
       </c>
-      <c r="W75" s="11">
+      <c r="W76" s="11">
         <v>2699</v>
       </c>
-      <c r="X75" s="11">
+      <c r="X76" s="11">
         <v>360</v>
       </c>
-      <c r="Y75" s="11">
+      <c r="Y76" s="11">
         <v>11467</v>
       </c>
-      <c r="Z75" s="11">
+      <c r="Z76" s="11">
         <v>12</v>
       </c>
-      <c r="AA75" s="11">
+      <c r="AA76" s="11">
         <v>808</v>
       </c>
     </row>
-    <row r="76" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="13">
+    <row r="77" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <v>499221</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E77" s="14">
         <v>490327</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>454</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <v>47999</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H77" s="14">
         <v>7029</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <v>2518</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J77" s="14">
         <v>77</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K77" s="14">
         <v>239</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L77" s="14">
         <v>2576</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M77" s="14">
         <v>38838</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N77" s="14">
         <v>4155</v>
       </c>
-      <c r="O76" s="14">
+      <c r="O77" s="14">
         <v>27148</v>
       </c>
-      <c r="P76" s="14">
+      <c r="P77" s="14">
         <v>15484</v>
       </c>
-      <c r="Q76" s="14">
+      <c r="Q77" s="14">
         <v>34221</v>
       </c>
-      <c r="R76" s="14">
+      <c r="R77" s="14">
         <v>2252</v>
       </c>
-      <c r="S76" s="14">
+      <c r="S77" s="14">
         <v>30634</v>
       </c>
-      <c r="T76" s="14">
+      <c r="T77" s="14">
         <v>1</v>
       </c>
-      <c r="U76" s="14">
+      <c r="U77" s="14">
         <v>96127</v>
       </c>
-      <c r="V76" s="14">
+      <c r="V77" s="14">
         <v>3815</v>
       </c>
-      <c r="W76" s="14">
+      <c r="W77" s="14">
         <v>2658</v>
       </c>
-      <c r="X76" s="14">
+      <c r="X77" s="14">
         <v>352</v>
       </c>
-      <c r="Y76" s="14">
+      <c r="Y77" s="14">
         <v>11454</v>
       </c>
-      <c r="Z76" s="14">
+      <c r="Z77" s="14">
         <v>12</v>
       </c>
-      <c r="AA76" s="14">
+      <c r="AA77" s="14">
         <v>810</v>
       </c>
     </row>
-    <row r="77" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="18">
+    <row r="78" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="18">
         <v>2019</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D78" s="19">
         <v>497141</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="19">
         <v>488120</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="19">
         <v>452</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G78" s="19">
         <v>47859</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H78" s="19">
         <v>6968</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I78" s="19">
         <v>2504</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J78" s="19">
         <v>77</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K78" s="19">
         <v>239</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L78" s="19">
         <v>2565</v>
       </c>
-      <c r="M77" s="19">
+      <c r="M78" s="19">
         <v>38626</v>
       </c>
-      <c r="N77" s="19">
+      <c r="N78" s="19">
         <v>4150</v>
       </c>
-      <c r="O77" s="19">
+      <c r="O78" s="19">
         <v>26845</v>
       </c>
-      <c r="P77" s="19">
+      <c r="P78" s="19">
         <v>15304</v>
       </c>
-      <c r="Q77" s="19">
+      <c r="Q78" s="19">
         <v>34009</v>
       </c>
-      <c r="R77" s="19">
+      <c r="R78" s="19">
         <v>2246</v>
       </c>
-      <c r="S77" s="19">
+      <c r="S78" s="19">
         <v>30488</v>
       </c>
-      <c r="T77" s="19">
+      <c r="T78" s="19">
         <v>1</v>
       </c>
-      <c r="U77" s="19">
+      <c r="U78" s="19">
         <v>95504</v>
       </c>
-      <c r="V77" s="19">
+      <c r="V78" s="19">
         <v>3778</v>
       </c>
-      <c r="W77" s="19">
+      <c r="W78" s="19">
         <v>2638</v>
       </c>
-      <c r="X77" s="19">
+      <c r="X78" s="19">
         <v>344</v>
       </c>
-      <c r="Y77" s="19">
+      <c r="Y78" s="19">
         <v>11417</v>
       </c>
-      <c r="Z77" s="19">
+      <c r="Z78" s="19">
         <v>12</v>
       </c>
-      <c r="AA77" s="19">
+      <c r="AA78" s="19">
         <v>804</v>
       </c>
     </row>
-    <row r="78" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="13">
+    <row r="79" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <v>496057</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="14">
         <v>486335</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="14">
         <v>464</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <v>47780</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="14">
         <v>6994</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="14">
         <v>2508</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J79" s="14">
         <v>78</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K79" s="14">
         <v>239</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L79" s="14">
         <v>2565</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M79" s="14">
         <v>38415</v>
       </c>
-      <c r="N78" s="14">
+      <c r="N79" s="14">
         <v>4053</v>
       </c>
-      <c r="O78" s="14">
+      <c r="O79" s="14">
         <v>26683</v>
       </c>
-      <c r="P78" s="14">
+      <c r="P79" s="14">
         <v>15554</v>
       </c>
-      <c r="Q78" s="14">
+      <c r="Q79" s="14">
         <v>34018</v>
       </c>
-      <c r="R78" s="14">
+      <c r="R79" s="14">
         <v>2235</v>
       </c>
-      <c r="S78" s="14">
+      <c r="S79" s="14">
         <v>30111</v>
       </c>
-      <c r="T78" s="14">
+      <c r="T79" s="14">
         <v>1</v>
       </c>
-      <c r="U78" s="14">
+      <c r="U79" s="14">
         <v>94864</v>
       </c>
-      <c r="V78" s="14">
+      <c r="V79" s="14">
         <v>3723</v>
       </c>
-      <c r="W78" s="14">
+      <c r="W79" s="14">
         <v>2618</v>
       </c>
-      <c r="X78" s="14">
+      <c r="X79" s="14">
         <v>329</v>
       </c>
-      <c r="Y78" s="14">
+      <c r="Y79" s="14">
         <v>11369</v>
       </c>
-      <c r="Z78" s="14">
+      <c r="Z79" s="14">
         <v>12</v>
       </c>
-      <c r="AA78" s="14">
+      <c r="AA79" s="14">
         <v>804</v>
       </c>
     </row>
-    <row r="79" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>493248</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>484343</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>467</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>47445</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H80" s="11">
         <v>6904</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I80" s="11">
         <v>2451</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J80" s="11">
         <v>78</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K80" s="11">
         <v>239</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L80" s="11">
         <v>2547</v>
       </c>
-      <c r="M79" s="11">
+      <c r="M80" s="11">
         <v>38053</v>
       </c>
-      <c r="N79" s="11">
+      <c r="N80" s="11">
         <v>4033</v>
       </c>
-      <c r="O79" s="11">
+      <c r="O80" s="11">
         <v>26245</v>
       </c>
-      <c r="P79" s="11">
+      <c r="P80" s="11">
         <v>15368</v>
       </c>
-      <c r="Q79" s="11">
+      <c r="Q80" s="11">
         <v>34089</v>
       </c>
-      <c r="R79" s="11">
+      <c r="R80" s="11">
         <v>2228</v>
       </c>
-      <c r="S79" s="11">
+      <c r="S80" s="11">
         <v>29848</v>
       </c>
-      <c r="T79" s="11">
+      <c r="T80" s="11">
         <v>1</v>
       </c>
-      <c r="U79" s="11">
+      <c r="U80" s="11">
         <v>94351</v>
       </c>
-      <c r="V79" s="11">
+      <c r="V80" s="11">
         <v>3704</v>
       </c>
-      <c r="W79" s="11">
+      <c r="W80" s="11">
         <v>2563</v>
       </c>
-      <c r="X79" s="11">
+      <c r="X80" s="11">
         <v>326</v>
       </c>
-      <c r="Y79" s="11">
+      <c r="Y80" s="11">
         <v>11268</v>
       </c>
-      <c r="Z79" s="11">
+      <c r="Z80" s="11">
         <v>12</v>
       </c>
-      <c r="AA79" s="11">
+      <c r="AA80" s="11">
         <v>798</v>
       </c>
     </row>
-    <row r="80" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="13">
+    <row r="81" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <v>489853</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E81" s="14">
         <v>481195</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F81" s="14">
         <v>466</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <v>47019</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H81" s="14">
         <v>6820</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I81" s="14">
         <v>2443</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J81" s="14">
         <v>78</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K81" s="14">
         <v>239</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L81" s="14">
         <v>2529</v>
       </c>
-      <c r="M80" s="14">
+      <c r="M81" s="14">
         <v>37565</v>
       </c>
-      <c r="N80" s="14">
+      <c r="N81" s="14">
         <v>3997</v>
       </c>
-      <c r="O80" s="14">
+      <c r="O81" s="14">
         <v>25847</v>
       </c>
-      <c r="P80" s="14">
+      <c r="P81" s="14">
         <v>15208</v>
       </c>
-      <c r="Q80" s="14">
+      <c r="Q81" s="14">
         <v>33793</v>
       </c>
-      <c r="R80" s="14">
+      <c r="R81" s="14">
         <v>2228</v>
       </c>
-      <c r="S80" s="14">
+      <c r="S81" s="14">
         <v>29565</v>
       </c>
-      <c r="T80" s="14">
+      <c r="T81" s="14">
         <v>1</v>
       </c>
-      <c r="U80" s="14">
+      <c r="U81" s="14">
         <v>93792</v>
       </c>
-      <c r="V80" s="14">
+      <c r="V81" s="14">
         <v>3636</v>
       </c>
-      <c r="W80" s="14">
+      <c r="W81" s="14">
         <v>2514</v>
       </c>
-      <c r="X80" s="14">
+      <c r="X81" s="14">
         <v>326</v>
       </c>
-      <c r="Y80" s="14">
+      <c r="Y81" s="14">
         <v>11160</v>
       </c>
-      <c r="Z80" s="14">
+      <c r="Z81" s="14">
         <v>12</v>
       </c>
-      <c r="AA80" s="14">
+      <c r="AA81" s="14">
         <v>796</v>
       </c>
     </row>
-    <row r="81" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>486879</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>478202</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>463</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>46939</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H82" s="11">
         <v>6767</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I82" s="11">
         <v>2420</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J82" s="11">
         <v>78</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K82" s="11">
         <v>239</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L82" s="11">
         <v>2504</v>
       </c>
-      <c r="M81" s="11">
+      <c r="M82" s="11">
         <v>37159</v>
       </c>
-      <c r="N81" s="11">
+      <c r="N82" s="11">
         <v>3981</v>
       </c>
-      <c r="O81" s="11">
+      <c r="O82" s="11">
         <v>25505</v>
       </c>
-      <c r="P81" s="11">
+      <c r="P82" s="11">
         <v>15063</v>
       </c>
-      <c r="Q81" s="11">
+      <c r="Q82" s="11">
         <v>33501</v>
       </c>
-      <c r="R81" s="11">
+      <c r="R82" s="11">
         <v>2207</v>
       </c>
-      <c r="S81" s="11">
+      <c r="S82" s="11">
         <v>29169</v>
       </c>
-      <c r="T81" s="11">
+      <c r="T82" s="11">
         <v>1</v>
       </c>
-      <c r="U81" s="11">
+      <c r="U82" s="11">
         <v>92716</v>
       </c>
-      <c r="V81" s="11">
+      <c r="V82" s="11">
         <v>3571</v>
       </c>
-      <c r="W81" s="11">
+      <c r="W82" s="11">
         <v>2389</v>
       </c>
-      <c r="X81" s="11">
+      <c r="X82" s="11">
         <v>323</v>
       </c>
-      <c r="Y81" s="11">
+      <c r="Y82" s="11">
         <v>11118</v>
       </c>
-      <c r="Z81" s="11">
+      <c r="Z82" s="11">
         <v>12</v>
       </c>
-      <c r="AA81" s="11">
+      <c r="AA82" s="11">
         <v>793</v>
       </c>
     </row>
-    <row r="82" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="13">
+    <row r="83" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <v>483912</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E83" s="14">
         <v>475735</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F83" s="14">
         <v>464</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <v>46660</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H83" s="14">
         <v>6663</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I83" s="14">
         <v>2389</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J83" s="14">
         <v>78</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K83" s="14">
         <v>239</v>
       </c>
-      <c r="L82" s="14">
+      <c r="L83" s="14">
         <v>2507</v>
       </c>
-      <c r="M82" s="14">
+      <c r="M83" s="14">
         <v>36747</v>
       </c>
-      <c r="N82" s="14">
+      <c r="N83" s="14">
         <v>3969</v>
       </c>
-      <c r="O82" s="14">
+      <c r="O83" s="14">
         <v>25211</v>
       </c>
-      <c r="P82" s="14">
+      <c r="P83" s="14">
         <v>14925</v>
       </c>
-      <c r="Q82" s="14">
+      <c r="Q83" s="14">
         <v>33302</v>
       </c>
-      <c r="R82" s="14">
+      <c r="R83" s="14">
         <v>2187</v>
       </c>
-      <c r="S82" s="14">
+      <c r="S83" s="14">
         <v>28883</v>
       </c>
-      <c r="T82" s="14">
+      <c r="T83" s="14">
         <v>1</v>
       </c>
-      <c r="U82" s="14">
+      <c r="U83" s="14">
         <v>91723</v>
       </c>
-      <c r="V82" s="14">
+      <c r="V83" s="14">
         <v>3516</v>
       </c>
-      <c r="W82" s="14">
+      <c r="W83" s="14">
         <v>2314</v>
       </c>
-      <c r="X82" s="14">
+      <c r="X83" s="14">
         <v>311</v>
       </c>
-      <c r="Y82" s="14">
+      <c r="Y83" s="14">
         <v>11021</v>
       </c>
-      <c r="Z82" s="14">
+      <c r="Z83" s="14">
         <v>12</v>
       </c>
-      <c r="AA82" s="14">
+      <c r="AA83" s="14">
         <v>787</v>
       </c>
     </row>
-    <row r="83" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>480495</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>472364</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>464</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>46648</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H84" s="11">
         <v>6624</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I84" s="11">
         <v>2371</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J84" s="11">
         <v>78</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K84" s="11">
         <v>239</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L84" s="11">
         <v>2485</v>
       </c>
-      <c r="M83" s="11">
+      <c r="M84" s="11">
         <v>36570</v>
       </c>
-      <c r="N83" s="11">
+      <c r="N84" s="11">
         <v>3920</v>
       </c>
-      <c r="O83" s="11">
+      <c r="O84" s="11">
         <v>24802</v>
       </c>
-      <c r="P83" s="11">
+      <c r="P84" s="11">
         <v>14924</v>
       </c>
-      <c r="Q83" s="11">
+      <c r="Q84" s="11">
         <v>33187</v>
       </c>
-      <c r="R83" s="11">
+      <c r="R84" s="11">
         <v>2173</v>
       </c>
-      <c r="S83" s="11">
+      <c r="S84" s="11">
         <v>28394</v>
       </c>
-      <c r="T83" s="11">
+      <c r="T84" s="11">
         <v>1</v>
       </c>
-      <c r="U83" s="11">
+      <c r="U84" s="11">
         <v>90924</v>
       </c>
-      <c r="V83" s="11">
+      <c r="V84" s="11">
         <v>3442</v>
       </c>
-      <c r="W83" s="11">
+      <c r="W84" s="11">
         <v>2249</v>
       </c>
-      <c r="X83" s="11">
+      <c r="X84" s="11">
         <v>304</v>
       </c>
-      <c r="Y83" s="11">
+      <c r="Y84" s="11">
         <v>10962</v>
       </c>
-      <c r="Z83" s="11">
+      <c r="Z84" s="11">
         <v>12</v>
       </c>
-      <c r="AA83" s="11">
+      <c r="AA84" s="11">
         <v>784</v>
       </c>
     </row>
-    <row r="84" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="13">
+    <row r="85" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <v>477880</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E85" s="14">
         <v>469513</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F85" s="14">
         <v>458</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <v>46538</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H85" s="14">
         <v>6550</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I85" s="14">
         <v>2387</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J85" s="14">
         <v>78</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K85" s="14">
         <v>237</v>
       </c>
-      <c r="L84" s="14">
+      <c r="L85" s="14">
         <v>2479</v>
       </c>
-      <c r="M84" s="14">
+      <c r="M85" s="14">
         <v>36256</v>
       </c>
-      <c r="N84" s="14">
+      <c r="N85" s="14">
         <v>3901</v>
       </c>
-      <c r="O84" s="14">
+      <c r="O85" s="14">
         <v>24520</v>
       </c>
-      <c r="P84" s="14">
+      <c r="P85" s="14">
         <v>14804</v>
       </c>
-      <c r="Q84" s="14">
+      <c r="Q85" s="14">
         <v>33150</v>
       </c>
-      <c r="R84" s="14">
+      <c r="R85" s="14">
         <v>2178</v>
       </c>
-      <c r="S84" s="14">
+      <c r="S85" s="14">
         <v>27975</v>
       </c>
-      <c r="T84" s="14">
+      <c r="T85" s="14">
         <v>0</v>
       </c>
-      <c r="U84" s="14">
+      <c r="U85" s="14">
         <v>89534</v>
       </c>
-      <c r="V84" s="14">
+      <c r="V85" s="14">
         <v>3365</v>
       </c>
-      <c r="W84" s="14">
+      <c r="W85" s="14">
         <v>2210</v>
       </c>
-      <c r="X84" s="14">
+      <c r="X85" s="14">
         <v>299</v>
       </c>
-      <c r="Y84" s="14">
+      <c r="Y85" s="14">
         <v>10862</v>
       </c>
-      <c r="Z84" s="14">
+      <c r="Z85" s="14">
         <v>12</v>
       </c>
-      <c r="AA84" s="14">
+      <c r="AA85" s="14">
         <v>783</v>
       </c>
     </row>
-    <row r="85" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>476241</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>467827</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>459</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>46438</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H86" s="11">
         <v>6498</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I86" s="11">
         <v>2366</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J86" s="11">
         <v>78</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K86" s="11">
         <v>237</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L86" s="11">
         <v>2474</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M86" s="11">
         <v>35832</v>
       </c>
-      <c r="N85" s="11">
+      <c r="N86" s="11">
         <v>3883</v>
       </c>
-      <c r="O85" s="11">
+      <c r="O86" s="11">
         <v>24299</v>
       </c>
-      <c r="P85" s="11">
+      <c r="P86" s="11">
         <v>14847</v>
       </c>
-      <c r="Q85" s="11">
+      <c r="Q86" s="11">
         <v>33272</v>
       </c>
-      <c r="R85" s="11">
+      <c r="R86" s="11">
         <v>2165</v>
       </c>
-      <c r="S85" s="11">
+      <c r="S86" s="11">
         <v>27577</v>
       </c>
-      <c r="T85" s="11">
+      <c r="T86" s="11">
         <v>1</v>
       </c>
-      <c r="U85" s="11">
+      <c r="U86" s="11">
         <v>88473</v>
       </c>
-      <c r="V85" s="11">
+      <c r="V86" s="11">
         <v>3325</v>
       </c>
-      <c r="W85" s="11">
+      <c r="W86" s="11">
         <v>2133</v>
       </c>
-      <c r="X85" s="11">
+      <c r="X86" s="11">
         <v>301</v>
       </c>
-      <c r="Y85" s="11">
+      <c r="Y86" s="11">
         <v>10800</v>
       </c>
-      <c r="Z85" s="11">
+      <c r="Z86" s="11">
         <v>12</v>
       </c>
-      <c r="AA85" s="11">
+      <c r="AA86" s="11">
         <v>786</v>
       </c>
     </row>
-    <row r="86" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="13">
+    <row r="87" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <v>472271</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E87" s="14">
         <v>463807</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F87" s="14">
         <v>455</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <v>46120</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H87" s="14">
         <v>6441</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I87" s="14">
         <v>2324</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J87" s="14">
         <v>77</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K87" s="14">
         <v>237</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L87" s="14">
         <v>2458</v>
       </c>
-      <c r="M86" s="14">
+      <c r="M87" s="14">
         <v>35484</v>
       </c>
-      <c r="N86" s="14">
+      <c r="N87" s="14">
         <v>3859</v>
       </c>
-      <c r="O86" s="14">
+      <c r="O87" s="14">
         <v>24075</v>
       </c>
-      <c r="P86" s="14">
+      <c r="P87" s="14">
         <v>14872</v>
       </c>
-      <c r="Q86" s="14">
+      <c r="Q87" s="14">
         <v>33210</v>
       </c>
-      <c r="R86" s="14">
+      <c r="R87" s="14">
         <v>2154</v>
       </c>
-      <c r="S86" s="14">
+      <c r="S87" s="14">
         <v>27204</v>
       </c>
-      <c r="T86" s="14">
+      <c r="T87" s="14">
         <v>1</v>
       </c>
-      <c r="U86" s="14">
+      <c r="U87" s="14">
         <v>86985</v>
       </c>
-      <c r="V86" s="14">
+      <c r="V87" s="14">
         <v>3231</v>
       </c>
-      <c r="W86" s="14">
+      <c r="W87" s="14">
         <v>2040</v>
       </c>
-      <c r="X86" s="14">
+      <c r="X87" s="14">
         <v>294</v>
       </c>
-      <c r="Y86" s="14">
+      <c r="Y87" s="14">
         <v>10741</v>
       </c>
-      <c r="Z86" s="14">
+      <c r="Z87" s="14">
         <v>12</v>
       </c>
-      <c r="AA86" s="14">
+      <c r="AA87" s="14">
         <v>784</v>
       </c>
     </row>
-    <row r="87" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+    <row r="88" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>469020</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>460731</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>454</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>45917</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H88" s="11">
         <v>6371</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I88" s="11">
         <v>2319</v>
       </c>
-      <c r="J87" s="11">
+      <c r="J88" s="11">
         <v>77</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K88" s="11">
         <v>237</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L88" s="11">
         <v>2444</v>
       </c>
-      <c r="M87" s="11">
+      <c r="M88" s="11">
         <v>35184</v>
       </c>
-      <c r="N87" s="11">
+      <c r="N88" s="11">
         <v>3843</v>
       </c>
-      <c r="O87" s="11">
+      <c r="O88" s="11">
         <v>23647</v>
       </c>
-      <c r="P87" s="11">
+      <c r="P88" s="11">
         <v>14554</v>
       </c>
-      <c r="Q87" s="11">
+      <c r="Q88" s="11">
         <v>33107</v>
       </c>
-      <c r="R87" s="11">
+      <c r="R88" s="11">
         <v>2146</v>
       </c>
-      <c r="S87" s="11">
+      <c r="S88" s="11">
         <v>26742</v>
       </c>
-      <c r="T87" s="11">
+      <c r="T88" s="11">
         <v>1</v>
       </c>
-      <c r="U87" s="11">
+      <c r="U88" s="11">
         <v>86342</v>
       </c>
-      <c r="V87" s="11">
+      <c r="V88" s="11">
         <v>3169</v>
       </c>
-      <c r="W87" s="11">
+      <c r="W88" s="11">
         <v>2018</v>
       </c>
-      <c r="X87" s="11">
+      <c r="X88" s="11">
         <v>288</v>
       </c>
-      <c r="Y87" s="11">
+      <c r="Y88" s="11">
         <v>10741</v>
       </c>
-      <c r="Z87" s="11">
+      <c r="Z88" s="11">
         <v>12</v>
       </c>
-      <c r="AA87" s="11">
+      <c r="AA88" s="11">
         <v>781</v>
       </c>
     </row>
-    <row r="88" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="13">
+    <row r="89" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <v>466319</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E89" s="14">
         <v>457242</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F89" s="14">
         <v>451</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <v>45640</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="14">
         <v>6287</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I89" s="14">
         <v>2262</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J89" s="14">
         <v>77</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K89" s="14">
         <v>237</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L89" s="14">
         <v>2424</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M89" s="14">
         <v>34703</v>
       </c>
-      <c r="N88" s="14">
+      <c r="N89" s="14">
         <v>3824</v>
       </c>
-      <c r="O88" s="14">
+      <c r="O89" s="14">
         <v>23309</v>
       </c>
-      <c r="P88" s="14">
+      <c r="P89" s="14">
         <v>14393</v>
       </c>
-      <c r="Q88" s="14">
+      <c r="Q89" s="14">
         <v>32986</v>
       </c>
-      <c r="R88" s="14">
+      <c r="R89" s="14">
         <v>2120</v>
       </c>
-      <c r="S88" s="14">
+      <c r="S89" s="14">
         <v>26331</v>
       </c>
-      <c r="T88" s="14">
+      <c r="T89" s="14">
         <v>1</v>
       </c>
-      <c r="U88" s="14">
+      <c r="U89" s="14">
         <v>85658</v>
       </c>
-      <c r="V88" s="14">
+      <c r="V89" s="14">
         <v>3120</v>
       </c>
-      <c r="W88" s="14">
+      <c r="W89" s="14">
         <v>1980</v>
       </c>
-      <c r="X88" s="14">
+      <c r="X89" s="14">
         <v>285</v>
       </c>
-      <c r="Y88" s="14">
+      <c r="Y89" s="14">
         <v>10688</v>
       </c>
-      <c r="Z88" s="14">
+      <c r="Z89" s="14">
         <v>12</v>
       </c>
-      <c r="AA88" s="14">
+      <c r="AA89" s="14">
         <v>779</v>
       </c>
     </row>
-    <row r="89" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="18">
+    <row r="90" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="18">
         <v>2018</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C90" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D90" s="19">
         <v>464622</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E90" s="19">
         <v>455453</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F90" s="19">
         <v>451</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G90" s="19">
         <v>45676</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H90" s="19">
         <v>6259</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I90" s="19">
         <v>2255</v>
       </c>
-      <c r="J89" s="19">
+      <c r="J90" s="19">
         <v>77</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K90" s="19">
         <v>237</v>
       </c>
-      <c r="L89" s="19">
+      <c r="L90" s="19">
         <v>2406</v>
       </c>
-      <c r="M89" s="19">
+      <c r="M90" s="19">
         <v>34385</v>
       </c>
-      <c r="N89" s="19">
+      <c r="N90" s="19">
         <v>3836</v>
       </c>
-      <c r="O89" s="19">
+      <c r="O90" s="19">
         <v>23129</v>
       </c>
-      <c r="P89" s="19">
+      <c r="P90" s="19">
         <v>14404</v>
       </c>
-      <c r="Q89" s="19">
+      <c r="Q90" s="19">
         <v>32894</v>
       </c>
-      <c r="R89" s="19">
+      <c r="R90" s="19">
         <v>2092</v>
       </c>
-      <c r="S89" s="19">
+      <c r="S90" s="19">
         <v>26133</v>
       </c>
-      <c r="T89" s="19">
+      <c r="T90" s="19">
         <v>1</v>
       </c>
-      <c r="U89" s="19">
+      <c r="U90" s="19">
         <v>84912</v>
       </c>
-      <c r="V89" s="19">
+      <c r="V90" s="19">
         <v>3077</v>
       </c>
-      <c r="W89" s="19">
+      <c r="W90" s="19">
         <v>1949</v>
       </c>
-      <c r="X89" s="19">
+      <c r="X90" s="19">
         <v>278</v>
       </c>
-      <c r="Y89" s="19">
+      <c r="Y90" s="19">
         <v>10682</v>
       </c>
-      <c r="Z89" s="19">
+      <c r="Z90" s="19">
         <v>12</v>
       </c>
-      <c r="AA89" s="19">
+      <c r="AA90" s="19">
         <v>782</v>
       </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA90" s="21"/>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA91" s="21"/>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA91" s="21"/>
+      <c r="AA92" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E563AC-5F1C-4614-B4FC-222317979C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B2462B-51CB-4715-A51E-BFE89AB4EC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_18" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -383,23 +383,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -455,14 +444,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -862,6 +847,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -884,13 +876,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -942,8 +927,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA90" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="B5:AA90" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA91" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="B5:AA91" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1205,13 +1190,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA92"/>
+  <dimension ref="B2:AA93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="2" customWidth="1"/>
@@ -1243,16 +1228,16 @@
     <col min="28" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:27" ht="18">
       <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:27">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:27">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="23" t="s">
@@ -1296,7 +1281,7 @@
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:27">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1376,6709 +1361,6787 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:27">
       <c r="B6" s="25">
         <v>2025</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="26">
+        <v>729319</v>
+      </c>
+      <c r="E6" s="26">
+        <v>718257</v>
+      </c>
+      <c r="F6" s="26">
+        <v>663</v>
+      </c>
+      <c r="G6" s="26">
+        <v>57759</v>
+      </c>
+      <c r="H6" s="26">
+        <v>10612</v>
+      </c>
+      <c r="I6" s="26">
+        <v>3697</v>
+      </c>
+      <c r="J6" s="26">
+        <v>78</v>
+      </c>
+      <c r="K6" s="26">
+        <v>1424</v>
+      </c>
+      <c r="L6" s="26">
+        <v>2840</v>
+      </c>
+      <c r="M6" s="26">
+        <v>63974</v>
+      </c>
+      <c r="N6" s="26">
+        <v>3956</v>
+      </c>
+      <c r="O6" s="26">
+        <v>42526</v>
+      </c>
+      <c r="P6" s="26">
+        <v>30916</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>44105</v>
+      </c>
+      <c r="R6" s="26">
+        <v>2709</v>
+      </c>
+      <c r="S6" s="26">
+        <v>55235</v>
+      </c>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26">
+        <v>132317</v>
+      </c>
+      <c r="V6" s="26">
+        <v>6550</v>
+      </c>
+      <c r="W6" s="26">
+        <v>6513</v>
+      </c>
+      <c r="X6" s="26">
+        <v>2270</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>12792</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="26">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="17">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D7" s="19">
         <v>726109</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E7" s="19">
         <v>714727</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F7" s="19">
         <v>656</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G7" s="19">
         <v>57695</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H7" s="19">
         <v>10586</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I7" s="19">
         <v>3675</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J7" s="19">
         <v>78</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K7" s="19">
         <v>1424</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L7" s="19">
         <v>2835</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M7" s="19">
         <v>63834</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N7" s="19">
         <v>3964</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O7" s="19">
         <v>42332</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P7" s="19">
         <v>30802</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q7" s="19">
         <v>44075</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R7" s="19">
         <v>2701</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S7" s="19">
         <v>55096</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27">
+      <c r="T7" s="19"/>
+      <c r="U7" s="19">
         <v>131751</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V7" s="19">
         <v>6534</v>
       </c>
-      <c r="W6" s="27">
+      <c r="W7" s="19">
         <v>6466</v>
       </c>
-      <c r="X6" s="27">
+      <c r="X7" s="19">
         <v>2244</v>
       </c>
-      <c r="Y6" s="27">
+      <c r="Y7" s="19">
         <v>12757</v>
       </c>
-      <c r="Z6" s="27">
+      <c r="Z7" s="19">
         <v>15</v>
       </c>
-      <c r="AA6" s="28">
+      <c r="AA7" s="20">
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+    <row r="8" spans="2:27">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <v>723462</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E8" s="14">
         <v>711776</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="14">
         <v>646</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="14">
         <v>57703</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="14">
         <v>10583</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>3665</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="14">
         <v>78</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K8" s="14">
         <v>1424</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L8" s="14">
         <v>2822</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M8" s="14">
         <v>63686</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N8" s="14">
         <v>3961</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O8" s="14">
         <v>42142</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P8" s="14">
         <v>30781</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q8" s="14">
         <v>44100</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R8" s="14">
         <v>2703</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S8" s="14">
         <v>55043</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14">
         <v>131335</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V8" s="14">
         <v>6513</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W8" s="14">
         <v>6439</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X8" s="14">
         <v>2237</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y8" s="14">
         <v>12704</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z8" s="14">
         <v>15</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA8" s="14">
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+    <row r="9" spans="2:27">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>719185</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>708450</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>630</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>57548</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="11">
         <v>10520</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I9" s="11">
         <v>3634</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J9" s="11">
         <v>78</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K9" s="11">
         <v>1424</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L9" s="11">
         <v>2786</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M9" s="11">
         <v>63307</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N9" s="11">
         <v>3939</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O9" s="11">
         <v>41751</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P9" s="11">
         <v>30659</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q9" s="11">
         <v>43660</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R9" s="11">
         <v>2692</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S9" s="11">
         <v>54807</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11">
+      <c r="T9" s="11"/>
+      <c r="U9" s="11">
         <v>130783</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V9" s="11">
         <v>6476</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W9" s="11">
         <v>6362</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X9" s="11">
         <v>2229</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y9" s="11">
         <v>12572</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z9" s="11">
         <v>15</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA9" s="12">
         <v>727</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+    <row r="10" spans="2:27">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <v>714747</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="14">
         <v>704375</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="14">
         <v>622</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="14">
         <v>57602</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="14">
         <v>10485</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>3617</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="14">
         <v>78</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K10" s="14">
         <v>1424</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L10" s="14">
         <v>2767</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M10" s="14">
         <v>63040</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N10" s="14">
         <v>3930</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O10" s="14">
         <v>41410</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P10" s="14">
         <v>30328</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q10" s="14">
         <v>43596</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R10" s="14">
         <v>2697</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S10" s="14">
         <v>54722</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14">
         <v>130250</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V10" s="14">
         <v>6446</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W10" s="14">
         <v>6199</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X10" s="14">
         <v>2214</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y10" s="14">
         <v>12449</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z10" s="14">
         <v>15</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA10" s="14">
         <v>727</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:27">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>709391</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>699945</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>611</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>57472</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="11">
         <v>10407</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I11" s="11">
         <v>3578</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J11" s="11">
         <v>78</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="11">
         <v>1424</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L11" s="11">
         <v>2740</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M11" s="11">
         <v>62737</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N11" s="11">
         <v>3931</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O11" s="11">
         <v>41077</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P11" s="11">
         <v>23934</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q11" s="11">
         <v>43117</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R11" s="11">
         <v>2694</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S11" s="11">
         <v>54701</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11">
         <v>129830</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V11" s="11">
         <v>6417</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W11" s="11">
         <v>6046</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X11" s="11">
         <v>2192</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y11" s="11">
         <v>12349</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z11" s="11">
         <v>15</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA11" s="12">
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B11" s="15">
+    <row r="12" spans="2:27">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <v>704941</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="14">
         <v>696064</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F12" s="14">
         <v>608</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="14">
         <v>57429</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="14">
         <v>10315</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="14">
         <v>3562</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="14">
         <v>78</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="14">
         <v>1424</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L12" s="14">
         <v>2725</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M12" s="14">
         <v>62582</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N12" s="14">
         <v>3959</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O12" s="14">
         <v>40692</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P12" s="14">
         <v>23711</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q12" s="14">
         <v>42607</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R12" s="14">
         <v>2706</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S12" s="14">
         <v>54463</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
+      <c r="T12" s="14"/>
+      <c r="U12" s="14">
         <v>129480</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V12" s="14">
         <v>6405</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W12" s="14">
         <v>5956</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X12" s="14">
         <v>2159</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y12" s="14">
         <v>12295</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z12" s="14">
         <v>15</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AA12" s="16">
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:27">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>700064</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>691573</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>594</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>57394</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <v>10310</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I13" s="11">
         <v>3516</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="11">
         <v>78</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="11">
         <v>1424</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L13" s="11">
         <v>2697</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M13" s="11">
         <v>62263</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N13" s="11">
         <v>3963</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O13" s="11">
         <v>40451</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P13" s="11">
         <v>22543</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q13" s="11">
         <v>42013</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R13" s="11">
         <v>2714</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S13" s="11">
         <v>54287</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11">
+      <c r="T13" s="11"/>
+      <c r="U13" s="11">
         <v>129145</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V13" s="11">
         <v>6391</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W13" s="11">
         <v>5917</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X13" s="11">
         <v>2148</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y13" s="11">
         <v>12231</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z13" s="11">
         <v>15</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA13" s="12">
         <v>724</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B13" s="15">
+    <row r="14" spans="2:27">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>694997</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="14">
         <v>686081</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F14" s="14">
         <v>592</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="14">
         <v>57318</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H14" s="14">
         <v>10276</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>3508</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="14">
         <v>78</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K14" s="14">
         <v>1424</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L14" s="14">
         <v>2665</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M14" s="14">
         <v>61927</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N14" s="14">
         <v>3963</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O14" s="14">
         <v>40050</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P14" s="14">
         <v>22350</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q14" s="14">
         <v>41750</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R14" s="14">
         <v>2698</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S14" s="14">
         <v>54175</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14">
+      <c r="T14" s="14"/>
+      <c r="U14" s="14">
         <v>128557</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V14" s="14">
         <v>6363</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W14" s="14">
         <v>5857</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X14" s="14">
         <v>2129</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y14" s="14">
         <v>12153</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z14" s="14">
         <v>15</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AA14" s="16">
         <v>724</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:27">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>686433</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>677060</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>583</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>57014</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <v>10191</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I15" s="11">
         <v>3490</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J15" s="11">
         <v>78</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="11">
         <v>1424</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="11">
         <v>2598</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M15" s="11">
         <v>61659</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N15" s="11">
         <v>3952</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O15" s="11">
         <v>39763</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P15" s="11">
         <v>22332</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q15" s="11">
         <v>41599</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R15" s="11">
         <v>2694</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S15" s="11">
         <v>54118</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11">
+      <c r="T15" s="11"/>
+      <c r="U15" s="11">
         <v>128107</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V15" s="11">
         <v>6329</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W15" s="11">
         <v>5765</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X15" s="11">
         <v>2112</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y15" s="11">
         <v>12080</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z15" s="11">
         <v>15</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA15" s="12">
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B15" s="15">
+    <row r="16" spans="2:27">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>685435</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="14">
         <v>676046</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="14">
         <v>565</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="14">
         <v>56830</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="14">
         <v>10138</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>3511</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J16" s="14">
         <v>78</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K16" s="14">
         <v>1424</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L16" s="14">
         <v>2558</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M16" s="14">
         <v>61296</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N16" s="14">
         <v>3933</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O16" s="14">
         <v>39350</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P16" s="14">
         <v>23307</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q16" s="14">
         <v>41742</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R16" s="14">
         <v>2677</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S16" s="14">
         <v>53782</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14">
+      <c r="T16" s="14"/>
+      <c r="U16" s="14">
         <v>127521</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V16" s="14">
         <v>6305</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W16" s="14">
         <v>5651</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X16" s="14">
         <v>2085</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y16" s="14">
         <v>12043</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="Z16" s="14">
         <v>15</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AA16" s="16">
         <v>716</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+    <row r="17" spans="2:27">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>681551</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>671878</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>559</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>56791</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <v>10077</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I17" s="11">
         <v>3472</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J17" s="11">
         <v>78</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="11">
         <v>1424</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L17" s="11">
         <v>2515</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M17" s="11">
         <v>60940</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N17" s="11">
         <v>3927</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O17" s="11">
         <v>38916</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P17" s="11">
         <v>23100</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q17" s="11">
         <v>41499</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R17" s="11">
         <v>2662</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S17" s="11">
         <v>53501</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11">
+      <c r="T17" s="11"/>
+      <c r="U17" s="11">
         <v>127002</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V17" s="11">
         <v>6283</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W17" s="11">
         <v>5537</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X17" s="11">
         <v>2066</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y17" s="11">
         <v>12002</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z17" s="11">
         <v>15</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA17" s="12">
         <v>716</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
+    <row r="18" spans="2:27">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>677153</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="14">
         <v>667343</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="14">
         <v>559</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="14">
         <v>56789</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="14">
         <v>10062</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>3444</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="14">
         <v>78</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="14">
         <v>1424</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L18" s="14">
         <v>2486</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M18" s="14">
         <v>60780</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N18" s="14">
         <v>3929</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O18" s="14">
         <v>38626</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P18" s="14">
         <v>22931</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q18" s="14">
         <v>41445</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R18" s="14">
         <v>2656</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S18" s="14">
         <v>53234</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14">
+      <c r="T18" s="14"/>
+      <c r="U18" s="14">
         <v>126653</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V18" s="14">
         <v>6260</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W18" s="14">
         <v>5487</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X18" s="14">
         <v>2055</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y18" s="14">
         <v>11945</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z18" s="14">
         <v>15</v>
       </c>
-      <c r="AA17" s="16">
+      <c r="AA18" s="16">
         <v>718</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B18" s="17">
+    <row r="19" spans="2:27">
+      <c r="B19" s="17">
         <v>2024</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D19" s="19">
         <v>673757</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E19" s="19">
         <v>663646</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F19" s="19">
         <v>558</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G19" s="19">
         <v>56703</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H19" s="19">
         <v>10044</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I19" s="19">
         <v>3392</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J19" s="19">
         <v>78</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K19" s="19">
         <v>1424</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L19" s="19">
         <v>2444</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M19" s="19">
         <v>60551</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N19" s="19">
         <v>3920</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O19" s="19">
         <v>38302</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P19" s="19">
         <v>22717</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q19" s="19">
         <v>41276</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R19" s="19">
         <v>2661</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S19" s="19">
         <v>53153</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19">
+      <c r="T19" s="19"/>
+      <c r="U19" s="19">
         <v>125984</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V19" s="19">
         <v>6237</v>
       </c>
-      <c r="W18" s="19">
+      <c r="W19" s="19">
         <v>5478</v>
       </c>
-      <c r="X18" s="19">
+      <c r="X19" s="19">
         <v>2017</v>
       </c>
-      <c r="Y18" s="19">
+      <c r="Y19" s="19">
         <v>11916</v>
       </c>
-      <c r="Z18" s="19">
+      <c r="Z19" s="19">
         <v>15</v>
       </c>
-      <c r="AA18" s="20">
+      <c r="AA19" s="20">
         <v>717</v>
       </c>
     </row>
-    <row r="19" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="13">
+    <row r="20" spans="2:27" hidden="1">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <v>671002</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E20" s="14">
         <v>660365</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F20" s="14">
         <v>554</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="14">
         <v>56667</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H20" s="14">
         <v>10017</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I20" s="14">
         <v>3376</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J20" s="14">
         <v>78</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K20" s="14">
         <v>1424</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L20" s="14">
         <v>2414</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M20" s="14">
         <v>60296</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N20" s="14">
         <v>3916</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O20" s="14">
         <v>38063</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P20" s="14">
         <v>22721</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q20" s="14">
         <v>40963</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R20" s="14">
         <v>2664</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S20" s="14">
         <v>53074</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14">
+      <c r="T20" s="14"/>
+      <c r="U20" s="14">
         <v>125341</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V20" s="14">
         <v>6227</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W20" s="14">
         <v>5448</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X20" s="14">
         <v>2008</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="Y20" s="14">
         <v>11874</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="Z20" s="14">
         <v>15</v>
       </c>
-      <c r="AA19" s="14">
+      <c r="AA20" s="14">
         <v>716</v>
       </c>
     </row>
-    <row r="20" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:27" hidden="1">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>667021</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>657017</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>553</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>56501</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <v>10008</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="11">
         <v>3368</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J21" s="11">
         <v>78</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="11">
         <v>1424</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L21" s="11">
         <v>2373</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M21" s="11">
         <v>59864</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N21" s="11">
         <v>3939</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O21" s="11">
         <v>37756</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P21" s="11">
         <v>22668</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q21" s="11">
         <v>40739</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R21" s="11">
         <v>2663</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S21" s="11">
         <v>52920</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11">
+      <c r="T21" s="11"/>
+      <c r="U21" s="11">
         <v>124918</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V21" s="11">
         <v>6223</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W21" s="11">
         <v>5332</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X21" s="11">
         <v>1985</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y21" s="11">
         <v>11762</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z21" s="11">
         <v>15</v>
       </c>
-      <c r="AA20" s="11">
+      <c r="AA21" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="21" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+    <row r="22" spans="2:27" hidden="1">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <v>662911</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>653227</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F22" s="14">
         <v>551</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="14">
         <v>56354</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="14">
         <v>9936</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>3354</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="14">
         <v>78</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="14">
         <v>1424</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L22" s="14">
         <v>2325</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M22" s="14">
         <v>59524</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N22" s="14">
         <v>3949</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O22" s="14">
         <v>37449</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P22" s="14">
         <v>22518</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q22" s="14">
         <v>40540</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R22" s="14">
         <v>2659</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S22" s="14">
         <v>52779</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14">
+      <c r="T22" s="14"/>
+      <c r="U22" s="14">
         <v>124007</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V22" s="14">
         <v>6157</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W22" s="14">
         <v>5337</v>
       </c>
-      <c r="X21" s="14">
+      <c r="X22" s="14">
         <v>1958</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="Y22" s="14">
         <v>11701</v>
       </c>
-      <c r="Z21" s="14">
+      <c r="Z22" s="14">
         <v>15</v>
       </c>
-      <c r="AA21" s="14">
+      <c r="AA22" s="14">
         <v>717</v>
       </c>
     </row>
-    <row r="22" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:27" hidden="1">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>659020</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>649665</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>551</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>56273</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="11">
         <v>9895</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="11">
         <v>3359</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J23" s="11">
         <v>78</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K23" s="11">
         <v>1424</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L23" s="11">
         <v>2288</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M23" s="11">
         <v>59153</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N23" s="11">
         <v>3952</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O23" s="11">
         <v>37177</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P23" s="11">
         <v>22508</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q23" s="11">
         <v>40324</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R23" s="11">
         <v>2654</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S23" s="11">
         <v>52458</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11">
+      <c r="T23" s="11"/>
+      <c r="U23" s="11">
         <v>123192</v>
       </c>
-      <c r="V22" s="11">
+      <c r="V23" s="11">
         <v>6122</v>
       </c>
-      <c r="W22" s="11">
+      <c r="W23" s="11">
         <v>5256</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X23" s="11">
         <v>1931</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="Y23" s="11">
         <v>11636</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z23" s="11">
         <v>15</v>
       </c>
-      <c r="AA22" s="11">
+      <c r="AA23" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="23" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13">
+    <row r="24" spans="2:27" hidden="1">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <v>655458</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E24" s="14">
         <v>645999</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F24" s="14">
         <v>546</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="14">
         <v>56186</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H24" s="14">
         <v>9835</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="14">
         <v>3310</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J24" s="14">
         <v>78</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K24" s="14">
         <v>1425</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L24" s="14">
         <v>2252</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M24" s="14">
         <v>58938</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N24" s="14">
         <v>3928</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O24" s="14">
         <v>36812</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P24" s="14">
         <v>22401</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q24" s="14">
         <v>40001</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R24" s="14">
         <v>2655</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S24" s="14">
         <v>52187</v>
       </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14">
+      <c r="T24" s="14"/>
+      <c r="U24" s="14">
         <v>122442</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V24" s="14">
         <v>6046</v>
       </c>
-      <c r="W23" s="14">
+      <c r="W24" s="14">
         <v>5239</v>
       </c>
-      <c r="X23" s="14">
+      <c r="X24" s="14">
         <v>1910</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="Y24" s="14">
         <v>11600</v>
       </c>
-      <c r="Z23" s="14">
+      <c r="Z24" s="14">
         <v>15</v>
       </c>
-      <c r="AA23" s="14">
+      <c r="AA24" s="14">
         <v>719</v>
       </c>
     </row>
-    <row r="24" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:27" hidden="1">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>651761</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>641907</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>541</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>56170</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <v>9810</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="11">
         <v>3301</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J25" s="11">
         <v>78</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K25" s="11">
         <v>1424</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L25" s="11">
         <v>2219</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M25" s="11">
         <v>58734</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N25" s="11">
         <v>3934</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O25" s="11">
         <v>36467</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P25" s="11">
         <v>22206</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q25" s="11">
         <v>39383</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R25" s="11">
         <v>2640</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S25" s="11">
         <v>51887</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11">
+      <c r="T25" s="11"/>
+      <c r="U25" s="11">
         <v>121511</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V25" s="11">
         <v>5992</v>
       </c>
-      <c r="W24" s="11">
+      <c r="W25" s="11">
         <v>5150</v>
       </c>
-      <c r="X24" s="11">
+      <c r="X25" s="11">
         <v>1888</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="Y25" s="11">
         <v>11575</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="Z25" s="11">
         <v>15</v>
       </c>
-      <c r="AA24" s="11">
+      <c r="AA25" s="11">
         <v>716</v>
       </c>
     </row>
-    <row r="25" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+    <row r="26" spans="2:27" hidden="1">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <v>647906</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>637598</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F26" s="14">
         <v>538</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="14">
         <v>56139</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <v>9752</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>3280</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="14">
         <v>78</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K26" s="14">
         <v>1424</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L26" s="14">
         <v>2179</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M26" s="14">
         <v>58481</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N26" s="14">
         <v>3945</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O26" s="14">
         <v>36238</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P26" s="14">
         <v>21962</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q26" s="14">
         <v>38923</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R26" s="14">
         <v>2634</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S26" s="14">
         <v>51526</v>
       </c>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14">
+      <c r="T26" s="14"/>
+      <c r="U26" s="14">
         <v>120827</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V26" s="14">
         <v>5957</v>
       </c>
-      <c r="W25" s="14">
+      <c r="W26" s="14">
         <v>5099</v>
       </c>
-      <c r="X25" s="14">
+      <c r="X26" s="14">
         <v>1866</v>
       </c>
-      <c r="Y25" s="14">
+      <c r="Y26" s="14">
         <v>11503</v>
       </c>
-      <c r="Z25" s="14">
+      <c r="Z26" s="14">
         <v>15</v>
       </c>
-      <c r="AA25" s="14">
+      <c r="AA26" s="14">
         <v>715</v>
       </c>
     </row>
-    <row r="26" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:27" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>645139</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>634226</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>537</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>55988</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <v>9716</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="11">
         <v>3277</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <v>78</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <v>1424</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L27" s="11">
         <v>2130</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M27" s="11">
         <v>58224</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N27" s="11">
         <v>3934</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O27" s="11">
         <v>35910</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P27" s="11">
         <v>21848</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q27" s="11">
         <v>38619</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R27" s="11">
         <v>2634</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S27" s="11">
         <v>51228</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11">
         <v>120089</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V27" s="11">
         <v>5928</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W27" s="11">
         <v>5046</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X27" s="11">
         <v>1829</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Y27" s="11">
         <v>11484</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z27" s="11">
         <v>15</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AA27" s="11">
         <v>717</v>
       </c>
     </row>
-    <row r="27" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+    <row r="28" spans="2:27" hidden="1">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <v>641751</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="14">
         <v>630955</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F28" s="14">
         <v>537</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="14">
         <v>55899</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <v>9670</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>3264</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="14">
         <v>78</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K28" s="14">
         <v>1424</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L28" s="14">
         <v>2114</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M28" s="14">
         <v>58008</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N28" s="14">
         <v>3930</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O28" s="14">
         <v>35633</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P28" s="14">
         <v>21736</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q28" s="14">
         <v>38964</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R28" s="14">
         <v>2631</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S28" s="14">
         <v>50759</v>
       </c>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14">
+      <c r="T28" s="14"/>
+      <c r="U28" s="14">
         <v>119535</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V28" s="14">
         <v>5904</v>
       </c>
-      <c r="W27" s="14">
+      <c r="W28" s="14">
         <v>4993</v>
       </c>
-      <c r="X27" s="14">
+      <c r="X28" s="14">
         <v>1785</v>
       </c>
-      <c r="Y27" s="14">
+      <c r="Y28" s="14">
         <v>11422</v>
       </c>
-      <c r="Z27" s="14">
+      <c r="Z28" s="14">
         <v>15</v>
       </c>
-      <c r="AA27" s="14">
+      <c r="AA28" s="14">
         <v>713</v>
       </c>
     </row>
-    <row r="28" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+    <row r="29" spans="2:27" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>639200</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>628078</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>535</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>55839</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <v>9614</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="11">
         <v>3257</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="11">
         <v>78</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <v>1424</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="11">
         <v>2091</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M29" s="11">
         <v>57753</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N29" s="11">
         <v>3924</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O29" s="11">
         <v>35418</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P29" s="11">
         <v>21601</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q29" s="11">
         <v>38737</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R29" s="11">
         <v>2613</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S29" s="11">
         <v>50312</v>
       </c>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11">
+      <c r="T29" s="11"/>
+      <c r="U29" s="11">
         <v>119109</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V29" s="11">
         <v>5878</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W29" s="11">
         <v>4974</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X29" s="11">
         <v>1760</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y29" s="11">
         <v>11402</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z29" s="11">
         <v>15</v>
       </c>
-      <c r="AA28" s="11">
+      <c r="AA29" s="11">
         <v>713</v>
       </c>
     </row>
-    <row r="29" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13">
+    <row r="30" spans="2:27" hidden="1">
+      <c r="B30" s="13">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>636167</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>625114</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F30" s="14">
         <v>535</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="14">
         <v>55765</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <v>9522</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="14">
         <v>3239</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="14">
         <v>78</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K30" s="14">
         <v>1424</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L30" s="14">
         <v>2039</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M30" s="14">
         <v>57425</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N30" s="14">
         <v>3900</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O30" s="14">
         <v>34878</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P30" s="14">
         <v>21229</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q30" s="14">
         <v>38464</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R30" s="14">
         <v>2594</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S30" s="14">
         <v>49720</v>
       </c>
-      <c r="T29" s="14">
+      <c r="T30" s="14">
         <v>1</v>
       </c>
-      <c r="U29" s="14">
+      <c r="U30" s="14">
         <v>118529</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V30" s="14">
         <v>5852</v>
       </c>
-      <c r="W29" s="14">
+      <c r="W30" s="14">
         <v>4936</v>
       </c>
-      <c r="X29" s="14">
+      <c r="X30" s="14">
         <v>1736</v>
       </c>
-      <c r="Y29" s="14">
+      <c r="Y30" s="14">
         <v>11378</v>
       </c>
-      <c r="Z29" s="14">
+      <c r="Z30" s="14">
         <v>15</v>
       </c>
-      <c r="AA29" s="14">
+      <c r="AA30" s="14">
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="18">
+    <row r="31" spans="2:27" hidden="1">
+      <c r="B31" s="18">
         <v>2023</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D31" s="19">
         <v>633934</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E31" s="19">
         <v>622491</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F31" s="19">
         <v>534</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G31" s="19">
         <v>55802</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H31" s="19">
         <v>9494</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I31" s="19">
         <v>3245</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J31" s="19">
         <v>78</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K31" s="19">
         <v>1424</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L31" s="19">
         <v>2009</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M31" s="19">
         <v>57250</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N31" s="19">
         <v>3899</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O31" s="19">
         <v>34654</v>
       </c>
-      <c r="P30" s="19">
+      <c r="P31" s="19">
         <v>20907</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="Q31" s="19">
         <v>38288</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R31" s="19">
         <v>2590</v>
       </c>
-      <c r="S30" s="19">
+      <c r="S31" s="19">
         <v>49582</v>
       </c>
-      <c r="T30" s="19">
+      <c r="T31" s="19">
         <v>1</v>
       </c>
-      <c r="U30" s="19">
+      <c r="U31" s="19">
         <v>118075</v>
       </c>
-      <c r="V30" s="19">
+      <c r="V31" s="19">
         <v>5811</v>
       </c>
-      <c r="W30" s="19">
+      <c r="W31" s="19">
         <v>4917</v>
       </c>
-      <c r="X30" s="19">
+      <c r="X31" s="19">
         <v>1700</v>
       </c>
-      <c r="Y30" s="19">
+      <c r="Y31" s="19">
         <v>11348</v>
       </c>
-      <c r="Z30" s="19">
+      <c r="Z31" s="19">
         <v>15</v>
       </c>
-      <c r="AA30" s="19">
+      <c r="AA31" s="19">
         <v>712</v>
       </c>
     </row>
-    <row r="31" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="13">
+    <row r="32" spans="2:27" hidden="1">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <v>632252</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="14">
         <v>620240</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F32" s="14">
         <v>528</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="14">
         <v>55869</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="14">
         <v>9451</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I32" s="14">
         <v>3234</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J32" s="14">
         <v>78</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K32" s="14">
         <v>1424</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L32" s="14">
         <v>1986</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M32" s="14">
         <v>57083</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N32" s="14">
         <v>3895</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O32" s="14">
         <v>34339</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P32" s="14">
         <v>20924</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q32" s="14">
         <v>38275</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R32" s="14">
         <v>2577</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S32" s="14">
         <v>49203</v>
       </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14">
+      <c r="T32" s="14"/>
+      <c r="U32" s="14">
         <v>117636</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V32" s="14">
         <v>5783</v>
       </c>
-      <c r="W31" s="14">
+      <c r="W32" s="14">
         <v>4904</v>
       </c>
-      <c r="X31" s="14">
+      <c r="X32" s="14">
         <v>1678</v>
       </c>
-      <c r="Y31" s="14">
+      <c r="Y32" s="14">
         <v>11327</v>
       </c>
-      <c r="Z31" s="14">
+      <c r="Z32" s="14">
         <v>14</v>
       </c>
-      <c r="AA31" s="14">
+      <c r="AA32" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="32" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:27" hidden="1">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>629746</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>617778</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>528</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="11">
         <v>55776</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H33" s="11">
         <v>9347</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I33" s="11">
         <v>3197</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J33" s="11">
         <v>77</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K33" s="11">
         <v>1424</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L33" s="11">
         <v>1959</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M33" s="11">
         <v>56592</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N33" s="11">
         <v>3885</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O33" s="11">
         <v>33921</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P33" s="11">
         <v>20669</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q33" s="11">
         <v>38043</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R33" s="11">
         <v>2568</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S33" s="11">
         <v>48930</v>
       </c>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11">
+      <c r="T33" s="11"/>
+      <c r="U33" s="11">
         <v>117218</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V33" s="11">
         <v>5770</v>
       </c>
-      <c r="W32" s="11">
+      <c r="W33" s="11">
         <v>4899</v>
       </c>
-      <c r="X32" s="11">
+      <c r="X33" s="11">
         <v>1652</v>
       </c>
-      <c r="Y32" s="11">
+      <c r="Y33" s="11">
         <v>11234</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="Z33" s="11">
         <v>15</v>
       </c>
-      <c r="AA32" s="11">
+      <c r="AA33" s="11">
         <v>707</v>
       </c>
     </row>
-    <row r="33" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="13">
+    <row r="34" spans="2:27" hidden="1">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>627591</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="14">
         <v>615376</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F34" s="14">
         <v>528</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="14">
         <v>55700</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <v>9310</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="14">
         <v>3164</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J34" s="14">
         <v>77</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K34" s="14">
         <v>1424</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L34" s="14">
         <v>1936</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M34" s="14">
         <v>56336</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <v>3884</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O34" s="14">
         <v>33523</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P34" s="14">
         <v>20457</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q34" s="14">
         <v>37927</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R34" s="14">
         <v>2574</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S34" s="14">
         <v>48696</v>
       </c>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14">
+      <c r="T34" s="14"/>
+      <c r="U34" s="14">
         <v>116809</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V34" s="14">
         <v>5709</v>
       </c>
-      <c r="W33" s="14">
+      <c r="W34" s="14">
         <v>4865</v>
       </c>
-      <c r="X33" s="14">
+      <c r="X34" s="14">
         <v>1637</v>
       </c>
-      <c r="Y33" s="14">
+      <c r="Y34" s="14">
         <v>11207</v>
       </c>
-      <c r="Z33" s="14">
+      <c r="Z34" s="14">
         <v>15</v>
       </c>
-      <c r="AA33" s="14">
+      <c r="AA34" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="34" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:27" hidden="1">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>625802</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>613527</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>529</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>55774</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="11">
         <v>9280</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I35" s="11">
         <v>3168</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J35" s="11">
         <v>77</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="11">
         <v>1424</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L35" s="11">
         <v>1923</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M35" s="11">
         <v>56179</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N35" s="11">
         <v>3894</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O35" s="11">
         <v>33212</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P35" s="11">
         <v>20145</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q35" s="11">
         <v>37799</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R35" s="11">
         <v>2588</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S35" s="11">
         <v>48487</v>
       </c>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11">
+      <c r="T35" s="11"/>
+      <c r="U35" s="11">
         <v>116524</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V35" s="11">
         <v>5685</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W35" s="11">
         <v>4852</v>
       </c>
-      <c r="X34" s="11">
+      <c r="X35" s="11">
         <v>1602</v>
       </c>
-      <c r="Y34" s="11">
+      <c r="Y35" s="11">
         <v>11195</v>
       </c>
-      <c r="Z34" s="11">
+      <c r="Z35" s="11">
         <v>15</v>
       </c>
-      <c r="AA34" s="11">
+      <c r="AA35" s="11">
         <v>698</v>
       </c>
     </row>
-    <row r="35" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="13">
+    <row r="36" spans="2:27" hidden="1">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <v>623225</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E36" s="14">
         <v>611005</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="14">
         <v>527</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <v>55700</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H36" s="14">
         <v>9285</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I36" s="14">
         <v>3159</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J36" s="14">
         <v>77</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K36" s="14">
         <v>1424</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L36" s="14">
         <v>1959</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M36" s="14">
         <v>56592</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <v>3885</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O36" s="14">
         <v>33921</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P36" s="14">
         <v>19873</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q36" s="14">
         <v>37606</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R36" s="14">
         <v>2571</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S36" s="14">
         <v>48049</v>
       </c>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14">
+      <c r="T36" s="14"/>
+      <c r="U36" s="14">
         <v>115967</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V36" s="14">
         <v>5662</v>
       </c>
-      <c r="W35" s="14">
+      <c r="W36" s="14">
         <v>4804</v>
       </c>
-      <c r="X35" s="14">
+      <c r="X36" s="14">
         <v>1573</v>
       </c>
-      <c r="Y35" s="14">
+      <c r="Y36" s="14">
         <v>11161</v>
       </c>
-      <c r="Z35" s="14">
+      <c r="Z36" s="14">
         <v>16</v>
       </c>
-      <c r="AA35" s="14">
+      <c r="AA36" s="14">
         <v>699</v>
       </c>
     </row>
-    <row r="36" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:27" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>619408</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>607662</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>525</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="11">
         <v>55704</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H37" s="11">
         <v>9233</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I37" s="11">
         <v>3148</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J37" s="11">
         <v>77</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K37" s="11">
         <v>1424</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L37" s="11">
         <v>1866</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M37" s="11">
         <v>55722</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N37" s="11">
         <v>3891</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O37" s="11">
         <v>32461</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P37" s="11">
         <v>19530</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q37" s="11">
         <v>37234</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R37" s="11">
         <v>2570</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S37" s="11">
         <v>47654</v>
       </c>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11">
+      <c r="T37" s="11"/>
+      <c r="U37" s="11">
         <v>115526</v>
       </c>
-      <c r="V36" s="11">
+      <c r="V37" s="11">
         <v>5597</v>
       </c>
-      <c r="W36" s="11">
+      <c r="W37" s="11">
         <v>4695</v>
       </c>
-      <c r="X36" s="11">
+      <c r="X37" s="11">
         <v>1536</v>
       </c>
-      <c r="Y36" s="11">
+      <c r="Y37" s="11">
         <v>11130</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="Z37" s="11">
         <v>16</v>
       </c>
-      <c r="AA36" s="11">
+      <c r="AA37" s="11">
         <v>696</v>
       </c>
     </row>
-    <row r="37" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="13">
+    <row r="38" spans="2:27" hidden="1">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <v>618040</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>606724</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F38" s="14">
         <v>525</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="14">
         <v>55570</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="14">
         <v>9217</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="14">
         <v>3142</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J38" s="14">
         <v>77</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K38" s="14">
         <v>1424</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L38" s="14">
         <v>1855</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M38" s="14">
         <v>55624</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N38" s="14">
         <v>3889</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O38" s="14">
         <v>32272</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P38" s="14">
         <v>19269</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q38" s="14">
         <v>37056</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R38" s="14">
         <v>2562</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S38" s="14">
         <v>47342</v>
       </c>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14">
+      <c r="T38" s="14"/>
+      <c r="U38" s="14">
         <v>114809</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V38" s="14">
         <v>5569</v>
       </c>
-      <c r="W37" s="14">
+      <c r="W38" s="14">
         <v>4673</v>
       </c>
-      <c r="X37" s="14">
+      <c r="X38" s="14">
         <v>1516</v>
       </c>
-      <c r="Y37" s="14">
+      <c r="Y38" s="14">
         <v>11114</v>
       </c>
-      <c r="Z37" s="14">
+      <c r="Z38" s="14">
         <v>16</v>
       </c>
-      <c r="AA37" s="14">
+      <c r="AA38" s="14">
         <v>695</v>
       </c>
     </row>
-    <row r="38" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:27" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>616795</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>605191</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>525</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>55673</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="11">
         <v>9298</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I39" s="11">
         <v>3152</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J39" s="11">
         <v>77</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="11">
         <v>1424</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L39" s="11">
         <v>1846</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M39" s="11">
         <v>55382</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N39" s="11">
         <v>3892</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O39" s="11">
         <v>32033</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P39" s="11">
         <v>19167</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q39" s="11">
         <v>36662</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R39" s="11">
         <v>2569</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S39" s="11">
         <v>47224</v>
       </c>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11">
+      <c r="T39" s="11"/>
+      <c r="U39" s="11">
         <v>114792</v>
       </c>
-      <c r="V38" s="11">
+      <c r="V39" s="11">
         <v>5511</v>
       </c>
-      <c r="W38" s="11">
+      <c r="W39" s="11">
         <v>4622</v>
       </c>
-      <c r="X38" s="11">
+      <c r="X39" s="11">
         <v>1474</v>
       </c>
-      <c r="Y38" s="11">
+      <c r="Y39" s="11">
         <v>11085</v>
       </c>
-      <c r="Z38" s="11">
+      <c r="Z39" s="11">
         <v>16</v>
       </c>
-      <c r="AA38" s="11">
+      <c r="AA39" s="11">
         <v>695</v>
       </c>
     </row>
-    <row r="39" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13">
+    <row r="40" spans="2:27" hidden="1">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>614317</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>602581</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="14">
         <v>524</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <v>55683</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="14">
         <v>9224</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="14">
         <v>3107</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J40" s="14">
         <v>77</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K40" s="14">
         <v>1424</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L40" s="14">
         <v>1833</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M40" s="14">
         <v>55240</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N40" s="14">
         <v>3885</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O40" s="14">
         <v>31772</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P40" s="14">
         <v>18897</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q40" s="14">
         <v>36589</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R40" s="14">
         <v>2571</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S40" s="14">
         <v>46753</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T40" s="14">
         <v>1</v>
       </c>
-      <c r="U39" s="14">
+      <c r="U40" s="14">
         <v>114370</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V40" s="14">
         <v>5457</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W40" s="14">
         <v>4577</v>
       </c>
-      <c r="X39" s="14">
+      <c r="X40" s="14">
         <v>1352</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Y40" s="14">
         <v>11060</v>
       </c>
-      <c r="Z39" s="14">
+      <c r="Z40" s="14">
         <v>16</v>
       </c>
-      <c r="AA39" s="14">
+      <c r="AA40" s="14">
         <v>696</v>
       </c>
     </row>
-    <row r="40" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+    <row r="41" spans="2:27" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>611918</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>600194</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>523</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>55693</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H41" s="11">
         <v>9204</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I41" s="11">
         <v>3089</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J41" s="11">
         <v>77</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K41" s="11">
         <v>1424</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L41" s="11">
         <v>1820</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M41" s="11">
         <v>55146</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N41" s="11">
         <v>3885</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O41" s="11">
         <v>31565</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P41" s="11">
         <v>18897</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q41" s="11">
         <v>36589</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R41" s="11">
         <v>2568</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S41" s="11">
         <v>46254</v>
       </c>
-      <c r="T40" s="11">
+      <c r="T41" s="11">
         <v>0</v>
       </c>
-      <c r="U40" s="11">
+      <c r="U41" s="11">
         <v>113789</v>
       </c>
-      <c r="V40" s="11">
+      <c r="V41" s="11">
         <v>5441</v>
       </c>
-      <c r="W40" s="11">
+      <c r="W41" s="11">
         <v>4530</v>
       </c>
-      <c r="X40" s="11">
+      <c r="X41" s="11">
         <v>1276</v>
       </c>
-      <c r="Y40" s="11">
+      <c r="Y41" s="11">
         <v>11016</v>
       </c>
-      <c r="Z40" s="11">
+      <c r="Z41" s="11">
         <v>16</v>
       </c>
-      <c r="AA40" s="11">
+      <c r="AA41" s="11">
         <v>694</v>
       </c>
     </row>
-    <row r="41" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="13">
+    <row r="42" spans="2:27" hidden="1">
+      <c r="B42" s="13">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <v>609072</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>597797</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="14">
         <v>523</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <v>55620</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H42" s="14">
         <v>9119</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I42" s="14">
         <v>3048</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J42" s="14">
         <v>77</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K42" s="14">
         <v>1424</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L42" s="14">
         <v>1803</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M42" s="14">
         <v>54943</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N42" s="14">
         <v>3886</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O42" s="14">
         <v>31259</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P42" s="14">
         <v>18473</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q42" s="14">
         <v>35996</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R42" s="14">
         <v>2581</v>
       </c>
-      <c r="S41" s="14">
+      <c r="S42" s="14">
         <v>45940</v>
       </c>
-      <c r="T41" s="14">
+      <c r="T42" s="14">
         <v>1</v>
       </c>
-      <c r="U41" s="14">
+      <c r="U42" s="14">
         <v>112805</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V42" s="14">
         <v>5407</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W42" s="14">
         <v>4480</v>
       </c>
-      <c r="X41" s="14">
+      <c r="X42" s="14">
         <v>1159</v>
       </c>
-      <c r="Y41" s="14">
+      <c r="Y42" s="14">
         <v>10978</v>
       </c>
-      <c r="Z41" s="14">
+      <c r="Z42" s="14">
         <v>16</v>
       </c>
-      <c r="AA41" s="14">
+      <c r="AA42" s="14">
         <v>693</v>
       </c>
     </row>
-    <row r="42" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="18">
+    <row r="43" spans="2:27" hidden="1">
+      <c r="B43" s="18">
         <v>2022</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D43" s="19">
         <v>607150</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E43" s="19">
         <v>596005</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F43" s="19">
         <v>524</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G43" s="19">
         <v>55683</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H43" s="19">
         <v>9107</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I43" s="19">
         <v>3044</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J43" s="19">
         <v>77</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K43" s="19">
         <v>1424</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L43" s="19">
         <v>1789</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M43" s="19">
         <v>54848</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N43" s="19">
         <v>3889</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O43" s="19">
         <v>31054</v>
       </c>
-      <c r="P42" s="19">
+      <c r="P43" s="19">
         <v>18394</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="Q43" s="19">
         <v>35736</v>
       </c>
-      <c r="R42" s="19">
+      <c r="R43" s="19">
         <v>2573</v>
       </c>
-      <c r="S42" s="19">
+      <c r="S43" s="19">
         <v>45388</v>
       </c>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19">
+      <c r="T43" s="19"/>
+      <c r="U43" s="19">
         <v>112333</v>
       </c>
-      <c r="V42" s="19">
+      <c r="V43" s="19">
         <v>5355</v>
       </c>
-      <c r="W42" s="19">
+      <c r="W43" s="19">
         <v>4440</v>
       </c>
-      <c r="X42" s="19">
+      <c r="X43" s="19">
         <v>1030</v>
       </c>
-      <c r="Y42" s="19">
+      <c r="Y43" s="19">
         <v>10960</v>
       </c>
-      <c r="Z42" s="19">
+      <c r="Z43" s="19">
         <v>16</v>
       </c>
-      <c r="AA42" s="19">
+      <c r="AA43" s="19">
         <v>693</v>
       </c>
     </row>
-    <row r="43" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="13">
+    <row r="44" spans="2:27" hidden="1">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <v>606090</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E44" s="14">
         <v>594443</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F44" s="14">
         <v>520</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="14">
         <v>55717</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H44" s="14">
         <v>9091</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I44" s="14">
         <v>3021</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J44" s="14">
         <v>77</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K44" s="14">
         <v>1424</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L44" s="14">
         <v>1787</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M44" s="14">
         <v>54743</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N44" s="14">
         <v>3888</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O44" s="14">
         <v>30885</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P44" s="14">
         <v>18334</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q44" s="14">
         <v>35952</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R44" s="14">
         <v>2604</v>
       </c>
-      <c r="S43" s="14">
+      <c r="S44" s="14">
         <v>45157</v>
       </c>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14">
+      <c r="T44" s="14"/>
+      <c r="U44" s="14">
         <v>111857</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V44" s="14">
         <v>5309</v>
       </c>
-      <c r="W43" s="14">
+      <c r="W44" s="14">
         <v>4400</v>
       </c>
-      <c r="X43" s="14">
+      <c r="X44" s="14">
         <v>957</v>
       </c>
-      <c r="Y43" s="14">
+      <c r="Y44" s="14">
         <v>10938</v>
       </c>
-      <c r="Z43" s="14">
+      <c r="Z44" s="14">
         <v>16</v>
       </c>
-      <c r="AA43" s="14">
+      <c r="AA44" s="14">
         <v>692</v>
       </c>
     </row>
-    <row r="44" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:27" hidden="1">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>603380</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>591451</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>519</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="11">
         <v>55656</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H45" s="11">
         <v>9054</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I45" s="11">
         <v>2985</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J45" s="11">
         <v>77</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K45" s="11">
         <v>1424</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L45" s="11">
         <v>1775</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M45" s="11">
         <v>54335</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N45" s="11">
         <v>3888</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O45" s="11">
         <v>30589</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P45" s="11">
         <v>18224</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q45" s="11">
         <v>35977</v>
       </c>
-      <c r="R44" s="11">
+      <c r="R45" s="11">
         <v>2594</v>
       </c>
-      <c r="S44" s="11">
+      <c r="S45" s="11">
         <v>44663</v>
       </c>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11">
+      <c r="T45" s="11"/>
+      <c r="U45" s="11">
         <v>110970</v>
       </c>
-      <c r="V44" s="11">
+      <c r="V45" s="11">
         <v>5249</v>
       </c>
-      <c r="W44" s="11">
+      <c r="W45" s="11">
         <v>4357</v>
       </c>
-      <c r="X44" s="11">
+      <c r="X45" s="11">
         <v>868</v>
       </c>
-      <c r="Y44" s="11">
+      <c r="Y45" s="11">
         <v>10873</v>
       </c>
-      <c r="Z44" s="11">
+      <c r="Z45" s="11">
         <v>16</v>
       </c>
-      <c r="AA44" s="11">
+      <c r="AA45" s="11">
         <v>692</v>
       </c>
     </row>
-    <row r="45" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="13">
+    <row r="46" spans="2:27" hidden="1">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <v>602061</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <v>590200</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <v>520</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>55685</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="14">
         <v>8999</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="14">
         <v>2982</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J46" s="14">
         <v>77</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K46" s="14">
         <v>1424</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L46" s="14">
         <v>1768</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M46" s="14">
         <v>54086</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N46" s="14">
         <v>3885</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O46" s="14">
         <v>30303</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P46" s="14">
         <v>18211</v>
       </c>
-      <c r="Q45" s="14">
+      <c r="Q46" s="14">
         <v>36050</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R46" s="14">
         <v>2611</v>
       </c>
-      <c r="S45" s="14">
+      <c r="S46" s="14">
         <v>44484</v>
       </c>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14">
+      <c r="T46" s="14"/>
+      <c r="U46" s="14">
         <v>110396</v>
       </c>
-      <c r="V45" s="14">
+      <c r="V46" s="14">
         <v>5205</v>
       </c>
-      <c r="W45" s="14">
+      <c r="W46" s="14">
         <v>4316</v>
       </c>
-      <c r="X45" s="14">
+      <c r="X46" s="14">
         <v>836</v>
       </c>
-      <c r="Y45" s="14">
+      <c r="Y46" s="14">
         <v>10858</v>
       </c>
-      <c r="Z45" s="14">
+      <c r="Z46" s="14">
         <v>16</v>
       </c>
-      <c r="AA45" s="14">
+      <c r="AA46" s="14">
         <v>689</v>
       </c>
     </row>
-    <row r="46" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:27" hidden="1">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>599199</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>586326</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>516</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>55678</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H47" s="11">
         <v>8883</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I47" s="11">
         <v>2962</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="11">
         <v>77</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="11">
         <v>1424</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L47" s="11">
         <v>1761</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M47" s="11">
         <v>53840</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N47" s="11">
         <v>3878</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O47" s="11">
         <v>30091</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P47" s="11">
         <v>18180</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q47" s="11">
         <v>35973</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R47" s="11">
         <v>2618</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S47" s="11">
         <v>43957</v>
       </c>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11">
+      <c r="T47" s="11"/>
+      <c r="U47" s="11">
         <v>110047</v>
       </c>
-      <c r="V46" s="11">
+      <c r="V47" s="11">
         <v>5137</v>
       </c>
-      <c r="W46" s="11">
+      <c r="W47" s="11">
         <v>4253</v>
       </c>
-      <c r="X46" s="11">
+      <c r="X47" s="11">
         <v>705</v>
       </c>
-      <c r="Y46" s="11">
+      <c r="Y47" s="11">
         <v>10790</v>
       </c>
-      <c r="Z46" s="11">
+      <c r="Z47" s="11">
         <v>16</v>
       </c>
-      <c r="AA46" s="11">
+      <c r="AA47" s="11">
         <v>686</v>
       </c>
     </row>
-    <row r="47" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="13">
+    <row r="48" spans="2:27" hidden="1">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <v>597975</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="14">
         <v>583854</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="14">
         <v>505</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="14">
         <v>55668</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H48" s="14">
         <v>8821</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I48" s="14">
         <v>2977</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J48" s="14">
         <v>77</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K48" s="14">
         <v>1424</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L48" s="14">
         <v>1753</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M48" s="14">
         <v>53278</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N48" s="14">
         <v>3892</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O48" s="14">
         <v>29694</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P48" s="14">
         <v>18180</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q48" s="14">
         <v>35973</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R48" s="14">
         <v>2605</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S48" s="14">
         <v>42961</v>
       </c>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14">
+      <c r="T48" s="14"/>
+      <c r="U48" s="14">
         <v>138152</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V48" s="14">
         <v>6095</v>
       </c>
-      <c r="W47" s="14">
+      <c r="W48" s="14">
         <v>4045</v>
       </c>
-      <c r="X47" s="14">
+      <c r="X48" s="14">
         <v>666</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Y48" s="14">
         <v>10713</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="Z48" s="14">
         <v>17</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AA48" s="14">
         <v>682</v>
       </c>
     </row>
-    <row r="48" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:27" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>594590</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>580812</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>505</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="11">
         <v>55750</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H49" s="11">
         <v>8821</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I49" s="11">
         <v>2979</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J49" s="11">
         <v>77</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K49" s="11">
         <v>1424</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L49" s="11">
         <v>1754</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M49" s="11">
         <v>53393</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N49" s="11">
         <v>3894</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O49" s="11">
         <v>29714</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P49" s="11">
         <v>17962</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q49" s="11">
         <v>36188</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R49" s="11">
         <v>2604</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S49" s="11">
         <v>42900</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T49" s="11">
         <v>1</v>
       </c>
-      <c r="U48" s="11">
+      <c r="U49" s="11">
         <v>109339</v>
       </c>
-      <c r="V48" s="11">
+      <c r="V49" s="11">
         <v>5068</v>
       </c>
-      <c r="W48" s="11">
+      <c r="W49" s="11">
         <v>4043</v>
       </c>
-      <c r="X48" s="11">
+      <c r="X49" s="11">
         <v>666</v>
       </c>
-      <c r="Y48" s="11">
+      <c r="Y49" s="11">
         <v>10697</v>
       </c>
-      <c r="Z48" s="11">
+      <c r="Z49" s="11">
         <v>17</v>
       </c>
-      <c r="AA48" s="11">
+      <c r="AA49" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="13">
+    <row r="50" spans="2:27" hidden="1">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <v>593307</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="14">
         <v>578970</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F50" s="14">
         <v>511</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="14">
         <v>55681</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="14">
         <v>8835</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I50" s="14">
         <v>2976</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J50" s="14">
         <v>77</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K50" s="14">
         <v>1424</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L50" s="14">
         <v>1750</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M50" s="14">
         <v>53077</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N50" s="14">
         <v>3889</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O50" s="14">
         <v>29454</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P50" s="14">
         <v>20219</v>
       </c>
-      <c r="Q49" s="14">
+      <c r="Q50" s="14">
         <v>37753</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R50" s="14">
         <v>2598</v>
       </c>
-      <c r="S49" s="14">
+      <c r="S50" s="14">
         <v>42432</v>
       </c>
-      <c r="T49" s="14">
+      <c r="T50" s="14">
         <v>1</v>
       </c>
-      <c r="U49" s="14">
+      <c r="U50" s="14">
         <v>109131</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V50" s="14">
         <v>4950</v>
       </c>
-      <c r="W49" s="14">
+      <c r="W50" s="14">
         <v>4018</v>
       </c>
-      <c r="X49" s="14">
+      <c r="X50" s="14">
         <v>650</v>
       </c>
-      <c r="Y49" s="14">
+      <c r="Y50" s="14">
         <v>10710</v>
       </c>
-      <c r="Z49" s="14">
+      <c r="Z50" s="14">
         <v>17</v>
       </c>
-      <c r="AA49" s="14">
+      <c r="AA50" s="14">
         <v>680</v>
       </c>
     </row>
-    <row r="50" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:27" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>590245</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>576050</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>510</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>55725</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H51" s="11">
         <v>8835</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I51" s="11">
         <v>2957</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J51" s="11">
         <v>77</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K51" s="11">
         <v>1424</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L51" s="11">
         <v>1740</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M51" s="11">
         <v>52924</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N51" s="11">
         <v>3886</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O51" s="11">
         <v>29218</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P51" s="11">
         <v>17867</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q51" s="11">
         <v>36460</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R51" s="11">
         <v>2606</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S51" s="11">
         <v>42065</v>
       </c>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11">
+      <c r="T51" s="11"/>
+      <c r="U51" s="11">
         <v>108383</v>
       </c>
-      <c r="V50" s="11">
+      <c r="V51" s="11">
         <v>4897</v>
       </c>
-      <c r="W50" s="11">
+      <c r="W51" s="11">
         <v>3940</v>
       </c>
-      <c r="X50" s="11">
+      <c r="X51" s="11">
         <v>634</v>
       </c>
-      <c r="Y50" s="11">
+      <c r="Y51" s="11">
         <v>10660</v>
       </c>
-      <c r="Z50" s="11">
+      <c r="Z51" s="11">
         <v>17</v>
       </c>
-      <c r="AA50" s="11">
+      <c r="AA51" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="13">
+    <row r="52" spans="2:27" hidden="1">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <v>588077</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="14">
         <v>573877</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="14">
         <v>509</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <v>55905</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H52" s="14">
         <v>8876</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="14">
         <v>2941</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J52" s="14">
         <v>77</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K52" s="14">
         <v>1424</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L52" s="14">
         <v>1741</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M52" s="14">
         <v>52732</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N52" s="14">
         <v>3884</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O52" s="14">
         <v>29115</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P52" s="14">
         <v>17854</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q52" s="14">
         <v>36552</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R52" s="14">
         <v>2596</v>
       </c>
-      <c r="S51" s="14">
+      <c r="S52" s="14">
         <v>41550</v>
       </c>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14">
+      <c r="T52" s="14"/>
+      <c r="U52" s="14">
         <v>107848</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V52" s="14">
         <v>4861</v>
       </c>
-      <c r="W51" s="14">
+      <c r="W52" s="14">
         <v>3840</v>
       </c>
-      <c r="X51" s="14">
+      <c r="X52" s="14">
         <v>623</v>
       </c>
-      <c r="Y51" s="14">
+      <c r="Y52" s="14">
         <v>10625</v>
       </c>
-      <c r="Z51" s="14">
+      <c r="Z52" s="14">
         <v>17</v>
       </c>
-      <c r="AA51" s="14">
+      <c r="AA52" s="14">
         <v>679</v>
       </c>
     </row>
-    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+    <row r="53" spans="2:27" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>586093</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>571129</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>508</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>56021</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H53" s="11">
         <v>8878</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I53" s="11">
         <v>2934</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J53" s="11">
         <v>77</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K53" s="11">
         <v>1424</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L53" s="11">
         <v>1732</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M53" s="11">
         <v>52504</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N53" s="11">
         <v>3883</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O53" s="11">
         <v>29014</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P53" s="11">
         <v>17887</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q53" s="11">
         <v>36498</v>
       </c>
-      <c r="R52" s="11">
+      <c r="R53" s="11">
         <v>2578</v>
       </c>
-      <c r="S52" s="11">
+      <c r="S53" s="11">
         <v>40750</v>
       </c>
-      <c r="T52" s="11">
+      <c r="T53" s="11">
         <v>0</v>
       </c>
-      <c r="U52" s="11">
+      <c r="U53" s="11">
         <v>107480</v>
       </c>
-      <c r="V52" s="11">
+      <c r="V53" s="11">
         <v>4839</v>
       </c>
-      <c r="W52" s="11">
+      <c r="W53" s="11">
         <v>3789</v>
       </c>
-      <c r="X52" s="11">
+      <c r="X53" s="11">
         <v>621</v>
       </c>
-      <c r="Y52" s="11">
+      <c r="Y53" s="11">
         <v>10600</v>
       </c>
-      <c r="Z52" s="11">
+      <c r="Z53" s="11">
         <v>17</v>
       </c>
-      <c r="AA52" s="11">
+      <c r="AA53" s="11">
         <v>678</v>
       </c>
     </row>
-    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="13">
+    <row r="54" spans="2:27" hidden="1">
+      <c r="B54" s="13">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <v>583440</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E54" s="14">
         <v>567677</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F54" s="14">
         <v>507</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="14">
         <v>56059</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H54" s="14">
         <v>8871</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I54" s="14">
         <v>2921</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J54" s="14">
         <v>77</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K54" s="14">
         <v>1424</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L54" s="14">
         <v>1728</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M54" s="14">
         <v>52301</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N54" s="14">
         <v>3880</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O54" s="14">
         <v>28867</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P54" s="14">
         <v>17889</v>
       </c>
-      <c r="Q53" s="14">
+      <c r="Q54" s="14">
         <v>36421</v>
       </c>
-      <c r="R53" s="14">
+      <c r="R54" s="14">
         <v>2569</v>
       </c>
-      <c r="S53" s="14">
+      <c r="S54" s="14">
         <v>39851</v>
       </c>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14">
+      <c r="T54" s="14"/>
+      <c r="U54" s="14">
         <v>106898</v>
       </c>
-      <c r="V53" s="14">
+      <c r="V54" s="14">
         <v>4801</v>
       </c>
-      <c r="W53" s="14">
+      <c r="W54" s="14">
         <v>3689</v>
       </c>
-      <c r="X53" s="14">
+      <c r="X54" s="14">
         <v>585</v>
       </c>
-      <c r="Y53" s="14">
+      <c r="Y54" s="14">
         <v>10566</v>
       </c>
-      <c r="Z53" s="14">
+      <c r="Z54" s="14">
         <v>17</v>
       </c>
-      <c r="AA53" s="14">
+      <c r="AA54" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="18">
+    <row r="55" spans="2:27" hidden="1">
+      <c r="B55" s="18">
         <v>2021</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D55" s="19">
         <v>581299</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E55" s="19">
         <v>565156</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F55" s="19">
         <v>507</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G55" s="19">
         <v>56230</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H55" s="19">
         <v>8897</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I55" s="19">
         <v>2930</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J55" s="19">
         <v>77</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K55" s="19">
         <v>1424</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L55" s="19">
         <v>1727</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M55" s="19">
         <v>52149</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N55" s="19">
         <v>3874</v>
       </c>
-      <c r="O54" s="19">
+      <c r="O55" s="19">
         <v>28827</v>
       </c>
-      <c r="P54" s="19">
+      <c r="P55" s="19">
         <v>17957</v>
       </c>
-      <c r="Q54" s="19">
+      <c r="Q55" s="19">
         <v>36403</v>
       </c>
-      <c r="R54" s="19">
+      <c r="R55" s="19">
         <v>2555</v>
       </c>
-      <c r="S54" s="19">
+      <c r="S55" s="19">
         <v>39272</v>
       </c>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19">
+      <c r="T55" s="19"/>
+      <c r="U55" s="19">
         <v>106698</v>
       </c>
-      <c r="V54" s="19">
+      <c r="V55" s="19">
         <v>4780</v>
       </c>
-      <c r="W54" s="19">
+      <c r="W55" s="19">
         <v>3642</v>
       </c>
-      <c r="X54" s="19">
+      <c r="X55" s="19">
         <v>578</v>
       </c>
-      <c r="Y54" s="19">
+      <c r="Y55" s="19">
         <v>10557</v>
       </c>
-      <c r="Z54" s="19">
+      <c r="Z55" s="19">
         <v>17</v>
       </c>
-      <c r="AA54" s="19">
+      <c r="AA55" s="19">
         <v>671</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="13">
+    <row r="56" spans="2:27" hidden="1">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <v>580035</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E56" s="14">
         <v>563400</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F56" s="14">
         <v>505</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="14">
         <v>56274</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H56" s="14">
         <v>8916</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I56" s="14">
         <v>2933</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J56" s="14">
         <v>77</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K56" s="14">
         <v>1424</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L56" s="14">
         <v>1736</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M56" s="14">
         <v>52012</v>
       </c>
-      <c r="N55" s="14">
+      <c r="N56" s="14">
         <v>3877</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O56" s="14">
         <v>28815</v>
       </c>
-      <c r="P55" s="14">
+      <c r="P56" s="14">
         <v>18007</v>
       </c>
-      <c r="Q55" s="14">
+      <c r="Q56" s="14">
         <v>36384</v>
       </c>
-      <c r="R55" s="14">
+      <c r="R56" s="14">
         <v>2551</v>
       </c>
-      <c r="S55" s="14">
+      <c r="S56" s="14">
         <v>38799</v>
       </c>
-      <c r="T55" s="14">
+      <c r="T56" s="14">
         <v>0</v>
       </c>
-      <c r="U55" s="14">
+      <c r="U56" s="14">
         <v>106486</v>
       </c>
-      <c r="V55" s="14">
+      <c r="V56" s="14">
         <v>4754</v>
       </c>
-      <c r="W55" s="14">
+      <c r="W56" s="14">
         <v>3612</v>
       </c>
-      <c r="X55" s="14">
+      <c r="X56" s="14">
         <v>569</v>
       </c>
-      <c r="Y55" s="14">
+      <c r="Y56" s="14">
         <v>10542</v>
       </c>
-      <c r="Z55" s="14">
+      <c r="Z56" s="14">
         <v>17</v>
       </c>
-      <c r="AA55" s="14">
+      <c r="AA56" s="14">
         <v>670</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:27" hidden="1">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>576835</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>560383</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>501</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="11">
         <v>56253</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H57" s="11">
         <v>8958</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I57" s="11">
         <v>2929</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J57" s="11">
         <v>77</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K57" s="11">
         <v>1424</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L57" s="11">
         <v>1734</v>
       </c>
-      <c r="M56" s="11">
+      <c r="M57" s="11">
         <v>51472</v>
       </c>
-      <c r="N56" s="11">
+      <c r="N57" s="11">
         <v>3876</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O57" s="11">
         <v>28607</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P57" s="11">
         <v>17914</v>
       </c>
-      <c r="Q56" s="11">
+      <c r="Q57" s="11">
         <v>36355</v>
       </c>
-      <c r="R56" s="11">
+      <c r="R57" s="11">
         <v>2550</v>
       </c>
-      <c r="S56" s="11">
+      <c r="S57" s="11">
         <v>37952</v>
       </c>
-      <c r="T56" s="11">
+      <c r="T57" s="11">
         <v>0</v>
       </c>
-      <c r="U56" s="11">
+      <c r="U57" s="11">
         <v>106174</v>
       </c>
-      <c r="V56" s="11">
+      <c r="V57" s="11">
         <v>4716</v>
       </c>
-      <c r="W56" s="11">
+      <c r="W57" s="11">
         <v>3542</v>
       </c>
-      <c r="X56" s="11">
+      <c r="X57" s="11">
         <v>553</v>
       </c>
-      <c r="Y56" s="11">
+      <c r="Y57" s="11">
         <v>10450</v>
       </c>
-      <c r="Z56" s="11">
+      <c r="Z57" s="11">
         <v>17</v>
       </c>
-      <c r="AA56" s="11">
+      <c r="AA57" s="11">
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="13">
+    <row r="58" spans="2:27" hidden="1">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <v>574056</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="14">
         <v>556941</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F58" s="14">
         <v>499</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="14">
         <v>56245</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="14">
         <v>8933</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I58" s="14">
         <v>2902</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J58" s="14">
         <v>77</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K58" s="14">
         <v>1424</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L58" s="14">
         <v>1739</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M58" s="14">
         <v>51341</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N58" s="14">
         <v>3877</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O58" s="14">
         <v>28460</v>
       </c>
-      <c r="P57" s="14">
+      <c r="P58" s="14">
         <v>17784</v>
       </c>
-      <c r="Q57" s="14">
+      <c r="Q58" s="14">
         <v>36186</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R58" s="14">
         <v>2539</v>
       </c>
-      <c r="S57" s="14">
+      <c r="S58" s="14">
         <v>37095</v>
       </c>
-      <c r="T57" s="14">
+      <c r="T58" s="14">
         <v>1</v>
       </c>
-      <c r="U57" s="14">
+      <c r="U58" s="14">
         <v>105781</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V58" s="14">
         <v>4675</v>
       </c>
-      <c r="W57" s="14">
+      <c r="W58" s="14">
         <v>3405</v>
       </c>
-      <c r="X57" s="14">
+      <c r="X58" s="14">
         <v>535</v>
       </c>
-      <c r="Y57" s="14">
+      <c r="Y58" s="14">
         <v>10417</v>
       </c>
-      <c r="Z57" s="14">
+      <c r="Z58" s="14">
         <v>17</v>
       </c>
-      <c r="AA57" s="14">
+      <c r="AA58" s="14">
         <v>666</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:27" hidden="1">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>571367</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>552611</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>495</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>56341</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H59" s="11">
         <v>9019</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I59" s="11">
         <v>2941</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J59" s="11">
         <v>77</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K59" s="11">
         <v>1424</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L59" s="11">
         <v>1746</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M59" s="11">
         <v>51196</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N59" s="11">
         <v>3879</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O59" s="11">
         <v>28351</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P59" s="11">
         <v>17563</v>
       </c>
-      <c r="Q58" s="11">
+      <c r="Q59" s="11">
         <v>35861</v>
       </c>
-      <c r="R58" s="11">
+      <c r="R59" s="11">
         <v>2521</v>
       </c>
-      <c r="S58" s="11">
+      <c r="S59" s="11">
         <v>36352</v>
       </c>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11">
+      <c r="T59" s="11"/>
+      <c r="U59" s="11">
         <v>105315</v>
       </c>
-      <c r="V58" s="11">
+      <c r="V59" s="11">
         <v>4640</v>
       </c>
-      <c r="W58" s="11">
+      <c r="W59" s="11">
         <v>3253</v>
       </c>
-      <c r="X58" s="11">
+      <c r="X59" s="11">
         <v>533</v>
       </c>
-      <c r="Y58" s="11">
+      <c r="Y59" s="11">
         <v>10374</v>
       </c>
-      <c r="Z58" s="11">
+      <c r="Z59" s="11">
         <v>17</v>
       </c>
-      <c r="AA58" s="11">
+      <c r="AA59" s="11">
         <v>666</v>
       </c>
     </row>
-    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="13">
+    <row r="60" spans="2:27" hidden="1">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <v>569174</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E60" s="14">
         <v>549631</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="14">
         <v>496</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <v>56348</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="14">
         <v>9127</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I60" s="14">
         <v>2959</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J60" s="14">
         <v>77</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K60" s="14">
         <v>1424</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L60" s="14">
         <v>1745</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M60" s="14">
         <v>51089</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N60" s="14">
         <v>3866</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O60" s="14">
         <v>28370</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P60" s="14">
         <v>17421</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="Q60" s="14">
         <v>35866</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R60" s="14">
         <v>2504</v>
       </c>
-      <c r="S59" s="14">
+      <c r="S60" s="14">
         <v>35789</v>
       </c>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14">
+      <c r="T60" s="14"/>
+      <c r="U60" s="14">
         <v>104940</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V60" s="14">
         <v>4612</v>
       </c>
-      <c r="W59" s="14">
+      <c r="W60" s="14">
         <v>3208</v>
       </c>
-      <c r="X59" s="14">
+      <c r="X60" s="14">
         <v>503</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="Y60" s="14">
         <v>10368</v>
       </c>
-      <c r="Z59" s="14">
+      <c r="Z60" s="14">
         <v>17</v>
       </c>
-      <c r="AA59" s="14">
+      <c r="AA60" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:27" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>567168</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>547540</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>498</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="11">
         <v>56269</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H61" s="11">
         <v>9193</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I61" s="11">
         <v>2973</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J61" s="11">
         <v>77</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K61" s="11">
         <v>1424</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L61" s="11">
         <v>1747</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M61" s="11">
         <v>50966</v>
       </c>
-      <c r="N60" s="11">
+      <c r="N61" s="11">
         <v>3857</v>
       </c>
-      <c r="O60" s="11">
+      <c r="O61" s="11">
         <v>28348</v>
       </c>
-      <c r="P60" s="11">
+      <c r="P61" s="11">
         <v>17331</v>
       </c>
-      <c r="Q60" s="11">
+      <c r="Q61" s="11">
         <v>35832</v>
       </c>
-      <c r="R60" s="11">
+      <c r="R61" s="11">
         <v>2489</v>
       </c>
-      <c r="S60" s="11">
+      <c r="S61" s="11">
         <v>35300</v>
       </c>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11">
+      <c r="T61" s="11"/>
+      <c r="U61" s="11">
         <v>104554</v>
       </c>
-      <c r="V60" s="11">
+      <c r="V61" s="11">
         <v>4605</v>
       </c>
-      <c r="W60" s="11">
+      <c r="W61" s="11">
         <v>3183</v>
       </c>
-      <c r="X60" s="11">
+      <c r="X61" s="11">
         <v>491</v>
       </c>
-      <c r="Y60" s="11">
+      <c r="Y61" s="11">
         <v>10340</v>
       </c>
-      <c r="Z60" s="11">
+      <c r="Z61" s="11">
         <v>16</v>
       </c>
-      <c r="AA60" s="11">
+      <c r="AA61" s="11">
         <v>662</v>
       </c>
     </row>
-    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="13">
+    <row r="62" spans="2:27" hidden="1">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <v>566042</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E62" s="14">
         <v>545916</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F62" s="14">
         <v>498</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="14">
         <v>56291</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="14">
         <v>9187</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I62" s="14">
         <v>2980</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J62" s="14">
         <v>77</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K62" s="14">
         <v>1424</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L62" s="14">
         <v>1748</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M62" s="14">
         <v>50878</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N62" s="14">
         <v>3863</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O62" s="14">
         <v>28349</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P62" s="14">
         <v>17359</v>
       </c>
-      <c r="Q61" s="14">
+      <c r="Q62" s="14">
         <v>35902</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R62" s="14">
         <v>2485</v>
       </c>
-      <c r="S61" s="14">
+      <c r="S62" s="14">
         <v>35117</v>
       </c>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14">
+      <c r="T62" s="14"/>
+      <c r="U62" s="14">
         <v>104123</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V62" s="14">
         <v>4584</v>
       </c>
-      <c r="W61" s="14">
+      <c r="W62" s="14">
         <v>3179</v>
       </c>
-      <c r="X61" s="14">
+      <c r="X62" s="14">
         <v>489</v>
       </c>
-      <c r="Y61" s="14">
+      <c r="Y62" s="14">
         <v>10327</v>
       </c>
-      <c r="Z61" s="14">
+      <c r="Z62" s="14">
         <v>17</v>
       </c>
-      <c r="AA61" s="14">
+      <c r="AA62" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:27" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>565980</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>545400</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>499</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>56275</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H63" s="11">
         <v>9187</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I63" s="11">
         <v>2982</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J63" s="11">
         <v>77</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K63" s="11">
         <v>1424</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L63" s="11">
         <v>1755</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M63" s="11">
         <v>50805</v>
       </c>
-      <c r="N62" s="11">
+      <c r="N63" s="11">
         <v>3864</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O63" s="11">
         <v>28294</v>
       </c>
-      <c r="P62" s="11">
+      <c r="P63" s="11">
         <v>17361</v>
       </c>
-      <c r="Q62" s="11">
+      <c r="Q63" s="11">
         <v>36010</v>
       </c>
-      <c r="R62" s="11">
+      <c r="R63" s="11">
         <v>2485</v>
       </c>
-      <c r="S62" s="11">
+      <c r="S63" s="11">
         <v>34872</v>
       </c>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11">
+      <c r="T63" s="11"/>
+      <c r="U63" s="11">
         <v>104093</v>
       </c>
-      <c r="V62" s="11">
+      <c r="V63" s="11">
         <v>4584</v>
       </c>
-      <c r="W62" s="11">
+      <c r="W63" s="11">
         <v>3174</v>
       </c>
-      <c r="X62" s="11">
+      <c r="X63" s="11">
         <v>486</v>
       </c>
-      <c r="Y62" s="11">
+      <c r="Y63" s="11">
         <v>10322</v>
       </c>
-      <c r="Z62" s="11">
+      <c r="Z63" s="11">
         <v>17</v>
       </c>
-      <c r="AA62" s="11">
+      <c r="AA63" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="13">
+    <row r="64" spans="2:27" hidden="1">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <v>565883</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E64" s="14">
         <v>545244</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F64" s="14">
         <v>499</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <v>56275</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="14">
         <v>9189</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="14">
         <v>2982</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J64" s="14">
         <v>77</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K64" s="14">
         <v>1424</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L64" s="14">
         <v>1755</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M64" s="14">
         <v>50796</v>
       </c>
-      <c r="N63" s="14">
+      <c r="N64" s="14">
         <v>3864</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O64" s="14">
         <v>28297</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P64" s="14">
         <v>17361</v>
       </c>
-      <c r="Q63" s="14">
+      <c r="Q64" s="14">
         <v>36010</v>
       </c>
-      <c r="R63" s="14">
+      <c r="R64" s="14">
         <v>2485</v>
       </c>
-      <c r="S63" s="14">
+      <c r="S64" s="14">
         <v>34862</v>
       </c>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14">
+      <c r="T64" s="14"/>
+      <c r="U64" s="14">
         <v>104076</v>
       </c>
-      <c r="V63" s="14">
+      <c r="V64" s="14">
         <v>4584</v>
       </c>
-      <c r="W63" s="14">
+      <c r="W64" s="14">
         <v>3174</v>
       </c>
-      <c r="X63" s="14">
+      <c r="X64" s="14">
         <v>486</v>
       </c>
-      <c r="Y63" s="14">
+      <c r="Y64" s="14">
         <v>10322</v>
       </c>
-      <c r="Z63" s="14">
+      <c r="Z64" s="14">
         <v>17</v>
       </c>
-      <c r="AA63" s="14">
+      <c r="AA64" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="64" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+    <row r="65" spans="2:27" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>565809</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>545128</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>499</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <v>56281</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H65" s="11">
         <v>9189</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I65" s="11">
         <v>2982</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J65" s="11">
         <v>77</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K65" s="11">
         <v>1424</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L65" s="11">
         <v>1755</v>
       </c>
-      <c r="M64" s="11">
+      <c r="M65" s="11">
         <v>50794</v>
       </c>
-      <c r="N64" s="11">
+      <c r="N65" s="11">
         <v>3867</v>
       </c>
-      <c r="O64" s="11">
+      <c r="O65" s="11">
         <v>28301</v>
       </c>
-      <c r="P64" s="11">
+      <c r="P65" s="11">
         <v>17361</v>
       </c>
-      <c r="Q64" s="11">
+      <c r="Q65" s="11">
         <v>36010</v>
       </c>
-      <c r="R64" s="11">
+      <c r="R65" s="11">
         <v>2487</v>
       </c>
-      <c r="S64" s="11">
+      <c r="S65" s="11">
         <v>34874</v>
       </c>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11">
+      <c r="T65" s="11"/>
+      <c r="U65" s="11">
         <v>104084</v>
       </c>
-      <c r="V64" s="11">
+      <c r="V65" s="11">
         <v>4585</v>
       </c>
-      <c r="W64" s="11">
+      <c r="W65" s="11">
         <v>3174</v>
       </c>
-      <c r="X64" s="11">
+      <c r="X65" s="11">
         <v>486</v>
       </c>
-      <c r="Y64" s="11">
+      <c r="Y65" s="11">
         <v>10319</v>
       </c>
-      <c r="Z64" s="11">
+      <c r="Z65" s="11">
         <v>17</v>
       </c>
-      <c r="AA64" s="11">
+      <c r="AA65" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="13">
+    <row r="66" spans="2:27" hidden="1">
+      <c r="B66" s="13">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <v>564089</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E66" s="14">
         <v>542595</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F66" s="14">
         <v>496</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="14">
         <v>56248</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H66" s="14">
         <v>9180</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I66" s="14">
         <v>2964</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J66" s="14">
         <v>77</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K66" s="14">
         <v>1424</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L66" s="14">
         <v>1745</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M66" s="14">
         <v>50693</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N66" s="14">
         <v>3869</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O66" s="14">
         <v>28110</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P66" s="14">
         <v>16719</v>
       </c>
-      <c r="Q65" s="14">
+      <c r="Q66" s="14">
         <v>35910</v>
       </c>
-      <c r="R65" s="14">
+      <c r="R66" s="14">
         <v>2467</v>
       </c>
-      <c r="S65" s="14">
+      <c r="S66" s="14">
         <v>34546</v>
       </c>
-      <c r="T65" s="14"/>
-      <c r="U65" s="14">
+      <c r="T66" s="14"/>
+      <c r="U66" s="14">
         <v>103491</v>
       </c>
-      <c r="V65" s="14">
+      <c r="V66" s="14">
         <v>4545</v>
       </c>
-      <c r="W65" s="14">
+      <c r="W66" s="14">
         <v>3124</v>
       </c>
-      <c r="X65" s="14">
+      <c r="X66" s="14">
         <v>480</v>
       </c>
-      <c r="Y65" s="14">
+      <c r="Y66" s="14">
         <v>10285</v>
       </c>
-      <c r="Z65" s="14">
+      <c r="Z66" s="14">
         <v>17</v>
       </c>
-      <c r="AA65" s="14">
+      <c r="AA66" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="66" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="18">
+    <row r="67" spans="2:27" hidden="1">
+      <c r="B67" s="18">
         <v>2020</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C67" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D67" s="19">
         <v>562170</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E67" s="19">
         <v>539768</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F67" s="19">
         <v>496</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G67" s="19">
         <v>56222</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H67" s="19">
         <v>9165</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I67" s="19">
         <v>2963</v>
       </c>
-      <c r="J66" s="19">
+      <c r="J67" s="19">
         <v>77</v>
       </c>
-      <c r="K66" s="19">
+      <c r="K67" s="19">
         <v>1424</v>
       </c>
-      <c r="L66" s="19">
+      <c r="L67" s="19">
         <v>1747</v>
       </c>
-      <c r="M66" s="19">
+      <c r="M67" s="19">
         <v>50528</v>
       </c>
-      <c r="N66" s="19">
+      <c r="N67" s="19">
         <v>3862</v>
       </c>
-      <c r="O66" s="19">
+      <c r="O67" s="19">
         <v>27916</v>
       </c>
-      <c r="P66" s="19">
+      <c r="P67" s="19">
         <v>16577</v>
       </c>
-      <c r="Q66" s="19">
+      <c r="Q67" s="19">
         <v>35720</v>
       </c>
-      <c r="R66" s="19">
+      <c r="R67" s="19">
         <v>2434</v>
       </c>
-      <c r="S66" s="19">
+      <c r="S67" s="19">
         <v>34311</v>
       </c>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19">
+      <c r="T67" s="19"/>
+      <c r="U67" s="19">
         <v>102764</v>
       </c>
-      <c r="V66" s="19">
+      <c r="V67" s="19">
         <v>4504</v>
       </c>
-      <c r="W66" s="19">
+      <c r="W67" s="19">
         <v>3103</v>
       </c>
-      <c r="X66" s="19">
+      <c r="X67" s="19">
         <v>461</v>
       </c>
-      <c r="Y66" s="19">
+      <c r="Y67" s="19">
         <v>10273</v>
       </c>
-      <c r="Z66" s="19">
+      <c r="Z67" s="19">
         <v>17</v>
       </c>
-      <c r="AA66" s="19">
+      <c r="AA67" s="19">
         <v>663</v>
       </c>
     </row>
-    <row r="67" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="13">
+    <row r="68" spans="2:27" hidden="1">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <v>561061</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E68" s="14">
         <v>537813</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F68" s="14">
         <v>497</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G68" s="14">
         <v>56256</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H68" s="14">
         <v>9149</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I68" s="14">
         <v>2965</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J68" s="14">
         <v>77</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K68" s="14">
         <v>1424</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L68" s="14">
         <v>1747</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M68" s="14">
         <v>50432</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N68" s="14">
         <v>3858</v>
       </c>
-      <c r="O67" s="14">
+      <c r="O68" s="14">
         <v>27818</v>
       </c>
-      <c r="P67" s="14">
+      <c r="P68" s="14">
         <v>16663</v>
       </c>
-      <c r="Q67" s="14">
+      <c r="Q68" s="14">
         <v>35664</v>
       </c>
-      <c r="R67" s="14">
+      <c r="R68" s="14">
         <v>2427</v>
       </c>
-      <c r="S67" s="14">
+      <c r="S68" s="14">
         <v>33984</v>
       </c>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14">
+      <c r="T68" s="14"/>
+      <c r="U68" s="14">
         <v>102021</v>
       </c>
-      <c r="V67" s="14">
+      <c r="V68" s="14">
         <v>4466</v>
       </c>
-      <c r="W67" s="14">
+      <c r="W68" s="14">
         <v>3102</v>
       </c>
-      <c r="X67" s="14">
+      <c r="X68" s="14">
         <v>462</v>
       </c>
-      <c r="Y67" s="14">
+      <c r="Y68" s="14">
         <v>10222</v>
       </c>
-      <c r="Z67" s="14">
+      <c r="Z68" s="14">
         <v>17</v>
       </c>
-      <c r="AA67" s="14">
+      <c r="AA68" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="68" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:27" hidden="1">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>558626</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>535724</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>493</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>55998</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H69" s="11">
         <v>9075</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I69" s="11">
         <v>2960</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J69" s="11">
         <v>77</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K69" s="11">
         <v>1424</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L69" s="11">
         <v>1718</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M69" s="11">
         <v>50135</v>
       </c>
-      <c r="N68" s="11">
+      <c r="N69" s="11">
         <v>3846</v>
       </c>
-      <c r="O68" s="11">
+      <c r="O69" s="11">
         <v>27391</v>
       </c>
-      <c r="P68" s="11">
+      <c r="P69" s="11">
         <v>16776</v>
       </c>
-      <c r="Q68" s="11">
+      <c r="Q69" s="11">
         <v>35622</v>
       </c>
-      <c r="R68" s="11">
+      <c r="R69" s="11">
         <v>2417</v>
       </c>
-      <c r="S68" s="11">
+      <c r="S69" s="11">
         <v>33833</v>
       </c>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11">
+      <c r="T69" s="11"/>
+      <c r="U69" s="11">
         <v>101688</v>
       </c>
-      <c r="V68" s="11">
+      <c r="V69" s="11">
         <v>4382</v>
       </c>
-      <c r="W68" s="11">
+      <c r="W69" s="11">
         <v>3068</v>
       </c>
-      <c r="X68" s="11">
+      <c r="X69" s="11">
         <v>453</v>
       </c>
-      <c r="Y68" s="11">
+      <c r="Y69" s="11">
         <v>10134</v>
       </c>
-      <c r="Z68" s="11">
+      <c r="Z69" s="11">
         <v>17</v>
       </c>
-      <c r="AA68" s="11">
+      <c r="AA69" s="11">
         <v>660</v>
       </c>
     </row>
-    <row r="69" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="13">
+    <row r="70" spans="2:27" hidden="1">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <v>556346</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E70" s="14">
         <v>533069</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F70" s="14">
         <v>492</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="14">
         <v>55871</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H70" s="14">
         <v>9008</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="14">
         <v>2938</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J70" s="14">
         <v>77</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K70" s="14">
         <v>1424</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L70" s="14">
         <v>1711</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M70" s="14">
         <v>49943</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N70" s="14">
         <v>3804</v>
       </c>
-      <c r="O69" s="14">
+      <c r="O70" s="14">
         <v>27062</v>
       </c>
-      <c r="P69" s="14">
+      <c r="P70" s="14">
         <v>16772</v>
       </c>
-      <c r="Q69" s="14">
+      <c r="Q70" s="14">
         <v>35650</v>
       </c>
-      <c r="R69" s="14">
+      <c r="R70" s="14">
         <v>2402</v>
       </c>
-      <c r="S69" s="14">
+      <c r="S70" s="14">
         <v>33575</v>
       </c>
-      <c r="T69" s="14"/>
-      <c r="U69" s="14">
+      <c r="T70" s="14"/>
+      <c r="U70" s="14">
         <v>101067</v>
       </c>
-      <c r="V69" s="14">
+      <c r="V70" s="14">
         <v>4305</v>
       </c>
-      <c r="W69" s="14">
+      <c r="W70" s="14">
         <v>3036</v>
       </c>
-      <c r="X69" s="14">
+      <c r="X70" s="14">
         <v>442</v>
       </c>
-      <c r="Y69" s="14">
+      <c r="Y70" s="14">
         <v>10077</v>
       </c>
-      <c r="Z69" s="14">
+      <c r="Z70" s="14">
         <v>17</v>
       </c>
-      <c r="AA69" s="14">
+      <c r="AA70" s="14">
         <v>658</v>
       </c>
     </row>
-    <row r="70" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:27" hidden="1">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>519860</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>505944</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>449</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>49255</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H71" s="11">
         <v>6176</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I71" s="11">
         <v>2186</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J71" s="11">
         <v>73</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K71" s="11">
         <v>1413</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L71" s="11">
         <v>1713</v>
       </c>
-      <c r="M70" s="11">
+      <c r="M71" s="11">
         <v>43268</v>
       </c>
-      <c r="N70" s="11">
+      <c r="N71" s="11">
         <v>3801</v>
       </c>
-      <c r="O70" s="11">
+      <c r="O71" s="11">
         <v>26781</v>
       </c>
-      <c r="P70" s="11">
+      <c r="P71" s="11">
         <v>14771</v>
       </c>
-      <c r="Q70" s="11">
+      <c r="Q71" s="11">
         <v>34056</v>
       </c>
-      <c r="R70" s="11">
+      <c r="R71" s="11">
         <v>2388</v>
       </c>
-      <c r="S70" s="11">
+      <c r="S71" s="11">
         <v>33239</v>
       </c>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11">
+      <c r="T71" s="11"/>
+      <c r="U71" s="11">
         <v>100098</v>
       </c>
-      <c r="V70" s="11">
+      <c r="V71" s="11">
         <v>4230</v>
       </c>
-      <c r="W70" s="11">
+      <c r="W71" s="11">
         <v>2983</v>
       </c>
-      <c r="X70" s="11">
+      <c r="X71" s="11">
         <v>435</v>
       </c>
-      <c r="Y70" s="11">
+      <c r="Y71" s="11">
         <v>10048</v>
       </c>
-      <c r="Z70" s="11">
+      <c r="Z71" s="11">
         <v>17</v>
       </c>
-      <c r="AA70" s="11">
+      <c r="AA71" s="11">
         <v>655</v>
       </c>
     </row>
-    <row r="71" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="13">
+    <row r="72" spans="2:27" hidden="1">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <v>517666</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E72" s="14">
         <v>503486</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F72" s="14">
         <v>449</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="14">
         <v>49171</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H72" s="14">
         <v>6156</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I72" s="14">
         <v>2183</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J72" s="14">
         <v>73</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K72" s="14">
         <v>1413</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L72" s="14">
         <v>1710</v>
       </c>
-      <c r="M71" s="14">
+      <c r="M72" s="14">
         <v>43104</v>
       </c>
-      <c r="N71" s="14">
+      <c r="N72" s="14">
         <v>3785</v>
       </c>
-      <c r="O71" s="14">
+      <c r="O72" s="14">
         <v>26582</v>
       </c>
-      <c r="P71" s="14">
+      <c r="P72" s="14">
         <v>14832</v>
       </c>
-      <c r="Q71" s="14">
+      <c r="Q72" s="14">
         <v>34205</v>
       </c>
-      <c r="R71" s="14">
+      <c r="R72" s="14">
         <v>2384</v>
       </c>
-      <c r="S71" s="14">
+      <c r="S72" s="14">
         <v>33006</v>
       </c>
-      <c r="T71" s="14">
+      <c r="T72" s="14">
         <v>0</v>
       </c>
-      <c r="U71" s="14">
+      <c r="U72" s="14">
         <v>99490</v>
       </c>
-      <c r="V71" s="14">
+      <c r="V72" s="14">
         <v>4173</v>
       </c>
-      <c r="W71" s="14">
+      <c r="W72" s="14">
         <v>2926</v>
       </c>
-      <c r="X71" s="14">
+      <c r="X72" s="14">
         <v>420</v>
       </c>
-      <c r="Y71" s="14">
+      <c r="Y72" s="14">
         <v>10026</v>
       </c>
-      <c r="Z71" s="14">
+      <c r="Z72" s="14">
         <v>17</v>
       </c>
-      <c r="AA71" s="14">
+      <c r="AA72" s="14">
         <v>653</v>
       </c>
     </row>
-    <row r="72" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:27" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>514393</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>498050</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>446</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <v>49300</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H73" s="11">
         <v>6708</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I73" s="11">
         <v>2319</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J73" s="11">
         <v>74</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K73" s="11">
         <v>1417</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L73" s="11">
         <v>1686</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M73" s="11">
         <v>43264</v>
       </c>
-      <c r="N72" s="11">
+      <c r="N73" s="11">
         <v>3716</v>
       </c>
-      <c r="O72" s="11">
+      <c r="O73" s="11">
         <v>25831</v>
       </c>
-      <c r="P72" s="11">
+      <c r="P73" s="11">
         <v>14426</v>
       </c>
-      <c r="Q72" s="11">
+      <c r="Q73" s="11">
         <v>33360</v>
       </c>
-      <c r="R72" s="11">
+      <c r="R73" s="11">
         <v>2308</v>
       </c>
-      <c r="S72" s="11">
+      <c r="S73" s="11">
         <v>31727</v>
       </c>
-      <c r="T72" s="11">
+      <c r="T73" s="11">
         <v>1</v>
       </c>
-      <c r="U72" s="11">
+      <c r="U73" s="11">
         <v>98049</v>
       </c>
-      <c r="V72" s="11">
+      <c r="V73" s="11">
         <v>4070</v>
       </c>
-      <c r="W72" s="11">
+      <c r="W73" s="11">
         <v>2777</v>
       </c>
-      <c r="X72" s="11">
+      <c r="X73" s="11">
         <v>374</v>
       </c>
-      <c r="Y72" s="11">
+      <c r="Y73" s="11">
         <v>9942</v>
       </c>
-      <c r="Z72" s="11">
+      <c r="Z73" s="11">
         <v>17</v>
       </c>
-      <c r="AA72" s="11">
+      <c r="AA73" s="11">
         <v>647</v>
       </c>
     </row>
-    <row r="73" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="13">
+    <row r="74" spans="2:27" hidden="1">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <v>512802</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E74" s="14">
         <v>497796</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F74" s="14">
         <v>444</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="14">
         <v>49053</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H74" s="14">
         <v>6156</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="14">
         <v>2222</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J74" s="14">
         <v>73</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K74" s="14">
         <v>1413</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L74" s="14">
         <v>1694</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M74" s="14">
         <v>42573</v>
       </c>
-      <c r="N73" s="14">
+      <c r="N74" s="14">
         <v>3733</v>
       </c>
-      <c r="O73" s="14">
+      <c r="O74" s="14">
         <v>25944</v>
       </c>
-      <c r="P73" s="14">
+      <c r="P74" s="14">
         <v>14578</v>
       </c>
-      <c r="Q73" s="14">
+      <c r="Q74" s="14">
         <v>33417</v>
       </c>
-      <c r="R73" s="14">
+      <c r="R74" s="14">
         <v>2333</v>
       </c>
-      <c r="S73" s="14">
+      <c r="S74" s="14">
         <v>32236</v>
       </c>
-      <c r="T73" s="14">
+      <c r="T74" s="14">
         <v>0</v>
       </c>
-      <c r="U73" s="14">
+      <c r="U74" s="14">
         <v>98138</v>
       </c>
-      <c r="V73" s="14">
+      <c r="V74" s="14">
         <v>4072</v>
       </c>
-      <c r="W73" s="14">
+      <c r="W74" s="14">
         <v>2785</v>
       </c>
-      <c r="X73" s="14">
+      <c r="X74" s="14">
         <v>376</v>
       </c>
-      <c r="Y73" s="14">
+      <c r="Y74" s="14">
         <v>9919</v>
       </c>
-      <c r="Z73" s="14">
+      <c r="Z74" s="14">
         <v>17</v>
       </c>
-      <c r="AA73" s="14">
+      <c r="AA74" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="74" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:27" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>506850</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>499239</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>454</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>48604</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H75" s="11">
         <v>7085</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I75" s="11">
         <v>2531</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J75" s="11">
         <v>78</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K75" s="11">
         <v>239</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L75" s="11">
         <v>2615</v>
       </c>
-      <c r="M74" s="11">
+      <c r="M75" s="11">
         <v>39728</v>
       </c>
-      <c r="N74" s="11">
+      <c r="N75" s="11">
         <v>4268</v>
       </c>
-      <c r="O74" s="11">
+      <c r="O75" s="11">
         <v>28174</v>
       </c>
-      <c r="P74" s="11">
+      <c r="P75" s="11">
         <v>16305</v>
       </c>
-      <c r="Q74" s="11">
+      <c r="Q75" s="11">
         <v>35097</v>
       </c>
-      <c r="R74" s="11">
+      <c r="R75" s="11">
         <v>2307</v>
       </c>
-      <c r="S74" s="11">
+      <c r="S75" s="11">
         <v>31892</v>
       </c>
-      <c r="T74" s="11">
+      <c r="T75" s="11">
         <v>1</v>
       </c>
-      <c r="U74" s="11">
+      <c r="U75" s="11">
         <v>98003</v>
       </c>
-      <c r="V74" s="11">
+      <c r="V75" s="11">
         <v>3983</v>
       </c>
-      <c r="W74" s="11">
+      <c r="W75" s="11">
         <v>2752</v>
       </c>
-      <c r="X74" s="11">
+      <c r="X75" s="11">
         <v>374</v>
       </c>
-      <c r="Y74" s="11">
+      <c r="Y75" s="11">
         <v>11506</v>
       </c>
-      <c r="Z74" s="11">
+      <c r="Z75" s="11">
         <v>12</v>
       </c>
-      <c r="AA74" s="11">
+      <c r="AA75" s="11">
         <v>810</v>
       </c>
     </row>
-    <row r="75" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="13">
+    <row r="76" spans="2:27" hidden="1">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <v>504046</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E76" s="14">
         <v>496323</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F76" s="14">
         <v>451</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <v>48409</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H76" s="14">
         <v>7032</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="14">
         <v>2531</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J76" s="14">
         <v>78</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K76" s="14">
         <v>239</v>
       </c>
-      <c r="L75" s="14">
+      <c r="L76" s="14">
         <v>2596</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M76" s="14">
         <v>39439</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N76" s="14">
         <v>4234</v>
       </c>
-      <c r="O75" s="14">
+      <c r="O76" s="14">
         <v>27848</v>
       </c>
-      <c r="P75" s="14">
+      <c r="P76" s="14">
         <v>16180</v>
       </c>
-      <c r="Q75" s="14">
+      <c r="Q76" s="14">
         <v>34956</v>
       </c>
-      <c r="R75" s="14">
+      <c r="R76" s="14">
         <v>2284</v>
       </c>
-      <c r="S75" s="14">
+      <c r="S76" s="14">
         <v>31444</v>
       </c>
-      <c r="T75" s="14">
+      <c r="T76" s="14">
         <v>0</v>
       </c>
-      <c r="U75" s="14">
+      <c r="U76" s="14">
         <v>97190</v>
       </c>
-      <c r="V75" s="14">
+      <c r="V76" s="14">
         <v>3921</v>
       </c>
-      <c r="W75" s="14">
+      <c r="W76" s="14">
         <v>2705</v>
       </c>
-      <c r="X75" s="14">
+      <c r="X76" s="14">
         <v>364</v>
       </c>
-      <c r="Y75" s="14">
+      <c r="Y76" s="14">
         <v>11482</v>
       </c>
-      <c r="Z75" s="14">
+      <c r="Z76" s="14">
         <v>12</v>
       </c>
-      <c r="AA75" s="14">
+      <c r="AA76" s="14">
         <v>807</v>
       </c>
     </row>
-    <row r="76" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:27" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>501424</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>493291</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>452</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>48079</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H77" s="11">
         <v>7029</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I77" s="11">
         <v>2509</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J77" s="11">
         <v>77</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K77" s="11">
         <v>239</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L77" s="11">
         <v>2577</v>
       </c>
-      <c r="M76" s="11">
+      <c r="M77" s="11">
         <v>39178</v>
       </c>
-      <c r="N76" s="11">
+      <c r="N77" s="11">
         <v>4173</v>
       </c>
-      <c r="O76" s="11">
+      <c r="O77" s="11">
         <v>27415</v>
       </c>
-      <c r="P76" s="11">
+      <c r="P77" s="11">
         <v>15815</v>
       </c>
-      <c r="Q76" s="11">
+      <c r="Q77" s="11">
         <v>34582</v>
       </c>
-      <c r="R76" s="11">
+      <c r="R77" s="11">
         <v>2266</v>
       </c>
-      <c r="S76" s="11">
+      <c r="S77" s="11">
         <v>30934</v>
       </c>
-      <c r="T76" s="11">
+      <c r="T77" s="11">
         <v>1</v>
       </c>
-      <c r="U76" s="11">
+      <c r="U77" s="11">
         <v>96704</v>
       </c>
-      <c r="V76" s="11">
+      <c r="V77" s="11">
         <v>3869</v>
       </c>
-      <c r="W76" s="11">
+      <c r="W77" s="11">
         <v>2699</v>
       </c>
-      <c r="X76" s="11">
+      <c r="X77" s="11">
         <v>360</v>
       </c>
-      <c r="Y76" s="11">
+      <c r="Y77" s="11">
         <v>11467</v>
       </c>
-      <c r="Z76" s="11">
+      <c r="Z77" s="11">
         <v>12</v>
       </c>
-      <c r="AA76" s="11">
+      <c r="AA77" s="11">
         <v>808</v>
       </c>
     </row>
-    <row r="77" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="13">
+    <row r="78" spans="2:27" hidden="1">
+      <c r="B78" s="13">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <v>499221</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E78" s="14">
         <v>490327</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F78" s="14">
         <v>454</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="14">
         <v>47999</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H78" s="14">
         <v>7029</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I78" s="14">
         <v>2518</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J78" s="14">
         <v>77</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K78" s="14">
         <v>239</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L78" s="14">
         <v>2576</v>
       </c>
-      <c r="M77" s="14">
+      <c r="M78" s="14">
         <v>38838</v>
       </c>
-      <c r="N77" s="14">
+      <c r="N78" s="14">
         <v>4155</v>
       </c>
-      <c r="O77" s="14">
+      <c r="O78" s="14">
         <v>27148</v>
       </c>
-      <c r="P77" s="14">
+      <c r="P78" s="14">
         <v>15484</v>
       </c>
-      <c r="Q77" s="14">
+      <c r="Q78" s="14">
         <v>34221</v>
       </c>
-      <c r="R77" s="14">
+      <c r="R78" s="14">
         <v>2252</v>
       </c>
-      <c r="S77" s="14">
+      <c r="S78" s="14">
         <v>30634</v>
       </c>
-      <c r="T77" s="14">
+      <c r="T78" s="14">
         <v>1</v>
       </c>
-      <c r="U77" s="14">
+      <c r="U78" s="14">
         <v>96127</v>
       </c>
-      <c r="V77" s="14">
+      <c r="V78" s="14">
         <v>3815</v>
       </c>
-      <c r="W77" s="14">
+      <c r="W78" s="14">
         <v>2658</v>
       </c>
-      <c r="X77" s="14">
+      <c r="X78" s="14">
         <v>352</v>
       </c>
-      <c r="Y77" s="14">
+      <c r="Y78" s="14">
         <v>11454</v>
       </c>
-      <c r="Z77" s="14">
+      <c r="Z78" s="14">
         <v>12</v>
       </c>
-      <c r="AA77" s="14">
+      <c r="AA78" s="14">
         <v>810</v>
       </c>
     </row>
-    <row r="78" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="18">
+    <row r="79" spans="2:27" hidden="1">
+      <c r="B79" s="18">
         <v>2019</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D79" s="19">
         <v>497141</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E79" s="19">
         <v>488120</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F79" s="19">
         <v>452</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G79" s="19">
         <v>47859</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H79" s="19">
         <v>6968</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I79" s="19">
         <v>2504</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J79" s="19">
         <v>77</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K79" s="19">
         <v>239</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L79" s="19">
         <v>2565</v>
       </c>
-      <c r="M78" s="19">
+      <c r="M79" s="19">
         <v>38626</v>
       </c>
-      <c r="N78" s="19">
+      <c r="N79" s="19">
         <v>4150</v>
       </c>
-      <c r="O78" s="19">
+      <c r="O79" s="19">
         <v>26845</v>
       </c>
-      <c r="P78" s="19">
+      <c r="P79" s="19">
         <v>15304</v>
       </c>
-      <c r="Q78" s="19">
+      <c r="Q79" s="19">
         <v>34009</v>
       </c>
-      <c r="R78" s="19">
+      <c r="R79" s="19">
         <v>2246</v>
       </c>
-      <c r="S78" s="19">
+      <c r="S79" s="19">
         <v>30488</v>
       </c>
-      <c r="T78" s="19">
+      <c r="T79" s="19">
         <v>1</v>
       </c>
-      <c r="U78" s="19">
+      <c r="U79" s="19">
         <v>95504</v>
       </c>
-      <c r="V78" s="19">
+      <c r="V79" s="19">
         <v>3778</v>
       </c>
-      <c r="W78" s="19">
+      <c r="W79" s="19">
         <v>2638</v>
       </c>
-      <c r="X78" s="19">
+      <c r="X79" s="19">
         <v>344</v>
       </c>
-      <c r="Y78" s="19">
+      <c r="Y79" s="19">
         <v>11417</v>
       </c>
-      <c r="Z78" s="19">
+      <c r="Z79" s="19">
         <v>12</v>
       </c>
-      <c r="AA78" s="19">
+      <c r="AA79" s="19">
         <v>804</v>
       </c>
     </row>
-    <row r="79" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="13">
+    <row r="80" spans="2:27" hidden="1">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <v>496057</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E80" s="14">
         <v>486335</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F80" s="14">
         <v>464</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="14">
         <v>47780</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H80" s="14">
         <v>6994</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I80" s="14">
         <v>2508</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J80" s="14">
         <v>78</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K80" s="14">
         <v>239</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L80" s="14">
         <v>2565</v>
       </c>
-      <c r="M79" s="14">
+      <c r="M80" s="14">
         <v>38415</v>
       </c>
-      <c r="N79" s="14">
+      <c r="N80" s="14">
         <v>4053</v>
       </c>
-      <c r="O79" s="14">
+      <c r="O80" s="14">
         <v>26683</v>
       </c>
-      <c r="P79" s="14">
+      <c r="P80" s="14">
         <v>15554</v>
       </c>
-      <c r="Q79" s="14">
+      <c r="Q80" s="14">
         <v>34018</v>
       </c>
-      <c r="R79" s="14">
+      <c r="R80" s="14">
         <v>2235</v>
       </c>
-      <c r="S79" s="14">
+      <c r="S80" s="14">
         <v>30111</v>
       </c>
-      <c r="T79" s="14">
+      <c r="T80" s="14">
         <v>1</v>
       </c>
-      <c r="U79" s="14">
+      <c r="U80" s="14">
         <v>94864</v>
       </c>
-      <c r="V79" s="14">
+      <c r="V80" s="14">
         <v>3723</v>
       </c>
-      <c r="W79" s="14">
+      <c r="W80" s="14">
         <v>2618</v>
       </c>
-      <c r="X79" s="14">
+      <c r="X80" s="14">
         <v>329</v>
       </c>
-      <c r="Y79" s="14">
+      <c r="Y80" s="14">
         <v>11369</v>
       </c>
-      <c r="Z79" s="14">
+      <c r="Z80" s="14">
         <v>12</v>
       </c>
-      <c r="AA79" s="14">
+      <c r="AA80" s="14">
         <v>804</v>
       </c>
     </row>
-    <row r="80" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:27" hidden="1">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>493248</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>484343</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>467</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="11">
         <v>47445</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H81" s="11">
         <v>6904</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I81" s="11">
         <v>2451</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J81" s="11">
         <v>78</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K81" s="11">
         <v>239</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L81" s="11">
         <v>2547</v>
       </c>
-      <c r="M80" s="11">
+      <c r="M81" s="11">
         <v>38053</v>
       </c>
-      <c r="N80" s="11">
+      <c r="N81" s="11">
         <v>4033</v>
       </c>
-      <c r="O80" s="11">
+      <c r="O81" s="11">
         <v>26245</v>
       </c>
-      <c r="P80" s="11">
+      <c r="P81" s="11">
         <v>15368</v>
       </c>
-      <c r="Q80" s="11">
+      <c r="Q81" s="11">
         <v>34089</v>
       </c>
-      <c r="R80" s="11">
+      <c r="R81" s="11">
         <v>2228</v>
       </c>
-      <c r="S80" s="11">
+      <c r="S81" s="11">
         <v>29848</v>
       </c>
-      <c r="T80" s="11">
+      <c r="T81" s="11">
         <v>1</v>
       </c>
-      <c r="U80" s="11">
+      <c r="U81" s="11">
         <v>94351</v>
       </c>
-      <c r="V80" s="11">
+      <c r="V81" s="11">
         <v>3704</v>
       </c>
-      <c r="W80" s="11">
+      <c r="W81" s="11">
         <v>2563</v>
       </c>
-      <c r="X80" s="11">
+      <c r="X81" s="11">
         <v>326</v>
       </c>
-      <c r="Y80" s="11">
+      <c r="Y81" s="11">
         <v>11268</v>
       </c>
-      <c r="Z80" s="11">
+      <c r="Z81" s="11">
         <v>12</v>
       </c>
-      <c r="AA80" s="11">
+      <c r="AA81" s="11">
         <v>798</v>
       </c>
     </row>
-    <row r="81" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="13">
+    <row r="82" spans="2:27" hidden="1">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <v>489853</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E82" s="14">
         <v>481195</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F82" s="14">
         <v>466</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="14">
         <v>47019</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H82" s="14">
         <v>6820</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I82" s="14">
         <v>2443</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J82" s="14">
         <v>78</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K82" s="14">
         <v>239</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L82" s="14">
         <v>2529</v>
       </c>
-      <c r="M81" s="14">
+      <c r="M82" s="14">
         <v>37565</v>
       </c>
-      <c r="N81" s="14">
+      <c r="N82" s="14">
         <v>3997</v>
       </c>
-      <c r="O81" s="14">
+      <c r="O82" s="14">
         <v>25847</v>
       </c>
-      <c r="P81" s="14">
+      <c r="P82" s="14">
         <v>15208</v>
       </c>
-      <c r="Q81" s="14">
+      <c r="Q82" s="14">
         <v>33793</v>
       </c>
-      <c r="R81" s="14">
+      <c r="R82" s="14">
         <v>2228</v>
       </c>
-      <c r="S81" s="14">
+      <c r="S82" s="14">
         <v>29565</v>
       </c>
-      <c r="T81" s="14">
+      <c r="T82" s="14">
         <v>1</v>
       </c>
-      <c r="U81" s="14">
+      <c r="U82" s="14">
         <v>93792</v>
       </c>
-      <c r="V81" s="14">
+      <c r="V82" s="14">
         <v>3636</v>
       </c>
-      <c r="W81" s="14">
+      <c r="W82" s="14">
         <v>2514</v>
       </c>
-      <c r="X81" s="14">
+      <c r="X82" s="14">
         <v>326</v>
       </c>
-      <c r="Y81" s="14">
+      <c r="Y82" s="14">
         <v>11160</v>
       </c>
-      <c r="Z81" s="14">
+      <c r="Z82" s="14">
         <v>12</v>
       </c>
-      <c r="AA81" s="14">
+      <c r="AA82" s="14">
         <v>796</v>
       </c>
     </row>
-    <row r="82" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:27" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>486879</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>478202</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>463</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>46939</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H83" s="11">
         <v>6767</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I83" s="11">
         <v>2420</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J83" s="11">
         <v>78</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K83" s="11">
         <v>239</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L83" s="11">
         <v>2504</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M83" s="11">
         <v>37159</v>
       </c>
-      <c r="N82" s="11">
+      <c r="N83" s="11">
         <v>3981</v>
       </c>
-      <c r="O82" s="11">
+      <c r="O83" s="11">
         <v>25505</v>
       </c>
-      <c r="P82" s="11">
+      <c r="P83" s="11">
         <v>15063</v>
       </c>
-      <c r="Q82" s="11">
+      <c r="Q83" s="11">
         <v>33501</v>
       </c>
-      <c r="R82" s="11">
+      <c r="R83" s="11">
         <v>2207</v>
       </c>
-      <c r="S82" s="11">
+      <c r="S83" s="11">
         <v>29169</v>
       </c>
-      <c r="T82" s="11">
+      <c r="T83" s="11">
         <v>1</v>
       </c>
-      <c r="U82" s="11">
+      <c r="U83" s="11">
         <v>92716</v>
       </c>
-      <c r="V82" s="11">
+      <c r="V83" s="11">
         <v>3571</v>
       </c>
-      <c r="W82" s="11">
+      <c r="W83" s="11">
         <v>2389</v>
       </c>
-      <c r="X82" s="11">
+      <c r="X83" s="11">
         <v>323</v>
       </c>
-      <c r="Y82" s="11">
+      <c r="Y83" s="11">
         <v>11118</v>
       </c>
-      <c r="Z82" s="11">
+      <c r="Z83" s="11">
         <v>12</v>
       </c>
-      <c r="AA82" s="11">
+      <c r="AA83" s="11">
         <v>793</v>
       </c>
     </row>
-    <row r="83" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="13">
+    <row r="84" spans="2:27" hidden="1">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <v>483912</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E84" s="14">
         <v>475735</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F84" s="14">
         <v>464</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="14">
         <v>46660</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H84" s="14">
         <v>6663</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I84" s="14">
         <v>2389</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J84" s="14">
         <v>78</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K84" s="14">
         <v>239</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L84" s="14">
         <v>2507</v>
       </c>
-      <c r="M83" s="14">
+      <c r="M84" s="14">
         <v>36747</v>
       </c>
-      <c r="N83" s="14">
+      <c r="N84" s="14">
         <v>3969</v>
       </c>
-      <c r="O83" s="14">
+      <c r="O84" s="14">
         <v>25211</v>
       </c>
-      <c r="P83" s="14">
+      <c r="P84" s="14">
         <v>14925</v>
       </c>
-      <c r="Q83" s="14">
+      <c r="Q84" s="14">
         <v>33302</v>
       </c>
-      <c r="R83" s="14">
+      <c r="R84" s="14">
         <v>2187</v>
       </c>
-      <c r="S83" s="14">
+      <c r="S84" s="14">
         <v>28883</v>
       </c>
-      <c r="T83" s="14">
+      <c r="T84" s="14">
         <v>1</v>
       </c>
-      <c r="U83" s="14">
+      <c r="U84" s="14">
         <v>91723</v>
       </c>
-      <c r="V83" s="14">
+      <c r="V84" s="14">
         <v>3516</v>
       </c>
-      <c r="W83" s="14">
+      <c r="W84" s="14">
         <v>2314</v>
       </c>
-      <c r="X83" s="14">
+      <c r="X84" s="14">
         <v>311</v>
       </c>
-      <c r="Y83" s="14">
+      <c r="Y84" s="14">
         <v>11021</v>
       </c>
-      <c r="Z83" s="14">
+      <c r="Z84" s="14">
         <v>12</v>
       </c>
-      <c r="AA83" s="14">
+      <c r="AA84" s="14">
         <v>787</v>
       </c>
     </row>
-    <row r="84" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:27" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>480495</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>472364</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>464</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="11">
         <v>46648</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H85" s="11">
         <v>6624</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I85" s="11">
         <v>2371</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J85" s="11">
         <v>78</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K85" s="11">
         <v>239</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L85" s="11">
         <v>2485</v>
       </c>
-      <c r="M84" s="11">
+      <c r="M85" s="11">
         <v>36570</v>
       </c>
-      <c r="N84" s="11">
+      <c r="N85" s="11">
         <v>3920</v>
       </c>
-      <c r="O84" s="11">
+      <c r="O85" s="11">
         <v>24802</v>
       </c>
-      <c r="P84" s="11">
+      <c r="P85" s="11">
         <v>14924</v>
       </c>
-      <c r="Q84" s="11">
+      <c r="Q85" s="11">
         <v>33187</v>
       </c>
-      <c r="R84" s="11">
+      <c r="R85" s="11">
         <v>2173</v>
       </c>
-      <c r="S84" s="11">
+      <c r="S85" s="11">
         <v>28394</v>
       </c>
-      <c r="T84" s="11">
+      <c r="T85" s="11">
         <v>1</v>
       </c>
-      <c r="U84" s="11">
+      <c r="U85" s="11">
         <v>90924</v>
       </c>
-      <c r="V84" s="11">
+      <c r="V85" s="11">
         <v>3442</v>
       </c>
-      <c r="W84" s="11">
+      <c r="W85" s="11">
         <v>2249</v>
       </c>
-      <c r="X84" s="11">
+      <c r="X85" s="11">
         <v>304</v>
       </c>
-      <c r="Y84" s="11">
+      <c r="Y85" s="11">
         <v>10962</v>
       </c>
-      <c r="Z84" s="11">
+      <c r="Z85" s="11">
         <v>12</v>
       </c>
-      <c r="AA84" s="11">
+      <c r="AA85" s="11">
         <v>784</v>
       </c>
     </row>
-    <row r="85" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="13">
+    <row r="86" spans="2:27" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <v>477880</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E86" s="14">
         <v>469513</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F86" s="14">
         <v>458</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="14">
         <v>46538</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H86" s="14">
         <v>6550</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I86" s="14">
         <v>2387</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J86" s="14">
         <v>78</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K86" s="14">
         <v>237</v>
       </c>
-      <c r="L85" s="14">
+      <c r="L86" s="14">
         <v>2479</v>
       </c>
-      <c r="M85" s="14">
+      <c r="M86" s="14">
         <v>36256</v>
       </c>
-      <c r="N85" s="14">
+      <c r="N86" s="14">
         <v>3901</v>
       </c>
-      <c r="O85" s="14">
+      <c r="O86" s="14">
         <v>24520</v>
       </c>
-      <c r="P85" s="14">
+      <c r="P86" s="14">
         <v>14804</v>
       </c>
-      <c r="Q85" s="14">
+      <c r="Q86" s="14">
         <v>33150</v>
       </c>
-      <c r="R85" s="14">
+      <c r="R86" s="14">
         <v>2178</v>
       </c>
-      <c r="S85" s="14">
+      <c r="S86" s="14">
         <v>27975</v>
       </c>
-      <c r="T85" s="14">
+      <c r="T86" s="14">
         <v>0</v>
       </c>
-      <c r="U85" s="14">
+      <c r="U86" s="14">
         <v>89534</v>
       </c>
-      <c r="V85" s="14">
+      <c r="V86" s="14">
         <v>3365</v>
       </c>
-      <c r="W85" s="14">
+      <c r="W86" s="14">
         <v>2210</v>
       </c>
-      <c r="X85" s="14">
+      <c r="X86" s="14">
         <v>299</v>
       </c>
-      <c r="Y85" s="14">
+      <c r="Y86" s="14">
         <v>10862</v>
       </c>
-      <c r="Z85" s="14">
+      <c r="Z86" s="14">
         <v>12</v>
       </c>
-      <c r="AA85" s="14">
+      <c r="AA86" s="14">
         <v>783</v>
       </c>
     </row>
-    <row r="86" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:27" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>476241</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>467827</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>459</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="11">
         <v>46438</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H87" s="11">
         <v>6498</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I87" s="11">
         <v>2366</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J87" s="11">
         <v>78</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K87" s="11">
         <v>237</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L87" s="11">
         <v>2474</v>
       </c>
-      <c r="M86" s="11">
+      <c r="M87" s="11">
         <v>35832</v>
       </c>
-      <c r="N86" s="11">
+      <c r="N87" s="11">
         <v>3883</v>
       </c>
-      <c r="O86" s="11">
+      <c r="O87" s="11">
         <v>24299</v>
       </c>
-      <c r="P86" s="11">
+      <c r="P87" s="11">
         <v>14847</v>
       </c>
-      <c r="Q86" s="11">
+      <c r="Q87" s="11">
         <v>33272</v>
       </c>
-      <c r="R86" s="11">
+      <c r="R87" s="11">
         <v>2165</v>
       </c>
-      <c r="S86" s="11">
+      <c r="S87" s="11">
         <v>27577</v>
       </c>
-      <c r="T86" s="11">
+      <c r="T87" s="11">
         <v>1</v>
       </c>
-      <c r="U86" s="11">
+      <c r="U87" s="11">
         <v>88473</v>
       </c>
-      <c r="V86" s="11">
+      <c r="V87" s="11">
         <v>3325</v>
       </c>
-      <c r="W86" s="11">
+      <c r="W87" s="11">
         <v>2133</v>
       </c>
-      <c r="X86" s="11">
+      <c r="X87" s="11">
         <v>301</v>
       </c>
-      <c r="Y86" s="11">
+      <c r="Y87" s="11">
         <v>10800</v>
       </c>
-      <c r="Z86" s="11">
+      <c r="Z87" s="11">
         <v>12</v>
       </c>
-      <c r="AA86" s="11">
+      <c r="AA87" s="11">
         <v>786</v>
       </c>
     </row>
-    <row r="87" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="13">
+    <row r="88" spans="2:27" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <v>472271</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E88" s="14">
         <v>463807</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F88" s="14">
         <v>455</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="14">
         <v>46120</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H88" s="14">
         <v>6441</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I88" s="14">
         <v>2324</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J88" s="14">
         <v>77</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K88" s="14">
         <v>237</v>
       </c>
-      <c r="L87" s="14">
+      <c r="L88" s="14">
         <v>2458</v>
       </c>
-      <c r="M87" s="14">
+      <c r="M88" s="14">
         <v>35484</v>
       </c>
-      <c r="N87" s="14">
+      <c r="N88" s="14">
         <v>3859</v>
       </c>
-      <c r="O87" s="14">
+      <c r="O88" s="14">
         <v>24075</v>
       </c>
-      <c r="P87" s="14">
+      <c r="P88" s="14">
         <v>14872</v>
       </c>
-      <c r="Q87" s="14">
+      <c r="Q88" s="14">
         <v>33210</v>
       </c>
-      <c r="R87" s="14">
+      <c r="R88" s="14">
         <v>2154</v>
       </c>
-      <c r="S87" s="14">
+      <c r="S88" s="14">
         <v>27204</v>
       </c>
-      <c r="T87" s="14">
+      <c r="T88" s="14">
         <v>1</v>
       </c>
-      <c r="U87" s="14">
+      <c r="U88" s="14">
         <v>86985</v>
       </c>
-      <c r="V87" s="14">
+      <c r="V88" s="14">
         <v>3231</v>
       </c>
-      <c r="W87" s="14">
+      <c r="W88" s="14">
         <v>2040</v>
       </c>
-      <c r="X87" s="14">
+      <c r="X88" s="14">
         <v>294</v>
       </c>
-      <c r="Y87" s="14">
+      <c r="Y88" s="14">
         <v>10741</v>
       </c>
-      <c r="Z87" s="14">
+      <c r="Z88" s="14">
         <v>12</v>
       </c>
-      <c r="AA87" s="14">
+      <c r="AA88" s="14">
         <v>784</v>
       </c>
     </row>
-    <row r="88" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+    <row r="89" spans="2:27" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>469020</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>460731</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>454</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="11">
         <v>45917</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H89" s="11">
         <v>6371</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I89" s="11">
         <v>2319</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J89" s="11">
         <v>77</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K89" s="11">
         <v>237</v>
       </c>
-      <c r="L88" s="11">
+      <c r="L89" s="11">
         <v>2444</v>
       </c>
-      <c r="M88" s="11">
+      <c r="M89" s="11">
         <v>35184</v>
       </c>
-      <c r="N88" s="11">
+      <c r="N89" s="11">
         <v>3843</v>
       </c>
-      <c r="O88" s="11">
+      <c r="O89" s="11">
         <v>23647</v>
       </c>
-      <c r="P88" s="11">
+      <c r="P89" s="11">
         <v>14554</v>
       </c>
-      <c r="Q88" s="11">
+      <c r="Q89" s="11">
         <v>33107</v>
       </c>
-      <c r="R88" s="11">
+      <c r="R89" s="11">
         <v>2146</v>
       </c>
-      <c r="S88" s="11">
+      <c r="S89" s="11">
         <v>26742</v>
       </c>
-      <c r="T88" s="11">
+      <c r="T89" s="11">
         <v>1</v>
       </c>
-      <c r="U88" s="11">
+      <c r="U89" s="11">
         <v>86342</v>
       </c>
-      <c r="V88" s="11">
+      <c r="V89" s="11">
         <v>3169</v>
       </c>
-      <c r="W88" s="11">
+      <c r="W89" s="11">
         <v>2018</v>
       </c>
-      <c r="X88" s="11">
+      <c r="X89" s="11">
         <v>288</v>
       </c>
-      <c r="Y88" s="11">
+      <c r="Y89" s="11">
         <v>10741</v>
       </c>
-      <c r="Z88" s="11">
+      <c r="Z89" s="11">
         <v>12</v>
       </c>
-      <c r="AA88" s="11">
+      <c r="AA89" s="11">
         <v>781</v>
       </c>
     </row>
-    <row r="89" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="13">
+    <row r="90" spans="2:27" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <v>466319</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E90" s="14">
         <v>457242</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F90" s="14">
         <v>451</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="14">
         <v>45640</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H90" s="14">
         <v>6287</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I90" s="14">
         <v>2262</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J90" s="14">
         <v>77</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K90" s="14">
         <v>237</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L90" s="14">
         <v>2424</v>
       </c>
-      <c r="M89" s="14">
+      <c r="M90" s="14">
         <v>34703</v>
       </c>
-      <c r="N89" s="14">
+      <c r="N90" s="14">
         <v>3824</v>
       </c>
-      <c r="O89" s="14">
+      <c r="O90" s="14">
         <v>23309</v>
       </c>
-      <c r="P89" s="14">
+      <c r="P90" s="14">
         <v>14393</v>
       </c>
-      <c r="Q89" s="14">
+      <c r="Q90" s="14">
         <v>32986</v>
       </c>
-      <c r="R89" s="14">
+      <c r="R90" s="14">
         <v>2120</v>
       </c>
-      <c r="S89" s="14">
+      <c r="S90" s="14">
         <v>26331</v>
       </c>
-      <c r="T89" s="14">
+      <c r="T90" s="14">
         <v>1</v>
       </c>
-      <c r="U89" s="14">
+      <c r="U90" s="14">
         <v>85658</v>
       </c>
-      <c r="V89" s="14">
+      <c r="V90" s="14">
         <v>3120</v>
       </c>
-      <c r="W89" s="14">
+      <c r="W90" s="14">
         <v>1980</v>
       </c>
-      <c r="X89" s="14">
+      <c r="X90" s="14">
         <v>285</v>
       </c>
-      <c r="Y89" s="14">
+      <c r="Y90" s="14">
         <v>10688</v>
       </c>
-      <c r="Z89" s="14">
+      <c r="Z90" s="14">
         <v>12</v>
       </c>
-      <c r="AA89" s="14">
+      <c r="AA90" s="14">
         <v>779</v>
       </c>
     </row>
-    <row r="90" spans="2:27" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="18">
+    <row r="91" spans="2:27" hidden="1">
+      <c r="B91" s="18">
         <v>2018</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C91" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D91" s="19">
         <v>464622</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E91" s="19">
         <v>455453</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F91" s="19">
         <v>451</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G91" s="19">
         <v>45676</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H91" s="19">
         <v>6259</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I91" s="19">
         <v>2255</v>
       </c>
-      <c r="J90" s="19">
+      <c r="J91" s="19">
         <v>77</v>
       </c>
-      <c r="K90" s="19">
+      <c r="K91" s="19">
         <v>237</v>
       </c>
-      <c r="L90" s="19">
+      <c r="L91" s="19">
         <v>2406</v>
       </c>
-      <c r="M90" s="19">
+      <c r="M91" s="19">
         <v>34385</v>
       </c>
-      <c r="N90" s="19">
+      <c r="N91" s="19">
         <v>3836</v>
       </c>
-      <c r="O90" s="19">
+      <c r="O91" s="19">
         <v>23129</v>
       </c>
-      <c r="P90" s="19">
+      <c r="P91" s="19">
         <v>14404</v>
       </c>
-      <c r="Q90" s="19">
+      <c r="Q91" s="19">
         <v>32894</v>
       </c>
-      <c r="R90" s="19">
+      <c r="R91" s="19">
         <v>2092</v>
       </c>
-      <c r="S90" s="19">
+      <c r="S91" s="19">
         <v>26133</v>
       </c>
-      <c r="T90" s="19">
+      <c r="T91" s="19">
         <v>1</v>
       </c>
-      <c r="U90" s="19">
+      <c r="U91" s="19">
         <v>84912</v>
       </c>
-      <c r="V90" s="19">
+      <c r="V91" s="19">
         <v>3077</v>
       </c>
-      <c r="W90" s="19">
+      <c r="W91" s="19">
         <v>1949</v>
       </c>
-      <c r="X90" s="19">
+      <c r="X91" s="19">
         <v>278</v>
       </c>
-      <c r="Y90" s="19">
+      <c r="Y91" s="19">
         <v>10682</v>
       </c>
-      <c r="Z90" s="19">
+      <c r="Z91" s="19">
         <v>12</v>
       </c>
-      <c r="AA90" s="19">
+      <c r="AA91" s="19">
         <v>782</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
+    <row r="92" spans="2:27">
+      <c r="B92" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AA91" s="21"/>
-    </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
+      <c r="AA92" s="21"/>
+    </row>
+    <row r="93" spans="2:27">
+      <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA92" s="21"/>
+      <c r="AA93" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B2462B-51CB-4715-A51E-BFE89AB4EC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5997C2DC-40E3-4363-9914-51DC63C5AC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_18" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,10 +444,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -927,8 +923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA91" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
-  <autoFilter ref="B5:AA91" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA92" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="B5:AA92" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1190,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA93"/>
+  <dimension ref="B2:AA94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1362,6786 +1358,6864 @@
       </c>
     </row>
     <row r="6" spans="2:27">
-      <c r="B6" s="25">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11">
+        <v>732842</v>
+      </c>
+      <c r="E6" s="11">
+        <v>721468</v>
+      </c>
+      <c r="F6" s="11">
+        <v>667</v>
+      </c>
+      <c r="G6" s="11">
+        <v>57847</v>
+      </c>
+      <c r="H6" s="11">
+        <v>10668</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3721</v>
+      </c>
+      <c r="J6" s="11">
+        <v>78</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1424</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2856</v>
+      </c>
+      <c r="M6" s="11">
+        <v>64131</v>
+      </c>
+      <c r="N6" s="11">
+        <v>3963</v>
+      </c>
+      <c r="O6" s="11">
+        <v>42777</v>
+      </c>
+      <c r="P6" s="11">
+        <v>31166</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>44303</v>
+      </c>
+      <c r="R6" s="11">
+        <v>2708</v>
+      </c>
+      <c r="S6" s="11">
+        <v>55322</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11">
+        <v>133084</v>
+      </c>
+      <c r="V6" s="11">
+        <v>6579</v>
+      </c>
+      <c r="W6" s="11">
+        <v>6562</v>
+      </c>
+      <c r="X6" s="11">
+        <v>2285</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>12870</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D7" s="14">
         <v>729319</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E7" s="14">
         <v>718257</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F7" s="14">
         <v>663</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G7" s="14">
         <v>57759</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H7" s="14">
         <v>10612</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I7" s="14">
         <v>3697</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J7" s="14">
         <v>78</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K7" s="14">
         <v>1424</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L7" s="14">
         <v>2840</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M7" s="14">
         <v>63974</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N7" s="14">
         <v>3956</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O7" s="14">
         <v>42526</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P7" s="14">
         <v>30916</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q7" s="14">
         <v>44105</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R7" s="14">
         <v>2709</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S7" s="14">
         <v>55235</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26">
+      <c r="T7" s="14"/>
+      <c r="U7" s="14">
         <v>132317</v>
       </c>
-      <c r="V6" s="26">
+      <c r="V7" s="14">
         <v>6550</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W7" s="14">
         <v>6513</v>
       </c>
-      <c r="X6" s="26">
+      <c r="X7" s="14">
         <v>2270</v>
       </c>
-      <c r="Y6" s="26">
+      <c r="Y7" s="14">
         <v>12792</v>
       </c>
-      <c r="Z6" s="26">
+      <c r="Z7" s="14">
         <v>15</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="AA7" s="14">
         <v>731</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="17">
+    <row r="8" spans="2:27">
+      <c r="B8" s="17">
         <v>2025</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D8" s="19">
         <v>726109</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E8" s="19">
         <v>714727</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F8" s="19">
         <v>656</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G8" s="19">
         <v>57695</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H8" s="19">
         <v>10586</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I8" s="19">
         <v>3675</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J8" s="19">
         <v>78</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K8" s="19">
         <v>1424</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L8" s="19">
         <v>2835</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M8" s="19">
         <v>63834</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N8" s="19">
         <v>3964</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O8" s="19">
         <v>42332</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P8" s="19">
         <v>30802</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q8" s="19">
         <v>44075</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R8" s="19">
         <v>2701</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S8" s="19">
         <v>55096</v>
       </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19">
+      <c r="T8" s="19"/>
+      <c r="U8" s="19">
         <v>131751</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V8" s="19">
         <v>6534</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W8" s="19">
         <v>6466</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X8" s="19">
         <v>2244</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y8" s="19">
         <v>12757</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z8" s="19">
         <v>15</v>
       </c>
-      <c r="AA7" s="20">
+      <c r="AA8" s="20">
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="13">
+    <row r="9" spans="2:27">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <v>723462</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <v>711776</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F9" s="14">
         <v>646</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="14">
         <v>57703</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="14">
         <v>10583</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>3665</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J9" s="14">
         <v>78</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="14">
         <v>1424</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L9" s="14">
         <v>2822</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M9" s="14">
         <v>63686</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N9" s="14">
         <v>3961</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O9" s="14">
         <v>42142</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P9" s="14">
         <v>30781</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q9" s="14">
         <v>44100</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R9" s="14">
         <v>2703</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S9" s="14">
         <v>55043</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14">
         <v>131335</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V9" s="14">
         <v>6513</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W9" s="14">
         <v>6439</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X9" s="14">
         <v>2237</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y9" s="14">
         <v>12704</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z9" s="14">
         <v>15</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA9" s="14">
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="9">
+    <row r="10" spans="2:27">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>719185</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>708450</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>630</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>57548</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="11">
         <v>10520</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I10" s="11">
         <v>3634</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J10" s="11">
         <v>78</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K10" s="11">
         <v>1424</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L10" s="11">
         <v>2786</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M10" s="11">
         <v>63307</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N10" s="11">
         <v>3939</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O10" s="11">
         <v>41751</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P10" s="11">
         <v>30659</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q10" s="11">
         <v>43660</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R10" s="11">
         <v>2692</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S10" s="11">
         <v>54807</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11">
+      <c r="T10" s="11"/>
+      <c r="U10" s="11">
         <v>130783</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V10" s="11">
         <v>6476</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W10" s="11">
         <v>6362</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X10" s="11">
         <v>2229</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y10" s="11">
         <v>12572</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z10" s="11">
         <v>15</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA10" s="12">
         <v>727</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="13">
+    <row r="11" spans="2:27">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>714747</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="14">
         <v>704375</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="14">
         <v>622</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="14">
         <v>57602</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="14">
         <v>10485</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>3617</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="14">
         <v>78</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K11" s="14">
         <v>1424</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L11" s="14">
         <v>2767</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M11" s="14">
         <v>63040</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N11" s="14">
         <v>3930</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O11" s="14">
         <v>41410</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P11" s="14">
         <v>30328</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q11" s="14">
         <v>43596</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R11" s="14">
         <v>2697</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S11" s="14">
         <v>54722</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14">
+      <c r="T11" s="14"/>
+      <c r="U11" s="14">
         <v>130250</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V11" s="14">
         <v>6446</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W11" s="14">
         <v>6199</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X11" s="14">
         <v>2214</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y11" s="14">
         <v>12449</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z11" s="14">
         <v>15</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AA11" s="14">
         <v>727</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="9">
+    <row r="12" spans="2:27">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>709391</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>699945</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>611</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>57472</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="11">
         <v>10407</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I12" s="11">
         <v>3578</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J12" s="11">
         <v>78</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K12" s="11">
         <v>1424</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L12" s="11">
         <v>2740</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M12" s="11">
         <v>62737</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N12" s="11">
         <v>3931</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O12" s="11">
         <v>41077</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P12" s="11">
         <v>23934</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q12" s="11">
         <v>43117</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R12" s="11">
         <v>2694</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S12" s="11">
         <v>54701</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11">
+      <c r="T12" s="11"/>
+      <c r="U12" s="11">
         <v>129830</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V12" s="11">
         <v>6417</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W12" s="11">
         <v>6046</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X12" s="11">
         <v>2192</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y12" s="11">
         <v>12349</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z12" s="11">
         <v>15</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA12" s="12">
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="15">
+    <row r="13" spans="2:27">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>704941</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="14">
         <v>696064</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="14">
         <v>608</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="14">
         <v>57429</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H13" s="14">
         <v>10315</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>3562</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J13" s="14">
         <v>78</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K13" s="14">
         <v>1424</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L13" s="14">
         <v>2725</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M13" s="14">
         <v>62582</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N13" s="14">
         <v>3959</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O13" s="14">
         <v>40692</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P13" s="14">
         <v>23711</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q13" s="14">
         <v>42607</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R13" s="14">
         <v>2706</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S13" s="14">
         <v>54463</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14">
+      <c r="T13" s="14"/>
+      <c r="U13" s="14">
         <v>129480</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V13" s="14">
         <v>6405</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W13" s="14">
         <v>5956</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X13" s="14">
         <v>2159</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y13" s="14">
         <v>12295</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z13" s="14">
         <v>15</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA13" s="16">
         <v>726</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="9">
+    <row r="14" spans="2:27">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>700064</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>691573</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>594</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>57394</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <v>10310</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I14" s="11">
         <v>3516</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J14" s="11">
         <v>78</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <v>1424</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L14" s="11">
         <v>2697</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M14" s="11">
         <v>62263</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N14" s="11">
         <v>3963</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O14" s="11">
         <v>40451</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P14" s="11">
         <v>22543</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q14" s="11">
         <v>42013</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R14" s="11">
         <v>2714</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S14" s="11">
         <v>54287</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11">
+      <c r="T14" s="11"/>
+      <c r="U14" s="11">
         <v>129145</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V14" s="11">
         <v>6391</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W14" s="11">
         <v>5917</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X14" s="11">
         <v>2148</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y14" s="11">
         <v>12231</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z14" s="11">
         <v>15</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA14" s="12">
         <v>724</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="15">
+    <row r="15" spans="2:27">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>694997</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>686081</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="14">
         <v>592</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="14">
         <v>57318</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="14">
         <v>10276</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>3508</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J15" s="14">
         <v>78</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="14">
         <v>1424</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L15" s="14">
         <v>2665</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M15" s="14">
         <v>61927</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N15" s="14">
         <v>3963</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O15" s="14">
         <v>40050</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P15" s="14">
         <v>22350</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q15" s="14">
         <v>41750</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R15" s="14">
         <v>2698</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S15" s="14">
         <v>54175</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14">
+      <c r="T15" s="14"/>
+      <c r="U15" s="14">
         <v>128557</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V15" s="14">
         <v>6363</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W15" s="14">
         <v>5857</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X15" s="14">
         <v>2129</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y15" s="14">
         <v>12153</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z15" s="14">
         <v>15</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AA15" s="16">
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="9">
+    <row r="16" spans="2:27">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>686433</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>677060</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>583</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>57014</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H16" s="11">
         <v>10191</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I16" s="11">
         <v>3490</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J16" s="11">
         <v>78</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="11">
         <v>1424</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L16" s="11">
         <v>2598</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M16" s="11">
         <v>61659</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N16" s="11">
         <v>3952</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O16" s="11">
         <v>39763</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P16" s="11">
         <v>22332</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q16" s="11">
         <v>41599</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R16" s="11">
         <v>2694</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S16" s="11">
         <v>54118</v>
       </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11">
+      <c r="T16" s="11"/>
+      <c r="U16" s="11">
         <v>128107</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V16" s="11">
         <v>6329</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W16" s="11">
         <v>5765</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X16" s="11">
         <v>2112</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y16" s="11">
         <v>12080</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z16" s="11">
         <v>15</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA16" s="12">
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="15">
+    <row r="17" spans="2:27">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>685435</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="14">
         <v>676046</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="14">
         <v>565</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="14">
         <v>56830</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="14">
         <v>10138</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>3511</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J17" s="14">
         <v>78</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <v>1424</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L17" s="14">
         <v>2558</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M17" s="14">
         <v>61296</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N17" s="14">
         <v>3933</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O17" s="14">
         <v>39350</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P17" s="14">
         <v>23307</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q17" s="14">
         <v>41742</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R17" s="14">
         <v>2677</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S17" s="14">
         <v>53782</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14">
+      <c r="T17" s="14"/>
+      <c r="U17" s="14">
         <v>127521</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V17" s="14">
         <v>6305</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W17" s="14">
         <v>5651</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X17" s="14">
         <v>2085</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y17" s="14">
         <v>12043</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="Z17" s="14">
         <v>15</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AA17" s="16">
         <v>716</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
-      <c r="B17" s="9">
+    <row r="18" spans="2:27">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>681551</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>671878</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>559</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>56791</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H18" s="11">
         <v>10077</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I18" s="11">
         <v>3472</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J18" s="11">
         <v>78</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K18" s="11">
         <v>1424</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L18" s="11">
         <v>2515</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M18" s="11">
         <v>60940</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N18" s="11">
         <v>3927</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O18" s="11">
         <v>38916</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P18" s="11">
         <v>23100</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q18" s="11">
         <v>41499</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R18" s="11">
         <v>2662</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S18" s="11">
         <v>53501</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11">
+      <c r="T18" s="11"/>
+      <c r="U18" s="11">
         <v>127002</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V18" s="11">
         <v>6283</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W18" s="11">
         <v>5537</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X18" s="11">
         <v>2066</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y18" s="11">
         <v>12002</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z18" s="11">
         <v>15</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA18" s="12">
         <v>716</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
-      <c r="B18" s="15">
+    <row r="19" spans="2:27">
+      <c r="B19" s="15">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <v>677153</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="14">
         <v>667343</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="14">
         <v>559</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="14">
         <v>56789</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="14">
         <v>10062</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>3444</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <v>78</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="14">
         <v>1424</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L19" s="14">
         <v>2486</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M19" s="14">
         <v>60780</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N19" s="14">
         <v>3929</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O19" s="14">
         <v>38626</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P19" s="14">
         <v>22931</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q19" s="14">
         <v>41445</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R19" s="14">
         <v>2656</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S19" s="14">
         <v>53234</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14">
+      <c r="T19" s="14"/>
+      <c r="U19" s="14">
         <v>126653</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V19" s="14">
         <v>6260</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W19" s="14">
         <v>5487</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X19" s="14">
         <v>2055</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y19" s="14">
         <v>11945</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="Z19" s="14">
         <v>15</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AA19" s="16">
         <v>718</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
-      <c r="B19" s="17">
+    <row r="20" spans="2:27">
+      <c r="B20" s="17">
         <v>2024</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D20" s="19">
         <v>673757</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E20" s="19">
         <v>663646</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F20" s="19">
         <v>558</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G20" s="19">
         <v>56703</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H20" s="19">
         <v>10044</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I20" s="19">
         <v>3392</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J20" s="19">
         <v>78</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K20" s="19">
         <v>1424</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L20" s="19">
         <v>2444</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M20" s="19">
         <v>60551</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N20" s="19">
         <v>3920</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O20" s="19">
         <v>38302</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P20" s="19">
         <v>22717</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q20" s="19">
         <v>41276</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R20" s="19">
         <v>2661</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S20" s="19">
         <v>53153</v>
       </c>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19">
+      <c r="T20" s="19"/>
+      <c r="U20" s="19">
         <v>125984</v>
       </c>
-      <c r="V19" s="19">
+      <c r="V20" s="19">
         <v>6237</v>
       </c>
-      <c r="W19" s="19">
+      <c r="W20" s="19">
         <v>5478</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X20" s="19">
         <v>2017</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Y20" s="19">
         <v>11916</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="Z20" s="19">
         <v>15</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA20" s="20">
         <v>717</v>
       </c>
     </row>
-    <row r="20" spans="2:27" hidden="1">
-      <c r="B20" s="13">
+    <row r="21" spans="2:27" hidden="1">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <v>671002</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="14">
         <v>660365</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F21" s="14">
         <v>554</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="14">
         <v>56667</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="14">
         <v>10017</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>3376</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <v>78</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="14">
         <v>1424</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L21" s="14">
         <v>2414</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M21" s="14">
         <v>60296</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N21" s="14">
         <v>3916</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O21" s="14">
         <v>38063</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P21" s="14">
         <v>22721</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q21" s="14">
         <v>40963</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R21" s="14">
         <v>2664</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S21" s="14">
         <v>53074</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14">
+      <c r="T21" s="14"/>
+      <c r="U21" s="14">
         <v>125341</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V21" s="14">
         <v>6227</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W21" s="14">
         <v>5448</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X21" s="14">
         <v>2008</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y21" s="14">
         <v>11874</v>
       </c>
-      <c r="Z20" s="14">
+      <c r="Z21" s="14">
         <v>15</v>
       </c>
-      <c r="AA20" s="14">
+      <c r="AA21" s="14">
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="2:27" hidden="1">
-      <c r="B21" s="10">
+    <row r="22" spans="2:27" hidden="1">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>667021</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>657017</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>553</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>56501</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="11">
         <v>10008</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <v>3368</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J22" s="11">
         <v>78</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <v>1424</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L22" s="11">
         <v>2373</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M22" s="11">
         <v>59864</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N22" s="11">
         <v>3939</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="11">
         <v>37756</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P22" s="11">
         <v>22668</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q22" s="11">
         <v>40739</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R22" s="11">
         <v>2663</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S22" s="11">
         <v>52920</v>
       </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11">
+      <c r="T22" s="11"/>
+      <c r="U22" s="11">
         <v>124918</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V22" s="11">
         <v>6223</v>
       </c>
-      <c r="W21" s="11">
+      <c r="W22" s="11">
         <v>5332</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X22" s="11">
         <v>1985</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Y22" s="11">
         <v>11762</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z22" s="11">
         <v>15</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AA22" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="22" spans="2:27" hidden="1">
-      <c r="B22" s="13">
+    <row r="23" spans="2:27" hidden="1">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <v>662911</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="14">
         <v>653227</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F23" s="14">
         <v>551</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="14">
         <v>56354</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="14">
         <v>9936</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>3354</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="14">
         <v>78</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K23" s="14">
         <v>1424</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L23" s="14">
         <v>2325</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M23" s="14">
         <v>59524</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N23" s="14">
         <v>3949</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O23" s="14">
         <v>37449</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P23" s="14">
         <v>22518</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q23" s="14">
         <v>40540</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R23" s="14">
         <v>2659</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S23" s="14">
         <v>52779</v>
       </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14">
+      <c r="T23" s="14"/>
+      <c r="U23" s="14">
         <v>124007</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V23" s="14">
         <v>6157</v>
       </c>
-      <c r="W22" s="14">
+      <c r="W23" s="14">
         <v>5337</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X23" s="14">
         <v>1958</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="Y23" s="14">
         <v>11701</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="Z23" s="14">
         <v>15</v>
       </c>
-      <c r="AA22" s="14">
+      <c r="AA23" s="14">
         <v>717</v>
       </c>
     </row>
-    <row r="23" spans="2:27" hidden="1">
-      <c r="B23" s="10">
+    <row r="24" spans="2:27" hidden="1">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>659020</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>649665</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>551</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>56273</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="11">
         <v>9895</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I24" s="11">
         <v>3359</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J24" s="11">
         <v>78</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K24" s="11">
         <v>1424</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L24" s="11">
         <v>2288</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M24" s="11">
         <v>59153</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N24" s="11">
         <v>3952</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O24" s="11">
         <v>37177</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P24" s="11">
         <v>22508</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q24" s="11">
         <v>40324</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R24" s="11">
         <v>2654</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S24" s="11">
         <v>52458</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11">
+      <c r="T24" s="11"/>
+      <c r="U24" s="11">
         <v>123192</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V24" s="11">
         <v>6122</v>
       </c>
-      <c r="W23" s="11">
+      <c r="W24" s="11">
         <v>5256</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X24" s="11">
         <v>1931</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="Y24" s="11">
         <v>11636</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z24" s="11">
         <v>15</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AA24" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="24" spans="2:27" hidden="1">
-      <c r="B24" s="13">
+    <row r="25" spans="2:27" hidden="1">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <v>655458</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E25" s="14">
         <v>645999</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F25" s="14">
         <v>546</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G25" s="14">
         <v>56186</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>9835</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>3310</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J25" s="14">
         <v>78</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K25" s="14">
         <v>1425</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L25" s="14">
         <v>2252</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M25" s="14">
         <v>58938</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N25" s="14">
         <v>3928</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O25" s="14">
         <v>36812</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P25" s="14">
         <v>22401</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q25" s="14">
         <v>40001</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R25" s="14">
         <v>2655</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S25" s="14">
         <v>52187</v>
       </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14">
+      <c r="T25" s="14"/>
+      <c r="U25" s="14">
         <v>122442</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V25" s="14">
         <v>6046</v>
       </c>
-      <c r="W24" s="14">
+      <c r="W25" s="14">
         <v>5239</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X25" s="14">
         <v>1910</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="Y25" s="14">
         <v>11600</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="Z25" s="14">
         <v>15</v>
       </c>
-      <c r="AA24" s="14">
+      <c r="AA25" s="14">
         <v>719</v>
       </c>
     </row>
-    <row r="25" spans="2:27" hidden="1">
-      <c r="B25" s="10">
+    <row r="26" spans="2:27" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>651761</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>641907</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>541</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>56170</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H26" s="11">
         <v>9810</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I26" s="11">
         <v>3301</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J26" s="11">
         <v>78</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K26" s="11">
         <v>1424</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L26" s="11">
         <v>2219</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M26" s="11">
         <v>58734</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N26" s="11">
         <v>3934</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O26" s="11">
         <v>36467</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P26" s="11">
         <v>22206</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q26" s="11">
         <v>39383</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R26" s="11">
         <v>2640</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S26" s="11">
         <v>51887</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11">
+      <c r="T26" s="11"/>
+      <c r="U26" s="11">
         <v>121511</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V26" s="11">
         <v>5992</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W26" s="11">
         <v>5150</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X26" s="11">
         <v>1888</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y26" s="11">
         <v>11575</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z26" s="11">
         <v>15</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA26" s="11">
         <v>716</v>
       </c>
     </row>
-    <row r="26" spans="2:27" hidden="1">
-      <c r="B26" s="13">
+    <row r="27" spans="2:27" hidden="1">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>647906</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="14">
         <v>637598</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F27" s="14">
         <v>538</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="14">
         <v>56139</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <v>9752</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>3280</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J27" s="14">
         <v>78</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K27" s="14">
         <v>1424</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L27" s="14">
         <v>2179</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M27" s="14">
         <v>58481</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N27" s="14">
         <v>3945</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O27" s="14">
         <v>36238</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P27" s="14">
         <v>21962</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q27" s="14">
         <v>38923</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R27" s="14">
         <v>2634</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S27" s="14">
         <v>51526</v>
       </c>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14">
+      <c r="T27" s="14"/>
+      <c r="U27" s="14">
         <v>120827</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V27" s="14">
         <v>5957</v>
       </c>
-      <c r="W26" s="14">
+      <c r="W27" s="14">
         <v>5099</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X27" s="14">
         <v>1866</v>
       </c>
-      <c r="Y26" s="14">
+      <c r="Y27" s="14">
         <v>11503</v>
       </c>
-      <c r="Z26" s="14">
+      <c r="Z27" s="14">
         <v>15</v>
       </c>
-      <c r="AA26" s="14">
+      <c r="AA27" s="14">
         <v>715</v>
       </c>
     </row>
-    <row r="27" spans="2:27" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:27" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>645139</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>634226</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>537</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>55988</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H28" s="11">
         <v>9716</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I28" s="11">
         <v>3277</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J28" s="11">
         <v>78</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K28" s="11">
         <v>1424</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L28" s="11">
         <v>2130</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M28" s="11">
         <v>58224</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N28" s="11">
         <v>3934</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O28" s="11">
         <v>35910</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P28" s="11">
         <v>21848</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q28" s="11">
         <v>38619</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R28" s="11">
         <v>2634</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S28" s="11">
         <v>51228</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11">
+      <c r="T28" s="11"/>
+      <c r="U28" s="11">
         <v>120089</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V28" s="11">
         <v>5928</v>
       </c>
-      <c r="W27" s="11">
+      <c r="W28" s="11">
         <v>5046</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X28" s="11">
         <v>1829</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="Y28" s="11">
         <v>11484</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="Z28" s="11">
         <v>15</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AA28" s="11">
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="2:27" hidden="1">
-      <c r="B28" s="13">
+    <row r="29" spans="2:27" hidden="1">
+      <c r="B29" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <v>641751</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>630955</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F29" s="14">
         <v>537</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <v>55899</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>9670</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>3264</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <v>78</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K29" s="14">
         <v>1424</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L29" s="14">
         <v>2114</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M29" s="14">
         <v>58008</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N29" s="14">
         <v>3930</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O29" s="14">
         <v>35633</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P29" s="14">
         <v>21736</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q29" s="14">
         <v>38964</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R29" s="14">
         <v>2631</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S29" s="14">
         <v>50759</v>
       </c>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14">
+      <c r="T29" s="14"/>
+      <c r="U29" s="14">
         <v>119535</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V29" s="14">
         <v>5904</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W29" s="14">
         <v>4993</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X29" s="14">
         <v>1785</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="Y29" s="14">
         <v>11422</v>
       </c>
-      <c r="Z28" s="14">
+      <c r="Z29" s="14">
         <v>15</v>
       </c>
-      <c r="AA28" s="14">
+      <c r="AA29" s="14">
         <v>713</v>
       </c>
     </row>
-    <row r="29" spans="2:27" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:27" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>639200</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>628078</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>535</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>55839</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H30" s="11">
         <v>9614</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I30" s="11">
         <v>3257</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J30" s="11">
         <v>78</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K30" s="11">
         <v>1424</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L30" s="11">
         <v>2091</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M30" s="11">
         <v>57753</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N30" s="11">
         <v>3924</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O30" s="11">
         <v>35418</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P30" s="11">
         <v>21601</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q30" s="11">
         <v>38737</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R30" s="11">
         <v>2613</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S30" s="11">
         <v>50312</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11">
+      <c r="T30" s="11"/>
+      <c r="U30" s="11">
         <v>119109</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V30" s="11">
         <v>5878</v>
       </c>
-      <c r="W29" s="11">
+      <c r="W30" s="11">
         <v>4974</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X30" s="11">
         <v>1760</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Y30" s="11">
         <v>11402</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z30" s="11">
         <v>15</v>
       </c>
-      <c r="AA29" s="11">
+      <c r="AA30" s="11">
         <v>713</v>
       </c>
     </row>
-    <row r="30" spans="2:27" hidden="1">
-      <c r="B30" s="13">
+    <row r="31" spans="2:27" hidden="1">
+      <c r="B31" s="13">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <v>636167</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E31" s="14">
         <v>625114</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F31" s="14">
         <v>535</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G31" s="14">
         <v>55765</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="14">
         <v>9522</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I31" s="14">
         <v>3239</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J31" s="14">
         <v>78</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K31" s="14">
         <v>1424</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L31" s="14">
         <v>2039</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M31" s="14">
         <v>57425</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N31" s="14">
         <v>3900</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O31" s="14">
         <v>34878</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P31" s="14">
         <v>21229</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q31" s="14">
         <v>38464</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R31" s="14">
         <v>2594</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S31" s="14">
         <v>49720</v>
       </c>
-      <c r="T30" s="14">
+      <c r="T31" s="14">
         <v>1</v>
       </c>
-      <c r="U30" s="14">
+      <c r="U31" s="14">
         <v>118529</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V31" s="14">
         <v>5852</v>
       </c>
-      <c r="W30" s="14">
+      <c r="W31" s="14">
         <v>4936</v>
       </c>
-      <c r="X30" s="14">
+      <c r="X31" s="14">
         <v>1736</v>
       </c>
-      <c r="Y30" s="14">
+      <c r="Y31" s="14">
         <v>11378</v>
       </c>
-      <c r="Z30" s="14">
+      <c r="Z31" s="14">
         <v>15</v>
       </c>
-      <c r="AA30" s="14">
+      <c r="AA31" s="14">
         <v>714</v>
       </c>
     </row>
-    <row r="31" spans="2:27" hidden="1">
-      <c r="B31" s="18">
+    <row r="32" spans="2:27" hidden="1">
+      <c r="B32" s="18">
         <v>2023</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D32" s="19">
         <v>633934</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E32" s="19">
         <v>622491</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F32" s="19">
         <v>534</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G32" s="19">
         <v>55802</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H32" s="19">
         <v>9494</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I32" s="19">
         <v>3245</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J32" s="19">
         <v>78</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K32" s="19">
         <v>1424</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L32" s="19">
         <v>2009</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M32" s="19">
         <v>57250</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N32" s="19">
         <v>3899</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O32" s="19">
         <v>34654</v>
       </c>
-      <c r="P31" s="19">
+      <c r="P32" s="19">
         <v>20907</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="Q32" s="19">
         <v>38288</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R32" s="19">
         <v>2590</v>
       </c>
-      <c r="S31" s="19">
+      <c r="S32" s="19">
         <v>49582</v>
       </c>
-      <c r="T31" s="19">
+      <c r="T32" s="19">
         <v>1</v>
       </c>
-      <c r="U31" s="19">
+      <c r="U32" s="19">
         <v>118075</v>
       </c>
-      <c r="V31" s="19">
+      <c r="V32" s="19">
         <v>5811</v>
       </c>
-      <c r="W31" s="19">
+      <c r="W32" s="19">
         <v>4917</v>
       </c>
-      <c r="X31" s="19">
+      <c r="X32" s="19">
         <v>1700</v>
       </c>
-      <c r="Y31" s="19">
+      <c r="Y32" s="19">
         <v>11348</v>
       </c>
-      <c r="Z31" s="19">
+      <c r="Z32" s="19">
         <v>15</v>
       </c>
-      <c r="AA31" s="19">
+      <c r="AA32" s="19">
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="2:27" hidden="1">
-      <c r="B32" s="13">
+    <row r="33" spans="2:27" hidden="1">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <v>632252</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>620240</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F33" s="14">
         <v>528</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <v>55869</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <v>9451</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>3234</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="14">
         <v>78</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="14">
         <v>1424</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L33" s="14">
         <v>1986</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M33" s="14">
         <v>57083</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <v>3895</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O33" s="14">
         <v>34339</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P33" s="14">
         <v>20924</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q33" s="14">
         <v>38275</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R33" s="14">
         <v>2577</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S33" s="14">
         <v>49203</v>
       </c>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14">
+      <c r="T33" s="14"/>
+      <c r="U33" s="14">
         <v>117636</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V33" s="14">
         <v>5783</v>
       </c>
-      <c r="W32" s="14">
+      <c r="W33" s="14">
         <v>4904</v>
       </c>
-      <c r="X32" s="14">
+      <c r="X33" s="14">
         <v>1678</v>
       </c>
-      <c r="Y32" s="14">
+      <c r="Y33" s="14">
         <v>11327</v>
       </c>
-      <c r="Z32" s="14">
+      <c r="Z33" s="14">
         <v>14</v>
       </c>
-      <c r="AA32" s="14">
+      <c r="AA33" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="2:27" hidden="1">
-      <c r="B33" s="10">
+    <row r="34" spans="2:27" hidden="1">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>629746</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>617778</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>528</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>55776</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H34" s="11">
         <v>9347</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I34" s="11">
         <v>3197</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J34" s="11">
         <v>77</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K34" s="11">
         <v>1424</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L34" s="11">
         <v>1959</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M34" s="11">
         <v>56592</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N34" s="11">
         <v>3885</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O34" s="11">
         <v>33921</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P34" s="11">
         <v>20669</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q34" s="11">
         <v>38043</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R34" s="11">
         <v>2568</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S34" s="11">
         <v>48930</v>
       </c>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11">
+      <c r="T34" s="11"/>
+      <c r="U34" s="11">
         <v>117218</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V34" s="11">
         <v>5770</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W34" s="11">
         <v>4899</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X34" s="11">
         <v>1652</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="Y34" s="11">
         <v>11234</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z34" s="11">
         <v>15</v>
       </c>
-      <c r="AA33" s="11">
+      <c r="AA34" s="11">
         <v>707</v>
       </c>
     </row>
-    <row r="34" spans="2:27" hidden="1">
-      <c r="B34" s="13">
+    <row r="35" spans="2:27" hidden="1">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <v>627591</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E35" s="14">
         <v>615376</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F35" s="14">
         <v>528</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="14">
         <v>55700</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H35" s="14">
         <v>9310</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I35" s="14">
         <v>3164</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J35" s="14">
         <v>77</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K35" s="14">
         <v>1424</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L35" s="14">
         <v>1936</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M35" s="14">
         <v>56336</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <v>3884</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O35" s="14">
         <v>33523</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P35" s="14">
         <v>20457</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q35" s="14">
         <v>37927</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R35" s="14">
         <v>2574</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S35" s="14">
         <v>48696</v>
       </c>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14">
+      <c r="T35" s="14"/>
+      <c r="U35" s="14">
         <v>116809</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V35" s="14">
         <v>5709</v>
       </c>
-      <c r="W34" s="14">
+      <c r="W35" s="14">
         <v>4865</v>
       </c>
-      <c r="X34" s="14">
+      <c r="X35" s="14">
         <v>1637</v>
       </c>
-      <c r="Y34" s="14">
+      <c r="Y35" s="14">
         <v>11207</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z35" s="14">
         <v>15</v>
       </c>
-      <c r="AA34" s="14">
+      <c r="AA35" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="2:27" hidden="1">
-      <c r="B35" s="10">
+    <row r="36" spans="2:27" hidden="1">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>625802</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>613527</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>529</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>55774</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H36" s="11">
         <v>9280</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I36" s="11">
         <v>3168</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J36" s="11">
         <v>77</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K36" s="11">
         <v>1424</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L36" s="11">
         <v>1923</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M36" s="11">
         <v>56179</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N36" s="11">
         <v>3894</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O36" s="11">
         <v>33212</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P36" s="11">
         <v>20145</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q36" s="11">
         <v>37799</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R36" s="11">
         <v>2588</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S36" s="11">
         <v>48487</v>
       </c>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11">
+      <c r="T36" s="11"/>
+      <c r="U36" s="11">
         <v>116524</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V36" s="11">
         <v>5685</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W36" s="11">
         <v>4852</v>
       </c>
-      <c r="X35" s="11">
+      <c r="X36" s="11">
         <v>1602</v>
       </c>
-      <c r="Y35" s="11">
+      <c r="Y36" s="11">
         <v>11195</v>
       </c>
-      <c r="Z35" s="11">
+      <c r="Z36" s="11">
         <v>15</v>
       </c>
-      <c r="AA35" s="11">
+      <c r="AA36" s="11">
         <v>698</v>
       </c>
     </row>
-    <row r="36" spans="2:27" hidden="1">
-      <c r="B36" s="13">
+    <row r="37" spans="2:27" hidden="1">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <v>623225</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>611005</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>527</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>55700</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H37" s="14">
         <v>9285</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I37" s="14">
         <v>3159</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J37" s="14">
         <v>77</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K37" s="14">
         <v>1424</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L37" s="14">
         <v>1959</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M37" s="14">
         <v>56592</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N37" s="14">
         <v>3885</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O37" s="14">
         <v>33921</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P37" s="14">
         <v>19873</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q37" s="14">
         <v>37606</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R37" s="14">
         <v>2571</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S37" s="14">
         <v>48049</v>
       </c>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14">
+      <c r="T37" s="14"/>
+      <c r="U37" s="14">
         <v>115967</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V37" s="14">
         <v>5662</v>
       </c>
-      <c r="W36" s="14">
+      <c r="W37" s="14">
         <v>4804</v>
       </c>
-      <c r="X36" s="14">
+      <c r="X37" s="14">
         <v>1573</v>
       </c>
-      <c r="Y36" s="14">
+      <c r="Y37" s="14">
         <v>11161</v>
       </c>
-      <c r="Z36" s="14">
+      <c r="Z37" s="14">
         <v>16</v>
       </c>
-      <c r="AA36" s="14">
+      <c r="AA37" s="14">
         <v>699</v>
       </c>
     </row>
-    <row r="37" spans="2:27" hidden="1">
-      <c r="B37" s="10">
+    <row r="38" spans="2:27" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>619408</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>607662</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>525</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>55704</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H38" s="11">
         <v>9233</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I38" s="11">
         <v>3148</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J38" s="11">
         <v>77</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K38" s="11">
         <v>1424</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L38" s="11">
         <v>1866</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M38" s="11">
         <v>55722</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N38" s="11">
         <v>3891</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O38" s="11">
         <v>32461</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P38" s="11">
         <v>19530</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q38" s="11">
         <v>37234</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R38" s="11">
         <v>2570</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S38" s="11">
         <v>47654</v>
       </c>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11">
+      <c r="T38" s="11"/>
+      <c r="U38" s="11">
         <v>115526</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V38" s="11">
         <v>5597</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W38" s="11">
         <v>4695</v>
       </c>
-      <c r="X37" s="11">
+      <c r="X38" s="11">
         <v>1536</v>
       </c>
-      <c r="Y37" s="11">
+      <c r="Y38" s="11">
         <v>11130</v>
       </c>
-      <c r="Z37" s="11">
+      <c r="Z38" s="11">
         <v>16</v>
       </c>
-      <c r="AA37" s="11">
+      <c r="AA38" s="11">
         <v>696</v>
       </c>
     </row>
-    <row r="38" spans="2:27" hidden="1">
-      <c r="B38" s="13">
+    <row r="39" spans="2:27" hidden="1">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <v>618040</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="14">
         <v>606724</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F39" s="14">
         <v>525</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>55570</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H39" s="14">
         <v>9217</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I39" s="14">
         <v>3142</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J39" s="14">
         <v>77</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K39" s="14">
         <v>1424</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L39" s="14">
         <v>1855</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M39" s="14">
         <v>55624</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N39" s="14">
         <v>3889</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O39" s="14">
         <v>32272</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P39" s="14">
         <v>19269</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q39" s="14">
         <v>37056</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R39" s="14">
         <v>2562</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S39" s="14">
         <v>47342</v>
       </c>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14">
+      <c r="T39" s="14"/>
+      <c r="U39" s="14">
         <v>114809</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V39" s="14">
         <v>5569</v>
       </c>
-      <c r="W38" s="14">
+      <c r="W39" s="14">
         <v>4673</v>
       </c>
-      <c r="X38" s="14">
+      <c r="X39" s="14">
         <v>1516</v>
       </c>
-      <c r="Y38" s="14">
+      <c r="Y39" s="14">
         <v>11114</v>
       </c>
-      <c r="Z38" s="14">
+      <c r="Z39" s="14">
         <v>16</v>
       </c>
-      <c r="AA38" s="14">
+      <c r="AA39" s="14">
         <v>695</v>
       </c>
     </row>
-    <row r="39" spans="2:27" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:27" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>616795</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>605191</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>525</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>55673</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H40" s="11">
         <v>9298</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I40" s="11">
         <v>3152</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J40" s="11">
         <v>77</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K40" s="11">
         <v>1424</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L40" s="11">
         <v>1846</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M40" s="11">
         <v>55382</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N40" s="11">
         <v>3892</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O40" s="11">
         <v>32033</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P40" s="11">
         <v>19167</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q40" s="11">
         <v>36662</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R40" s="11">
         <v>2569</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S40" s="11">
         <v>47224</v>
       </c>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11">
+      <c r="T40" s="11"/>
+      <c r="U40" s="11">
         <v>114792</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V40" s="11">
         <v>5511</v>
       </c>
-      <c r="W39" s="11">
+      <c r="W40" s="11">
         <v>4622</v>
       </c>
-      <c r="X39" s="11">
+      <c r="X40" s="11">
         <v>1474</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Y40" s="11">
         <v>11085</v>
       </c>
-      <c r="Z39" s="11">
+      <c r="Z40" s="11">
         <v>16</v>
       </c>
-      <c r="AA39" s="11">
+      <c r="AA40" s="11">
         <v>695</v>
       </c>
     </row>
-    <row r="40" spans="2:27" hidden="1">
-      <c r="B40" s="13">
+    <row r="41" spans="2:27" hidden="1">
+      <c r="B41" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <v>614317</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>602581</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>524</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>55683</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H41" s="14">
         <v>9224</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>3107</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J41" s="14">
         <v>77</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K41" s="14">
         <v>1424</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L41" s="14">
         <v>1833</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M41" s="14">
         <v>55240</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N41" s="14">
         <v>3885</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O41" s="14">
         <v>31772</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P41" s="14">
         <v>18897</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q41" s="14">
         <v>36589</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R41" s="14">
         <v>2571</v>
       </c>
-      <c r="S40" s="14">
+      <c r="S41" s="14">
         <v>46753</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T41" s="14">
         <v>1</v>
       </c>
-      <c r="U40" s="14">
+      <c r="U41" s="14">
         <v>114370</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V41" s="14">
         <v>5457</v>
       </c>
-      <c r="W40" s="14">
+      <c r="W41" s="14">
         <v>4577</v>
       </c>
-      <c r="X40" s="14">
+      <c r="X41" s="14">
         <v>1352</v>
       </c>
-      <c r="Y40" s="14">
+      <c r="Y41" s="14">
         <v>11060</v>
       </c>
-      <c r="Z40" s="14">
+      <c r="Z41" s="14">
         <v>16</v>
       </c>
-      <c r="AA40" s="14">
+      <c r="AA41" s="14">
         <v>696</v>
       </c>
     </row>
-    <row r="41" spans="2:27" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:27" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>611918</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>600194</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>523</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>55693</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H42" s="11">
         <v>9204</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I42" s="11">
         <v>3089</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J42" s="11">
         <v>77</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K42" s="11">
         <v>1424</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L42" s="11">
         <v>1820</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M42" s="11">
         <v>55146</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N42" s="11">
         <v>3885</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O42" s="11">
         <v>31565</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P42" s="11">
         <v>18897</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q42" s="11">
         <v>36589</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R42" s="11">
         <v>2568</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S42" s="11">
         <v>46254</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T42" s="11">
         <v>0</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U42" s="11">
         <v>113789</v>
       </c>
-      <c r="V41" s="11">
+      <c r="V42" s="11">
         <v>5441</v>
       </c>
-      <c r="W41" s="11">
+      <c r="W42" s="11">
         <v>4530</v>
       </c>
-      <c r="X41" s="11">
+      <c r="X42" s="11">
         <v>1276</v>
       </c>
-      <c r="Y41" s="11">
+      <c r="Y42" s="11">
         <v>11016</v>
       </c>
-      <c r="Z41" s="11">
+      <c r="Z42" s="11">
         <v>16</v>
       </c>
-      <c r="AA41" s="11">
+      <c r="AA42" s="11">
         <v>694</v>
       </c>
     </row>
-    <row r="42" spans="2:27" hidden="1">
-      <c r="B42" s="13">
+    <row r="43" spans="2:27" hidden="1">
+      <c r="B43" s="13">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <v>609072</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <v>597797</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="14">
         <v>523</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <v>55620</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H43" s="14">
         <v>9119</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I43" s="14">
         <v>3048</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J43" s="14">
         <v>77</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K43" s="14">
         <v>1424</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L43" s="14">
         <v>1803</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M43" s="14">
         <v>54943</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N43" s="14">
         <v>3886</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O43" s="14">
         <v>31259</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P43" s="14">
         <v>18473</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q43" s="14">
         <v>35996</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R43" s="14">
         <v>2581</v>
       </c>
-      <c r="S42" s="14">
+      <c r="S43" s="14">
         <v>45940</v>
       </c>
-      <c r="T42" s="14">
+      <c r="T43" s="14">
         <v>1</v>
       </c>
-      <c r="U42" s="14">
+      <c r="U43" s="14">
         <v>112805</v>
       </c>
-      <c r="V42" s="14">
+      <c r="V43" s="14">
         <v>5407</v>
       </c>
-      <c r="W42" s="14">
+      <c r="W43" s="14">
         <v>4480</v>
       </c>
-      <c r="X42" s="14">
+      <c r="X43" s="14">
         <v>1159</v>
       </c>
-      <c r="Y42" s="14">
+      <c r="Y43" s="14">
         <v>10978</v>
       </c>
-      <c r="Z42" s="14">
+      <c r="Z43" s="14">
         <v>16</v>
       </c>
-      <c r="AA42" s="14">
+      <c r="AA43" s="14">
         <v>693</v>
       </c>
     </row>
-    <row r="43" spans="2:27" hidden="1">
-      <c r="B43" s="18">
+    <row r="44" spans="2:27" hidden="1">
+      <c r="B44" s="18">
         <v>2022</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D44" s="19">
         <v>607150</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E44" s="19">
         <v>596005</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F44" s="19">
         <v>524</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G44" s="19">
         <v>55683</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H44" s="19">
         <v>9107</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I44" s="19">
         <v>3044</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J44" s="19">
         <v>77</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K44" s="19">
         <v>1424</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L44" s="19">
         <v>1789</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M44" s="19">
         <v>54848</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N44" s="19">
         <v>3889</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O44" s="19">
         <v>31054</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P44" s="19">
         <v>18394</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q44" s="19">
         <v>35736</v>
       </c>
-      <c r="R43" s="19">
+      <c r="R44" s="19">
         <v>2573</v>
       </c>
-      <c r="S43" s="19">
+      <c r="S44" s="19">
         <v>45388</v>
       </c>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19">
+      <c r="T44" s="19"/>
+      <c r="U44" s="19">
         <v>112333</v>
       </c>
-      <c r="V43" s="19">
+      <c r="V44" s="19">
         <v>5355</v>
       </c>
-      <c r="W43" s="19">
+      <c r="W44" s="19">
         <v>4440</v>
       </c>
-      <c r="X43" s="19">
+      <c r="X44" s="19">
         <v>1030</v>
       </c>
-      <c r="Y43" s="19">
+      <c r="Y44" s="19">
         <v>10960</v>
       </c>
-      <c r="Z43" s="19">
+      <c r="Z44" s="19">
         <v>16</v>
       </c>
-      <c r="AA43" s="19">
+      <c r="AA44" s="19">
         <v>693</v>
       </c>
     </row>
-    <row r="44" spans="2:27" hidden="1">
-      <c r="B44" s="13">
+    <row r="45" spans="2:27" hidden="1">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <v>606090</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>594443</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>520</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>55717</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="14">
         <v>9091</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I45" s="14">
         <v>3021</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J45" s="14">
         <v>77</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K45" s="14">
         <v>1424</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L45" s="14">
         <v>1787</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M45" s="14">
         <v>54743</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N45" s="14">
         <v>3888</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O45" s="14">
         <v>30885</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P45" s="14">
         <v>18334</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q45" s="14">
         <v>35952</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R45" s="14">
         <v>2604</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S45" s="14">
         <v>45157</v>
       </c>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14">
+      <c r="T45" s="14"/>
+      <c r="U45" s="14">
         <v>111857</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V45" s="14">
         <v>5309</v>
       </c>
-      <c r="W44" s="14">
+      <c r="W45" s="14">
         <v>4400</v>
       </c>
-      <c r="X44" s="14">
+      <c r="X45" s="14">
         <v>957</v>
       </c>
-      <c r="Y44" s="14">
+      <c r="Y45" s="14">
         <v>10938</v>
       </c>
-      <c r="Z44" s="14">
+      <c r="Z45" s="14">
         <v>16</v>
       </c>
-      <c r="AA44" s="14">
+      <c r="AA45" s="14">
         <v>692</v>
       </c>
     </row>
-    <row r="45" spans="2:27" hidden="1">
-      <c r="B45" s="10">
+    <row r="46" spans="2:27" hidden="1">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>603380</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>591451</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>519</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>55656</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H46" s="11">
         <v>9054</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I46" s="11">
         <v>2985</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J46" s="11">
         <v>77</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K46" s="11">
         <v>1424</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L46" s="11">
         <v>1775</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M46" s="11">
         <v>54335</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N46" s="11">
         <v>3888</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O46" s="11">
         <v>30589</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P46" s="11">
         <v>18224</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q46" s="11">
         <v>35977</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R46" s="11">
         <v>2594</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S46" s="11">
         <v>44663</v>
       </c>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11">
+      <c r="T46" s="11"/>
+      <c r="U46" s="11">
         <v>110970</v>
       </c>
-      <c r="V45" s="11">
+      <c r="V46" s="11">
         <v>5249</v>
       </c>
-      <c r="W45" s="11">
+      <c r="W46" s="11">
         <v>4357</v>
       </c>
-      <c r="X45" s="11">
+      <c r="X46" s="11">
         <v>868</v>
       </c>
-      <c r="Y45" s="11">
+      <c r="Y46" s="11">
         <v>10873</v>
       </c>
-      <c r="Z45" s="11">
+      <c r="Z46" s="11">
         <v>16</v>
       </c>
-      <c r="AA45" s="11">
+      <c r="AA46" s="11">
         <v>692</v>
       </c>
     </row>
-    <row r="46" spans="2:27" hidden="1">
-      <c r="B46" s="13">
+    <row r="47" spans="2:27" hidden="1">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <v>602061</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <v>590200</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F47" s="14">
         <v>520</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <v>55685</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H47" s="14">
         <v>8999</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I47" s="14">
         <v>2982</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J47" s="14">
         <v>77</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K47" s="14">
         <v>1424</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L47" s="14">
         <v>1768</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M47" s="14">
         <v>54086</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N47" s="14">
         <v>3885</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O47" s="14">
         <v>30303</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P47" s="14">
         <v>18211</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q47" s="14">
         <v>36050</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R47" s="14">
         <v>2611</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S47" s="14">
         <v>44484</v>
       </c>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14">
+      <c r="T47" s="14"/>
+      <c r="U47" s="14">
         <v>110396</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V47" s="14">
         <v>5205</v>
       </c>
-      <c r="W46" s="14">
+      <c r="W47" s="14">
         <v>4316</v>
       </c>
-      <c r="X46" s="14">
+      <c r="X47" s="14">
         <v>836</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Y47" s="14">
         <v>10858</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="Z47" s="14">
         <v>16</v>
       </c>
-      <c r="AA46" s="14">
+      <c r="AA47" s="14">
         <v>689</v>
       </c>
     </row>
-    <row r="47" spans="2:27" hidden="1">
-      <c r="B47" s="10">
+    <row r="48" spans="2:27" hidden="1">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>599199</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>586326</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>516</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>55678</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H48" s="11">
         <v>8883</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I48" s="11">
         <v>2962</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J48" s="11">
         <v>77</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K48" s="11">
         <v>1424</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L48" s="11">
         <v>1761</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M48" s="11">
         <v>53840</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N48" s="11">
         <v>3878</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O48" s="11">
         <v>30091</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P48" s="11">
         <v>18180</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q48" s="11">
         <v>35973</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R48" s="11">
         <v>2618</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S48" s="11">
         <v>43957</v>
       </c>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11">
+      <c r="T48" s="11"/>
+      <c r="U48" s="11">
         <v>110047</v>
       </c>
-      <c r="V47" s="11">
+      <c r="V48" s="11">
         <v>5137</v>
       </c>
-      <c r="W47" s="11">
+      <c r="W48" s="11">
         <v>4253</v>
       </c>
-      <c r="X47" s="11">
+      <c r="X48" s="11">
         <v>705</v>
       </c>
-      <c r="Y47" s="11">
+      <c r="Y48" s="11">
         <v>10790</v>
       </c>
-      <c r="Z47" s="11">
+      <c r="Z48" s="11">
         <v>16</v>
       </c>
-      <c r="AA47" s="11">
+      <c r="AA48" s="11">
         <v>686</v>
       </c>
     </row>
-    <row r="48" spans="2:27" hidden="1">
-      <c r="B48" s="13">
+    <row r="49" spans="2:27" hidden="1">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <v>597975</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>583854</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>505</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <v>55668</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H49" s="14">
         <v>8821</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="14">
         <v>2977</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J49" s="14">
         <v>77</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="14">
         <v>1424</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L49" s="14">
         <v>1753</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M49" s="14">
         <v>53278</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N49" s="14">
         <v>3892</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O49" s="14">
         <v>29694</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P49" s="14">
         <v>18180</v>
       </c>
-      <c r="Q48" s="14">
+      <c r="Q49" s="14">
         <v>35973</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R49" s="14">
         <v>2605</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S49" s="14">
         <v>42961</v>
       </c>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14">
+      <c r="T49" s="14"/>
+      <c r="U49" s="14">
         <v>138152</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V49" s="14">
         <v>6095</v>
       </c>
-      <c r="W48" s="14">
+      <c r="W49" s="14">
         <v>4045</v>
       </c>
-      <c r="X48" s="14">
+      <c r="X49" s="14">
         <v>666</v>
       </c>
-      <c r="Y48" s="14">
+      <c r="Y49" s="14">
         <v>10713</v>
       </c>
-      <c r="Z48" s="14">
+      <c r="Z49" s="14">
         <v>17</v>
       </c>
-      <c r="AA48" s="14">
+      <c r="AA49" s="14">
         <v>682</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1">
-      <c r="B49" s="10">
+    <row r="50" spans="2:27" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>594590</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>580812</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>505</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>55750</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H50" s="11">
         <v>8821</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I50" s="11">
         <v>2979</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J50" s="11">
         <v>77</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K50" s="11">
         <v>1424</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L50" s="11">
         <v>1754</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M50" s="11">
         <v>53393</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N50" s="11">
         <v>3894</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O50" s="11">
         <v>29714</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P50" s="11">
         <v>17962</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="Q50" s="11">
         <v>36188</v>
       </c>
-      <c r="R49" s="11">
+      <c r="R50" s="11">
         <v>2604</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S50" s="11">
         <v>42900</v>
       </c>
-      <c r="T49" s="11">
+      <c r="T50" s="11">
         <v>1</v>
       </c>
-      <c r="U49" s="11">
+      <c r="U50" s="11">
         <v>109339</v>
       </c>
-      <c r="V49" s="11">
+      <c r="V50" s="11">
         <v>5068</v>
       </c>
-      <c r="W49" s="11">
+      <c r="W50" s="11">
         <v>4043</v>
       </c>
-      <c r="X49" s="11">
+      <c r="X50" s="11">
         <v>666</v>
       </c>
-      <c r="Y49" s="11">
+      <c r="Y50" s="11">
         <v>10697</v>
       </c>
-      <c r="Z49" s="11">
+      <c r="Z50" s="11">
         <v>17</v>
       </c>
-      <c r="AA49" s="11">
+      <c r="AA50" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="50" spans="2:27" hidden="1">
-      <c r="B50" s="13">
+    <row r="51" spans="2:27" hidden="1">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <v>593307</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="14">
         <v>578970</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>511</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <v>55681</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H51" s="14">
         <v>8835</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I51" s="14">
         <v>2976</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J51" s="14">
         <v>77</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K51" s="14">
         <v>1424</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L51" s="14">
         <v>1750</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M51" s="14">
         <v>53077</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N51" s="14">
         <v>3889</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O51" s="14">
         <v>29454</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P51" s="14">
         <v>20219</v>
       </c>
-      <c r="Q50" s="14">
+      <c r="Q51" s="14">
         <v>37753</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R51" s="14">
         <v>2598</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S51" s="14">
         <v>42432</v>
       </c>
-      <c r="T50" s="14">
+      <c r="T51" s="14">
         <v>1</v>
       </c>
-      <c r="U50" s="14">
+      <c r="U51" s="14">
         <v>109131</v>
       </c>
-      <c r="V50" s="14">
+      <c r="V51" s="14">
         <v>4950</v>
       </c>
-      <c r="W50" s="14">
+      <c r="W51" s="14">
         <v>4018</v>
       </c>
-      <c r="X50" s="14">
+      <c r="X51" s="14">
         <v>650</v>
       </c>
-      <c r="Y50" s="14">
+      <c r="Y51" s="14">
         <v>10710</v>
       </c>
-      <c r="Z50" s="14">
+      <c r="Z51" s="14">
         <v>17</v>
       </c>
-      <c r="AA50" s="14">
+      <c r="AA51" s="14">
         <v>680</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:27" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>590245</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>576050</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>510</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>55725</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H52" s="11">
         <v>8835</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I52" s="11">
         <v>2957</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J52" s="11">
         <v>77</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K52" s="11">
         <v>1424</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L52" s="11">
         <v>1740</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M52" s="11">
         <v>52924</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N52" s="11">
         <v>3886</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O52" s="11">
         <v>29218</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P52" s="11">
         <v>17867</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q52" s="11">
         <v>36460</v>
       </c>
-      <c r="R51" s="11">
+      <c r="R52" s="11">
         <v>2606</v>
       </c>
-      <c r="S51" s="11">
+      <c r="S52" s="11">
         <v>42065</v>
       </c>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11">
+      <c r="T52" s="11"/>
+      <c r="U52" s="11">
         <v>108383</v>
       </c>
-      <c r="V51" s="11">
+      <c r="V52" s="11">
         <v>4897</v>
       </c>
-      <c r="W51" s="11">
+      <c r="W52" s="11">
         <v>3940</v>
       </c>
-      <c r="X51" s="11">
+      <c r="X52" s="11">
         <v>634</v>
       </c>
-      <c r="Y51" s="11">
+      <c r="Y52" s="11">
         <v>10660</v>
       </c>
-      <c r="Z51" s="11">
+      <c r="Z52" s="11">
         <v>17</v>
       </c>
-      <c r="AA51" s="11">
+      <c r="AA52" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="52" spans="2:27" hidden="1">
-      <c r="B52" s="13">
+    <row r="53" spans="2:27" hidden="1">
+      <c r="B53" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <v>588077</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>573877</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>509</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <v>55905</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>8876</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I53" s="14">
         <v>2941</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J53" s="14">
         <v>77</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K53" s="14">
         <v>1424</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L53" s="14">
         <v>1741</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M53" s="14">
         <v>52732</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N53" s="14">
         <v>3884</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O53" s="14">
         <v>29115</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P53" s="14">
         <v>17854</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q53" s="14">
         <v>36552</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R53" s="14">
         <v>2596</v>
       </c>
-      <c r="S52" s="14">
+      <c r="S53" s="14">
         <v>41550</v>
       </c>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14">
+      <c r="T53" s="14"/>
+      <c r="U53" s="14">
         <v>107848</v>
       </c>
-      <c r="V52" s="14">
+      <c r="V53" s="14">
         <v>4861</v>
       </c>
-      <c r="W52" s="14">
+      <c r="W53" s="14">
         <v>3840</v>
       </c>
-      <c r="X52" s="14">
+      <c r="X53" s="14">
         <v>623</v>
       </c>
-      <c r="Y52" s="14">
+      <c r="Y53" s="14">
         <v>10625</v>
       </c>
-      <c r="Z52" s="14">
+      <c r="Z53" s="14">
         <v>17</v>
       </c>
-      <c r="AA52" s="14">
+      <c r="AA53" s="14">
         <v>679</v>
       </c>
     </row>
-    <row r="53" spans="2:27" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:27" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>586093</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>571129</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>508</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>56021</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H54" s="11">
         <v>8878</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I54" s="11">
         <v>2934</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J54" s="11">
         <v>77</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K54" s="11">
         <v>1424</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L54" s="11">
         <v>1732</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M54" s="11">
         <v>52504</v>
       </c>
-      <c r="N53" s="11">
+      <c r="N54" s="11">
         <v>3883</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O54" s="11">
         <v>29014</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P54" s="11">
         <v>17887</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="Q54" s="11">
         <v>36498</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R54" s="11">
         <v>2578</v>
       </c>
-      <c r="S53" s="11">
+      <c r="S54" s="11">
         <v>40750</v>
       </c>
-      <c r="T53" s="11">
+      <c r="T54" s="11">
         <v>0</v>
       </c>
-      <c r="U53" s="11">
+      <c r="U54" s="11">
         <v>107480</v>
       </c>
-      <c r="V53" s="11">
+      <c r="V54" s="11">
         <v>4839</v>
       </c>
-      <c r="W53" s="11">
+      <c r="W54" s="11">
         <v>3789</v>
       </c>
-      <c r="X53" s="11">
+      <c r="X54" s="11">
         <v>621</v>
       </c>
-      <c r="Y53" s="11">
+      <c r="Y54" s="11">
         <v>10600</v>
       </c>
-      <c r="Z53" s="11">
+      <c r="Z54" s="11">
         <v>17</v>
       </c>
-      <c r="AA53" s="11">
+      <c r="AA54" s="11">
         <v>678</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1">
-      <c r="B54" s="13">
+    <row r="55" spans="2:27" hidden="1">
+      <c r="B55" s="13">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <v>583440</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E55" s="14">
         <v>567677</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F55" s="14">
         <v>507</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <v>56059</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H55" s="14">
         <v>8871</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I55" s="14">
         <v>2921</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J55" s="14">
         <v>77</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K55" s="14">
         <v>1424</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L55" s="14">
         <v>1728</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M55" s="14">
         <v>52301</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N55" s="14">
         <v>3880</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O55" s="14">
         <v>28867</v>
       </c>
-      <c r="P54" s="14">
+      <c r="P55" s="14">
         <v>17889</v>
       </c>
-      <c r="Q54" s="14">
+      <c r="Q55" s="14">
         <v>36421</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R55" s="14">
         <v>2569</v>
       </c>
-      <c r="S54" s="14">
+      <c r="S55" s="14">
         <v>39851</v>
       </c>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14">
+      <c r="T55" s="14"/>
+      <c r="U55" s="14">
         <v>106898</v>
       </c>
-      <c r="V54" s="14">
+      <c r="V55" s="14">
         <v>4801</v>
       </c>
-      <c r="W54" s="14">
+      <c r="W55" s="14">
         <v>3689</v>
       </c>
-      <c r="X54" s="14">
+      <c r="X55" s="14">
         <v>585</v>
       </c>
-      <c r="Y54" s="14">
+      <c r="Y55" s="14">
         <v>10566</v>
       </c>
-      <c r="Z54" s="14">
+      <c r="Z55" s="14">
         <v>17</v>
       </c>
-      <c r="AA54" s="14">
+      <c r="AA55" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1">
-      <c r="B55" s="18">
+    <row r="56" spans="2:27" hidden="1">
+      <c r="B56" s="18">
         <v>2021</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D56" s="19">
         <v>581299</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E56" s="19">
         <v>565156</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F56" s="19">
         <v>507</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G56" s="19">
         <v>56230</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H56" s="19">
         <v>8897</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I56" s="19">
         <v>2930</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J56" s="19">
         <v>77</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K56" s="19">
         <v>1424</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L56" s="19">
         <v>1727</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M56" s="19">
         <v>52149</v>
       </c>
-      <c r="N55" s="19">
+      <c r="N56" s="19">
         <v>3874</v>
       </c>
-      <c r="O55" s="19">
+      <c r="O56" s="19">
         <v>28827</v>
       </c>
-      <c r="P55" s="19">
+      <c r="P56" s="19">
         <v>17957</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q56" s="19">
         <v>36403</v>
       </c>
-      <c r="R55" s="19">
+      <c r="R56" s="19">
         <v>2555</v>
       </c>
-      <c r="S55" s="19">
+      <c r="S56" s="19">
         <v>39272</v>
       </c>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19">
+      <c r="T56" s="19"/>
+      <c r="U56" s="19">
         <v>106698</v>
       </c>
-      <c r="V55" s="19">
+      <c r="V56" s="19">
         <v>4780</v>
       </c>
-      <c r="W55" s="19">
+      <c r="W56" s="19">
         <v>3642</v>
       </c>
-      <c r="X55" s="19">
+      <c r="X56" s="19">
         <v>578</v>
       </c>
-      <c r="Y55" s="19">
+      <c r="Y56" s="19">
         <v>10557</v>
       </c>
-      <c r="Z55" s="19">
+      <c r="Z56" s="19">
         <v>17</v>
       </c>
-      <c r="AA55" s="19">
+      <c r="AA56" s="19">
         <v>671</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1">
-      <c r="B56" s="13">
+    <row r="57" spans="2:27" hidden="1">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <v>580035</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="14">
         <v>563400</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="14">
         <v>505</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <v>56274</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="14">
         <v>8916</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="14">
         <v>2933</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J57" s="14">
         <v>77</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K57" s="14">
         <v>1424</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L57" s="14">
         <v>1736</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M57" s="14">
         <v>52012</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N57" s="14">
         <v>3877</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O57" s="14">
         <v>28815</v>
       </c>
-      <c r="P56" s="14">
+      <c r="P57" s="14">
         <v>18007</v>
       </c>
-      <c r="Q56" s="14">
+      <c r="Q57" s="14">
         <v>36384</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R57" s="14">
         <v>2551</v>
       </c>
-      <c r="S56" s="14">
+      <c r="S57" s="14">
         <v>38799</v>
       </c>
-      <c r="T56" s="14">
+      <c r="T57" s="14">
         <v>0</v>
       </c>
-      <c r="U56" s="14">
+      <c r="U57" s="14">
         <v>106486</v>
       </c>
-      <c r="V56" s="14">
+      <c r="V57" s="14">
         <v>4754</v>
       </c>
-      <c r="W56" s="14">
+      <c r="W57" s="14">
         <v>3612</v>
       </c>
-      <c r="X56" s="14">
+      <c r="X57" s="14">
         <v>569</v>
       </c>
-      <c r="Y56" s="14">
+      <c r="Y57" s="14">
         <v>10542</v>
       </c>
-      <c r="Z56" s="14">
+      <c r="Z57" s="14">
         <v>17</v>
       </c>
-      <c r="AA56" s="14">
+      <c r="AA57" s="14">
         <v>670</v>
       </c>
     </row>
-    <row r="57" spans="2:27" hidden="1">
-      <c r="B57" s="10">
+    <row r="58" spans="2:27" hidden="1">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>576835</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>560383</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>501</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>56253</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H58" s="11">
         <v>8958</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I58" s="11">
         <v>2929</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J58" s="11">
         <v>77</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K58" s="11">
         <v>1424</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L58" s="11">
         <v>1734</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M58" s="11">
         <v>51472</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N58" s="11">
         <v>3876</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O58" s="11">
         <v>28607</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P58" s="11">
         <v>17914</v>
       </c>
-      <c r="Q57" s="11">
+      <c r="Q58" s="11">
         <v>36355</v>
       </c>
-      <c r="R57" s="11">
+      <c r="R58" s="11">
         <v>2550</v>
       </c>
-      <c r="S57" s="11">
+      <c r="S58" s="11">
         <v>37952</v>
       </c>
-      <c r="T57" s="11">
+      <c r="T58" s="11">
         <v>0</v>
       </c>
-      <c r="U57" s="11">
+      <c r="U58" s="11">
         <v>106174</v>
       </c>
-      <c r="V57" s="11">
+      <c r="V58" s="11">
         <v>4716</v>
       </c>
-      <c r="W57" s="11">
+      <c r="W58" s="11">
         <v>3542</v>
       </c>
-      <c r="X57" s="11">
+      <c r="X58" s="11">
         <v>553</v>
       </c>
-      <c r="Y57" s="11">
+      <c r="Y58" s="11">
         <v>10450</v>
       </c>
-      <c r="Z57" s="11">
+      <c r="Z58" s="11">
         <v>17</v>
       </c>
-      <c r="AA57" s="11">
+      <c r="AA58" s="11">
         <v>665</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1">
-      <c r="B58" s="13">
+    <row r="59" spans="2:27" hidden="1">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <v>574056</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E59" s="14">
         <v>556941</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F59" s="14">
         <v>499</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <v>56245</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>8933</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <v>2902</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J59" s="14">
         <v>77</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K59" s="14">
         <v>1424</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L59" s="14">
         <v>1739</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M59" s="14">
         <v>51341</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N59" s="14">
         <v>3877</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O59" s="14">
         <v>28460</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P59" s="14">
         <v>17784</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="Q59" s="14">
         <v>36186</v>
       </c>
-      <c r="R58" s="14">
+      <c r="R59" s="14">
         <v>2539</v>
       </c>
-      <c r="S58" s="14">
+      <c r="S59" s="14">
         <v>37095</v>
       </c>
-      <c r="T58" s="14">
+      <c r="T59" s="14">
         <v>1</v>
       </c>
-      <c r="U58" s="14">
+      <c r="U59" s="14">
         <v>105781</v>
       </c>
-      <c r="V58" s="14">
+      <c r="V59" s="14">
         <v>4675</v>
       </c>
-      <c r="W58" s="14">
+      <c r="W59" s="14">
         <v>3405</v>
       </c>
-      <c r="X58" s="14">
+      <c r="X59" s="14">
         <v>535</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Y59" s="14">
         <v>10417</v>
       </c>
-      <c r="Z58" s="14">
+      <c r="Z59" s="14">
         <v>17</v>
       </c>
-      <c r="AA58" s="14">
+      <c r="AA59" s="14">
         <v>666</v>
       </c>
     </row>
-    <row r="59" spans="2:27" hidden="1">
-      <c r="B59" s="10">
+    <row r="60" spans="2:27" hidden="1">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>571367</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>552611</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>495</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>56341</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H60" s="11">
         <v>9019</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I60" s="11">
         <v>2941</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J60" s="11">
         <v>77</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K60" s="11">
         <v>1424</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L60" s="11">
         <v>1746</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M60" s="11">
         <v>51196</v>
       </c>
-      <c r="N59" s="11">
+      <c r="N60" s="11">
         <v>3879</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O60" s="11">
         <v>28351</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P60" s="11">
         <v>17563</v>
       </c>
-      <c r="Q59" s="11">
+      <c r="Q60" s="11">
         <v>35861</v>
       </c>
-      <c r="R59" s="11">
+      <c r="R60" s="11">
         <v>2521</v>
       </c>
-      <c r="S59" s="11">
+      <c r="S60" s="11">
         <v>36352</v>
       </c>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11">
+      <c r="T60" s="11"/>
+      <c r="U60" s="11">
         <v>105315</v>
       </c>
-      <c r="V59" s="11">
+      <c r="V60" s="11">
         <v>4640</v>
       </c>
-      <c r="W59" s="11">
+      <c r="W60" s="11">
         <v>3253</v>
       </c>
-      <c r="X59" s="11">
+      <c r="X60" s="11">
         <v>533</v>
       </c>
-      <c r="Y59" s="11">
+      <c r="Y60" s="11">
         <v>10374</v>
       </c>
-      <c r="Z59" s="11">
+      <c r="Z60" s="11">
         <v>17</v>
       </c>
-      <c r="AA59" s="11">
+      <c r="AA60" s="11">
         <v>666</v>
       </c>
     </row>
-    <row r="60" spans="2:27" hidden="1">
-      <c r="B60" s="13">
+    <row r="61" spans="2:27" hidden="1">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <v>569174</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E61" s="14">
         <v>549631</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>496</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <v>56348</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="14">
         <v>9127</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I61" s="14">
         <v>2959</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J61" s="14">
         <v>77</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="14">
         <v>1424</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L61" s="14">
         <v>1745</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M61" s="14">
         <v>51089</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N61" s="14">
         <v>3866</v>
       </c>
-      <c r="O60" s="14">
+      <c r="O61" s="14">
         <v>28370</v>
       </c>
-      <c r="P60" s="14">
+      <c r="P61" s="14">
         <v>17421</v>
       </c>
-      <c r="Q60" s="14">
+      <c r="Q61" s="14">
         <v>35866</v>
       </c>
-      <c r="R60" s="14">
+      <c r="R61" s="14">
         <v>2504</v>
       </c>
-      <c r="S60" s="14">
+      <c r="S61" s="14">
         <v>35789</v>
       </c>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14">
+      <c r="T61" s="14"/>
+      <c r="U61" s="14">
         <v>104940</v>
       </c>
-      <c r="V60" s="14">
+      <c r="V61" s="14">
         <v>4612</v>
       </c>
-      <c r="W60" s="14">
+      <c r="W61" s="14">
         <v>3208</v>
       </c>
-      <c r="X60" s="14">
+      <c r="X61" s="14">
         <v>503</v>
       </c>
-      <c r="Y60" s="14">
+      <c r="Y61" s="14">
         <v>10368</v>
       </c>
-      <c r="Z60" s="14">
+      <c r="Z61" s="14">
         <v>17</v>
       </c>
-      <c r="AA60" s="14">
+      <c r="AA61" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="61" spans="2:27" hidden="1">
-      <c r="B61" s="10">
+    <row r="62" spans="2:27" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>567168</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>547540</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>498</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>56269</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H62" s="11">
         <v>9193</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I62" s="11">
         <v>2973</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J62" s="11">
         <v>77</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K62" s="11">
         <v>1424</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L62" s="11">
         <v>1747</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M62" s="11">
         <v>50966</v>
       </c>
-      <c r="N61" s="11">
+      <c r="N62" s="11">
         <v>3857</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O62" s="11">
         <v>28348</v>
       </c>
-      <c r="P61" s="11">
+      <c r="P62" s="11">
         <v>17331</v>
       </c>
-      <c r="Q61" s="11">
+      <c r="Q62" s="11">
         <v>35832</v>
       </c>
-      <c r="R61" s="11">
+      <c r="R62" s="11">
         <v>2489</v>
       </c>
-      <c r="S61" s="11">
+      <c r="S62" s="11">
         <v>35300</v>
       </c>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11">
+      <c r="T62" s="11"/>
+      <c r="U62" s="11">
         <v>104554</v>
       </c>
-      <c r="V61" s="11">
+      <c r="V62" s="11">
         <v>4605</v>
       </c>
-      <c r="W61" s="11">
+      <c r="W62" s="11">
         <v>3183</v>
       </c>
-      <c r="X61" s="11">
+      <c r="X62" s="11">
         <v>491</v>
       </c>
-      <c r="Y61" s="11">
+      <c r="Y62" s="11">
         <v>10340</v>
       </c>
-      <c r="Z61" s="11">
+      <c r="Z62" s="11">
         <v>16</v>
       </c>
-      <c r="AA61" s="11">
+      <c r="AA62" s="11">
         <v>662</v>
       </c>
     </row>
-    <row r="62" spans="2:27" hidden="1">
-      <c r="B62" s="13">
+    <row r="63" spans="2:27" hidden="1">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>566042</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>545916</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>498</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>56291</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H63" s="14">
         <v>9187</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="14">
         <v>2980</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J63" s="14">
         <v>77</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="14">
         <v>1424</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L63" s="14">
         <v>1748</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M63" s="14">
         <v>50878</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N63" s="14">
         <v>3863</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O63" s="14">
         <v>28349</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P63" s="14">
         <v>17359</v>
       </c>
-      <c r="Q62" s="14">
+      <c r="Q63" s="14">
         <v>35902</v>
       </c>
-      <c r="R62" s="14">
+      <c r="R63" s="14">
         <v>2485</v>
       </c>
-      <c r="S62" s="14">
+      <c r="S63" s="14">
         <v>35117</v>
       </c>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14">
+      <c r="T63" s="14"/>
+      <c r="U63" s="14">
         <v>104123</v>
       </c>
-      <c r="V62" s="14">
+      <c r="V63" s="14">
         <v>4584</v>
       </c>
-      <c r="W62" s="14">
+      <c r="W63" s="14">
         <v>3179</v>
       </c>
-      <c r="X62" s="14">
+      <c r="X63" s="14">
         <v>489</v>
       </c>
-      <c r="Y62" s="14">
+      <c r="Y63" s="14">
         <v>10327</v>
       </c>
-      <c r="Z62" s="14">
+      <c r="Z63" s="14">
         <v>17</v>
       </c>
-      <c r="AA62" s="14">
+      <c r="AA63" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="2:27" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:27" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>565980</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>545400</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>499</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>56275</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H64" s="11">
         <v>9187</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I64" s="11">
         <v>2982</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J64" s="11">
         <v>77</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K64" s="11">
         <v>1424</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L64" s="11">
         <v>1755</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M64" s="11">
         <v>50805</v>
       </c>
-      <c r="N63" s="11">
+      <c r="N64" s="11">
         <v>3864</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O64" s="11">
         <v>28294</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P64" s="11">
         <v>17361</v>
       </c>
-      <c r="Q63" s="11">
+      <c r="Q64" s="11">
         <v>36010</v>
       </c>
-      <c r="R63" s="11">
+      <c r="R64" s="11">
         <v>2485</v>
       </c>
-      <c r="S63" s="11">
+      <c r="S64" s="11">
         <v>34872</v>
       </c>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11">
+      <c r="T64" s="11"/>
+      <c r="U64" s="11">
         <v>104093</v>
       </c>
-      <c r="V63" s="11">
+      <c r="V64" s="11">
         <v>4584</v>
       </c>
-      <c r="W63" s="11">
+      <c r="W64" s="11">
         <v>3174</v>
       </c>
-      <c r="X63" s="11">
+      <c r="X64" s="11">
         <v>486</v>
       </c>
-      <c r="Y63" s="11">
+      <c r="Y64" s="11">
         <v>10322</v>
       </c>
-      <c r="Z63" s="11">
+      <c r="Z64" s="11">
         <v>17</v>
       </c>
-      <c r="AA63" s="11">
+      <c r="AA64" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="64" spans="2:27" hidden="1">
-      <c r="B64" s="13">
+    <row r="65" spans="2:27" hidden="1">
+      <c r="B65" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <v>565883</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>545244</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>499</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>56275</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="14">
         <v>9189</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="14">
         <v>2982</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J65" s="14">
         <v>77</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K65" s="14">
         <v>1424</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L65" s="14">
         <v>1755</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M65" s="14">
         <v>50796</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N65" s="14">
         <v>3864</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O65" s="14">
         <v>28297</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P65" s="14">
         <v>17361</v>
       </c>
-      <c r="Q64" s="14">
+      <c r="Q65" s="14">
         <v>36010</v>
       </c>
-      <c r="R64" s="14">
+      <c r="R65" s="14">
         <v>2485</v>
       </c>
-      <c r="S64" s="14">
+      <c r="S65" s="14">
         <v>34862</v>
       </c>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14">
+      <c r="T65" s="14"/>
+      <c r="U65" s="14">
         <v>104076</v>
       </c>
-      <c r="V64" s="14">
+      <c r="V65" s="14">
         <v>4584</v>
       </c>
-      <c r="W64" s="14">
+      <c r="W65" s="14">
         <v>3174</v>
       </c>
-      <c r="X64" s="14">
+      <c r="X65" s="14">
         <v>486</v>
       </c>
-      <c r="Y64" s="14">
+      <c r="Y65" s="14">
         <v>10322</v>
       </c>
-      <c r="Z64" s="14">
+      <c r="Z65" s="14">
         <v>17</v>
       </c>
-      <c r="AA64" s="14">
+      <c r="AA65" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="2:27" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:27" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>565809</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>545128</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>499</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>56281</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H66" s="11">
         <v>9189</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I66" s="11">
         <v>2982</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J66" s="11">
         <v>77</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K66" s="11">
         <v>1424</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L66" s="11">
         <v>1755</v>
       </c>
-      <c r="M65" s="11">
+      <c r="M66" s="11">
         <v>50794</v>
       </c>
-      <c r="N65" s="11">
+      <c r="N66" s="11">
         <v>3867</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O66" s="11">
         <v>28301</v>
       </c>
-      <c r="P65" s="11">
+      <c r="P66" s="11">
         <v>17361</v>
       </c>
-      <c r="Q65" s="11">
+      <c r="Q66" s="11">
         <v>36010</v>
       </c>
-      <c r="R65" s="11">
+      <c r="R66" s="11">
         <v>2487</v>
       </c>
-      <c r="S65" s="11">
+      <c r="S66" s="11">
         <v>34874</v>
       </c>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11">
+      <c r="T66" s="11"/>
+      <c r="U66" s="11">
         <v>104084</v>
       </c>
-      <c r="V65" s="11">
+      <c r="V66" s="11">
         <v>4585</v>
       </c>
-      <c r="W65" s="11">
+      <c r="W66" s="11">
         <v>3174</v>
       </c>
-      <c r="X65" s="11">
+      <c r="X66" s="11">
         <v>486</v>
       </c>
-      <c r="Y65" s="11">
+      <c r="Y66" s="11">
         <v>10319</v>
       </c>
-      <c r="Z65" s="11">
+      <c r="Z66" s="11">
         <v>17</v>
       </c>
-      <c r="AA65" s="11">
+      <c r="AA66" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="66" spans="2:27" hidden="1">
-      <c r="B66" s="13">
+    <row r="67" spans="2:27" hidden="1">
+      <c r="B67" s="13">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <v>564089</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E67" s="14">
         <v>542595</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F67" s="14">
         <v>496</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <v>56248</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="14">
         <v>9180</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I67" s="14">
         <v>2964</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J67" s="14">
         <v>77</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K67" s="14">
         <v>1424</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L67" s="14">
         <v>1745</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M67" s="14">
         <v>50693</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N67" s="14">
         <v>3869</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O67" s="14">
         <v>28110</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P67" s="14">
         <v>16719</v>
       </c>
-      <c r="Q66" s="14">
+      <c r="Q67" s="14">
         <v>35910</v>
       </c>
-      <c r="R66" s="14">
+      <c r="R67" s="14">
         <v>2467</v>
       </c>
-      <c r="S66" s="14">
+      <c r="S67" s="14">
         <v>34546</v>
       </c>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14">
+      <c r="T67" s="14"/>
+      <c r="U67" s="14">
         <v>103491</v>
       </c>
-      <c r="V66" s="14">
+      <c r="V67" s="14">
         <v>4545</v>
       </c>
-      <c r="W66" s="14">
+      <c r="W67" s="14">
         <v>3124</v>
       </c>
-      <c r="X66" s="14">
+      <c r="X67" s="14">
         <v>480</v>
       </c>
-      <c r="Y66" s="14">
+      <c r="Y67" s="14">
         <v>10285</v>
       </c>
-      <c r="Z66" s="14">
+      <c r="Z67" s="14">
         <v>17</v>
       </c>
-      <c r="AA66" s="14">
+      <c r="AA67" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="67" spans="2:27" hidden="1">
-      <c r="B67" s="18">
+    <row r="68" spans="2:27" hidden="1">
+      <c r="B68" s="18">
         <v>2020</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D68" s="19">
         <v>562170</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E68" s="19">
         <v>539768</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F68" s="19">
         <v>496</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G68" s="19">
         <v>56222</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H68" s="19">
         <v>9165</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I68" s="19">
         <v>2963</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J68" s="19">
         <v>77</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K68" s="19">
         <v>1424</v>
       </c>
-      <c r="L67" s="19">
+      <c r="L68" s="19">
         <v>1747</v>
       </c>
-      <c r="M67" s="19">
+      <c r="M68" s="19">
         <v>50528</v>
       </c>
-      <c r="N67" s="19">
+      <c r="N68" s="19">
         <v>3862</v>
       </c>
-      <c r="O67" s="19">
+      <c r="O68" s="19">
         <v>27916</v>
       </c>
-      <c r="P67" s="19">
+      <c r="P68" s="19">
         <v>16577</v>
       </c>
-      <c r="Q67" s="19">
+      <c r="Q68" s="19">
         <v>35720</v>
       </c>
-      <c r="R67" s="19">
+      <c r="R68" s="19">
         <v>2434</v>
       </c>
-      <c r="S67" s="19">
+      <c r="S68" s="19">
         <v>34311</v>
       </c>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19">
+      <c r="T68" s="19"/>
+      <c r="U68" s="19">
         <v>102764</v>
       </c>
-      <c r="V67" s="19">
+      <c r="V68" s="19">
         <v>4504</v>
       </c>
-      <c r="W67" s="19">
+      <c r="W68" s="19">
         <v>3103</v>
       </c>
-      <c r="X67" s="19">
+      <c r="X68" s="19">
         <v>461</v>
       </c>
-      <c r="Y67" s="19">
+      <c r="Y68" s="19">
         <v>10273</v>
       </c>
-      <c r="Z67" s="19">
+      <c r="Z68" s="19">
         <v>17</v>
       </c>
-      <c r="AA67" s="19">
+      <c r="AA68" s="19">
         <v>663</v>
       </c>
     </row>
-    <row r="68" spans="2:27" hidden="1">
-      <c r="B68" s="13">
+    <row r="69" spans="2:27" hidden="1">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <v>561061</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>537813</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="14">
         <v>497</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>56256</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="14">
         <v>9149</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="14">
         <v>2965</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J69" s="14">
         <v>77</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K69" s="14">
         <v>1424</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L69" s="14">
         <v>1747</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M69" s="14">
         <v>50432</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N69" s="14">
         <v>3858</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O69" s="14">
         <v>27818</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P69" s="14">
         <v>16663</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q69" s="14">
         <v>35664</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R69" s="14">
         <v>2427</v>
       </c>
-      <c r="S68" s="14">
+      <c r="S69" s="14">
         <v>33984</v>
       </c>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14">
+      <c r="T69" s="14"/>
+      <c r="U69" s="14">
         <v>102021</v>
       </c>
-      <c r="V68" s="14">
+      <c r="V69" s="14">
         <v>4466</v>
       </c>
-      <c r="W68" s="14">
+      <c r="W69" s="14">
         <v>3102</v>
       </c>
-      <c r="X68" s="14">
+      <c r="X69" s="14">
         <v>462</v>
       </c>
-      <c r="Y68" s="14">
+      <c r="Y69" s="14">
         <v>10222</v>
       </c>
-      <c r="Z68" s="14">
+      <c r="Z69" s="14">
         <v>17</v>
       </c>
-      <c r="AA68" s="14">
+      <c r="AA69" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="69" spans="2:27" hidden="1">
-      <c r="B69" s="10">
+    <row r="70" spans="2:27" hidden="1">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>558626</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>535724</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>493</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>55998</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H70" s="11">
         <v>9075</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I70" s="11">
         <v>2960</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J70" s="11">
         <v>77</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K70" s="11">
         <v>1424</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L70" s="11">
         <v>1718</v>
       </c>
-      <c r="M69" s="11">
+      <c r="M70" s="11">
         <v>50135</v>
       </c>
-      <c r="N69" s="11">
+      <c r="N70" s="11">
         <v>3846</v>
       </c>
-      <c r="O69" s="11">
+      <c r="O70" s="11">
         <v>27391</v>
       </c>
-      <c r="P69" s="11">
+      <c r="P70" s="11">
         <v>16776</v>
       </c>
-      <c r="Q69" s="11">
+      <c r="Q70" s="11">
         <v>35622</v>
       </c>
-      <c r="R69" s="11">
+      <c r="R70" s="11">
         <v>2417</v>
       </c>
-      <c r="S69" s="11">
+      <c r="S70" s="11">
         <v>33833</v>
       </c>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11">
+      <c r="T70" s="11"/>
+      <c r="U70" s="11">
         <v>101688</v>
       </c>
-      <c r="V69" s="11">
+      <c r="V70" s="11">
         <v>4382</v>
       </c>
-      <c r="W69" s="11">
+      <c r="W70" s="11">
         <v>3068</v>
       </c>
-      <c r="X69" s="11">
+      <c r="X70" s="11">
         <v>453</v>
       </c>
-      <c r="Y69" s="11">
+      <c r="Y70" s="11">
         <v>10134</v>
       </c>
-      <c r="Z69" s="11">
+      <c r="Z70" s="11">
         <v>17</v>
       </c>
-      <c r="AA69" s="11">
+      <c r="AA70" s="11">
         <v>660</v>
       </c>
     </row>
-    <row r="70" spans="2:27" hidden="1">
-      <c r="B70" s="13">
+    <row r="71" spans="2:27" hidden="1">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <v>556346</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E71" s="14">
         <v>533069</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F71" s="14">
         <v>492</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <v>55871</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H71" s="14">
         <v>9008</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I71" s="14">
         <v>2938</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J71" s="14">
         <v>77</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K71" s="14">
         <v>1424</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L71" s="14">
         <v>1711</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M71" s="14">
         <v>49943</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N71" s="14">
         <v>3804</v>
       </c>
-      <c r="O70" s="14">
+      <c r="O71" s="14">
         <v>27062</v>
       </c>
-      <c r="P70" s="14">
+      <c r="P71" s="14">
         <v>16772</v>
       </c>
-      <c r="Q70" s="14">
+      <c r="Q71" s="14">
         <v>35650</v>
       </c>
-      <c r="R70" s="14">
+      <c r="R71" s="14">
         <v>2402</v>
       </c>
-      <c r="S70" s="14">
+      <c r="S71" s="14">
         <v>33575</v>
       </c>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14">
+      <c r="T71" s="14"/>
+      <c r="U71" s="14">
         <v>101067</v>
       </c>
-      <c r="V70" s="14">
+      <c r="V71" s="14">
         <v>4305</v>
       </c>
-      <c r="W70" s="14">
+      <c r="W71" s="14">
         <v>3036</v>
       </c>
-      <c r="X70" s="14">
+      <c r="X71" s="14">
         <v>442</v>
       </c>
-      <c r="Y70" s="14">
+      <c r="Y71" s="14">
         <v>10077</v>
       </c>
-      <c r="Z70" s="14">
+      <c r="Z71" s="14">
         <v>17</v>
       </c>
-      <c r="AA70" s="14">
+      <c r="AA71" s="14">
         <v>658</v>
       </c>
     </row>
-    <row r="71" spans="2:27" hidden="1">
-      <c r="B71" s="10">
+    <row r="72" spans="2:27" hidden="1">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>519860</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>505944</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>449</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>49255</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H72" s="11">
         <v>6176</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I72" s="11">
         <v>2186</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J72" s="11">
         <v>73</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K72" s="11">
         <v>1413</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L72" s="11">
         <v>1713</v>
       </c>
-      <c r="M71" s="11">
+      <c r="M72" s="11">
         <v>43268</v>
       </c>
-      <c r="N71" s="11">
+      <c r="N72" s="11">
         <v>3801</v>
       </c>
-      <c r="O71" s="11">
+      <c r="O72" s="11">
         <v>26781</v>
       </c>
-      <c r="P71" s="11">
+      <c r="P72" s="11">
         <v>14771</v>
       </c>
-      <c r="Q71" s="11">
+      <c r="Q72" s="11">
         <v>34056</v>
       </c>
-      <c r="R71" s="11">
+      <c r="R72" s="11">
         <v>2388</v>
       </c>
-      <c r="S71" s="11">
+      <c r="S72" s="11">
         <v>33239</v>
       </c>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11">
+      <c r="T72" s="11"/>
+      <c r="U72" s="11">
         <v>100098</v>
       </c>
-      <c r="V71" s="11">
+      <c r="V72" s="11">
         <v>4230</v>
       </c>
-      <c r="W71" s="11">
+      <c r="W72" s="11">
         <v>2983</v>
       </c>
-      <c r="X71" s="11">
+      <c r="X72" s="11">
         <v>435</v>
       </c>
-      <c r="Y71" s="11">
+      <c r="Y72" s="11">
         <v>10048</v>
       </c>
-      <c r="Z71" s="11">
+      <c r="Z72" s="11">
         <v>17</v>
       </c>
-      <c r="AA71" s="11">
+      <c r="AA72" s="11">
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="2:27" hidden="1">
-      <c r="B72" s="13">
+    <row r="73" spans="2:27" hidden="1">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <v>517666</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E73" s="14">
         <v>503486</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F73" s="14">
         <v>449</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <v>49171</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H73" s="14">
         <v>6156</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I73" s="14">
         <v>2183</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J73" s="14">
         <v>73</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K73" s="14">
         <v>1413</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L73" s="14">
         <v>1710</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M73" s="14">
         <v>43104</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N73" s="14">
         <v>3785</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O73" s="14">
         <v>26582</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P73" s="14">
         <v>14832</v>
       </c>
-      <c r="Q72" s="14">
+      <c r="Q73" s="14">
         <v>34205</v>
       </c>
-      <c r="R72" s="14">
+      <c r="R73" s="14">
         <v>2384</v>
       </c>
-      <c r="S72" s="14">
+      <c r="S73" s="14">
         <v>33006</v>
       </c>
-      <c r="T72" s="14">
+      <c r="T73" s="14">
         <v>0</v>
       </c>
-      <c r="U72" s="14">
+      <c r="U73" s="14">
         <v>99490</v>
       </c>
-      <c r="V72" s="14">
+      <c r="V73" s="14">
         <v>4173</v>
       </c>
-      <c r="W72" s="14">
+      <c r="W73" s="14">
         <v>2926</v>
       </c>
-      <c r="X72" s="14">
+      <c r="X73" s="14">
         <v>420</v>
       </c>
-      <c r="Y72" s="14">
+      <c r="Y73" s="14">
         <v>10026</v>
       </c>
-      <c r="Z72" s="14">
+      <c r="Z73" s="14">
         <v>17</v>
       </c>
-      <c r="AA72" s="14">
+      <c r="AA73" s="14">
         <v>653</v>
       </c>
     </row>
-    <row r="73" spans="2:27" hidden="1">
-      <c r="B73" s="10">
+    <row r="74" spans="2:27" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>514393</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>498050</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>446</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>49300</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <v>6708</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I74" s="11">
         <v>2319</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J74" s="11">
         <v>74</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K74" s="11">
         <v>1417</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L74" s="11">
         <v>1686</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M74" s="11">
         <v>43264</v>
       </c>
-      <c r="N73" s="11">
+      <c r="N74" s="11">
         <v>3716</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O74" s="11">
         <v>25831</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P74" s="11">
         <v>14426</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="Q74" s="11">
         <v>33360</v>
       </c>
-      <c r="R73" s="11">
+      <c r="R74" s="11">
         <v>2308</v>
       </c>
-      <c r="S73" s="11">
+      <c r="S74" s="11">
         <v>31727</v>
       </c>
-      <c r="T73" s="11">
+      <c r="T74" s="11">
         <v>1</v>
       </c>
-      <c r="U73" s="11">
+      <c r="U74" s="11">
         <v>98049</v>
       </c>
-      <c r="V73" s="11">
+      <c r="V74" s="11">
         <v>4070</v>
       </c>
-      <c r="W73" s="11">
+      <c r="W74" s="11">
         <v>2777</v>
       </c>
-      <c r="X73" s="11">
+      <c r="X74" s="11">
         <v>374</v>
       </c>
-      <c r="Y73" s="11">
+      <c r="Y74" s="11">
         <v>9942</v>
       </c>
-      <c r="Z73" s="11">
+      <c r="Z74" s="11">
         <v>17</v>
       </c>
-      <c r="AA73" s="11">
+      <c r="AA74" s="11">
         <v>647</v>
       </c>
     </row>
-    <row r="74" spans="2:27" hidden="1">
-      <c r="B74" s="13">
+    <row r="75" spans="2:27" hidden="1">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <v>512802</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E75" s="14">
         <v>497796</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F75" s="14">
         <v>444</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <v>49053</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="14">
         <v>6156</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="14">
         <v>2222</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J75" s="14">
         <v>73</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K75" s="14">
         <v>1413</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L75" s="14">
         <v>1694</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M75" s="14">
         <v>42573</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N75" s="14">
         <v>3733</v>
       </c>
-      <c r="O74" s="14">
+      <c r="O75" s="14">
         <v>25944</v>
       </c>
-      <c r="P74" s="14">
+      <c r="P75" s="14">
         <v>14578</v>
       </c>
-      <c r="Q74" s="14">
+      <c r="Q75" s="14">
         <v>33417</v>
       </c>
-      <c r="R74" s="14">
+      <c r="R75" s="14">
         <v>2333</v>
       </c>
-      <c r="S74" s="14">
+      <c r="S75" s="14">
         <v>32236</v>
       </c>
-      <c r="T74" s="14">
+      <c r="T75" s="14">
         <v>0</v>
       </c>
-      <c r="U74" s="14">
+      <c r="U75" s="14">
         <v>98138</v>
       </c>
-      <c r="V74" s="14">
+      <c r="V75" s="14">
         <v>4072</v>
       </c>
-      <c r="W74" s="14">
+      <c r="W75" s="14">
         <v>2785</v>
       </c>
-      <c r="X74" s="14">
+      <c r="X75" s="14">
         <v>376</v>
       </c>
-      <c r="Y74" s="14">
+      <c r="Y75" s="14">
         <v>9919</v>
       </c>
-      <c r="Z74" s="14">
+      <c r="Z75" s="14">
         <v>17</v>
       </c>
-      <c r="AA74" s="14">
+      <c r="AA75" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="75" spans="2:27" hidden="1">
-      <c r="B75" s="10">
+    <row r="76" spans="2:27" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>506850</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>499239</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>454</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>48604</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H76" s="11">
         <v>7085</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I76" s="11">
         <v>2531</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J76" s="11">
         <v>78</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K76" s="11">
         <v>239</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L76" s="11">
         <v>2615</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M76" s="11">
         <v>39728</v>
       </c>
-      <c r="N75" s="11">
+      <c r="N76" s="11">
         <v>4268</v>
       </c>
-      <c r="O75" s="11">
+      <c r="O76" s="11">
         <v>28174</v>
       </c>
-      <c r="P75" s="11">
+      <c r="P76" s="11">
         <v>16305</v>
       </c>
-      <c r="Q75" s="11">
+      <c r="Q76" s="11">
         <v>35097</v>
       </c>
-      <c r="R75" s="11">
+      <c r="R76" s="11">
         <v>2307</v>
       </c>
-      <c r="S75" s="11">
+      <c r="S76" s="11">
         <v>31892</v>
       </c>
-      <c r="T75" s="11">
+      <c r="T76" s="11">
         <v>1</v>
       </c>
-      <c r="U75" s="11">
+      <c r="U76" s="11">
         <v>98003</v>
       </c>
-      <c r="V75" s="11">
+      <c r="V76" s="11">
         <v>3983</v>
       </c>
-      <c r="W75" s="11">
+      <c r="W76" s="11">
         <v>2752</v>
       </c>
-      <c r="X75" s="11">
+      <c r="X76" s="11">
         <v>374</v>
       </c>
-      <c r="Y75" s="11">
+      <c r="Y76" s="11">
         <v>11506</v>
       </c>
-      <c r="Z75" s="11">
+      <c r="Z76" s="11">
         <v>12</v>
       </c>
-      <c r="AA75" s="11">
+      <c r="AA76" s="11">
         <v>810</v>
       </c>
     </row>
-    <row r="76" spans="2:27" hidden="1">
-      <c r="B76" s="13">
+    <row r="77" spans="2:27" hidden="1">
+      <c r="B77" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <v>504046</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E77" s="14">
         <v>496323</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>451</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <v>48409</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H77" s="14">
         <v>7032</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <v>2531</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J77" s="14">
         <v>78</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K77" s="14">
         <v>239</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L77" s="14">
         <v>2596</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M77" s="14">
         <v>39439</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N77" s="14">
         <v>4234</v>
       </c>
-      <c r="O76" s="14">
+      <c r="O77" s="14">
         <v>27848</v>
       </c>
-      <c r="P76" s="14">
+      <c r="P77" s="14">
         <v>16180</v>
       </c>
-      <c r="Q76" s="14">
+      <c r="Q77" s="14">
         <v>34956</v>
       </c>
-      <c r="R76" s="14">
+      <c r="R77" s="14">
         <v>2284</v>
       </c>
-      <c r="S76" s="14">
+      <c r="S77" s="14">
         <v>31444</v>
       </c>
-      <c r="T76" s="14">
+      <c r="T77" s="14">
         <v>0</v>
       </c>
-      <c r="U76" s="14">
+      <c r="U77" s="14">
         <v>97190</v>
       </c>
-      <c r="V76" s="14">
+      <c r="V77" s="14">
         <v>3921</v>
       </c>
-      <c r="W76" s="14">
+      <c r="W77" s="14">
         <v>2705</v>
       </c>
-      <c r="X76" s="14">
+      <c r="X77" s="14">
         <v>364</v>
       </c>
-      <c r="Y76" s="14">
+      <c r="Y77" s="14">
         <v>11482</v>
       </c>
-      <c r="Z76" s="14">
+      <c r="Z77" s="14">
         <v>12</v>
       </c>
-      <c r="AA76" s="14">
+      <c r="AA77" s="14">
         <v>807</v>
       </c>
     </row>
-    <row r="77" spans="2:27" hidden="1">
-      <c r="B77" s="10">
+    <row r="78" spans="2:27" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>501424</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>493291</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>452</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>48079</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H78" s="11">
         <v>7029</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I78" s="11">
         <v>2509</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J78" s="11">
         <v>77</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K78" s="11">
         <v>239</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L78" s="11">
         <v>2577</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M78" s="11">
         <v>39178</v>
       </c>
-      <c r="N77" s="11">
+      <c r="N78" s="11">
         <v>4173</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O78" s="11">
         <v>27415</v>
       </c>
-      <c r="P77" s="11">
+      <c r="P78" s="11">
         <v>15815</v>
       </c>
-      <c r="Q77" s="11">
+      <c r="Q78" s="11">
         <v>34582</v>
       </c>
-      <c r="R77" s="11">
+      <c r="R78" s="11">
         <v>2266</v>
       </c>
-      <c r="S77" s="11">
+      <c r="S78" s="11">
         <v>30934</v>
       </c>
-      <c r="T77" s="11">
+      <c r="T78" s="11">
         <v>1</v>
       </c>
-      <c r="U77" s="11">
+      <c r="U78" s="11">
         <v>96704</v>
       </c>
-      <c r="V77" s="11">
+      <c r="V78" s="11">
         <v>3869</v>
       </c>
-      <c r="W77" s="11">
+      <c r="W78" s="11">
         <v>2699</v>
       </c>
-      <c r="X77" s="11">
+      <c r="X78" s="11">
         <v>360</v>
       </c>
-      <c r="Y77" s="11">
+      <c r="Y78" s="11">
         <v>11467</v>
       </c>
-      <c r="Z77" s="11">
+      <c r="Z78" s="11">
         <v>12</v>
       </c>
-      <c r="AA77" s="11">
+      <c r="AA78" s="11">
         <v>808</v>
       </c>
     </row>
-    <row r="78" spans="2:27" hidden="1">
-      <c r="B78" s="13">
+    <row r="79" spans="2:27" hidden="1">
+      <c r="B79" s="13">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <v>499221</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="14">
         <v>490327</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="14">
         <v>454</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <v>47999</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="14">
         <v>7029</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="14">
         <v>2518</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J79" s="14">
         <v>77</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K79" s="14">
         <v>239</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L79" s="14">
         <v>2576</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M79" s="14">
         <v>38838</v>
       </c>
-      <c r="N78" s="14">
+      <c r="N79" s="14">
         <v>4155</v>
       </c>
-      <c r="O78" s="14">
+      <c r="O79" s="14">
         <v>27148</v>
       </c>
-      <c r="P78" s="14">
+      <c r="P79" s="14">
         <v>15484</v>
       </c>
-      <c r="Q78" s="14">
+      <c r="Q79" s="14">
         <v>34221</v>
       </c>
-      <c r="R78" s="14">
+      <c r="R79" s="14">
         <v>2252</v>
       </c>
-      <c r="S78" s="14">
+      <c r="S79" s="14">
         <v>30634</v>
       </c>
-      <c r="T78" s="14">
+      <c r="T79" s="14">
         <v>1</v>
       </c>
-      <c r="U78" s="14">
+      <c r="U79" s="14">
         <v>96127</v>
       </c>
-      <c r="V78" s="14">
+      <c r="V79" s="14">
         <v>3815</v>
       </c>
-      <c r="W78" s="14">
+      <c r="W79" s="14">
         <v>2658</v>
       </c>
-      <c r="X78" s="14">
+      <c r="X79" s="14">
         <v>352</v>
       </c>
-      <c r="Y78" s="14">
+      <c r="Y79" s="14">
         <v>11454</v>
       </c>
-      <c r="Z78" s="14">
+      <c r="Z79" s="14">
         <v>12</v>
       </c>
-      <c r="AA78" s="14">
+      <c r="AA79" s="14">
         <v>810</v>
       </c>
     </row>
-    <row r="79" spans="2:27" hidden="1">
-      <c r="B79" s="18">
+    <row r="80" spans="2:27" hidden="1">
+      <c r="B80" s="18">
         <v>2019</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C80" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D80" s="19">
         <v>497141</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E80" s="19">
         <v>488120</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F80" s="19">
         <v>452</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G80" s="19">
         <v>47859</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H80" s="19">
         <v>6968</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I80" s="19">
         <v>2504</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J80" s="19">
         <v>77</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K80" s="19">
         <v>239</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L80" s="19">
         <v>2565</v>
       </c>
-      <c r="M79" s="19">
+      <c r="M80" s="19">
         <v>38626</v>
       </c>
-      <c r="N79" s="19">
+      <c r="N80" s="19">
         <v>4150</v>
       </c>
-      <c r="O79" s="19">
+      <c r="O80" s="19">
         <v>26845</v>
       </c>
-      <c r="P79" s="19">
+      <c r="P80" s="19">
         <v>15304</v>
       </c>
-      <c r="Q79" s="19">
+      <c r="Q80" s="19">
         <v>34009</v>
       </c>
-      <c r="R79" s="19">
+      <c r="R80" s="19">
         <v>2246</v>
       </c>
-      <c r="S79" s="19">
+      <c r="S80" s="19">
         <v>30488</v>
       </c>
-      <c r="T79" s="19">
+      <c r="T80" s="19">
         <v>1</v>
       </c>
-      <c r="U79" s="19">
+      <c r="U80" s="19">
         <v>95504</v>
       </c>
-      <c r="V79" s="19">
+      <c r="V80" s="19">
         <v>3778</v>
       </c>
-      <c r="W79" s="19">
+      <c r="W80" s="19">
         <v>2638</v>
       </c>
-      <c r="X79" s="19">
+      <c r="X80" s="19">
         <v>344</v>
       </c>
-      <c r="Y79" s="19">
+      <c r="Y80" s="19">
         <v>11417</v>
       </c>
-      <c r="Z79" s="19">
+      <c r="Z80" s="19">
         <v>12</v>
       </c>
-      <c r="AA79" s="19">
+      <c r="AA80" s="19">
         <v>804</v>
       </c>
     </row>
-    <row r="80" spans="2:27" hidden="1">
-      <c r="B80" s="13">
+    <row r="81" spans="2:27" hidden="1">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <v>496057</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E81" s="14">
         <v>486335</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F81" s="14">
         <v>464</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <v>47780</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H81" s="14">
         <v>6994</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I81" s="14">
         <v>2508</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J81" s="14">
         <v>78</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K81" s="14">
         <v>239</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L81" s="14">
         <v>2565</v>
       </c>
-      <c r="M80" s="14">
+      <c r="M81" s="14">
         <v>38415</v>
       </c>
-      <c r="N80" s="14">
+      <c r="N81" s="14">
         <v>4053</v>
       </c>
-      <c r="O80" s="14">
+      <c r="O81" s="14">
         <v>26683</v>
       </c>
-      <c r="P80" s="14">
+      <c r="P81" s="14">
         <v>15554</v>
       </c>
-      <c r="Q80" s="14">
+      <c r="Q81" s="14">
         <v>34018</v>
       </c>
-      <c r="R80" s="14">
+      <c r="R81" s="14">
         <v>2235</v>
       </c>
-      <c r="S80" s="14">
+      <c r="S81" s="14">
         <v>30111</v>
       </c>
-      <c r="T80" s="14">
+      <c r="T81" s="14">
         <v>1</v>
       </c>
-      <c r="U80" s="14">
+      <c r="U81" s="14">
         <v>94864</v>
       </c>
-      <c r="V80" s="14">
+      <c r="V81" s="14">
         <v>3723</v>
       </c>
-      <c r="W80" s="14">
+      <c r="W81" s="14">
         <v>2618</v>
       </c>
-      <c r="X80" s="14">
+      <c r="X81" s="14">
         <v>329</v>
       </c>
-      <c r="Y80" s="14">
+      <c r="Y81" s="14">
         <v>11369</v>
       </c>
-      <c r="Z80" s="14">
+      <c r="Z81" s="14">
         <v>12</v>
       </c>
-      <c r="AA80" s="14">
+      <c r="AA81" s="14">
         <v>804</v>
       </c>
     </row>
-    <row r="81" spans="2:27" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:27" hidden="1">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>493248</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>484343</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>467</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>47445</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H82" s="11">
         <v>6904</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I82" s="11">
         <v>2451</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J82" s="11">
         <v>78</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K82" s="11">
         <v>239</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L82" s="11">
         <v>2547</v>
       </c>
-      <c r="M81" s="11">
+      <c r="M82" s="11">
         <v>38053</v>
       </c>
-      <c r="N81" s="11">
+      <c r="N82" s="11">
         <v>4033</v>
       </c>
-      <c r="O81" s="11">
+      <c r="O82" s="11">
         <v>26245</v>
       </c>
-      <c r="P81" s="11">
+      <c r="P82" s="11">
         <v>15368</v>
       </c>
-      <c r="Q81" s="11">
+      <c r="Q82" s="11">
         <v>34089</v>
       </c>
-      <c r="R81" s="11">
+      <c r="R82" s="11">
         <v>2228</v>
       </c>
-      <c r="S81" s="11">
+      <c r="S82" s="11">
         <v>29848</v>
       </c>
-      <c r="T81" s="11">
+      <c r="T82" s="11">
         <v>1</v>
       </c>
-      <c r="U81" s="11">
+      <c r="U82" s="11">
         <v>94351</v>
       </c>
-      <c r="V81" s="11">
+      <c r="V82" s="11">
         <v>3704</v>
       </c>
-      <c r="W81" s="11">
+      <c r="W82" s="11">
         <v>2563</v>
       </c>
-      <c r="X81" s="11">
+      <c r="X82" s="11">
         <v>326</v>
       </c>
-      <c r="Y81" s="11">
+      <c r="Y82" s="11">
         <v>11268</v>
       </c>
-      <c r="Z81" s="11">
+      <c r="Z82" s="11">
         <v>12</v>
       </c>
-      <c r="AA81" s="11">
+      <c r="AA82" s="11">
         <v>798</v>
       </c>
     </row>
-    <row r="82" spans="2:27" hidden="1">
-      <c r="B82" s="13">
+    <row r="83" spans="2:27" hidden="1">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <v>489853</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E83" s="14">
         <v>481195</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F83" s="14">
         <v>466</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <v>47019</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H83" s="14">
         <v>6820</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I83" s="14">
         <v>2443</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J83" s="14">
         <v>78</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K83" s="14">
         <v>239</v>
       </c>
-      <c r="L82" s="14">
+      <c r="L83" s="14">
         <v>2529</v>
       </c>
-      <c r="M82" s="14">
+      <c r="M83" s="14">
         <v>37565</v>
       </c>
-      <c r="N82" s="14">
+      <c r="N83" s="14">
         <v>3997</v>
       </c>
-      <c r="O82" s="14">
+      <c r="O83" s="14">
         <v>25847</v>
       </c>
-      <c r="P82" s="14">
+      <c r="P83" s="14">
         <v>15208</v>
       </c>
-      <c r="Q82" s="14">
+      <c r="Q83" s="14">
         <v>33793</v>
       </c>
-      <c r="R82" s="14">
+      <c r="R83" s="14">
         <v>2228</v>
       </c>
-      <c r="S82" s="14">
+      <c r="S83" s="14">
         <v>29565</v>
       </c>
-      <c r="T82" s="14">
+      <c r="T83" s="14">
         <v>1</v>
       </c>
-      <c r="U82" s="14">
+      <c r="U83" s="14">
         <v>93792</v>
       </c>
-      <c r="V82" s="14">
+      <c r="V83" s="14">
         <v>3636</v>
       </c>
-      <c r="W82" s="14">
+      <c r="W83" s="14">
         <v>2514</v>
       </c>
-      <c r="X82" s="14">
+      <c r="X83" s="14">
         <v>326</v>
       </c>
-      <c r="Y82" s="14">
+      <c r="Y83" s="14">
         <v>11160</v>
       </c>
-      <c r="Z82" s="14">
+      <c r="Z83" s="14">
         <v>12</v>
       </c>
-      <c r="AA82" s="14">
+      <c r="AA83" s="14">
         <v>796</v>
       </c>
     </row>
-    <row r="83" spans="2:27" hidden="1">
-      <c r="B83" s="10">
+    <row r="84" spans="2:27" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>486879</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>478202</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>463</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>46939</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H84" s="11">
         <v>6767</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I84" s="11">
         <v>2420</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J84" s="11">
         <v>78</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K84" s="11">
         <v>239</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L84" s="11">
         <v>2504</v>
       </c>
-      <c r="M83" s="11">
+      <c r="M84" s="11">
         <v>37159</v>
       </c>
-      <c r="N83" s="11">
+      <c r="N84" s="11">
         <v>3981</v>
       </c>
-      <c r="O83" s="11">
+      <c r="O84" s="11">
         <v>25505</v>
       </c>
-      <c r="P83" s="11">
+      <c r="P84" s="11">
         <v>15063</v>
       </c>
-      <c r="Q83" s="11">
+      <c r="Q84" s="11">
         <v>33501</v>
       </c>
-      <c r="R83" s="11">
+      <c r="R84" s="11">
         <v>2207</v>
       </c>
-      <c r="S83" s="11">
+      <c r="S84" s="11">
         <v>29169</v>
       </c>
-      <c r="T83" s="11">
+      <c r="T84" s="11">
         <v>1</v>
       </c>
-      <c r="U83" s="11">
+      <c r="U84" s="11">
         <v>92716</v>
       </c>
-      <c r="V83" s="11">
+      <c r="V84" s="11">
         <v>3571</v>
       </c>
-      <c r="W83" s="11">
+      <c r="W84" s="11">
         <v>2389</v>
       </c>
-      <c r="X83" s="11">
+      <c r="X84" s="11">
         <v>323</v>
       </c>
-      <c r="Y83" s="11">
+      <c r="Y84" s="11">
         <v>11118</v>
       </c>
-      <c r="Z83" s="11">
+      <c r="Z84" s="11">
         <v>12</v>
       </c>
-      <c r="AA83" s="11">
+      <c r="AA84" s="11">
         <v>793</v>
       </c>
     </row>
-    <row r="84" spans="2:27" hidden="1">
-      <c r="B84" s="13">
+    <row r="85" spans="2:27" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <v>483912</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E85" s="14">
         <v>475735</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F85" s="14">
         <v>464</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <v>46660</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H85" s="14">
         <v>6663</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I85" s="14">
         <v>2389</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J85" s="14">
         <v>78</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K85" s="14">
         <v>239</v>
       </c>
-      <c r="L84" s="14">
+      <c r="L85" s="14">
         <v>2507</v>
       </c>
-      <c r="M84" s="14">
+      <c r="M85" s="14">
         <v>36747</v>
       </c>
-      <c r="N84" s="14">
+      <c r="N85" s="14">
         <v>3969</v>
       </c>
-      <c r="O84" s="14">
+      <c r="O85" s="14">
         <v>25211</v>
       </c>
-      <c r="P84" s="14">
+      <c r="P85" s="14">
         <v>14925</v>
       </c>
-      <c r="Q84" s="14">
+      <c r="Q85" s="14">
         <v>33302</v>
       </c>
-      <c r="R84" s="14">
+      <c r="R85" s="14">
         <v>2187</v>
       </c>
-      <c r="S84" s="14">
+      <c r="S85" s="14">
         <v>28883</v>
       </c>
-      <c r="T84" s="14">
+      <c r="T85" s="14">
         <v>1</v>
       </c>
-      <c r="U84" s="14">
+      <c r="U85" s="14">
         <v>91723</v>
       </c>
-      <c r="V84" s="14">
+      <c r="V85" s="14">
         <v>3516</v>
       </c>
-      <c r="W84" s="14">
+      <c r="W85" s="14">
         <v>2314</v>
       </c>
-      <c r="X84" s="14">
+      <c r="X85" s="14">
         <v>311</v>
       </c>
-      <c r="Y84" s="14">
+      <c r="Y85" s="14">
         <v>11021</v>
       </c>
-      <c r="Z84" s="14">
+      <c r="Z85" s="14">
         <v>12</v>
       </c>
-      <c r="AA84" s="14">
+      <c r="AA85" s="14">
         <v>787</v>
       </c>
     </row>
-    <row r="85" spans="2:27" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:27" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>480495</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>472364</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>464</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>46648</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H86" s="11">
         <v>6624</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I86" s="11">
         <v>2371</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J86" s="11">
         <v>78</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K86" s="11">
         <v>239</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L86" s="11">
         <v>2485</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M86" s="11">
         <v>36570</v>
       </c>
-      <c r="N85" s="11">
+      <c r="N86" s="11">
         <v>3920</v>
       </c>
-      <c r="O85" s="11">
+      <c r="O86" s="11">
         <v>24802</v>
       </c>
-      <c r="P85" s="11">
+      <c r="P86" s="11">
         <v>14924</v>
       </c>
-      <c r="Q85" s="11">
+      <c r="Q86" s="11">
         <v>33187</v>
       </c>
-      <c r="R85" s="11">
+      <c r="R86" s="11">
         <v>2173</v>
       </c>
-      <c r="S85" s="11">
+      <c r="S86" s="11">
         <v>28394</v>
       </c>
-      <c r="T85" s="11">
+      <c r="T86" s="11">
         <v>1</v>
       </c>
-      <c r="U85" s="11">
+      <c r="U86" s="11">
         <v>90924</v>
       </c>
-      <c r="V85" s="11">
+      <c r="V86" s="11">
         <v>3442</v>
       </c>
-      <c r="W85" s="11">
+      <c r="W86" s="11">
         <v>2249</v>
       </c>
-      <c r="X85" s="11">
+      <c r="X86" s="11">
         <v>304</v>
       </c>
-      <c r="Y85" s="11">
+      <c r="Y86" s="11">
         <v>10962</v>
       </c>
-      <c r="Z85" s="11">
+      <c r="Z86" s="11">
         <v>12</v>
       </c>
-      <c r="AA85" s="11">
+      <c r="AA86" s="11">
         <v>784</v>
       </c>
     </row>
-    <row r="86" spans="2:27" hidden="1">
-      <c r="B86" s="13">
+    <row r="87" spans="2:27" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <v>477880</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E87" s="14">
         <v>469513</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F87" s="14">
         <v>458</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <v>46538</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H87" s="14">
         <v>6550</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I87" s="14">
         <v>2387</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J87" s="14">
         <v>78</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K87" s="14">
         <v>237</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L87" s="14">
         <v>2479</v>
       </c>
-      <c r="M86" s="14">
+      <c r="M87" s="14">
         <v>36256</v>
       </c>
-      <c r="N86" s="14">
+      <c r="N87" s="14">
         <v>3901</v>
       </c>
-      <c r="O86" s="14">
+      <c r="O87" s="14">
         <v>24520</v>
       </c>
-      <c r="P86" s="14">
+      <c r="P87" s="14">
         <v>14804</v>
       </c>
-      <c r="Q86" s="14">
+      <c r="Q87" s="14">
         <v>33150</v>
       </c>
-      <c r="R86" s="14">
+      <c r="R87" s="14">
         <v>2178</v>
       </c>
-      <c r="S86" s="14">
+      <c r="S87" s="14">
         <v>27975</v>
       </c>
-      <c r="T86" s="14">
+      <c r="T87" s="14">
         <v>0</v>
       </c>
-      <c r="U86" s="14">
+      <c r="U87" s="14">
         <v>89534</v>
       </c>
-      <c r="V86" s="14">
+      <c r="V87" s="14">
         <v>3365</v>
       </c>
-      <c r="W86" s="14">
+      <c r="W87" s="14">
         <v>2210</v>
       </c>
-      <c r="X86" s="14">
+      <c r="X87" s="14">
         <v>299</v>
       </c>
-      <c r="Y86" s="14">
+      <c r="Y87" s="14">
         <v>10862</v>
       </c>
-      <c r="Z86" s="14">
+      <c r="Z87" s="14">
         <v>12</v>
       </c>
-      <c r="AA86" s="14">
+      <c r="AA87" s="14">
         <v>783</v>
       </c>
     </row>
-    <row r="87" spans="2:27" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:27" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>476241</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>467827</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>459</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>46438</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H88" s="11">
         <v>6498</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I88" s="11">
         <v>2366</v>
       </c>
-      <c r="J87" s="11">
+      <c r="J88" s="11">
         <v>78</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K88" s="11">
         <v>237</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L88" s="11">
         <v>2474</v>
       </c>
-      <c r="M87" s="11">
+      <c r="M88" s="11">
         <v>35832</v>
       </c>
-      <c r="N87" s="11">
+      <c r="N88" s="11">
         <v>3883</v>
       </c>
-      <c r="O87" s="11">
+      <c r="O88" s="11">
         <v>24299</v>
       </c>
-      <c r="P87" s="11">
+      <c r="P88" s="11">
         <v>14847</v>
       </c>
-      <c r="Q87" s="11">
+      <c r="Q88" s="11">
         <v>33272</v>
       </c>
-      <c r="R87" s="11">
+      <c r="R88" s="11">
         <v>2165</v>
       </c>
-      <c r="S87" s="11">
+      <c r="S88" s="11">
         <v>27577</v>
       </c>
-      <c r="T87" s="11">
+      <c r="T88" s="11">
         <v>1</v>
       </c>
-      <c r="U87" s="11">
+      <c r="U88" s="11">
         <v>88473</v>
       </c>
-      <c r="V87" s="11">
+      <c r="V88" s="11">
         <v>3325</v>
       </c>
-      <c r="W87" s="11">
+      <c r="W88" s="11">
         <v>2133</v>
       </c>
-      <c r="X87" s="11">
+      <c r="X88" s="11">
         <v>301</v>
       </c>
-      <c r="Y87" s="11">
+      <c r="Y88" s="11">
         <v>10800</v>
       </c>
-      <c r="Z87" s="11">
+      <c r="Z88" s="11">
         <v>12</v>
       </c>
-      <c r="AA87" s="11">
+      <c r="AA88" s="11">
         <v>786</v>
       </c>
     </row>
-    <row r="88" spans="2:27" hidden="1">
-      <c r="B88" s="13">
+    <row r="89" spans="2:27" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <v>472271</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E89" s="14">
         <v>463807</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F89" s="14">
         <v>455</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <v>46120</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="14">
         <v>6441</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I89" s="14">
         <v>2324</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J89" s="14">
         <v>77</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K89" s="14">
         <v>237</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L89" s="14">
         <v>2458</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M89" s="14">
         <v>35484</v>
       </c>
-      <c r="N88" s="14">
+      <c r="N89" s="14">
         <v>3859</v>
       </c>
-      <c r="O88" s="14">
+      <c r="O89" s="14">
         <v>24075</v>
       </c>
-      <c r="P88" s="14">
+      <c r="P89" s="14">
         <v>14872</v>
       </c>
-      <c r="Q88" s="14">
+      <c r="Q89" s="14">
         <v>33210</v>
       </c>
-      <c r="R88" s="14">
+      <c r="R89" s="14">
         <v>2154</v>
       </c>
-      <c r="S88" s="14">
+      <c r="S89" s="14">
         <v>27204</v>
       </c>
-      <c r="T88" s="14">
+      <c r="T89" s="14">
         <v>1</v>
       </c>
-      <c r="U88" s="14">
+      <c r="U89" s="14">
         <v>86985</v>
       </c>
-      <c r="V88" s="14">
+      <c r="V89" s="14">
         <v>3231</v>
       </c>
-      <c r="W88" s="14">
+      <c r="W89" s="14">
         <v>2040</v>
       </c>
-      <c r="X88" s="14">
+      <c r="X89" s="14">
         <v>294</v>
       </c>
-      <c r="Y88" s="14">
+      <c r="Y89" s="14">
         <v>10741</v>
       </c>
-      <c r="Z88" s="14">
+      <c r="Z89" s="14">
         <v>12</v>
       </c>
-      <c r="AA88" s="14">
+      <c r="AA89" s="14">
         <v>784</v>
       </c>
     </row>
-    <row r="89" spans="2:27" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:27" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>469020</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>460731</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>454</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G90" s="11">
         <v>45917</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H90" s="11">
         <v>6371</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I90" s="11">
         <v>2319</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J90" s="11">
         <v>77</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K90" s="11">
         <v>237</v>
       </c>
-      <c r="L89" s="11">
+      <c r="L90" s="11">
         <v>2444</v>
       </c>
-      <c r="M89" s="11">
+      <c r="M90" s="11">
         <v>35184</v>
       </c>
-      <c r="N89" s="11">
+      <c r="N90" s="11">
         <v>3843</v>
       </c>
-      <c r="O89" s="11">
+      <c r="O90" s="11">
         <v>23647</v>
       </c>
-      <c r="P89" s="11">
+      <c r="P90" s="11">
         <v>14554</v>
       </c>
-      <c r="Q89" s="11">
+      <c r="Q90" s="11">
         <v>33107</v>
       </c>
-      <c r="R89" s="11">
+      <c r="R90" s="11">
         <v>2146</v>
       </c>
-      <c r="S89" s="11">
+      <c r="S90" s="11">
         <v>26742</v>
       </c>
-      <c r="T89" s="11">
+      <c r="T90" s="11">
         <v>1</v>
       </c>
-      <c r="U89" s="11">
+      <c r="U90" s="11">
         <v>86342</v>
       </c>
-      <c r="V89" s="11">
+      <c r="V90" s="11">
         <v>3169</v>
       </c>
-      <c r="W89" s="11">
+      <c r="W90" s="11">
         <v>2018</v>
       </c>
-      <c r="X89" s="11">
+      <c r="X90" s="11">
         <v>288</v>
       </c>
-      <c r="Y89" s="11">
+      <c r="Y90" s="11">
         <v>10741</v>
       </c>
-      <c r="Z89" s="11">
+      <c r="Z90" s="11">
         <v>12</v>
       </c>
-      <c r="AA89" s="11">
+      <c r="AA90" s="11">
         <v>781</v>
       </c>
     </row>
-    <row r="90" spans="2:27" hidden="1">
-      <c r="B90" s="13">
+    <row r="91" spans="2:27" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <v>466319</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E91" s="14">
         <v>457242</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F91" s="14">
         <v>451</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G91" s="14">
         <v>45640</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H91" s="14">
         <v>6287</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I91" s="14">
         <v>2262</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J91" s="14">
         <v>77</v>
       </c>
-      <c r="K90" s="14">
+      <c r="K91" s="14">
         <v>237</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L91" s="14">
         <v>2424</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M91" s="14">
         <v>34703</v>
       </c>
-      <c r="N90" s="14">
+      <c r="N91" s="14">
         <v>3824</v>
       </c>
-      <c r="O90" s="14">
+      <c r="O91" s="14">
         <v>23309</v>
       </c>
-      <c r="P90" s="14">
+      <c r="P91" s="14">
         <v>14393</v>
       </c>
-      <c r="Q90" s="14">
+      <c r="Q91" s="14">
         <v>32986</v>
       </c>
-      <c r="R90" s="14">
+      <c r="R91" s="14">
         <v>2120</v>
       </c>
-      <c r="S90" s="14">
+      <c r="S91" s="14">
         <v>26331</v>
       </c>
-      <c r="T90" s="14">
+      <c r="T91" s="14">
         <v>1</v>
       </c>
-      <c r="U90" s="14">
+      <c r="U91" s="14">
         <v>85658</v>
       </c>
-      <c r="V90" s="14">
+      <c r="V91" s="14">
         <v>3120</v>
       </c>
-      <c r="W90" s="14">
+      <c r="W91" s="14">
         <v>1980</v>
       </c>
-      <c r="X90" s="14">
+      <c r="X91" s="14">
         <v>285</v>
       </c>
-      <c r="Y90" s="14">
+      <c r="Y91" s="14">
         <v>10688</v>
       </c>
-      <c r="Z90" s="14">
+      <c r="Z91" s="14">
         <v>12</v>
       </c>
-      <c r="AA90" s="14">
+      <c r="AA91" s="14">
         <v>779</v>
       </c>
     </row>
-    <row r="91" spans="2:27" hidden="1">
-      <c r="B91" s="18">
+    <row r="92" spans="2:27" hidden="1">
+      <c r="B92" s="18">
         <v>2018</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C92" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D92" s="19">
         <v>464622</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E92" s="19">
         <v>455453</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F92" s="19">
         <v>451</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G92" s="19">
         <v>45676</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H92" s="19">
         <v>6259</v>
       </c>
-      <c r="I91" s="19">
+      <c r="I92" s="19">
         <v>2255</v>
       </c>
-      <c r="J91" s="19">
+      <c r="J92" s="19">
         <v>77</v>
       </c>
-      <c r="K91" s="19">
+      <c r="K92" s="19">
         <v>237</v>
       </c>
-      <c r="L91" s="19">
+      <c r="L92" s="19">
         <v>2406</v>
       </c>
-      <c r="M91" s="19">
+      <c r="M92" s="19">
         <v>34385</v>
       </c>
-      <c r="N91" s="19">
+      <c r="N92" s="19">
         <v>3836</v>
       </c>
-      <c r="O91" s="19">
+      <c r="O92" s="19">
         <v>23129</v>
       </c>
-      <c r="P91" s="19">
+      <c r="P92" s="19">
         <v>14404</v>
       </c>
-      <c r="Q91" s="19">
+      <c r="Q92" s="19">
         <v>32894</v>
       </c>
-      <c r="R91" s="19">
+      <c r="R92" s="19">
         <v>2092</v>
       </c>
-      <c r="S91" s="19">
+      <c r="S92" s="19">
         <v>26133</v>
       </c>
-      <c r="T91" s="19">
+      <c r="T92" s="19">
         <v>1</v>
       </c>
-      <c r="U91" s="19">
+      <c r="U92" s="19">
         <v>84912</v>
       </c>
-      <c r="V91" s="19">
+      <c r="V92" s="19">
         <v>3077</v>
       </c>
-      <c r="W91" s="19">
+      <c r="W92" s="19">
         <v>1949</v>
       </c>
-      <c r="X91" s="19">
+      <c r="X92" s="19">
         <v>278</v>
       </c>
-      <c r="Y91" s="19">
+      <c r="Y92" s="19">
         <v>10682</v>
       </c>
-      <c r="Z91" s="19">
+      <c r="Z92" s="19">
         <v>12</v>
       </c>
-      <c r="AA91" s="19">
+      <c r="AA92" s="19">
         <v>782</v>
       </c>
-    </row>
-    <row r="92" spans="2:27">
-      <c r="B92" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA92" s="21"/>
     </row>
     <row r="93" spans="2:27">
       <c r="B93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA93" s="21"/>
+    </row>
+    <row r="94" spans="2:27">
+      <c r="B94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA93" s="21"/>
+      <c r="AA94" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5997C2DC-40E3-4363-9914-51DC63C5AC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5BDC86-0ECE-4586-A67A-1A586CA999FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -923,8 +923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA92" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
-  <autoFilter ref="B5:AA92" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA93" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="B5:AA93" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1186,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA94"/>
+  <dimension ref="B2:AA95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1358,6864 +1358,6942 @@
       </c>
     </row>
     <row r="6" spans="2:27">
-      <c r="B6" s="9">
+      <c r="B6" s="13">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="14">
+        <v>736441</v>
+      </c>
+      <c r="E6" s="14">
+        <v>725074</v>
+      </c>
+      <c r="F6" s="14">
+        <v>675</v>
+      </c>
+      <c r="G6" s="14">
+        <v>57912</v>
+      </c>
+      <c r="H6" s="14">
+        <v>10700</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3738</v>
+      </c>
+      <c r="J6" s="14">
+        <v>78</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1424</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2876</v>
+      </c>
+      <c r="M6" s="14">
+        <v>64444</v>
+      </c>
+      <c r="N6" s="14">
+        <v>3963</v>
+      </c>
+      <c r="O6" s="14">
+        <v>42996</v>
+      </c>
+      <c r="P6" s="14">
+        <v>31071</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>44453</v>
+      </c>
+      <c r="R6" s="14">
+        <v>2723</v>
+      </c>
+      <c r="S6" s="14">
+        <v>55345</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14">
+        <v>133140</v>
+      </c>
+      <c r="V6" s="14">
+        <v>6592</v>
+      </c>
+      <c r="W6" s="14">
+        <v>6584</v>
+      </c>
+      <c r="X6" s="14">
+        <v>2284</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>12903</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>732842</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>721468</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>667</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>57847</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H7" s="11">
         <v>10668</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I7" s="11">
         <v>3721</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J7" s="11">
         <v>78</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K7" s="11">
         <v>1424</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L7" s="11">
         <v>2856</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M7" s="11">
         <v>64131</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N7" s="11">
         <v>3963</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O7" s="11">
         <v>42777</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P7" s="11">
         <v>31166</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q7" s="11">
         <v>44303</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R7" s="11">
         <v>2708</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S7" s="11">
         <v>55322</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11">
         <v>133084</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V7" s="11">
         <v>6579</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W7" s="11">
         <v>6562</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X7" s="11">
         <v>2285</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y7" s="11">
         <v>12870</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z7" s="11">
         <v>15</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA7" s="12">
         <v>733</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="13">
+    <row r="8" spans="2:27">
+      <c r="B8" s="13">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <v>729319</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E8" s="14">
         <v>718257</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="14">
         <v>663</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="14">
         <v>57759</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="14">
         <v>10612</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>3697</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="14">
         <v>78</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K8" s="14">
         <v>1424</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L8" s="14">
         <v>2840</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M8" s="14">
         <v>63974</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N8" s="14">
         <v>3956</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O8" s="14">
         <v>42526</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P8" s="14">
         <v>30916</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q8" s="14">
         <v>44105</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R8" s="14">
         <v>2709</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S8" s="14">
         <v>55235</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14">
         <v>132317</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V8" s="14">
         <v>6550</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W8" s="14">
         <v>6513</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X8" s="14">
         <v>2270</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y8" s="14">
         <v>12792</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z8" s="14">
         <v>15</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA8" s="14">
         <v>731</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="17">
+    <row r="9" spans="2:27">
+      <c r="B9" s="17">
         <v>2025</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D9" s="19">
         <v>726109</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E9" s="19">
         <v>714727</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F9" s="19">
         <v>656</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G9" s="19">
         <v>57695</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H9" s="19">
         <v>10586</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I9" s="19">
         <v>3675</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J9" s="19">
         <v>78</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K9" s="19">
         <v>1424</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L9" s="19">
         <v>2835</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M9" s="19">
         <v>63834</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N9" s="19">
         <v>3964</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O9" s="19">
         <v>42332</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P9" s="19">
         <v>30802</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q9" s="19">
         <v>44075</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R9" s="19">
         <v>2701</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S9" s="19">
         <v>55096</v>
       </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19">
+      <c r="T9" s="19"/>
+      <c r="U9" s="19">
         <v>131751</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V9" s="19">
         <v>6534</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W9" s="19">
         <v>6466</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X9" s="19">
         <v>2244</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Y9" s="19">
         <v>12757</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z9" s="19">
         <v>15</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA9" s="20">
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="13">
+    <row r="10" spans="2:27">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <v>723462</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="14">
         <v>711776</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="14">
         <v>646</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="14">
         <v>57703</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="14">
         <v>10583</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>3665</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="14">
         <v>78</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K10" s="14">
         <v>1424</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L10" s="14">
         <v>2822</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M10" s="14">
         <v>63686</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N10" s="14">
         <v>3961</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O10" s="14">
         <v>42142</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P10" s="14">
         <v>30781</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q10" s="14">
         <v>44100</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R10" s="14">
         <v>2703</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S10" s="14">
         <v>55043</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14">
         <v>131335</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V10" s="14">
         <v>6513</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W10" s="14">
         <v>6439</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X10" s="14">
         <v>2237</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y10" s="14">
         <v>12704</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z10" s="14">
         <v>15</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA10" s="14">
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="9">
+    <row r="11" spans="2:27">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>719185</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>708450</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>630</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>57548</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="11">
         <v>10520</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I11" s="11">
         <v>3634</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J11" s="11">
         <v>78</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="11">
         <v>1424</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L11" s="11">
         <v>2786</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M11" s="11">
         <v>63307</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N11" s="11">
         <v>3939</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O11" s="11">
         <v>41751</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P11" s="11">
         <v>30659</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q11" s="11">
         <v>43660</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R11" s="11">
         <v>2692</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S11" s="11">
         <v>54807</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11">
         <v>130783</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V11" s="11">
         <v>6476</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W11" s="11">
         <v>6362</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X11" s="11">
         <v>2229</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y11" s="11">
         <v>12572</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z11" s="11">
         <v>15</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA11" s="12">
         <v>727</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="13">
+    <row r="12" spans="2:27">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <v>714747</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="14">
         <v>704375</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F12" s="14">
         <v>622</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="14">
         <v>57602</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="14">
         <v>10485</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="14">
         <v>3617</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="14">
         <v>78</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="14">
         <v>1424</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L12" s="14">
         <v>2767</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M12" s="14">
         <v>63040</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N12" s="14">
         <v>3930</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O12" s="14">
         <v>41410</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P12" s="14">
         <v>30328</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q12" s="14">
         <v>43596</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R12" s="14">
         <v>2697</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S12" s="14">
         <v>54722</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
+      <c r="T12" s="14"/>
+      <c r="U12" s="14">
         <v>130250</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V12" s="14">
         <v>6446</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W12" s="14">
         <v>6199</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X12" s="14">
         <v>2214</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y12" s="14">
         <v>12449</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z12" s="14">
         <v>15</v>
       </c>
-      <c r="AA11" s="14">
+      <c r="AA12" s="14">
         <v>727</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="9">
+    <row r="13" spans="2:27">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>709391</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>699945</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>611</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>57472</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <v>10407</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I13" s="11">
         <v>3578</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="11">
         <v>78</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="11">
         <v>1424</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L13" s="11">
         <v>2740</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M13" s="11">
         <v>62737</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N13" s="11">
         <v>3931</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O13" s="11">
         <v>41077</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P13" s="11">
         <v>23934</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q13" s="11">
         <v>43117</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R13" s="11">
         <v>2694</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S13" s="11">
         <v>54701</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11">
+      <c r="T13" s="11"/>
+      <c r="U13" s="11">
         <v>129830</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V13" s="11">
         <v>6417</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W13" s="11">
         <v>6046</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X13" s="11">
         <v>2192</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y13" s="11">
         <v>12349</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z13" s="11">
         <v>15</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA13" s="12">
         <v>726</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="15">
+    <row r="14" spans="2:27">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>704941</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="14">
         <v>696064</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F14" s="14">
         <v>608</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="14">
         <v>57429</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H14" s="14">
         <v>10315</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>3562</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="14">
         <v>78</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K14" s="14">
         <v>1424</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L14" s="14">
         <v>2725</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M14" s="14">
         <v>62582</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N14" s="14">
         <v>3959</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O14" s="14">
         <v>40692</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P14" s="14">
         <v>23711</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q14" s="14">
         <v>42607</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R14" s="14">
         <v>2706</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S14" s="14">
         <v>54463</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14">
+      <c r="T14" s="14"/>
+      <c r="U14" s="14">
         <v>129480</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V14" s="14">
         <v>6405</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W14" s="14">
         <v>5956</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X14" s="14">
         <v>2159</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y14" s="14">
         <v>12295</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z14" s="14">
         <v>15</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AA14" s="16">
         <v>726</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="9">
+    <row r="15" spans="2:27">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>700064</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>691573</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>594</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>57394</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <v>10310</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I15" s="11">
         <v>3516</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J15" s="11">
         <v>78</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="11">
         <v>1424</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="11">
         <v>2697</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M15" s="11">
         <v>62263</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N15" s="11">
         <v>3963</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O15" s="11">
         <v>40451</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P15" s="11">
         <v>22543</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q15" s="11">
         <v>42013</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R15" s="11">
         <v>2714</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S15" s="11">
         <v>54287</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11">
+      <c r="T15" s="11"/>
+      <c r="U15" s="11">
         <v>129145</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V15" s="11">
         <v>6391</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W15" s="11">
         <v>5917</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X15" s="11">
         <v>2148</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y15" s="11">
         <v>12231</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z15" s="11">
         <v>15</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA15" s="12">
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="15">
+    <row r="16" spans="2:27">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>694997</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="14">
         <v>686081</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="14">
         <v>592</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="14">
         <v>57318</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="14">
         <v>10276</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>3508</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J16" s="14">
         <v>78</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K16" s="14">
         <v>1424</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L16" s="14">
         <v>2665</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M16" s="14">
         <v>61927</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N16" s="14">
         <v>3963</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O16" s="14">
         <v>40050</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P16" s="14">
         <v>22350</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q16" s="14">
         <v>41750</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R16" s="14">
         <v>2698</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S16" s="14">
         <v>54175</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14">
+      <c r="T16" s="14"/>
+      <c r="U16" s="14">
         <v>128557</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V16" s="14">
         <v>6363</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W16" s="14">
         <v>5857</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X16" s="14">
         <v>2129</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y16" s="14">
         <v>12153</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="Z16" s="14">
         <v>15</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AA16" s="16">
         <v>724</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="9">
+    <row r="17" spans="2:27">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>686433</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>677060</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>583</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>57014</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <v>10191</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I17" s="11">
         <v>3490</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J17" s="11">
         <v>78</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="11">
         <v>1424</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L17" s="11">
         <v>2598</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M17" s="11">
         <v>61659</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N17" s="11">
         <v>3952</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O17" s="11">
         <v>39763</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P17" s="11">
         <v>22332</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q17" s="11">
         <v>41599</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R17" s="11">
         <v>2694</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S17" s="11">
         <v>54118</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11">
+      <c r="T17" s="11"/>
+      <c r="U17" s="11">
         <v>128107</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V17" s="11">
         <v>6329</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W17" s="11">
         <v>5765</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X17" s="11">
         <v>2112</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y17" s="11">
         <v>12080</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z17" s="11">
         <v>15</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA17" s="12">
         <v>719</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
-      <c r="B17" s="15">
+    <row r="18" spans="2:27">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>685435</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="14">
         <v>676046</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="14">
         <v>565</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="14">
         <v>56830</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="14">
         <v>10138</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>3511</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="14">
         <v>78</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="14">
         <v>1424</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L18" s="14">
         <v>2558</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M18" s="14">
         <v>61296</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N18" s="14">
         <v>3933</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O18" s="14">
         <v>39350</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P18" s="14">
         <v>23307</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q18" s="14">
         <v>41742</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R18" s="14">
         <v>2677</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S18" s="14">
         <v>53782</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14">
+      <c r="T18" s="14"/>
+      <c r="U18" s="14">
         <v>127521</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V18" s="14">
         <v>6305</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W18" s="14">
         <v>5651</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X18" s="14">
         <v>2085</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y18" s="14">
         <v>12043</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z18" s="14">
         <v>15</v>
       </c>
-      <c r="AA17" s="16">
+      <c r="AA18" s="16">
         <v>716</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
-      <c r="B18" s="9">
+    <row r="19" spans="2:27">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>681551</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>671878</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>559</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>56791</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="11">
         <v>10077</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I19" s="11">
         <v>3472</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J19" s="11">
         <v>78</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K19" s="11">
         <v>1424</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L19" s="11">
         <v>2515</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M19" s="11">
         <v>60940</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N19" s="11">
         <v>3927</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O19" s="11">
         <v>38916</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P19" s="11">
         <v>23100</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q19" s="11">
         <v>41499</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R19" s="11">
         <v>2662</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S19" s="11">
         <v>53501</v>
       </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11">
+      <c r="T19" s="11"/>
+      <c r="U19" s="11">
         <v>127002</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V19" s="11">
         <v>6283</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W19" s="11">
         <v>5537</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X19" s="11">
         <v>2066</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y19" s="11">
         <v>12002</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z19" s="11">
         <v>15</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="AA19" s="12">
         <v>716</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
-      <c r="B19" s="15">
+    <row r="20" spans="2:27">
+      <c r="B20" s="15">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <v>677153</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E20" s="14">
         <v>667343</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F20" s="14">
         <v>559</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="14">
         <v>56789</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H20" s="14">
         <v>10062</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I20" s="14">
         <v>3444</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J20" s="14">
         <v>78</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K20" s="14">
         <v>1424</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L20" s="14">
         <v>2486</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M20" s="14">
         <v>60780</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N20" s="14">
         <v>3929</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O20" s="14">
         <v>38626</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P20" s="14">
         <v>22931</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q20" s="14">
         <v>41445</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R20" s="14">
         <v>2656</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S20" s="14">
         <v>53234</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14">
+      <c r="T20" s="14"/>
+      <c r="U20" s="14">
         <v>126653</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V20" s="14">
         <v>6260</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W20" s="14">
         <v>5487</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X20" s="14">
         <v>2055</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="Y20" s="14">
         <v>11945</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="Z20" s="14">
         <v>15</v>
       </c>
-      <c r="AA19" s="16">
+      <c r="AA20" s="16">
         <v>718</v>
       </c>
     </row>
-    <row r="20" spans="2:27">
-      <c r="B20" s="17">
+    <row r="21" spans="2:27">
+      <c r="B21" s="17">
         <v>2024</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D21" s="19">
         <v>673757</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E21" s="19">
         <v>663646</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F21" s="19">
         <v>558</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G21" s="19">
         <v>56703</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H21" s="19">
         <v>10044</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I21" s="19">
         <v>3392</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J21" s="19">
         <v>78</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K21" s="19">
         <v>1424</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L21" s="19">
         <v>2444</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M21" s="19">
         <v>60551</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N21" s="19">
         <v>3920</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O21" s="19">
         <v>38302</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P21" s="19">
         <v>22717</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q21" s="19">
         <v>41276</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R21" s="19">
         <v>2661</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S21" s="19">
         <v>53153</v>
       </c>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19">
+      <c r="T21" s="19"/>
+      <c r="U21" s="19">
         <v>125984</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V21" s="19">
         <v>6237</v>
       </c>
-      <c r="W20" s="19">
+      <c r="W21" s="19">
         <v>5478</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X21" s="19">
         <v>2017</v>
       </c>
-      <c r="Y20" s="19">
+      <c r="Y21" s="19">
         <v>11916</v>
       </c>
-      <c r="Z20" s="19">
+      <c r="Z21" s="19">
         <v>15</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA21" s="20">
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="2:27" hidden="1">
-      <c r="B21" s="13">
+    <row r="22" spans="2:27" hidden="1">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <v>671002</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>660365</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F22" s="14">
         <v>554</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="14">
         <v>56667</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="14">
         <v>10017</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>3376</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="14">
         <v>78</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="14">
         <v>1424</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L22" s="14">
         <v>2414</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M22" s="14">
         <v>60296</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N22" s="14">
         <v>3916</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O22" s="14">
         <v>38063</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P22" s="14">
         <v>22721</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q22" s="14">
         <v>40963</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R22" s="14">
         <v>2664</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S22" s="14">
         <v>53074</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14">
+      <c r="T22" s="14"/>
+      <c r="U22" s="14">
         <v>125341</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V22" s="14">
         <v>6227</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W22" s="14">
         <v>5448</v>
       </c>
-      <c r="X21" s="14">
+      <c r="X22" s="14">
         <v>2008</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="Y22" s="14">
         <v>11874</v>
       </c>
-      <c r="Z21" s="14">
+      <c r="Z22" s="14">
         <v>15</v>
       </c>
-      <c r="AA21" s="14">
+      <c r="AA22" s="14">
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="2:27" hidden="1">
-      <c r="B22" s="10">
+    <row r="23" spans="2:27" hidden="1">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>667021</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>657017</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>553</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>56501</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="11">
         <v>10008</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="11">
         <v>3368</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J23" s="11">
         <v>78</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K23" s="11">
         <v>1424</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L23" s="11">
         <v>2373</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M23" s="11">
         <v>59864</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N23" s="11">
         <v>3939</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O23" s="11">
         <v>37756</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P23" s="11">
         <v>22668</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q23" s="11">
         <v>40739</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R23" s="11">
         <v>2663</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S23" s="11">
         <v>52920</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11">
+      <c r="T23" s="11"/>
+      <c r="U23" s="11">
         <v>124918</v>
       </c>
-      <c r="V22" s="11">
+      <c r="V23" s="11">
         <v>6223</v>
       </c>
-      <c r="W22" s="11">
+      <c r="W23" s="11">
         <v>5332</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X23" s="11">
         <v>1985</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="Y23" s="11">
         <v>11762</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z23" s="11">
         <v>15</v>
       </c>
-      <c r="AA22" s="11">
+      <c r="AA23" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="23" spans="2:27" hidden="1">
-      <c r="B23" s="13">
+    <row r="24" spans="2:27" hidden="1">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <v>662911</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E24" s="14">
         <v>653227</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F24" s="14">
         <v>551</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="14">
         <v>56354</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H24" s="14">
         <v>9936</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="14">
         <v>3354</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J24" s="14">
         <v>78</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K24" s="14">
         <v>1424</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L24" s="14">
         <v>2325</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M24" s="14">
         <v>59524</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N24" s="14">
         <v>3949</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O24" s="14">
         <v>37449</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P24" s="14">
         <v>22518</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q24" s="14">
         <v>40540</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R24" s="14">
         <v>2659</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S24" s="14">
         <v>52779</v>
       </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14">
+      <c r="T24" s="14"/>
+      <c r="U24" s="14">
         <v>124007</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V24" s="14">
         <v>6157</v>
       </c>
-      <c r="W23" s="14">
+      <c r="W24" s="14">
         <v>5337</v>
       </c>
-      <c r="X23" s="14">
+      <c r="X24" s="14">
         <v>1958</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="Y24" s="14">
         <v>11701</v>
       </c>
-      <c r="Z23" s="14">
+      <c r="Z24" s="14">
         <v>15</v>
       </c>
-      <c r="AA23" s="14">
+      <c r="AA24" s="14">
         <v>717</v>
       </c>
     </row>
-    <row r="24" spans="2:27" hidden="1">
-      <c r="B24" s="10">
+    <row r="25" spans="2:27" hidden="1">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>659020</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>649665</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>551</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>56273</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <v>9895</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="11">
         <v>3359</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J25" s="11">
         <v>78</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K25" s="11">
         <v>1424</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L25" s="11">
         <v>2288</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M25" s="11">
         <v>59153</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N25" s="11">
         <v>3952</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O25" s="11">
         <v>37177</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P25" s="11">
         <v>22508</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q25" s="11">
         <v>40324</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R25" s="11">
         <v>2654</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S25" s="11">
         <v>52458</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11">
+      <c r="T25" s="11"/>
+      <c r="U25" s="11">
         <v>123192</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V25" s="11">
         <v>6122</v>
       </c>
-      <c r="W24" s="11">
+      <c r="W25" s="11">
         <v>5256</v>
       </c>
-      <c r="X24" s="11">
+      <c r="X25" s="11">
         <v>1931</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="Y25" s="11">
         <v>11636</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="Z25" s="11">
         <v>15</v>
       </c>
-      <c r="AA24" s="11">
+      <c r="AA25" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="2:27" hidden="1">
-      <c r="B25" s="13">
+    <row r="26" spans="2:27" hidden="1">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <v>655458</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>645999</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F26" s="14">
         <v>546</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="14">
         <v>56186</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <v>9835</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>3310</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="14">
         <v>78</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K26" s="14">
         <v>1425</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L26" s="14">
         <v>2252</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M26" s="14">
         <v>58938</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N26" s="14">
         <v>3928</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O26" s="14">
         <v>36812</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P26" s="14">
         <v>22401</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q26" s="14">
         <v>40001</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R26" s="14">
         <v>2655</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S26" s="14">
         <v>52187</v>
       </c>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14">
+      <c r="T26" s="14"/>
+      <c r="U26" s="14">
         <v>122442</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V26" s="14">
         <v>6046</v>
       </c>
-      <c r="W25" s="14">
+      <c r="W26" s="14">
         <v>5239</v>
       </c>
-      <c r="X25" s="14">
+      <c r="X26" s="14">
         <v>1910</v>
       </c>
-      <c r="Y25" s="14">
+      <c r="Y26" s="14">
         <v>11600</v>
       </c>
-      <c r="Z25" s="14">
+      <c r="Z26" s="14">
         <v>15</v>
       </c>
-      <c r="AA25" s="14">
+      <c r="AA26" s="14">
         <v>719</v>
       </c>
     </row>
-    <row r="26" spans="2:27" hidden="1">
-      <c r="B26" s="10">
+    <row r="27" spans="2:27" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>651761</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>641907</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>541</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>56170</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <v>9810</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="11">
         <v>3301</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <v>78</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <v>1424</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L27" s="11">
         <v>2219</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M27" s="11">
         <v>58734</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N27" s="11">
         <v>3934</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O27" s="11">
         <v>36467</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P27" s="11">
         <v>22206</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q27" s="11">
         <v>39383</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R27" s="11">
         <v>2640</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S27" s="11">
         <v>51887</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11">
         <v>121511</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V27" s="11">
         <v>5992</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W27" s="11">
         <v>5150</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X27" s="11">
         <v>1888</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Y27" s="11">
         <v>11575</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z27" s="11">
         <v>15</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AA27" s="11">
         <v>716</v>
       </c>
     </row>
-    <row r="27" spans="2:27" hidden="1">
-      <c r="B27" s="13">
+    <row r="28" spans="2:27" hidden="1">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <v>647906</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="14">
         <v>637598</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F28" s="14">
         <v>538</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="14">
         <v>56139</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <v>9752</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>3280</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="14">
         <v>78</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K28" s="14">
         <v>1424</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L28" s="14">
         <v>2179</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M28" s="14">
         <v>58481</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N28" s="14">
         <v>3945</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O28" s="14">
         <v>36238</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P28" s="14">
         <v>21962</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q28" s="14">
         <v>38923</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R28" s="14">
         <v>2634</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S28" s="14">
         <v>51526</v>
       </c>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14">
+      <c r="T28" s="14"/>
+      <c r="U28" s="14">
         <v>120827</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V28" s="14">
         <v>5957</v>
       </c>
-      <c r="W27" s="14">
+      <c r="W28" s="14">
         <v>5099</v>
       </c>
-      <c r="X27" s="14">
+      <c r="X28" s="14">
         <v>1866</v>
       </c>
-      <c r="Y27" s="14">
+      <c r="Y28" s="14">
         <v>11503</v>
       </c>
-      <c r="Z27" s="14">
+      <c r="Z28" s="14">
         <v>15</v>
       </c>
-      <c r="AA27" s="14">
+      <c r="AA28" s="14">
         <v>715</v>
       </c>
     </row>
-    <row r="28" spans="2:27" hidden="1">
-      <c r="B28" s="10">
+    <row r="29" spans="2:27" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>645139</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>634226</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>537</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>55988</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <v>9716</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="11">
         <v>3277</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="11">
         <v>78</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <v>1424</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="11">
         <v>2130</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M29" s="11">
         <v>58224</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N29" s="11">
         <v>3934</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O29" s="11">
         <v>35910</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P29" s="11">
         <v>21848</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q29" s="11">
         <v>38619</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R29" s="11">
         <v>2634</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S29" s="11">
         <v>51228</v>
       </c>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11">
+      <c r="T29" s="11"/>
+      <c r="U29" s="11">
         <v>120089</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V29" s="11">
         <v>5928</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W29" s="11">
         <v>5046</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X29" s="11">
         <v>1829</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y29" s="11">
         <v>11484</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z29" s="11">
         <v>15</v>
       </c>
-      <c r="AA28" s="11">
+      <c r="AA29" s="11">
         <v>717</v>
       </c>
     </row>
-    <row r="29" spans="2:27" hidden="1">
-      <c r="B29" s="13">
+    <row r="30" spans="2:27" hidden="1">
+      <c r="B30" s="13">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>641751</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>630955</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F30" s="14">
         <v>537</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="14">
         <v>55899</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <v>9670</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="14">
         <v>3264</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="14">
         <v>78</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K30" s="14">
         <v>1424</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L30" s="14">
         <v>2114</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M30" s="14">
         <v>58008</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N30" s="14">
         <v>3930</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O30" s="14">
         <v>35633</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P30" s="14">
         <v>21736</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q30" s="14">
         <v>38964</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R30" s="14">
         <v>2631</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S30" s="14">
         <v>50759</v>
       </c>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14">
+      <c r="T30" s="14"/>
+      <c r="U30" s="14">
         <v>119535</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V30" s="14">
         <v>5904</v>
       </c>
-      <c r="W29" s="14">
+      <c r="W30" s="14">
         <v>4993</v>
       </c>
-      <c r="X29" s="14">
+      <c r="X30" s="14">
         <v>1785</v>
       </c>
-      <c r="Y29" s="14">
+      <c r="Y30" s="14">
         <v>11422</v>
       </c>
-      <c r="Z29" s="14">
+      <c r="Z30" s="14">
         <v>15</v>
       </c>
-      <c r="AA29" s="14">
+      <c r="AA30" s="14">
         <v>713</v>
       </c>
     </row>
-    <row r="30" spans="2:27" hidden="1">
-      <c r="B30" s="10">
+    <row r="31" spans="2:27" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>639200</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>628078</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>535</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>55839</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H31" s="11">
         <v>9614</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I31" s="11">
         <v>3257</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J31" s="11">
         <v>78</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K31" s="11">
         <v>1424</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L31" s="11">
         <v>2091</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M31" s="11">
         <v>57753</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N31" s="11">
         <v>3924</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O31" s="11">
         <v>35418</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P31" s="11">
         <v>21601</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q31" s="11">
         <v>38737</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R31" s="11">
         <v>2613</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S31" s="11">
         <v>50312</v>
       </c>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11">
+      <c r="T31" s="11"/>
+      <c r="U31" s="11">
         <v>119109</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V31" s="11">
         <v>5878</v>
       </c>
-      <c r="W30" s="11">
+      <c r="W31" s="11">
         <v>4974</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X31" s="11">
         <v>1760</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="Y31" s="11">
         <v>11402</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="Z31" s="11">
         <v>15</v>
       </c>
-      <c r="AA30" s="11">
+      <c r="AA31" s="11">
         <v>713</v>
       </c>
     </row>
-    <row r="31" spans="2:27" hidden="1">
-      <c r="B31" s="13">
+    <row r="32" spans="2:27" hidden="1">
+      <c r="B32" s="13">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <v>636167</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="14">
         <v>625114</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F32" s="14">
         <v>535</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="14">
         <v>55765</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="14">
         <v>9522</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I32" s="14">
         <v>3239</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J32" s="14">
         <v>78</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K32" s="14">
         <v>1424</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L32" s="14">
         <v>2039</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M32" s="14">
         <v>57425</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N32" s="14">
         <v>3900</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O32" s="14">
         <v>34878</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P32" s="14">
         <v>21229</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q32" s="14">
         <v>38464</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R32" s="14">
         <v>2594</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S32" s="14">
         <v>49720</v>
       </c>
-      <c r="T31" s="14">
+      <c r="T32" s="14">
         <v>1</v>
       </c>
-      <c r="U31" s="14">
+      <c r="U32" s="14">
         <v>118529</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V32" s="14">
         <v>5852</v>
       </c>
-      <c r="W31" s="14">
+      <c r="W32" s="14">
         <v>4936</v>
       </c>
-      <c r="X31" s="14">
+      <c r="X32" s="14">
         <v>1736</v>
       </c>
-      <c r="Y31" s="14">
+      <c r="Y32" s="14">
         <v>11378</v>
       </c>
-      <c r="Z31" s="14">
+      <c r="Z32" s="14">
         <v>15</v>
       </c>
-      <c r="AA31" s="14">
+      <c r="AA32" s="14">
         <v>714</v>
       </c>
     </row>
-    <row r="32" spans="2:27" hidden="1">
-      <c r="B32" s="18">
+    <row r="33" spans="2:27" hidden="1">
+      <c r="B33" s="18">
         <v>2023</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D33" s="19">
         <v>633934</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E33" s="19">
         <v>622491</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F33" s="19">
         <v>534</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G33" s="19">
         <v>55802</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H33" s="19">
         <v>9494</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I33" s="19">
         <v>3245</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J33" s="19">
         <v>78</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K33" s="19">
         <v>1424</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L33" s="19">
         <v>2009</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M33" s="19">
         <v>57250</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N33" s="19">
         <v>3899</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O33" s="19">
         <v>34654</v>
       </c>
-      <c r="P32" s="19">
+      <c r="P33" s="19">
         <v>20907</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q33" s="19">
         <v>38288</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R33" s="19">
         <v>2590</v>
       </c>
-      <c r="S32" s="19">
+      <c r="S33" s="19">
         <v>49582</v>
       </c>
-      <c r="T32" s="19">
+      <c r="T33" s="19">
         <v>1</v>
       </c>
-      <c r="U32" s="19">
+      <c r="U33" s="19">
         <v>118075</v>
       </c>
-      <c r="V32" s="19">
+      <c r="V33" s="19">
         <v>5811</v>
       </c>
-      <c r="W32" s="19">
+      <c r="W33" s="19">
         <v>4917</v>
       </c>
-      <c r="X32" s="19">
+      <c r="X33" s="19">
         <v>1700</v>
       </c>
-      <c r="Y32" s="19">
+      <c r="Y33" s="19">
         <v>11348</v>
       </c>
-      <c r="Z32" s="19">
+      <c r="Z33" s="19">
         <v>15</v>
       </c>
-      <c r="AA32" s="19">
+      <c r="AA33" s="19">
         <v>712</v>
       </c>
     </row>
-    <row r="33" spans="2:27" hidden="1">
-      <c r="B33" s="13">
+    <row r="34" spans="2:27" hidden="1">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>632252</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="14">
         <v>620240</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F34" s="14">
         <v>528</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="14">
         <v>55869</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <v>9451</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="14">
         <v>3234</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J34" s="14">
         <v>78</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K34" s="14">
         <v>1424</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L34" s="14">
         <v>1986</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M34" s="14">
         <v>57083</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <v>3895</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O34" s="14">
         <v>34339</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P34" s="14">
         <v>20924</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q34" s="14">
         <v>38275</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R34" s="14">
         <v>2577</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S34" s="14">
         <v>49203</v>
       </c>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14">
+      <c r="T34" s="14"/>
+      <c r="U34" s="14">
         <v>117636</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V34" s="14">
         <v>5783</v>
       </c>
-      <c r="W33" s="14">
+      <c r="W34" s="14">
         <v>4904</v>
       </c>
-      <c r="X33" s="14">
+      <c r="X34" s="14">
         <v>1678</v>
       </c>
-      <c r="Y33" s="14">
+      <c r="Y34" s="14">
         <v>11327</v>
       </c>
-      <c r="Z33" s="14">
+      <c r="Z34" s="14">
         <v>14</v>
       </c>
-      <c r="AA33" s="14">
+      <c r="AA34" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="34" spans="2:27" hidden="1">
-      <c r="B34" s="10">
+    <row r="35" spans="2:27" hidden="1">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>629746</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>617778</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>528</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>55776</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="11">
         <v>9347</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I35" s="11">
         <v>3197</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J35" s="11">
         <v>77</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="11">
         <v>1424</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L35" s="11">
         <v>1959</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M35" s="11">
         <v>56592</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N35" s="11">
         <v>3885</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O35" s="11">
         <v>33921</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P35" s="11">
         <v>20669</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q35" s="11">
         <v>38043</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R35" s="11">
         <v>2568</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S35" s="11">
         <v>48930</v>
       </c>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11">
+      <c r="T35" s="11"/>
+      <c r="U35" s="11">
         <v>117218</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V35" s="11">
         <v>5770</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W35" s="11">
         <v>4899</v>
       </c>
-      <c r="X34" s="11">
+      <c r="X35" s="11">
         <v>1652</v>
       </c>
-      <c r="Y34" s="11">
+      <c r="Y35" s="11">
         <v>11234</v>
       </c>
-      <c r="Z34" s="11">
+      <c r="Z35" s="11">
         <v>15</v>
       </c>
-      <c r="AA34" s="11">
+      <c r="AA35" s="11">
         <v>707</v>
       </c>
     </row>
-    <row r="35" spans="2:27" hidden="1">
-      <c r="B35" s="13">
+    <row r="36" spans="2:27" hidden="1">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <v>627591</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E36" s="14">
         <v>615376</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="14">
         <v>528</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <v>55700</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H36" s="14">
         <v>9310</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I36" s="14">
         <v>3164</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J36" s="14">
         <v>77</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K36" s="14">
         <v>1424</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L36" s="14">
         <v>1936</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M36" s="14">
         <v>56336</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <v>3884</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O36" s="14">
         <v>33523</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P36" s="14">
         <v>20457</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q36" s="14">
         <v>37927</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R36" s="14">
         <v>2574</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S36" s="14">
         <v>48696</v>
       </c>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14">
+      <c r="T36" s="14"/>
+      <c r="U36" s="14">
         <v>116809</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V36" s="14">
         <v>5709</v>
       </c>
-      <c r="W35" s="14">
+      <c r="W36" s="14">
         <v>4865</v>
       </c>
-      <c r="X35" s="14">
+      <c r="X36" s="14">
         <v>1637</v>
       </c>
-      <c r="Y35" s="14">
+      <c r="Y36" s="14">
         <v>11207</v>
       </c>
-      <c r="Z35" s="14">
+      <c r="Z36" s="14">
         <v>15</v>
       </c>
-      <c r="AA35" s="14">
+      <c r="AA36" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="36" spans="2:27" hidden="1">
-      <c r="B36" s="10">
+    <row r="37" spans="2:27" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>625802</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>613527</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>529</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="11">
         <v>55774</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H37" s="11">
         <v>9280</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I37" s="11">
         <v>3168</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J37" s="11">
         <v>77</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K37" s="11">
         <v>1424</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L37" s="11">
         <v>1923</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M37" s="11">
         <v>56179</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N37" s="11">
         <v>3894</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O37" s="11">
         <v>33212</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P37" s="11">
         <v>20145</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q37" s="11">
         <v>37799</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R37" s="11">
         <v>2588</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S37" s="11">
         <v>48487</v>
       </c>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11">
+      <c r="T37" s="11"/>
+      <c r="U37" s="11">
         <v>116524</v>
       </c>
-      <c r="V36" s="11">
+      <c r="V37" s="11">
         <v>5685</v>
       </c>
-      <c r="W36" s="11">
+      <c r="W37" s="11">
         <v>4852</v>
       </c>
-      <c r="X36" s="11">
+      <c r="X37" s="11">
         <v>1602</v>
       </c>
-      <c r="Y36" s="11">
+      <c r="Y37" s="11">
         <v>11195</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="Z37" s="11">
         <v>15</v>
       </c>
-      <c r="AA36" s="11">
+      <c r="AA37" s="11">
         <v>698</v>
       </c>
     </row>
-    <row r="37" spans="2:27" hidden="1">
-      <c r="B37" s="13">
+    <row r="38" spans="2:27" hidden="1">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <v>623225</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>611005</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F38" s="14">
         <v>527</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="14">
         <v>55700</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="14">
         <v>9285</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="14">
         <v>3159</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J38" s="14">
         <v>77</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K38" s="14">
         <v>1424</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L38" s="14">
         <v>1959</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M38" s="14">
         <v>56592</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N38" s="14">
         <v>3885</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O38" s="14">
         <v>33921</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P38" s="14">
         <v>19873</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q38" s="14">
         <v>37606</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R38" s="14">
         <v>2571</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S38" s="14">
         <v>48049</v>
       </c>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14">
+      <c r="T38" s="14"/>
+      <c r="U38" s="14">
         <v>115967</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V38" s="14">
         <v>5662</v>
       </c>
-      <c r="W37" s="14">
+      <c r="W38" s="14">
         <v>4804</v>
       </c>
-      <c r="X37" s="14">
+      <c r="X38" s="14">
         <v>1573</v>
       </c>
-      <c r="Y37" s="14">
+      <c r="Y38" s="14">
         <v>11161</v>
       </c>
-      <c r="Z37" s="14">
+      <c r="Z38" s="14">
         <v>16</v>
       </c>
-      <c r="AA37" s="14">
+      <c r="AA38" s="14">
         <v>699</v>
       </c>
     </row>
-    <row r="38" spans="2:27" hidden="1">
-      <c r="B38" s="10">
+    <row r="39" spans="2:27" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>619408</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>607662</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>525</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>55704</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="11">
         <v>9233</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I39" s="11">
         <v>3148</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J39" s="11">
         <v>77</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="11">
         <v>1424</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L39" s="11">
         <v>1866</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M39" s="11">
         <v>55722</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N39" s="11">
         <v>3891</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O39" s="11">
         <v>32461</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P39" s="11">
         <v>19530</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q39" s="11">
         <v>37234</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R39" s="11">
         <v>2570</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S39" s="11">
         <v>47654</v>
       </c>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11">
+      <c r="T39" s="11"/>
+      <c r="U39" s="11">
         <v>115526</v>
       </c>
-      <c r="V38" s="11">
+      <c r="V39" s="11">
         <v>5597</v>
       </c>
-      <c r="W38" s="11">
+      <c r="W39" s="11">
         <v>4695</v>
       </c>
-      <c r="X38" s="11">
+      <c r="X39" s="11">
         <v>1536</v>
       </c>
-      <c r="Y38" s="11">
+      <c r="Y39" s="11">
         <v>11130</v>
       </c>
-      <c r="Z38" s="11">
+      <c r="Z39" s="11">
         <v>16</v>
       </c>
-      <c r="AA38" s="11">
+      <c r="AA39" s="11">
         <v>696</v>
       </c>
     </row>
-    <row r="39" spans="2:27" hidden="1">
-      <c r="B39" s="13">
+    <row r="40" spans="2:27" hidden="1">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>618040</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>606724</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="14">
         <v>525</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <v>55570</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="14">
         <v>9217</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="14">
         <v>3142</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J40" s="14">
         <v>77</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K40" s="14">
         <v>1424</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L40" s="14">
         <v>1855</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M40" s="14">
         <v>55624</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N40" s="14">
         <v>3889</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O40" s="14">
         <v>32272</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P40" s="14">
         <v>19269</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q40" s="14">
         <v>37056</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R40" s="14">
         <v>2562</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S40" s="14">
         <v>47342</v>
       </c>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14">
+      <c r="T40" s="14"/>
+      <c r="U40" s="14">
         <v>114809</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V40" s="14">
         <v>5569</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W40" s="14">
         <v>4673</v>
       </c>
-      <c r="X39" s="14">
+      <c r="X40" s="14">
         <v>1516</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Y40" s="14">
         <v>11114</v>
       </c>
-      <c r="Z39" s="14">
+      <c r="Z40" s="14">
         <v>16</v>
       </c>
-      <c r="AA39" s="14">
+      <c r="AA40" s="14">
         <v>695</v>
       </c>
     </row>
-    <row r="40" spans="2:27" hidden="1">
-      <c r="B40" s="10">
+    <row r="41" spans="2:27" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>616795</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>605191</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>525</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>55673</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H41" s="11">
         <v>9298</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I41" s="11">
         <v>3152</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J41" s="11">
         <v>77</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K41" s="11">
         <v>1424</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L41" s="11">
         <v>1846</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M41" s="11">
         <v>55382</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N41" s="11">
         <v>3892</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O41" s="11">
         <v>32033</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P41" s="11">
         <v>19167</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q41" s="11">
         <v>36662</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R41" s="11">
         <v>2569</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S41" s="11">
         <v>47224</v>
       </c>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11">
+      <c r="T41" s="11"/>
+      <c r="U41" s="11">
         <v>114792</v>
       </c>
-      <c r="V40" s="11">
+      <c r="V41" s="11">
         <v>5511</v>
       </c>
-      <c r="W40" s="11">
+      <c r="W41" s="11">
         <v>4622</v>
       </c>
-      <c r="X40" s="11">
+      <c r="X41" s="11">
         <v>1474</v>
       </c>
-      <c r="Y40" s="11">
+      <c r="Y41" s="11">
         <v>11085</v>
       </c>
-      <c r="Z40" s="11">
+      <c r="Z41" s="11">
         <v>16</v>
       </c>
-      <c r="AA40" s="11">
+      <c r="AA41" s="11">
         <v>695</v>
       </c>
     </row>
-    <row r="41" spans="2:27" hidden="1">
-      <c r="B41" s="13">
+    <row r="42" spans="2:27" hidden="1">
+      <c r="B42" s="13">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <v>614317</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>602581</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="14">
         <v>524</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <v>55683</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H42" s="14">
         <v>9224</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I42" s="14">
         <v>3107</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J42" s="14">
         <v>77</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K42" s="14">
         <v>1424</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L42" s="14">
         <v>1833</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M42" s="14">
         <v>55240</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N42" s="14">
         <v>3885</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O42" s="14">
         <v>31772</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P42" s="14">
         <v>18897</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q42" s="14">
         <v>36589</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R42" s="14">
         <v>2571</v>
       </c>
-      <c r="S41" s="14">
+      <c r="S42" s="14">
         <v>46753</v>
       </c>
-      <c r="T41" s="14">
+      <c r="T42" s="14">
         <v>1</v>
       </c>
-      <c r="U41" s="14">
+      <c r="U42" s="14">
         <v>114370</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V42" s="14">
         <v>5457</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W42" s="14">
         <v>4577</v>
       </c>
-      <c r="X41" s="14">
+      <c r="X42" s="14">
         <v>1352</v>
       </c>
-      <c r="Y41" s="14">
+      <c r="Y42" s="14">
         <v>11060</v>
       </c>
-      <c r="Z41" s="14">
+      <c r="Z42" s="14">
         <v>16</v>
       </c>
-      <c r="AA41" s="14">
+      <c r="AA42" s="14">
         <v>696</v>
       </c>
     </row>
-    <row r="42" spans="2:27" hidden="1">
-      <c r="B42" s="10">
+    <row r="43" spans="2:27" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>611918</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>600194</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>523</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G43" s="11">
         <v>55693</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H43" s="11">
         <v>9204</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I43" s="11">
         <v>3089</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J43" s="11">
         <v>77</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K43" s="11">
         <v>1424</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L43" s="11">
         <v>1820</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M43" s="11">
         <v>55146</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N43" s="11">
         <v>3885</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O43" s="11">
         <v>31565</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P43" s="11">
         <v>18897</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q43" s="11">
         <v>36589</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R43" s="11">
         <v>2568</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S43" s="11">
         <v>46254</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T43" s="11">
         <v>0</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U43" s="11">
         <v>113789</v>
       </c>
-      <c r="V42" s="11">
+      <c r="V43" s="11">
         <v>5441</v>
       </c>
-      <c r="W42" s="11">
+      <c r="W43" s="11">
         <v>4530</v>
       </c>
-      <c r="X42" s="11">
+      <c r="X43" s="11">
         <v>1276</v>
       </c>
-      <c r="Y42" s="11">
+      <c r="Y43" s="11">
         <v>11016</v>
       </c>
-      <c r="Z42" s="11">
+      <c r="Z43" s="11">
         <v>16</v>
       </c>
-      <c r="AA42" s="11">
+      <c r="AA43" s="11">
         <v>694</v>
       </c>
     </row>
-    <row r="43" spans="2:27" hidden="1">
-      <c r="B43" s="13">
+    <row r="44" spans="2:27" hidden="1">
+      <c r="B44" s="13">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <v>609072</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E44" s="14">
         <v>597797</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F44" s="14">
         <v>523</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="14">
         <v>55620</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H44" s="14">
         <v>9119</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I44" s="14">
         <v>3048</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J44" s="14">
         <v>77</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K44" s="14">
         <v>1424</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L44" s="14">
         <v>1803</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M44" s="14">
         <v>54943</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N44" s="14">
         <v>3886</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O44" s="14">
         <v>31259</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P44" s="14">
         <v>18473</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q44" s="14">
         <v>35996</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R44" s="14">
         <v>2581</v>
       </c>
-      <c r="S43" s="14">
+      <c r="S44" s="14">
         <v>45940</v>
       </c>
-      <c r="T43" s="14">
+      <c r="T44" s="14">
         <v>1</v>
       </c>
-      <c r="U43" s="14">
+      <c r="U44" s="14">
         <v>112805</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V44" s="14">
         <v>5407</v>
       </c>
-      <c r="W43" s="14">
+      <c r="W44" s="14">
         <v>4480</v>
       </c>
-      <c r="X43" s="14">
+      <c r="X44" s="14">
         <v>1159</v>
       </c>
-      <c r="Y43" s="14">
+      <c r="Y44" s="14">
         <v>10978</v>
       </c>
-      <c r="Z43" s="14">
+      <c r="Z44" s="14">
         <v>16</v>
       </c>
-      <c r="AA43" s="14">
+      <c r="AA44" s="14">
         <v>693</v>
       </c>
     </row>
-    <row r="44" spans="2:27" hidden="1">
-      <c r="B44" s="18">
+    <row r="45" spans="2:27" hidden="1">
+      <c r="B45" s="18">
         <v>2022</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D45" s="19">
         <v>607150</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E45" s="19">
         <v>596005</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F45" s="19">
         <v>524</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G45" s="19">
         <v>55683</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H45" s="19">
         <v>9107</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I45" s="19">
         <v>3044</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J45" s="19">
         <v>77</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K45" s="19">
         <v>1424</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L45" s="19">
         <v>1789</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M45" s="19">
         <v>54848</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N45" s="19">
         <v>3889</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O45" s="19">
         <v>31054</v>
       </c>
-      <c r="P44" s="19">
+      <c r="P45" s="19">
         <v>18394</v>
       </c>
-      <c r="Q44" s="19">
+      <c r="Q45" s="19">
         <v>35736</v>
       </c>
-      <c r="R44" s="19">
+      <c r="R45" s="19">
         <v>2573</v>
       </c>
-      <c r="S44" s="19">
+      <c r="S45" s="19">
         <v>45388</v>
       </c>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19">
+      <c r="T45" s="19"/>
+      <c r="U45" s="19">
         <v>112333</v>
       </c>
-      <c r="V44" s="19">
+      <c r="V45" s="19">
         <v>5355</v>
       </c>
-      <c r="W44" s="19">
+      <c r="W45" s="19">
         <v>4440</v>
       </c>
-      <c r="X44" s="19">
+      <c r="X45" s="19">
         <v>1030</v>
       </c>
-      <c r="Y44" s="19">
+      <c r="Y45" s="19">
         <v>10960</v>
       </c>
-      <c r="Z44" s="19">
+      <c r="Z45" s="19">
         <v>16</v>
       </c>
-      <c r="AA44" s="19">
+      <c r="AA45" s="19">
         <v>693</v>
       </c>
     </row>
-    <row r="45" spans="2:27" hidden="1">
-      <c r="B45" s="13">
+    <row r="46" spans="2:27" hidden="1">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <v>606090</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <v>594443</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <v>520</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>55717</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="14">
         <v>9091</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="14">
         <v>3021</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J46" s="14">
         <v>77</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K46" s="14">
         <v>1424</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L46" s="14">
         <v>1787</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M46" s="14">
         <v>54743</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N46" s="14">
         <v>3888</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O46" s="14">
         <v>30885</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P46" s="14">
         <v>18334</v>
       </c>
-      <c r="Q45" s="14">
+      <c r="Q46" s="14">
         <v>35952</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R46" s="14">
         <v>2604</v>
       </c>
-      <c r="S45" s="14">
+      <c r="S46" s="14">
         <v>45157</v>
       </c>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14">
+      <c r="T46" s="14"/>
+      <c r="U46" s="14">
         <v>111857</v>
       </c>
-      <c r="V45" s="14">
+      <c r="V46" s="14">
         <v>5309</v>
       </c>
-      <c r="W45" s="14">
+      <c r="W46" s="14">
         <v>4400</v>
       </c>
-      <c r="X45" s="14">
+      <c r="X46" s="14">
         <v>957</v>
       </c>
-      <c r="Y45" s="14">
+      <c r="Y46" s="14">
         <v>10938</v>
       </c>
-      <c r="Z45" s="14">
+      <c r="Z46" s="14">
         <v>16</v>
       </c>
-      <c r="AA45" s="14">
+      <c r="AA46" s="14">
         <v>692</v>
       </c>
     </row>
-    <row r="46" spans="2:27" hidden="1">
-      <c r="B46" s="10">
+    <row r="47" spans="2:27" hidden="1">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>603380</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>591451</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>519</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>55656</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H47" s="11">
         <v>9054</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I47" s="11">
         <v>2985</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="11">
         <v>77</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="11">
         <v>1424</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L47" s="11">
         <v>1775</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M47" s="11">
         <v>54335</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N47" s="11">
         <v>3888</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O47" s="11">
         <v>30589</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P47" s="11">
         <v>18224</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q47" s="11">
         <v>35977</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R47" s="11">
         <v>2594</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S47" s="11">
         <v>44663</v>
       </c>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11">
+      <c r="T47" s="11"/>
+      <c r="U47" s="11">
         <v>110970</v>
       </c>
-      <c r="V46" s="11">
+      <c r="V47" s="11">
         <v>5249</v>
       </c>
-      <c r="W46" s="11">
+      <c r="W47" s="11">
         <v>4357</v>
       </c>
-      <c r="X46" s="11">
+      <c r="X47" s="11">
         <v>868</v>
       </c>
-      <c r="Y46" s="11">
+      <c r="Y47" s="11">
         <v>10873</v>
       </c>
-      <c r="Z46" s="11">
+      <c r="Z47" s="11">
         <v>16</v>
       </c>
-      <c r="AA46" s="11">
+      <c r="AA47" s="11">
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="2:27" hidden="1">
-      <c r="B47" s="13">
+    <row r="48" spans="2:27" hidden="1">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <v>602061</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="14">
         <v>590200</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="14">
         <v>520</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="14">
         <v>55685</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H48" s="14">
         <v>8999</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I48" s="14">
         <v>2982</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J48" s="14">
         <v>77</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K48" s="14">
         <v>1424</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L48" s="14">
         <v>1768</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M48" s="14">
         <v>54086</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N48" s="14">
         <v>3885</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O48" s="14">
         <v>30303</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P48" s="14">
         <v>18211</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q48" s="14">
         <v>36050</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R48" s="14">
         <v>2611</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S48" s="14">
         <v>44484</v>
       </c>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14">
+      <c r="T48" s="14"/>
+      <c r="U48" s="14">
         <v>110396</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V48" s="14">
         <v>5205</v>
       </c>
-      <c r="W47" s="14">
+      <c r="W48" s="14">
         <v>4316</v>
       </c>
-      <c r="X47" s="14">
+      <c r="X48" s="14">
         <v>836</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Y48" s="14">
         <v>10858</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="Z48" s="14">
         <v>16</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AA48" s="14">
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="2:27" hidden="1">
-      <c r="B48" s="10">
+    <row r="49" spans="2:27" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>599199</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>586326</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>516</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="11">
         <v>55678</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H49" s="11">
         <v>8883</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I49" s="11">
         <v>2962</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J49" s="11">
         <v>77</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K49" s="11">
         <v>1424</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L49" s="11">
         <v>1761</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M49" s="11">
         <v>53840</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N49" s="11">
         <v>3878</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O49" s="11">
         <v>30091</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P49" s="11">
         <v>18180</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q49" s="11">
         <v>35973</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R49" s="11">
         <v>2618</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S49" s="11">
         <v>43957</v>
       </c>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11">
+      <c r="T49" s="11"/>
+      <c r="U49" s="11">
         <v>110047</v>
       </c>
-      <c r="V48" s="11">
+      <c r="V49" s="11">
         <v>5137</v>
       </c>
-      <c r="W48" s="11">
+      <c r="W49" s="11">
         <v>4253</v>
       </c>
-      <c r="X48" s="11">
+      <c r="X49" s="11">
         <v>705</v>
       </c>
-      <c r="Y48" s="11">
+      <c r="Y49" s="11">
         <v>10790</v>
       </c>
-      <c r="Z48" s="11">
+      <c r="Z49" s="11">
         <v>16</v>
       </c>
-      <c r="AA48" s="11">
+      <c r="AA49" s="11">
         <v>686</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1">
-      <c r="B49" s="13">
+    <row r="50" spans="2:27" hidden="1">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <v>597975</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="14">
         <v>583854</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F50" s="14">
         <v>505</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="14">
         <v>55668</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="14">
         <v>8821</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I50" s="14">
         <v>2977</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J50" s="14">
         <v>77</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K50" s="14">
         <v>1424</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L50" s="14">
         <v>1753</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M50" s="14">
         <v>53278</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N50" s="14">
         <v>3892</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O50" s="14">
         <v>29694</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P50" s="14">
         <v>18180</v>
       </c>
-      <c r="Q49" s="14">
+      <c r="Q50" s="14">
         <v>35973</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R50" s="14">
         <v>2605</v>
       </c>
-      <c r="S49" s="14">
+      <c r="S50" s="14">
         <v>42961</v>
       </c>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14">
+      <c r="T50" s="14"/>
+      <c r="U50" s="14">
         <v>138152</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V50" s="14">
         <v>6095</v>
       </c>
-      <c r="W49" s="14">
+      <c r="W50" s="14">
         <v>4045</v>
       </c>
-      <c r="X49" s="14">
+      <c r="X50" s="14">
         <v>666</v>
       </c>
-      <c r="Y49" s="14">
+      <c r="Y50" s="14">
         <v>10713</v>
       </c>
-      <c r="Z49" s="14">
+      <c r="Z50" s="14">
         <v>17</v>
       </c>
-      <c r="AA49" s="14">
+      <c r="AA50" s="14">
         <v>682</v>
       </c>
     </row>
-    <row r="50" spans="2:27" hidden="1">
-      <c r="B50" s="10">
+    <row r="51" spans="2:27" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>594590</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>580812</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>505</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>55750</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H51" s="11">
         <v>8821</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I51" s="11">
         <v>2979</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J51" s="11">
         <v>77</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K51" s="11">
         <v>1424</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L51" s="11">
         <v>1754</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M51" s="11">
         <v>53393</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N51" s="11">
         <v>3894</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O51" s="11">
         <v>29714</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P51" s="11">
         <v>17962</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q51" s="11">
         <v>36188</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R51" s="11">
         <v>2604</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S51" s="11">
         <v>42900</v>
       </c>
-      <c r="T50" s="11">
+      <c r="T51" s="11">
         <v>1</v>
       </c>
-      <c r="U50" s="11">
+      <c r="U51" s="11">
         <v>109339</v>
       </c>
-      <c r="V50" s="11">
+      <c r="V51" s="11">
         <v>5068</v>
       </c>
-      <c r="W50" s="11">
+      <c r="W51" s="11">
         <v>4043</v>
       </c>
-      <c r="X50" s="11">
+      <c r="X51" s="11">
         <v>666</v>
       </c>
-      <c r="Y50" s="11">
+      <c r="Y51" s="11">
         <v>10697</v>
       </c>
-      <c r="Z50" s="11">
+      <c r="Z51" s="11">
         <v>17</v>
       </c>
-      <c r="AA50" s="11">
+      <c r="AA51" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1">
-      <c r="B51" s="13">
+    <row r="52" spans="2:27" hidden="1">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <v>593307</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="14">
         <v>578970</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="14">
         <v>511</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <v>55681</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H52" s="14">
         <v>8835</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="14">
         <v>2976</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J52" s="14">
         <v>77</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K52" s="14">
         <v>1424</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L52" s="14">
         <v>1750</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M52" s="14">
         <v>53077</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N52" s="14">
         <v>3889</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O52" s="14">
         <v>29454</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P52" s="14">
         <v>20219</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q52" s="14">
         <v>37753</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R52" s="14">
         <v>2598</v>
       </c>
-      <c r="S51" s="14">
+      <c r="S52" s="14">
         <v>42432</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T52" s="14">
         <v>1</v>
       </c>
-      <c r="U51" s="14">
+      <c r="U52" s="14">
         <v>109131</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V52" s="14">
         <v>4950</v>
       </c>
-      <c r="W51" s="14">
+      <c r="W52" s="14">
         <v>4018</v>
       </c>
-      <c r="X51" s="14">
+      <c r="X52" s="14">
         <v>650</v>
       </c>
-      <c r="Y51" s="14">
+      <c r="Y52" s="14">
         <v>10710</v>
       </c>
-      <c r="Z51" s="14">
+      <c r="Z52" s="14">
         <v>17</v>
       </c>
-      <c r="AA51" s="14">
+      <c r="AA52" s="14">
         <v>680</v>
       </c>
     </row>
-    <row r="52" spans="2:27" hidden="1">
-      <c r="B52" s="10">
+    <row r="53" spans="2:27" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>590245</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>576050</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>510</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>55725</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H53" s="11">
         <v>8835</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I53" s="11">
         <v>2957</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J53" s="11">
         <v>77</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K53" s="11">
         <v>1424</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L53" s="11">
         <v>1740</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M53" s="11">
         <v>52924</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N53" s="11">
         <v>3886</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O53" s="11">
         <v>29218</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P53" s="11">
         <v>17867</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q53" s="11">
         <v>36460</v>
       </c>
-      <c r="R52" s="11">
+      <c r="R53" s="11">
         <v>2606</v>
       </c>
-      <c r="S52" s="11">
+      <c r="S53" s="11">
         <v>42065</v>
       </c>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11">
+      <c r="T53" s="11"/>
+      <c r="U53" s="11">
         <v>108383</v>
       </c>
-      <c r="V52" s="11">
+      <c r="V53" s="11">
         <v>4897</v>
       </c>
-      <c r="W52" s="11">
+      <c r="W53" s="11">
         <v>3940</v>
       </c>
-      <c r="X52" s="11">
+      <c r="X53" s="11">
         <v>634</v>
       </c>
-      <c r="Y52" s="11">
+      <c r="Y53" s="11">
         <v>10660</v>
       </c>
-      <c r="Z52" s="11">
+      <c r="Z53" s="11">
         <v>17</v>
       </c>
-      <c r="AA52" s="11">
+      <c r="AA53" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="53" spans="2:27" hidden="1">
-      <c r="B53" s="13">
+    <row r="54" spans="2:27" hidden="1">
+      <c r="B54" s="13">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <v>588077</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E54" s="14">
         <v>573877</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F54" s="14">
         <v>509</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="14">
         <v>55905</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H54" s="14">
         <v>8876</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I54" s="14">
         <v>2941</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J54" s="14">
         <v>77</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K54" s="14">
         <v>1424</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L54" s="14">
         <v>1741</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M54" s="14">
         <v>52732</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N54" s="14">
         <v>3884</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O54" s="14">
         <v>29115</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P54" s="14">
         <v>17854</v>
       </c>
-      <c r="Q53" s="14">
+      <c r="Q54" s="14">
         <v>36552</v>
       </c>
-      <c r="R53" s="14">
+      <c r="R54" s="14">
         <v>2596</v>
       </c>
-      <c r="S53" s="14">
+      <c r="S54" s="14">
         <v>41550</v>
       </c>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14">
+      <c r="T54" s="14"/>
+      <c r="U54" s="14">
         <v>107848</v>
       </c>
-      <c r="V53" s="14">
+      <c r="V54" s="14">
         <v>4861</v>
       </c>
-      <c r="W53" s="14">
+      <c r="W54" s="14">
         <v>3840</v>
       </c>
-      <c r="X53" s="14">
+      <c r="X54" s="14">
         <v>623</v>
       </c>
-      <c r="Y53" s="14">
+      <c r="Y54" s="14">
         <v>10625</v>
       </c>
-      <c r="Z53" s="14">
+      <c r="Z54" s="14">
         <v>17</v>
       </c>
-      <c r="AA53" s="14">
+      <c r="AA54" s="14">
         <v>679</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1">
-      <c r="B54" s="10">
+    <row r="55" spans="2:27" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>586093</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>571129</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>508</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="11">
         <v>56021</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H55" s="11">
         <v>8878</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I55" s="11">
         <v>2934</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J55" s="11">
         <v>77</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K55" s="11">
         <v>1424</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L55" s="11">
         <v>1732</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M55" s="11">
         <v>52504</v>
       </c>
-      <c r="N54" s="11">
+      <c r="N55" s="11">
         <v>3883</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O55" s="11">
         <v>29014</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P55" s="11">
         <v>17887</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="Q55" s="11">
         <v>36498</v>
       </c>
-      <c r="R54" s="11">
+      <c r="R55" s="11">
         <v>2578</v>
       </c>
-      <c r="S54" s="11">
+      <c r="S55" s="11">
         <v>40750</v>
       </c>
-      <c r="T54" s="11">
+      <c r="T55" s="11">
         <v>0</v>
       </c>
-      <c r="U54" s="11">
+      <c r="U55" s="11">
         <v>107480</v>
       </c>
-      <c r="V54" s="11">
+      <c r="V55" s="11">
         <v>4839</v>
       </c>
-      <c r="W54" s="11">
+      <c r="W55" s="11">
         <v>3789</v>
       </c>
-      <c r="X54" s="11">
+      <c r="X55" s="11">
         <v>621</v>
       </c>
-      <c r="Y54" s="11">
+      <c r="Y55" s="11">
         <v>10600</v>
       </c>
-      <c r="Z54" s="11">
+      <c r="Z55" s="11">
         <v>17</v>
       </c>
-      <c r="AA54" s="11">
+      <c r="AA55" s="11">
         <v>678</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1">
-      <c r="B55" s="13">
+    <row r="56" spans="2:27" hidden="1">
+      <c r="B56" s="13">
         <v>2021</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <v>583440</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E56" s="14">
         <v>567677</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F56" s="14">
         <v>507</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="14">
         <v>56059</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H56" s="14">
         <v>8871</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I56" s="14">
         <v>2921</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J56" s="14">
         <v>77</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K56" s="14">
         <v>1424</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L56" s="14">
         <v>1728</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M56" s="14">
         <v>52301</v>
       </c>
-      <c r="N55" s="14">
+      <c r="N56" s="14">
         <v>3880</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O56" s="14">
         <v>28867</v>
       </c>
-      <c r="P55" s="14">
+      <c r="P56" s="14">
         <v>17889</v>
       </c>
-      <c r="Q55" s="14">
+      <c r="Q56" s="14">
         <v>36421</v>
       </c>
-      <c r="R55" s="14">
+      <c r="R56" s="14">
         <v>2569</v>
       </c>
-      <c r="S55" s="14">
+      <c r="S56" s="14">
         <v>39851</v>
       </c>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14">
+      <c r="T56" s="14"/>
+      <c r="U56" s="14">
         <v>106898</v>
       </c>
-      <c r="V55" s="14">
+      <c r="V56" s="14">
         <v>4801</v>
       </c>
-      <c r="W55" s="14">
+      <c r="W56" s="14">
         <v>3689</v>
       </c>
-      <c r="X55" s="14">
+      <c r="X56" s="14">
         <v>585</v>
       </c>
-      <c r="Y55" s="14">
+      <c r="Y56" s="14">
         <v>10566</v>
       </c>
-      <c r="Z55" s="14">
+      <c r="Z56" s="14">
         <v>17</v>
       </c>
-      <c r="AA55" s="14">
+      <c r="AA56" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1">
-      <c r="B56" s="18">
+    <row r="57" spans="2:27" hidden="1">
+      <c r="B57" s="18">
         <v>2021</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C57" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D57" s="19">
         <v>581299</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E57" s="19">
         <v>565156</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F57" s="19">
         <v>507</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G57" s="19">
         <v>56230</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H57" s="19">
         <v>8897</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I57" s="19">
         <v>2930</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J57" s="19">
         <v>77</v>
       </c>
-      <c r="K56" s="19">
+      <c r="K57" s="19">
         <v>1424</v>
       </c>
-      <c r="L56" s="19">
+      <c r="L57" s="19">
         <v>1727</v>
       </c>
-      <c r="M56" s="19">
+      <c r="M57" s="19">
         <v>52149</v>
       </c>
-      <c r="N56" s="19">
+      <c r="N57" s="19">
         <v>3874</v>
       </c>
-      <c r="O56" s="19">
+      <c r="O57" s="19">
         <v>28827</v>
       </c>
-      <c r="P56" s="19">
+      <c r="P57" s="19">
         <v>17957</v>
       </c>
-      <c r="Q56" s="19">
+      <c r="Q57" s="19">
         <v>36403</v>
       </c>
-      <c r="R56" s="19">
+      <c r="R57" s="19">
         <v>2555</v>
       </c>
-      <c r="S56" s="19">
+      <c r="S57" s="19">
         <v>39272</v>
       </c>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19">
+      <c r="T57" s="19"/>
+      <c r="U57" s="19">
         <v>106698</v>
       </c>
-      <c r="V56" s="19">
+      <c r="V57" s="19">
         <v>4780</v>
       </c>
-      <c r="W56" s="19">
+      <c r="W57" s="19">
         <v>3642</v>
       </c>
-      <c r="X56" s="19">
+      <c r="X57" s="19">
         <v>578</v>
       </c>
-      <c r="Y56" s="19">
+      <c r="Y57" s="19">
         <v>10557</v>
       </c>
-      <c r="Z56" s="19">
+      <c r="Z57" s="19">
         <v>17</v>
       </c>
-      <c r="AA56" s="19">
+      <c r="AA57" s="19">
         <v>671</v>
       </c>
     </row>
-    <row r="57" spans="2:27" hidden="1">
-      <c r="B57" s="13">
+    <row r="58" spans="2:27" hidden="1">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <v>580035</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="14">
         <v>563400</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F58" s="14">
         <v>505</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="14">
         <v>56274</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="14">
         <v>8916</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I58" s="14">
         <v>2933</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J58" s="14">
         <v>77</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K58" s="14">
         <v>1424</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L58" s="14">
         <v>1736</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M58" s="14">
         <v>52012</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N58" s="14">
         <v>3877</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O58" s="14">
         <v>28815</v>
       </c>
-      <c r="P57" s="14">
+      <c r="P58" s="14">
         <v>18007</v>
       </c>
-      <c r="Q57" s="14">
+      <c r="Q58" s="14">
         <v>36384</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R58" s="14">
         <v>2551</v>
       </c>
-      <c r="S57" s="14">
+      <c r="S58" s="14">
         <v>38799</v>
       </c>
-      <c r="T57" s="14">
+      <c r="T58" s="14">
         <v>0</v>
       </c>
-      <c r="U57" s="14">
+      <c r="U58" s="14">
         <v>106486</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V58" s="14">
         <v>4754</v>
       </c>
-      <c r="W57" s="14">
+      <c r="W58" s="14">
         <v>3612</v>
       </c>
-      <c r="X57" s="14">
+      <c r="X58" s="14">
         <v>569</v>
       </c>
-      <c r="Y57" s="14">
+      <c r="Y58" s="14">
         <v>10542</v>
       </c>
-      <c r="Z57" s="14">
+      <c r="Z58" s="14">
         <v>17</v>
       </c>
-      <c r="AA57" s="14">
+      <c r="AA58" s="14">
         <v>670</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1">
-      <c r="B58" s="10">
+    <row r="59" spans="2:27" hidden="1">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>576835</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>560383</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>501</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>56253</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H59" s="11">
         <v>8958</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I59" s="11">
         <v>2929</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J59" s="11">
         <v>77</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K59" s="11">
         <v>1424</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L59" s="11">
         <v>1734</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M59" s="11">
         <v>51472</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N59" s="11">
         <v>3876</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O59" s="11">
         <v>28607</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P59" s="11">
         <v>17914</v>
       </c>
-      <c r="Q58" s="11">
+      <c r="Q59" s="11">
         <v>36355</v>
       </c>
-      <c r="R58" s="11">
+      <c r="R59" s="11">
         <v>2550</v>
       </c>
-      <c r="S58" s="11">
+      <c r="S59" s="11">
         <v>37952</v>
       </c>
-      <c r="T58" s="11">
+      <c r="T59" s="11">
         <v>0</v>
       </c>
-      <c r="U58" s="11">
+      <c r="U59" s="11">
         <v>106174</v>
       </c>
-      <c r="V58" s="11">
+      <c r="V59" s="11">
         <v>4716</v>
       </c>
-      <c r="W58" s="11">
+      <c r="W59" s="11">
         <v>3542</v>
       </c>
-      <c r="X58" s="11">
+      <c r="X59" s="11">
         <v>553</v>
       </c>
-      <c r="Y58" s="11">
+      <c r="Y59" s="11">
         <v>10450</v>
       </c>
-      <c r="Z58" s="11">
+      <c r="Z59" s="11">
         <v>17</v>
       </c>
-      <c r="AA58" s="11">
+      <c r="AA59" s="11">
         <v>665</v>
       </c>
     </row>
-    <row r="59" spans="2:27" hidden="1">
-      <c r="B59" s="13">
+    <row r="60" spans="2:27" hidden="1">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <v>574056</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E60" s="14">
         <v>556941</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="14">
         <v>499</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <v>56245</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="14">
         <v>8933</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I60" s="14">
         <v>2902</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J60" s="14">
         <v>77</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K60" s="14">
         <v>1424</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L60" s="14">
         <v>1739</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M60" s="14">
         <v>51341</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N60" s="14">
         <v>3877</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O60" s="14">
         <v>28460</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P60" s="14">
         <v>17784</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="Q60" s="14">
         <v>36186</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R60" s="14">
         <v>2539</v>
       </c>
-      <c r="S59" s="14">
+      <c r="S60" s="14">
         <v>37095</v>
       </c>
-      <c r="T59" s="14">
+      <c r="T60" s="14">
         <v>1</v>
       </c>
-      <c r="U59" s="14">
+      <c r="U60" s="14">
         <v>105781</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V60" s="14">
         <v>4675</v>
       </c>
-      <c r="W59" s="14">
+      <c r="W60" s="14">
         <v>3405</v>
       </c>
-      <c r="X59" s="14">
+      <c r="X60" s="14">
         <v>535</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="Y60" s="14">
         <v>10417</v>
       </c>
-      <c r="Z59" s="14">
+      <c r="Z60" s="14">
         <v>17</v>
       </c>
-      <c r="AA59" s="14">
+      <c r="AA60" s="14">
         <v>666</v>
       </c>
     </row>
-    <row r="60" spans="2:27" hidden="1">
-      <c r="B60" s="10">
+    <row r="61" spans="2:27" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>571367</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>552611</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>495</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="11">
         <v>56341</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H61" s="11">
         <v>9019</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I61" s="11">
         <v>2941</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J61" s="11">
         <v>77</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K61" s="11">
         <v>1424</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L61" s="11">
         <v>1746</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M61" s="11">
         <v>51196</v>
       </c>
-      <c r="N60" s="11">
+      <c r="N61" s="11">
         <v>3879</v>
       </c>
-      <c r="O60" s="11">
+      <c r="O61" s="11">
         <v>28351</v>
       </c>
-      <c r="P60" s="11">
+      <c r="P61" s="11">
         <v>17563</v>
       </c>
-      <c r="Q60" s="11">
+      <c r="Q61" s="11">
         <v>35861</v>
       </c>
-      <c r="R60" s="11">
+      <c r="R61" s="11">
         <v>2521</v>
       </c>
-      <c r="S60" s="11">
+      <c r="S61" s="11">
         <v>36352</v>
       </c>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11">
+      <c r="T61" s="11"/>
+      <c r="U61" s="11">
         <v>105315</v>
       </c>
-      <c r="V60" s="11">
+      <c r="V61" s="11">
         <v>4640</v>
       </c>
-      <c r="W60" s="11">
+      <c r="W61" s="11">
         <v>3253</v>
       </c>
-      <c r="X60" s="11">
+      <c r="X61" s="11">
         <v>533</v>
       </c>
-      <c r="Y60" s="11">
+      <c r="Y61" s="11">
         <v>10374</v>
       </c>
-      <c r="Z60" s="11">
+      <c r="Z61" s="11">
         <v>17</v>
       </c>
-      <c r="AA60" s="11">
+      <c r="AA61" s="11">
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="2:27" hidden="1">
-      <c r="B61" s="13">
+    <row r="62" spans="2:27" hidden="1">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <v>569174</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E62" s="14">
         <v>549631</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F62" s="14">
         <v>496</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="14">
         <v>56348</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="14">
         <v>9127</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I62" s="14">
         <v>2959</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J62" s="14">
         <v>77</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K62" s="14">
         <v>1424</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L62" s="14">
         <v>1745</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M62" s="14">
         <v>51089</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N62" s="14">
         <v>3866</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O62" s="14">
         <v>28370</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P62" s="14">
         <v>17421</v>
       </c>
-      <c r="Q61" s="14">
+      <c r="Q62" s="14">
         <v>35866</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R62" s="14">
         <v>2504</v>
       </c>
-      <c r="S61" s="14">
+      <c r="S62" s="14">
         <v>35789</v>
       </c>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14">
+      <c r="T62" s="14"/>
+      <c r="U62" s="14">
         <v>104940</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V62" s="14">
         <v>4612</v>
       </c>
-      <c r="W61" s="14">
+      <c r="W62" s="14">
         <v>3208</v>
       </c>
-      <c r="X61" s="14">
+      <c r="X62" s="14">
         <v>503</v>
       </c>
-      <c r="Y61" s="14">
+      <c r="Y62" s="14">
         <v>10368</v>
       </c>
-      <c r="Z61" s="14">
+      <c r="Z62" s="14">
         <v>17</v>
       </c>
-      <c r="AA61" s="14">
+      <c r="AA62" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="62" spans="2:27" hidden="1">
-      <c r="B62" s="10">
+    <row r="63" spans="2:27" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>567168</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>547540</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>498</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>56269</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H63" s="11">
         <v>9193</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I63" s="11">
         <v>2973</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J63" s="11">
         <v>77</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K63" s="11">
         <v>1424</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L63" s="11">
         <v>1747</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M63" s="11">
         <v>50966</v>
       </c>
-      <c r="N62" s="11">
+      <c r="N63" s="11">
         <v>3857</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O63" s="11">
         <v>28348</v>
       </c>
-      <c r="P62" s="11">
+      <c r="P63" s="11">
         <v>17331</v>
       </c>
-      <c r="Q62" s="11">
+      <c r="Q63" s="11">
         <v>35832</v>
       </c>
-      <c r="R62" s="11">
+      <c r="R63" s="11">
         <v>2489</v>
       </c>
-      <c r="S62" s="11">
+      <c r="S63" s="11">
         <v>35300</v>
       </c>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11">
+      <c r="T63" s="11"/>
+      <c r="U63" s="11">
         <v>104554</v>
       </c>
-      <c r="V62" s="11">
+      <c r="V63" s="11">
         <v>4605</v>
       </c>
-      <c r="W62" s="11">
+      <c r="W63" s="11">
         <v>3183</v>
       </c>
-      <c r="X62" s="11">
+      <c r="X63" s="11">
         <v>491</v>
       </c>
-      <c r="Y62" s="11">
+      <c r="Y63" s="11">
         <v>10340</v>
       </c>
-      <c r="Z62" s="11">
+      <c r="Z63" s="11">
         <v>16</v>
       </c>
-      <c r="AA62" s="11">
+      <c r="AA63" s="11">
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="2:27" hidden="1">
-      <c r="B63" s="13">
+    <row r="64" spans="2:27" hidden="1">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <v>566042</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E64" s="14">
         <v>545916</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F64" s="14">
         <v>498</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <v>56291</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="14">
         <v>9187</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="14">
         <v>2980</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J64" s="14">
         <v>77</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K64" s="14">
         <v>1424</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L64" s="14">
         <v>1748</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M64" s="14">
         <v>50878</v>
       </c>
-      <c r="N63" s="14">
+      <c r="N64" s="14">
         <v>3863</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O64" s="14">
         <v>28349</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P64" s="14">
         <v>17359</v>
       </c>
-      <c r="Q63" s="14">
+      <c r="Q64" s="14">
         <v>35902</v>
       </c>
-      <c r="R63" s="14">
+      <c r="R64" s="14">
         <v>2485</v>
       </c>
-      <c r="S63" s="14">
+      <c r="S64" s="14">
         <v>35117</v>
       </c>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14">
+      <c r="T64" s="14"/>
+      <c r="U64" s="14">
         <v>104123</v>
       </c>
-      <c r="V63" s="14">
+      <c r="V64" s="14">
         <v>4584</v>
       </c>
-      <c r="W63" s="14">
+      <c r="W64" s="14">
         <v>3179</v>
       </c>
-      <c r="X63" s="14">
+      <c r="X64" s="14">
         <v>489</v>
       </c>
-      <c r="Y63" s="14">
+      <c r="Y64" s="14">
         <v>10327</v>
       </c>
-      <c r="Z63" s="14">
+      <c r="Z64" s="14">
         <v>17</v>
       </c>
-      <c r="AA63" s="14">
+      <c r="AA64" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="64" spans="2:27" hidden="1">
-      <c r="B64" s="10">
+    <row r="65" spans="2:27" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>565980</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>545400</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>499</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <v>56275</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H65" s="11">
         <v>9187</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I65" s="11">
         <v>2982</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J65" s="11">
         <v>77</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K65" s="11">
         <v>1424</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L65" s="11">
         <v>1755</v>
       </c>
-      <c r="M64" s="11">
+      <c r="M65" s="11">
         <v>50805</v>
       </c>
-      <c r="N64" s="11">
+      <c r="N65" s="11">
         <v>3864</v>
       </c>
-      <c r="O64" s="11">
+      <c r="O65" s="11">
         <v>28294</v>
       </c>
-      <c r="P64" s="11">
+      <c r="P65" s="11">
         <v>17361</v>
       </c>
-      <c r="Q64" s="11">
+      <c r="Q65" s="11">
         <v>36010</v>
       </c>
-      <c r="R64" s="11">
+      <c r="R65" s="11">
         <v>2485</v>
       </c>
-      <c r="S64" s="11">
+      <c r="S65" s="11">
         <v>34872</v>
       </c>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11">
+      <c r="T65" s="11"/>
+      <c r="U65" s="11">
         <v>104093</v>
       </c>
-      <c r="V64" s="11">
+      <c r="V65" s="11">
         <v>4584</v>
       </c>
-      <c r="W64" s="11">
+      <c r="W65" s="11">
         <v>3174</v>
       </c>
-      <c r="X64" s="11">
+      <c r="X65" s="11">
         <v>486</v>
       </c>
-      <c r="Y64" s="11">
+      <c r="Y65" s="11">
         <v>10322</v>
       </c>
-      <c r="Z64" s="11">
+      <c r="Z65" s="11">
         <v>17</v>
       </c>
-      <c r="AA64" s="11">
+      <c r="AA65" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="2:27" hidden="1">
-      <c r="B65" s="13">
+    <row r="66" spans="2:27" hidden="1">
+      <c r="B66" s="13">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <v>565883</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E66" s="14">
         <v>545244</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F66" s="14">
         <v>499</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="14">
         <v>56275</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H66" s="14">
         <v>9189</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I66" s="14">
         <v>2982</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J66" s="14">
         <v>77</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K66" s="14">
         <v>1424</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L66" s="14">
         <v>1755</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M66" s="14">
         <v>50796</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N66" s="14">
         <v>3864</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O66" s="14">
         <v>28297</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P66" s="14">
         <v>17361</v>
       </c>
-      <c r="Q65" s="14">
+      <c r="Q66" s="14">
         <v>36010</v>
       </c>
-      <c r="R65" s="14">
+      <c r="R66" s="14">
         <v>2485</v>
       </c>
-      <c r="S65" s="14">
+      <c r="S66" s="14">
         <v>34862</v>
       </c>
-      <c r="T65" s="14"/>
-      <c r="U65" s="14">
+      <c r="T66" s="14"/>
+      <c r="U66" s="14">
         <v>104076</v>
       </c>
-      <c r="V65" s="14">
+      <c r="V66" s="14">
         <v>4584</v>
       </c>
-      <c r="W65" s="14">
+      <c r="W66" s="14">
         <v>3174</v>
       </c>
-      <c r="X65" s="14">
+      <c r="X66" s="14">
         <v>486</v>
       </c>
-      <c r="Y65" s="14">
+      <c r="Y66" s="14">
         <v>10322</v>
       </c>
-      <c r="Z65" s="14">
+      <c r="Z66" s="14">
         <v>17</v>
       </c>
-      <c r="AA65" s="14">
+      <c r="AA66" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="66" spans="2:27" hidden="1">
-      <c r="B66" s="10">
+    <row r="67" spans="2:27" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>565809</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>545128</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>499</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="11">
         <v>56281</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H67" s="11">
         <v>9189</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I67" s="11">
         <v>2982</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J67" s="11">
         <v>77</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K67" s="11">
         <v>1424</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L67" s="11">
         <v>1755</v>
       </c>
-      <c r="M66" s="11">
+      <c r="M67" s="11">
         <v>50794</v>
       </c>
-      <c r="N66" s="11">
+      <c r="N67" s="11">
         <v>3867</v>
       </c>
-      <c r="O66" s="11">
+      <c r="O67" s="11">
         <v>28301</v>
       </c>
-      <c r="P66" s="11">
+      <c r="P67" s="11">
         <v>17361</v>
       </c>
-      <c r="Q66" s="11">
+      <c r="Q67" s="11">
         <v>36010</v>
       </c>
-      <c r="R66" s="11">
+      <c r="R67" s="11">
         <v>2487</v>
       </c>
-      <c r="S66" s="11">
+      <c r="S67" s="11">
         <v>34874</v>
       </c>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11">
+      <c r="T67" s="11"/>
+      <c r="U67" s="11">
         <v>104084</v>
       </c>
-      <c r="V66" s="11">
+      <c r="V67" s="11">
         <v>4585</v>
       </c>
-      <c r="W66" s="11">
+      <c r="W67" s="11">
         <v>3174</v>
       </c>
-      <c r="X66" s="11">
+      <c r="X67" s="11">
         <v>486</v>
       </c>
-      <c r="Y66" s="11">
+      <c r="Y67" s="11">
         <v>10319</v>
       </c>
-      <c r="Z66" s="11">
+      <c r="Z67" s="11">
         <v>17</v>
       </c>
-      <c r="AA66" s="11">
+      <c r="AA67" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="67" spans="2:27" hidden="1">
-      <c r="B67" s="13">
+    <row r="68" spans="2:27" hidden="1">
+      <c r="B68" s="13">
         <v>2020</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <v>564089</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E68" s="14">
         <v>542595</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F68" s="14">
         <v>496</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G68" s="14">
         <v>56248</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H68" s="14">
         <v>9180</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I68" s="14">
         <v>2964</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J68" s="14">
         <v>77</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K68" s="14">
         <v>1424</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L68" s="14">
         <v>1745</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M68" s="14">
         <v>50693</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N68" s="14">
         <v>3869</v>
       </c>
-      <c r="O67" s="14">
+      <c r="O68" s="14">
         <v>28110</v>
       </c>
-      <c r="P67" s="14">
+      <c r="P68" s="14">
         <v>16719</v>
       </c>
-      <c r="Q67" s="14">
+      <c r="Q68" s="14">
         <v>35910</v>
       </c>
-      <c r="R67" s="14">
+      <c r="R68" s="14">
         <v>2467</v>
       </c>
-      <c r="S67" s="14">
+      <c r="S68" s="14">
         <v>34546</v>
       </c>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14">
+      <c r="T68" s="14"/>
+      <c r="U68" s="14">
         <v>103491</v>
       </c>
-      <c r="V67" s="14">
+      <c r="V68" s="14">
         <v>4545</v>
       </c>
-      <c r="W67" s="14">
+      <c r="W68" s="14">
         <v>3124</v>
       </c>
-      <c r="X67" s="14">
+      <c r="X68" s="14">
         <v>480</v>
       </c>
-      <c r="Y67" s="14">
+      <c r="Y68" s="14">
         <v>10285</v>
       </c>
-      <c r="Z67" s="14">
+      <c r="Z68" s="14">
         <v>17</v>
       </c>
-      <c r="AA67" s="14">
+      <c r="AA68" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="68" spans="2:27" hidden="1">
-      <c r="B68" s="18">
+    <row r="69" spans="2:27" hidden="1">
+      <c r="B69" s="18">
         <v>2020</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D69" s="19">
         <v>562170</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E69" s="19">
         <v>539768</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F69" s="19">
         <v>496</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G69" s="19">
         <v>56222</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H69" s="19">
         <v>9165</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I69" s="19">
         <v>2963</v>
       </c>
-      <c r="J68" s="19">
+      <c r="J69" s="19">
         <v>77</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K69" s="19">
         <v>1424</v>
       </c>
-      <c r="L68" s="19">
+      <c r="L69" s="19">
         <v>1747</v>
       </c>
-      <c r="M68" s="19">
+      <c r="M69" s="19">
         <v>50528</v>
       </c>
-      <c r="N68" s="19">
+      <c r="N69" s="19">
         <v>3862</v>
       </c>
-      <c r="O68" s="19">
+      <c r="O69" s="19">
         <v>27916</v>
       </c>
-      <c r="P68" s="19">
+      <c r="P69" s="19">
         <v>16577</v>
       </c>
-      <c r="Q68" s="19">
+      <c r="Q69" s="19">
         <v>35720</v>
       </c>
-      <c r="R68" s="19">
+      <c r="R69" s="19">
         <v>2434</v>
       </c>
-      <c r="S68" s="19">
+      <c r="S69" s="19">
         <v>34311</v>
       </c>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19">
+      <c r="T69" s="19"/>
+      <c r="U69" s="19">
         <v>102764</v>
       </c>
-      <c r="V68" s="19">
+      <c r="V69" s="19">
         <v>4504</v>
       </c>
-      <c r="W68" s="19">
+      <c r="W69" s="19">
         <v>3103</v>
       </c>
-      <c r="X68" s="19">
+      <c r="X69" s="19">
         <v>461</v>
       </c>
-      <c r="Y68" s="19">
+      <c r="Y69" s="19">
         <v>10273</v>
       </c>
-      <c r="Z68" s="19">
+      <c r="Z69" s="19">
         <v>17</v>
       </c>
-      <c r="AA68" s="19">
+      <c r="AA69" s="19">
         <v>663</v>
       </c>
     </row>
-    <row r="69" spans="2:27" hidden="1">
-      <c r="B69" s="13">
+    <row r="70" spans="2:27" hidden="1">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <v>561061</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E70" s="14">
         <v>537813</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F70" s="14">
         <v>497</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="14">
         <v>56256</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H70" s="14">
         <v>9149</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="14">
         <v>2965</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J70" s="14">
         <v>77</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K70" s="14">
         <v>1424</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L70" s="14">
         <v>1747</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M70" s="14">
         <v>50432</v>
       </c>
-      <c r="N69" s="14">
+      <c r="N70" s="14">
         <v>3858</v>
       </c>
-      <c r="O69" s="14">
+      <c r="O70" s="14">
         <v>27818</v>
       </c>
-      <c r="P69" s="14">
+      <c r="P70" s="14">
         <v>16663</v>
       </c>
-      <c r="Q69" s="14">
+      <c r="Q70" s="14">
         <v>35664</v>
       </c>
-      <c r="R69" s="14">
+      <c r="R70" s="14">
         <v>2427</v>
       </c>
-      <c r="S69" s="14">
+      <c r="S70" s="14">
         <v>33984</v>
       </c>
-      <c r="T69" s="14"/>
-      <c r="U69" s="14">
+      <c r="T70" s="14"/>
+      <c r="U70" s="14">
         <v>102021</v>
       </c>
-      <c r="V69" s="14">
+      <c r="V70" s="14">
         <v>4466</v>
       </c>
-      <c r="W69" s="14">
+      <c r="W70" s="14">
         <v>3102</v>
       </c>
-      <c r="X69" s="14">
+      <c r="X70" s="14">
         <v>462</v>
       </c>
-      <c r="Y69" s="14">
+      <c r="Y70" s="14">
         <v>10222</v>
       </c>
-      <c r="Z69" s="14">
+      <c r="Z70" s="14">
         <v>17</v>
       </c>
-      <c r="AA69" s="14">
+      <c r="AA70" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="70" spans="2:27" hidden="1">
-      <c r="B70" s="10">
+    <row r="71" spans="2:27" hidden="1">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>558626</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>535724</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>493</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>55998</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H71" s="11">
         <v>9075</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I71" s="11">
         <v>2960</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J71" s="11">
         <v>77</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K71" s="11">
         <v>1424</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L71" s="11">
         <v>1718</v>
       </c>
-      <c r="M70" s="11">
+      <c r="M71" s="11">
         <v>50135</v>
       </c>
-      <c r="N70" s="11">
+      <c r="N71" s="11">
         <v>3846</v>
       </c>
-      <c r="O70" s="11">
+      <c r="O71" s="11">
         <v>27391</v>
       </c>
-      <c r="P70" s="11">
+      <c r="P71" s="11">
         <v>16776</v>
       </c>
-      <c r="Q70" s="11">
+      <c r="Q71" s="11">
         <v>35622</v>
       </c>
-      <c r="R70" s="11">
+      <c r="R71" s="11">
         <v>2417</v>
       </c>
-      <c r="S70" s="11">
+      <c r="S71" s="11">
         <v>33833</v>
       </c>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11">
+      <c r="T71" s="11"/>
+      <c r="U71" s="11">
         <v>101688</v>
       </c>
-      <c r="V70" s="11">
+      <c r="V71" s="11">
         <v>4382</v>
       </c>
-      <c r="W70" s="11">
+      <c r="W71" s="11">
         <v>3068</v>
       </c>
-      <c r="X70" s="11">
+      <c r="X71" s="11">
         <v>453</v>
       </c>
-      <c r="Y70" s="11">
+      <c r="Y71" s="11">
         <v>10134</v>
       </c>
-      <c r="Z70" s="11">
+      <c r="Z71" s="11">
         <v>17</v>
       </c>
-      <c r="AA70" s="11">
+      <c r="AA71" s="11">
         <v>660</v>
       </c>
     </row>
-    <row r="71" spans="2:27" hidden="1">
-      <c r="B71" s="13">
+    <row r="72" spans="2:27" hidden="1">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <v>556346</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E72" s="14">
         <v>533069</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F72" s="14">
         <v>492</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="14">
         <v>55871</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H72" s="14">
         <v>9008</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I72" s="14">
         <v>2938</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J72" s="14">
         <v>77</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K72" s="14">
         <v>1424</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L72" s="14">
         <v>1711</v>
       </c>
-      <c r="M71" s="14">
+      <c r="M72" s="14">
         <v>49943</v>
       </c>
-      <c r="N71" s="14">
+      <c r="N72" s="14">
         <v>3804</v>
       </c>
-      <c r="O71" s="14">
+      <c r="O72" s="14">
         <v>27062</v>
       </c>
-      <c r="P71" s="14">
+      <c r="P72" s="14">
         <v>16772</v>
       </c>
-      <c r="Q71" s="14">
+      <c r="Q72" s="14">
         <v>35650</v>
       </c>
-      <c r="R71" s="14">
+      <c r="R72" s="14">
         <v>2402</v>
       </c>
-      <c r="S71" s="14">
+      <c r="S72" s="14">
         <v>33575</v>
       </c>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14">
+      <c r="T72" s="14"/>
+      <c r="U72" s="14">
         <v>101067</v>
       </c>
-      <c r="V71" s="14">
+      <c r="V72" s="14">
         <v>4305</v>
       </c>
-      <c r="W71" s="14">
+      <c r="W72" s="14">
         <v>3036</v>
       </c>
-      <c r="X71" s="14">
+      <c r="X72" s="14">
         <v>442</v>
       </c>
-      <c r="Y71" s="14">
+      <c r="Y72" s="14">
         <v>10077</v>
       </c>
-      <c r="Z71" s="14">
+      <c r="Z72" s="14">
         <v>17</v>
       </c>
-      <c r="AA71" s="14">
+      <c r="AA72" s="14">
         <v>658</v>
       </c>
     </row>
-    <row r="72" spans="2:27" hidden="1">
-      <c r="B72" s="10">
+    <row r="73" spans="2:27" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>519860</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>505944</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>449</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <v>49255</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H73" s="11">
         <v>6176</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I73" s="11">
         <v>2186</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J73" s="11">
         <v>73</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K73" s="11">
         <v>1413</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L73" s="11">
         <v>1713</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M73" s="11">
         <v>43268</v>
       </c>
-      <c r="N72" s="11">
+      <c r="N73" s="11">
         <v>3801</v>
       </c>
-      <c r="O72" s="11">
+      <c r="O73" s="11">
         <v>26781</v>
       </c>
-      <c r="P72" s="11">
+      <c r="P73" s="11">
         <v>14771</v>
       </c>
-      <c r="Q72" s="11">
+      <c r="Q73" s="11">
         <v>34056</v>
       </c>
-      <c r="R72" s="11">
+      <c r="R73" s="11">
         <v>2388</v>
       </c>
-      <c r="S72" s="11">
+      <c r="S73" s="11">
         <v>33239</v>
       </c>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11">
+      <c r="T73" s="11"/>
+      <c r="U73" s="11">
         <v>100098</v>
       </c>
-      <c r="V72" s="11">
+      <c r="V73" s="11">
         <v>4230</v>
       </c>
-      <c r="W72" s="11">
+      <c r="W73" s="11">
         <v>2983</v>
       </c>
-      <c r="X72" s="11">
+      <c r="X73" s="11">
         <v>435</v>
       </c>
-      <c r="Y72" s="11">
+      <c r="Y73" s="11">
         <v>10048</v>
       </c>
-      <c r="Z72" s="11">
+      <c r="Z73" s="11">
         <v>17</v>
       </c>
-      <c r="AA72" s="11">
+      <c r="AA73" s="11">
         <v>655</v>
       </c>
     </row>
-    <row r="73" spans="2:27" hidden="1">
-      <c r="B73" s="13">
+    <row r="74" spans="2:27" hidden="1">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <v>517666</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E74" s="14">
         <v>503486</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F74" s="14">
         <v>449</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="14">
         <v>49171</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H74" s="14">
         <v>6156</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="14">
         <v>2183</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J74" s="14">
         <v>73</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K74" s="14">
         <v>1413</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L74" s="14">
         <v>1710</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M74" s="14">
         <v>43104</v>
       </c>
-      <c r="N73" s="14">
+      <c r="N74" s="14">
         <v>3785</v>
       </c>
-      <c r="O73" s="14">
+      <c r="O74" s="14">
         <v>26582</v>
       </c>
-      <c r="P73" s="14">
+      <c r="P74" s="14">
         <v>14832</v>
       </c>
-      <c r="Q73" s="14">
+      <c r="Q74" s="14">
         <v>34205</v>
       </c>
-      <c r="R73" s="14">
+      <c r="R74" s="14">
         <v>2384</v>
       </c>
-      <c r="S73" s="14">
+      <c r="S74" s="14">
         <v>33006</v>
       </c>
-      <c r="T73" s="14">
+      <c r="T74" s="14">
         <v>0</v>
       </c>
-      <c r="U73" s="14">
+      <c r="U74" s="14">
         <v>99490</v>
       </c>
-      <c r="V73" s="14">
+      <c r="V74" s="14">
         <v>4173</v>
       </c>
-      <c r="W73" s="14">
+      <c r="W74" s="14">
         <v>2926</v>
       </c>
-      <c r="X73" s="14">
+      <c r="X74" s="14">
         <v>420</v>
       </c>
-      <c r="Y73" s="14">
+      <c r="Y74" s="14">
         <v>10026</v>
       </c>
-      <c r="Z73" s="14">
+      <c r="Z74" s="14">
         <v>17</v>
       </c>
-      <c r="AA73" s="14">
+      <c r="AA74" s="14">
         <v>653</v>
       </c>
     </row>
-    <row r="74" spans="2:27" hidden="1">
-      <c r="B74" s="10">
+    <row r="75" spans="2:27" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>514393</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>498050</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>446</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>49300</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H75" s="11">
         <v>6708</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I75" s="11">
         <v>2319</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J75" s="11">
         <v>74</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K75" s="11">
         <v>1417</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L75" s="11">
         <v>1686</v>
       </c>
-      <c r="M74" s="11">
+      <c r="M75" s="11">
         <v>43264</v>
       </c>
-      <c r="N74" s="11">
+      <c r="N75" s="11">
         <v>3716</v>
       </c>
-      <c r="O74" s="11">
+      <c r="O75" s="11">
         <v>25831</v>
       </c>
-      <c r="P74" s="11">
+      <c r="P75" s="11">
         <v>14426</v>
       </c>
-      <c r="Q74" s="11">
+      <c r="Q75" s="11">
         <v>33360</v>
       </c>
-      <c r="R74" s="11">
+      <c r="R75" s="11">
         <v>2308</v>
       </c>
-      <c r="S74" s="11">
+      <c r="S75" s="11">
         <v>31727</v>
       </c>
-      <c r="T74" s="11">
+      <c r="T75" s="11">
         <v>1</v>
       </c>
-      <c r="U74" s="11">
+      <c r="U75" s="11">
         <v>98049</v>
       </c>
-      <c r="V74" s="11">
+      <c r="V75" s="11">
         <v>4070</v>
       </c>
-      <c r="W74" s="11">
+      <c r="W75" s="11">
         <v>2777</v>
       </c>
-      <c r="X74" s="11">
+      <c r="X75" s="11">
         <v>374</v>
       </c>
-      <c r="Y74" s="11">
+      <c r="Y75" s="11">
         <v>9942</v>
       </c>
-      <c r="Z74" s="11">
+      <c r="Z75" s="11">
         <v>17</v>
       </c>
-      <c r="AA74" s="11">
+      <c r="AA75" s="11">
         <v>647</v>
       </c>
     </row>
-    <row r="75" spans="2:27" hidden="1">
-      <c r="B75" s="13">
+    <row r="76" spans="2:27" hidden="1">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <v>512802</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E76" s="14">
         <v>497796</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F76" s="14">
         <v>444</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <v>49053</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H76" s="14">
         <v>6156</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="14">
         <v>2222</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J76" s="14">
         <v>73</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K76" s="14">
         <v>1413</v>
       </c>
-      <c r="L75" s="14">
+      <c r="L76" s="14">
         <v>1694</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M76" s="14">
         <v>42573</v>
       </c>
-      <c r="N75" s="14">
+      <c r="N76" s="14">
         <v>3733</v>
       </c>
-      <c r="O75" s="14">
+      <c r="O76" s="14">
         <v>25944</v>
       </c>
-      <c r="P75" s="14">
+      <c r="P76" s="14">
         <v>14578</v>
       </c>
-      <c r="Q75" s="14">
+      <c r="Q76" s="14">
         <v>33417</v>
       </c>
-      <c r="R75" s="14">
+      <c r="R76" s="14">
         <v>2333</v>
       </c>
-      <c r="S75" s="14">
+      <c r="S76" s="14">
         <v>32236</v>
       </c>
-      <c r="T75" s="14">
+      <c r="T76" s="14">
         <v>0</v>
       </c>
-      <c r="U75" s="14">
+      <c r="U76" s="14">
         <v>98138</v>
       </c>
-      <c r="V75" s="14">
+      <c r="V76" s="14">
         <v>4072</v>
       </c>
-      <c r="W75" s="14">
+      <c r="W76" s="14">
         <v>2785</v>
       </c>
-      <c r="X75" s="14">
+      <c r="X76" s="14">
         <v>376</v>
       </c>
-      <c r="Y75" s="14">
+      <c r="Y76" s="14">
         <v>9919</v>
       </c>
-      <c r="Z75" s="14">
+      <c r="Z76" s="14">
         <v>17</v>
       </c>
-      <c r="AA75" s="14">
+      <c r="AA76" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="76" spans="2:27" hidden="1">
-      <c r="B76" s="10">
+    <row r="77" spans="2:27" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>506850</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>499239</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>454</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>48604</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H77" s="11">
         <v>7085</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I77" s="11">
         <v>2531</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J77" s="11">
         <v>78</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K77" s="11">
         <v>239</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L77" s="11">
         <v>2615</v>
       </c>
-      <c r="M76" s="11">
+      <c r="M77" s="11">
         <v>39728</v>
       </c>
-      <c r="N76" s="11">
+      <c r="N77" s="11">
         <v>4268</v>
       </c>
-      <c r="O76" s="11">
+      <c r="O77" s="11">
         <v>28174</v>
       </c>
-      <c r="P76" s="11">
+      <c r="P77" s="11">
         <v>16305</v>
       </c>
-      <c r="Q76" s="11">
+      <c r="Q77" s="11">
         <v>35097</v>
       </c>
-      <c r="R76" s="11">
+      <c r="R77" s="11">
         <v>2307</v>
       </c>
-      <c r="S76" s="11">
+      <c r="S77" s="11">
         <v>31892</v>
       </c>
-      <c r="T76" s="11">
+      <c r="T77" s="11">
         <v>1</v>
       </c>
-      <c r="U76" s="11">
+      <c r="U77" s="11">
         <v>98003</v>
       </c>
-      <c r="V76" s="11">
+      <c r="V77" s="11">
         <v>3983</v>
       </c>
-      <c r="W76" s="11">
+      <c r="W77" s="11">
         <v>2752</v>
       </c>
-      <c r="X76" s="11">
+      <c r="X77" s="11">
         <v>374</v>
       </c>
-      <c r="Y76" s="11">
+      <c r="Y77" s="11">
         <v>11506</v>
       </c>
-      <c r="Z76" s="11">
+      <c r="Z77" s="11">
         <v>12</v>
       </c>
-      <c r="AA76" s="11">
+      <c r="AA77" s="11">
         <v>810</v>
       </c>
     </row>
-    <row r="77" spans="2:27" hidden="1">
-      <c r="B77" s="13">
+    <row r="78" spans="2:27" hidden="1">
+      <c r="B78" s="13">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <v>504046</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E78" s="14">
         <v>496323</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F78" s="14">
         <v>451</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="14">
         <v>48409</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H78" s="14">
         <v>7032</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I78" s="14">
         <v>2531</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J78" s="14">
         <v>78</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K78" s="14">
         <v>239</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L78" s="14">
         <v>2596</v>
       </c>
-      <c r="M77" s="14">
+      <c r="M78" s="14">
         <v>39439</v>
       </c>
-      <c r="N77" s="14">
+      <c r="N78" s="14">
         <v>4234</v>
       </c>
-      <c r="O77" s="14">
+      <c r="O78" s="14">
         <v>27848</v>
       </c>
-      <c r="P77" s="14">
+      <c r="P78" s="14">
         <v>16180</v>
       </c>
-      <c r="Q77" s="14">
+      <c r="Q78" s="14">
         <v>34956</v>
       </c>
-      <c r="R77" s="14">
+      <c r="R78" s="14">
         <v>2284</v>
       </c>
-      <c r="S77" s="14">
+      <c r="S78" s="14">
         <v>31444</v>
       </c>
-      <c r="T77" s="14">
+      <c r="T78" s="14">
         <v>0</v>
       </c>
-      <c r="U77" s="14">
+      <c r="U78" s="14">
         <v>97190</v>
       </c>
-      <c r="V77" s="14">
+      <c r="V78" s="14">
         <v>3921</v>
       </c>
-      <c r="W77" s="14">
+      <c r="W78" s="14">
         <v>2705</v>
       </c>
-      <c r="X77" s="14">
+      <c r="X78" s="14">
         <v>364</v>
       </c>
-      <c r="Y77" s="14">
+      <c r="Y78" s="14">
         <v>11482</v>
       </c>
-      <c r="Z77" s="14">
+      <c r="Z78" s="14">
         <v>12</v>
       </c>
-      <c r="AA77" s="14">
+      <c r="AA78" s="14">
         <v>807</v>
       </c>
     </row>
-    <row r="78" spans="2:27" hidden="1">
-      <c r="B78" s="10">
+    <row r="79" spans="2:27" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>501424</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>493291</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>452</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>48079</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H79" s="11">
         <v>7029</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I79" s="11">
         <v>2509</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J79" s="11">
         <v>77</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K79" s="11">
         <v>239</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L79" s="11">
         <v>2577</v>
       </c>
-      <c r="M78" s="11">
+      <c r="M79" s="11">
         <v>39178</v>
       </c>
-      <c r="N78" s="11">
+      <c r="N79" s="11">
         <v>4173</v>
       </c>
-      <c r="O78" s="11">
+      <c r="O79" s="11">
         <v>27415</v>
       </c>
-      <c r="P78" s="11">
+      <c r="P79" s="11">
         <v>15815</v>
       </c>
-      <c r="Q78" s="11">
+      <c r="Q79" s="11">
         <v>34582</v>
       </c>
-      <c r="R78" s="11">
+      <c r="R79" s="11">
         <v>2266</v>
       </c>
-      <c r="S78" s="11">
+      <c r="S79" s="11">
         <v>30934</v>
       </c>
-      <c r="T78" s="11">
+      <c r="T79" s="11">
         <v>1</v>
       </c>
-      <c r="U78" s="11">
+      <c r="U79" s="11">
         <v>96704</v>
       </c>
-      <c r="V78" s="11">
+      <c r="V79" s="11">
         <v>3869</v>
       </c>
-      <c r="W78" s="11">
+      <c r="W79" s="11">
         <v>2699</v>
       </c>
-      <c r="X78" s="11">
+      <c r="X79" s="11">
         <v>360</v>
       </c>
-      <c r="Y78" s="11">
+      <c r="Y79" s="11">
         <v>11467</v>
       </c>
-      <c r="Z78" s="11">
+      <c r="Z79" s="11">
         <v>12</v>
       </c>
-      <c r="AA78" s="11">
+      <c r="AA79" s="11">
         <v>808</v>
       </c>
     </row>
-    <row r="79" spans="2:27" hidden="1">
-      <c r="B79" s="13">
+    <row r="80" spans="2:27" hidden="1">
+      <c r="B80" s="13">
         <v>2019</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <v>499221</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E80" s="14">
         <v>490327</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F80" s="14">
         <v>454</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="14">
         <v>47999</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H80" s="14">
         <v>7029</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I80" s="14">
         <v>2518</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J80" s="14">
         <v>77</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K80" s="14">
         <v>239</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L80" s="14">
         <v>2576</v>
       </c>
-      <c r="M79" s="14">
+      <c r="M80" s="14">
         <v>38838</v>
       </c>
-      <c r="N79" s="14">
+      <c r="N80" s="14">
         <v>4155</v>
       </c>
-      <c r="O79" s="14">
+      <c r="O80" s="14">
         <v>27148</v>
       </c>
-      <c r="P79" s="14">
+      <c r="P80" s="14">
         <v>15484</v>
       </c>
-      <c r="Q79" s="14">
+      <c r="Q80" s="14">
         <v>34221</v>
       </c>
-      <c r="R79" s="14">
+      <c r="R80" s="14">
         <v>2252</v>
       </c>
-      <c r="S79" s="14">
+      <c r="S80" s="14">
         <v>30634</v>
       </c>
-      <c r="T79" s="14">
+      <c r="T80" s="14">
         <v>1</v>
       </c>
-      <c r="U79" s="14">
+      <c r="U80" s="14">
         <v>96127</v>
       </c>
-      <c r="V79" s="14">
+      <c r="V80" s="14">
         <v>3815</v>
       </c>
-      <c r="W79" s="14">
+      <c r="W80" s="14">
         <v>2658</v>
       </c>
-      <c r="X79" s="14">
+      <c r="X80" s="14">
         <v>352</v>
       </c>
-      <c r="Y79" s="14">
+      <c r="Y80" s="14">
         <v>11454</v>
       </c>
-      <c r="Z79" s="14">
+      <c r="Z80" s="14">
         <v>12</v>
       </c>
-      <c r="AA79" s="14">
+      <c r="AA80" s="14">
         <v>810</v>
       </c>
     </row>
-    <row r="80" spans="2:27" hidden="1">
-      <c r="B80" s="18">
+    <row r="81" spans="2:27" hidden="1">
+      <c r="B81" s="18">
         <v>2019</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C81" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D81" s="19">
         <v>497141</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E81" s="19">
         <v>488120</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F81" s="19">
         <v>452</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G81" s="19">
         <v>47859</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H81" s="19">
         <v>6968</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I81" s="19">
         <v>2504</v>
       </c>
-      <c r="J80" s="19">
+      <c r="J81" s="19">
         <v>77</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K81" s="19">
         <v>239</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L81" s="19">
         <v>2565</v>
       </c>
-      <c r="M80" s="19">
+      <c r="M81" s="19">
         <v>38626</v>
       </c>
-      <c r="N80" s="19">
+      <c r="N81" s="19">
         <v>4150</v>
       </c>
-      <c r="O80" s="19">
+      <c r="O81" s="19">
         <v>26845</v>
       </c>
-      <c r="P80" s="19">
+      <c r="P81" s="19">
         <v>15304</v>
       </c>
-      <c r="Q80" s="19">
+      <c r="Q81" s="19">
         <v>34009</v>
       </c>
-      <c r="R80" s="19">
+      <c r="R81" s="19">
         <v>2246</v>
       </c>
-      <c r="S80" s="19">
+      <c r="S81" s="19">
         <v>30488</v>
       </c>
-      <c r="T80" s="19">
+      <c r="T81" s="19">
         <v>1</v>
       </c>
-      <c r="U80" s="19">
+      <c r="U81" s="19">
         <v>95504</v>
       </c>
-      <c r="V80" s="19">
+      <c r="V81" s="19">
         <v>3778</v>
       </c>
-      <c r="W80" s="19">
+      <c r="W81" s="19">
         <v>2638</v>
       </c>
-      <c r="X80" s="19">
+      <c r="X81" s="19">
         <v>344</v>
       </c>
-      <c r="Y80" s="19">
+      <c r="Y81" s="19">
         <v>11417</v>
       </c>
-      <c r="Z80" s="19">
+      <c r="Z81" s="19">
         <v>12</v>
       </c>
-      <c r="AA80" s="19">
+      <c r="AA81" s="19">
         <v>804</v>
       </c>
     </row>
-    <row r="81" spans="2:27" hidden="1">
-      <c r="B81" s="13">
+    <row r="82" spans="2:27" hidden="1">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <v>496057</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E82" s="14">
         <v>486335</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F82" s="14">
         <v>464</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="14">
         <v>47780</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H82" s="14">
         <v>6994</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I82" s="14">
         <v>2508</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J82" s="14">
         <v>78</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K82" s="14">
         <v>239</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L82" s="14">
         <v>2565</v>
       </c>
-      <c r="M81" s="14">
+      <c r="M82" s="14">
         <v>38415</v>
       </c>
-      <c r="N81" s="14">
+      <c r="N82" s="14">
         <v>4053</v>
       </c>
-      <c r="O81" s="14">
+      <c r="O82" s="14">
         <v>26683</v>
       </c>
-      <c r="P81" s="14">
+      <c r="P82" s="14">
         <v>15554</v>
       </c>
-      <c r="Q81" s="14">
+      <c r="Q82" s="14">
         <v>34018</v>
       </c>
-      <c r="R81" s="14">
+      <c r="R82" s="14">
         <v>2235</v>
       </c>
-      <c r="S81" s="14">
+      <c r="S82" s="14">
         <v>30111</v>
       </c>
-      <c r="T81" s="14">
+      <c r="T82" s="14">
         <v>1</v>
       </c>
-      <c r="U81" s="14">
+      <c r="U82" s="14">
         <v>94864</v>
       </c>
-      <c r="V81" s="14">
+      <c r="V82" s="14">
         <v>3723</v>
       </c>
-      <c r="W81" s="14">
+      <c r="W82" s="14">
         <v>2618</v>
       </c>
-      <c r="X81" s="14">
+      <c r="X82" s="14">
         <v>329</v>
       </c>
-      <c r="Y81" s="14">
+      <c r="Y82" s="14">
         <v>11369</v>
       </c>
-      <c r="Z81" s="14">
+      <c r="Z82" s="14">
         <v>12</v>
       </c>
-      <c r="AA81" s="14">
+      <c r="AA82" s="14">
         <v>804</v>
       </c>
     </row>
-    <row r="82" spans="2:27" hidden="1">
-      <c r="B82" s="10">
+    <row r="83" spans="2:27" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>493248</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>484343</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>467</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>47445</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H83" s="11">
         <v>6904</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I83" s="11">
         <v>2451</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J83" s="11">
         <v>78</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K83" s="11">
         <v>239</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L83" s="11">
         <v>2547</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M83" s="11">
         <v>38053</v>
       </c>
-      <c r="N82" s="11">
+      <c r="N83" s="11">
         <v>4033</v>
       </c>
-      <c r="O82" s="11">
+      <c r="O83" s="11">
         <v>26245</v>
       </c>
-      <c r="P82" s="11">
+      <c r="P83" s="11">
         <v>15368</v>
       </c>
-      <c r="Q82" s="11">
+      <c r="Q83" s="11">
         <v>34089</v>
       </c>
-      <c r="R82" s="11">
+      <c r="R83" s="11">
         <v>2228</v>
       </c>
-      <c r="S82" s="11">
+      <c r="S83" s="11">
         <v>29848</v>
       </c>
-      <c r="T82" s="11">
+      <c r="T83" s="11">
         <v>1</v>
       </c>
-      <c r="U82" s="11">
+      <c r="U83" s="11">
         <v>94351</v>
       </c>
-      <c r="V82" s="11">
+      <c r="V83" s="11">
         <v>3704</v>
       </c>
-      <c r="W82" s="11">
+      <c r="W83" s="11">
         <v>2563</v>
       </c>
-      <c r="X82" s="11">
+      <c r="X83" s="11">
         <v>326</v>
       </c>
-      <c r="Y82" s="11">
+      <c r="Y83" s="11">
         <v>11268</v>
       </c>
-      <c r="Z82" s="11">
+      <c r="Z83" s="11">
         <v>12</v>
       </c>
-      <c r="AA82" s="11">
+      <c r="AA83" s="11">
         <v>798</v>
       </c>
     </row>
-    <row r="83" spans="2:27" hidden="1">
-      <c r="B83" s="13">
+    <row r="84" spans="2:27" hidden="1">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <v>489853</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E84" s="14">
         <v>481195</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F84" s="14">
         <v>466</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="14">
         <v>47019</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H84" s="14">
         <v>6820</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I84" s="14">
         <v>2443</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J84" s="14">
         <v>78</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K84" s="14">
         <v>239</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L84" s="14">
         <v>2529</v>
       </c>
-      <c r="M83" s="14">
+      <c r="M84" s="14">
         <v>37565</v>
       </c>
-      <c r="N83" s="14">
+      <c r="N84" s="14">
         <v>3997</v>
       </c>
-      <c r="O83" s="14">
+      <c r="O84" s="14">
         <v>25847</v>
       </c>
-      <c r="P83" s="14">
+      <c r="P84" s="14">
         <v>15208</v>
       </c>
-      <c r="Q83" s="14">
+      <c r="Q84" s="14">
         <v>33793</v>
       </c>
-      <c r="R83" s="14">
+      <c r="R84" s="14">
         <v>2228</v>
       </c>
-      <c r="S83" s="14">
+      <c r="S84" s="14">
         <v>29565</v>
       </c>
-      <c r="T83" s="14">
+      <c r="T84" s="14">
         <v>1</v>
       </c>
-      <c r="U83" s="14">
+      <c r="U84" s="14">
         <v>93792</v>
       </c>
-      <c r="V83" s="14">
+      <c r="V84" s="14">
         <v>3636</v>
       </c>
-      <c r="W83" s="14">
+      <c r="W84" s="14">
         <v>2514</v>
       </c>
-      <c r="X83" s="14">
+      <c r="X84" s="14">
         <v>326</v>
       </c>
-      <c r="Y83" s="14">
+      <c r="Y84" s="14">
         <v>11160</v>
       </c>
-      <c r="Z83" s="14">
+      <c r="Z84" s="14">
         <v>12</v>
       </c>
-      <c r="AA83" s="14">
+      <c r="AA84" s="14">
         <v>796</v>
       </c>
     </row>
-    <row r="84" spans="2:27" hidden="1">
-      <c r="B84" s="10">
+    <row r="85" spans="2:27" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>486879</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>478202</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>463</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="11">
         <v>46939</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H85" s="11">
         <v>6767</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I85" s="11">
         <v>2420</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J85" s="11">
         <v>78</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K85" s="11">
         <v>239</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L85" s="11">
         <v>2504</v>
       </c>
-      <c r="M84" s="11">
+      <c r="M85" s="11">
         <v>37159</v>
       </c>
-      <c r="N84" s="11">
+      <c r="N85" s="11">
         <v>3981</v>
       </c>
-      <c r="O84" s="11">
+      <c r="O85" s="11">
         <v>25505</v>
       </c>
-      <c r="P84" s="11">
+      <c r="P85" s="11">
         <v>15063</v>
       </c>
-      <c r="Q84" s="11">
+      <c r="Q85" s="11">
         <v>33501</v>
       </c>
-      <c r="R84" s="11">
+      <c r="R85" s="11">
         <v>2207</v>
       </c>
-      <c r="S84" s="11">
+      <c r="S85" s="11">
         <v>29169</v>
       </c>
-      <c r="T84" s="11">
+      <c r="T85" s="11">
         <v>1</v>
       </c>
-      <c r="U84" s="11">
+      <c r="U85" s="11">
         <v>92716</v>
       </c>
-      <c r="V84" s="11">
+      <c r="V85" s="11">
         <v>3571</v>
       </c>
-      <c r="W84" s="11">
+      <c r="W85" s="11">
         <v>2389</v>
       </c>
-      <c r="X84" s="11">
+      <c r="X85" s="11">
         <v>323</v>
       </c>
-      <c r="Y84" s="11">
+      <c r="Y85" s="11">
         <v>11118</v>
       </c>
-      <c r="Z84" s="11">
+      <c r="Z85" s="11">
         <v>12</v>
       </c>
-      <c r="AA84" s="11">
+      <c r="AA85" s="11">
         <v>793</v>
       </c>
     </row>
-    <row r="85" spans="2:27" hidden="1">
-      <c r="B85" s="13">
+    <row r="86" spans="2:27" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <v>483912</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E86" s="14">
         <v>475735</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F86" s="14">
         <v>464</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="14">
         <v>46660</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H86" s="14">
         <v>6663</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I86" s="14">
         <v>2389</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J86" s="14">
         <v>78</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K86" s="14">
         <v>239</v>
       </c>
-      <c r="L85" s="14">
+      <c r="L86" s="14">
         <v>2507</v>
       </c>
-      <c r="M85" s="14">
+      <c r="M86" s="14">
         <v>36747</v>
       </c>
-      <c r="N85" s="14">
+      <c r="N86" s="14">
         <v>3969</v>
       </c>
-      <c r="O85" s="14">
+      <c r="O86" s="14">
         <v>25211</v>
       </c>
-      <c r="P85" s="14">
+      <c r="P86" s="14">
         <v>14925</v>
       </c>
-      <c r="Q85" s="14">
+      <c r="Q86" s="14">
         <v>33302</v>
       </c>
-      <c r="R85" s="14">
+      <c r="R86" s="14">
         <v>2187</v>
       </c>
-      <c r="S85" s="14">
+      <c r="S86" s="14">
         <v>28883</v>
       </c>
-      <c r="T85" s="14">
+      <c r="T86" s="14">
         <v>1</v>
       </c>
-      <c r="U85" s="14">
+      <c r="U86" s="14">
         <v>91723</v>
       </c>
-      <c r="V85" s="14">
+      <c r="V86" s="14">
         <v>3516</v>
       </c>
-      <c r="W85" s="14">
+      <c r="W86" s="14">
         <v>2314</v>
       </c>
-      <c r="X85" s="14">
+      <c r="X86" s="14">
         <v>311</v>
       </c>
-      <c r="Y85" s="14">
+      <c r="Y86" s="14">
         <v>11021</v>
       </c>
-      <c r="Z85" s="14">
+      <c r="Z86" s="14">
         <v>12</v>
       </c>
-      <c r="AA85" s="14">
+      <c r="AA86" s="14">
         <v>787</v>
       </c>
     </row>
-    <row r="86" spans="2:27" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:27" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>480495</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>472364</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>464</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="11">
         <v>46648</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H87" s="11">
         <v>6624</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I87" s="11">
         <v>2371</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J87" s="11">
         <v>78</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K87" s="11">
         <v>239</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L87" s="11">
         <v>2485</v>
       </c>
-      <c r="M86" s="11">
+      <c r="M87" s="11">
         <v>36570</v>
       </c>
-      <c r="N86" s="11">
+      <c r="N87" s="11">
         <v>3920</v>
       </c>
-      <c r="O86" s="11">
+      <c r="O87" s="11">
         <v>24802</v>
       </c>
-      <c r="P86" s="11">
+      <c r="P87" s="11">
         <v>14924</v>
       </c>
-      <c r="Q86" s="11">
+      <c r="Q87" s="11">
         <v>33187</v>
       </c>
-      <c r="R86" s="11">
+      <c r="R87" s="11">
         <v>2173</v>
       </c>
-      <c r="S86" s="11">
+      <c r="S87" s="11">
         <v>28394</v>
       </c>
-      <c r="T86" s="11">
+      <c r="T87" s="11">
         <v>1</v>
       </c>
-      <c r="U86" s="11">
+      <c r="U87" s="11">
         <v>90924</v>
       </c>
-      <c r="V86" s="11">
+      <c r="V87" s="11">
         <v>3442</v>
       </c>
-      <c r="W86" s="11">
+      <c r="W87" s="11">
         <v>2249</v>
       </c>
-      <c r="X86" s="11">
+      <c r="X87" s="11">
         <v>304</v>
       </c>
-      <c r="Y86" s="11">
+      <c r="Y87" s="11">
         <v>10962</v>
       </c>
-      <c r="Z86" s="11">
+      <c r="Z87" s="11">
         <v>12</v>
       </c>
-      <c r="AA86" s="11">
+      <c r="AA87" s="11">
         <v>784</v>
       </c>
     </row>
-    <row r="87" spans="2:27" hidden="1">
-      <c r="B87" s="13">
+    <row r="88" spans="2:27" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <v>477880</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E88" s="14">
         <v>469513</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F88" s="14">
         <v>458</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="14">
         <v>46538</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H88" s="14">
         <v>6550</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I88" s="14">
         <v>2387</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J88" s="14">
         <v>78</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K88" s="14">
         <v>237</v>
       </c>
-      <c r="L87" s="14">
+      <c r="L88" s="14">
         <v>2479</v>
       </c>
-      <c r="M87" s="14">
+      <c r="M88" s="14">
         <v>36256</v>
       </c>
-      <c r="N87" s="14">
+      <c r="N88" s="14">
         <v>3901</v>
       </c>
-      <c r="O87" s="14">
+      <c r="O88" s="14">
         <v>24520</v>
       </c>
-      <c r="P87" s="14">
+      <c r="P88" s="14">
         <v>14804</v>
       </c>
-      <c r="Q87" s="14">
+      <c r="Q88" s="14">
         <v>33150</v>
       </c>
-      <c r="R87" s="14">
+      <c r="R88" s="14">
         <v>2178</v>
       </c>
-      <c r="S87" s="14">
+      <c r="S88" s="14">
         <v>27975</v>
       </c>
-      <c r="T87" s="14">
+      <c r="T88" s="14">
         <v>0</v>
       </c>
-      <c r="U87" s="14">
+      <c r="U88" s="14">
         <v>89534</v>
       </c>
-      <c r="V87" s="14">
+      <c r="V88" s="14">
         <v>3365</v>
       </c>
-      <c r="W87" s="14">
+      <c r="W88" s="14">
         <v>2210</v>
       </c>
-      <c r="X87" s="14">
+      <c r="X88" s="14">
         <v>299</v>
       </c>
-      <c r="Y87" s="14">
+      <c r="Y88" s="14">
         <v>10862</v>
       </c>
-      <c r="Z87" s="14">
+      <c r="Z88" s="14">
         <v>12</v>
       </c>
-      <c r="AA87" s="14">
+      <c r="AA88" s="14">
         <v>783</v>
       </c>
     </row>
-    <row r="88" spans="2:27" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:27" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>476241</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>467827</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>459</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="11">
         <v>46438</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H89" s="11">
         <v>6498</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I89" s="11">
         <v>2366</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J89" s="11">
         <v>78</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K89" s="11">
         <v>237</v>
       </c>
-      <c r="L88" s="11">
+      <c r="L89" s="11">
         <v>2474</v>
       </c>
-      <c r="M88" s="11">
+      <c r="M89" s="11">
         <v>35832</v>
       </c>
-      <c r="N88" s="11">
+      <c r="N89" s="11">
         <v>3883</v>
       </c>
-      <c r="O88" s="11">
+      <c r="O89" s="11">
         <v>24299</v>
       </c>
-      <c r="P88" s="11">
+      <c r="P89" s="11">
         <v>14847</v>
       </c>
-      <c r="Q88" s="11">
+      <c r="Q89" s="11">
         <v>33272</v>
       </c>
-      <c r="R88" s="11">
+      <c r="R89" s="11">
         <v>2165</v>
       </c>
-      <c r="S88" s="11">
+      <c r="S89" s="11">
         <v>27577</v>
       </c>
-      <c r="T88" s="11">
+      <c r="T89" s="11">
         <v>1</v>
       </c>
-      <c r="U88" s="11">
+      <c r="U89" s="11">
         <v>88473</v>
       </c>
-      <c r="V88" s="11">
+      <c r="V89" s="11">
         <v>3325</v>
       </c>
-      <c r="W88" s="11">
+      <c r="W89" s="11">
         <v>2133</v>
       </c>
-      <c r="X88" s="11">
+      <c r="X89" s="11">
         <v>301</v>
       </c>
-      <c r="Y88" s="11">
+      <c r="Y89" s="11">
         <v>10800</v>
       </c>
-      <c r="Z88" s="11">
+      <c r="Z89" s="11">
         <v>12</v>
       </c>
-      <c r="AA88" s="11">
+      <c r="AA89" s="11">
         <v>786</v>
       </c>
     </row>
-    <row r="89" spans="2:27" hidden="1">
-      <c r="B89" s="13">
+    <row r="90" spans="2:27" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <v>472271</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E90" s="14">
         <v>463807</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F90" s="14">
         <v>455</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="14">
         <v>46120</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H90" s="14">
         <v>6441</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I90" s="14">
         <v>2324</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J90" s="14">
         <v>77</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K90" s="14">
         <v>237</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L90" s="14">
         <v>2458</v>
       </c>
-      <c r="M89" s="14">
+      <c r="M90" s="14">
         <v>35484</v>
       </c>
-      <c r="N89" s="14">
+      <c r="N90" s="14">
         <v>3859</v>
       </c>
-      <c r="O89" s="14">
+      <c r="O90" s="14">
         <v>24075</v>
       </c>
-      <c r="P89" s="14">
+      <c r="P90" s="14">
         <v>14872</v>
       </c>
-      <c r="Q89" s="14">
+      <c r="Q90" s="14">
         <v>33210</v>
       </c>
-      <c r="R89" s="14">
+      <c r="R90" s="14">
         <v>2154</v>
       </c>
-      <c r="S89" s="14">
+      <c r="S90" s="14">
         <v>27204</v>
       </c>
-      <c r="T89" s="14">
+      <c r="T90" s="14">
         <v>1</v>
       </c>
-      <c r="U89" s="14">
+      <c r="U90" s="14">
         <v>86985</v>
       </c>
-      <c r="V89" s="14">
+      <c r="V90" s="14">
         <v>3231</v>
       </c>
-      <c r="W89" s="14">
+      <c r="W90" s="14">
         <v>2040</v>
       </c>
-      <c r="X89" s="14">
+      <c r="X90" s="14">
         <v>294</v>
       </c>
-      <c r="Y89" s="14">
+      <c r="Y90" s="14">
         <v>10741</v>
       </c>
-      <c r="Z89" s="14">
+      <c r="Z90" s="14">
         <v>12</v>
       </c>
-      <c r="AA89" s="14">
+      <c r="AA90" s="14">
         <v>784</v>
       </c>
     </row>
-    <row r="90" spans="2:27" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:27" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>469020</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E91" s="11">
         <v>460731</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>454</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G91" s="11">
         <v>45917</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H91" s="11">
         <v>6371</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I91" s="11">
         <v>2319</v>
       </c>
-      <c r="J90" s="11">
+      <c r="J91" s="11">
         <v>77</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K91" s="11">
         <v>237</v>
       </c>
-      <c r="L90" s="11">
+      <c r="L91" s="11">
         <v>2444</v>
       </c>
-      <c r="M90" s="11">
+      <c r="M91" s="11">
         <v>35184</v>
       </c>
-      <c r="N90" s="11">
+      <c r="N91" s="11">
         <v>3843</v>
       </c>
-      <c r="O90" s="11">
+      <c r="O91" s="11">
         <v>23647</v>
       </c>
-      <c r="P90" s="11">
+      <c r="P91" s="11">
         <v>14554</v>
       </c>
-      <c r="Q90" s="11">
+      <c r="Q91" s="11">
         <v>33107</v>
       </c>
-      <c r="R90" s="11">
+      <c r="R91" s="11">
         <v>2146</v>
       </c>
-      <c r="S90" s="11">
+      <c r="S91" s="11">
         <v>26742</v>
       </c>
-      <c r="T90" s="11">
+      <c r="T91" s="11">
         <v>1</v>
       </c>
-      <c r="U90" s="11">
+      <c r="U91" s="11">
         <v>86342</v>
       </c>
-      <c r="V90" s="11">
+      <c r="V91" s="11">
         <v>3169</v>
       </c>
-      <c r="W90" s="11">
+      <c r="W91" s="11">
         <v>2018</v>
       </c>
-      <c r="X90" s="11">
+      <c r="X91" s="11">
         <v>288</v>
       </c>
-      <c r="Y90" s="11">
+      <c r="Y91" s="11">
         <v>10741</v>
       </c>
-      <c r="Z90" s="11">
+      <c r="Z91" s="11">
         <v>12</v>
       </c>
-      <c r="AA90" s="11">
+      <c r="AA91" s="11">
         <v>781</v>
       </c>
     </row>
-    <row r="91" spans="2:27" hidden="1">
-      <c r="B91" s="13">
+    <row r="92" spans="2:27" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D92" s="14">
         <v>466319</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E92" s="14">
         <v>457242</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F92" s="14">
         <v>451</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G92" s="14">
         <v>45640</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H92" s="14">
         <v>6287</v>
       </c>
-      <c r="I91" s="14">
+      <c r="I92" s="14">
         <v>2262</v>
       </c>
-      <c r="J91" s="14">
+      <c r="J92" s="14">
         <v>77</v>
       </c>
-      <c r="K91" s="14">
+      <c r="K92" s="14">
         <v>237</v>
       </c>
-      <c r="L91" s="14">
+      <c r="L92" s="14">
         <v>2424</v>
       </c>
-      <c r="M91" s="14">
+      <c r="M92" s="14">
         <v>34703</v>
       </c>
-      <c r="N91" s="14">
+      <c r="N92" s="14">
         <v>3824</v>
       </c>
-      <c r="O91" s="14">
+      <c r="O92" s="14">
         <v>23309</v>
       </c>
-      <c r="P91" s="14">
+      <c r="P92" s="14">
         <v>14393</v>
       </c>
-      <c r="Q91" s="14">
+      <c r="Q92" s="14">
         <v>32986</v>
       </c>
-      <c r="R91" s="14">
+      <c r="R92" s="14">
         <v>2120</v>
       </c>
-      <c r="S91" s="14">
+      <c r="S92" s="14">
         <v>26331</v>
       </c>
-      <c r="T91" s="14">
+      <c r="T92" s="14">
         <v>1</v>
       </c>
-      <c r="U91" s="14">
+      <c r="U92" s="14">
         <v>85658</v>
       </c>
-      <c r="V91" s="14">
+      <c r="V92" s="14">
         <v>3120</v>
       </c>
-      <c r="W91" s="14">
+      <c r="W92" s="14">
         <v>1980</v>
       </c>
-      <c r="X91" s="14">
+      <c r="X92" s="14">
         <v>285</v>
       </c>
-      <c r="Y91" s="14">
+      <c r="Y92" s="14">
         <v>10688</v>
       </c>
-      <c r="Z91" s="14">
+      <c r="Z92" s="14">
         <v>12</v>
       </c>
-      <c r="AA91" s="14">
+      <c r="AA92" s="14">
         <v>779</v>
       </c>
     </row>
-    <row r="92" spans="2:27" hidden="1">
-      <c r="B92" s="18">
+    <row r="93" spans="2:27" hidden="1">
+      <c r="B93" s="18">
         <v>2018</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C93" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D93" s="19">
         <v>464622</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E93" s="19">
         <v>455453</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F93" s="19">
         <v>451</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G93" s="19">
         <v>45676</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H93" s="19">
         <v>6259</v>
       </c>
-      <c r="I92" s="19">
+      <c r="I93" s="19">
         <v>2255</v>
       </c>
-      <c r="J92" s="19">
+      <c r="J93" s="19">
         <v>77</v>
       </c>
-      <c r="K92" s="19">
+      <c r="K93" s="19">
         <v>237</v>
       </c>
-      <c r="L92" s="19">
+      <c r="L93" s="19">
         <v>2406</v>
       </c>
-      <c r="M92" s="19">
+      <c r="M93" s="19">
         <v>34385</v>
       </c>
-      <c r="N92" s="19">
+      <c r="N93" s="19">
         <v>3836</v>
       </c>
-      <c r="O92" s="19">
+      <c r="O93" s="19">
         <v>23129</v>
       </c>
-      <c r="P92" s="19">
+      <c r="P93" s="19">
         <v>14404</v>
       </c>
-      <c r="Q92" s="19">
+      <c r="Q93" s="19">
         <v>32894</v>
       </c>
-      <c r="R92" s="19">
+      <c r="R93" s="19">
         <v>2092</v>
       </c>
-      <c r="S92" s="19">
+      <c r="S93" s="19">
         <v>26133</v>
       </c>
-      <c r="T92" s="19">
+      <c r="T93" s="19">
         <v>1</v>
       </c>
-      <c r="U92" s="19">
+      <c r="U93" s="19">
         <v>84912</v>
       </c>
-      <c r="V92" s="19">
+      <c r="V93" s="19">
         <v>3077</v>
       </c>
-      <c r="W92" s="19">
+      <c r="W93" s="19">
         <v>1949</v>
       </c>
-      <c r="X92" s="19">
+      <c r="X93" s="19">
         <v>278</v>
       </c>
-      <c r="Y92" s="19">
+      <c r="Y93" s="19">
         <v>10682</v>
       </c>
-      <c r="Z92" s="19">
+      <c r="Z93" s="19">
         <v>12</v>
       </c>
-      <c r="AA92" s="19">
+      <c r="AA93" s="19">
         <v>782</v>
       </c>
-    </row>
-    <row r="93" spans="2:27">
-      <c r="B93" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA93" s="21"/>
     </row>
     <row r="94" spans="2:27">
       <c r="B94" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA94" s="21"/>
+    </row>
+    <row r="95" spans="2:27">
+      <c r="B95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA94" s="21"/>
+      <c r="AA95" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5BDC86-0ECE-4586-A67A-1A586CA999FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8675670E-4821-4D5C-A5CD-342175FDBFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_18" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -923,8 +923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA93" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
-  <autoFilter ref="B5:AA93" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA95" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="B5:AA95" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1186,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA95"/>
+  <dimension ref="B2:AA97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1362,25 +1362,25 @@
         <v>2025</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="14">
-        <v>736441</v>
+        <v>744628</v>
       </c>
       <c r="E6" s="14">
-        <v>725074</v>
+        <v>732634</v>
       </c>
       <c r="F6" s="14">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="G6" s="14">
-        <v>57912</v>
+        <v>57797</v>
       </c>
       <c r="H6" s="14">
-        <v>10700</v>
+        <v>10778</v>
       </c>
       <c r="I6" s="14">
-        <v>3738</v>
+        <v>3770</v>
       </c>
       <c r="J6" s="14">
         <v>78</v>
@@ -1389,44 +1389,44 @@
         <v>1424</v>
       </c>
       <c r="L6" s="14">
-        <v>2876</v>
+        <v>2906</v>
       </c>
       <c r="M6" s="14">
-        <v>64444</v>
+        <v>64731</v>
       </c>
       <c r="N6" s="14">
-        <v>3963</v>
+        <v>3976</v>
       </c>
       <c r="O6" s="14">
-        <v>42996</v>
+        <v>43507</v>
       </c>
       <c r="P6" s="14">
-        <v>31071</v>
+        <v>31315</v>
       </c>
       <c r="Q6" s="14">
-        <v>44453</v>
+        <v>44950</v>
       </c>
       <c r="R6" s="14">
-        <v>2723</v>
+        <v>2752</v>
       </c>
       <c r="S6" s="14">
-        <v>55345</v>
+        <v>55819</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14">
-        <v>133140</v>
+        <v>135304</v>
       </c>
       <c r="V6" s="14">
-        <v>6592</v>
+        <v>6644</v>
       </c>
       <c r="W6" s="14">
-        <v>6584</v>
+        <v>6652</v>
       </c>
       <c r="X6" s="14">
-        <v>2284</v>
+        <v>2306</v>
       </c>
       <c r="Y6" s="14">
-        <v>12903</v>
+        <v>13046</v>
       </c>
       <c r="Z6" s="14">
         <v>14</v>
@@ -1440,25 +1440,25 @@
         <v>2025</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="11">
-        <v>732842</v>
+        <v>738785</v>
       </c>
       <c r="E7" s="11">
-        <v>721468</v>
+        <v>728411</v>
       </c>
       <c r="F7" s="11">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G7" s="11">
-        <v>57847</v>
+        <v>57768</v>
       </c>
       <c r="H7" s="11">
-        <v>10668</v>
+        <v>10778</v>
       </c>
       <c r="I7" s="11">
-        <v>3721</v>
+        <v>3743</v>
       </c>
       <c r="J7" s="11">
         <v>78</v>
@@ -1467,50 +1467,50 @@
         <v>1424</v>
       </c>
       <c r="L7" s="11">
-        <v>2856</v>
+        <v>2900</v>
       </c>
       <c r="M7" s="11">
-        <v>64131</v>
+        <v>64552</v>
       </c>
       <c r="N7" s="11">
-        <v>3963</v>
+        <v>3977</v>
       </c>
       <c r="O7" s="11">
-        <v>42777</v>
+        <v>43227</v>
       </c>
       <c r="P7" s="11">
-        <v>31166</v>
+        <v>31168</v>
       </c>
       <c r="Q7" s="11">
-        <v>44303</v>
+        <v>44638</v>
       </c>
       <c r="R7" s="11">
-        <v>2708</v>
+        <v>2726</v>
       </c>
       <c r="S7" s="11">
-        <v>55322</v>
+        <v>55471</v>
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="11">
-        <v>133084</v>
+        <v>133642</v>
       </c>
       <c r="V7" s="11">
-        <v>6579</v>
+        <v>6613</v>
       </c>
       <c r="W7" s="11">
-        <v>6562</v>
+        <v>6631</v>
       </c>
       <c r="X7" s="11">
-        <v>2285</v>
+        <v>2290</v>
       </c>
       <c r="Y7" s="11">
-        <v>12870</v>
+        <v>12971</v>
       </c>
       <c r="Z7" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA7" s="12">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -1518,25 +1518,25 @@
         <v>2025</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="14">
-        <v>729319</v>
+        <v>736441</v>
       </c>
       <c r="E8" s="14">
-        <v>718257</v>
+        <v>725074</v>
       </c>
       <c r="F8" s="14">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="G8" s="14">
-        <v>57759</v>
+        <v>57912</v>
       </c>
       <c r="H8" s="14">
-        <v>10612</v>
+        <v>10700</v>
       </c>
       <c r="I8" s="14">
-        <v>3697</v>
+        <v>3738</v>
       </c>
       <c r="J8" s="14">
         <v>78</v>
@@ -1545,154 +1545,154 @@
         <v>1424</v>
       </c>
       <c r="L8" s="14">
-        <v>2840</v>
+        <v>2876</v>
       </c>
       <c r="M8" s="14">
-        <v>63974</v>
+        <v>64444</v>
       </c>
       <c r="N8" s="14">
-        <v>3956</v>
+        <v>3963</v>
       </c>
       <c r="O8" s="14">
-        <v>42526</v>
+        <v>42996</v>
       </c>
       <c r="P8" s="14">
-        <v>30916</v>
+        <v>31071</v>
       </c>
       <c r="Q8" s="14">
-        <v>44105</v>
+        <v>44453</v>
       </c>
       <c r="R8" s="14">
-        <v>2709</v>
+        <v>2723</v>
       </c>
       <c r="S8" s="14">
-        <v>55235</v>
+        <v>55345</v>
       </c>
       <c r="T8" s="14"/>
       <c r="U8" s="14">
-        <v>132317</v>
+        <v>133140</v>
       </c>
       <c r="V8" s="14">
-        <v>6550</v>
+        <v>6592</v>
       </c>
       <c r="W8" s="14">
-        <v>6513</v>
+        <v>6584</v>
       </c>
       <c r="X8" s="14">
-        <v>2270</v>
+        <v>2284</v>
       </c>
       <c r="Y8" s="14">
-        <v>12792</v>
+        <v>12903</v>
       </c>
       <c r="Z8" s="14">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11">
+        <v>732842</v>
+      </c>
+      <c r="E9" s="11">
+        <v>721468</v>
+      </c>
+      <c r="F9" s="11">
+        <v>667</v>
+      </c>
+      <c r="G9" s="11">
+        <v>57847</v>
+      </c>
+      <c r="H9" s="11">
+        <v>10668</v>
+      </c>
+      <c r="I9" s="11">
+        <v>3721</v>
+      </c>
+      <c r="J9" s="11">
+        <v>78</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1424</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2856</v>
+      </c>
+      <c r="M9" s="11">
+        <v>64131</v>
+      </c>
+      <c r="N9" s="11">
+        <v>3963</v>
+      </c>
+      <c r="O9" s="11">
+        <v>42777</v>
+      </c>
+      <c r="P9" s="11">
+        <v>31166</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>44303</v>
+      </c>
+      <c r="R9" s="11">
+        <v>2708</v>
+      </c>
+      <c r="S9" s="11">
+        <v>55322</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11">
+        <v>133084</v>
+      </c>
+      <c r="V9" s="11">
+        <v>6579</v>
+      </c>
+      <c r="W9" s="11">
+        <v>6562</v>
+      </c>
+      <c r="X9" s="11">
+        <v>2285</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>12870</v>
+      </c>
+      <c r="Z9" s="11">
         <v>15</v>
       </c>
-      <c r="AA8" s="14">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="17">
-        <v>2025</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="19">
-        <v>726109</v>
-      </c>
-      <c r="E9" s="19">
-        <v>714727</v>
-      </c>
-      <c r="F9" s="19">
-        <v>656</v>
-      </c>
-      <c r="G9" s="19">
-        <v>57695</v>
-      </c>
-      <c r="H9" s="19">
-        <v>10586</v>
-      </c>
-      <c r="I9" s="19">
-        <v>3675</v>
-      </c>
-      <c r="J9" s="19">
-        <v>78</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1424</v>
-      </c>
-      <c r="L9" s="19">
-        <v>2835</v>
-      </c>
-      <c r="M9" s="19">
-        <v>63834</v>
-      </c>
-      <c r="N9" s="19">
-        <v>3964</v>
-      </c>
-      <c r="O9" s="19">
-        <v>42332</v>
-      </c>
-      <c r="P9" s="19">
-        <v>30802</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>44075</v>
-      </c>
-      <c r="R9" s="19">
-        <v>2701</v>
-      </c>
-      <c r="S9" s="19">
-        <v>55096</v>
-      </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19">
-        <v>131751</v>
-      </c>
-      <c r="V9" s="19">
-        <v>6534</v>
-      </c>
-      <c r="W9" s="19">
-        <v>6466</v>
-      </c>
-      <c r="X9" s="19">
-        <v>2244</v>
-      </c>
-      <c r="Y9" s="19">
-        <v>12757</v>
-      </c>
-      <c r="Z9" s="19">
-        <v>15</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>730</v>
+      <c r="AA9" s="12">
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="2:27">
       <c r="B10" s="13">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="14">
-        <v>723462</v>
+        <v>729319</v>
       </c>
       <c r="E10" s="14">
-        <v>711776</v>
+        <v>718257</v>
       </c>
       <c r="F10" s="14">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="G10" s="14">
-        <v>57703</v>
+        <v>57759</v>
       </c>
       <c r="H10" s="14">
-        <v>10583</v>
+        <v>10612</v>
       </c>
       <c r="I10" s="14">
-        <v>3665</v>
+        <v>3697</v>
       </c>
       <c r="J10" s="14">
         <v>78</v>
@@ -1701,128 +1701,128 @@
         <v>1424</v>
       </c>
       <c r="L10" s="14">
-        <v>2822</v>
+        <v>2840</v>
       </c>
       <c r="M10" s="14">
-        <v>63686</v>
+        <v>63974</v>
       </c>
       <c r="N10" s="14">
-        <v>3961</v>
+        <v>3956</v>
       </c>
       <c r="O10" s="14">
-        <v>42142</v>
+        <v>42526</v>
       </c>
       <c r="P10" s="14">
-        <v>30781</v>
+        <v>30916</v>
       </c>
       <c r="Q10" s="14">
-        <v>44100</v>
+        <v>44105</v>
       </c>
       <c r="R10" s="14">
-        <v>2703</v>
+        <v>2709</v>
       </c>
       <c r="S10" s="14">
-        <v>55043</v>
+        <v>55235</v>
       </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14">
-        <v>131335</v>
+        <v>132317</v>
       </c>
       <c r="V10" s="14">
+        <v>6550</v>
+      </c>
+      <c r="W10" s="14">
         <v>6513</v>
       </c>
-      <c r="W10" s="14">
-        <v>6439</v>
-      </c>
       <c r="X10" s="14">
-        <v>2237</v>
+        <v>2270</v>
       </c>
       <c r="Y10" s="14">
-        <v>12704</v>
+        <v>12792</v>
       </c>
       <c r="Z10" s="14">
         <v>15</v>
       </c>
       <c r="AA10" s="14">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="17">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="19">
+        <v>726109</v>
+      </c>
+      <c r="E11" s="19">
+        <v>714727</v>
+      </c>
+      <c r="F11" s="19">
+        <v>656</v>
+      </c>
+      <c r="G11" s="19">
+        <v>57695</v>
+      </c>
+      <c r="H11" s="19">
+        <v>10586</v>
+      </c>
+      <c r="I11" s="19">
+        <v>3675</v>
+      </c>
+      <c r="J11" s="19">
+        <v>78</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1424</v>
+      </c>
+      <c r="L11" s="19">
+        <v>2835</v>
+      </c>
+      <c r="M11" s="19">
+        <v>63834</v>
+      </c>
+      <c r="N11" s="19">
+        <v>3964</v>
+      </c>
+      <c r="O11" s="19">
+        <v>42332</v>
+      </c>
+      <c r="P11" s="19">
+        <v>30802</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>44075</v>
+      </c>
+      <c r="R11" s="19">
+        <v>2701</v>
+      </c>
+      <c r="S11" s="19">
+        <v>55096</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19">
+        <v>131751</v>
+      </c>
+      <c r="V11" s="19">
+        <v>6534</v>
+      </c>
+      <c r="W11" s="19">
+        <v>6466</v>
+      </c>
+      <c r="X11" s="19">
+        <v>2244</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>12757</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="20">
         <v>730</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="11">
-        <v>719185</v>
-      </c>
-      <c r="E11" s="11">
-        <v>708450</v>
-      </c>
-      <c r="F11" s="11">
-        <v>630</v>
-      </c>
-      <c r="G11" s="11">
-        <v>57548</v>
-      </c>
-      <c r="H11" s="11">
-        <v>10520</v>
-      </c>
-      <c r="I11" s="11">
-        <v>3634</v>
-      </c>
-      <c r="J11" s="11">
-        <v>78</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1424</v>
-      </c>
-      <c r="L11" s="11">
-        <v>2786</v>
-      </c>
-      <c r="M11" s="11">
-        <v>63307</v>
-      </c>
-      <c r="N11" s="11">
-        <v>3939</v>
-      </c>
-      <c r="O11" s="11">
-        <v>41751</v>
-      </c>
-      <c r="P11" s="11">
-        <v>30659</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>43660</v>
-      </c>
-      <c r="R11" s="11">
-        <v>2692</v>
-      </c>
-      <c r="S11" s="11">
-        <v>54807</v>
-      </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11">
-        <v>130783</v>
-      </c>
-      <c r="V11" s="11">
-        <v>6476</v>
-      </c>
-      <c r="W11" s="11">
-        <v>6362</v>
-      </c>
-      <c r="X11" s="11">
-        <v>2229</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>12572</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="12">
-        <v>727</v>
       </c>
     </row>
     <row r="12" spans="2:27">
@@ -1830,25 +1830,25 @@
         <v>2024</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="14">
-        <v>714747</v>
+        <v>723462</v>
       </c>
       <c r="E12" s="14">
-        <v>704375</v>
+        <v>711776</v>
       </c>
       <c r="F12" s="14">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="G12" s="14">
-        <v>57602</v>
+        <v>57703</v>
       </c>
       <c r="H12" s="14">
-        <v>10485</v>
+        <v>10583</v>
       </c>
       <c r="I12" s="14">
-        <v>3617</v>
+        <v>3665</v>
       </c>
       <c r="J12" s="14">
         <v>78</v>
@@ -1857,50 +1857,50 @@
         <v>1424</v>
       </c>
       <c r="L12" s="14">
-        <v>2767</v>
+        <v>2822</v>
       </c>
       <c r="M12" s="14">
-        <v>63040</v>
+        <v>63686</v>
       </c>
       <c r="N12" s="14">
-        <v>3930</v>
+        <v>3961</v>
       </c>
       <c r="O12" s="14">
-        <v>41410</v>
+        <v>42142</v>
       </c>
       <c r="P12" s="14">
-        <v>30328</v>
+        <v>30781</v>
       </c>
       <c r="Q12" s="14">
-        <v>43596</v>
+        <v>44100</v>
       </c>
       <c r="R12" s="14">
-        <v>2697</v>
+        <v>2703</v>
       </c>
       <c r="S12" s="14">
-        <v>54722</v>
+        <v>55043</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14">
-        <v>130250</v>
+        <v>131335</v>
       </c>
       <c r="V12" s="14">
-        <v>6446</v>
+        <v>6513</v>
       </c>
       <c r="W12" s="14">
-        <v>6199</v>
+        <v>6439</v>
       </c>
       <c r="X12" s="14">
-        <v>2214</v>
+        <v>2237</v>
       </c>
       <c r="Y12" s="14">
-        <v>12449</v>
+        <v>12704</v>
       </c>
       <c r="Z12" s="14">
         <v>15</v>
       </c>
       <c r="AA12" s="14">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="2:27">
@@ -1908,25 +1908,25 @@
         <v>2024</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11">
-        <v>709391</v>
+        <v>719185</v>
       </c>
       <c r="E13" s="11">
-        <v>699945</v>
+        <v>708450</v>
       </c>
       <c r="F13" s="11">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="G13" s="11">
-        <v>57472</v>
+        <v>57548</v>
       </c>
       <c r="H13" s="11">
-        <v>10407</v>
+        <v>10520</v>
       </c>
       <c r="I13" s="11">
-        <v>3578</v>
+        <v>3634</v>
       </c>
       <c r="J13" s="11">
         <v>78</v>
@@ -1935,76 +1935,76 @@
         <v>1424</v>
       </c>
       <c r="L13" s="11">
-        <v>2740</v>
+        <v>2786</v>
       </c>
       <c r="M13" s="11">
-        <v>62737</v>
+        <v>63307</v>
       </c>
       <c r="N13" s="11">
-        <v>3931</v>
+        <v>3939</v>
       </c>
       <c r="O13" s="11">
-        <v>41077</v>
+        <v>41751</v>
       </c>
       <c r="P13" s="11">
-        <v>23934</v>
+        <v>30659</v>
       </c>
       <c r="Q13" s="11">
-        <v>43117</v>
+        <v>43660</v>
       </c>
       <c r="R13" s="11">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="S13" s="11">
-        <v>54701</v>
+        <v>54807</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11">
-        <v>129830</v>
+        <v>130783</v>
       </c>
       <c r="V13" s="11">
-        <v>6417</v>
+        <v>6476</v>
       </c>
       <c r="W13" s="11">
-        <v>6046</v>
+        <v>6362</v>
       </c>
       <c r="X13" s="11">
-        <v>2192</v>
+        <v>2229</v>
       </c>
       <c r="Y13" s="11">
-        <v>12349</v>
+        <v>12572</v>
       </c>
       <c r="Z13" s="11">
         <v>15</v>
       </c>
       <c r="AA13" s="12">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="2:27">
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D14" s="14">
-        <v>704941</v>
+        <v>714747</v>
       </c>
       <c r="E14" s="14">
-        <v>696064</v>
+        <v>704375</v>
       </c>
       <c r="F14" s="14">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="G14" s="14">
-        <v>57429</v>
+        <v>57602</v>
       </c>
       <c r="H14" s="14">
-        <v>10315</v>
+        <v>10485</v>
       </c>
       <c r="I14" s="14">
-        <v>3562</v>
+        <v>3617</v>
       </c>
       <c r="J14" s="14">
         <v>78</v>
@@ -2013,50 +2013,50 @@
         <v>1424</v>
       </c>
       <c r="L14" s="14">
-        <v>2725</v>
+        <v>2767</v>
       </c>
       <c r="M14" s="14">
-        <v>62582</v>
+        <v>63040</v>
       </c>
       <c r="N14" s="14">
-        <v>3959</v>
+        <v>3930</v>
       </c>
       <c r="O14" s="14">
-        <v>40692</v>
+        <v>41410</v>
       </c>
       <c r="P14" s="14">
-        <v>23711</v>
+        <v>30328</v>
       </c>
       <c r="Q14" s="14">
-        <v>42607</v>
+        <v>43596</v>
       </c>
       <c r="R14" s="14">
-        <v>2706</v>
+        <v>2697</v>
       </c>
       <c r="S14" s="14">
-        <v>54463</v>
+        <v>54722</v>
       </c>
       <c r="T14" s="14"/>
       <c r="U14" s="14">
-        <v>129480</v>
+        <v>130250</v>
       </c>
       <c r="V14" s="14">
-        <v>6405</v>
+        <v>6446</v>
       </c>
       <c r="W14" s="14">
-        <v>5956</v>
+        <v>6199</v>
       </c>
       <c r="X14" s="14">
-        <v>2159</v>
+        <v>2214</v>
       </c>
       <c r="Y14" s="14">
-        <v>12295</v>
+        <v>12449</v>
       </c>
       <c r="Z14" s="14">
         <v>15</v>
       </c>
-      <c r="AA14" s="16">
-        <v>726</v>
+      <c r="AA14" s="14">
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="2:27">
@@ -2064,25 +2064,25 @@
         <v>2024</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D15" s="11">
-        <v>700064</v>
+        <v>709391</v>
       </c>
       <c r="E15" s="11">
-        <v>691573</v>
+        <v>699945</v>
       </c>
       <c r="F15" s="11">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="G15" s="11">
-        <v>57394</v>
+        <v>57472</v>
       </c>
       <c r="H15" s="11">
-        <v>10310</v>
+        <v>10407</v>
       </c>
       <c r="I15" s="11">
-        <v>3516</v>
+        <v>3578</v>
       </c>
       <c r="J15" s="11">
         <v>78</v>
@@ -2091,50 +2091,50 @@
         <v>1424</v>
       </c>
       <c r="L15" s="11">
-        <v>2697</v>
+        <v>2740</v>
       </c>
       <c r="M15" s="11">
-        <v>62263</v>
+        <v>62737</v>
       </c>
       <c r="N15" s="11">
-        <v>3963</v>
+        <v>3931</v>
       </c>
       <c r="O15" s="11">
-        <v>40451</v>
+        <v>41077</v>
       </c>
       <c r="P15" s="11">
-        <v>22543</v>
+        <v>23934</v>
       </c>
       <c r="Q15" s="11">
-        <v>42013</v>
+        <v>43117</v>
       </c>
       <c r="R15" s="11">
-        <v>2714</v>
+        <v>2694</v>
       </c>
       <c r="S15" s="11">
-        <v>54287</v>
+        <v>54701</v>
       </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11">
-        <v>129145</v>
+        <v>129830</v>
       </c>
       <c r="V15" s="11">
-        <v>6391</v>
+        <v>6417</v>
       </c>
       <c r="W15" s="11">
-        <v>5917</v>
+        <v>6046</v>
       </c>
       <c r="X15" s="11">
-        <v>2148</v>
+        <v>2192</v>
       </c>
       <c r="Y15" s="11">
-        <v>12231</v>
+        <v>12349</v>
       </c>
       <c r="Z15" s="11">
         <v>15</v>
       </c>
       <c r="AA15" s="12">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="2:27">
@@ -2142,25 +2142,25 @@
         <v>2024</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="14">
-        <v>694997</v>
+        <v>704941</v>
       </c>
       <c r="E16" s="14">
-        <v>686081</v>
+        <v>696064</v>
       </c>
       <c r="F16" s="14">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G16" s="14">
-        <v>57318</v>
+        <v>57429</v>
       </c>
       <c r="H16" s="14">
-        <v>10276</v>
+        <v>10315</v>
       </c>
       <c r="I16" s="14">
-        <v>3508</v>
+        <v>3562</v>
       </c>
       <c r="J16" s="14">
         <v>78</v>
@@ -2169,50 +2169,50 @@
         <v>1424</v>
       </c>
       <c r="L16" s="14">
-        <v>2665</v>
+        <v>2725</v>
       </c>
       <c r="M16" s="14">
-        <v>61927</v>
+        <v>62582</v>
       </c>
       <c r="N16" s="14">
-        <v>3963</v>
+        <v>3959</v>
       </c>
       <c r="O16" s="14">
-        <v>40050</v>
+        <v>40692</v>
       </c>
       <c r="P16" s="14">
-        <v>22350</v>
+        <v>23711</v>
       </c>
       <c r="Q16" s="14">
-        <v>41750</v>
+        <v>42607</v>
       </c>
       <c r="R16" s="14">
-        <v>2698</v>
+        <v>2706</v>
       </c>
       <c r="S16" s="14">
-        <v>54175</v>
+        <v>54463</v>
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="14">
-        <v>128557</v>
+        <v>129480</v>
       </c>
       <c r="V16" s="14">
-        <v>6363</v>
+        <v>6405</v>
       </c>
       <c r="W16" s="14">
-        <v>5857</v>
+        <v>5956</v>
       </c>
       <c r="X16" s="14">
-        <v>2129</v>
+        <v>2159</v>
       </c>
       <c r="Y16" s="14">
-        <v>12153</v>
+        <v>12295</v>
       </c>
       <c r="Z16" s="14">
         <v>15</v>
       </c>
       <c r="AA16" s="16">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="2:27">
@@ -2220,25 +2220,25 @@
         <v>2024</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="11">
-        <v>686433</v>
+        <v>700064</v>
       </c>
       <c r="E17" s="11">
-        <v>677060</v>
+        <v>691573</v>
       </c>
       <c r="F17" s="11">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="G17" s="11">
-        <v>57014</v>
+        <v>57394</v>
       </c>
       <c r="H17" s="11">
-        <v>10191</v>
+        <v>10310</v>
       </c>
       <c r="I17" s="11">
-        <v>3490</v>
+        <v>3516</v>
       </c>
       <c r="J17" s="11">
         <v>78</v>
@@ -2247,50 +2247,50 @@
         <v>1424</v>
       </c>
       <c r="L17" s="11">
-        <v>2598</v>
+        <v>2697</v>
       </c>
       <c r="M17" s="11">
-        <v>61659</v>
+        <v>62263</v>
       </c>
       <c r="N17" s="11">
-        <v>3952</v>
+        <v>3963</v>
       </c>
       <c r="O17" s="11">
-        <v>39763</v>
+        <v>40451</v>
       </c>
       <c r="P17" s="11">
-        <v>22332</v>
+        <v>22543</v>
       </c>
       <c r="Q17" s="11">
-        <v>41599</v>
+        <v>42013</v>
       </c>
       <c r="R17" s="11">
-        <v>2694</v>
+        <v>2714</v>
       </c>
       <c r="S17" s="11">
-        <v>54118</v>
+        <v>54287</v>
       </c>
       <c r="T17" s="11"/>
       <c r="U17" s="11">
-        <v>128107</v>
+        <v>129145</v>
       </c>
       <c r="V17" s="11">
-        <v>6329</v>
+        <v>6391</v>
       </c>
       <c r="W17" s="11">
-        <v>5765</v>
+        <v>5917</v>
       </c>
       <c r="X17" s="11">
-        <v>2112</v>
+        <v>2148</v>
       </c>
       <c r="Y17" s="11">
-        <v>12080</v>
+        <v>12231</v>
       </c>
       <c r="Z17" s="11">
         <v>15</v>
       </c>
       <c r="AA17" s="12">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="2:27">
@@ -2298,25 +2298,25 @@
         <v>2024</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="14">
-        <v>685435</v>
+        <v>694997</v>
       </c>
       <c r="E18" s="14">
-        <v>676046</v>
+        <v>686081</v>
       </c>
       <c r="F18" s="14">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="G18" s="14">
-        <v>56830</v>
+        <v>57318</v>
       </c>
       <c r="H18" s="14">
-        <v>10138</v>
+        <v>10276</v>
       </c>
       <c r="I18" s="14">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="J18" s="14">
         <v>78</v>
@@ -2325,50 +2325,50 @@
         <v>1424</v>
       </c>
       <c r="L18" s="14">
-        <v>2558</v>
+        <v>2665</v>
       </c>
       <c r="M18" s="14">
-        <v>61296</v>
+        <v>61927</v>
       </c>
       <c r="N18" s="14">
-        <v>3933</v>
+        <v>3963</v>
       </c>
       <c r="O18" s="14">
-        <v>39350</v>
+        <v>40050</v>
       </c>
       <c r="P18" s="14">
-        <v>23307</v>
+        <v>22350</v>
       </c>
       <c r="Q18" s="14">
-        <v>41742</v>
+        <v>41750</v>
       </c>
       <c r="R18" s="14">
-        <v>2677</v>
+        <v>2698</v>
       </c>
       <c r="S18" s="14">
-        <v>53782</v>
+        <v>54175</v>
       </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14">
-        <v>127521</v>
+        <v>128557</v>
       </c>
       <c r="V18" s="14">
-        <v>6305</v>
+        <v>6363</v>
       </c>
       <c r="W18" s="14">
-        <v>5651</v>
+        <v>5857</v>
       </c>
       <c r="X18" s="14">
-        <v>2085</v>
+        <v>2129</v>
       </c>
       <c r="Y18" s="14">
-        <v>12043</v>
+        <v>12153</v>
       </c>
       <c r="Z18" s="14">
         <v>15</v>
       </c>
       <c r="AA18" s="16">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="2:27">
@@ -2376,25 +2376,25 @@
         <v>2024</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="11">
-        <v>681551</v>
+        <v>686433</v>
       </c>
       <c r="E19" s="11">
-        <v>671878</v>
+        <v>677060</v>
       </c>
       <c r="F19" s="11">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="G19" s="11">
-        <v>56791</v>
+        <v>57014</v>
       </c>
       <c r="H19" s="11">
-        <v>10077</v>
+        <v>10191</v>
       </c>
       <c r="I19" s="11">
-        <v>3472</v>
+        <v>3490</v>
       </c>
       <c r="J19" s="11">
         <v>78</v>
@@ -2403,50 +2403,50 @@
         <v>1424</v>
       </c>
       <c r="L19" s="11">
-        <v>2515</v>
+        <v>2598</v>
       </c>
       <c r="M19" s="11">
-        <v>60940</v>
+        <v>61659</v>
       </c>
       <c r="N19" s="11">
-        <v>3927</v>
+        <v>3952</v>
       </c>
       <c r="O19" s="11">
-        <v>38916</v>
+        <v>39763</v>
       </c>
       <c r="P19" s="11">
-        <v>23100</v>
+        <v>22332</v>
       </c>
       <c r="Q19" s="11">
-        <v>41499</v>
+        <v>41599</v>
       </c>
       <c r="R19" s="11">
-        <v>2662</v>
+        <v>2694</v>
       </c>
       <c r="S19" s="11">
-        <v>53501</v>
+        <v>54118</v>
       </c>
       <c r="T19" s="11"/>
       <c r="U19" s="11">
-        <v>127002</v>
+        <v>128107</v>
       </c>
       <c r="V19" s="11">
-        <v>6283</v>
+        <v>6329</v>
       </c>
       <c r="W19" s="11">
-        <v>5537</v>
+        <v>5765</v>
       </c>
       <c r="X19" s="11">
-        <v>2066</v>
+        <v>2112</v>
       </c>
       <c r="Y19" s="11">
-        <v>12002</v>
+        <v>12080</v>
       </c>
       <c r="Z19" s="11">
         <v>15</v>
       </c>
       <c r="AA19" s="12">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="2:27">
@@ -2454,25 +2454,25 @@
         <v>2024</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="14">
-        <v>677153</v>
+        <v>685435</v>
       </c>
       <c r="E20" s="14">
-        <v>667343</v>
+        <v>676046</v>
       </c>
       <c r="F20" s="14">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G20" s="14">
-        <v>56789</v>
+        <v>56830</v>
       </c>
       <c r="H20" s="14">
-        <v>10062</v>
+        <v>10138</v>
       </c>
       <c r="I20" s="14">
-        <v>3444</v>
+        <v>3511</v>
       </c>
       <c r="J20" s="14">
         <v>78</v>
@@ -2481,154 +2481,154 @@
         <v>1424</v>
       </c>
       <c r="L20" s="14">
-        <v>2486</v>
+        <v>2558</v>
       </c>
       <c r="M20" s="14">
-        <v>60780</v>
+        <v>61296</v>
       </c>
       <c r="N20" s="14">
-        <v>3929</v>
+        <v>3933</v>
       </c>
       <c r="O20" s="14">
-        <v>38626</v>
+        <v>39350</v>
       </c>
       <c r="P20" s="14">
-        <v>22931</v>
+        <v>23307</v>
       </c>
       <c r="Q20" s="14">
-        <v>41445</v>
+        <v>41742</v>
       </c>
       <c r="R20" s="14">
-        <v>2656</v>
+        <v>2677</v>
       </c>
       <c r="S20" s="14">
-        <v>53234</v>
+        <v>53782</v>
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="14">
-        <v>126653</v>
+        <v>127521</v>
       </c>
       <c r="V20" s="14">
-        <v>6260</v>
+        <v>6305</v>
       </c>
       <c r="W20" s="14">
-        <v>5487</v>
+        <v>5651</v>
       </c>
       <c r="X20" s="14">
-        <v>2055</v>
+        <v>2085</v>
       </c>
       <c r="Y20" s="14">
-        <v>11945</v>
+        <v>12043</v>
       </c>
       <c r="Z20" s="14">
         <v>15</v>
       </c>
       <c r="AA20" s="16">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="2:27">
-      <c r="B21" s="17">
+      <c r="B21" s="9">
         <v>2024</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="19">
-        <v>673757</v>
-      </c>
-      <c r="E21" s="19">
-        <v>663646</v>
-      </c>
-      <c r="F21" s="19">
-        <v>558</v>
-      </c>
-      <c r="G21" s="19">
-        <v>56703</v>
-      </c>
-      <c r="H21" s="19">
-        <v>10044</v>
-      </c>
-      <c r="I21" s="19">
-        <v>3392</v>
-      </c>
-      <c r="J21" s="19">
+      <c r="C21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="11">
+        <v>681551</v>
+      </c>
+      <c r="E21" s="11">
+        <v>671878</v>
+      </c>
+      <c r="F21" s="11">
+        <v>559</v>
+      </c>
+      <c r="G21" s="11">
+        <v>56791</v>
+      </c>
+      <c r="H21" s="11">
+        <v>10077</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3472</v>
+      </c>
+      <c r="J21" s="11">
         <v>78</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="11">
         <v>1424</v>
       </c>
-      <c r="L21" s="19">
-        <v>2444</v>
-      </c>
-      <c r="M21" s="19">
-        <v>60551</v>
-      </c>
-      <c r="N21" s="19">
-        <v>3920</v>
-      </c>
-      <c r="O21" s="19">
-        <v>38302</v>
-      </c>
-      <c r="P21" s="19">
-        <v>22717</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>41276</v>
-      </c>
-      <c r="R21" s="19">
-        <v>2661</v>
-      </c>
-      <c r="S21" s="19">
-        <v>53153</v>
-      </c>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19">
-        <v>125984</v>
-      </c>
-      <c r="V21" s="19">
-        <v>6237</v>
-      </c>
-      <c r="W21" s="19">
-        <v>5478</v>
-      </c>
-      <c r="X21" s="19">
-        <v>2017</v>
-      </c>
-      <c r="Y21" s="19">
-        <v>11916</v>
-      </c>
-      <c r="Z21" s="19">
+      <c r="L21" s="11">
+        <v>2515</v>
+      </c>
+      <c r="M21" s="11">
+        <v>60940</v>
+      </c>
+      <c r="N21" s="11">
+        <v>3927</v>
+      </c>
+      <c r="O21" s="11">
+        <v>38916</v>
+      </c>
+      <c r="P21" s="11">
+        <v>23100</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>41499</v>
+      </c>
+      <c r="R21" s="11">
+        <v>2662</v>
+      </c>
+      <c r="S21" s="11">
+        <v>53501</v>
+      </c>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11">
+        <v>127002</v>
+      </c>
+      <c r="V21" s="11">
+        <v>6283</v>
+      </c>
+      <c r="W21" s="11">
+        <v>5537</v>
+      </c>
+      <c r="X21" s="11">
+        <v>2066</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>12002</v>
+      </c>
+      <c r="Z21" s="11">
         <v>15</v>
       </c>
-      <c r="AA21" s="20">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" hidden="1">
-      <c r="B22" s="13">
-        <v>2023</v>
+      <c r="AA21" s="12">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="B22" s="15">
+        <v>2024</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="14">
-        <v>671002</v>
+        <v>677153</v>
       </c>
       <c r="E22" s="14">
-        <v>660365</v>
+        <v>667343</v>
       </c>
       <c r="F22" s="14">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="G22" s="14">
-        <v>56667</v>
+        <v>56789</v>
       </c>
       <c r="H22" s="14">
-        <v>10017</v>
+        <v>10062</v>
       </c>
       <c r="I22" s="14">
-        <v>3376</v>
+        <v>3444</v>
       </c>
       <c r="J22" s="14">
         <v>78</v>
@@ -2637,128 +2637,128 @@
         <v>1424</v>
       </c>
       <c r="L22" s="14">
-        <v>2414</v>
+        <v>2486</v>
       </c>
       <c r="M22" s="14">
-        <v>60296</v>
+        <v>60780</v>
       </c>
       <c r="N22" s="14">
-        <v>3916</v>
+        <v>3929</v>
       </c>
       <c r="O22" s="14">
-        <v>38063</v>
+        <v>38626</v>
       </c>
       <c r="P22" s="14">
-        <v>22721</v>
+        <v>22931</v>
       </c>
       <c r="Q22" s="14">
-        <v>40963</v>
+        <v>41445</v>
       </c>
       <c r="R22" s="14">
-        <v>2664</v>
+        <v>2656</v>
       </c>
       <c r="S22" s="14">
-        <v>53074</v>
+        <v>53234</v>
       </c>
       <c r="T22" s="14"/>
       <c r="U22" s="14">
-        <v>125341</v>
+        <v>126653</v>
       </c>
       <c r="V22" s="14">
-        <v>6227</v>
+        <v>6260</v>
       </c>
       <c r="W22" s="14">
-        <v>5448</v>
+        <v>5487</v>
       </c>
       <c r="X22" s="14">
-        <v>2008</v>
+        <v>2055</v>
       </c>
       <c r="Y22" s="14">
-        <v>11874</v>
+        <v>11945</v>
       </c>
       <c r="Z22" s="14">
         <v>15</v>
       </c>
-      <c r="AA22" s="14">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" hidden="1">
-      <c r="B23" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="11">
-        <v>667021</v>
-      </c>
-      <c r="E23" s="11">
-        <v>657017</v>
-      </c>
-      <c r="F23" s="11">
-        <v>553</v>
-      </c>
-      <c r="G23" s="11">
-        <v>56501</v>
-      </c>
-      <c r="H23" s="11">
-        <v>10008</v>
-      </c>
-      <c r="I23" s="11">
-        <v>3368</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="AA22" s="16">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="B23" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="19">
+        <v>673757</v>
+      </c>
+      <c r="E23" s="19">
+        <v>663646</v>
+      </c>
+      <c r="F23" s="19">
+        <v>558</v>
+      </c>
+      <c r="G23" s="19">
+        <v>56703</v>
+      </c>
+      <c r="H23" s="19">
+        <v>10044</v>
+      </c>
+      <c r="I23" s="19">
+        <v>3392</v>
+      </c>
+      <c r="J23" s="19">
         <v>78</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="19">
         <v>1424</v>
       </c>
-      <c r="L23" s="11">
-        <v>2373</v>
-      </c>
-      <c r="M23" s="11">
-        <v>59864</v>
-      </c>
-      <c r="N23" s="11">
-        <v>3939</v>
-      </c>
-      <c r="O23" s="11">
-        <v>37756</v>
-      </c>
-      <c r="P23" s="11">
-        <v>22668</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>40739</v>
-      </c>
-      <c r="R23" s="11">
-        <v>2663</v>
-      </c>
-      <c r="S23" s="11">
-        <v>52920</v>
-      </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11">
-        <v>124918</v>
-      </c>
-      <c r="V23" s="11">
-        <v>6223</v>
-      </c>
-      <c r="W23" s="11">
-        <v>5332</v>
-      </c>
-      <c r="X23" s="11">
-        <v>1985</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>11762</v>
-      </c>
-      <c r="Z23" s="11">
+      <c r="L23" s="19">
+        <v>2444</v>
+      </c>
+      <c r="M23" s="19">
+        <v>60551</v>
+      </c>
+      <c r="N23" s="19">
+        <v>3920</v>
+      </c>
+      <c r="O23" s="19">
+        <v>38302</v>
+      </c>
+      <c r="P23" s="19">
+        <v>22717</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>41276</v>
+      </c>
+      <c r="R23" s="19">
+        <v>2661</v>
+      </c>
+      <c r="S23" s="19">
+        <v>53153</v>
+      </c>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19">
+        <v>125984</v>
+      </c>
+      <c r="V23" s="19">
+        <v>6237</v>
+      </c>
+      <c r="W23" s="19">
+        <v>5478</v>
+      </c>
+      <c r="X23" s="19">
+        <v>2017</v>
+      </c>
+      <c r="Y23" s="19">
+        <v>11916</v>
+      </c>
+      <c r="Z23" s="19">
         <v>15</v>
       </c>
-      <c r="AA23" s="11">
-        <v>718</v>
+      <c r="AA23" s="20">
+        <v>717</v>
       </c>
     </row>
     <row r="24" spans="2:27" hidden="1">
@@ -2766,25 +2766,25 @@
         <v>2023</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="14">
-        <v>662911</v>
+        <v>671002</v>
       </c>
       <c r="E24" s="14">
-        <v>653227</v>
+        <v>660365</v>
       </c>
       <c r="F24" s="14">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G24" s="14">
-        <v>56354</v>
+        <v>56667</v>
       </c>
       <c r="H24" s="14">
-        <v>9936</v>
+        <v>10017</v>
       </c>
       <c r="I24" s="14">
-        <v>3354</v>
+        <v>3376</v>
       </c>
       <c r="J24" s="14">
         <v>78</v>
@@ -2793,50 +2793,50 @@
         <v>1424</v>
       </c>
       <c r="L24" s="14">
-        <v>2325</v>
+        <v>2414</v>
       </c>
       <c r="M24" s="14">
-        <v>59524</v>
+        <v>60296</v>
       </c>
       <c r="N24" s="14">
-        <v>3949</v>
+        <v>3916</v>
       </c>
       <c r="O24" s="14">
-        <v>37449</v>
+        <v>38063</v>
       </c>
       <c r="P24" s="14">
-        <v>22518</v>
+        <v>22721</v>
       </c>
       <c r="Q24" s="14">
-        <v>40540</v>
+        <v>40963</v>
       </c>
       <c r="R24" s="14">
-        <v>2659</v>
+        <v>2664</v>
       </c>
       <c r="S24" s="14">
-        <v>52779</v>
+        <v>53074</v>
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14">
-        <v>124007</v>
+        <v>125341</v>
       </c>
       <c r="V24" s="14">
-        <v>6157</v>
+        <v>6227</v>
       </c>
       <c r="W24" s="14">
-        <v>5337</v>
+        <v>5448</v>
       </c>
       <c r="X24" s="14">
-        <v>1958</v>
+        <v>2008</v>
       </c>
       <c r="Y24" s="14">
-        <v>11701</v>
+        <v>11874</v>
       </c>
       <c r="Z24" s="14">
         <v>15</v>
       </c>
       <c r="AA24" s="14">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="2:27" hidden="1">
@@ -2844,25 +2844,25 @@
         <v>2023</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="11">
-        <v>659020</v>
+        <v>667021</v>
       </c>
       <c r="E25" s="11">
-        <v>649665</v>
+        <v>657017</v>
       </c>
       <c r="F25" s="11">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G25" s="11">
-        <v>56273</v>
+        <v>56501</v>
       </c>
       <c r="H25" s="11">
-        <v>9895</v>
+        <v>10008</v>
       </c>
       <c r="I25" s="11">
-        <v>3359</v>
+        <v>3368</v>
       </c>
       <c r="J25" s="11">
         <v>78</v>
@@ -2871,44 +2871,44 @@
         <v>1424</v>
       </c>
       <c r="L25" s="11">
-        <v>2288</v>
+        <v>2373</v>
       </c>
       <c r="M25" s="11">
-        <v>59153</v>
+        <v>59864</v>
       </c>
       <c r="N25" s="11">
-        <v>3952</v>
+        <v>3939</v>
       </c>
       <c r="O25" s="11">
-        <v>37177</v>
+        <v>37756</v>
       </c>
       <c r="P25" s="11">
-        <v>22508</v>
+        <v>22668</v>
       </c>
       <c r="Q25" s="11">
-        <v>40324</v>
+        <v>40739</v>
       </c>
       <c r="R25" s="11">
-        <v>2654</v>
+        <v>2663</v>
       </c>
       <c r="S25" s="11">
-        <v>52458</v>
+        <v>52920</v>
       </c>
       <c r="T25" s="11"/>
       <c r="U25" s="11">
-        <v>123192</v>
+        <v>124918</v>
       </c>
       <c r="V25" s="11">
-        <v>6122</v>
+        <v>6223</v>
       </c>
       <c r="W25" s="11">
-        <v>5256</v>
+        <v>5332</v>
       </c>
       <c r="X25" s="11">
-        <v>1931</v>
+        <v>1985</v>
       </c>
       <c r="Y25" s="11">
-        <v>11636</v>
+        <v>11762</v>
       </c>
       <c r="Z25" s="11">
         <v>15</v>
@@ -2922,77 +2922,77 @@
         <v>2023</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D26" s="14">
-        <v>655458</v>
+        <v>662911</v>
       </c>
       <c r="E26" s="14">
-        <v>645999</v>
+        <v>653227</v>
       </c>
       <c r="F26" s="14">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="G26" s="14">
-        <v>56186</v>
+        <v>56354</v>
       </c>
       <c r="H26" s="14">
-        <v>9835</v>
+        <v>9936</v>
       </c>
       <c r="I26" s="14">
-        <v>3310</v>
+        <v>3354</v>
       </c>
       <c r="J26" s="14">
         <v>78</v>
       </c>
       <c r="K26" s="14">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="L26" s="14">
-        <v>2252</v>
+        <v>2325</v>
       </c>
       <c r="M26" s="14">
-        <v>58938</v>
+        <v>59524</v>
       </c>
       <c r="N26" s="14">
-        <v>3928</v>
+        <v>3949</v>
       </c>
       <c r="O26" s="14">
-        <v>36812</v>
+        <v>37449</v>
       </c>
       <c r="P26" s="14">
-        <v>22401</v>
+        <v>22518</v>
       </c>
       <c r="Q26" s="14">
-        <v>40001</v>
+        <v>40540</v>
       </c>
       <c r="R26" s="14">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="S26" s="14">
-        <v>52187</v>
+        <v>52779</v>
       </c>
       <c r="T26" s="14"/>
       <c r="U26" s="14">
-        <v>122442</v>
+        <v>124007</v>
       </c>
       <c r="V26" s="14">
-        <v>6046</v>
+        <v>6157</v>
       </c>
       <c r="W26" s="14">
-        <v>5239</v>
+        <v>5337</v>
       </c>
       <c r="X26" s="14">
-        <v>1910</v>
+        <v>1958</v>
       </c>
       <c r="Y26" s="14">
-        <v>11600</v>
+        <v>11701</v>
       </c>
       <c r="Z26" s="14">
         <v>15</v>
       </c>
       <c r="AA26" s="14">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="2:27" hidden="1">
@@ -3000,25 +3000,25 @@
         <v>2023</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D27" s="11">
-        <v>651761</v>
+        <v>659020</v>
       </c>
       <c r="E27" s="11">
-        <v>641907</v>
+        <v>649665</v>
       </c>
       <c r="F27" s="11">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="G27" s="11">
-        <v>56170</v>
+        <v>56273</v>
       </c>
       <c r="H27" s="11">
-        <v>9810</v>
+        <v>9895</v>
       </c>
       <c r="I27" s="11">
-        <v>3301</v>
+        <v>3359</v>
       </c>
       <c r="J27" s="11">
         <v>78</v>
@@ -3027,50 +3027,50 @@
         <v>1424</v>
       </c>
       <c r="L27" s="11">
-        <v>2219</v>
+        <v>2288</v>
       </c>
       <c r="M27" s="11">
-        <v>58734</v>
+        <v>59153</v>
       </c>
       <c r="N27" s="11">
-        <v>3934</v>
+        <v>3952</v>
       </c>
       <c r="O27" s="11">
-        <v>36467</v>
+        <v>37177</v>
       </c>
       <c r="P27" s="11">
-        <v>22206</v>
+        <v>22508</v>
       </c>
       <c r="Q27" s="11">
-        <v>39383</v>
+        <v>40324</v>
       </c>
       <c r="R27" s="11">
-        <v>2640</v>
+        <v>2654</v>
       </c>
       <c r="S27" s="11">
-        <v>51887</v>
+        <v>52458</v>
       </c>
       <c r="T27" s="11"/>
       <c r="U27" s="11">
-        <v>121511</v>
+        <v>123192</v>
       </c>
       <c r="V27" s="11">
-        <v>5992</v>
+        <v>6122</v>
       </c>
       <c r="W27" s="11">
-        <v>5150</v>
+        <v>5256</v>
       </c>
       <c r="X27" s="11">
-        <v>1888</v>
+        <v>1931</v>
       </c>
       <c r="Y27" s="11">
-        <v>11575</v>
+        <v>11636</v>
       </c>
       <c r="Z27" s="11">
         <v>15</v>
       </c>
       <c r="AA27" s="11">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="2:27" hidden="1">
@@ -3078,77 +3078,77 @@
         <v>2023</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="14">
-        <v>647906</v>
+        <v>655458</v>
       </c>
       <c r="E28" s="14">
-        <v>637598</v>
+        <v>645999</v>
       </c>
       <c r="F28" s="14">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="G28" s="14">
-        <v>56139</v>
+        <v>56186</v>
       </c>
       <c r="H28" s="14">
-        <v>9752</v>
+        <v>9835</v>
       </c>
       <c r="I28" s="14">
-        <v>3280</v>
+        <v>3310</v>
       </c>
       <c r="J28" s="14">
         <v>78</v>
       </c>
       <c r="K28" s="14">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="L28" s="14">
-        <v>2179</v>
+        <v>2252</v>
       </c>
       <c r="M28" s="14">
-        <v>58481</v>
+        <v>58938</v>
       </c>
       <c r="N28" s="14">
-        <v>3945</v>
+        <v>3928</v>
       </c>
       <c r="O28" s="14">
-        <v>36238</v>
+        <v>36812</v>
       </c>
       <c r="P28" s="14">
-        <v>21962</v>
+        <v>22401</v>
       </c>
       <c r="Q28" s="14">
-        <v>38923</v>
+        <v>40001</v>
       </c>
       <c r="R28" s="14">
-        <v>2634</v>
+        <v>2655</v>
       </c>
       <c r="S28" s="14">
-        <v>51526</v>
+        <v>52187</v>
       </c>
       <c r="T28" s="14"/>
       <c r="U28" s="14">
-        <v>120827</v>
+        <v>122442</v>
       </c>
       <c r="V28" s="14">
-        <v>5957</v>
+        <v>6046</v>
       </c>
       <c r="W28" s="14">
-        <v>5099</v>
+        <v>5239</v>
       </c>
       <c r="X28" s="14">
-        <v>1866</v>
+        <v>1910</v>
       </c>
       <c r="Y28" s="14">
-        <v>11503</v>
+        <v>11600</v>
       </c>
       <c r="Z28" s="14">
         <v>15</v>
       </c>
       <c r="AA28" s="14">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="2:27" hidden="1">
@@ -3156,25 +3156,25 @@
         <v>2023</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D29" s="11">
-        <v>645139</v>
+        <v>651761</v>
       </c>
       <c r="E29" s="11">
-        <v>634226</v>
+        <v>641907</v>
       </c>
       <c r="F29" s="11">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G29" s="11">
-        <v>55988</v>
+        <v>56170</v>
       </c>
       <c r="H29" s="11">
-        <v>9716</v>
+        <v>9810</v>
       </c>
       <c r="I29" s="11">
-        <v>3277</v>
+        <v>3301</v>
       </c>
       <c r="J29" s="11">
         <v>78</v>
@@ -3183,50 +3183,50 @@
         <v>1424</v>
       </c>
       <c r="L29" s="11">
-        <v>2130</v>
+        <v>2219</v>
       </c>
       <c r="M29" s="11">
-        <v>58224</v>
+        <v>58734</v>
       </c>
       <c r="N29" s="11">
         <v>3934</v>
       </c>
       <c r="O29" s="11">
-        <v>35910</v>
+        <v>36467</v>
       </c>
       <c r="P29" s="11">
-        <v>21848</v>
+        <v>22206</v>
       </c>
       <c r="Q29" s="11">
-        <v>38619</v>
+        <v>39383</v>
       </c>
       <c r="R29" s="11">
-        <v>2634</v>
+        <v>2640</v>
       </c>
       <c r="S29" s="11">
-        <v>51228</v>
+        <v>51887</v>
       </c>
       <c r="T29" s="11"/>
       <c r="U29" s="11">
-        <v>120089</v>
+        <v>121511</v>
       </c>
       <c r="V29" s="11">
-        <v>5928</v>
+        <v>5992</v>
       </c>
       <c r="W29" s="11">
-        <v>5046</v>
+        <v>5150</v>
       </c>
       <c r="X29" s="11">
-        <v>1829</v>
+        <v>1888</v>
       </c>
       <c r="Y29" s="11">
-        <v>11484</v>
+        <v>11575</v>
       </c>
       <c r="Z29" s="11">
         <v>15</v>
       </c>
       <c r="AA29" s="11">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="2:27" hidden="1">
@@ -3234,25 +3234,25 @@
         <v>2023</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="14">
-        <v>641751</v>
+        <v>647906</v>
       </c>
       <c r="E30" s="14">
-        <v>630955</v>
+        <v>637598</v>
       </c>
       <c r="F30" s="14">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G30" s="14">
-        <v>55899</v>
+        <v>56139</v>
       </c>
       <c r="H30" s="14">
-        <v>9670</v>
+        <v>9752</v>
       </c>
       <c r="I30" s="14">
-        <v>3264</v>
+        <v>3280</v>
       </c>
       <c r="J30" s="14">
         <v>78</v>
@@ -3261,50 +3261,50 @@
         <v>1424</v>
       </c>
       <c r="L30" s="14">
-        <v>2114</v>
+        <v>2179</v>
       </c>
       <c r="M30" s="14">
-        <v>58008</v>
+        <v>58481</v>
       </c>
       <c r="N30" s="14">
-        <v>3930</v>
+        <v>3945</v>
       </c>
       <c r="O30" s="14">
-        <v>35633</v>
+        <v>36238</v>
       </c>
       <c r="P30" s="14">
-        <v>21736</v>
+        <v>21962</v>
       </c>
       <c r="Q30" s="14">
-        <v>38964</v>
+        <v>38923</v>
       </c>
       <c r="R30" s="14">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="S30" s="14">
-        <v>50759</v>
+        <v>51526</v>
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="14">
-        <v>119535</v>
+        <v>120827</v>
       </c>
       <c r="V30" s="14">
-        <v>5904</v>
+        <v>5957</v>
       </c>
       <c r="W30" s="14">
-        <v>4993</v>
+        <v>5099</v>
       </c>
       <c r="X30" s="14">
-        <v>1785</v>
+        <v>1866</v>
       </c>
       <c r="Y30" s="14">
-        <v>11422</v>
+        <v>11503</v>
       </c>
       <c r="Z30" s="14">
         <v>15</v>
       </c>
       <c r="AA30" s="14">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="31" spans="2:27" hidden="1">
@@ -3312,25 +3312,25 @@
         <v>2023</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31" s="11">
-        <v>639200</v>
+        <v>645139</v>
       </c>
       <c r="E31" s="11">
-        <v>628078</v>
+        <v>634226</v>
       </c>
       <c r="F31" s="11">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G31" s="11">
-        <v>55839</v>
+        <v>55988</v>
       </c>
       <c r="H31" s="11">
-        <v>9614</v>
+        <v>9716</v>
       </c>
       <c r="I31" s="11">
-        <v>3257</v>
+        <v>3277</v>
       </c>
       <c r="J31" s="11">
         <v>78</v>
@@ -3339,50 +3339,50 @@
         <v>1424</v>
       </c>
       <c r="L31" s="11">
-        <v>2091</v>
+        <v>2130</v>
       </c>
       <c r="M31" s="11">
-        <v>57753</v>
+        <v>58224</v>
       </c>
       <c r="N31" s="11">
-        <v>3924</v>
+        <v>3934</v>
       </c>
       <c r="O31" s="11">
-        <v>35418</v>
+        <v>35910</v>
       </c>
       <c r="P31" s="11">
-        <v>21601</v>
+        <v>21848</v>
       </c>
       <c r="Q31" s="11">
-        <v>38737</v>
+        <v>38619</v>
       </c>
       <c r="R31" s="11">
-        <v>2613</v>
+        <v>2634</v>
       </c>
       <c r="S31" s="11">
-        <v>50312</v>
+        <v>51228</v>
       </c>
       <c r="T31" s="11"/>
       <c r="U31" s="11">
-        <v>119109</v>
+        <v>120089</v>
       </c>
       <c r="V31" s="11">
-        <v>5878</v>
+        <v>5928</v>
       </c>
       <c r="W31" s="11">
-        <v>4974</v>
+        <v>5046</v>
       </c>
       <c r="X31" s="11">
-        <v>1760</v>
+        <v>1829</v>
       </c>
       <c r="Y31" s="11">
-        <v>11402</v>
+        <v>11484</v>
       </c>
       <c r="Z31" s="11">
         <v>15</v>
       </c>
       <c r="AA31" s="11">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="32" spans="2:27" hidden="1">
@@ -3390,25 +3390,25 @@
         <v>2023</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="14">
-        <v>636167</v>
+        <v>641751</v>
       </c>
       <c r="E32" s="14">
-        <v>625114</v>
+        <v>630955</v>
       </c>
       <c r="F32" s="14">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G32" s="14">
-        <v>55765</v>
+        <v>55899</v>
       </c>
       <c r="H32" s="14">
-        <v>9522</v>
+        <v>9670</v>
       </c>
       <c r="I32" s="14">
-        <v>3239</v>
+        <v>3264</v>
       </c>
       <c r="J32" s="14">
         <v>78</v>
@@ -3417,158 +3417,154 @@
         <v>1424</v>
       </c>
       <c r="L32" s="14">
-        <v>2039</v>
+        <v>2114</v>
       </c>
       <c r="M32" s="14">
-        <v>57425</v>
+        <v>58008</v>
       </c>
       <c r="N32" s="14">
-        <v>3900</v>
+        <v>3930</v>
       </c>
       <c r="O32" s="14">
-        <v>34878</v>
+        <v>35633</v>
       </c>
       <c r="P32" s="14">
-        <v>21229</v>
+        <v>21736</v>
       </c>
       <c r="Q32" s="14">
-        <v>38464</v>
+        <v>38964</v>
       </c>
       <c r="R32" s="14">
-        <v>2594</v>
+        <v>2631</v>
       </c>
       <c r="S32" s="14">
-        <v>49720</v>
-      </c>
-      <c r="T32" s="14">
-        <v>1</v>
-      </c>
+        <v>50759</v>
+      </c>
+      <c r="T32" s="14"/>
       <c r="U32" s="14">
-        <v>118529</v>
+        <v>119535</v>
       </c>
       <c r="V32" s="14">
-        <v>5852</v>
+        <v>5904</v>
       </c>
       <c r="W32" s="14">
-        <v>4936</v>
+        <v>4993</v>
       </c>
       <c r="X32" s="14">
-        <v>1736</v>
+        <v>1785</v>
       </c>
       <c r="Y32" s="14">
-        <v>11378</v>
+        <v>11422</v>
       </c>
       <c r="Z32" s="14">
         <v>15</v>
       </c>
       <c r="AA32" s="14">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33" spans="2:27" hidden="1">
-      <c r="B33" s="18">
+      <c r="B33" s="10">
         <v>2023</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="19">
-        <v>633934</v>
-      </c>
-      <c r="E33" s="19">
-        <v>622491</v>
-      </c>
-      <c r="F33" s="19">
-        <v>534</v>
-      </c>
-      <c r="G33" s="19">
-        <v>55802</v>
-      </c>
-      <c r="H33" s="19">
-        <v>9494</v>
-      </c>
-      <c r="I33" s="19">
-        <v>3245</v>
-      </c>
-      <c r="J33" s="19">
+      <c r="C33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="11">
+        <v>639200</v>
+      </c>
+      <c r="E33" s="11">
+        <v>628078</v>
+      </c>
+      <c r="F33" s="11">
+        <v>535</v>
+      </c>
+      <c r="G33" s="11">
+        <v>55839</v>
+      </c>
+      <c r="H33" s="11">
+        <v>9614</v>
+      </c>
+      <c r="I33" s="11">
+        <v>3257</v>
+      </c>
+      <c r="J33" s="11">
         <v>78</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="11">
         <v>1424</v>
       </c>
-      <c r="L33" s="19">
-        <v>2009</v>
-      </c>
-      <c r="M33" s="19">
-        <v>57250</v>
-      </c>
-      <c r="N33" s="19">
-        <v>3899</v>
-      </c>
-      <c r="O33" s="19">
-        <v>34654</v>
-      </c>
-      <c r="P33" s="19">
-        <v>20907</v>
-      </c>
-      <c r="Q33" s="19">
-        <v>38288</v>
-      </c>
-      <c r="R33" s="19">
-        <v>2590</v>
-      </c>
-      <c r="S33" s="19">
-        <v>49582</v>
-      </c>
-      <c r="T33" s="19">
-        <v>1</v>
-      </c>
-      <c r="U33" s="19">
-        <v>118075</v>
-      </c>
-      <c r="V33" s="19">
-        <v>5811</v>
-      </c>
-      <c r="W33" s="19">
-        <v>4917</v>
-      </c>
-      <c r="X33" s="19">
-        <v>1700</v>
-      </c>
-      <c r="Y33" s="19">
-        <v>11348</v>
-      </c>
-      <c r="Z33" s="19">
+      <c r="L33" s="11">
+        <v>2091</v>
+      </c>
+      <c r="M33" s="11">
+        <v>57753</v>
+      </c>
+      <c r="N33" s="11">
+        <v>3924</v>
+      </c>
+      <c r="O33" s="11">
+        <v>35418</v>
+      </c>
+      <c r="P33" s="11">
+        <v>21601</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>38737</v>
+      </c>
+      <c r="R33" s="11">
+        <v>2613</v>
+      </c>
+      <c r="S33" s="11">
+        <v>50312</v>
+      </c>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11">
+        <v>119109</v>
+      </c>
+      <c r="V33" s="11">
+        <v>5878</v>
+      </c>
+      <c r="W33" s="11">
+        <v>4974</v>
+      </c>
+      <c r="X33" s="11">
+        <v>1760</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>11402</v>
+      </c>
+      <c r="Z33" s="11">
         <v>15</v>
       </c>
-      <c r="AA33" s="19">
-        <v>712</v>
+      <c r="AA33" s="11">
+        <v>713</v>
       </c>
     </row>
     <row r="34" spans="2:27" hidden="1">
       <c r="B34" s="13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="14">
-        <v>632252</v>
+        <v>636167</v>
       </c>
       <c r="E34" s="14">
-        <v>620240</v>
+        <v>625114</v>
       </c>
       <c r="F34" s="14">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G34" s="14">
-        <v>55869</v>
+        <v>55765</v>
       </c>
       <c r="H34" s="14">
-        <v>9451</v>
+        <v>9522</v>
       </c>
       <c r="I34" s="14">
-        <v>3234</v>
+        <v>3239</v>
       </c>
       <c r="J34" s="14">
         <v>78</v>
@@ -3577,128 +3573,132 @@
         <v>1424</v>
       </c>
       <c r="L34" s="14">
-        <v>1986</v>
+        <v>2039</v>
       </c>
       <c r="M34" s="14">
-        <v>57083</v>
+        <v>57425</v>
       </c>
       <c r="N34" s="14">
-        <v>3895</v>
+        <v>3900</v>
       </c>
       <c r="O34" s="14">
-        <v>34339</v>
+        <v>34878</v>
       </c>
       <c r="P34" s="14">
-        <v>20924</v>
+        <v>21229</v>
       </c>
       <c r="Q34" s="14">
-        <v>38275</v>
+        <v>38464</v>
       </c>
       <c r="R34" s="14">
-        <v>2577</v>
+        <v>2594</v>
       </c>
       <c r="S34" s="14">
-        <v>49203</v>
-      </c>
-      <c r="T34" s="14"/>
+        <v>49720</v>
+      </c>
+      <c r="T34" s="14">
+        <v>1</v>
+      </c>
       <c r="U34" s="14">
-        <v>117636</v>
+        <v>118529</v>
       </c>
       <c r="V34" s="14">
-        <v>5783</v>
+        <v>5852</v>
       </c>
       <c r="W34" s="14">
-        <v>4904</v>
+        <v>4936</v>
       </c>
       <c r="X34" s="14">
-        <v>1678</v>
+        <v>1736</v>
       </c>
       <c r="Y34" s="14">
-        <v>11327</v>
+        <v>11378</v>
       </c>
       <c r="Z34" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA34" s="14">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="2:27" hidden="1">
-      <c r="B35" s="10">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="11">
-        <v>629746</v>
-      </c>
-      <c r="E35" s="11">
-        <v>617778</v>
-      </c>
-      <c r="F35" s="11">
-        <v>528</v>
-      </c>
-      <c r="G35" s="11">
-        <v>55776</v>
-      </c>
-      <c r="H35" s="11">
-        <v>9347</v>
-      </c>
-      <c r="I35" s="11">
-        <v>3197</v>
-      </c>
-      <c r="J35" s="11">
-        <v>77</v>
-      </c>
-      <c r="K35" s="11">
+      <c r="B35" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="19">
+        <v>633934</v>
+      </c>
+      <c r="E35" s="19">
+        <v>622491</v>
+      </c>
+      <c r="F35" s="19">
+        <v>534</v>
+      </c>
+      <c r="G35" s="19">
+        <v>55802</v>
+      </c>
+      <c r="H35" s="19">
+        <v>9494</v>
+      </c>
+      <c r="I35" s="19">
+        <v>3245</v>
+      </c>
+      <c r="J35" s="19">
+        <v>78</v>
+      </c>
+      <c r="K35" s="19">
         <v>1424</v>
       </c>
-      <c r="L35" s="11">
-        <v>1959</v>
-      </c>
-      <c r="M35" s="11">
-        <v>56592</v>
-      </c>
-      <c r="N35" s="11">
-        <v>3885</v>
-      </c>
-      <c r="O35" s="11">
-        <v>33921</v>
-      </c>
-      <c r="P35" s="11">
-        <v>20669</v>
-      </c>
-      <c r="Q35" s="11">
-        <v>38043</v>
-      </c>
-      <c r="R35" s="11">
-        <v>2568</v>
-      </c>
-      <c r="S35" s="11">
-        <v>48930</v>
-      </c>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11">
-        <v>117218</v>
-      </c>
-      <c r="V35" s="11">
-        <v>5770</v>
-      </c>
-      <c r="W35" s="11">
-        <v>4899</v>
-      </c>
-      <c r="X35" s="11">
-        <v>1652</v>
-      </c>
-      <c r="Y35" s="11">
-        <v>11234</v>
-      </c>
-      <c r="Z35" s="11">
+      <c r="L35" s="19">
+        <v>2009</v>
+      </c>
+      <c r="M35" s="19">
+        <v>57250</v>
+      </c>
+      <c r="N35" s="19">
+        <v>3899</v>
+      </c>
+      <c r="O35" s="19">
+        <v>34654</v>
+      </c>
+      <c r="P35" s="19">
+        <v>20907</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>38288</v>
+      </c>
+      <c r="R35" s="19">
+        <v>2590</v>
+      </c>
+      <c r="S35" s="19">
+        <v>49582</v>
+      </c>
+      <c r="T35" s="19">
+        <v>1</v>
+      </c>
+      <c r="U35" s="19">
+        <v>118075</v>
+      </c>
+      <c r="V35" s="19">
+        <v>5811</v>
+      </c>
+      <c r="W35" s="19">
+        <v>4917</v>
+      </c>
+      <c r="X35" s="19">
+        <v>1700</v>
+      </c>
+      <c r="Y35" s="19">
+        <v>11348</v>
+      </c>
+      <c r="Z35" s="19">
         <v>15</v>
       </c>
-      <c r="AA35" s="11">
-        <v>707</v>
+      <c r="AA35" s="19">
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="2:27" hidden="1">
@@ -3706,74 +3706,74 @@
         <v>2022</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="14">
-        <v>627591</v>
+        <v>632252</v>
       </c>
       <c r="E36" s="14">
-        <v>615376</v>
+        <v>620240</v>
       </c>
       <c r="F36" s="14">
         <v>528</v>
       </c>
       <c r="G36" s="14">
-        <v>55700</v>
+        <v>55869</v>
       </c>
       <c r="H36" s="14">
-        <v>9310</v>
+        <v>9451</v>
       </c>
       <c r="I36" s="14">
-        <v>3164</v>
+        <v>3234</v>
       </c>
       <c r="J36" s="14">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" s="14">
         <v>1424</v>
       </c>
       <c r="L36" s="14">
-        <v>1936</v>
+        <v>1986</v>
       </c>
       <c r="M36" s="14">
-        <v>56336</v>
+        <v>57083</v>
       </c>
       <c r="N36" s="14">
-        <v>3884</v>
+        <v>3895</v>
       </c>
       <c r="O36" s="14">
-        <v>33523</v>
+        <v>34339</v>
       </c>
       <c r="P36" s="14">
-        <v>20457</v>
+        <v>20924</v>
       </c>
       <c r="Q36" s="14">
-        <v>37927</v>
+        <v>38275</v>
       </c>
       <c r="R36" s="14">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="S36" s="14">
-        <v>48696</v>
+        <v>49203</v>
       </c>
       <c r="T36" s="14"/>
       <c r="U36" s="14">
-        <v>116809</v>
+        <v>117636</v>
       </c>
       <c r="V36" s="14">
-        <v>5709</v>
+        <v>5783</v>
       </c>
       <c r="W36" s="14">
-        <v>4865</v>
+        <v>4904</v>
       </c>
       <c r="X36" s="14">
-        <v>1637</v>
+        <v>1678</v>
       </c>
       <c r="Y36" s="14">
-        <v>11207</v>
+        <v>11327</v>
       </c>
       <c r="Z36" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA36" s="14">
         <v>706</v>
@@ -3784,25 +3784,25 @@
         <v>2022</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" s="11">
-        <v>625802</v>
+        <v>629746</v>
       </c>
       <c r="E37" s="11">
-        <v>613527</v>
+        <v>617778</v>
       </c>
       <c r="F37" s="11">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G37" s="11">
-        <v>55774</v>
+        <v>55776</v>
       </c>
       <c r="H37" s="11">
-        <v>9280</v>
+        <v>9347</v>
       </c>
       <c r="I37" s="11">
-        <v>3168</v>
+        <v>3197</v>
       </c>
       <c r="J37" s="11">
         <v>77</v>
@@ -3811,50 +3811,50 @@
         <v>1424</v>
       </c>
       <c r="L37" s="11">
-        <v>1923</v>
+        <v>1959</v>
       </c>
       <c r="M37" s="11">
-        <v>56179</v>
+        <v>56592</v>
       </c>
       <c r="N37" s="11">
-        <v>3894</v>
+        <v>3885</v>
       </c>
       <c r="O37" s="11">
-        <v>33212</v>
+        <v>33921</v>
       </c>
       <c r="P37" s="11">
-        <v>20145</v>
+        <v>20669</v>
       </c>
       <c r="Q37" s="11">
-        <v>37799</v>
+        <v>38043</v>
       </c>
       <c r="R37" s="11">
-        <v>2588</v>
+        <v>2568</v>
       </c>
       <c r="S37" s="11">
-        <v>48487</v>
+        <v>48930</v>
       </c>
       <c r="T37" s="11"/>
       <c r="U37" s="11">
-        <v>116524</v>
+        <v>117218</v>
       </c>
       <c r="V37" s="11">
-        <v>5685</v>
+        <v>5770</v>
       </c>
       <c r="W37" s="11">
-        <v>4852</v>
+        <v>4899</v>
       </c>
       <c r="X37" s="11">
-        <v>1602</v>
+        <v>1652</v>
       </c>
       <c r="Y37" s="11">
-        <v>11195</v>
+        <v>11234</v>
       </c>
       <c r="Z37" s="11">
         <v>15</v>
       </c>
       <c r="AA37" s="11">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="38" spans="2:27" hidden="1">
@@ -3862,25 +3862,25 @@
         <v>2022</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D38" s="14">
-        <v>623225</v>
+        <v>627591</v>
       </c>
       <c r="E38" s="14">
-        <v>611005</v>
+        <v>615376</v>
       </c>
       <c r="F38" s="14">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G38" s="14">
         <v>55700</v>
       </c>
       <c r="H38" s="14">
-        <v>9285</v>
+        <v>9310</v>
       </c>
       <c r="I38" s="14">
-        <v>3159</v>
+        <v>3164</v>
       </c>
       <c r="J38" s="14">
         <v>77</v>
@@ -3889,50 +3889,50 @@
         <v>1424</v>
       </c>
       <c r="L38" s="14">
-        <v>1959</v>
+        <v>1936</v>
       </c>
       <c r="M38" s="14">
-        <v>56592</v>
+        <v>56336</v>
       </c>
       <c r="N38" s="14">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="O38" s="14">
-        <v>33921</v>
+        <v>33523</v>
       </c>
       <c r="P38" s="14">
-        <v>19873</v>
+        <v>20457</v>
       </c>
       <c r="Q38" s="14">
-        <v>37606</v>
+        <v>37927</v>
       </c>
       <c r="R38" s="14">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="S38" s="14">
-        <v>48049</v>
+        <v>48696</v>
       </c>
       <c r="T38" s="14"/>
       <c r="U38" s="14">
-        <v>115967</v>
+        <v>116809</v>
       </c>
       <c r="V38" s="14">
-        <v>5662</v>
+        <v>5709</v>
       </c>
       <c r="W38" s="14">
-        <v>4804</v>
+        <v>4865</v>
       </c>
       <c r="X38" s="14">
-        <v>1573</v>
+        <v>1637</v>
       </c>
       <c r="Y38" s="14">
-        <v>11161</v>
+        <v>11207</v>
       </c>
       <c r="Z38" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA38" s="14">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="2:27" hidden="1">
@@ -3940,25 +3940,25 @@
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D39" s="11">
-        <v>619408</v>
+        <v>625802</v>
       </c>
       <c r="E39" s="11">
-        <v>607662</v>
+        <v>613527</v>
       </c>
       <c r="F39" s="11">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G39" s="11">
-        <v>55704</v>
+        <v>55774</v>
       </c>
       <c r="H39" s="11">
-        <v>9233</v>
+        <v>9280</v>
       </c>
       <c r="I39" s="11">
-        <v>3148</v>
+        <v>3168</v>
       </c>
       <c r="J39" s="11">
         <v>77</v>
@@ -3967,50 +3967,50 @@
         <v>1424</v>
       </c>
       <c r="L39" s="11">
-        <v>1866</v>
+        <v>1923</v>
       </c>
       <c r="M39" s="11">
-        <v>55722</v>
+        <v>56179</v>
       </c>
       <c r="N39" s="11">
-        <v>3891</v>
+        <v>3894</v>
       </c>
       <c r="O39" s="11">
-        <v>32461</v>
+        <v>33212</v>
       </c>
       <c r="P39" s="11">
-        <v>19530</v>
+        <v>20145</v>
       </c>
       <c r="Q39" s="11">
-        <v>37234</v>
+        <v>37799</v>
       </c>
       <c r="R39" s="11">
-        <v>2570</v>
+        <v>2588</v>
       </c>
       <c r="S39" s="11">
-        <v>47654</v>
+        <v>48487</v>
       </c>
       <c r="T39" s="11"/>
       <c r="U39" s="11">
-        <v>115526</v>
+        <v>116524</v>
       </c>
       <c r="V39" s="11">
-        <v>5597</v>
+        <v>5685</v>
       </c>
       <c r="W39" s="11">
-        <v>4695</v>
+        <v>4852</v>
       </c>
       <c r="X39" s="11">
-        <v>1536</v>
+        <v>1602</v>
       </c>
       <c r="Y39" s="11">
-        <v>11130</v>
+        <v>11195</v>
       </c>
       <c r="Z39" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA39" s="11">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="2:27" hidden="1">
@@ -4018,25 +4018,25 @@
         <v>2022</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="14">
-        <v>618040</v>
+        <v>623225</v>
       </c>
       <c r="E40" s="14">
-        <v>606724</v>
+        <v>611005</v>
       </c>
       <c r="F40" s="14">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G40" s="14">
-        <v>55570</v>
+        <v>55700</v>
       </c>
       <c r="H40" s="14">
-        <v>9217</v>
+        <v>9285</v>
       </c>
       <c r="I40" s="14">
-        <v>3142</v>
+        <v>3159</v>
       </c>
       <c r="J40" s="14">
         <v>77</v>
@@ -4045,50 +4045,50 @@
         <v>1424</v>
       </c>
       <c r="L40" s="14">
-        <v>1855</v>
+        <v>1959</v>
       </c>
       <c r="M40" s="14">
-        <v>55624</v>
+        <v>56592</v>
       </c>
       <c r="N40" s="14">
-        <v>3889</v>
+        <v>3885</v>
       </c>
       <c r="O40" s="14">
-        <v>32272</v>
+        <v>33921</v>
       </c>
       <c r="P40" s="14">
-        <v>19269</v>
+        <v>19873</v>
       </c>
       <c r="Q40" s="14">
-        <v>37056</v>
+        <v>37606</v>
       </c>
       <c r="R40" s="14">
-        <v>2562</v>
+        <v>2571</v>
       </c>
       <c r="S40" s="14">
-        <v>47342</v>
+        <v>48049</v>
       </c>
       <c r="T40" s="14"/>
       <c r="U40" s="14">
-        <v>114809</v>
+        <v>115967</v>
       </c>
       <c r="V40" s="14">
-        <v>5569</v>
+        <v>5662</v>
       </c>
       <c r="W40" s="14">
-        <v>4673</v>
+        <v>4804</v>
       </c>
       <c r="X40" s="14">
-        <v>1516</v>
+        <v>1573</v>
       </c>
       <c r="Y40" s="14">
-        <v>11114</v>
+        <v>11161</v>
       </c>
       <c r="Z40" s="14">
         <v>16</v>
       </c>
       <c r="AA40" s="14">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" spans="2:27" hidden="1">
@@ -4096,25 +4096,25 @@
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" s="11">
-        <v>616795</v>
+        <v>619408</v>
       </c>
       <c r="E41" s="11">
-        <v>605191</v>
+        <v>607662</v>
       </c>
       <c r="F41" s="11">
         <v>525</v>
       </c>
       <c r="G41" s="11">
-        <v>55673</v>
+        <v>55704</v>
       </c>
       <c r="H41" s="11">
-        <v>9298</v>
+        <v>9233</v>
       </c>
       <c r="I41" s="11">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="J41" s="11">
         <v>77</v>
@@ -4123,50 +4123,50 @@
         <v>1424</v>
       </c>
       <c r="L41" s="11">
-        <v>1846</v>
+        <v>1866</v>
       </c>
       <c r="M41" s="11">
-        <v>55382</v>
+        <v>55722</v>
       </c>
       <c r="N41" s="11">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="O41" s="11">
-        <v>32033</v>
+        <v>32461</v>
       </c>
       <c r="P41" s="11">
-        <v>19167</v>
+        <v>19530</v>
       </c>
       <c r="Q41" s="11">
-        <v>36662</v>
+        <v>37234</v>
       </c>
       <c r="R41" s="11">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="S41" s="11">
-        <v>47224</v>
+        <v>47654</v>
       </c>
       <c r="T41" s="11"/>
       <c r="U41" s="11">
-        <v>114792</v>
+        <v>115526</v>
       </c>
       <c r="V41" s="11">
-        <v>5511</v>
+        <v>5597</v>
       </c>
       <c r="W41" s="11">
-        <v>4622</v>
+        <v>4695</v>
       </c>
       <c r="X41" s="11">
-        <v>1474</v>
+        <v>1536</v>
       </c>
       <c r="Y41" s="11">
-        <v>11085</v>
+        <v>11130</v>
       </c>
       <c r="Z41" s="11">
         <v>16</v>
       </c>
       <c r="AA41" s="11">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="42" spans="2:27" hidden="1">
@@ -4174,25 +4174,25 @@
         <v>2022</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="14">
-        <v>614317</v>
+        <v>618040</v>
       </c>
       <c r="E42" s="14">
-        <v>602581</v>
+        <v>606724</v>
       </c>
       <c r="F42" s="14">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G42" s="14">
-        <v>55683</v>
+        <v>55570</v>
       </c>
       <c r="H42" s="14">
-        <v>9224</v>
+        <v>9217</v>
       </c>
       <c r="I42" s="14">
-        <v>3107</v>
+        <v>3142</v>
       </c>
       <c r="J42" s="14">
         <v>77</v>
@@ -4201,52 +4201,50 @@
         <v>1424</v>
       </c>
       <c r="L42" s="14">
-        <v>1833</v>
+        <v>1855</v>
       </c>
       <c r="M42" s="14">
-        <v>55240</v>
+        <v>55624</v>
       </c>
       <c r="N42" s="14">
-        <v>3885</v>
+        <v>3889</v>
       </c>
       <c r="O42" s="14">
-        <v>31772</v>
+        <v>32272</v>
       </c>
       <c r="P42" s="14">
-        <v>18897</v>
+        <v>19269</v>
       </c>
       <c r="Q42" s="14">
-        <v>36589</v>
+        <v>37056</v>
       </c>
       <c r="R42" s="14">
-        <v>2571</v>
+        <v>2562</v>
       </c>
       <c r="S42" s="14">
-        <v>46753</v>
-      </c>
-      <c r="T42" s="14">
-        <v>1</v>
-      </c>
+        <v>47342</v>
+      </c>
+      <c r="T42" s="14"/>
       <c r="U42" s="14">
-        <v>114370</v>
+        <v>114809</v>
       </c>
       <c r="V42" s="14">
-        <v>5457</v>
+        <v>5569</v>
       </c>
       <c r="W42" s="14">
-        <v>4577</v>
+        <v>4673</v>
       </c>
       <c r="X42" s="14">
-        <v>1352</v>
+        <v>1516</v>
       </c>
       <c r="Y42" s="14">
-        <v>11060</v>
+        <v>11114</v>
       </c>
       <c r="Z42" s="14">
         <v>16</v>
       </c>
       <c r="AA42" s="14">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="43" spans="2:27" hidden="1">
@@ -4254,25 +4252,25 @@
         <v>2022</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43" s="11">
-        <v>611918</v>
+        <v>616795</v>
       </c>
       <c r="E43" s="11">
-        <v>600194</v>
+        <v>605191</v>
       </c>
       <c r="F43" s="11">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G43" s="11">
-        <v>55693</v>
+        <v>55673</v>
       </c>
       <c r="H43" s="11">
-        <v>9204</v>
+        <v>9298</v>
       </c>
       <c r="I43" s="11">
-        <v>3089</v>
+        <v>3152</v>
       </c>
       <c r="J43" s="11">
         <v>77</v>
@@ -4281,52 +4279,50 @@
         <v>1424</v>
       </c>
       <c r="L43" s="11">
-        <v>1820</v>
+        <v>1846</v>
       </c>
       <c r="M43" s="11">
-        <v>55146</v>
+        <v>55382</v>
       </c>
       <c r="N43" s="11">
-        <v>3885</v>
+        <v>3892</v>
       </c>
       <c r="O43" s="11">
-        <v>31565</v>
+        <v>32033</v>
       </c>
       <c r="P43" s="11">
-        <v>18897</v>
+        <v>19167</v>
       </c>
       <c r="Q43" s="11">
-        <v>36589</v>
+        <v>36662</v>
       </c>
       <c r="R43" s="11">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="S43" s="11">
-        <v>46254</v>
-      </c>
-      <c r="T43" s="11">
-        <v>0</v>
-      </c>
+        <v>47224</v>
+      </c>
+      <c r="T43" s="11"/>
       <c r="U43" s="11">
-        <v>113789</v>
+        <v>114792</v>
       </c>
       <c r="V43" s="11">
-        <v>5441</v>
+        <v>5511</v>
       </c>
       <c r="W43" s="11">
-        <v>4530</v>
+        <v>4622</v>
       </c>
       <c r="X43" s="11">
-        <v>1276</v>
+        <v>1474</v>
       </c>
       <c r="Y43" s="11">
-        <v>11016</v>
+        <v>11085</v>
       </c>
       <c r="Z43" s="11">
         <v>16</v>
       </c>
       <c r="AA43" s="11">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="44" spans="2:27" hidden="1">
@@ -4334,25 +4330,25 @@
         <v>2022</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="14">
-        <v>609072</v>
+        <v>614317</v>
       </c>
       <c r="E44" s="14">
-        <v>597797</v>
+        <v>602581</v>
       </c>
       <c r="F44" s="14">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G44" s="14">
-        <v>55620</v>
+        <v>55683</v>
       </c>
       <c r="H44" s="14">
-        <v>9119</v>
+        <v>9224</v>
       </c>
       <c r="I44" s="14">
-        <v>3048</v>
+        <v>3107</v>
       </c>
       <c r="J44" s="14">
         <v>77</v>
@@ -4361,156 +4357,158 @@
         <v>1424</v>
       </c>
       <c r="L44" s="14">
-        <v>1803</v>
+        <v>1833</v>
       </c>
       <c r="M44" s="14">
-        <v>54943</v>
+        <v>55240</v>
       </c>
       <c r="N44" s="14">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="O44" s="14">
-        <v>31259</v>
+        <v>31772</v>
       </c>
       <c r="P44" s="14">
-        <v>18473</v>
+        <v>18897</v>
       </c>
       <c r="Q44" s="14">
-        <v>35996</v>
+        <v>36589</v>
       </c>
       <c r="R44" s="14">
-        <v>2581</v>
+        <v>2571</v>
       </c>
       <c r="S44" s="14">
-        <v>45940</v>
+        <v>46753</v>
       </c>
       <c r="T44" s="14">
         <v>1</v>
       </c>
       <c r="U44" s="14">
-        <v>112805</v>
+        <v>114370</v>
       </c>
       <c r="V44" s="14">
-        <v>5407</v>
+        <v>5457</v>
       </c>
       <c r="W44" s="14">
-        <v>4480</v>
+        <v>4577</v>
       </c>
       <c r="X44" s="14">
-        <v>1159</v>
+        <v>1352</v>
       </c>
       <c r="Y44" s="14">
-        <v>10978</v>
+        <v>11060</v>
       </c>
       <c r="Z44" s="14">
         <v>16</v>
       </c>
       <c r="AA44" s="14">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="2:27" hidden="1">
-      <c r="B45" s="18">
+      <c r="B45" s="10">
         <v>2022</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="19">
-        <v>607150</v>
-      </c>
-      <c r="E45" s="19">
-        <v>596005</v>
-      </c>
-      <c r="F45" s="19">
-        <v>524</v>
-      </c>
-      <c r="G45" s="19">
-        <v>55683</v>
-      </c>
-      <c r="H45" s="19">
-        <v>9107</v>
-      </c>
-      <c r="I45" s="19">
-        <v>3044</v>
-      </c>
-      <c r="J45" s="19">
+      <c r="C45" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="11">
+        <v>611918</v>
+      </c>
+      <c r="E45" s="11">
+        <v>600194</v>
+      </c>
+      <c r="F45" s="11">
+        <v>523</v>
+      </c>
+      <c r="G45" s="11">
+        <v>55693</v>
+      </c>
+      <c r="H45" s="11">
+        <v>9204</v>
+      </c>
+      <c r="I45" s="11">
+        <v>3089</v>
+      </c>
+      <c r="J45" s="11">
         <v>77</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="11">
         <v>1424</v>
       </c>
-      <c r="L45" s="19">
-        <v>1789</v>
-      </c>
-      <c r="M45" s="19">
-        <v>54848</v>
-      </c>
-      <c r="N45" s="19">
-        <v>3889</v>
-      </c>
-      <c r="O45" s="19">
-        <v>31054</v>
-      </c>
-      <c r="P45" s="19">
-        <v>18394</v>
-      </c>
-      <c r="Q45" s="19">
-        <v>35736</v>
-      </c>
-      <c r="R45" s="19">
-        <v>2573</v>
-      </c>
-      <c r="S45" s="19">
-        <v>45388</v>
-      </c>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19">
-        <v>112333</v>
-      </c>
-      <c r="V45" s="19">
-        <v>5355</v>
-      </c>
-      <c r="W45" s="19">
-        <v>4440</v>
-      </c>
-      <c r="X45" s="19">
-        <v>1030</v>
-      </c>
-      <c r="Y45" s="19">
-        <v>10960</v>
-      </c>
-      <c r="Z45" s="19">
+      <c r="L45" s="11">
+        <v>1820</v>
+      </c>
+      <c r="M45" s="11">
+        <v>55146</v>
+      </c>
+      <c r="N45" s="11">
+        <v>3885</v>
+      </c>
+      <c r="O45" s="11">
+        <v>31565</v>
+      </c>
+      <c r="P45" s="11">
+        <v>18897</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>36589</v>
+      </c>
+      <c r="R45" s="11">
+        <v>2568</v>
+      </c>
+      <c r="S45" s="11">
+        <v>46254</v>
+      </c>
+      <c r="T45" s="11">
+        <v>0</v>
+      </c>
+      <c r="U45" s="11">
+        <v>113789</v>
+      </c>
+      <c r="V45" s="11">
+        <v>5441</v>
+      </c>
+      <c r="W45" s="11">
+        <v>4530</v>
+      </c>
+      <c r="X45" s="11">
+        <v>1276</v>
+      </c>
+      <c r="Y45" s="11">
+        <v>11016</v>
+      </c>
+      <c r="Z45" s="11">
         <v>16</v>
       </c>
-      <c r="AA45" s="19">
-        <v>693</v>
+      <c r="AA45" s="11">
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="2:27" hidden="1">
       <c r="B46" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D46" s="14">
-        <v>606090</v>
+        <v>609072</v>
       </c>
       <c r="E46" s="14">
-        <v>594443</v>
+        <v>597797</v>
       </c>
       <c r="F46" s="14">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G46" s="14">
-        <v>55717</v>
+        <v>55620</v>
       </c>
       <c r="H46" s="14">
-        <v>9091</v>
+        <v>9119</v>
       </c>
       <c r="I46" s="14">
-        <v>3021</v>
+        <v>3048</v>
       </c>
       <c r="J46" s="14">
         <v>77</v>
@@ -4519,128 +4517,130 @@
         <v>1424</v>
       </c>
       <c r="L46" s="14">
-        <v>1787</v>
+        <v>1803</v>
       </c>
       <c r="M46" s="14">
-        <v>54743</v>
+        <v>54943</v>
       </c>
       <c r="N46" s="14">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="O46" s="14">
-        <v>30885</v>
+        <v>31259</v>
       </c>
       <c r="P46" s="14">
-        <v>18334</v>
+        <v>18473</v>
       </c>
       <c r="Q46" s="14">
-        <v>35952</v>
+        <v>35996</v>
       </c>
       <c r="R46" s="14">
-        <v>2604</v>
+        <v>2581</v>
       </c>
       <c r="S46" s="14">
-        <v>45157</v>
-      </c>
-      <c r="T46" s="14"/>
+        <v>45940</v>
+      </c>
+      <c r="T46" s="14">
+        <v>1</v>
+      </c>
       <c r="U46" s="14">
-        <v>111857</v>
+        <v>112805</v>
       </c>
       <c r="V46" s="14">
-        <v>5309</v>
+        <v>5407</v>
       </c>
       <c r="W46" s="14">
-        <v>4400</v>
+        <v>4480</v>
       </c>
       <c r="X46" s="14">
-        <v>957</v>
+        <v>1159</v>
       </c>
       <c r="Y46" s="14">
-        <v>10938</v>
+        <v>10978</v>
       </c>
       <c r="Z46" s="14">
         <v>16</v>
       </c>
       <c r="AA46" s="14">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="2:27" hidden="1">
-      <c r="B47" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="11">
-        <v>603380</v>
-      </c>
-      <c r="E47" s="11">
-        <v>591451</v>
-      </c>
-      <c r="F47" s="11">
-        <v>519</v>
-      </c>
-      <c r="G47" s="11">
-        <v>55656</v>
-      </c>
-      <c r="H47" s="11">
-        <v>9054</v>
-      </c>
-      <c r="I47" s="11">
-        <v>2985</v>
-      </c>
-      <c r="J47" s="11">
+      <c r="B47" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="19">
+        <v>607150</v>
+      </c>
+      <c r="E47" s="19">
+        <v>596005</v>
+      </c>
+      <c r="F47" s="19">
+        <v>524</v>
+      </c>
+      <c r="G47" s="19">
+        <v>55683</v>
+      </c>
+      <c r="H47" s="19">
+        <v>9107</v>
+      </c>
+      <c r="I47" s="19">
+        <v>3044</v>
+      </c>
+      <c r="J47" s="19">
         <v>77</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="19">
         <v>1424</v>
       </c>
-      <c r="L47" s="11">
-        <v>1775</v>
-      </c>
-      <c r="M47" s="11">
-        <v>54335</v>
-      </c>
-      <c r="N47" s="11">
-        <v>3888</v>
-      </c>
-      <c r="O47" s="11">
-        <v>30589</v>
-      </c>
-      <c r="P47" s="11">
-        <v>18224</v>
-      </c>
-      <c r="Q47" s="11">
-        <v>35977</v>
-      </c>
-      <c r="R47" s="11">
-        <v>2594</v>
-      </c>
-      <c r="S47" s="11">
-        <v>44663</v>
-      </c>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11">
-        <v>110970</v>
-      </c>
-      <c r="V47" s="11">
-        <v>5249</v>
-      </c>
-      <c r="W47" s="11">
-        <v>4357</v>
-      </c>
-      <c r="X47" s="11">
-        <v>868</v>
-      </c>
-      <c r="Y47" s="11">
-        <v>10873</v>
-      </c>
-      <c r="Z47" s="11">
+      <c r="L47" s="19">
+        <v>1789</v>
+      </c>
+      <c r="M47" s="19">
+        <v>54848</v>
+      </c>
+      <c r="N47" s="19">
+        <v>3889</v>
+      </c>
+      <c r="O47" s="19">
+        <v>31054</v>
+      </c>
+      <c r="P47" s="19">
+        <v>18394</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>35736</v>
+      </c>
+      <c r="R47" s="19">
+        <v>2573</v>
+      </c>
+      <c r="S47" s="19">
+        <v>45388</v>
+      </c>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19">
+        <v>112333</v>
+      </c>
+      <c r="V47" s="19">
+        <v>5355</v>
+      </c>
+      <c r="W47" s="19">
+        <v>4440</v>
+      </c>
+      <c r="X47" s="19">
+        <v>1030</v>
+      </c>
+      <c r="Y47" s="19">
+        <v>10960</v>
+      </c>
+      <c r="Z47" s="19">
         <v>16</v>
       </c>
-      <c r="AA47" s="11">
-        <v>692</v>
+      <c r="AA47" s="19">
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="2:27" hidden="1">
@@ -4648,25 +4648,25 @@
         <v>2021</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48" s="14">
-        <v>602061</v>
+        <v>606090</v>
       </c>
       <c r="E48" s="14">
-        <v>590200</v>
+        <v>594443</v>
       </c>
       <c r="F48" s="14">
         <v>520</v>
       </c>
       <c r="G48" s="14">
-        <v>55685</v>
+        <v>55717</v>
       </c>
       <c r="H48" s="14">
-        <v>8999</v>
+        <v>9091</v>
       </c>
       <c r="I48" s="14">
-        <v>2982</v>
+        <v>3021</v>
       </c>
       <c r="J48" s="14">
         <v>77</v>
@@ -4675,50 +4675,50 @@
         <v>1424</v>
       </c>
       <c r="L48" s="14">
-        <v>1768</v>
+        <v>1787</v>
       </c>
       <c r="M48" s="14">
-        <v>54086</v>
+        <v>54743</v>
       </c>
       <c r="N48" s="14">
-        <v>3885</v>
+        <v>3888</v>
       </c>
       <c r="O48" s="14">
-        <v>30303</v>
+        <v>30885</v>
       </c>
       <c r="P48" s="14">
-        <v>18211</v>
+        <v>18334</v>
       </c>
       <c r="Q48" s="14">
-        <v>36050</v>
+        <v>35952</v>
       </c>
       <c r="R48" s="14">
-        <v>2611</v>
+        <v>2604</v>
       </c>
       <c r="S48" s="14">
-        <v>44484</v>
+        <v>45157</v>
       </c>
       <c r="T48" s="14"/>
       <c r="U48" s="14">
-        <v>110396</v>
+        <v>111857</v>
       </c>
       <c r="V48" s="14">
-        <v>5205</v>
+        <v>5309</v>
       </c>
       <c r="W48" s="14">
-        <v>4316</v>
+        <v>4400</v>
       </c>
       <c r="X48" s="14">
-        <v>836</v>
+        <v>957</v>
       </c>
       <c r="Y48" s="14">
-        <v>10858</v>
+        <v>10938</v>
       </c>
       <c r="Z48" s="14">
         <v>16</v>
       </c>
       <c r="AA48" s="14">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="49" spans="2:27" hidden="1">
@@ -4726,25 +4726,25 @@
         <v>2021</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49" s="11">
-        <v>599199</v>
+        <v>603380</v>
       </c>
       <c r="E49" s="11">
-        <v>586326</v>
+        <v>591451</v>
       </c>
       <c r="F49" s="11">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G49" s="11">
-        <v>55678</v>
+        <v>55656</v>
       </c>
       <c r="H49" s="11">
-        <v>8883</v>
+        <v>9054</v>
       </c>
       <c r="I49" s="11">
-        <v>2962</v>
+        <v>2985</v>
       </c>
       <c r="J49" s="11">
         <v>77</v>
@@ -4753,50 +4753,50 @@
         <v>1424</v>
       </c>
       <c r="L49" s="11">
-        <v>1761</v>
+        <v>1775</v>
       </c>
       <c r="M49" s="11">
-        <v>53840</v>
+        <v>54335</v>
       </c>
       <c r="N49" s="11">
-        <v>3878</v>
+        <v>3888</v>
       </c>
       <c r="O49" s="11">
-        <v>30091</v>
+        <v>30589</v>
       </c>
       <c r="P49" s="11">
-        <v>18180</v>
+        <v>18224</v>
       </c>
       <c r="Q49" s="11">
-        <v>35973</v>
+        <v>35977</v>
       </c>
       <c r="R49" s="11">
-        <v>2618</v>
+        <v>2594</v>
       </c>
       <c r="S49" s="11">
-        <v>43957</v>
+        <v>44663</v>
       </c>
       <c r="T49" s="11"/>
       <c r="U49" s="11">
-        <v>110047</v>
+        <v>110970</v>
       </c>
       <c r="V49" s="11">
-        <v>5137</v>
+        <v>5249</v>
       </c>
       <c r="W49" s="11">
-        <v>4253</v>
+        <v>4357</v>
       </c>
       <c r="X49" s="11">
-        <v>705</v>
+        <v>868</v>
       </c>
       <c r="Y49" s="11">
-        <v>10790</v>
+        <v>10873</v>
       </c>
       <c r="Z49" s="11">
         <v>16</v>
       </c>
       <c r="AA49" s="11">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="2:27" hidden="1">
@@ -4804,25 +4804,25 @@
         <v>2021</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D50" s="14">
-        <v>597975</v>
+        <v>602061</v>
       </c>
       <c r="E50" s="14">
-        <v>583854</v>
+        <v>590200</v>
       </c>
       <c r="F50" s="14">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="G50" s="14">
-        <v>55668</v>
+        <v>55685</v>
       </c>
       <c r="H50" s="14">
-        <v>8821</v>
+        <v>8999</v>
       </c>
       <c r="I50" s="14">
-        <v>2977</v>
+        <v>2982</v>
       </c>
       <c r="J50" s="14">
         <v>77</v>
@@ -4831,50 +4831,50 @@
         <v>1424</v>
       </c>
       <c r="L50" s="14">
-        <v>1753</v>
+        <v>1768</v>
       </c>
       <c r="M50" s="14">
-        <v>53278</v>
+        <v>54086</v>
       </c>
       <c r="N50" s="14">
-        <v>3892</v>
+        <v>3885</v>
       </c>
       <c r="O50" s="14">
-        <v>29694</v>
+        <v>30303</v>
       </c>
       <c r="P50" s="14">
-        <v>18180</v>
+        <v>18211</v>
       </c>
       <c r="Q50" s="14">
-        <v>35973</v>
+        <v>36050</v>
       </c>
       <c r="R50" s="14">
-        <v>2605</v>
+        <v>2611</v>
       </c>
       <c r="S50" s="14">
-        <v>42961</v>
+        <v>44484</v>
       </c>
       <c r="T50" s="14"/>
       <c r="U50" s="14">
-        <v>138152</v>
+        <v>110396</v>
       </c>
       <c r="V50" s="14">
-        <v>6095</v>
+        <v>5205</v>
       </c>
       <c r="W50" s="14">
-        <v>4045</v>
+        <v>4316</v>
       </c>
       <c r="X50" s="14">
-        <v>666</v>
+        <v>836</v>
       </c>
       <c r="Y50" s="14">
-        <v>10713</v>
+        <v>10858</v>
       </c>
       <c r="Z50" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA50" s="14">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="51" spans="2:27" hidden="1">
@@ -4882,25 +4882,25 @@
         <v>2021</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D51" s="11">
-        <v>594590</v>
+        <v>599199</v>
       </c>
       <c r="E51" s="11">
-        <v>580812</v>
+        <v>586326</v>
       </c>
       <c r="F51" s="11">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="G51" s="11">
-        <v>55750</v>
+        <v>55678</v>
       </c>
       <c r="H51" s="11">
-        <v>8821</v>
+        <v>8883</v>
       </c>
       <c r="I51" s="11">
-        <v>2979</v>
+        <v>2962</v>
       </c>
       <c r="J51" s="11">
         <v>77</v>
@@ -4909,52 +4909,50 @@
         <v>1424</v>
       </c>
       <c r="L51" s="11">
-        <v>1754</v>
+        <v>1761</v>
       </c>
       <c r="M51" s="11">
-        <v>53393</v>
+        <v>53840</v>
       </c>
       <c r="N51" s="11">
-        <v>3894</v>
+        <v>3878</v>
       </c>
       <c r="O51" s="11">
-        <v>29714</v>
+        <v>30091</v>
       </c>
       <c r="P51" s="11">
-        <v>17962</v>
+        <v>18180</v>
       </c>
       <c r="Q51" s="11">
-        <v>36188</v>
+        <v>35973</v>
       </c>
       <c r="R51" s="11">
-        <v>2604</v>
+        <v>2618</v>
       </c>
       <c r="S51" s="11">
-        <v>42900</v>
-      </c>
-      <c r="T51" s="11">
-        <v>1</v>
-      </c>
+        <v>43957</v>
+      </c>
+      <c r="T51" s="11"/>
       <c r="U51" s="11">
-        <v>109339</v>
+        <v>110047</v>
       </c>
       <c r="V51" s="11">
-        <v>5068</v>
+        <v>5137</v>
       </c>
       <c r="W51" s="11">
-        <v>4043</v>
+        <v>4253</v>
       </c>
       <c r="X51" s="11">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="Y51" s="11">
-        <v>10697</v>
+        <v>10790</v>
       </c>
       <c r="Z51" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA51" s="11">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="52" spans="2:27" hidden="1">
@@ -4962,25 +4960,25 @@
         <v>2021</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D52" s="14">
-        <v>593307</v>
+        <v>597975</v>
       </c>
       <c r="E52" s="14">
-        <v>578970</v>
+        <v>583854</v>
       </c>
       <c r="F52" s="14">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G52" s="14">
-        <v>55681</v>
+        <v>55668</v>
       </c>
       <c r="H52" s="14">
-        <v>8835</v>
+        <v>8821</v>
       </c>
       <c r="I52" s="14">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="J52" s="14">
         <v>77</v>
@@ -4989,52 +4987,50 @@
         <v>1424</v>
       </c>
       <c r="L52" s="14">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="M52" s="14">
-        <v>53077</v>
+        <v>53278</v>
       </c>
       <c r="N52" s="14">
-        <v>3889</v>
+        <v>3892</v>
       </c>
       <c r="O52" s="14">
-        <v>29454</v>
+        <v>29694</v>
       </c>
       <c r="P52" s="14">
-        <v>20219</v>
+        <v>18180</v>
       </c>
       <c r="Q52" s="14">
-        <v>37753</v>
+        <v>35973</v>
       </c>
       <c r="R52" s="14">
-        <v>2598</v>
+        <v>2605</v>
       </c>
       <c r="S52" s="14">
-        <v>42432</v>
-      </c>
-      <c r="T52" s="14">
-        <v>1</v>
-      </c>
+        <v>42961</v>
+      </c>
+      <c r="T52" s="14"/>
       <c r="U52" s="14">
-        <v>109131</v>
+        <v>138152</v>
       </c>
       <c r="V52" s="14">
-        <v>4950</v>
+        <v>6095</v>
       </c>
       <c r="W52" s="14">
-        <v>4018</v>
+        <v>4045</v>
       </c>
       <c r="X52" s="14">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="Y52" s="14">
-        <v>10710</v>
+        <v>10713</v>
       </c>
       <c r="Z52" s="14">
         <v>17</v>
       </c>
       <c r="AA52" s="14">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="2:27" hidden="1">
@@ -5042,25 +5038,25 @@
         <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D53" s="11">
-        <v>590245</v>
+        <v>594590</v>
       </c>
       <c r="E53" s="11">
-        <v>576050</v>
+        <v>580812</v>
       </c>
       <c r="F53" s="11">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G53" s="11">
-        <v>55725</v>
+        <v>55750</v>
       </c>
       <c r="H53" s="11">
-        <v>8835</v>
+        <v>8821</v>
       </c>
       <c r="I53" s="11">
-        <v>2957</v>
+        <v>2979</v>
       </c>
       <c r="J53" s="11">
         <v>77</v>
@@ -5069,44 +5065,46 @@
         <v>1424</v>
       </c>
       <c r="L53" s="11">
-        <v>1740</v>
+        <v>1754</v>
       </c>
       <c r="M53" s="11">
-        <v>52924</v>
+        <v>53393</v>
       </c>
       <c r="N53" s="11">
-        <v>3886</v>
+        <v>3894</v>
       </c>
       <c r="O53" s="11">
-        <v>29218</v>
+        <v>29714</v>
       </c>
       <c r="P53" s="11">
-        <v>17867</v>
+        <v>17962</v>
       </c>
       <c r="Q53" s="11">
-        <v>36460</v>
+        <v>36188</v>
       </c>
       <c r="R53" s="11">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="S53" s="11">
-        <v>42065</v>
-      </c>
-      <c r="T53" s="11"/>
+        <v>42900</v>
+      </c>
+      <c r="T53" s="11">
+        <v>1</v>
+      </c>
       <c r="U53" s="11">
-        <v>108383</v>
+        <v>109339</v>
       </c>
       <c r="V53" s="11">
-        <v>4897</v>
+        <v>5068</v>
       </c>
       <c r="W53" s="11">
-        <v>3940</v>
+        <v>4043</v>
       </c>
       <c r="X53" s="11">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="Y53" s="11">
-        <v>10660</v>
+        <v>10697</v>
       </c>
       <c r="Z53" s="11">
         <v>17</v>
@@ -5120,25 +5118,25 @@
         <v>2021</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D54" s="14">
-        <v>588077</v>
+        <v>593307</v>
       </c>
       <c r="E54" s="14">
-        <v>573877</v>
+        <v>578970</v>
       </c>
       <c r="F54" s="14">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G54" s="14">
-        <v>55905</v>
+        <v>55681</v>
       </c>
       <c r="H54" s="14">
-        <v>8876</v>
+        <v>8835</v>
       </c>
       <c r="I54" s="14">
-        <v>2941</v>
+        <v>2976</v>
       </c>
       <c r="J54" s="14">
         <v>77</v>
@@ -5147,50 +5145,52 @@
         <v>1424</v>
       </c>
       <c r="L54" s="14">
-        <v>1741</v>
+        <v>1750</v>
       </c>
       <c r="M54" s="14">
-        <v>52732</v>
+        <v>53077</v>
       </c>
       <c r="N54" s="14">
-        <v>3884</v>
+        <v>3889</v>
       </c>
       <c r="O54" s="14">
-        <v>29115</v>
+        <v>29454</v>
       </c>
       <c r="P54" s="14">
-        <v>17854</v>
+        <v>20219</v>
       </c>
       <c r="Q54" s="14">
-        <v>36552</v>
+        <v>37753</v>
       </c>
       <c r="R54" s="14">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="S54" s="14">
-        <v>41550</v>
-      </c>
-      <c r="T54" s="14"/>
+        <v>42432</v>
+      </c>
+      <c r="T54" s="14">
+        <v>1</v>
+      </c>
       <c r="U54" s="14">
-        <v>107848</v>
+        <v>109131</v>
       </c>
       <c r="V54" s="14">
-        <v>4861</v>
+        <v>4950</v>
       </c>
       <c r="W54" s="14">
-        <v>3840</v>
+        <v>4018</v>
       </c>
       <c r="X54" s="14">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="Y54" s="14">
-        <v>10625</v>
+        <v>10710</v>
       </c>
       <c r="Z54" s="14">
         <v>17</v>
       </c>
       <c r="AA54" s="14">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="55" spans="2:27" hidden="1">
@@ -5198,25 +5198,25 @@
         <v>2021</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D55" s="11">
-        <v>586093</v>
+        <v>590245</v>
       </c>
       <c r="E55" s="11">
-        <v>571129</v>
+        <v>576050</v>
       </c>
       <c r="F55" s="11">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G55" s="11">
-        <v>56021</v>
+        <v>55725</v>
       </c>
       <c r="H55" s="11">
-        <v>8878</v>
+        <v>8835</v>
       </c>
       <c r="I55" s="11">
-        <v>2934</v>
+        <v>2957</v>
       </c>
       <c r="J55" s="11">
         <v>77</v>
@@ -5225,52 +5225,50 @@
         <v>1424</v>
       </c>
       <c r="L55" s="11">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="M55" s="11">
-        <v>52504</v>
+        <v>52924</v>
       </c>
       <c r="N55" s="11">
-        <v>3883</v>
+        <v>3886</v>
       </c>
       <c r="O55" s="11">
-        <v>29014</v>
+        <v>29218</v>
       </c>
       <c r="P55" s="11">
-        <v>17887</v>
+        <v>17867</v>
       </c>
       <c r="Q55" s="11">
-        <v>36498</v>
+        <v>36460</v>
       </c>
       <c r="R55" s="11">
-        <v>2578</v>
+        <v>2606</v>
       </c>
       <c r="S55" s="11">
-        <v>40750</v>
-      </c>
-      <c r="T55" s="11">
-        <v>0</v>
-      </c>
+        <v>42065</v>
+      </c>
+      <c r="T55" s="11"/>
       <c r="U55" s="11">
-        <v>107480</v>
+        <v>108383</v>
       </c>
       <c r="V55" s="11">
-        <v>4839</v>
+        <v>4897</v>
       </c>
       <c r="W55" s="11">
-        <v>3789</v>
+        <v>3940</v>
       </c>
       <c r="X55" s="11">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="Y55" s="11">
-        <v>10600</v>
+        <v>10660</v>
       </c>
       <c r="Z55" s="11">
         <v>17</v>
       </c>
       <c r="AA55" s="11">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="56" spans="2:27" hidden="1">
@@ -5278,25 +5276,25 @@
         <v>2021</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56" s="14">
-        <v>583440</v>
+        <v>588077</v>
       </c>
       <c r="E56" s="14">
-        <v>567677</v>
+        <v>573877</v>
       </c>
       <c r="F56" s="14">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G56" s="14">
-        <v>56059</v>
+        <v>55905</v>
       </c>
       <c r="H56" s="14">
-        <v>8871</v>
+        <v>8876</v>
       </c>
       <c r="I56" s="14">
-        <v>2921</v>
+        <v>2941</v>
       </c>
       <c r="J56" s="14">
         <v>77</v>
@@ -5305,154 +5303,156 @@
         <v>1424</v>
       </c>
       <c r="L56" s="14">
-        <v>1728</v>
+        <v>1741</v>
       </c>
       <c r="M56" s="14">
-        <v>52301</v>
+        <v>52732</v>
       </c>
       <c r="N56" s="14">
-        <v>3880</v>
+        <v>3884</v>
       </c>
       <c r="O56" s="14">
-        <v>28867</v>
+        <v>29115</v>
       </c>
       <c r="P56" s="14">
-        <v>17889</v>
+        <v>17854</v>
       </c>
       <c r="Q56" s="14">
-        <v>36421</v>
+        <v>36552</v>
       </c>
       <c r="R56" s="14">
-        <v>2569</v>
+        <v>2596</v>
       </c>
       <c r="S56" s="14">
-        <v>39851</v>
+        <v>41550</v>
       </c>
       <c r="T56" s="14"/>
       <c r="U56" s="14">
-        <v>106898</v>
+        <v>107848</v>
       </c>
       <c r="V56" s="14">
-        <v>4801</v>
+        <v>4861</v>
       </c>
       <c r="W56" s="14">
-        <v>3689</v>
+        <v>3840</v>
       </c>
       <c r="X56" s="14">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="Y56" s="14">
-        <v>10566</v>
+        <v>10625</v>
       </c>
       <c r="Z56" s="14">
         <v>17</v>
       </c>
       <c r="AA56" s="14">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" spans="2:27" hidden="1">
-      <c r="B57" s="18">
+      <c r="B57" s="10">
         <v>2021</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="19">
-        <v>581299</v>
-      </c>
-      <c r="E57" s="19">
-        <v>565156</v>
-      </c>
-      <c r="F57" s="19">
-        <v>507</v>
-      </c>
-      <c r="G57" s="19">
-        <v>56230</v>
-      </c>
-      <c r="H57" s="19">
-        <v>8897</v>
-      </c>
-      <c r="I57" s="19">
-        <v>2930</v>
-      </c>
-      <c r="J57" s="19">
+      <c r="C57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="11">
+        <v>586093</v>
+      </c>
+      <c r="E57" s="11">
+        <v>571129</v>
+      </c>
+      <c r="F57" s="11">
+        <v>508</v>
+      </c>
+      <c r="G57" s="11">
+        <v>56021</v>
+      </c>
+      <c r="H57" s="11">
+        <v>8878</v>
+      </c>
+      <c r="I57" s="11">
+        <v>2934</v>
+      </c>
+      <c r="J57" s="11">
         <v>77</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="11">
         <v>1424</v>
       </c>
-      <c r="L57" s="19">
-        <v>1727</v>
-      </c>
-      <c r="M57" s="19">
-        <v>52149</v>
-      </c>
-      <c r="N57" s="19">
-        <v>3874</v>
-      </c>
-      <c r="O57" s="19">
-        <v>28827</v>
-      </c>
-      <c r="P57" s="19">
-        <v>17957</v>
-      </c>
-      <c r="Q57" s="19">
-        <v>36403</v>
-      </c>
-      <c r="R57" s="19">
-        <v>2555</v>
-      </c>
-      <c r="S57" s="19">
-        <v>39272</v>
-      </c>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19">
-        <v>106698</v>
-      </c>
-      <c r="V57" s="19">
-        <v>4780</v>
-      </c>
-      <c r="W57" s="19">
-        <v>3642</v>
-      </c>
-      <c r="X57" s="19">
-        <v>578</v>
-      </c>
-      <c r="Y57" s="19">
-        <v>10557</v>
-      </c>
-      <c r="Z57" s="19">
+      <c r="L57" s="11">
+        <v>1732</v>
+      </c>
+      <c r="M57" s="11">
+        <v>52504</v>
+      </c>
+      <c r="N57" s="11">
+        <v>3883</v>
+      </c>
+      <c r="O57" s="11">
+        <v>29014</v>
+      </c>
+      <c r="P57" s="11">
+        <v>17887</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>36498</v>
+      </c>
+      <c r="R57" s="11">
+        <v>2578</v>
+      </c>
+      <c r="S57" s="11">
+        <v>40750</v>
+      </c>
+      <c r="T57" s="11">
+        <v>0</v>
+      </c>
+      <c r="U57" s="11">
+        <v>107480</v>
+      </c>
+      <c r="V57" s="11">
+        <v>4839</v>
+      </c>
+      <c r="W57" s="11">
+        <v>3789</v>
+      </c>
+      <c r="X57" s="11">
+        <v>621</v>
+      </c>
+      <c r="Y57" s="11">
+        <v>10600</v>
+      </c>
+      <c r="Z57" s="11">
         <v>17</v>
       </c>
-      <c r="AA57" s="19">
-        <v>671</v>
+      <c r="AA57" s="11">
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="2:27" hidden="1">
       <c r="B58" s="13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D58" s="14">
-        <v>580035</v>
+        <v>583440</v>
       </c>
       <c r="E58" s="14">
-        <v>563400</v>
+        <v>567677</v>
       </c>
       <c r="F58" s="14">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G58" s="14">
-        <v>56274</v>
+        <v>56059</v>
       </c>
       <c r="H58" s="14">
-        <v>8916</v>
+        <v>8871</v>
       </c>
       <c r="I58" s="14">
-        <v>2933</v>
+        <v>2921</v>
       </c>
       <c r="J58" s="14">
         <v>77</v>
@@ -5461,132 +5461,128 @@
         <v>1424</v>
       </c>
       <c r="L58" s="14">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="M58" s="14">
-        <v>52012</v>
+        <v>52301</v>
       </c>
       <c r="N58" s="14">
-        <v>3877</v>
+        <v>3880</v>
       </c>
       <c r="O58" s="14">
-        <v>28815</v>
+        <v>28867</v>
       </c>
       <c r="P58" s="14">
-        <v>18007</v>
+        <v>17889</v>
       </c>
       <c r="Q58" s="14">
-        <v>36384</v>
+        <v>36421</v>
       </c>
       <c r="R58" s="14">
-        <v>2551</v>
+        <v>2569</v>
       </c>
       <c r="S58" s="14">
-        <v>38799</v>
-      </c>
-      <c r="T58" s="14">
-        <v>0</v>
-      </c>
+        <v>39851</v>
+      </c>
+      <c r="T58" s="14"/>
       <c r="U58" s="14">
-        <v>106486</v>
+        <v>106898</v>
       </c>
       <c r="V58" s="14">
-        <v>4754</v>
+        <v>4801</v>
       </c>
       <c r="W58" s="14">
-        <v>3612</v>
+        <v>3689</v>
       </c>
       <c r="X58" s="14">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="Y58" s="14">
-        <v>10542</v>
+        <v>10566</v>
       </c>
       <c r="Z58" s="14">
         <v>17</v>
       </c>
       <c r="AA58" s="14">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="59" spans="2:27" hidden="1">
-      <c r="B59" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="11">
-        <v>576835</v>
-      </c>
-      <c r="E59" s="11">
-        <v>560383</v>
-      </c>
-      <c r="F59" s="11">
-        <v>501</v>
-      </c>
-      <c r="G59" s="11">
-        <v>56253</v>
-      </c>
-      <c r="H59" s="11">
-        <v>8958</v>
-      </c>
-      <c r="I59" s="11">
-        <v>2929</v>
-      </c>
-      <c r="J59" s="11">
+      <c r="B59" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="19">
+        <v>581299</v>
+      </c>
+      <c r="E59" s="19">
+        <v>565156</v>
+      </c>
+      <c r="F59" s="19">
+        <v>507</v>
+      </c>
+      <c r="G59" s="19">
+        <v>56230</v>
+      </c>
+      <c r="H59" s="19">
+        <v>8897</v>
+      </c>
+      <c r="I59" s="19">
+        <v>2930</v>
+      </c>
+      <c r="J59" s="19">
         <v>77</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="19">
         <v>1424</v>
       </c>
-      <c r="L59" s="11">
-        <v>1734</v>
-      </c>
-      <c r="M59" s="11">
-        <v>51472</v>
-      </c>
-      <c r="N59" s="11">
-        <v>3876</v>
-      </c>
-      <c r="O59" s="11">
-        <v>28607</v>
-      </c>
-      <c r="P59" s="11">
-        <v>17914</v>
-      </c>
-      <c r="Q59" s="11">
-        <v>36355</v>
-      </c>
-      <c r="R59" s="11">
-        <v>2550</v>
-      </c>
-      <c r="S59" s="11">
-        <v>37952</v>
-      </c>
-      <c r="T59" s="11">
-        <v>0</v>
-      </c>
-      <c r="U59" s="11">
-        <v>106174</v>
-      </c>
-      <c r="V59" s="11">
-        <v>4716</v>
-      </c>
-      <c r="W59" s="11">
-        <v>3542</v>
-      </c>
-      <c r="X59" s="11">
-        <v>553</v>
-      </c>
-      <c r="Y59" s="11">
-        <v>10450</v>
-      </c>
-      <c r="Z59" s="11">
+      <c r="L59" s="19">
+        <v>1727</v>
+      </c>
+      <c r="M59" s="19">
+        <v>52149</v>
+      </c>
+      <c r="N59" s="19">
+        <v>3874</v>
+      </c>
+      <c r="O59" s="19">
+        <v>28827</v>
+      </c>
+      <c r="P59" s="19">
+        <v>17957</v>
+      </c>
+      <c r="Q59" s="19">
+        <v>36403</v>
+      </c>
+      <c r="R59" s="19">
+        <v>2555</v>
+      </c>
+      <c r="S59" s="19">
+        <v>39272</v>
+      </c>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19">
+        <v>106698</v>
+      </c>
+      <c r="V59" s="19">
+        <v>4780</v>
+      </c>
+      <c r="W59" s="19">
+        <v>3642</v>
+      </c>
+      <c r="X59" s="19">
+        <v>578</v>
+      </c>
+      <c r="Y59" s="19">
+        <v>10557</v>
+      </c>
+      <c r="Z59" s="19">
         <v>17</v>
       </c>
-      <c r="AA59" s="11">
-        <v>665</v>
+      <c r="AA59" s="19">
+        <v>671</v>
       </c>
     </row>
     <row r="60" spans="2:27" hidden="1">
@@ -5594,25 +5590,25 @@
         <v>2020</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D60" s="14">
-        <v>574056</v>
+        <v>580035</v>
       </c>
       <c r="E60" s="14">
-        <v>556941</v>
+        <v>563400</v>
       </c>
       <c r="F60" s="14">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G60" s="14">
-        <v>56245</v>
+        <v>56274</v>
       </c>
       <c r="H60" s="14">
-        <v>8933</v>
+        <v>8916</v>
       </c>
       <c r="I60" s="14">
-        <v>2902</v>
+        <v>2933</v>
       </c>
       <c r="J60" s="14">
         <v>77</v>
@@ -5621,52 +5617,52 @@
         <v>1424</v>
       </c>
       <c r="L60" s="14">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="M60" s="14">
-        <v>51341</v>
+        <v>52012</v>
       </c>
       <c r="N60" s="14">
         <v>3877</v>
       </c>
       <c r="O60" s="14">
-        <v>28460</v>
+        <v>28815</v>
       </c>
       <c r="P60" s="14">
-        <v>17784</v>
+        <v>18007</v>
       </c>
       <c r="Q60" s="14">
-        <v>36186</v>
+        <v>36384</v>
       </c>
       <c r="R60" s="14">
-        <v>2539</v>
+        <v>2551</v>
       </c>
       <c r="S60" s="14">
-        <v>37095</v>
+        <v>38799</v>
       </c>
       <c r="T60" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="14">
-        <v>105781</v>
+        <v>106486</v>
       </c>
       <c r="V60" s="14">
-        <v>4675</v>
+        <v>4754</v>
       </c>
       <c r="W60" s="14">
-        <v>3405</v>
+        <v>3612</v>
       </c>
       <c r="X60" s="14">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="Y60" s="14">
-        <v>10417</v>
+        <v>10542</v>
       </c>
       <c r="Z60" s="14">
         <v>17</v>
       </c>
       <c r="AA60" s="14">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="2:27" hidden="1">
@@ -5674,25 +5670,25 @@
         <v>2020</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D61" s="11">
-        <v>571367</v>
+        <v>576835</v>
       </c>
       <c r="E61" s="11">
-        <v>552611</v>
+        <v>560383</v>
       </c>
       <c r="F61" s="11">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G61" s="11">
-        <v>56341</v>
+        <v>56253</v>
       </c>
       <c r="H61" s="11">
-        <v>9019</v>
+        <v>8958</v>
       </c>
       <c r="I61" s="11">
-        <v>2941</v>
+        <v>2929</v>
       </c>
       <c r="J61" s="11">
         <v>77</v>
@@ -5701,50 +5697,52 @@
         <v>1424</v>
       </c>
       <c r="L61" s="11">
-        <v>1746</v>
+        <v>1734</v>
       </c>
       <c r="M61" s="11">
-        <v>51196</v>
+        <v>51472</v>
       </c>
       <c r="N61" s="11">
-        <v>3879</v>
+        <v>3876</v>
       </c>
       <c r="O61" s="11">
-        <v>28351</v>
+        <v>28607</v>
       </c>
       <c r="P61" s="11">
-        <v>17563</v>
+        <v>17914</v>
       </c>
       <c r="Q61" s="11">
-        <v>35861</v>
+        <v>36355</v>
       </c>
       <c r="R61" s="11">
-        <v>2521</v>
+        <v>2550</v>
       </c>
       <c r="S61" s="11">
-        <v>36352</v>
-      </c>
-      <c r="T61" s="11"/>
+        <v>37952</v>
+      </c>
+      <c r="T61" s="11">
+        <v>0</v>
+      </c>
       <c r="U61" s="11">
-        <v>105315</v>
+        <v>106174</v>
       </c>
       <c r="V61" s="11">
-        <v>4640</v>
+        <v>4716</v>
       </c>
       <c r="W61" s="11">
-        <v>3253</v>
+        <v>3542</v>
       </c>
       <c r="X61" s="11">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="Y61" s="11">
-        <v>10374</v>
+        <v>10450</v>
       </c>
       <c r="Z61" s="11">
         <v>17</v>
       </c>
       <c r="AA61" s="11">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="62" spans="2:27" hidden="1">
@@ -5752,25 +5750,25 @@
         <v>2020</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D62" s="14">
-        <v>569174</v>
+        <v>574056</v>
       </c>
       <c r="E62" s="14">
-        <v>549631</v>
+        <v>556941</v>
       </c>
       <c r="F62" s="14">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G62" s="14">
-        <v>56348</v>
+        <v>56245</v>
       </c>
       <c r="H62" s="14">
-        <v>9127</v>
+        <v>8933</v>
       </c>
       <c r="I62" s="14">
-        <v>2959</v>
+        <v>2902</v>
       </c>
       <c r="J62" s="14">
         <v>77</v>
@@ -5779,50 +5777,52 @@
         <v>1424</v>
       </c>
       <c r="L62" s="14">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="M62" s="14">
-        <v>51089</v>
+        <v>51341</v>
       </c>
       <c r="N62" s="14">
-        <v>3866</v>
+        <v>3877</v>
       </c>
       <c r="O62" s="14">
-        <v>28370</v>
+        <v>28460</v>
       </c>
       <c r="P62" s="14">
-        <v>17421</v>
+        <v>17784</v>
       </c>
       <c r="Q62" s="14">
-        <v>35866</v>
+        <v>36186</v>
       </c>
       <c r="R62" s="14">
-        <v>2504</v>
+        <v>2539</v>
       </c>
       <c r="S62" s="14">
-        <v>35789</v>
-      </c>
-      <c r="T62" s="14"/>
+        <v>37095</v>
+      </c>
+      <c r="T62" s="14">
+        <v>1</v>
+      </c>
       <c r="U62" s="14">
-        <v>104940</v>
+        <v>105781</v>
       </c>
       <c r="V62" s="14">
-        <v>4612</v>
+        <v>4675</v>
       </c>
       <c r="W62" s="14">
-        <v>3208</v>
+        <v>3405</v>
       </c>
       <c r="X62" s="14">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="Y62" s="14">
-        <v>10368</v>
+        <v>10417</v>
       </c>
       <c r="Z62" s="14">
         <v>17</v>
       </c>
       <c r="AA62" s="14">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="2:27" hidden="1">
@@ -5830,25 +5830,25 @@
         <v>2020</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D63" s="11">
-        <v>567168</v>
+        <v>571367</v>
       </c>
       <c r="E63" s="11">
-        <v>547540</v>
+        <v>552611</v>
       </c>
       <c r="F63" s="11">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G63" s="11">
-        <v>56269</v>
+        <v>56341</v>
       </c>
       <c r="H63" s="11">
-        <v>9193</v>
+        <v>9019</v>
       </c>
       <c r="I63" s="11">
-        <v>2973</v>
+        <v>2941</v>
       </c>
       <c r="J63" s="11">
         <v>77</v>
@@ -5857,50 +5857,50 @@
         <v>1424</v>
       </c>
       <c r="L63" s="11">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="M63" s="11">
-        <v>50966</v>
+        <v>51196</v>
       </c>
       <c r="N63" s="11">
-        <v>3857</v>
+        <v>3879</v>
       </c>
       <c r="O63" s="11">
-        <v>28348</v>
+        <v>28351</v>
       </c>
       <c r="P63" s="11">
-        <v>17331</v>
+        <v>17563</v>
       </c>
       <c r="Q63" s="11">
-        <v>35832</v>
+        <v>35861</v>
       </c>
       <c r="R63" s="11">
-        <v>2489</v>
+        <v>2521</v>
       </c>
       <c r="S63" s="11">
-        <v>35300</v>
+        <v>36352</v>
       </c>
       <c r="T63" s="11"/>
       <c r="U63" s="11">
-        <v>104554</v>
+        <v>105315</v>
       </c>
       <c r="V63" s="11">
-        <v>4605</v>
+        <v>4640</v>
       </c>
       <c r="W63" s="11">
-        <v>3183</v>
+        <v>3253</v>
       </c>
       <c r="X63" s="11">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="Y63" s="11">
-        <v>10340</v>
+        <v>10374</v>
       </c>
       <c r="Z63" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA63" s="11">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="2:27" hidden="1">
@@ -5908,25 +5908,25 @@
         <v>2020</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D64" s="14">
-        <v>566042</v>
+        <v>569174</v>
       </c>
       <c r="E64" s="14">
-        <v>545916</v>
+        <v>549631</v>
       </c>
       <c r="F64" s="14">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G64" s="14">
-        <v>56291</v>
+        <v>56348</v>
       </c>
       <c r="H64" s="14">
-        <v>9187</v>
+        <v>9127</v>
       </c>
       <c r="I64" s="14">
-        <v>2980</v>
+        <v>2959</v>
       </c>
       <c r="J64" s="14">
         <v>77</v>
@@ -5935,50 +5935,50 @@
         <v>1424</v>
       </c>
       <c r="L64" s="14">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="M64" s="14">
-        <v>50878</v>
+        <v>51089</v>
       </c>
       <c r="N64" s="14">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="O64" s="14">
-        <v>28349</v>
+        <v>28370</v>
       </c>
       <c r="P64" s="14">
-        <v>17359</v>
+        <v>17421</v>
       </c>
       <c r="Q64" s="14">
-        <v>35902</v>
+        <v>35866</v>
       </c>
       <c r="R64" s="14">
-        <v>2485</v>
+        <v>2504</v>
       </c>
       <c r="S64" s="14">
-        <v>35117</v>
+        <v>35789</v>
       </c>
       <c r="T64" s="14"/>
       <c r="U64" s="14">
-        <v>104123</v>
+        <v>104940</v>
       </c>
       <c r="V64" s="14">
-        <v>4584</v>
+        <v>4612</v>
       </c>
       <c r="W64" s="14">
-        <v>3179</v>
+        <v>3208</v>
       </c>
       <c r="X64" s="14">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="Y64" s="14">
-        <v>10327</v>
+        <v>10368</v>
       </c>
       <c r="Z64" s="14">
         <v>17</v>
       </c>
       <c r="AA64" s="14">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="2:27" hidden="1">
@@ -5986,25 +5986,25 @@
         <v>2020</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D65" s="11">
-        <v>565980</v>
+        <v>567168</v>
       </c>
       <c r="E65" s="11">
-        <v>545400</v>
+        <v>547540</v>
       </c>
       <c r="F65" s="11">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G65" s="11">
-        <v>56275</v>
+        <v>56269</v>
       </c>
       <c r="H65" s="11">
-        <v>9187</v>
+        <v>9193</v>
       </c>
       <c r="I65" s="11">
-        <v>2982</v>
+        <v>2973</v>
       </c>
       <c r="J65" s="11">
         <v>77</v>
@@ -6013,50 +6013,50 @@
         <v>1424</v>
       </c>
       <c r="L65" s="11">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="M65" s="11">
-        <v>50805</v>
+        <v>50966</v>
       </c>
       <c r="N65" s="11">
-        <v>3864</v>
+        <v>3857</v>
       </c>
       <c r="O65" s="11">
-        <v>28294</v>
+        <v>28348</v>
       </c>
       <c r="P65" s="11">
-        <v>17361</v>
+        <v>17331</v>
       </c>
       <c r="Q65" s="11">
-        <v>36010</v>
+        <v>35832</v>
       </c>
       <c r="R65" s="11">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="S65" s="11">
-        <v>34872</v>
+        <v>35300</v>
       </c>
       <c r="T65" s="11"/>
       <c r="U65" s="11">
-        <v>104093</v>
+        <v>104554</v>
       </c>
       <c r="V65" s="11">
-        <v>4584</v>
+        <v>4605</v>
       </c>
       <c r="W65" s="11">
-        <v>3174</v>
+        <v>3183</v>
       </c>
       <c r="X65" s="11">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="Y65" s="11">
-        <v>10322</v>
+        <v>10340</v>
       </c>
       <c r="Z65" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA65" s="11">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="2:27" hidden="1">
@@ -6064,25 +6064,25 @@
         <v>2020</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D66" s="14">
-        <v>565883</v>
+        <v>566042</v>
       </c>
       <c r="E66" s="14">
-        <v>545244</v>
+        <v>545916</v>
       </c>
       <c r="F66" s="14">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G66" s="14">
-        <v>56275</v>
+        <v>56291</v>
       </c>
       <c r="H66" s="14">
-        <v>9189</v>
+        <v>9187</v>
       </c>
       <c r="I66" s="14">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="J66" s="14">
         <v>77</v>
@@ -6091,44 +6091,44 @@
         <v>1424</v>
       </c>
       <c r="L66" s="14">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="M66" s="14">
-        <v>50796</v>
+        <v>50878</v>
       </c>
       <c r="N66" s="14">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="O66" s="14">
-        <v>28297</v>
+        <v>28349</v>
       </c>
       <c r="P66" s="14">
-        <v>17361</v>
+        <v>17359</v>
       </c>
       <c r="Q66" s="14">
-        <v>36010</v>
+        <v>35902</v>
       </c>
       <c r="R66" s="14">
         <v>2485</v>
       </c>
       <c r="S66" s="14">
-        <v>34862</v>
+        <v>35117</v>
       </c>
       <c r="T66" s="14"/>
       <c r="U66" s="14">
-        <v>104076</v>
+        <v>104123</v>
       </c>
       <c r="V66" s="14">
         <v>4584</v>
       </c>
       <c r="W66" s="14">
-        <v>3174</v>
+        <v>3179</v>
       </c>
       <c r="X66" s="14">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="Y66" s="14">
-        <v>10322</v>
+        <v>10327</v>
       </c>
       <c r="Z66" s="14">
         <v>17</v>
@@ -6142,22 +6142,22 @@
         <v>2020</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D67" s="11">
-        <v>565809</v>
+        <v>565980</v>
       </c>
       <c r="E67" s="11">
-        <v>545128</v>
+        <v>545400</v>
       </c>
       <c r="F67" s="11">
         <v>499</v>
       </c>
       <c r="G67" s="11">
-        <v>56281</v>
+        <v>56275</v>
       </c>
       <c r="H67" s="11">
-        <v>9189</v>
+        <v>9187</v>
       </c>
       <c r="I67" s="11">
         <v>2982</v>
@@ -6172,13 +6172,13 @@
         <v>1755</v>
       </c>
       <c r="M67" s="11">
-        <v>50794</v>
+        <v>50805</v>
       </c>
       <c r="N67" s="11">
-        <v>3867</v>
+        <v>3864</v>
       </c>
       <c r="O67" s="11">
-        <v>28301</v>
+        <v>28294</v>
       </c>
       <c r="P67" s="11">
         <v>17361</v>
@@ -6187,17 +6187,17 @@
         <v>36010</v>
       </c>
       <c r="R67" s="11">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="S67" s="11">
-        <v>34874</v>
+        <v>34872</v>
       </c>
       <c r="T67" s="11"/>
       <c r="U67" s="11">
-        <v>104084</v>
+        <v>104093</v>
       </c>
       <c r="V67" s="11">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="W67" s="11">
         <v>3174</v>
@@ -6206,7 +6206,7 @@
         <v>486</v>
       </c>
       <c r="Y67" s="11">
-        <v>10319</v>
+        <v>10322</v>
       </c>
       <c r="Z67" s="11">
         <v>17</v>
@@ -6220,25 +6220,25 @@
         <v>2020</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D68" s="14">
-        <v>564089</v>
+        <v>565883</v>
       </c>
       <c r="E68" s="14">
-        <v>542595</v>
+        <v>545244</v>
       </c>
       <c r="F68" s="14">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G68" s="14">
-        <v>56248</v>
+        <v>56275</v>
       </c>
       <c r="H68" s="14">
-        <v>9180</v>
+        <v>9189</v>
       </c>
       <c r="I68" s="14">
-        <v>2964</v>
+        <v>2982</v>
       </c>
       <c r="J68" s="14">
         <v>77</v>
@@ -6247,154 +6247,154 @@
         <v>1424</v>
       </c>
       <c r="L68" s="14">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="M68" s="14">
-        <v>50693</v>
+        <v>50796</v>
       </c>
       <c r="N68" s="14">
-        <v>3869</v>
+        <v>3864</v>
       </c>
       <c r="O68" s="14">
-        <v>28110</v>
+        <v>28297</v>
       </c>
       <c r="P68" s="14">
-        <v>16719</v>
+        <v>17361</v>
       </c>
       <c r="Q68" s="14">
-        <v>35910</v>
+        <v>36010</v>
       </c>
       <c r="R68" s="14">
-        <v>2467</v>
+        <v>2485</v>
       </c>
       <c r="S68" s="14">
-        <v>34546</v>
+        <v>34862</v>
       </c>
       <c r="T68" s="14"/>
       <c r="U68" s="14">
-        <v>103491</v>
+        <v>104076</v>
       </c>
       <c r="V68" s="14">
-        <v>4545</v>
+        <v>4584</v>
       </c>
       <c r="W68" s="14">
-        <v>3124</v>
+        <v>3174</v>
       </c>
       <c r="X68" s="14">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Y68" s="14">
-        <v>10285</v>
+        <v>10322</v>
       </c>
       <c r="Z68" s="14">
         <v>17</v>
       </c>
       <c r="AA68" s="14">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="69" spans="2:27" hidden="1">
-      <c r="B69" s="18">
+      <c r="B69" s="10">
         <v>2020</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="19">
-        <v>562170</v>
-      </c>
-      <c r="E69" s="19">
-        <v>539768</v>
-      </c>
-      <c r="F69" s="19">
-        <v>496</v>
-      </c>
-      <c r="G69" s="19">
-        <v>56222</v>
-      </c>
-      <c r="H69" s="19">
-        <v>9165</v>
-      </c>
-      <c r="I69" s="19">
-        <v>2963</v>
-      </c>
-      <c r="J69" s="19">
+      <c r="C69" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="11">
+        <v>565809</v>
+      </c>
+      <c r="E69" s="11">
+        <v>545128</v>
+      </c>
+      <c r="F69" s="11">
+        <v>499</v>
+      </c>
+      <c r="G69" s="11">
+        <v>56281</v>
+      </c>
+      <c r="H69" s="11">
+        <v>9189</v>
+      </c>
+      <c r="I69" s="11">
+        <v>2982</v>
+      </c>
+      <c r="J69" s="11">
         <v>77</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K69" s="11">
         <v>1424</v>
       </c>
-      <c r="L69" s="19">
-        <v>1747</v>
-      </c>
-      <c r="M69" s="19">
-        <v>50528</v>
-      </c>
-      <c r="N69" s="19">
-        <v>3862</v>
-      </c>
-      <c r="O69" s="19">
-        <v>27916</v>
-      </c>
-      <c r="P69" s="19">
-        <v>16577</v>
-      </c>
-      <c r="Q69" s="19">
-        <v>35720</v>
-      </c>
-      <c r="R69" s="19">
-        <v>2434</v>
-      </c>
-      <c r="S69" s="19">
-        <v>34311</v>
-      </c>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19">
-        <v>102764</v>
-      </c>
-      <c r="V69" s="19">
-        <v>4504</v>
-      </c>
-      <c r="W69" s="19">
-        <v>3103</v>
-      </c>
-      <c r="X69" s="19">
-        <v>461</v>
-      </c>
-      <c r="Y69" s="19">
-        <v>10273</v>
-      </c>
-      <c r="Z69" s="19">
+      <c r="L69" s="11">
+        <v>1755</v>
+      </c>
+      <c r="M69" s="11">
+        <v>50794</v>
+      </c>
+      <c r="N69" s="11">
+        <v>3867</v>
+      </c>
+      <c r="O69" s="11">
+        <v>28301</v>
+      </c>
+      <c r="P69" s="11">
+        <v>17361</v>
+      </c>
+      <c r="Q69" s="11">
+        <v>36010</v>
+      </c>
+      <c r="R69" s="11">
+        <v>2487</v>
+      </c>
+      <c r="S69" s="11">
+        <v>34874</v>
+      </c>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11">
+        <v>104084</v>
+      </c>
+      <c r="V69" s="11">
+        <v>4585</v>
+      </c>
+      <c r="W69" s="11">
+        <v>3174</v>
+      </c>
+      <c r="X69" s="11">
+        <v>486</v>
+      </c>
+      <c r="Y69" s="11">
+        <v>10319</v>
+      </c>
+      <c r="Z69" s="11">
         <v>17</v>
       </c>
-      <c r="AA69" s="19">
-        <v>663</v>
+      <c r="AA69" s="11">
+        <v>661</v>
       </c>
     </row>
     <row r="70" spans="2:27" hidden="1">
       <c r="B70" s="13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D70" s="14">
-        <v>561061</v>
+        <v>564089</v>
       </c>
       <c r="E70" s="14">
-        <v>537813</v>
+        <v>542595</v>
       </c>
       <c r="F70" s="14">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G70" s="14">
-        <v>56256</v>
+        <v>56248</v>
       </c>
       <c r="H70" s="14">
-        <v>9149</v>
+        <v>9180</v>
       </c>
       <c r="I70" s="14">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="J70" s="14">
         <v>77</v>
@@ -6403,128 +6403,128 @@
         <v>1424</v>
       </c>
       <c r="L70" s="14">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="M70" s="14">
-        <v>50432</v>
+        <v>50693</v>
       </c>
       <c r="N70" s="14">
-        <v>3858</v>
+        <v>3869</v>
       </c>
       <c r="O70" s="14">
-        <v>27818</v>
+        <v>28110</v>
       </c>
       <c r="P70" s="14">
-        <v>16663</v>
+        <v>16719</v>
       </c>
       <c r="Q70" s="14">
-        <v>35664</v>
+        <v>35910</v>
       </c>
       <c r="R70" s="14">
-        <v>2427</v>
+        <v>2467</v>
       </c>
       <c r="S70" s="14">
-        <v>33984</v>
+        <v>34546</v>
       </c>
       <c r="T70" s="14"/>
       <c r="U70" s="14">
-        <v>102021</v>
+        <v>103491</v>
       </c>
       <c r="V70" s="14">
-        <v>4466</v>
+        <v>4545</v>
       </c>
       <c r="W70" s="14">
-        <v>3102</v>
+        <v>3124</v>
       </c>
       <c r="X70" s="14">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="Y70" s="14">
-        <v>10222</v>
+        <v>10285</v>
       </c>
       <c r="Z70" s="14">
         <v>17</v>
       </c>
       <c r="AA70" s="14">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="71" spans="2:27" hidden="1">
-      <c r="B71" s="10">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" s="11">
-        <v>558626</v>
-      </c>
-      <c r="E71" s="11">
-        <v>535724</v>
-      </c>
-      <c r="F71" s="11">
-        <v>493</v>
-      </c>
-      <c r="G71" s="11">
-        <v>55998</v>
-      </c>
-      <c r="H71" s="11">
-        <v>9075</v>
-      </c>
-      <c r="I71" s="11">
-        <v>2960</v>
-      </c>
-      <c r="J71" s="11">
+      <c r="B71" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="19">
+        <v>562170</v>
+      </c>
+      <c r="E71" s="19">
+        <v>539768</v>
+      </c>
+      <c r="F71" s="19">
+        <v>496</v>
+      </c>
+      <c r="G71" s="19">
+        <v>56222</v>
+      </c>
+      <c r="H71" s="19">
+        <v>9165</v>
+      </c>
+      <c r="I71" s="19">
+        <v>2963</v>
+      </c>
+      <c r="J71" s="19">
         <v>77</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="19">
         <v>1424</v>
       </c>
-      <c r="L71" s="11">
-        <v>1718</v>
-      </c>
-      <c r="M71" s="11">
-        <v>50135</v>
-      </c>
-      <c r="N71" s="11">
-        <v>3846</v>
-      </c>
-      <c r="O71" s="11">
-        <v>27391</v>
-      </c>
-      <c r="P71" s="11">
-        <v>16776</v>
-      </c>
-      <c r="Q71" s="11">
-        <v>35622</v>
-      </c>
-      <c r="R71" s="11">
-        <v>2417</v>
-      </c>
-      <c r="S71" s="11">
-        <v>33833</v>
-      </c>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11">
-        <v>101688</v>
-      </c>
-      <c r="V71" s="11">
-        <v>4382</v>
-      </c>
-      <c r="W71" s="11">
-        <v>3068</v>
-      </c>
-      <c r="X71" s="11">
-        <v>453</v>
-      </c>
-      <c r="Y71" s="11">
-        <v>10134</v>
-      </c>
-      <c r="Z71" s="11">
+      <c r="L71" s="19">
+        <v>1747</v>
+      </c>
+      <c r="M71" s="19">
+        <v>50528</v>
+      </c>
+      <c r="N71" s="19">
+        <v>3862</v>
+      </c>
+      <c r="O71" s="19">
+        <v>27916</v>
+      </c>
+      <c r="P71" s="19">
+        <v>16577</v>
+      </c>
+      <c r="Q71" s="19">
+        <v>35720</v>
+      </c>
+      <c r="R71" s="19">
+        <v>2434</v>
+      </c>
+      <c r="S71" s="19">
+        <v>34311</v>
+      </c>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19">
+        <v>102764</v>
+      </c>
+      <c r="V71" s="19">
+        <v>4504</v>
+      </c>
+      <c r="W71" s="19">
+        <v>3103</v>
+      </c>
+      <c r="X71" s="19">
+        <v>461</v>
+      </c>
+      <c r="Y71" s="19">
+        <v>10273</v>
+      </c>
+      <c r="Z71" s="19">
         <v>17</v>
       </c>
-      <c r="AA71" s="11">
-        <v>660</v>
+      <c r="AA71" s="19">
+        <v>663</v>
       </c>
     </row>
     <row r="72" spans="2:27" hidden="1">
@@ -6532,25 +6532,25 @@
         <v>2019</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D72" s="14">
-        <v>556346</v>
+        <v>561061</v>
       </c>
       <c r="E72" s="14">
-        <v>533069</v>
+        <v>537813</v>
       </c>
       <c r="F72" s="14">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G72" s="14">
-        <v>55871</v>
+        <v>56256</v>
       </c>
       <c r="H72" s="14">
-        <v>9008</v>
+        <v>9149</v>
       </c>
       <c r="I72" s="14">
-        <v>2938</v>
+        <v>2965</v>
       </c>
       <c r="J72" s="14">
         <v>77</v>
@@ -6559,50 +6559,50 @@
         <v>1424</v>
       </c>
       <c r="L72" s="14">
-        <v>1711</v>
+        <v>1747</v>
       </c>
       <c r="M72" s="14">
-        <v>49943</v>
+        <v>50432</v>
       </c>
       <c r="N72" s="14">
-        <v>3804</v>
+        <v>3858</v>
       </c>
       <c r="O72" s="14">
-        <v>27062</v>
+        <v>27818</v>
       </c>
       <c r="P72" s="14">
-        <v>16772</v>
+        <v>16663</v>
       </c>
       <c r="Q72" s="14">
-        <v>35650</v>
+        <v>35664</v>
       </c>
       <c r="R72" s="14">
-        <v>2402</v>
+        <v>2427</v>
       </c>
       <c r="S72" s="14">
-        <v>33575</v>
+        <v>33984</v>
       </c>
       <c r="T72" s="14"/>
       <c r="U72" s="14">
-        <v>101067</v>
+        <v>102021</v>
       </c>
       <c r="V72" s="14">
-        <v>4305</v>
+        <v>4466</v>
       </c>
       <c r="W72" s="14">
-        <v>3036</v>
+        <v>3102</v>
       </c>
       <c r="X72" s="14">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="Y72" s="14">
-        <v>10077</v>
+        <v>10222</v>
       </c>
       <c r="Z72" s="14">
         <v>17</v>
       </c>
       <c r="AA72" s="14">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="73" spans="2:27" hidden="1">
@@ -6610,77 +6610,77 @@
         <v>2019</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D73" s="11">
-        <v>519860</v>
+        <v>558626</v>
       </c>
       <c r="E73" s="11">
-        <v>505944</v>
+        <v>535724</v>
       </c>
       <c r="F73" s="11">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="G73" s="11">
-        <v>49255</v>
+        <v>55998</v>
       </c>
       <c r="H73" s="11">
-        <v>6176</v>
+        <v>9075</v>
       </c>
       <c r="I73" s="11">
-        <v>2186</v>
+        <v>2960</v>
       </c>
       <c r="J73" s="11">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K73" s="11">
-        <v>1413</v>
+        <v>1424</v>
       </c>
       <c r="L73" s="11">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="M73" s="11">
-        <v>43268</v>
+        <v>50135</v>
       </c>
       <c r="N73" s="11">
-        <v>3801</v>
+        <v>3846</v>
       </c>
       <c r="O73" s="11">
-        <v>26781</v>
+        <v>27391</v>
       </c>
       <c r="P73" s="11">
-        <v>14771</v>
+        <v>16776</v>
       </c>
       <c r="Q73" s="11">
-        <v>34056</v>
+        <v>35622</v>
       </c>
       <c r="R73" s="11">
-        <v>2388</v>
+        <v>2417</v>
       </c>
       <c r="S73" s="11">
-        <v>33239</v>
+        <v>33833</v>
       </c>
       <c r="T73" s="11"/>
       <c r="U73" s="11">
-        <v>100098</v>
+        <v>101688</v>
       </c>
       <c r="V73" s="11">
-        <v>4230</v>
+        <v>4382</v>
       </c>
       <c r="W73" s="11">
-        <v>2983</v>
+        <v>3068</v>
       </c>
       <c r="X73" s="11">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="Y73" s="11">
-        <v>10048</v>
+        <v>10134</v>
       </c>
       <c r="Z73" s="11">
         <v>17</v>
       </c>
       <c r="AA73" s="11">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74" spans="2:27" hidden="1">
@@ -6688,79 +6688,77 @@
         <v>2019</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D74" s="14">
-        <v>517666</v>
+        <v>556346</v>
       </c>
       <c r="E74" s="14">
-        <v>503486</v>
+        <v>533069</v>
       </c>
       <c r="F74" s="14">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="G74" s="14">
-        <v>49171</v>
+        <v>55871</v>
       </c>
       <c r="H74" s="14">
-        <v>6156</v>
+        <v>9008</v>
       </c>
       <c r="I74" s="14">
-        <v>2183</v>
+        <v>2938</v>
       </c>
       <c r="J74" s="14">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K74" s="14">
-        <v>1413</v>
+        <v>1424</v>
       </c>
       <c r="L74" s="14">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="M74" s="14">
-        <v>43104</v>
+        <v>49943</v>
       </c>
       <c r="N74" s="14">
-        <v>3785</v>
+        <v>3804</v>
       </c>
       <c r="O74" s="14">
-        <v>26582</v>
+        <v>27062</v>
       </c>
       <c r="P74" s="14">
-        <v>14832</v>
+        <v>16772</v>
       </c>
       <c r="Q74" s="14">
-        <v>34205</v>
+        <v>35650</v>
       </c>
       <c r="R74" s="14">
-        <v>2384</v>
+        <v>2402</v>
       </c>
       <c r="S74" s="14">
-        <v>33006</v>
-      </c>
-      <c r="T74" s="14">
-        <v>0</v>
-      </c>
+        <v>33575</v>
+      </c>
+      <c r="T74" s="14"/>
       <c r="U74" s="14">
-        <v>99490</v>
+        <v>101067</v>
       </c>
       <c r="V74" s="14">
-        <v>4173</v>
+        <v>4305</v>
       </c>
       <c r="W74" s="14">
-        <v>2926</v>
+        <v>3036</v>
       </c>
       <c r="X74" s="14">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="Y74" s="14">
-        <v>10026</v>
+        <v>10077</v>
       </c>
       <c r="Z74" s="14">
         <v>17</v>
       </c>
       <c r="AA74" s="14">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="2:27" hidden="1">
@@ -6768,79 +6766,77 @@
         <v>2019</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D75" s="11">
-        <v>514393</v>
+        <v>519860</v>
       </c>
       <c r="E75" s="11">
-        <v>498050</v>
+        <v>505944</v>
       </c>
       <c r="F75" s="11">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G75" s="11">
-        <v>49300</v>
+        <v>49255</v>
       </c>
       <c r="H75" s="11">
-        <v>6708</v>
+        <v>6176</v>
       </c>
       <c r="I75" s="11">
-        <v>2319</v>
+        <v>2186</v>
       </c>
       <c r="J75" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K75" s="11">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="L75" s="11">
-        <v>1686</v>
+        <v>1713</v>
       </c>
       <c r="M75" s="11">
-        <v>43264</v>
+        <v>43268</v>
       </c>
       <c r="N75" s="11">
-        <v>3716</v>
+        <v>3801</v>
       </c>
       <c r="O75" s="11">
-        <v>25831</v>
+        <v>26781</v>
       </c>
       <c r="P75" s="11">
-        <v>14426</v>
+        <v>14771</v>
       </c>
       <c r="Q75" s="11">
-        <v>33360</v>
+        <v>34056</v>
       </c>
       <c r="R75" s="11">
-        <v>2308</v>
+        <v>2388</v>
       </c>
       <c r="S75" s="11">
-        <v>31727</v>
-      </c>
-      <c r="T75" s="11">
-        <v>1</v>
-      </c>
+        <v>33239</v>
+      </c>
+      <c r="T75" s="11"/>
       <c r="U75" s="11">
-        <v>98049</v>
+        <v>100098</v>
       </c>
       <c r="V75" s="11">
-        <v>4070</v>
+        <v>4230</v>
       </c>
       <c r="W75" s="11">
-        <v>2777</v>
+        <v>2983</v>
       </c>
       <c r="X75" s="11">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="Y75" s="11">
-        <v>9942</v>
+        <v>10048</v>
       </c>
       <c r="Z75" s="11">
         <v>17</v>
       </c>
       <c r="AA75" s="11">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="2:27" hidden="1">
@@ -6848,25 +6844,25 @@
         <v>2019</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D76" s="14">
-        <v>512802</v>
+        <v>517666</v>
       </c>
       <c r="E76" s="14">
-        <v>497796</v>
+        <v>503486</v>
       </c>
       <c r="F76" s="14">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G76" s="14">
-        <v>49053</v>
+        <v>49171</v>
       </c>
       <c r="H76" s="14">
         <v>6156</v>
       </c>
       <c r="I76" s="14">
-        <v>2222</v>
+        <v>2183</v>
       </c>
       <c r="J76" s="14">
         <v>73</v>
@@ -6875,52 +6871,52 @@
         <v>1413</v>
       </c>
       <c r="L76" s="14">
-        <v>1694</v>
+        <v>1710</v>
       </c>
       <c r="M76" s="14">
-        <v>42573</v>
+        <v>43104</v>
       </c>
       <c r="N76" s="14">
-        <v>3733</v>
+        <v>3785</v>
       </c>
       <c r="O76" s="14">
-        <v>25944</v>
+        <v>26582</v>
       </c>
       <c r="P76" s="14">
-        <v>14578</v>
+        <v>14832</v>
       </c>
       <c r="Q76" s="14">
-        <v>33417</v>
+        <v>34205</v>
       </c>
       <c r="R76" s="14">
-        <v>2333</v>
+        <v>2384</v>
       </c>
       <c r="S76" s="14">
-        <v>32236</v>
+        <v>33006</v>
       </c>
       <c r="T76" s="14">
         <v>0</v>
       </c>
       <c r="U76" s="14">
-        <v>98138</v>
+        <v>99490</v>
       </c>
       <c r="V76" s="14">
-        <v>4072</v>
+        <v>4173</v>
       </c>
       <c r="W76" s="14">
-        <v>2785</v>
+        <v>2926</v>
       </c>
       <c r="X76" s="14">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="Y76" s="14">
-        <v>9919</v>
+        <v>10026</v>
       </c>
       <c r="Z76" s="14">
         <v>17</v>
       </c>
       <c r="AA76" s="14">
-        <v>674</v>
+        <v>653</v>
       </c>
     </row>
     <row r="77" spans="2:27" hidden="1">
@@ -6928,79 +6924,79 @@
         <v>2019</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D77" s="11">
-        <v>506850</v>
+        <v>514393</v>
       </c>
       <c r="E77" s="11">
-        <v>499239</v>
+        <v>498050</v>
       </c>
       <c r="F77" s="11">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G77" s="11">
-        <v>48604</v>
+        <v>49300</v>
       </c>
       <c r="H77" s="11">
-        <v>7085</v>
+        <v>6708</v>
       </c>
       <c r="I77" s="11">
-        <v>2531</v>
+        <v>2319</v>
       </c>
       <c r="J77" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K77" s="11">
-        <v>239</v>
+        <v>1417</v>
       </c>
       <c r="L77" s="11">
-        <v>2615</v>
+        <v>1686</v>
       </c>
       <c r="M77" s="11">
-        <v>39728</v>
+        <v>43264</v>
       </c>
       <c r="N77" s="11">
-        <v>4268</v>
+        <v>3716</v>
       </c>
       <c r="O77" s="11">
-        <v>28174</v>
+        <v>25831</v>
       </c>
       <c r="P77" s="11">
-        <v>16305</v>
+        <v>14426</v>
       </c>
       <c r="Q77" s="11">
-        <v>35097</v>
+        <v>33360</v>
       </c>
       <c r="R77" s="11">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="S77" s="11">
-        <v>31892</v>
+        <v>31727</v>
       </c>
       <c r="T77" s="11">
         <v>1</v>
       </c>
       <c r="U77" s="11">
-        <v>98003</v>
+        <v>98049</v>
       </c>
       <c r="V77" s="11">
-        <v>3983</v>
+        <v>4070</v>
       </c>
       <c r="W77" s="11">
-        <v>2752</v>
+        <v>2777</v>
       </c>
       <c r="X77" s="11">
         <v>374</v>
       </c>
       <c r="Y77" s="11">
-        <v>11506</v>
+        <v>9942</v>
       </c>
       <c r="Z77" s="11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA77" s="11">
-        <v>810</v>
+        <v>647</v>
       </c>
     </row>
     <row r="78" spans="2:27" hidden="1">
@@ -7008,79 +7004,79 @@
         <v>2019</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D78" s="14">
-        <v>504046</v>
+        <v>512802</v>
       </c>
       <c r="E78" s="14">
-        <v>496323</v>
+        <v>497796</v>
       </c>
       <c r="F78" s="14">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G78" s="14">
-        <v>48409</v>
+        <v>49053</v>
       </c>
       <c r="H78" s="14">
-        <v>7032</v>
+        <v>6156</v>
       </c>
       <c r="I78" s="14">
-        <v>2531</v>
+        <v>2222</v>
       </c>
       <c r="J78" s="14">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K78" s="14">
-        <v>239</v>
+        <v>1413</v>
       </c>
       <c r="L78" s="14">
-        <v>2596</v>
+        <v>1694</v>
       </c>
       <c r="M78" s="14">
-        <v>39439</v>
+        <v>42573</v>
       </c>
       <c r="N78" s="14">
-        <v>4234</v>
+        <v>3733</v>
       </c>
       <c r="O78" s="14">
-        <v>27848</v>
+        <v>25944</v>
       </c>
       <c r="P78" s="14">
-        <v>16180</v>
+        <v>14578</v>
       </c>
       <c r="Q78" s="14">
-        <v>34956</v>
+        <v>33417</v>
       </c>
       <c r="R78" s="14">
-        <v>2284</v>
+        <v>2333</v>
       </c>
       <c r="S78" s="14">
-        <v>31444</v>
+        <v>32236</v>
       </c>
       <c r="T78" s="14">
         <v>0</v>
       </c>
       <c r="U78" s="14">
-        <v>97190</v>
+        <v>98138</v>
       </c>
       <c r="V78" s="14">
-        <v>3921</v>
+        <v>4072</v>
       </c>
       <c r="W78" s="14">
-        <v>2705</v>
+        <v>2785</v>
       </c>
       <c r="X78" s="14">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="Y78" s="14">
-        <v>11482</v>
+        <v>9919</v>
       </c>
       <c r="Z78" s="14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA78" s="14">
-        <v>807</v>
+        <v>674</v>
       </c>
     </row>
     <row r="79" spans="2:27" hidden="1">
@@ -7088,79 +7084,79 @@
         <v>2019</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D79" s="11">
-        <v>501424</v>
+        <v>506850</v>
       </c>
       <c r="E79" s="11">
-        <v>493291</v>
+        <v>499239</v>
       </c>
       <c r="F79" s="11">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G79" s="11">
-        <v>48079</v>
+        <v>48604</v>
       </c>
       <c r="H79" s="11">
-        <v>7029</v>
+        <v>7085</v>
       </c>
       <c r="I79" s="11">
-        <v>2509</v>
+        <v>2531</v>
       </c>
       <c r="J79" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K79" s="11">
         <v>239</v>
       </c>
       <c r="L79" s="11">
-        <v>2577</v>
+        <v>2615</v>
       </c>
       <c r="M79" s="11">
-        <v>39178</v>
+        <v>39728</v>
       </c>
       <c r="N79" s="11">
-        <v>4173</v>
+        <v>4268</v>
       </c>
       <c r="O79" s="11">
-        <v>27415</v>
+        <v>28174</v>
       </c>
       <c r="P79" s="11">
-        <v>15815</v>
+        <v>16305</v>
       </c>
       <c r="Q79" s="11">
-        <v>34582</v>
+        <v>35097</v>
       </c>
       <c r="R79" s="11">
-        <v>2266</v>
+        <v>2307</v>
       </c>
       <c r="S79" s="11">
-        <v>30934</v>
+        <v>31892</v>
       </c>
       <c r="T79" s="11">
         <v>1</v>
       </c>
       <c r="U79" s="11">
-        <v>96704</v>
+        <v>98003</v>
       </c>
       <c r="V79" s="11">
-        <v>3869</v>
+        <v>3983</v>
       </c>
       <c r="W79" s="11">
-        <v>2699</v>
+        <v>2752</v>
       </c>
       <c r="X79" s="11">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="Y79" s="11">
-        <v>11467</v>
+        <v>11506</v>
       </c>
       <c r="Z79" s="11">
         <v>12</v>
       </c>
       <c r="AA79" s="11">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="80" spans="2:27" hidden="1">
@@ -7168,319 +7164,319 @@
         <v>2019</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D80" s="14">
-        <v>499221</v>
+        <v>504046</v>
       </c>
       <c r="E80" s="14">
-        <v>490327</v>
+        <v>496323</v>
       </c>
       <c r="F80" s="14">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G80" s="14">
-        <v>47999</v>
+        <v>48409</v>
       </c>
       <c r="H80" s="14">
-        <v>7029</v>
+        <v>7032</v>
       </c>
       <c r="I80" s="14">
-        <v>2518</v>
+        <v>2531</v>
       </c>
       <c r="J80" s="14">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K80" s="14">
         <v>239</v>
       </c>
       <c r="L80" s="14">
-        <v>2576</v>
+        <v>2596</v>
       </c>
       <c r="M80" s="14">
-        <v>38838</v>
+        <v>39439</v>
       </c>
       <c r="N80" s="14">
-        <v>4155</v>
+        <v>4234</v>
       </c>
       <c r="O80" s="14">
-        <v>27148</v>
+        <v>27848</v>
       </c>
       <c r="P80" s="14">
-        <v>15484</v>
+        <v>16180</v>
       </c>
       <c r="Q80" s="14">
-        <v>34221</v>
+        <v>34956</v>
       </c>
       <c r="R80" s="14">
-        <v>2252</v>
+        <v>2284</v>
       </c>
       <c r="S80" s="14">
-        <v>30634</v>
+        <v>31444</v>
       </c>
       <c r="T80" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" s="14">
-        <v>96127</v>
+        <v>97190</v>
       </c>
       <c r="V80" s="14">
-        <v>3815</v>
+        <v>3921</v>
       </c>
       <c r="W80" s="14">
-        <v>2658</v>
+        <v>2705</v>
       </c>
       <c r="X80" s="14">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="Y80" s="14">
-        <v>11454</v>
+        <v>11482</v>
       </c>
       <c r="Z80" s="14">
         <v>12</v>
       </c>
       <c r="AA80" s="14">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="81" spans="2:27" hidden="1">
-      <c r="B81" s="18">
+      <c r="B81" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" s="19">
-        <v>497141</v>
-      </c>
-      <c r="E81" s="19">
-        <v>488120</v>
-      </c>
-      <c r="F81" s="19">
+      <c r="C81" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="11">
+        <v>501424</v>
+      </c>
+      <c r="E81" s="11">
+        <v>493291</v>
+      </c>
+      <c r="F81" s="11">
         <v>452</v>
       </c>
-      <c r="G81" s="19">
-        <v>47859</v>
-      </c>
-      <c r="H81" s="19">
-        <v>6968</v>
-      </c>
-      <c r="I81" s="19">
-        <v>2504</v>
-      </c>
-      <c r="J81" s="19">
+      <c r="G81" s="11">
+        <v>48079</v>
+      </c>
+      <c r="H81" s="11">
+        <v>7029</v>
+      </c>
+      <c r="I81" s="11">
+        <v>2509</v>
+      </c>
+      <c r="J81" s="11">
         <v>77</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K81" s="11">
         <v>239</v>
       </c>
-      <c r="L81" s="19">
-        <v>2565</v>
-      </c>
-      <c r="M81" s="19">
-        <v>38626</v>
-      </c>
-      <c r="N81" s="19">
-        <v>4150</v>
-      </c>
-      <c r="O81" s="19">
-        <v>26845</v>
-      </c>
-      <c r="P81" s="19">
-        <v>15304</v>
-      </c>
-      <c r="Q81" s="19">
-        <v>34009</v>
-      </c>
-      <c r="R81" s="19">
-        <v>2246</v>
-      </c>
-      <c r="S81" s="19">
-        <v>30488</v>
-      </c>
-      <c r="T81" s="19">
+      <c r="L81" s="11">
+        <v>2577</v>
+      </c>
+      <c r="M81" s="11">
+        <v>39178</v>
+      </c>
+      <c r="N81" s="11">
+        <v>4173</v>
+      </c>
+      <c r="O81" s="11">
+        <v>27415</v>
+      </c>
+      <c r="P81" s="11">
+        <v>15815</v>
+      </c>
+      <c r="Q81" s="11">
+        <v>34582</v>
+      </c>
+      <c r="R81" s="11">
+        <v>2266</v>
+      </c>
+      <c r="S81" s="11">
+        <v>30934</v>
+      </c>
+      <c r="T81" s="11">
         <v>1</v>
       </c>
-      <c r="U81" s="19">
-        <v>95504</v>
-      </c>
-      <c r="V81" s="19">
-        <v>3778</v>
-      </c>
-      <c r="W81" s="19">
-        <v>2638</v>
-      </c>
-      <c r="X81" s="19">
-        <v>344</v>
-      </c>
-      <c r="Y81" s="19">
-        <v>11417</v>
-      </c>
-      <c r="Z81" s="19">
+      <c r="U81" s="11">
+        <v>96704</v>
+      </c>
+      <c r="V81" s="11">
+        <v>3869</v>
+      </c>
+      <c r="W81" s="11">
+        <v>2699</v>
+      </c>
+      <c r="X81" s="11">
+        <v>360</v>
+      </c>
+      <c r="Y81" s="11">
+        <v>11467</v>
+      </c>
+      <c r="Z81" s="11">
         <v>12</v>
       </c>
-      <c r="AA81" s="19">
-        <v>804</v>
+      <c r="AA81" s="11">
+        <v>808</v>
       </c>
     </row>
     <row r="82" spans="2:27" hidden="1">
       <c r="B82" s="13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D82" s="14">
-        <v>496057</v>
+        <v>499221</v>
       </c>
       <c r="E82" s="14">
-        <v>486335</v>
+        <v>490327</v>
       </c>
       <c r="F82" s="14">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G82" s="14">
-        <v>47780</v>
+        <v>47999</v>
       </c>
       <c r="H82" s="14">
-        <v>6994</v>
+        <v>7029</v>
       </c>
       <c r="I82" s="14">
-        <v>2508</v>
+        <v>2518</v>
       </c>
       <c r="J82" s="14">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K82" s="14">
         <v>239</v>
       </c>
       <c r="L82" s="14">
-        <v>2565</v>
+        <v>2576</v>
       </c>
       <c r="M82" s="14">
-        <v>38415</v>
+        <v>38838</v>
       </c>
       <c r="N82" s="14">
-        <v>4053</v>
+        <v>4155</v>
       </c>
       <c r="O82" s="14">
-        <v>26683</v>
+        <v>27148</v>
       </c>
       <c r="P82" s="14">
-        <v>15554</v>
+        <v>15484</v>
       </c>
       <c r="Q82" s="14">
-        <v>34018</v>
+        <v>34221</v>
       </c>
       <c r="R82" s="14">
-        <v>2235</v>
+        <v>2252</v>
       </c>
       <c r="S82" s="14">
-        <v>30111</v>
+        <v>30634</v>
       </c>
       <c r="T82" s="14">
         <v>1</v>
       </c>
       <c r="U82" s="14">
-        <v>94864</v>
+        <v>96127</v>
       </c>
       <c r="V82" s="14">
-        <v>3723</v>
+        <v>3815</v>
       </c>
       <c r="W82" s="14">
-        <v>2618</v>
+        <v>2658</v>
       </c>
       <c r="X82" s="14">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="Y82" s="14">
-        <v>11369</v>
+        <v>11454</v>
       </c>
       <c r="Z82" s="14">
         <v>12</v>
       </c>
       <c r="AA82" s="14">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" hidden="1">
+      <c r="B83" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="19">
+        <v>497141</v>
+      </c>
+      <c r="E83" s="19">
+        <v>488120</v>
+      </c>
+      <c r="F83" s="19">
+        <v>452</v>
+      </c>
+      <c r="G83" s="19">
+        <v>47859</v>
+      </c>
+      <c r="H83" s="19">
+        <v>6968</v>
+      </c>
+      <c r="I83" s="19">
+        <v>2504</v>
+      </c>
+      <c r="J83" s="19">
+        <v>77</v>
+      </c>
+      <c r="K83" s="19">
+        <v>239</v>
+      </c>
+      <c r="L83" s="19">
+        <v>2565</v>
+      </c>
+      <c r="M83" s="19">
+        <v>38626</v>
+      </c>
+      <c r="N83" s="19">
+        <v>4150</v>
+      </c>
+      <c r="O83" s="19">
+        <v>26845</v>
+      </c>
+      <c r="P83" s="19">
+        <v>15304</v>
+      </c>
+      <c r="Q83" s="19">
+        <v>34009</v>
+      </c>
+      <c r="R83" s="19">
+        <v>2246</v>
+      </c>
+      <c r="S83" s="19">
+        <v>30488</v>
+      </c>
+      <c r="T83" s="19">
+        <v>1</v>
+      </c>
+      <c r="U83" s="19">
+        <v>95504</v>
+      </c>
+      <c r="V83" s="19">
+        <v>3778</v>
+      </c>
+      <c r="W83" s="19">
+        <v>2638</v>
+      </c>
+      <c r="X83" s="19">
+        <v>344</v>
+      </c>
+      <c r="Y83" s="19">
+        <v>11417</v>
+      </c>
+      <c r="Z83" s="19">
+        <v>12</v>
+      </c>
+      <c r="AA83" s="19">
         <v>804</v>
-      </c>
-    </row>
-    <row r="83" spans="2:27" hidden="1">
-      <c r="B83" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" s="11">
-        <v>493248</v>
-      </c>
-      <c r="E83" s="11">
-        <v>484343</v>
-      </c>
-      <c r="F83" s="11">
-        <v>467</v>
-      </c>
-      <c r="G83" s="11">
-        <v>47445</v>
-      </c>
-      <c r="H83" s="11">
-        <v>6904</v>
-      </c>
-      <c r="I83" s="11">
-        <v>2451</v>
-      </c>
-      <c r="J83" s="11">
-        <v>78</v>
-      </c>
-      <c r="K83" s="11">
-        <v>239</v>
-      </c>
-      <c r="L83" s="11">
-        <v>2547</v>
-      </c>
-      <c r="M83" s="11">
-        <v>38053</v>
-      </c>
-      <c r="N83" s="11">
-        <v>4033</v>
-      </c>
-      <c r="O83" s="11">
-        <v>26245</v>
-      </c>
-      <c r="P83" s="11">
-        <v>15368</v>
-      </c>
-      <c r="Q83" s="11">
-        <v>34089</v>
-      </c>
-      <c r="R83" s="11">
-        <v>2228</v>
-      </c>
-      <c r="S83" s="11">
-        <v>29848</v>
-      </c>
-      <c r="T83" s="11">
-        <v>1</v>
-      </c>
-      <c r="U83" s="11">
-        <v>94351</v>
-      </c>
-      <c r="V83" s="11">
-        <v>3704</v>
-      </c>
-      <c r="W83" s="11">
-        <v>2563</v>
-      </c>
-      <c r="X83" s="11">
-        <v>326</v>
-      </c>
-      <c r="Y83" s="11">
-        <v>11268</v>
-      </c>
-      <c r="Z83" s="11">
-        <v>12</v>
-      </c>
-      <c r="AA83" s="11">
-        <v>798</v>
       </c>
     </row>
     <row r="84" spans="2:27" hidden="1">
@@ -7488,25 +7484,25 @@
         <v>2018</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D84" s="14">
-        <v>489853</v>
+        <v>496057</v>
       </c>
       <c r="E84" s="14">
-        <v>481195</v>
+        <v>486335</v>
       </c>
       <c r="F84" s="14">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G84" s="14">
-        <v>47019</v>
+        <v>47780</v>
       </c>
       <c r="H84" s="14">
-        <v>6820</v>
+        <v>6994</v>
       </c>
       <c r="I84" s="14">
-        <v>2443</v>
+        <v>2508</v>
       </c>
       <c r="J84" s="14">
         <v>78</v>
@@ -7515,52 +7511,52 @@
         <v>239</v>
       </c>
       <c r="L84" s="14">
-        <v>2529</v>
+        <v>2565</v>
       </c>
       <c r="M84" s="14">
-        <v>37565</v>
+        <v>38415</v>
       </c>
       <c r="N84" s="14">
-        <v>3997</v>
+        <v>4053</v>
       </c>
       <c r="O84" s="14">
-        <v>25847</v>
+        <v>26683</v>
       </c>
       <c r="P84" s="14">
-        <v>15208</v>
+        <v>15554</v>
       </c>
       <c r="Q84" s="14">
-        <v>33793</v>
+        <v>34018</v>
       </c>
       <c r="R84" s="14">
-        <v>2228</v>
+        <v>2235</v>
       </c>
       <c r="S84" s="14">
-        <v>29565</v>
+        <v>30111</v>
       </c>
       <c r="T84" s="14">
         <v>1</v>
       </c>
       <c r="U84" s="14">
-        <v>93792</v>
+        <v>94864</v>
       </c>
       <c r="V84" s="14">
-        <v>3636</v>
+        <v>3723</v>
       </c>
       <c r="W84" s="14">
-        <v>2514</v>
+        <v>2618</v>
       </c>
       <c r="X84" s="14">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Y84" s="14">
-        <v>11160</v>
+        <v>11369</v>
       </c>
       <c r="Z84" s="14">
         <v>12</v>
       </c>
       <c r="AA84" s="14">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="85" spans="2:27" hidden="1">
@@ -7568,25 +7564,25 @@
         <v>2018</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D85" s="11">
-        <v>486879</v>
+        <v>493248</v>
       </c>
       <c r="E85" s="11">
-        <v>478202</v>
+        <v>484343</v>
       </c>
       <c r="F85" s="11">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G85" s="11">
-        <v>46939</v>
+        <v>47445</v>
       </c>
       <c r="H85" s="11">
-        <v>6767</v>
+        <v>6904</v>
       </c>
       <c r="I85" s="11">
-        <v>2420</v>
+        <v>2451</v>
       </c>
       <c r="J85" s="11">
         <v>78</v>
@@ -7595,52 +7591,52 @@
         <v>239</v>
       </c>
       <c r="L85" s="11">
-        <v>2504</v>
+        <v>2547</v>
       </c>
       <c r="M85" s="11">
-        <v>37159</v>
+        <v>38053</v>
       </c>
       <c r="N85" s="11">
-        <v>3981</v>
+        <v>4033</v>
       </c>
       <c r="O85" s="11">
-        <v>25505</v>
+        <v>26245</v>
       </c>
       <c r="P85" s="11">
-        <v>15063</v>
+        <v>15368</v>
       </c>
       <c r="Q85" s="11">
-        <v>33501</v>
+        <v>34089</v>
       </c>
       <c r="R85" s="11">
-        <v>2207</v>
+        <v>2228</v>
       </c>
       <c r="S85" s="11">
-        <v>29169</v>
+        <v>29848</v>
       </c>
       <c r="T85" s="11">
         <v>1</v>
       </c>
       <c r="U85" s="11">
-        <v>92716</v>
+        <v>94351</v>
       </c>
       <c r="V85" s="11">
-        <v>3571</v>
+        <v>3704</v>
       </c>
       <c r="W85" s="11">
-        <v>2389</v>
+        <v>2563</v>
       </c>
       <c r="X85" s="11">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Y85" s="11">
-        <v>11118</v>
+        <v>11268</v>
       </c>
       <c r="Z85" s="11">
         <v>12</v>
       </c>
       <c r="AA85" s="11">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="86" spans="2:27" hidden="1">
@@ -7648,25 +7644,25 @@
         <v>2018</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D86" s="14">
-        <v>483912</v>
+        <v>489853</v>
       </c>
       <c r="E86" s="14">
-        <v>475735</v>
+        <v>481195</v>
       </c>
       <c r="F86" s="14">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G86" s="14">
-        <v>46660</v>
+        <v>47019</v>
       </c>
       <c r="H86" s="14">
-        <v>6663</v>
+        <v>6820</v>
       </c>
       <c r="I86" s="14">
-        <v>2389</v>
+        <v>2443</v>
       </c>
       <c r="J86" s="14">
         <v>78</v>
@@ -7675,52 +7671,52 @@
         <v>239</v>
       </c>
       <c r="L86" s="14">
-        <v>2507</v>
+        <v>2529</v>
       </c>
       <c r="M86" s="14">
-        <v>36747</v>
+        <v>37565</v>
       </c>
       <c r="N86" s="14">
-        <v>3969</v>
+        <v>3997</v>
       </c>
       <c r="O86" s="14">
-        <v>25211</v>
+        <v>25847</v>
       </c>
       <c r="P86" s="14">
-        <v>14925</v>
+        <v>15208</v>
       </c>
       <c r="Q86" s="14">
-        <v>33302</v>
+        <v>33793</v>
       </c>
       <c r="R86" s="14">
-        <v>2187</v>
+        <v>2228</v>
       </c>
       <c r="S86" s="14">
-        <v>28883</v>
+        <v>29565</v>
       </c>
       <c r="T86" s="14">
         <v>1</v>
       </c>
       <c r="U86" s="14">
-        <v>91723</v>
+        <v>93792</v>
       </c>
       <c r="V86" s="14">
-        <v>3516</v>
+        <v>3636</v>
       </c>
       <c r="W86" s="14">
-        <v>2314</v>
+        <v>2514</v>
       </c>
       <c r="X86" s="14">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="Y86" s="14">
-        <v>11021</v>
+        <v>11160</v>
       </c>
       <c r="Z86" s="14">
         <v>12</v>
       </c>
       <c r="AA86" s="14">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="87" spans="2:27" hidden="1">
@@ -7728,25 +7724,25 @@
         <v>2018</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D87" s="11">
-        <v>480495</v>
+        <v>486879</v>
       </c>
       <c r="E87" s="11">
-        <v>472364</v>
+        <v>478202</v>
       </c>
       <c r="F87" s="11">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G87" s="11">
-        <v>46648</v>
+        <v>46939</v>
       </c>
       <c r="H87" s="11">
-        <v>6624</v>
+        <v>6767</v>
       </c>
       <c r="I87" s="11">
-        <v>2371</v>
+        <v>2420</v>
       </c>
       <c r="J87" s="11">
         <v>78</v>
@@ -7755,52 +7751,52 @@
         <v>239</v>
       </c>
       <c r="L87" s="11">
-        <v>2485</v>
+        <v>2504</v>
       </c>
       <c r="M87" s="11">
-        <v>36570</v>
+        <v>37159</v>
       </c>
       <c r="N87" s="11">
-        <v>3920</v>
+        <v>3981</v>
       </c>
       <c r="O87" s="11">
-        <v>24802</v>
+        <v>25505</v>
       </c>
       <c r="P87" s="11">
-        <v>14924</v>
+        <v>15063</v>
       </c>
       <c r="Q87" s="11">
-        <v>33187</v>
+        <v>33501</v>
       </c>
       <c r="R87" s="11">
-        <v>2173</v>
+        <v>2207</v>
       </c>
       <c r="S87" s="11">
-        <v>28394</v>
+        <v>29169</v>
       </c>
       <c r="T87" s="11">
         <v>1</v>
       </c>
       <c r="U87" s="11">
-        <v>90924</v>
+        <v>92716</v>
       </c>
       <c r="V87" s="11">
-        <v>3442</v>
+        <v>3571</v>
       </c>
       <c r="W87" s="11">
-        <v>2249</v>
+        <v>2389</v>
       </c>
       <c r="X87" s="11">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="Y87" s="11">
-        <v>10962</v>
+        <v>11118</v>
       </c>
       <c r="Z87" s="11">
         <v>12</v>
       </c>
       <c r="AA87" s="11">
-        <v>784</v>
+        <v>793</v>
       </c>
     </row>
     <row r="88" spans="2:27" hidden="1">
@@ -7808,79 +7804,79 @@
         <v>2018</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D88" s="14">
-        <v>477880</v>
+        <v>483912</v>
       </c>
       <c r="E88" s="14">
-        <v>469513</v>
+        <v>475735</v>
       </c>
       <c r="F88" s="14">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G88" s="14">
-        <v>46538</v>
+        <v>46660</v>
       </c>
       <c r="H88" s="14">
-        <v>6550</v>
+        <v>6663</v>
       </c>
       <c r="I88" s="14">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="J88" s="14">
         <v>78</v>
       </c>
       <c r="K88" s="14">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L88" s="14">
-        <v>2479</v>
+        <v>2507</v>
       </c>
       <c r="M88" s="14">
-        <v>36256</v>
+        <v>36747</v>
       </c>
       <c r="N88" s="14">
-        <v>3901</v>
+        <v>3969</v>
       </c>
       <c r="O88" s="14">
-        <v>24520</v>
+        <v>25211</v>
       </c>
       <c r="P88" s="14">
-        <v>14804</v>
+        <v>14925</v>
       </c>
       <c r="Q88" s="14">
-        <v>33150</v>
+        <v>33302</v>
       </c>
       <c r="R88" s="14">
-        <v>2178</v>
+        <v>2187</v>
       </c>
       <c r="S88" s="14">
-        <v>27975</v>
+        <v>28883</v>
       </c>
       <c r="T88" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" s="14">
-        <v>89534</v>
+        <v>91723</v>
       </c>
       <c r="V88" s="14">
-        <v>3365</v>
+        <v>3516</v>
       </c>
       <c r="W88" s="14">
-        <v>2210</v>
+        <v>2314</v>
       </c>
       <c r="X88" s="14">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Y88" s="14">
-        <v>10862</v>
+        <v>11021</v>
       </c>
       <c r="Z88" s="14">
         <v>12</v>
       </c>
       <c r="AA88" s="14">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="89" spans="2:27" hidden="1">
@@ -7888,79 +7884,79 @@
         <v>2018</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D89" s="11">
-        <v>476241</v>
+        <v>480495</v>
       </c>
       <c r="E89" s="11">
-        <v>467827</v>
+        <v>472364</v>
       </c>
       <c r="F89" s="11">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G89" s="11">
-        <v>46438</v>
+        <v>46648</v>
       </c>
       <c r="H89" s="11">
-        <v>6498</v>
+        <v>6624</v>
       </c>
       <c r="I89" s="11">
-        <v>2366</v>
+        <v>2371</v>
       </c>
       <c r="J89" s="11">
         <v>78</v>
       </c>
       <c r="K89" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L89" s="11">
-        <v>2474</v>
+        <v>2485</v>
       </c>
       <c r="M89" s="11">
-        <v>35832</v>
+        <v>36570</v>
       </c>
       <c r="N89" s="11">
-        <v>3883</v>
+        <v>3920</v>
       </c>
       <c r="O89" s="11">
-        <v>24299</v>
+        <v>24802</v>
       </c>
       <c r="P89" s="11">
-        <v>14847</v>
+        <v>14924</v>
       </c>
       <c r="Q89" s="11">
-        <v>33272</v>
+        <v>33187</v>
       </c>
       <c r="R89" s="11">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="S89" s="11">
-        <v>27577</v>
+        <v>28394</v>
       </c>
       <c r="T89" s="11">
         <v>1</v>
       </c>
       <c r="U89" s="11">
-        <v>88473</v>
+        <v>90924</v>
       </c>
       <c r="V89" s="11">
-        <v>3325</v>
+        <v>3442</v>
       </c>
       <c r="W89" s="11">
-        <v>2133</v>
+        <v>2249</v>
       </c>
       <c r="X89" s="11">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Y89" s="11">
-        <v>10800</v>
+        <v>10962</v>
       </c>
       <c r="Z89" s="11">
         <v>12</v>
       </c>
       <c r="AA89" s="11">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="90" spans="2:27" hidden="1">
@@ -7968,79 +7964,79 @@
         <v>2018</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D90" s="14">
-        <v>472271</v>
+        <v>477880</v>
       </c>
       <c r="E90" s="14">
-        <v>463807</v>
+        <v>469513</v>
       </c>
       <c r="F90" s="14">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G90" s="14">
-        <v>46120</v>
+        <v>46538</v>
       </c>
       <c r="H90" s="14">
-        <v>6441</v>
+        <v>6550</v>
       </c>
       <c r="I90" s="14">
-        <v>2324</v>
+        <v>2387</v>
       </c>
       <c r="J90" s="14">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K90" s="14">
         <v>237</v>
       </c>
       <c r="L90" s="14">
-        <v>2458</v>
+        <v>2479</v>
       </c>
       <c r="M90" s="14">
-        <v>35484</v>
+        <v>36256</v>
       </c>
       <c r="N90" s="14">
-        <v>3859</v>
+        <v>3901</v>
       </c>
       <c r="O90" s="14">
-        <v>24075</v>
+        <v>24520</v>
       </c>
       <c r="P90" s="14">
-        <v>14872</v>
+        <v>14804</v>
       </c>
       <c r="Q90" s="14">
-        <v>33210</v>
+        <v>33150</v>
       </c>
       <c r="R90" s="14">
-        <v>2154</v>
+        <v>2178</v>
       </c>
       <c r="S90" s="14">
-        <v>27204</v>
+        <v>27975</v>
       </c>
       <c r="T90" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90" s="14">
-        <v>86985</v>
+        <v>89534</v>
       </c>
       <c r="V90" s="14">
-        <v>3231</v>
+        <v>3365</v>
       </c>
       <c r="W90" s="14">
-        <v>2040</v>
+        <v>2210</v>
       </c>
       <c r="X90" s="14">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Y90" s="14">
-        <v>10741</v>
+        <v>10862</v>
       </c>
       <c r="Z90" s="14">
         <v>12</v>
       </c>
       <c r="AA90" s="14">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="2:27" hidden="1">
@@ -8048,79 +8044,79 @@
         <v>2018</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D91" s="11">
-        <v>469020</v>
+        <v>476241</v>
       </c>
       <c r="E91" s="11">
-        <v>460731</v>
+        <v>467827</v>
       </c>
       <c r="F91" s="11">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G91" s="11">
-        <v>45917</v>
+        <v>46438</v>
       </c>
       <c r="H91" s="11">
-        <v>6371</v>
+        <v>6498</v>
       </c>
       <c r="I91" s="11">
-        <v>2319</v>
+        <v>2366</v>
       </c>
       <c r="J91" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K91" s="11">
         <v>237</v>
       </c>
       <c r="L91" s="11">
-        <v>2444</v>
+        <v>2474</v>
       </c>
       <c r="M91" s="11">
-        <v>35184</v>
+        <v>35832</v>
       </c>
       <c r="N91" s="11">
-        <v>3843</v>
+        <v>3883</v>
       </c>
       <c r="O91" s="11">
-        <v>23647</v>
+        <v>24299</v>
       </c>
       <c r="P91" s="11">
-        <v>14554</v>
+        <v>14847</v>
       </c>
       <c r="Q91" s="11">
-        <v>33107</v>
+        <v>33272</v>
       </c>
       <c r="R91" s="11">
-        <v>2146</v>
+        <v>2165</v>
       </c>
       <c r="S91" s="11">
-        <v>26742</v>
+        <v>27577</v>
       </c>
       <c r="T91" s="11">
         <v>1</v>
       </c>
       <c r="U91" s="11">
-        <v>86342</v>
+        <v>88473</v>
       </c>
       <c r="V91" s="11">
-        <v>3169</v>
+        <v>3325</v>
       </c>
       <c r="W91" s="11">
-        <v>2018</v>
+        <v>2133</v>
       </c>
       <c r="X91" s="11">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="Y91" s="11">
-        <v>10741</v>
+        <v>10800</v>
       </c>
       <c r="Z91" s="11">
         <v>12</v>
       </c>
       <c r="AA91" s="11">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="92" spans="2:27" hidden="1">
@@ -8128,25 +8124,25 @@
         <v>2018</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D92" s="14">
-        <v>466319</v>
+        <v>472271</v>
       </c>
       <c r="E92" s="14">
-        <v>457242</v>
+        <v>463807</v>
       </c>
       <c r="F92" s="14">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G92" s="14">
-        <v>45640</v>
+        <v>46120</v>
       </c>
       <c r="H92" s="14">
-        <v>6287</v>
+        <v>6441</v>
       </c>
       <c r="I92" s="14">
-        <v>2262</v>
+        <v>2324</v>
       </c>
       <c r="J92" s="14">
         <v>77</v>
@@ -8155,145 +8151,305 @@
         <v>237</v>
       </c>
       <c r="L92" s="14">
-        <v>2424</v>
+        <v>2458</v>
       </c>
       <c r="M92" s="14">
-        <v>34703</v>
+        <v>35484</v>
       </c>
       <c r="N92" s="14">
-        <v>3824</v>
+        <v>3859</v>
       </c>
       <c r="O92" s="14">
-        <v>23309</v>
+        <v>24075</v>
       </c>
       <c r="P92" s="14">
-        <v>14393</v>
+        <v>14872</v>
       </c>
       <c r="Q92" s="14">
-        <v>32986</v>
+        <v>33210</v>
       </c>
       <c r="R92" s="14">
-        <v>2120</v>
+        <v>2154</v>
       </c>
       <c r="S92" s="14">
-        <v>26331</v>
+        <v>27204</v>
       </c>
       <c r="T92" s="14">
         <v>1</v>
       </c>
       <c r="U92" s="14">
-        <v>85658</v>
+        <v>86985</v>
       </c>
       <c r="V92" s="14">
-        <v>3120</v>
+        <v>3231</v>
       </c>
       <c r="W92" s="14">
-        <v>1980</v>
+        <v>2040</v>
       </c>
       <c r="X92" s="14">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Y92" s="14">
-        <v>10688</v>
+        <v>10741</v>
       </c>
       <c r="Z92" s="14">
         <v>12</v>
       </c>
       <c r="AA92" s="14">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27" hidden="1">
+      <c r="B93" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="11">
+        <v>469020</v>
+      </c>
+      <c r="E93" s="11">
+        <v>460731</v>
+      </c>
+      <c r="F93" s="11">
+        <v>454</v>
+      </c>
+      <c r="G93" s="11">
+        <v>45917</v>
+      </c>
+      <c r="H93" s="11">
+        <v>6371</v>
+      </c>
+      <c r="I93" s="11">
+        <v>2319</v>
+      </c>
+      <c r="J93" s="11">
+        <v>77</v>
+      </c>
+      <c r="K93" s="11">
+        <v>237</v>
+      </c>
+      <c r="L93" s="11">
+        <v>2444</v>
+      </c>
+      <c r="M93" s="11">
+        <v>35184</v>
+      </c>
+      <c r="N93" s="11">
+        <v>3843</v>
+      </c>
+      <c r="O93" s="11">
+        <v>23647</v>
+      </c>
+      <c r="P93" s="11">
+        <v>14554</v>
+      </c>
+      <c r="Q93" s="11">
+        <v>33107</v>
+      </c>
+      <c r="R93" s="11">
+        <v>2146</v>
+      </c>
+      <c r="S93" s="11">
+        <v>26742</v>
+      </c>
+      <c r="T93" s="11">
+        <v>1</v>
+      </c>
+      <c r="U93" s="11">
+        <v>86342</v>
+      </c>
+      <c r="V93" s="11">
+        <v>3169</v>
+      </c>
+      <c r="W93" s="11">
+        <v>2018</v>
+      </c>
+      <c r="X93" s="11">
+        <v>288</v>
+      </c>
+      <c r="Y93" s="11">
+        <v>10741</v>
+      </c>
+      <c r="Z93" s="11">
+        <v>12</v>
+      </c>
+      <c r="AA93" s="11">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" hidden="1">
+      <c r="B94" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="14">
+        <v>466319</v>
+      </c>
+      <c r="E94" s="14">
+        <v>457242</v>
+      </c>
+      <c r="F94" s="14">
+        <v>451</v>
+      </c>
+      <c r="G94" s="14">
+        <v>45640</v>
+      </c>
+      <c r="H94" s="14">
+        <v>6287</v>
+      </c>
+      <c r="I94" s="14">
+        <v>2262</v>
+      </c>
+      <c r="J94" s="14">
+        <v>77</v>
+      </c>
+      <c r="K94" s="14">
+        <v>237</v>
+      </c>
+      <c r="L94" s="14">
+        <v>2424</v>
+      </c>
+      <c r="M94" s="14">
+        <v>34703</v>
+      </c>
+      <c r="N94" s="14">
+        <v>3824</v>
+      </c>
+      <c r="O94" s="14">
+        <v>23309</v>
+      </c>
+      <c r="P94" s="14">
+        <v>14393</v>
+      </c>
+      <c r="Q94" s="14">
+        <v>32986</v>
+      </c>
+      <c r="R94" s="14">
+        <v>2120</v>
+      </c>
+      <c r="S94" s="14">
+        <v>26331</v>
+      </c>
+      <c r="T94" s="14">
+        <v>1</v>
+      </c>
+      <c r="U94" s="14">
+        <v>85658</v>
+      </c>
+      <c r="V94" s="14">
+        <v>3120</v>
+      </c>
+      <c r="W94" s="14">
+        <v>1980</v>
+      </c>
+      <c r="X94" s="14">
+        <v>285</v>
+      </c>
+      <c r="Y94" s="14">
+        <v>10688</v>
+      </c>
+      <c r="Z94" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA94" s="14">
         <v>779</v>
       </c>
     </row>
-    <row r="93" spans="2:27" hidden="1">
-      <c r="B93" s="18">
+    <row r="95" spans="2:27" hidden="1">
+      <c r="B95" s="18">
         <v>2018</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C95" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D95" s="19">
         <v>464622</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E95" s="19">
         <v>455453</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F95" s="19">
         <v>451</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G95" s="19">
         <v>45676</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H95" s="19">
         <v>6259</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I95" s="19">
         <v>2255</v>
       </c>
-      <c r="J93" s="19">
+      <c r="J95" s="19">
         <v>77</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K95" s="19">
         <v>237</v>
       </c>
-      <c r="L93" s="19">
+      <c r="L95" s="19">
         <v>2406</v>
       </c>
-      <c r="M93" s="19">
+      <c r="M95" s="19">
         <v>34385</v>
       </c>
-      <c r="N93" s="19">
+      <c r="N95" s="19">
         <v>3836</v>
       </c>
-      <c r="O93" s="19">
+      <c r="O95" s="19">
         <v>23129</v>
       </c>
-      <c r="P93" s="19">
+      <c r="P95" s="19">
         <v>14404</v>
       </c>
-      <c r="Q93" s="19">
+      <c r="Q95" s="19">
         <v>32894</v>
       </c>
-      <c r="R93" s="19">
+      <c r="R95" s="19">
         <v>2092</v>
       </c>
-      <c r="S93" s="19">
+      <c r="S95" s="19">
         <v>26133</v>
       </c>
-      <c r="T93" s="19">
+      <c r="T95" s="19">
         <v>1</v>
       </c>
-      <c r="U93" s="19">
+      <c r="U95" s="19">
         <v>84912</v>
       </c>
-      <c r="V93" s="19">
+      <c r="V95" s="19">
         <v>3077</v>
       </c>
-      <c r="W93" s="19">
+      <c r="W95" s="19">
         <v>1949</v>
       </c>
-      <c r="X93" s="19">
+      <c r="X95" s="19">
         <v>278</v>
       </c>
-      <c r="Y93" s="19">
+      <c r="Y95" s="19">
         <v>10682</v>
       </c>
-      <c r="Z93" s="19">
+      <c r="Z95" s="19">
         <v>12</v>
       </c>
-      <c r="AA93" s="19">
+      <c r="AA95" s="19">
         <v>782</v>
       </c>
     </row>
-    <row r="94" spans="2:27">
-      <c r="B94" s="2" t="s">
+    <row r="96" spans="2:27">
+      <c r="B96" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AA94" s="21"/>
-    </row>
-    <row r="95" spans="2:27">
-      <c r="B95" s="2" t="s">
+      <c r="AA96" s="21"/>
+    </row>
+    <row r="97" spans="2:27">
+      <c r="B97" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA95" s="21"/>
+      <c r="AA97" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8675670E-4821-4D5C-A5CD-342175FDBFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDABC85A-EB51-4FFC-8CC3-68584C543AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_18" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -923,8 +923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA95" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
-  <autoFilter ref="B5:AA95" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA96" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="B5:AA96" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1186,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA97"/>
+  <dimension ref="B2:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1358,7098 +1358,7176 @@
       </c>
     </row>
     <row r="6" spans="2:27">
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11">
+        <v>744719</v>
+      </c>
+      <c r="E6" s="11">
+        <v>735160</v>
+      </c>
+      <c r="F6" s="11">
+        <v>697</v>
+      </c>
+      <c r="G6" s="11">
+        <v>57687</v>
+      </c>
+      <c r="H6" s="11">
+        <v>10797</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3774</v>
+      </c>
+      <c r="J6" s="11">
+        <v>78</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1424</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2911</v>
+      </c>
+      <c r="M6" s="11">
+        <v>65023</v>
+      </c>
+      <c r="N6" s="11">
+        <v>3992</v>
+      </c>
+      <c r="O6" s="11">
+        <v>43806</v>
+      </c>
+      <c r="P6" s="11">
+        <v>31043</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>44839</v>
+      </c>
+      <c r="R6" s="11">
+        <v>2761</v>
+      </c>
+      <c r="S6" s="11">
+        <v>55585</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11">
+        <v>134670</v>
+      </c>
+      <c r="V6" s="11">
+        <v>6666</v>
+      </c>
+      <c r="W6" s="11">
+        <v>6663</v>
+      </c>
+      <c r="X6" s="11">
+        <v>2313</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>13088</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="14">
         <v>744628</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E7" s="14">
         <v>732634</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F7" s="14">
         <v>691</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G7" s="14">
         <v>57797</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H7" s="14">
         <v>10778</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I7" s="14">
         <v>3770</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J7" s="14">
         <v>78</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K7" s="14">
         <v>1424</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L7" s="14">
         <v>2906</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M7" s="14">
         <v>64731</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N7" s="14">
         <v>3976</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O7" s="14">
         <v>43507</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P7" s="14">
         <v>31315</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q7" s="14">
         <v>44950</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R7" s="14">
         <v>2752</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S7" s="14">
         <v>55819</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14">
+      <c r="T7" s="14"/>
+      <c r="U7" s="14">
         <v>135304</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V7" s="14">
         <v>6644</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W7" s="14">
         <v>6652</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X7" s="14">
         <v>2306</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y7" s="14">
         <v>13046</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z7" s="14">
         <v>14</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA7" s="14">
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="9">
+    <row r="8" spans="2:27">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>738785</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>728411</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>673</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>57768</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="11">
         <v>10778</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I8" s="11">
         <v>3743</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J8" s="11">
         <v>78</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K8" s="11">
         <v>1424</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L8" s="11">
         <v>2900</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M8" s="11">
         <v>64552</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N8" s="11">
         <v>3977</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O8" s="11">
         <v>43227</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P8" s="11">
         <v>31168</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q8" s="11">
         <v>44638</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R8" s="11">
         <v>2726</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S8" s="11">
         <v>55471</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11">
+      <c r="T8" s="11"/>
+      <c r="U8" s="11">
         <v>133642</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V8" s="11">
         <v>6613</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W8" s="11">
         <v>6631</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X8" s="11">
         <v>2290</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y8" s="11">
         <v>12971</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z8" s="11">
         <v>14</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA8" s="12">
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="13">
+    <row r="9" spans="2:27">
+      <c r="B9" s="13">
         <v>2025</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <v>736441</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <v>725074</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F9" s="14">
         <v>675</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="14">
         <v>57912</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="14">
         <v>10700</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>3738</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J9" s="14">
         <v>78</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="14">
         <v>1424</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L9" s="14">
         <v>2876</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M9" s="14">
         <v>64444</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N9" s="14">
         <v>3963</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O9" s="14">
         <v>42996</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P9" s="14">
         <v>31071</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q9" s="14">
         <v>44453</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R9" s="14">
         <v>2723</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S9" s="14">
         <v>55345</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14">
         <v>133140</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V9" s="14">
         <v>6592</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W9" s="14">
         <v>6584</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X9" s="14">
         <v>2284</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y9" s="14">
         <v>12903</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z9" s="14">
         <v>14</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA9" s="14">
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="9">
+    <row r="10" spans="2:27">
+      <c r="B10" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>732842</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>721468</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>667</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>57847</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="11">
         <v>10668</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I10" s="11">
         <v>3721</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J10" s="11">
         <v>78</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K10" s="11">
         <v>1424</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L10" s="11">
         <v>2856</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M10" s="11">
         <v>64131</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N10" s="11">
         <v>3963</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O10" s="11">
         <v>42777</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P10" s="11">
         <v>31166</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q10" s="11">
         <v>44303</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R10" s="11">
         <v>2708</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S10" s="11">
         <v>55322</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11">
+      <c r="T10" s="11"/>
+      <c r="U10" s="11">
         <v>133084</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V10" s="11">
         <v>6579</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W10" s="11">
         <v>6562</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X10" s="11">
         <v>2285</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y10" s="11">
         <v>12870</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z10" s="11">
         <v>15</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA10" s="12">
         <v>733</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="13">
+    <row r="11" spans="2:27">
+      <c r="B11" s="13">
         <v>2025</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>729319</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="14">
         <v>718257</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="14">
         <v>663</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="14">
         <v>57759</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="14">
         <v>10612</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>3697</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="14">
         <v>78</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K11" s="14">
         <v>1424</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L11" s="14">
         <v>2840</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M11" s="14">
         <v>63974</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N11" s="14">
         <v>3956</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O11" s="14">
         <v>42526</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P11" s="14">
         <v>30916</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q11" s="14">
         <v>44105</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R11" s="14">
         <v>2709</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S11" s="14">
         <v>55235</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14">
+      <c r="T11" s="14"/>
+      <c r="U11" s="14">
         <v>132317</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V11" s="14">
         <v>6550</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W11" s="14">
         <v>6513</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X11" s="14">
         <v>2270</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y11" s="14">
         <v>12792</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z11" s="14">
         <v>15</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AA11" s="14">
         <v>731</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="17">
+    <row r="12" spans="2:27">
+      <c r="B12" s="17">
         <v>2025</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D12" s="19">
         <v>726109</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="19">
         <v>714727</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F12" s="19">
         <v>656</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G12" s="19">
         <v>57695</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H12" s="19">
         <v>10586</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I12" s="19">
         <v>3675</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J12" s="19">
         <v>78</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K12" s="19">
         <v>1424</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L12" s="19">
         <v>2835</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M12" s="19">
         <v>63834</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N12" s="19">
         <v>3964</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O12" s="19">
         <v>42332</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P12" s="19">
         <v>30802</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q12" s="19">
         <v>44075</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R12" s="19">
         <v>2701</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S12" s="19">
         <v>55096</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19">
+      <c r="T12" s="19"/>
+      <c r="U12" s="19">
         <v>131751</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V12" s="19">
         <v>6534</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W12" s="19">
         <v>6466</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X12" s="19">
         <v>2244</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="Y12" s="19">
         <v>12757</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z12" s="19">
         <v>15</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA12" s="20">
         <v>730</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="13">
+    <row r="13" spans="2:27">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>723462</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="14">
         <v>711776</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="14">
         <v>646</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="14">
         <v>57703</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H13" s="14">
         <v>10583</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>3665</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J13" s="14">
         <v>78</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K13" s="14">
         <v>1424</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L13" s="14">
         <v>2822</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M13" s="14">
         <v>63686</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N13" s="14">
         <v>3961</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O13" s="14">
         <v>42142</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P13" s="14">
         <v>30781</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q13" s="14">
         <v>44100</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R13" s="14">
         <v>2703</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S13" s="14">
         <v>55043</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14">
+      <c r="T13" s="14"/>
+      <c r="U13" s="14">
         <v>131335</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V13" s="14">
         <v>6513</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W13" s="14">
         <v>6439</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X13" s="14">
         <v>2237</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y13" s="14">
         <v>12704</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z13" s="14">
         <v>15</v>
       </c>
-      <c r="AA12" s="14">
+      <c r="AA13" s="14">
         <v>730</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="9">
+    <row r="14" spans="2:27">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>719185</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>708450</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>630</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>57548</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <v>10520</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I14" s="11">
         <v>3634</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J14" s="11">
         <v>78</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <v>1424</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L14" s="11">
         <v>2786</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M14" s="11">
         <v>63307</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N14" s="11">
         <v>3939</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O14" s="11">
         <v>41751</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P14" s="11">
         <v>30659</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q14" s="11">
         <v>43660</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R14" s="11">
         <v>2692</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S14" s="11">
         <v>54807</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11">
+      <c r="T14" s="11"/>
+      <c r="U14" s="11">
         <v>130783</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V14" s="11">
         <v>6476</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W14" s="11">
         <v>6362</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X14" s="11">
         <v>2229</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y14" s="11">
         <v>12572</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z14" s="11">
         <v>15</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA14" s="12">
         <v>727</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="13">
+    <row r="15" spans="2:27">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>714747</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>704375</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="14">
         <v>622</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="14">
         <v>57602</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="14">
         <v>10485</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>3617</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J15" s="14">
         <v>78</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="14">
         <v>1424</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L15" s="14">
         <v>2767</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M15" s="14">
         <v>63040</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N15" s="14">
         <v>3930</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O15" s="14">
         <v>41410</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P15" s="14">
         <v>30328</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q15" s="14">
         <v>43596</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R15" s="14">
         <v>2697</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S15" s="14">
         <v>54722</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14">
+      <c r="T15" s="14"/>
+      <c r="U15" s="14">
         <v>130250</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V15" s="14">
         <v>6446</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W15" s="14">
         <v>6199</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X15" s="14">
         <v>2214</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y15" s="14">
         <v>12449</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z15" s="14">
         <v>15</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA15" s="14">
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="9">
+    <row r="16" spans="2:27">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>709391</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>699945</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>611</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>57472</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H16" s="11">
         <v>10407</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I16" s="11">
         <v>3578</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J16" s="11">
         <v>78</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="11">
         <v>1424</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L16" s="11">
         <v>2740</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M16" s="11">
         <v>62737</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N16" s="11">
         <v>3931</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O16" s="11">
         <v>41077</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P16" s="11">
         <v>23934</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q16" s="11">
         <v>43117</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R16" s="11">
         <v>2694</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S16" s="11">
         <v>54701</v>
       </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11">
+      <c r="T16" s="11"/>
+      <c r="U16" s="11">
         <v>129830</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V16" s="11">
         <v>6417</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W16" s="11">
         <v>6046</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X16" s="11">
         <v>2192</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y16" s="11">
         <v>12349</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z16" s="11">
         <v>15</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA16" s="12">
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="15">
+    <row r="17" spans="2:27">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>704941</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="14">
         <v>696064</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="14">
         <v>608</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="14">
         <v>57429</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="14">
         <v>10315</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>3562</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J17" s="14">
         <v>78</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <v>1424</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L17" s="14">
         <v>2725</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M17" s="14">
         <v>62582</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N17" s="14">
         <v>3959</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O17" s="14">
         <v>40692</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P17" s="14">
         <v>23711</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q17" s="14">
         <v>42607</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R17" s="14">
         <v>2706</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S17" s="14">
         <v>54463</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14">
+      <c r="T17" s="14"/>
+      <c r="U17" s="14">
         <v>129480</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V17" s="14">
         <v>6405</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W17" s="14">
         <v>5956</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X17" s="14">
         <v>2159</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y17" s="14">
         <v>12295</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="Z17" s="14">
         <v>15</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AA17" s="16">
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
-      <c r="B17" s="9">
+    <row r="18" spans="2:27">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>700064</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>691573</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>594</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>57394</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H18" s="11">
         <v>10310</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I18" s="11">
         <v>3516</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J18" s="11">
         <v>78</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K18" s="11">
         <v>1424</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L18" s="11">
         <v>2697</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M18" s="11">
         <v>62263</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N18" s="11">
         <v>3963</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O18" s="11">
         <v>40451</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P18" s="11">
         <v>22543</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q18" s="11">
         <v>42013</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R18" s="11">
         <v>2714</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S18" s="11">
         <v>54287</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11">
+      <c r="T18" s="11"/>
+      <c r="U18" s="11">
         <v>129145</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V18" s="11">
         <v>6391</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W18" s="11">
         <v>5917</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X18" s="11">
         <v>2148</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y18" s="11">
         <v>12231</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z18" s="11">
         <v>15</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA18" s="12">
         <v>724</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
-      <c r="B18" s="15">
+    <row r="19" spans="2:27">
+      <c r="B19" s="15">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <v>694997</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="14">
         <v>686081</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="14">
         <v>592</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="14">
         <v>57318</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="14">
         <v>10276</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>3508</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <v>78</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="14">
         <v>1424</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L19" s="14">
         <v>2665</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M19" s="14">
         <v>61927</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N19" s="14">
         <v>3963</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O19" s="14">
         <v>40050</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P19" s="14">
         <v>22350</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q19" s="14">
         <v>41750</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R19" s="14">
         <v>2698</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S19" s="14">
         <v>54175</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14">
+      <c r="T19" s="14"/>
+      <c r="U19" s="14">
         <v>128557</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V19" s="14">
         <v>6363</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W19" s="14">
         <v>5857</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X19" s="14">
         <v>2129</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y19" s="14">
         <v>12153</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="Z19" s="14">
         <v>15</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AA19" s="16">
         <v>724</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
-      <c r="B19" s="9">
+    <row r="20" spans="2:27">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>686433</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>677060</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>583</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>57014</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H20" s="11">
         <v>10191</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I20" s="11">
         <v>3490</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J20" s="11">
         <v>78</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K20" s="11">
         <v>1424</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L20" s="11">
         <v>2598</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M20" s="11">
         <v>61659</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N20" s="11">
         <v>3952</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O20" s="11">
         <v>39763</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P20" s="11">
         <v>22332</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q20" s="11">
         <v>41599</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R20" s="11">
         <v>2694</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S20" s="11">
         <v>54118</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11">
+      <c r="T20" s="11"/>
+      <c r="U20" s="11">
         <v>128107</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V20" s="11">
         <v>6329</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W20" s="11">
         <v>5765</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X20" s="11">
         <v>2112</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y20" s="11">
         <v>12080</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z20" s="11">
         <v>15</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA20" s="12">
         <v>719</v>
       </c>
     </row>
-    <row r="20" spans="2:27">
-      <c r="B20" s="15">
+    <row r="21" spans="2:27">
+      <c r="B21" s="15">
         <v>2024</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <v>685435</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="14">
         <v>676046</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F21" s="14">
         <v>565</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="14">
         <v>56830</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="14">
         <v>10138</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>3511</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <v>78</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="14">
         <v>1424</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L21" s="14">
         <v>2558</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M21" s="14">
         <v>61296</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N21" s="14">
         <v>3933</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O21" s="14">
         <v>39350</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P21" s="14">
         <v>23307</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q21" s="14">
         <v>41742</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R21" s="14">
         <v>2677</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S21" s="14">
         <v>53782</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14">
+      <c r="T21" s="14"/>
+      <c r="U21" s="14">
         <v>127521</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V21" s="14">
         <v>6305</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W21" s="14">
         <v>5651</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X21" s="14">
         <v>2085</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y21" s="14">
         <v>12043</v>
       </c>
-      <c r="Z20" s="14">
+      <c r="Z21" s="14">
         <v>15</v>
       </c>
-      <c r="AA20" s="16">
+      <c r="AA21" s="16">
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
-      <c r="B21" s="9">
+    <row r="22" spans="2:27">
+      <c r="B22" s="9">
         <v>2024</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>681551</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>671878</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>559</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>56791</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="11">
         <v>10077</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <v>3472</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J22" s="11">
         <v>78</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <v>1424</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L22" s="11">
         <v>2515</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M22" s="11">
         <v>60940</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N22" s="11">
         <v>3927</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="11">
         <v>38916</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P22" s="11">
         <v>23100</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q22" s="11">
         <v>41499</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R22" s="11">
         <v>2662</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S22" s="11">
         <v>53501</v>
       </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11">
+      <c r="T22" s="11"/>
+      <c r="U22" s="11">
         <v>127002</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V22" s="11">
         <v>6283</v>
       </c>
-      <c r="W21" s="11">
+      <c r="W22" s="11">
         <v>5537</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X22" s="11">
         <v>2066</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Y22" s="11">
         <v>12002</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z22" s="11">
         <v>15</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA22" s="12">
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
-      <c r="B22" s="15">
+    <row r="23" spans="2:27">
+      <c r="B23" s="15">
         <v>2024</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <v>677153</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="14">
         <v>667343</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F23" s="14">
         <v>559</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="14">
         <v>56789</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="14">
         <v>10062</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>3444</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="14">
         <v>78</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K23" s="14">
         <v>1424</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L23" s="14">
         <v>2486</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M23" s="14">
         <v>60780</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N23" s="14">
         <v>3929</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O23" s="14">
         <v>38626</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P23" s="14">
         <v>22931</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q23" s="14">
         <v>41445</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R23" s="14">
         <v>2656</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S23" s="14">
         <v>53234</v>
       </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14">
+      <c r="T23" s="14"/>
+      <c r="U23" s="14">
         <v>126653</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V23" s="14">
         <v>6260</v>
       </c>
-      <c r="W22" s="14">
+      <c r="W23" s="14">
         <v>5487</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X23" s="14">
         <v>2055</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="Y23" s="14">
         <v>11945</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="Z23" s="14">
         <v>15</v>
       </c>
-      <c r="AA22" s="16">
+      <c r="AA23" s="16">
         <v>718</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
-      <c r="B23" s="17">
+    <row r="24" spans="2:27">
+      <c r="B24" s="17">
         <v>2024</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D24" s="19">
         <v>673757</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="19">
         <v>663646</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F24" s="19">
         <v>558</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G24" s="19">
         <v>56703</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H24" s="19">
         <v>10044</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I24" s="19">
         <v>3392</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J24" s="19">
         <v>78</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K24" s="19">
         <v>1424</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L24" s="19">
         <v>2444</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M24" s="19">
         <v>60551</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N24" s="19">
         <v>3920</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O24" s="19">
         <v>38302</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P24" s="19">
         <v>22717</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q24" s="19">
         <v>41276</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R24" s="19">
         <v>2661</v>
       </c>
-      <c r="S23" s="19">
+      <c r="S24" s="19">
         <v>53153</v>
       </c>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19">
+      <c r="T24" s="19"/>
+      <c r="U24" s="19">
         <v>125984</v>
       </c>
-      <c r="V23" s="19">
+      <c r="V24" s="19">
         <v>6237</v>
       </c>
-      <c r="W23" s="19">
+      <c r="W24" s="19">
         <v>5478</v>
       </c>
-      <c r="X23" s="19">
+      <c r="X24" s="19">
         <v>2017</v>
       </c>
-      <c r="Y23" s="19">
+      <c r="Y24" s="19">
         <v>11916</v>
       </c>
-      <c r="Z23" s="19">
+      <c r="Z24" s="19">
         <v>15</v>
       </c>
-      <c r="AA23" s="20">
+      <c r="AA24" s="20">
         <v>717</v>
       </c>
     </row>
-    <row r="24" spans="2:27" hidden="1">
-      <c r="B24" s="13">
+    <row r="25" spans="2:27" hidden="1">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <v>671002</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E25" s="14">
         <v>660365</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F25" s="14">
         <v>554</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G25" s="14">
         <v>56667</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>10017</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>3376</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J25" s="14">
         <v>78</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K25" s="14">
         <v>1424</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L25" s="14">
         <v>2414</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M25" s="14">
         <v>60296</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N25" s="14">
         <v>3916</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O25" s="14">
         <v>38063</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P25" s="14">
         <v>22721</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q25" s="14">
         <v>40963</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R25" s="14">
         <v>2664</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S25" s="14">
         <v>53074</v>
       </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14">
+      <c r="T25" s="14"/>
+      <c r="U25" s="14">
         <v>125341</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V25" s="14">
         <v>6227</v>
       </c>
-      <c r="W24" s="14">
+      <c r="W25" s="14">
         <v>5448</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X25" s="14">
         <v>2008</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="Y25" s="14">
         <v>11874</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="Z25" s="14">
         <v>15</v>
       </c>
-      <c r="AA24" s="14">
+      <c r="AA25" s="14">
         <v>716</v>
       </c>
     </row>
-    <row r="25" spans="2:27" hidden="1">
-      <c r="B25" s="10">
+    <row r="26" spans="2:27" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>667021</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>657017</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>553</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>56501</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H26" s="11">
         <v>10008</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I26" s="11">
         <v>3368</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J26" s="11">
         <v>78</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K26" s="11">
         <v>1424</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L26" s="11">
         <v>2373</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M26" s="11">
         <v>59864</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N26" s="11">
         <v>3939</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O26" s="11">
         <v>37756</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P26" s="11">
         <v>22668</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q26" s="11">
         <v>40739</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R26" s="11">
         <v>2663</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S26" s="11">
         <v>52920</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11">
+      <c r="T26" s="11"/>
+      <c r="U26" s="11">
         <v>124918</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V26" s="11">
         <v>6223</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W26" s="11">
         <v>5332</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X26" s="11">
         <v>1985</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y26" s="11">
         <v>11762</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z26" s="11">
         <v>15</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA26" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="26" spans="2:27" hidden="1">
-      <c r="B26" s="13">
+    <row r="27" spans="2:27" hidden="1">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>662911</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="14">
         <v>653227</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F27" s="14">
         <v>551</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="14">
         <v>56354</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <v>9936</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>3354</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J27" s="14">
         <v>78</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K27" s="14">
         <v>1424</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L27" s="14">
         <v>2325</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M27" s="14">
         <v>59524</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N27" s="14">
         <v>3949</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O27" s="14">
         <v>37449</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P27" s="14">
         <v>22518</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q27" s="14">
         <v>40540</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R27" s="14">
         <v>2659</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S27" s="14">
         <v>52779</v>
       </c>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14">
+      <c r="T27" s="14"/>
+      <c r="U27" s="14">
         <v>124007</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V27" s="14">
         <v>6157</v>
       </c>
-      <c r="W26" s="14">
+      <c r="W27" s="14">
         <v>5337</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X27" s="14">
         <v>1958</v>
       </c>
-      <c r="Y26" s="14">
+      <c r="Y27" s="14">
         <v>11701</v>
       </c>
-      <c r="Z26" s="14">
+      <c r="Z27" s="14">
         <v>15</v>
       </c>
-      <c r="AA26" s="14">
+      <c r="AA27" s="14">
         <v>717</v>
       </c>
     </row>
-    <row r="27" spans="2:27" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:27" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>659020</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>649665</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>551</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>56273</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H28" s="11">
         <v>9895</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I28" s="11">
         <v>3359</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J28" s="11">
         <v>78</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K28" s="11">
         <v>1424</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L28" s="11">
         <v>2288</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M28" s="11">
         <v>59153</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N28" s="11">
         <v>3952</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O28" s="11">
         <v>37177</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P28" s="11">
         <v>22508</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q28" s="11">
         <v>40324</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R28" s="11">
         <v>2654</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S28" s="11">
         <v>52458</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11">
+      <c r="T28" s="11"/>
+      <c r="U28" s="11">
         <v>123192</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V28" s="11">
         <v>6122</v>
       </c>
-      <c r="W27" s="11">
+      <c r="W28" s="11">
         <v>5256</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X28" s="11">
         <v>1931</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="Y28" s="11">
         <v>11636</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="Z28" s="11">
         <v>15</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AA28" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="28" spans="2:27" hidden="1">
-      <c r="B28" s="13">
+    <row r="29" spans="2:27" hidden="1">
+      <c r="B29" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <v>655458</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>645999</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F29" s="14">
         <v>546</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <v>56186</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>9835</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>3310</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <v>78</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K29" s="14">
         <v>1425</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L29" s="14">
         <v>2252</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M29" s="14">
         <v>58938</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N29" s="14">
         <v>3928</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O29" s="14">
         <v>36812</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P29" s="14">
         <v>22401</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q29" s="14">
         <v>40001</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R29" s="14">
         <v>2655</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S29" s="14">
         <v>52187</v>
       </c>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14">
+      <c r="T29" s="14"/>
+      <c r="U29" s="14">
         <v>122442</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V29" s="14">
         <v>6046</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W29" s="14">
         <v>5239</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X29" s="14">
         <v>1910</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="Y29" s="14">
         <v>11600</v>
       </c>
-      <c r="Z28" s="14">
+      <c r="Z29" s="14">
         <v>15</v>
       </c>
-      <c r="AA28" s="14">
+      <c r="AA29" s="14">
         <v>719</v>
       </c>
     </row>
-    <row r="29" spans="2:27" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:27" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>651761</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>641907</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>541</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>56170</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H30" s="11">
         <v>9810</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I30" s="11">
         <v>3301</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J30" s="11">
         <v>78</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K30" s="11">
         <v>1424</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L30" s="11">
         <v>2219</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M30" s="11">
         <v>58734</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N30" s="11">
         <v>3934</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O30" s="11">
         <v>36467</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P30" s="11">
         <v>22206</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q30" s="11">
         <v>39383</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R30" s="11">
         <v>2640</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S30" s="11">
         <v>51887</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11">
+      <c r="T30" s="11"/>
+      <c r="U30" s="11">
         <v>121511</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V30" s="11">
         <v>5992</v>
       </c>
-      <c r="W29" s="11">
+      <c r="W30" s="11">
         <v>5150</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X30" s="11">
         <v>1888</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Y30" s="11">
         <v>11575</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z30" s="11">
         <v>15</v>
       </c>
-      <c r="AA29" s="11">
+      <c r="AA30" s="11">
         <v>716</v>
       </c>
     </row>
-    <row r="30" spans="2:27" hidden="1">
-      <c r="B30" s="13">
+    <row r="31" spans="2:27" hidden="1">
+      <c r="B31" s="13">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <v>647906</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E31" s="14">
         <v>637598</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F31" s="14">
         <v>538</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G31" s="14">
         <v>56139</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="14">
         <v>9752</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I31" s="14">
         <v>3280</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J31" s="14">
         <v>78</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K31" s="14">
         <v>1424</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L31" s="14">
         <v>2179</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M31" s="14">
         <v>58481</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N31" s="14">
         <v>3945</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O31" s="14">
         <v>36238</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P31" s="14">
         <v>21962</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q31" s="14">
         <v>38923</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R31" s="14">
         <v>2634</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S31" s="14">
         <v>51526</v>
       </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14">
+      <c r="T31" s="14"/>
+      <c r="U31" s="14">
         <v>120827</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V31" s="14">
         <v>5957</v>
       </c>
-      <c r="W30" s="14">
+      <c r="W31" s="14">
         <v>5099</v>
       </c>
-      <c r="X30" s="14">
+      <c r="X31" s="14">
         <v>1866</v>
       </c>
-      <c r="Y30" s="14">
+      <c r="Y31" s="14">
         <v>11503</v>
       </c>
-      <c r="Z30" s="14">
+      <c r="Z31" s="14">
         <v>15</v>
       </c>
-      <c r="AA30" s="14">
+      <c r="AA31" s="14">
         <v>715</v>
       </c>
     </row>
-    <row r="31" spans="2:27" hidden="1">
-      <c r="B31" s="10">
+    <row r="32" spans="2:27" hidden="1">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>645139</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>634226</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>537</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>55988</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H32" s="11">
         <v>9716</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I32" s="11">
         <v>3277</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J32" s="11">
         <v>78</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K32" s="11">
         <v>1424</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L32" s="11">
         <v>2130</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M32" s="11">
         <v>58224</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N32" s="11">
         <v>3934</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O32" s="11">
         <v>35910</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P32" s="11">
         <v>21848</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q32" s="11">
         <v>38619</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R32" s="11">
         <v>2634</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S32" s="11">
         <v>51228</v>
       </c>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11">
+      <c r="T32" s="11"/>
+      <c r="U32" s="11">
         <v>120089</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V32" s="11">
         <v>5928</v>
       </c>
-      <c r="W31" s="11">
+      <c r="W32" s="11">
         <v>5046</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X32" s="11">
         <v>1829</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="Y32" s="11">
         <v>11484</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z32" s="11">
         <v>15</v>
       </c>
-      <c r="AA31" s="11">
+      <c r="AA32" s="11">
         <v>717</v>
       </c>
     </row>
-    <row r="32" spans="2:27" hidden="1">
-      <c r="B32" s="13">
+    <row r="33" spans="2:27" hidden="1">
+      <c r="B33" s="13">
         <v>2023</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <v>641751</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>630955</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F33" s="14">
         <v>537</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <v>55899</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <v>9670</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>3264</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="14">
         <v>78</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="14">
         <v>1424</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L33" s="14">
         <v>2114</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M33" s="14">
         <v>58008</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <v>3930</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O33" s="14">
         <v>35633</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P33" s="14">
         <v>21736</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q33" s="14">
         <v>38964</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R33" s="14">
         <v>2631</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S33" s="14">
         <v>50759</v>
       </c>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14">
+      <c r="T33" s="14"/>
+      <c r="U33" s="14">
         <v>119535</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V33" s="14">
         <v>5904</v>
       </c>
-      <c r="W32" s="14">
+      <c r="W33" s="14">
         <v>4993</v>
       </c>
-      <c r="X32" s="14">
+      <c r="X33" s="14">
         <v>1785</v>
       </c>
-      <c r="Y32" s="14">
+      <c r="Y33" s="14">
         <v>11422</v>
       </c>
-      <c r="Z32" s="14">
+      <c r="Z33" s="14">
         <v>15</v>
       </c>
-      <c r="AA32" s="14">
+      <c r="AA33" s="14">
         <v>713</v>
       </c>
     </row>
-    <row r="33" spans="2:27" hidden="1">
-      <c r="B33" s="10">
+    <row r="34" spans="2:27" hidden="1">
+      <c r="B34" s="10">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>639200</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>628078</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>535</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>55839</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H34" s="11">
         <v>9614</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I34" s="11">
         <v>3257</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J34" s="11">
         <v>78</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K34" s="11">
         <v>1424</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L34" s="11">
         <v>2091</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M34" s="11">
         <v>57753</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N34" s="11">
         <v>3924</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O34" s="11">
         <v>35418</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P34" s="11">
         <v>21601</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q34" s="11">
         <v>38737</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R34" s="11">
         <v>2613</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S34" s="11">
         <v>50312</v>
       </c>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11">
+      <c r="T34" s="11"/>
+      <c r="U34" s="11">
         <v>119109</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V34" s="11">
         <v>5878</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W34" s="11">
         <v>4974</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X34" s="11">
         <v>1760</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="Y34" s="11">
         <v>11402</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z34" s="11">
         <v>15</v>
       </c>
-      <c r="AA33" s="11">
+      <c r="AA34" s="11">
         <v>713</v>
       </c>
     </row>
-    <row r="34" spans="2:27" hidden="1">
-      <c r="B34" s="13">
+    <row r="35" spans="2:27" hidden="1">
+      <c r="B35" s="13">
         <v>2023</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <v>636167</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E35" s="14">
         <v>625114</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F35" s="14">
         <v>535</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="14">
         <v>55765</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H35" s="14">
         <v>9522</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I35" s="14">
         <v>3239</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J35" s="14">
         <v>78</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K35" s="14">
         <v>1424</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L35" s="14">
         <v>2039</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M35" s="14">
         <v>57425</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N35" s="14">
         <v>3900</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O35" s="14">
         <v>34878</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P35" s="14">
         <v>21229</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q35" s="14">
         <v>38464</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R35" s="14">
         <v>2594</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S35" s="14">
         <v>49720</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T35" s="14">
         <v>1</v>
       </c>
-      <c r="U34" s="14">
+      <c r="U35" s="14">
         <v>118529</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V35" s="14">
         <v>5852</v>
       </c>
-      <c r="W34" s="14">
+      <c r="W35" s="14">
         <v>4936</v>
       </c>
-      <c r="X34" s="14">
+      <c r="X35" s="14">
         <v>1736</v>
       </c>
-      <c r="Y34" s="14">
+      <c r="Y35" s="14">
         <v>11378</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z35" s="14">
         <v>15</v>
       </c>
-      <c r="AA34" s="14">
+      <c r="AA35" s="14">
         <v>714</v>
       </c>
     </row>
-    <row r="35" spans="2:27" hidden="1">
-      <c r="B35" s="18">
+    <row r="36" spans="2:27" hidden="1">
+      <c r="B36" s="18">
         <v>2023</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D36" s="19">
         <v>633934</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E36" s="19">
         <v>622491</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="19">
         <v>534</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G36" s="19">
         <v>55802</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H36" s="19">
         <v>9494</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I36" s="19">
         <v>3245</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J36" s="19">
         <v>78</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K36" s="19">
         <v>1424</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L36" s="19">
         <v>2009</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M36" s="19">
         <v>57250</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N36" s="19">
         <v>3899</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O36" s="19">
         <v>34654</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P36" s="19">
         <v>20907</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q36" s="19">
         <v>38288</v>
       </c>
-      <c r="R35" s="19">
+      <c r="R36" s="19">
         <v>2590</v>
       </c>
-      <c r="S35" s="19">
+      <c r="S36" s="19">
         <v>49582</v>
       </c>
-      <c r="T35" s="19">
+      <c r="T36" s="19">
         <v>1</v>
       </c>
-      <c r="U35" s="19">
+      <c r="U36" s="19">
         <v>118075</v>
       </c>
-      <c r="V35" s="19">
+      <c r="V36" s="19">
         <v>5811</v>
       </c>
-      <c r="W35" s="19">
+      <c r="W36" s="19">
         <v>4917</v>
       </c>
-      <c r="X35" s="19">
+      <c r="X36" s="19">
         <v>1700</v>
       </c>
-      <c r="Y35" s="19">
+      <c r="Y36" s="19">
         <v>11348</v>
       </c>
-      <c r="Z35" s="19">
+      <c r="Z36" s="19">
         <v>15</v>
       </c>
-      <c r="AA35" s="19">
+      <c r="AA36" s="19">
         <v>712</v>
       </c>
     </row>
-    <row r="36" spans="2:27" hidden="1">
-      <c r="B36" s="13">
+    <row r="37" spans="2:27" hidden="1">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <v>632252</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>620240</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>528</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>55869</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H37" s="14">
         <v>9451</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I37" s="14">
         <v>3234</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J37" s="14">
         <v>78</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K37" s="14">
         <v>1424</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L37" s="14">
         <v>1986</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M37" s="14">
         <v>57083</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N37" s="14">
         <v>3895</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O37" s="14">
         <v>34339</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P37" s="14">
         <v>20924</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q37" s="14">
         <v>38275</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R37" s="14">
         <v>2577</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S37" s="14">
         <v>49203</v>
       </c>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14">
+      <c r="T37" s="14"/>
+      <c r="U37" s="14">
         <v>117636</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V37" s="14">
         <v>5783</v>
       </c>
-      <c r="W36" s="14">
+      <c r="W37" s="14">
         <v>4904</v>
       </c>
-      <c r="X36" s="14">
+      <c r="X37" s="14">
         <v>1678</v>
       </c>
-      <c r="Y36" s="14">
+      <c r="Y37" s="14">
         <v>11327</v>
       </c>
-      <c r="Z36" s="14">
+      <c r="Z37" s="14">
         <v>14</v>
       </c>
-      <c r="AA36" s="14">
+      <c r="AA37" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="37" spans="2:27" hidden="1">
-      <c r="B37" s="10">
+    <row r="38" spans="2:27" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>629746</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>617778</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>528</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>55776</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H38" s="11">
         <v>9347</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I38" s="11">
         <v>3197</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J38" s="11">
         <v>77</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K38" s="11">
         <v>1424</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L38" s="11">
         <v>1959</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M38" s="11">
         <v>56592</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N38" s="11">
         <v>3885</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O38" s="11">
         <v>33921</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P38" s="11">
         <v>20669</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q38" s="11">
         <v>38043</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R38" s="11">
         <v>2568</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S38" s="11">
         <v>48930</v>
       </c>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11">
+      <c r="T38" s="11"/>
+      <c r="U38" s="11">
         <v>117218</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V38" s="11">
         <v>5770</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W38" s="11">
         <v>4899</v>
       </c>
-      <c r="X37" s="11">
+      <c r="X38" s="11">
         <v>1652</v>
       </c>
-      <c r="Y37" s="11">
+      <c r="Y38" s="11">
         <v>11234</v>
       </c>
-      <c r="Z37" s="11">
+      <c r="Z38" s="11">
         <v>15</v>
       </c>
-      <c r="AA37" s="11">
+      <c r="AA38" s="11">
         <v>707</v>
       </c>
     </row>
-    <row r="38" spans="2:27" hidden="1">
-      <c r="B38" s="13">
+    <row r="39" spans="2:27" hidden="1">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <v>627591</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="14">
         <v>615376</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F39" s="14">
         <v>528</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>55700</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H39" s="14">
         <v>9310</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I39" s="14">
         <v>3164</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J39" s="14">
         <v>77</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K39" s="14">
         <v>1424</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L39" s="14">
         <v>1936</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M39" s="14">
         <v>56336</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N39" s="14">
         <v>3884</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O39" s="14">
         <v>33523</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P39" s="14">
         <v>20457</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q39" s="14">
         <v>37927</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R39" s="14">
         <v>2574</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S39" s="14">
         <v>48696</v>
       </c>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14">
+      <c r="T39" s="14"/>
+      <c r="U39" s="14">
         <v>116809</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V39" s="14">
         <v>5709</v>
       </c>
-      <c r="W38" s="14">
+      <c r="W39" s="14">
         <v>4865</v>
       </c>
-      <c r="X38" s="14">
+      <c r="X39" s="14">
         <v>1637</v>
       </c>
-      <c r="Y38" s="14">
+      <c r="Y39" s="14">
         <v>11207</v>
       </c>
-      <c r="Z38" s="14">
+      <c r="Z39" s="14">
         <v>15</v>
       </c>
-      <c r="AA38" s="14">
+      <c r="AA39" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="2:27" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:27" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>625802</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>613527</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>529</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>55774</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H40" s="11">
         <v>9280</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I40" s="11">
         <v>3168</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J40" s="11">
         <v>77</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K40" s="11">
         <v>1424</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L40" s="11">
         <v>1923</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M40" s="11">
         <v>56179</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N40" s="11">
         <v>3894</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O40" s="11">
         <v>33212</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P40" s="11">
         <v>20145</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q40" s="11">
         <v>37799</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R40" s="11">
         <v>2588</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S40" s="11">
         <v>48487</v>
       </c>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11">
+      <c r="T40" s="11"/>
+      <c r="U40" s="11">
         <v>116524</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V40" s="11">
         <v>5685</v>
       </c>
-      <c r="W39" s="11">
+      <c r="W40" s="11">
         <v>4852</v>
       </c>
-      <c r="X39" s="11">
+      <c r="X40" s="11">
         <v>1602</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Y40" s="11">
         <v>11195</v>
       </c>
-      <c r="Z39" s="11">
+      <c r="Z40" s="11">
         <v>15</v>
       </c>
-      <c r="AA39" s="11">
+      <c r="AA40" s="11">
         <v>698</v>
       </c>
     </row>
-    <row r="40" spans="2:27" hidden="1">
-      <c r="B40" s="13">
+    <row r="41" spans="2:27" hidden="1">
+      <c r="B41" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <v>623225</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>611005</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>527</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>55700</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H41" s="14">
         <v>9285</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>3159</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J41" s="14">
         <v>77</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K41" s="14">
         <v>1424</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L41" s="14">
         <v>1959</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M41" s="14">
         <v>56592</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N41" s="14">
         <v>3885</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O41" s="14">
         <v>33921</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P41" s="14">
         <v>19873</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q41" s="14">
         <v>37606</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R41" s="14">
         <v>2571</v>
       </c>
-      <c r="S40" s="14">
+      <c r="S41" s="14">
         <v>48049</v>
       </c>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14">
+      <c r="T41" s="14"/>
+      <c r="U41" s="14">
         <v>115967</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V41" s="14">
         <v>5662</v>
       </c>
-      <c r="W40" s="14">
+      <c r="W41" s="14">
         <v>4804</v>
       </c>
-      <c r="X40" s="14">
+      <c r="X41" s="14">
         <v>1573</v>
       </c>
-      <c r="Y40" s="14">
+      <c r="Y41" s="14">
         <v>11161</v>
       </c>
-      <c r="Z40" s="14">
+      <c r="Z41" s="14">
         <v>16</v>
       </c>
-      <c r="AA40" s="14">
+      <c r="AA41" s="14">
         <v>699</v>
       </c>
     </row>
-    <row r="41" spans="2:27" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:27" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>619408</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>607662</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>525</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>55704</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H42" s="11">
         <v>9233</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I42" s="11">
         <v>3148</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J42" s="11">
         <v>77</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K42" s="11">
         <v>1424</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L42" s="11">
         <v>1866</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M42" s="11">
         <v>55722</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N42" s="11">
         <v>3891</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O42" s="11">
         <v>32461</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P42" s="11">
         <v>19530</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q42" s="11">
         <v>37234</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R42" s="11">
         <v>2570</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S42" s="11">
         <v>47654</v>
       </c>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11">
+      <c r="T42" s="11"/>
+      <c r="U42" s="11">
         <v>115526</v>
       </c>
-      <c r="V41" s="11">
+      <c r="V42" s="11">
         <v>5597</v>
       </c>
-      <c r="W41" s="11">
+      <c r="W42" s="11">
         <v>4695</v>
       </c>
-      <c r="X41" s="11">
+      <c r="X42" s="11">
         <v>1536</v>
       </c>
-      <c r="Y41" s="11">
+      <c r="Y42" s="11">
         <v>11130</v>
       </c>
-      <c r="Z41" s="11">
+      <c r="Z42" s="11">
         <v>16</v>
       </c>
-      <c r="AA41" s="11">
+      <c r="AA42" s="11">
         <v>696</v>
       </c>
     </row>
-    <row r="42" spans="2:27" hidden="1">
-      <c r="B42" s="13">
+    <row r="43" spans="2:27" hidden="1">
+      <c r="B43" s="13">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <v>618040</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <v>606724</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="14">
         <v>525</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <v>55570</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H43" s="14">
         <v>9217</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I43" s="14">
         <v>3142</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J43" s="14">
         <v>77</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K43" s="14">
         <v>1424</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L43" s="14">
         <v>1855</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M43" s="14">
         <v>55624</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N43" s="14">
         <v>3889</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O43" s="14">
         <v>32272</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P43" s="14">
         <v>19269</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q43" s="14">
         <v>37056</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R43" s="14">
         <v>2562</v>
       </c>
-      <c r="S42" s="14">
+      <c r="S43" s="14">
         <v>47342</v>
       </c>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14">
+      <c r="T43" s="14"/>
+      <c r="U43" s="14">
         <v>114809</v>
       </c>
-      <c r="V42" s="14">
+      <c r="V43" s="14">
         <v>5569</v>
       </c>
-      <c r="W42" s="14">
+      <c r="W43" s="14">
         <v>4673</v>
       </c>
-      <c r="X42" s="14">
+      <c r="X43" s="14">
         <v>1516</v>
       </c>
-      <c r="Y42" s="14">
+      <c r="Y43" s="14">
         <v>11114</v>
       </c>
-      <c r="Z42" s="14">
+      <c r="Z43" s="14">
         <v>16</v>
       </c>
-      <c r="AA42" s="14">
+      <c r="AA43" s="14">
         <v>695</v>
       </c>
     </row>
-    <row r="43" spans="2:27" hidden="1">
-      <c r="B43" s="10">
+    <row r="44" spans="2:27" hidden="1">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>616795</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>605191</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>525</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44" s="11">
         <v>55673</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H44" s="11">
         <v>9298</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I44" s="11">
         <v>3152</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J44" s="11">
         <v>77</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K44" s="11">
         <v>1424</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L44" s="11">
         <v>1846</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M44" s="11">
         <v>55382</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N44" s="11">
         <v>3892</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O44" s="11">
         <v>32033</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P44" s="11">
         <v>19167</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q44" s="11">
         <v>36662</v>
       </c>
-      <c r="R43" s="11">
+      <c r="R44" s="11">
         <v>2569</v>
       </c>
-      <c r="S43" s="11">
+      <c r="S44" s="11">
         <v>47224</v>
       </c>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11">
+      <c r="T44" s="11"/>
+      <c r="U44" s="11">
         <v>114792</v>
       </c>
-      <c r="V43" s="11">
+      <c r="V44" s="11">
         <v>5511</v>
       </c>
-      <c r="W43" s="11">
+      <c r="W44" s="11">
         <v>4622</v>
       </c>
-      <c r="X43" s="11">
+      <c r="X44" s="11">
         <v>1474</v>
       </c>
-      <c r="Y43" s="11">
+      <c r="Y44" s="11">
         <v>11085</v>
       </c>
-      <c r="Z43" s="11">
+      <c r="Z44" s="11">
         <v>16</v>
       </c>
-      <c r="AA43" s="11">
+      <c r="AA44" s="11">
         <v>695</v>
       </c>
     </row>
-    <row r="44" spans="2:27" hidden="1">
-      <c r="B44" s="13">
+    <row r="45" spans="2:27" hidden="1">
+      <c r="B45" s="13">
         <v>2022</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <v>614317</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>602581</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>524</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>55683</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="14">
         <v>9224</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I45" s="14">
         <v>3107</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J45" s="14">
         <v>77</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K45" s="14">
         <v>1424</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L45" s="14">
         <v>1833</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M45" s="14">
         <v>55240</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N45" s="14">
         <v>3885</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O45" s="14">
         <v>31772</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P45" s="14">
         <v>18897</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q45" s="14">
         <v>36589</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R45" s="14">
         <v>2571</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S45" s="14">
         <v>46753</v>
       </c>
-      <c r="T44" s="14">
+      <c r="T45" s="14">
         <v>1</v>
       </c>
-      <c r="U44" s="14">
+      <c r="U45" s="14">
         <v>114370</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V45" s="14">
         <v>5457</v>
       </c>
-      <c r="W44" s="14">
+      <c r="W45" s="14">
         <v>4577</v>
       </c>
-      <c r="X44" s="14">
+      <c r="X45" s="14">
         <v>1352</v>
       </c>
-      <c r="Y44" s="14">
+      <c r="Y45" s="14">
         <v>11060</v>
       </c>
-      <c r="Z44" s="14">
+      <c r="Z45" s="14">
         <v>16</v>
       </c>
-      <c r="AA44" s="14">
+      <c r="AA45" s="14">
         <v>696</v>
       </c>
     </row>
-    <row r="45" spans="2:27" hidden="1">
-      <c r="B45" s="10">
+    <row r="46" spans="2:27" hidden="1">
+      <c r="B46" s="10">
         <v>2022</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>611918</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>600194</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>523</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>55693</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H46" s="11">
         <v>9204</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I46" s="11">
         <v>3089</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J46" s="11">
         <v>77</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K46" s="11">
         <v>1424</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L46" s="11">
         <v>1820</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M46" s="11">
         <v>55146</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N46" s="11">
         <v>3885</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O46" s="11">
         <v>31565</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P46" s="11">
         <v>18897</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q46" s="11">
         <v>36589</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R46" s="11">
         <v>2568</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S46" s="11">
         <v>46254</v>
       </c>
-      <c r="T45" s="11">
+      <c r="T46" s="11">
         <v>0</v>
       </c>
-      <c r="U45" s="11">
+      <c r="U46" s="11">
         <v>113789</v>
       </c>
-      <c r="V45" s="11">
+      <c r="V46" s="11">
         <v>5441</v>
       </c>
-      <c r="W45" s="11">
+      <c r="W46" s="11">
         <v>4530</v>
       </c>
-      <c r="X45" s="11">
+      <c r="X46" s="11">
         <v>1276</v>
       </c>
-      <c r="Y45" s="11">
+      <c r="Y46" s="11">
         <v>11016</v>
       </c>
-      <c r="Z45" s="11">
+      <c r="Z46" s="11">
         <v>16</v>
       </c>
-      <c r="AA45" s="11">
+      <c r="AA46" s="11">
         <v>694</v>
       </c>
     </row>
-    <row r="46" spans="2:27" hidden="1">
-      <c r="B46" s="13">
+    <row r="47" spans="2:27" hidden="1">
+      <c r="B47" s="13">
         <v>2022</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <v>609072</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <v>597797</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F47" s="14">
         <v>523</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <v>55620</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H47" s="14">
         <v>9119</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I47" s="14">
         <v>3048</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J47" s="14">
         <v>77</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K47" s="14">
         <v>1424</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L47" s="14">
         <v>1803</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M47" s="14">
         <v>54943</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N47" s="14">
         <v>3886</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O47" s="14">
         <v>31259</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P47" s="14">
         <v>18473</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q47" s="14">
         <v>35996</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R47" s="14">
         <v>2581</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S47" s="14">
         <v>45940</v>
       </c>
-      <c r="T46" s="14">
+      <c r="T47" s="14">
         <v>1</v>
       </c>
-      <c r="U46" s="14">
+      <c r="U47" s="14">
         <v>112805</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V47" s="14">
         <v>5407</v>
       </c>
-      <c r="W46" s="14">
+      <c r="W47" s="14">
         <v>4480</v>
       </c>
-      <c r="X46" s="14">
+      <c r="X47" s="14">
         <v>1159</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Y47" s="14">
         <v>10978</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="Z47" s="14">
         <v>16</v>
       </c>
-      <c r="AA46" s="14">
+      <c r="AA47" s="14">
         <v>693</v>
       </c>
     </row>
-    <row r="47" spans="2:27" hidden="1">
-      <c r="B47" s="18">
+    <row r="48" spans="2:27" hidden="1">
+      <c r="B48" s="18">
         <v>2022</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D48" s="19">
         <v>607150</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E48" s="19">
         <v>596005</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F48" s="19">
         <v>524</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G48" s="19">
         <v>55683</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H48" s="19">
         <v>9107</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I48" s="19">
         <v>3044</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J48" s="19">
         <v>77</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K48" s="19">
         <v>1424</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L48" s="19">
         <v>1789</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M48" s="19">
         <v>54848</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N48" s="19">
         <v>3889</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O48" s="19">
         <v>31054</v>
       </c>
-      <c r="P47" s="19">
+      <c r="P48" s="19">
         <v>18394</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q48" s="19">
         <v>35736</v>
       </c>
-      <c r="R47" s="19">
+      <c r="R48" s="19">
         <v>2573</v>
       </c>
-      <c r="S47" s="19">
+      <c r="S48" s="19">
         <v>45388</v>
       </c>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19">
+      <c r="T48" s="19"/>
+      <c r="U48" s="19">
         <v>112333</v>
       </c>
-      <c r="V47" s="19">
+      <c r="V48" s="19">
         <v>5355</v>
       </c>
-      <c r="W47" s="19">
+      <c r="W48" s="19">
         <v>4440</v>
       </c>
-      <c r="X47" s="19">
+      <c r="X48" s="19">
         <v>1030</v>
       </c>
-      <c r="Y47" s="19">
+      <c r="Y48" s="19">
         <v>10960</v>
       </c>
-      <c r="Z47" s="19">
+      <c r="Z48" s="19">
         <v>16</v>
       </c>
-      <c r="AA47" s="19">
+      <c r="AA48" s="19">
         <v>693</v>
       </c>
     </row>
-    <row r="48" spans="2:27" hidden="1">
-      <c r="B48" s="13">
+    <row r="49" spans="2:27" hidden="1">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <v>606090</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>594443</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>520</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <v>55717</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H49" s="14">
         <v>9091</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="14">
         <v>3021</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J49" s="14">
         <v>77</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="14">
         <v>1424</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L49" s="14">
         <v>1787</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M49" s="14">
         <v>54743</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N49" s="14">
         <v>3888</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O49" s="14">
         <v>30885</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P49" s="14">
         <v>18334</v>
       </c>
-      <c r="Q48" s="14">
+      <c r="Q49" s="14">
         <v>35952</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R49" s="14">
         <v>2604</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S49" s="14">
         <v>45157</v>
       </c>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14">
+      <c r="T49" s="14"/>
+      <c r="U49" s="14">
         <v>111857</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V49" s="14">
         <v>5309</v>
       </c>
-      <c r="W48" s="14">
+      <c r="W49" s="14">
         <v>4400</v>
       </c>
-      <c r="X48" s="14">
+      <c r="X49" s="14">
         <v>957</v>
       </c>
-      <c r="Y48" s="14">
+      <c r="Y49" s="14">
         <v>10938</v>
       </c>
-      <c r="Z48" s="14">
+      <c r="Z49" s="14">
         <v>16</v>
       </c>
-      <c r="AA48" s="14">
+      <c r="AA49" s="14">
         <v>692</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1">
-      <c r="B49" s="10">
+    <row r="50" spans="2:27" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>603380</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>591451</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>519</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>55656</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H50" s="11">
         <v>9054</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I50" s="11">
         <v>2985</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J50" s="11">
         <v>77</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K50" s="11">
         <v>1424</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L50" s="11">
         <v>1775</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M50" s="11">
         <v>54335</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N50" s="11">
         <v>3888</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O50" s="11">
         <v>30589</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P50" s="11">
         <v>18224</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="Q50" s="11">
         <v>35977</v>
       </c>
-      <c r="R49" s="11">
+      <c r="R50" s="11">
         <v>2594</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S50" s="11">
         <v>44663</v>
       </c>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11">
+      <c r="T50" s="11"/>
+      <c r="U50" s="11">
         <v>110970</v>
       </c>
-      <c r="V49" s="11">
+      <c r="V50" s="11">
         <v>5249</v>
       </c>
-      <c r="W49" s="11">
+      <c r="W50" s="11">
         <v>4357</v>
       </c>
-      <c r="X49" s="11">
+      <c r="X50" s="11">
         <v>868</v>
       </c>
-      <c r="Y49" s="11">
+      <c r="Y50" s="11">
         <v>10873</v>
       </c>
-      <c r="Z49" s="11">
+      <c r="Z50" s="11">
         <v>16</v>
       </c>
-      <c r="AA49" s="11">
+      <c r="AA50" s="11">
         <v>692</v>
       </c>
     </row>
-    <row r="50" spans="2:27" hidden="1">
-      <c r="B50" s="13">
+    <row r="51" spans="2:27" hidden="1">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <v>602061</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="14">
         <v>590200</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>520</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <v>55685</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H51" s="14">
         <v>8999</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I51" s="14">
         <v>2982</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J51" s="14">
         <v>77</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K51" s="14">
         <v>1424</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L51" s="14">
         <v>1768</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M51" s="14">
         <v>54086</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N51" s="14">
         <v>3885</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O51" s="14">
         <v>30303</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P51" s="14">
         <v>18211</v>
       </c>
-      <c r="Q50" s="14">
+      <c r="Q51" s="14">
         <v>36050</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R51" s="14">
         <v>2611</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S51" s="14">
         <v>44484</v>
       </c>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14">
+      <c r="T51" s="14"/>
+      <c r="U51" s="14">
         <v>110396</v>
       </c>
-      <c r="V50" s="14">
+      <c r="V51" s="14">
         <v>5205</v>
       </c>
-      <c r="W50" s="14">
+      <c r="W51" s="14">
         <v>4316</v>
       </c>
-      <c r="X50" s="14">
+      <c r="X51" s="14">
         <v>836</v>
       </c>
-      <c r="Y50" s="14">
+      <c r="Y51" s="14">
         <v>10858</v>
       </c>
-      <c r="Z50" s="14">
+      <c r="Z51" s="14">
         <v>16</v>
       </c>
-      <c r="AA50" s="14">
+      <c r="AA51" s="14">
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:27" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>599199</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>586326</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>516</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>55678</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H52" s="11">
         <v>8883</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I52" s="11">
         <v>2962</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J52" s="11">
         <v>77</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K52" s="11">
         <v>1424</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L52" s="11">
         <v>1761</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M52" s="11">
         <v>53840</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N52" s="11">
         <v>3878</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O52" s="11">
         <v>30091</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P52" s="11">
         <v>18180</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q52" s="11">
         <v>35973</v>
       </c>
-      <c r="R51" s="11">
+      <c r="R52" s="11">
         <v>2618</v>
       </c>
-      <c r="S51" s="11">
+      <c r="S52" s="11">
         <v>43957</v>
       </c>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11">
+      <c r="T52" s="11"/>
+      <c r="U52" s="11">
         <v>110047</v>
       </c>
-      <c r="V51" s="11">
+      <c r="V52" s="11">
         <v>5137</v>
       </c>
-      <c r="W51" s="11">
+      <c r="W52" s="11">
         <v>4253</v>
       </c>
-      <c r="X51" s="11">
+      <c r="X52" s="11">
         <v>705</v>
       </c>
-      <c r="Y51" s="11">
+      <c r="Y52" s="11">
         <v>10790</v>
       </c>
-      <c r="Z51" s="11">
+      <c r="Z52" s="11">
         <v>16</v>
       </c>
-      <c r="AA51" s="11">
+      <c r="AA52" s="11">
         <v>686</v>
       </c>
     </row>
-    <row r="52" spans="2:27" hidden="1">
-      <c r="B52" s="13">
+    <row r="53" spans="2:27" hidden="1">
+      <c r="B53" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <v>597975</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>583854</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>505</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <v>55668</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>8821</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I53" s="14">
         <v>2977</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J53" s="14">
         <v>77</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K53" s="14">
         <v>1424</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L53" s="14">
         <v>1753</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M53" s="14">
         <v>53278</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N53" s="14">
         <v>3892</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O53" s="14">
         <v>29694</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P53" s="14">
         <v>18180</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q53" s="14">
         <v>35973</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R53" s="14">
         <v>2605</v>
       </c>
-      <c r="S52" s="14">
+      <c r="S53" s="14">
         <v>42961</v>
       </c>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14">
+      <c r="T53" s="14"/>
+      <c r="U53" s="14">
         <v>138152</v>
       </c>
-      <c r="V52" s="14">
+      <c r="V53" s="14">
         <v>6095</v>
       </c>
-      <c r="W52" s="14">
+      <c r="W53" s="14">
         <v>4045</v>
       </c>
-      <c r="X52" s="14">
+      <c r="X53" s="14">
         <v>666</v>
       </c>
-      <c r="Y52" s="14">
+      <c r="Y53" s="14">
         <v>10713</v>
       </c>
-      <c r="Z52" s="14">
+      <c r="Z53" s="14">
         <v>17</v>
       </c>
-      <c r="AA52" s="14">
+      <c r="AA53" s="14">
         <v>682</v>
       </c>
     </row>
-    <row r="53" spans="2:27" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:27" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>594590</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>580812</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>505</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>55750</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H54" s="11">
         <v>8821</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I54" s="11">
         <v>2979</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J54" s="11">
         <v>77</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K54" s="11">
         <v>1424</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L54" s="11">
         <v>1754</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M54" s="11">
         <v>53393</v>
       </c>
-      <c r="N53" s="11">
+      <c r="N54" s="11">
         <v>3894</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O54" s="11">
         <v>29714</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P54" s="11">
         <v>17962</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="Q54" s="11">
         <v>36188</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R54" s="11">
         <v>2604</v>
       </c>
-      <c r="S53" s="11">
+      <c r="S54" s="11">
         <v>42900</v>
       </c>
-      <c r="T53" s="11">
+      <c r="T54" s="11">
         <v>1</v>
       </c>
-      <c r="U53" s="11">
+      <c r="U54" s="11">
         <v>109339</v>
       </c>
-      <c r="V53" s="11">
+      <c r="V54" s="11">
         <v>5068</v>
       </c>
-      <c r="W53" s="11">
+      <c r="W54" s="11">
         <v>4043</v>
       </c>
-      <c r="X53" s="11">
+      <c r="X54" s="11">
         <v>666</v>
       </c>
-      <c r="Y53" s="11">
+      <c r="Y54" s="11">
         <v>10697</v>
       </c>
-      <c r="Z53" s="11">
+      <c r="Z54" s="11">
         <v>17</v>
       </c>
-      <c r="AA53" s="11">
+      <c r="AA54" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1">
-      <c r="B54" s="13">
+    <row r="55" spans="2:27" hidden="1">
+      <c r="B55" s="13">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <v>593307</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E55" s="14">
         <v>578970</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F55" s="14">
         <v>511</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <v>55681</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H55" s="14">
         <v>8835</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I55" s="14">
         <v>2976</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J55" s="14">
         <v>77</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K55" s="14">
         <v>1424</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L55" s="14">
         <v>1750</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M55" s="14">
         <v>53077</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N55" s="14">
         <v>3889</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O55" s="14">
         <v>29454</v>
       </c>
-      <c r="P54" s="14">
+      <c r="P55" s="14">
         <v>20219</v>
       </c>
-      <c r="Q54" s="14">
+      <c r="Q55" s="14">
         <v>37753</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R55" s="14">
         <v>2598</v>
       </c>
-      <c r="S54" s="14">
+      <c r="S55" s="14">
         <v>42432</v>
       </c>
-      <c r="T54" s="14">
+      <c r="T55" s="14">
         <v>1</v>
       </c>
-      <c r="U54" s="14">
+      <c r="U55" s="14">
         <v>109131</v>
       </c>
-      <c r="V54" s="14">
+      <c r="V55" s="14">
         <v>4950</v>
       </c>
-      <c r="W54" s="14">
+      <c r="W55" s="14">
         <v>4018</v>
       </c>
-      <c r="X54" s="14">
+      <c r="X55" s="14">
         <v>650</v>
       </c>
-      <c r="Y54" s="14">
+      <c r="Y55" s="14">
         <v>10710</v>
       </c>
-      <c r="Z54" s="14">
+      <c r="Z55" s="14">
         <v>17</v>
       </c>
-      <c r="AA54" s="14">
+      <c r="AA55" s="14">
         <v>680</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1">
-      <c r="B55" s="10">
+    <row r="56" spans="2:27" hidden="1">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>590245</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>576050</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>510</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>55725</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H56" s="11">
         <v>8835</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I56" s="11">
         <v>2957</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J56" s="11">
         <v>77</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K56" s="11">
         <v>1424</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L56" s="11">
         <v>1740</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M56" s="11">
         <v>52924</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N56" s="11">
         <v>3886</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O56" s="11">
         <v>29218</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P56" s="11">
         <v>17867</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="Q56" s="11">
         <v>36460</v>
       </c>
-      <c r="R55" s="11">
+      <c r="R56" s="11">
         <v>2606</v>
       </c>
-      <c r="S55" s="11">
+      <c r="S56" s="11">
         <v>42065</v>
       </c>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11">
+      <c r="T56" s="11"/>
+      <c r="U56" s="11">
         <v>108383</v>
       </c>
-      <c r="V55" s="11">
+      <c r="V56" s="11">
         <v>4897</v>
       </c>
-      <c r="W55" s="11">
+      <c r="W56" s="11">
         <v>3940</v>
       </c>
-      <c r="X55" s="11">
+      <c r="X56" s="11">
         <v>634</v>
       </c>
-      <c r="Y55" s="11">
+      <c r="Y56" s="11">
         <v>10660</v>
       </c>
-      <c r="Z55" s="11">
+      <c r="Z56" s="11">
         <v>17</v>
       </c>
-      <c r="AA55" s="11">
+      <c r="AA56" s="11">
         <v>680</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1">
-      <c r="B56" s="13">
+    <row r="57" spans="2:27" hidden="1">
+      <c r="B57" s="13">
         <v>2021</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <v>588077</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="14">
         <v>573877</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="14">
         <v>509</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <v>55905</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="14">
         <v>8876</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="14">
         <v>2941</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J57" s="14">
         <v>77</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K57" s="14">
         <v>1424</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L57" s="14">
         <v>1741</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M57" s="14">
         <v>52732</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N57" s="14">
         <v>3884</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O57" s="14">
         <v>29115</v>
       </c>
-      <c r="P56" s="14">
+      <c r="P57" s="14">
         <v>17854</v>
       </c>
-      <c r="Q56" s="14">
+      <c r="Q57" s="14">
         <v>36552</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R57" s="14">
         <v>2596</v>
       </c>
-      <c r="S56" s="14">
+      <c r="S57" s="14">
         <v>41550</v>
       </c>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14">
+      <c r="T57" s="14"/>
+      <c r="U57" s="14">
         <v>107848</v>
       </c>
-      <c r="V56" s="14">
+      <c r="V57" s="14">
         <v>4861</v>
       </c>
-      <c r="W56" s="14">
+      <c r="W57" s="14">
         <v>3840</v>
       </c>
-      <c r="X56" s="14">
+      <c r="X57" s="14">
         <v>623</v>
       </c>
-      <c r="Y56" s="14">
+      <c r="Y57" s="14">
         <v>10625</v>
       </c>
-      <c r="Z56" s="14">
+      <c r="Z57" s="14">
         <v>17</v>
       </c>
-      <c r="AA56" s="14">
+      <c r="AA57" s="14">
         <v>679</v>
       </c>
     </row>
-    <row r="57" spans="2:27" hidden="1">
-      <c r="B57" s="10">
+    <row r="58" spans="2:27" hidden="1">
+      <c r="B58" s="10">
         <v>2021</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>586093</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>571129</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>508</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>56021</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H58" s="11">
         <v>8878</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I58" s="11">
         <v>2934</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J58" s="11">
         <v>77</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K58" s="11">
         <v>1424</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L58" s="11">
         <v>1732</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M58" s="11">
         <v>52504</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N58" s="11">
         <v>3883</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O58" s="11">
         <v>29014</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P58" s="11">
         <v>17887</v>
       </c>
-      <c r="Q57" s="11">
+      <c r="Q58" s="11">
         <v>36498</v>
       </c>
-      <c r="R57" s="11">
+      <c r="R58" s="11">
         <v>2578</v>
       </c>
-      <c r="S57" s="11">
+      <c r="S58" s="11">
         <v>40750</v>
       </c>
-      <c r="T57" s="11">
+      <c r="T58" s="11">
         <v>0</v>
       </c>
-      <c r="U57" s="11">
+      <c r="U58" s="11">
         <v>107480</v>
       </c>
-      <c r="V57" s="11">
+      <c r="V58" s="11">
         <v>4839</v>
       </c>
-      <c r="W57" s="11">
+      <c r="W58" s="11">
         <v>3789</v>
       </c>
-      <c r="X57" s="11">
+      <c r="X58" s="11">
         <v>621</v>
       </c>
-      <c r="Y57" s="11">
+      <c r="Y58" s="11">
         <v>10600</v>
       </c>
-      <c r="Z57" s="11">
+      <c r="Z58" s="11">
         <v>17</v>
       </c>
-      <c r="AA57" s="11">
+      <c r="AA58" s="11">
         <v>678</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1">
-      <c r="B58" s="13">
+    <row r="59" spans="2:27" hidden="1">
+      <c r="B59" s="13">
         <v>2021</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <v>583440</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E59" s="14">
         <v>567677</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F59" s="14">
         <v>507</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <v>56059</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>8871</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <v>2921</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J59" s="14">
         <v>77</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K59" s="14">
         <v>1424</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L59" s="14">
         <v>1728</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M59" s="14">
         <v>52301</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N59" s="14">
         <v>3880</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O59" s="14">
         <v>28867</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P59" s="14">
         <v>17889</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="Q59" s="14">
         <v>36421</v>
       </c>
-      <c r="R58" s="14">
+      <c r="R59" s="14">
         <v>2569</v>
       </c>
-      <c r="S58" s="14">
+      <c r="S59" s="14">
         <v>39851</v>
       </c>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14">
+      <c r="T59" s="14"/>
+      <c r="U59" s="14">
         <v>106898</v>
       </c>
-      <c r="V58" s="14">
+      <c r="V59" s="14">
         <v>4801</v>
       </c>
-      <c r="W58" s="14">
+      <c r="W59" s="14">
         <v>3689</v>
       </c>
-      <c r="X58" s="14">
+      <c r="X59" s="14">
         <v>585</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Y59" s="14">
         <v>10566</v>
       </c>
-      <c r="Z58" s="14">
+      <c r="Z59" s="14">
         <v>17</v>
       </c>
-      <c r="AA58" s="14">
+      <c r="AA59" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="59" spans="2:27" hidden="1">
-      <c r="B59" s="18">
+    <row r="60" spans="2:27" hidden="1">
+      <c r="B60" s="18">
         <v>2021</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D60" s="19">
         <v>581299</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E60" s="19">
         <v>565156</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F60" s="19">
         <v>507</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G60" s="19">
         <v>56230</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H60" s="19">
         <v>8897</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I60" s="19">
         <v>2930</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J60" s="19">
         <v>77</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K60" s="19">
         <v>1424</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L60" s="19">
         <v>1727</v>
       </c>
-      <c r="M59" s="19">
+      <c r="M60" s="19">
         <v>52149</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N60" s="19">
         <v>3874</v>
       </c>
-      <c r="O59" s="19">
+      <c r="O60" s="19">
         <v>28827</v>
       </c>
-      <c r="P59" s="19">
+      <c r="P60" s="19">
         <v>17957</v>
       </c>
-      <c r="Q59" s="19">
+      <c r="Q60" s="19">
         <v>36403</v>
       </c>
-      <c r="R59" s="19">
+      <c r="R60" s="19">
         <v>2555</v>
       </c>
-      <c r="S59" s="19">
+      <c r="S60" s="19">
         <v>39272</v>
       </c>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19">
+      <c r="T60" s="19"/>
+      <c r="U60" s="19">
         <v>106698</v>
       </c>
-      <c r="V59" s="19">
+      <c r="V60" s="19">
         <v>4780</v>
       </c>
-      <c r="W59" s="19">
+      <c r="W60" s="19">
         <v>3642</v>
       </c>
-      <c r="X59" s="19">
+      <c r="X60" s="19">
         <v>578</v>
       </c>
-      <c r="Y59" s="19">
+      <c r="Y60" s="19">
         <v>10557</v>
       </c>
-      <c r="Z59" s="19">
+      <c r="Z60" s="19">
         <v>17</v>
       </c>
-      <c r="AA59" s="19">
+      <c r="AA60" s="19">
         <v>671</v>
       </c>
     </row>
-    <row r="60" spans="2:27" hidden="1">
-      <c r="B60" s="13">
+    <row r="61" spans="2:27" hidden="1">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <v>580035</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E61" s="14">
         <v>563400</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>505</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <v>56274</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="14">
         <v>8916</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I61" s="14">
         <v>2933</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J61" s="14">
         <v>77</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="14">
         <v>1424</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L61" s="14">
         <v>1736</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M61" s="14">
         <v>52012</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N61" s="14">
         <v>3877</v>
       </c>
-      <c r="O60" s="14">
+      <c r="O61" s="14">
         <v>28815</v>
       </c>
-      <c r="P60" s="14">
+      <c r="P61" s="14">
         <v>18007</v>
       </c>
-      <c r="Q60" s="14">
+      <c r="Q61" s="14">
         <v>36384</v>
       </c>
-      <c r="R60" s="14">
+      <c r="R61" s="14">
         <v>2551</v>
       </c>
-      <c r="S60" s="14">
+      <c r="S61" s="14">
         <v>38799</v>
       </c>
-      <c r="T60" s="14">
+      <c r="T61" s="14">
         <v>0</v>
       </c>
-      <c r="U60" s="14">
+      <c r="U61" s="14">
         <v>106486</v>
       </c>
-      <c r="V60" s="14">
+      <c r="V61" s="14">
         <v>4754</v>
       </c>
-      <c r="W60" s="14">
+      <c r="W61" s="14">
         <v>3612</v>
       </c>
-      <c r="X60" s="14">
+      <c r="X61" s="14">
         <v>569</v>
       </c>
-      <c r="Y60" s="14">
+      <c r="Y61" s="14">
         <v>10542</v>
       </c>
-      <c r="Z60" s="14">
+      <c r="Z61" s="14">
         <v>17</v>
       </c>
-      <c r="AA60" s="14">
+      <c r="AA61" s="14">
         <v>670</v>
       </c>
     </row>
-    <row r="61" spans="2:27" hidden="1">
-      <c r="B61" s="10">
+    <row r="62" spans="2:27" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>576835</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>560383</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>501</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>56253</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H62" s="11">
         <v>8958</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I62" s="11">
         <v>2929</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J62" s="11">
         <v>77</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K62" s="11">
         <v>1424</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L62" s="11">
         <v>1734</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M62" s="11">
         <v>51472</v>
       </c>
-      <c r="N61" s="11">
+      <c r="N62" s="11">
         <v>3876</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O62" s="11">
         <v>28607</v>
       </c>
-      <c r="P61" s="11">
+      <c r="P62" s="11">
         <v>17914</v>
       </c>
-      <c r="Q61" s="11">
+      <c r="Q62" s="11">
         <v>36355</v>
       </c>
-      <c r="R61" s="11">
+      <c r="R62" s="11">
         <v>2550</v>
       </c>
-      <c r="S61" s="11">
+      <c r="S62" s="11">
         <v>37952</v>
       </c>
-      <c r="T61" s="11">
+      <c r="T62" s="11">
         <v>0</v>
       </c>
-      <c r="U61" s="11">
+      <c r="U62" s="11">
         <v>106174</v>
       </c>
-      <c r="V61" s="11">
+      <c r="V62" s="11">
         <v>4716</v>
       </c>
-      <c r="W61" s="11">
+      <c r="W62" s="11">
         <v>3542</v>
       </c>
-      <c r="X61" s="11">
+      <c r="X62" s="11">
         <v>553</v>
       </c>
-      <c r="Y61" s="11">
+      <c r="Y62" s="11">
         <v>10450</v>
       </c>
-      <c r="Z61" s="11">
+      <c r="Z62" s="11">
         <v>17</v>
       </c>
-      <c r="AA61" s="11">
+      <c r="AA62" s="11">
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="2:27" hidden="1">
-      <c r="B62" s="13">
+    <row r="63" spans="2:27" hidden="1">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>574056</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>556941</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>499</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>56245</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H63" s="14">
         <v>8933</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="14">
         <v>2902</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J63" s="14">
         <v>77</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="14">
         <v>1424</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L63" s="14">
         <v>1739</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M63" s="14">
         <v>51341</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N63" s="14">
         <v>3877</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O63" s="14">
         <v>28460</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P63" s="14">
         <v>17784</v>
       </c>
-      <c r="Q62" s="14">
+      <c r="Q63" s="14">
         <v>36186</v>
       </c>
-      <c r="R62" s="14">
+      <c r="R63" s="14">
         <v>2539</v>
       </c>
-      <c r="S62" s="14">
+      <c r="S63" s="14">
         <v>37095</v>
       </c>
-      <c r="T62" s="14">
+      <c r="T63" s="14">
         <v>1</v>
       </c>
-      <c r="U62" s="14">
+      <c r="U63" s="14">
         <v>105781</v>
       </c>
-      <c r="V62" s="14">
+      <c r="V63" s="14">
         <v>4675</v>
       </c>
-      <c r="W62" s="14">
+      <c r="W63" s="14">
         <v>3405</v>
       </c>
-      <c r="X62" s="14">
+      <c r="X63" s="14">
         <v>535</v>
       </c>
-      <c r="Y62" s="14">
+      <c r="Y63" s="14">
         <v>10417</v>
       </c>
-      <c r="Z62" s="14">
+      <c r="Z63" s="14">
         <v>17</v>
       </c>
-      <c r="AA62" s="14">
+      <c r="AA63" s="14">
         <v>666</v>
       </c>
     </row>
-    <row r="63" spans="2:27" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:27" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>571367</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>552611</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>495</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>56341</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H64" s="11">
         <v>9019</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I64" s="11">
         <v>2941</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J64" s="11">
         <v>77</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K64" s="11">
         <v>1424</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L64" s="11">
         <v>1746</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M64" s="11">
         <v>51196</v>
       </c>
-      <c r="N63" s="11">
+      <c r="N64" s="11">
         <v>3879</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O64" s="11">
         <v>28351</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P64" s="11">
         <v>17563</v>
       </c>
-      <c r="Q63" s="11">
+      <c r="Q64" s="11">
         <v>35861</v>
       </c>
-      <c r="R63" s="11">
+      <c r="R64" s="11">
         <v>2521</v>
       </c>
-      <c r="S63" s="11">
+      <c r="S64" s="11">
         <v>36352</v>
       </c>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11">
+      <c r="T64" s="11"/>
+      <c r="U64" s="11">
         <v>105315</v>
       </c>
-      <c r="V63" s="11">
+      <c r="V64" s="11">
         <v>4640</v>
       </c>
-      <c r="W63" s="11">
+      <c r="W64" s="11">
         <v>3253</v>
       </c>
-      <c r="X63" s="11">
+      <c r="X64" s="11">
         <v>533</v>
       </c>
-      <c r="Y63" s="11">
+      <c r="Y64" s="11">
         <v>10374</v>
       </c>
-      <c r="Z63" s="11">
+      <c r="Z64" s="11">
         <v>17</v>
       </c>
-      <c r="AA63" s="11">
+      <c r="AA64" s="11">
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="2:27" hidden="1">
-      <c r="B64" s="13">
+    <row r="65" spans="2:27" hidden="1">
+      <c r="B65" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <v>569174</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>549631</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>496</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>56348</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="14">
         <v>9127</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="14">
         <v>2959</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J65" s="14">
         <v>77</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K65" s="14">
         <v>1424</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L65" s="14">
         <v>1745</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M65" s="14">
         <v>51089</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N65" s="14">
         <v>3866</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O65" s="14">
         <v>28370</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P65" s="14">
         <v>17421</v>
       </c>
-      <c r="Q64" s="14">
+      <c r="Q65" s="14">
         <v>35866</v>
       </c>
-      <c r="R64" s="14">
+      <c r="R65" s="14">
         <v>2504</v>
       </c>
-      <c r="S64" s="14">
+      <c r="S65" s="14">
         <v>35789</v>
       </c>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14">
+      <c r="T65" s="14"/>
+      <c r="U65" s="14">
         <v>104940</v>
       </c>
-      <c r="V64" s="14">
+      <c r="V65" s="14">
         <v>4612</v>
       </c>
-      <c r="W64" s="14">
+      <c r="W65" s="14">
         <v>3208</v>
       </c>
-      <c r="X64" s="14">
+      <c r="X65" s="14">
         <v>503</v>
       </c>
-      <c r="Y64" s="14">
+      <c r="Y65" s="14">
         <v>10368</v>
       </c>
-      <c r="Z64" s="14">
+      <c r="Z65" s="14">
         <v>17</v>
       </c>
-      <c r="AA64" s="14">
+      <c r="AA65" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="65" spans="2:27" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:27" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>567168</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>547540</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>498</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>56269</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H66" s="11">
         <v>9193</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I66" s="11">
         <v>2973</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J66" s="11">
         <v>77</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K66" s="11">
         <v>1424</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L66" s="11">
         <v>1747</v>
       </c>
-      <c r="M65" s="11">
+      <c r="M66" s="11">
         <v>50966</v>
       </c>
-      <c r="N65" s="11">
+      <c r="N66" s="11">
         <v>3857</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O66" s="11">
         <v>28348</v>
       </c>
-      <c r="P65" s="11">
+      <c r="P66" s="11">
         <v>17331</v>
       </c>
-      <c r="Q65" s="11">
+      <c r="Q66" s="11">
         <v>35832</v>
       </c>
-      <c r="R65" s="11">
+      <c r="R66" s="11">
         <v>2489</v>
       </c>
-      <c r="S65" s="11">
+      <c r="S66" s="11">
         <v>35300</v>
       </c>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11">
+      <c r="T66" s="11"/>
+      <c r="U66" s="11">
         <v>104554</v>
       </c>
-      <c r="V65" s="11">
+      <c r="V66" s="11">
         <v>4605</v>
       </c>
-      <c r="W65" s="11">
+      <c r="W66" s="11">
         <v>3183</v>
       </c>
-      <c r="X65" s="11">
+      <c r="X66" s="11">
         <v>491</v>
       </c>
-      <c r="Y65" s="11">
+      <c r="Y66" s="11">
         <v>10340</v>
       </c>
-      <c r="Z65" s="11">
+      <c r="Z66" s="11">
         <v>16</v>
       </c>
-      <c r="AA65" s="11">
+      <c r="AA66" s="11">
         <v>662</v>
       </c>
     </row>
-    <row r="66" spans="2:27" hidden="1">
-      <c r="B66" s="13">
+    <row r="67" spans="2:27" hidden="1">
+      <c r="B67" s="13">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <v>566042</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E67" s="14">
         <v>545916</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F67" s="14">
         <v>498</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <v>56291</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="14">
         <v>9187</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I67" s="14">
         <v>2980</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J67" s="14">
         <v>77</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K67" s="14">
         <v>1424</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L67" s="14">
         <v>1748</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M67" s="14">
         <v>50878</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N67" s="14">
         <v>3863</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O67" s="14">
         <v>28349</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P67" s="14">
         <v>17359</v>
       </c>
-      <c r="Q66" s="14">
+      <c r="Q67" s="14">
         <v>35902</v>
       </c>
-      <c r="R66" s="14">
+      <c r="R67" s="14">
         <v>2485</v>
       </c>
-      <c r="S66" s="14">
+      <c r="S67" s="14">
         <v>35117</v>
       </c>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14">
+      <c r="T67" s="14"/>
+      <c r="U67" s="14">
         <v>104123</v>
       </c>
-      <c r="V66" s="14">
+      <c r="V67" s="14">
         <v>4584</v>
       </c>
-      <c r="W66" s="14">
+      <c r="W67" s="14">
         <v>3179</v>
       </c>
-      <c r="X66" s="14">
+      <c r="X67" s="14">
         <v>489</v>
       </c>
-      <c r="Y66" s="14">
+      <c r="Y67" s="14">
         <v>10327</v>
       </c>
-      <c r="Z66" s="14">
+      <c r="Z67" s="14">
         <v>17</v>
       </c>
-      <c r="AA66" s="14">
+      <c r="AA67" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="67" spans="2:27" hidden="1">
-      <c r="B67" s="10">
+    <row r="68" spans="2:27" hidden="1">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>565980</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>545400</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>499</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G68" s="11">
         <v>56275</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H68" s="11">
         <v>9187</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I68" s="11">
         <v>2982</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J68" s="11">
         <v>77</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K68" s="11">
         <v>1424</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L68" s="11">
         <v>1755</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M68" s="11">
         <v>50805</v>
       </c>
-      <c r="N67" s="11">
+      <c r="N68" s="11">
         <v>3864</v>
       </c>
-      <c r="O67" s="11">
+      <c r="O68" s="11">
         <v>28294</v>
       </c>
-      <c r="P67" s="11">
+      <c r="P68" s="11">
         <v>17361</v>
       </c>
-      <c r="Q67" s="11">
+      <c r="Q68" s="11">
         <v>36010</v>
       </c>
-      <c r="R67" s="11">
+      <c r="R68" s="11">
         <v>2485</v>
       </c>
-      <c r="S67" s="11">
+      <c r="S68" s="11">
         <v>34872</v>
       </c>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11">
+      <c r="T68" s="11"/>
+      <c r="U68" s="11">
         <v>104093</v>
       </c>
-      <c r="V67" s="11">
+      <c r="V68" s="11">
         <v>4584</v>
       </c>
-      <c r="W67" s="11">
+      <c r="W68" s="11">
         <v>3174</v>
       </c>
-      <c r="X67" s="11">
+      <c r="X68" s="11">
         <v>486</v>
       </c>
-      <c r="Y67" s="11">
+      <c r="Y68" s="11">
         <v>10322</v>
       </c>
-      <c r="Z67" s="11">
+      <c r="Z68" s="11">
         <v>17</v>
       </c>
-      <c r="AA67" s="11">
+      <c r="AA68" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="68" spans="2:27" hidden="1">
-      <c r="B68" s="13">
+    <row r="69" spans="2:27" hidden="1">
+      <c r="B69" s="13">
         <v>2020</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <v>565883</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>545244</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="14">
         <v>499</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>56275</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="14">
         <v>9189</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="14">
         <v>2982</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J69" s="14">
         <v>77</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K69" s="14">
         <v>1424</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L69" s="14">
         <v>1755</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M69" s="14">
         <v>50796</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N69" s="14">
         <v>3864</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O69" s="14">
         <v>28297</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P69" s="14">
         <v>17361</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q69" s="14">
         <v>36010</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R69" s="14">
         <v>2485</v>
       </c>
-      <c r="S68" s="14">
+      <c r="S69" s="14">
         <v>34862</v>
       </c>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14">
+      <c r="T69" s="14"/>
+      <c r="U69" s="14">
         <v>104076</v>
       </c>
-      <c r="V68" s="14">
+      <c r="V69" s="14">
         <v>4584</v>
       </c>
-      <c r="W68" s="14">
+      <c r="W69" s="14">
         <v>3174</v>
       </c>
-      <c r="X68" s="14">
+      <c r="X69" s="14">
         <v>486</v>
       </c>
-      <c r="Y68" s="14">
+      <c r="Y69" s="14">
         <v>10322</v>
       </c>
-      <c r="Z68" s="14">
+      <c r="Z69" s="14">
         <v>17</v>
       </c>
-      <c r="AA68" s="14">
+      <c r="AA69" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="69" spans="2:27" hidden="1">
-      <c r="B69" s="10">
+    <row r="70" spans="2:27" hidden="1">
+      <c r="B70" s="10">
         <v>2020</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>565809</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>545128</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>499</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>56281</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H70" s="11">
         <v>9189</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I70" s="11">
         <v>2982</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J70" s="11">
         <v>77</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K70" s="11">
         <v>1424</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L70" s="11">
         <v>1755</v>
       </c>
-      <c r="M69" s="11">
+      <c r="M70" s="11">
         <v>50794</v>
       </c>
-      <c r="N69" s="11">
+      <c r="N70" s="11">
         <v>3867</v>
       </c>
-      <c r="O69" s="11">
+      <c r="O70" s="11">
         <v>28301</v>
       </c>
-      <c r="P69" s="11">
+      <c r="P70" s="11">
         <v>17361</v>
       </c>
-      <c r="Q69" s="11">
+      <c r="Q70" s="11">
         <v>36010</v>
       </c>
-      <c r="R69" s="11">
+      <c r="R70" s="11">
         <v>2487</v>
       </c>
-      <c r="S69" s="11">
+      <c r="S70" s="11">
         <v>34874</v>
       </c>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11">
+      <c r="T70" s="11"/>
+      <c r="U70" s="11">
         <v>104084</v>
       </c>
-      <c r="V69" s="11">
+      <c r="V70" s="11">
         <v>4585</v>
       </c>
-      <c r="W69" s="11">
+      <c r="W70" s="11">
         <v>3174</v>
       </c>
-      <c r="X69" s="11">
+      <c r="X70" s="11">
         <v>486</v>
       </c>
-      <c r="Y69" s="11">
+      <c r="Y70" s="11">
         <v>10319</v>
       </c>
-      <c r="Z69" s="11">
+      <c r="Z70" s="11">
         <v>17</v>
       </c>
-      <c r="AA69" s="11">
+      <c r="AA70" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="70" spans="2:27" hidden="1">
-      <c r="B70" s="13">
+    <row r="71" spans="2:27" hidden="1">
+      <c r="B71" s="13">
         <v>2020</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <v>564089</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E71" s="14">
         <v>542595</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F71" s="14">
         <v>496</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <v>56248</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H71" s="14">
         <v>9180</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I71" s="14">
         <v>2964</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J71" s="14">
         <v>77</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K71" s="14">
         <v>1424</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L71" s="14">
         <v>1745</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M71" s="14">
         <v>50693</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N71" s="14">
         <v>3869</v>
       </c>
-      <c r="O70" s="14">
+      <c r="O71" s="14">
         <v>28110</v>
       </c>
-      <c r="P70" s="14">
+      <c r="P71" s="14">
         <v>16719</v>
       </c>
-      <c r="Q70" s="14">
+      <c r="Q71" s="14">
         <v>35910</v>
       </c>
-      <c r="R70" s="14">
+      <c r="R71" s="14">
         <v>2467</v>
       </c>
-      <c r="S70" s="14">
+      <c r="S71" s="14">
         <v>34546</v>
       </c>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14">
+      <c r="T71" s="14"/>
+      <c r="U71" s="14">
         <v>103491</v>
       </c>
-      <c r="V70" s="14">
+      <c r="V71" s="14">
         <v>4545</v>
       </c>
-      <c r="W70" s="14">
+      <c r="W71" s="14">
         <v>3124</v>
       </c>
-      <c r="X70" s="14">
+      <c r="X71" s="14">
         <v>480</v>
       </c>
-      <c r="Y70" s="14">
+      <c r="Y71" s="14">
         <v>10285</v>
       </c>
-      <c r="Z70" s="14">
+      <c r="Z71" s="14">
         <v>17</v>
       </c>
-      <c r="AA70" s="14">
+      <c r="AA71" s="14">
         <v>662</v>
       </c>
     </row>
-    <row r="71" spans="2:27" hidden="1">
-      <c r="B71" s="18">
+    <row r="72" spans="2:27" hidden="1">
+      <c r="B72" s="18">
         <v>2020</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D72" s="19">
         <v>562170</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E72" s="19">
         <v>539768</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F72" s="19">
         <v>496</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G72" s="19">
         <v>56222</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H72" s="19">
         <v>9165</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I72" s="19">
         <v>2963</v>
       </c>
-      <c r="J71" s="19">
+      <c r="J72" s="19">
         <v>77</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K72" s="19">
         <v>1424</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L72" s="19">
         <v>1747</v>
       </c>
-      <c r="M71" s="19">
+      <c r="M72" s="19">
         <v>50528</v>
       </c>
-      <c r="N71" s="19">
+      <c r="N72" s="19">
         <v>3862</v>
       </c>
-      <c r="O71" s="19">
+      <c r="O72" s="19">
         <v>27916</v>
       </c>
-      <c r="P71" s="19">
+      <c r="P72" s="19">
         <v>16577</v>
       </c>
-      <c r="Q71" s="19">
+      <c r="Q72" s="19">
         <v>35720</v>
       </c>
-      <c r="R71" s="19">
+      <c r="R72" s="19">
         <v>2434</v>
       </c>
-      <c r="S71" s="19">
+      <c r="S72" s="19">
         <v>34311</v>
       </c>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19">
+      <c r="T72" s="19"/>
+      <c r="U72" s="19">
         <v>102764</v>
       </c>
-      <c r="V71" s="19">
+      <c r="V72" s="19">
         <v>4504</v>
       </c>
-      <c r="W71" s="19">
+      <c r="W72" s="19">
         <v>3103</v>
       </c>
-      <c r="X71" s="19">
+      <c r="X72" s="19">
         <v>461</v>
       </c>
-      <c r="Y71" s="19">
+      <c r="Y72" s="19">
         <v>10273</v>
       </c>
-      <c r="Z71" s="19">
+      <c r="Z72" s="19">
         <v>17</v>
       </c>
-      <c r="AA71" s="19">
+      <c r="AA72" s="19">
         <v>663</v>
       </c>
     </row>
-    <row r="72" spans="2:27" hidden="1">
-      <c r="B72" s="13">
+    <row r="73" spans="2:27" hidden="1">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <v>561061</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E73" s="14">
         <v>537813</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F73" s="14">
         <v>497</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <v>56256</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H73" s="14">
         <v>9149</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I73" s="14">
         <v>2965</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J73" s="14">
         <v>77</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K73" s="14">
         <v>1424</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L73" s="14">
         <v>1747</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M73" s="14">
         <v>50432</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N73" s="14">
         <v>3858</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O73" s="14">
         <v>27818</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P73" s="14">
         <v>16663</v>
       </c>
-      <c r="Q72" s="14">
+      <c r="Q73" s="14">
         <v>35664</v>
       </c>
-      <c r="R72" s="14">
+      <c r="R73" s="14">
         <v>2427</v>
       </c>
-      <c r="S72" s="14">
+      <c r="S73" s="14">
         <v>33984</v>
       </c>
-      <c r="T72" s="14"/>
-      <c r="U72" s="14">
+      <c r="T73" s="14"/>
+      <c r="U73" s="14">
         <v>102021</v>
       </c>
-      <c r="V72" s="14">
+      <c r="V73" s="14">
         <v>4466</v>
       </c>
-      <c r="W72" s="14">
+      <c r="W73" s="14">
         <v>3102</v>
       </c>
-      <c r="X72" s="14">
+      <c r="X73" s="14">
         <v>462</v>
       </c>
-      <c r="Y72" s="14">
+      <c r="Y73" s="14">
         <v>10222</v>
       </c>
-      <c r="Z72" s="14">
+      <c r="Z73" s="14">
         <v>17</v>
       </c>
-      <c r="AA72" s="14">
+      <c r="AA73" s="14">
         <v>661</v>
       </c>
     </row>
-    <row r="73" spans="2:27" hidden="1">
-      <c r="B73" s="10">
+    <row r="74" spans="2:27" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>558626</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>535724</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>493</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>55998</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <v>9075</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I74" s="11">
         <v>2960</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J74" s="11">
         <v>77</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K74" s="11">
         <v>1424</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L74" s="11">
         <v>1718</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M74" s="11">
         <v>50135</v>
       </c>
-      <c r="N73" s="11">
+      <c r="N74" s="11">
         <v>3846</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O74" s="11">
         <v>27391</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P74" s="11">
         <v>16776</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="Q74" s="11">
         <v>35622</v>
       </c>
-      <c r="R73" s="11">
+      <c r="R74" s="11">
         <v>2417</v>
       </c>
-      <c r="S73" s="11">
+      <c r="S74" s="11">
         <v>33833</v>
       </c>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11">
+      <c r="T74" s="11"/>
+      <c r="U74" s="11">
         <v>101688</v>
       </c>
-      <c r="V73" s="11">
+      <c r="V74" s="11">
         <v>4382</v>
       </c>
-      <c r="W73" s="11">
+      <c r="W74" s="11">
         <v>3068</v>
       </c>
-      <c r="X73" s="11">
+      <c r="X74" s="11">
         <v>453</v>
       </c>
-      <c r="Y73" s="11">
+      <c r="Y74" s="11">
         <v>10134</v>
       </c>
-      <c r="Z73" s="11">
+      <c r="Z74" s="11">
         <v>17</v>
       </c>
-      <c r="AA73" s="11">
+      <c r="AA74" s="11">
         <v>660</v>
       </c>
     </row>
-    <row r="74" spans="2:27" hidden="1">
-      <c r="B74" s="13">
+    <row r="75" spans="2:27" hidden="1">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <v>556346</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E75" s="14">
         <v>533069</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F75" s="14">
         <v>492</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <v>55871</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="14">
         <v>9008</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="14">
         <v>2938</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J75" s="14">
         <v>77</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K75" s="14">
         <v>1424</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L75" s="14">
         <v>1711</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M75" s="14">
         <v>49943</v>
       </c>
-      <c r="N74" s="14">
+      <c r="N75" s="14">
         <v>3804</v>
       </c>
-      <c r="O74" s="14">
+      <c r="O75" s="14">
         <v>27062</v>
       </c>
-      <c r="P74" s="14">
+      <c r="P75" s="14">
         <v>16772</v>
       </c>
-      <c r="Q74" s="14">
+      <c r="Q75" s="14">
         <v>35650</v>
       </c>
-      <c r="R74" s="14">
+      <c r="R75" s="14">
         <v>2402</v>
       </c>
-      <c r="S74" s="14">
+      <c r="S75" s="14">
         <v>33575</v>
       </c>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14">
+      <c r="T75" s="14"/>
+      <c r="U75" s="14">
         <v>101067</v>
       </c>
-      <c r="V74" s="14">
+      <c r="V75" s="14">
         <v>4305</v>
       </c>
-      <c r="W74" s="14">
+      <c r="W75" s="14">
         <v>3036</v>
       </c>
-      <c r="X74" s="14">
+      <c r="X75" s="14">
         <v>442</v>
       </c>
-      <c r="Y74" s="14">
+      <c r="Y75" s="14">
         <v>10077</v>
       </c>
-      <c r="Z74" s="14">
+      <c r="Z75" s="14">
         <v>17</v>
       </c>
-      <c r="AA74" s="14">
+      <c r="AA75" s="14">
         <v>658</v>
       </c>
     </row>
-    <row r="75" spans="2:27" hidden="1">
-      <c r="B75" s="10">
+    <row r="76" spans="2:27" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>519860</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>505944</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>449</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>49255</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H76" s="11">
         <v>6176</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I76" s="11">
         <v>2186</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J76" s="11">
         <v>73</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K76" s="11">
         <v>1413</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L76" s="11">
         <v>1713</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M76" s="11">
         <v>43268</v>
       </c>
-      <c r="N75" s="11">
+      <c r="N76" s="11">
         <v>3801</v>
       </c>
-      <c r="O75" s="11">
+      <c r="O76" s="11">
         <v>26781</v>
       </c>
-      <c r="P75" s="11">
+      <c r="P76" s="11">
         <v>14771</v>
       </c>
-      <c r="Q75" s="11">
+      <c r="Q76" s="11">
         <v>34056</v>
       </c>
-      <c r="R75" s="11">
+      <c r="R76" s="11">
         <v>2388</v>
       </c>
-      <c r="S75" s="11">
+      <c r="S76" s="11">
         <v>33239</v>
       </c>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11">
+      <c r="T76" s="11"/>
+      <c r="U76" s="11">
         <v>100098</v>
       </c>
-      <c r="V75" s="11">
+      <c r="V76" s="11">
         <v>4230</v>
       </c>
-      <c r="W75" s="11">
+      <c r="W76" s="11">
         <v>2983</v>
       </c>
-      <c r="X75" s="11">
+      <c r="X76" s="11">
         <v>435</v>
       </c>
-      <c r="Y75" s="11">
+      <c r="Y76" s="11">
         <v>10048</v>
       </c>
-      <c r="Z75" s="11">
+      <c r="Z76" s="11">
         <v>17</v>
       </c>
-      <c r="AA75" s="11">
+      <c r="AA76" s="11">
         <v>655</v>
       </c>
     </row>
-    <row r="76" spans="2:27" hidden="1">
-      <c r="B76" s="13">
+    <row r="77" spans="2:27" hidden="1">
+      <c r="B77" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <v>517666</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E77" s="14">
         <v>503486</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>449</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <v>49171</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H77" s="14">
         <v>6156</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <v>2183</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J77" s="14">
         <v>73</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K77" s="14">
         <v>1413</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L77" s="14">
         <v>1710</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M77" s="14">
         <v>43104</v>
       </c>
-      <c r="N76" s="14">
+      <c r="N77" s="14">
         <v>3785</v>
       </c>
-      <c r="O76" s="14">
+      <c r="O77" s="14">
         <v>26582</v>
       </c>
-      <c r="P76" s="14">
+      <c r="P77" s="14">
         <v>14832</v>
       </c>
-      <c r="Q76" s="14">
+      <c r="Q77" s="14">
         <v>34205</v>
       </c>
-      <c r="R76" s="14">
+      <c r="R77" s="14">
         <v>2384</v>
       </c>
-      <c r="S76" s="14">
+      <c r="S77" s="14">
         <v>33006</v>
       </c>
-      <c r="T76" s="14">
+      <c r="T77" s="14">
         <v>0</v>
       </c>
-      <c r="U76" s="14">
+      <c r="U77" s="14">
         <v>99490</v>
       </c>
-      <c r="V76" s="14">
+      <c r="V77" s="14">
         <v>4173</v>
       </c>
-      <c r="W76" s="14">
+      <c r="W77" s="14">
         <v>2926</v>
       </c>
-      <c r="X76" s="14">
+      <c r="X77" s="14">
         <v>420</v>
       </c>
-      <c r="Y76" s="14">
+      <c r="Y77" s="14">
         <v>10026</v>
       </c>
-      <c r="Z76" s="14">
+      <c r="Z77" s="14">
         <v>17</v>
       </c>
-      <c r="AA76" s="14">
+      <c r="AA77" s="14">
         <v>653</v>
       </c>
     </row>
-    <row r="77" spans="2:27" hidden="1">
-      <c r="B77" s="10">
+    <row r="78" spans="2:27" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>514393</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>498050</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>446</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>49300</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H78" s="11">
         <v>6708</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I78" s="11">
         <v>2319</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J78" s="11">
         <v>74</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K78" s="11">
         <v>1417</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L78" s="11">
         <v>1686</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M78" s="11">
         <v>43264</v>
       </c>
-      <c r="N77" s="11">
+      <c r="N78" s="11">
         <v>3716</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O78" s="11">
         <v>25831</v>
       </c>
-      <c r="P77" s="11">
+      <c r="P78" s="11">
         <v>14426</v>
       </c>
-      <c r="Q77" s="11">
+      <c r="Q78" s="11">
         <v>33360</v>
       </c>
-      <c r="R77" s="11">
+      <c r="R78" s="11">
         <v>2308</v>
       </c>
-      <c r="S77" s="11">
+      <c r="S78" s="11">
         <v>31727</v>
       </c>
-      <c r="T77" s="11">
+      <c r="T78" s="11">
         <v>1</v>
       </c>
-      <c r="U77" s="11">
+      <c r="U78" s="11">
         <v>98049</v>
       </c>
-      <c r="V77" s="11">
+      <c r="V78" s="11">
         <v>4070</v>
       </c>
-      <c r="W77" s="11">
+      <c r="W78" s="11">
         <v>2777</v>
       </c>
-      <c r="X77" s="11">
+      <c r="X78" s="11">
         <v>374</v>
       </c>
-      <c r="Y77" s="11">
+      <c r="Y78" s="11">
         <v>9942</v>
       </c>
-      <c r="Z77" s="11">
+      <c r="Z78" s="11">
         <v>17</v>
       </c>
-      <c r="AA77" s="11">
+      <c r="AA78" s="11">
         <v>647</v>
       </c>
     </row>
-    <row r="78" spans="2:27" hidden="1">
-      <c r="B78" s="13">
+    <row r="79" spans="2:27" hidden="1">
+      <c r="B79" s="13">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <v>512802</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="14">
         <v>497796</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="14">
         <v>444</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <v>49053</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="14">
         <v>6156</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="14">
         <v>2222</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J79" s="14">
         <v>73</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K79" s="14">
         <v>1413</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L79" s="14">
         <v>1694</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M79" s="14">
         <v>42573</v>
       </c>
-      <c r="N78" s="14">
+      <c r="N79" s="14">
         <v>3733</v>
       </c>
-      <c r="O78" s="14">
+      <c r="O79" s="14">
         <v>25944</v>
       </c>
-      <c r="P78" s="14">
+      <c r="P79" s="14">
         <v>14578</v>
       </c>
-      <c r="Q78" s="14">
+      <c r="Q79" s="14">
         <v>33417</v>
       </c>
-      <c r="R78" s="14">
+      <c r="R79" s="14">
         <v>2333</v>
       </c>
-      <c r="S78" s="14">
+      <c r="S79" s="14">
         <v>32236</v>
       </c>
-      <c r="T78" s="14">
+      <c r="T79" s="14">
         <v>0</v>
       </c>
-      <c r="U78" s="14">
+      <c r="U79" s="14">
         <v>98138</v>
       </c>
-      <c r="V78" s="14">
+      <c r="V79" s="14">
         <v>4072</v>
       </c>
-      <c r="W78" s="14">
+      <c r="W79" s="14">
         <v>2785</v>
       </c>
-      <c r="X78" s="14">
+      <c r="X79" s="14">
         <v>376</v>
       </c>
-      <c r="Y78" s="14">
+      <c r="Y79" s="14">
         <v>9919</v>
       </c>
-      <c r="Z78" s="14">
+      <c r="Z79" s="14">
         <v>17</v>
       </c>
-      <c r="AA78" s="14">
+      <c r="AA79" s="14">
         <v>674</v>
       </c>
     </row>
-    <row r="79" spans="2:27" hidden="1">
-      <c r="B79" s="10">
+    <row r="80" spans="2:27" hidden="1">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>506850</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>499239</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>454</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>48604</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H80" s="11">
         <v>7085</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I80" s="11">
         <v>2531</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J80" s="11">
         <v>78</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K80" s="11">
         <v>239</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L80" s="11">
         <v>2615</v>
       </c>
-      <c r="M79" s="11">
+      <c r="M80" s="11">
         <v>39728</v>
       </c>
-      <c r="N79" s="11">
+      <c r="N80" s="11">
         <v>4268</v>
       </c>
-      <c r="O79" s="11">
+      <c r="O80" s="11">
         <v>28174</v>
       </c>
-      <c r="P79" s="11">
+      <c r="P80" s="11">
         <v>16305</v>
       </c>
-      <c r="Q79" s="11">
+      <c r="Q80" s="11">
         <v>35097</v>
       </c>
-      <c r="R79" s="11">
+      <c r="R80" s="11">
         <v>2307</v>
       </c>
-      <c r="S79" s="11">
+      <c r="S80" s="11">
         <v>31892</v>
       </c>
-      <c r="T79" s="11">
+      <c r="T80" s="11">
         <v>1</v>
       </c>
-      <c r="U79" s="11">
+      <c r="U80" s="11">
         <v>98003</v>
       </c>
-      <c r="V79" s="11">
+      <c r="V80" s="11">
         <v>3983</v>
       </c>
-      <c r="W79" s="11">
+      <c r="W80" s="11">
         <v>2752</v>
       </c>
-      <c r="X79" s="11">
+      <c r="X80" s="11">
         <v>374</v>
       </c>
-      <c r="Y79" s="11">
+      <c r="Y80" s="11">
         <v>11506</v>
       </c>
-      <c r="Z79" s="11">
+      <c r="Z80" s="11">
         <v>12</v>
       </c>
-      <c r="AA79" s="11">
+      <c r="AA80" s="11">
         <v>810</v>
       </c>
     </row>
-    <row r="80" spans="2:27" hidden="1">
-      <c r="B80" s="13">
+    <row r="81" spans="2:27" hidden="1">
+      <c r="B81" s="13">
         <v>2019</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <v>504046</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E81" s="14">
         <v>496323</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F81" s="14">
         <v>451</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <v>48409</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H81" s="14">
         <v>7032</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I81" s="14">
         <v>2531</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J81" s="14">
         <v>78</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K81" s="14">
         <v>239</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L81" s="14">
         <v>2596</v>
       </c>
-      <c r="M80" s="14">
+      <c r="M81" s="14">
         <v>39439</v>
       </c>
-      <c r="N80" s="14">
+      <c r="N81" s="14">
         <v>4234</v>
       </c>
-      <c r="O80" s="14">
+      <c r="O81" s="14">
         <v>27848</v>
       </c>
-      <c r="P80" s="14">
+      <c r="P81" s="14">
         <v>16180</v>
       </c>
-      <c r="Q80" s="14">
+      <c r="Q81" s="14">
         <v>34956</v>
       </c>
-      <c r="R80" s="14">
+      <c r="R81" s="14">
         <v>2284</v>
       </c>
-      <c r="S80" s="14">
+      <c r="S81" s="14">
         <v>31444</v>
       </c>
-      <c r="T80" s="14">
+      <c r="T81" s="14">
         <v>0</v>
       </c>
-      <c r="U80" s="14">
+      <c r="U81" s="14">
         <v>97190</v>
       </c>
-      <c r="V80" s="14">
+      <c r="V81" s="14">
         <v>3921</v>
       </c>
-      <c r="W80" s="14">
+      <c r="W81" s="14">
         <v>2705</v>
       </c>
-      <c r="X80" s="14">
+      <c r="X81" s="14">
         <v>364</v>
       </c>
-      <c r="Y80" s="14">
+      <c r="Y81" s="14">
         <v>11482</v>
       </c>
-      <c r="Z80" s="14">
+      <c r="Z81" s="14">
         <v>12</v>
       </c>
-      <c r="AA80" s="14">
+      <c r="AA81" s="14">
         <v>807</v>
       </c>
     </row>
-    <row r="81" spans="2:27" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:27" hidden="1">
+      <c r="B82" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>501424</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>493291</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>452</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>48079</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H82" s="11">
         <v>7029</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I82" s="11">
         <v>2509</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J82" s="11">
         <v>77</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K82" s="11">
         <v>239</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L82" s="11">
         <v>2577</v>
       </c>
-      <c r="M81" s="11">
+      <c r="M82" s="11">
         <v>39178</v>
       </c>
-      <c r="N81" s="11">
+      <c r="N82" s="11">
         <v>4173</v>
       </c>
-      <c r="O81" s="11">
+      <c r="O82" s="11">
         <v>27415</v>
       </c>
-      <c r="P81" s="11">
+      <c r="P82" s="11">
         <v>15815</v>
       </c>
-      <c r="Q81" s="11">
+      <c r="Q82" s="11">
         <v>34582</v>
       </c>
-      <c r="R81" s="11">
+      <c r="R82" s="11">
         <v>2266</v>
       </c>
-      <c r="S81" s="11">
+      <c r="S82" s="11">
         <v>30934</v>
       </c>
-      <c r="T81" s="11">
+      <c r="T82" s="11">
         <v>1</v>
       </c>
-      <c r="U81" s="11">
+      <c r="U82" s="11">
         <v>96704</v>
       </c>
-      <c r="V81" s="11">
+      <c r="V82" s="11">
         <v>3869</v>
       </c>
-      <c r="W81" s="11">
+      <c r="W82" s="11">
         <v>2699</v>
       </c>
-      <c r="X81" s="11">
+      <c r="X82" s="11">
         <v>360</v>
       </c>
-      <c r="Y81" s="11">
+      <c r="Y82" s="11">
         <v>11467</v>
       </c>
-      <c r="Z81" s="11">
+      <c r="Z82" s="11">
         <v>12</v>
       </c>
-      <c r="AA81" s="11">
+      <c r="AA82" s="11">
         <v>808</v>
       </c>
     </row>
-    <row r="82" spans="2:27" hidden="1">
-      <c r="B82" s="13">
+    <row r="83" spans="2:27" hidden="1">
+      <c r="B83" s="13">
         <v>2019</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <v>499221</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E83" s="14">
         <v>490327</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F83" s="14">
         <v>454</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <v>47999</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H83" s="14">
         <v>7029</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I83" s="14">
         <v>2518</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J83" s="14">
         <v>77</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K83" s="14">
         <v>239</v>
       </c>
-      <c r="L82" s="14">
+      <c r="L83" s="14">
         <v>2576</v>
       </c>
-      <c r="M82" s="14">
+      <c r="M83" s="14">
         <v>38838</v>
       </c>
-      <c r="N82" s="14">
+      <c r="N83" s="14">
         <v>4155</v>
       </c>
-      <c r="O82" s="14">
+      <c r="O83" s="14">
         <v>27148</v>
       </c>
-      <c r="P82" s="14">
+      <c r="P83" s="14">
         <v>15484</v>
       </c>
-      <c r="Q82" s="14">
+      <c r="Q83" s="14">
         <v>34221</v>
       </c>
-      <c r="R82" s="14">
+      <c r="R83" s="14">
         <v>2252</v>
       </c>
-      <c r="S82" s="14">
+      <c r="S83" s="14">
         <v>30634</v>
       </c>
-      <c r="T82" s="14">
+      <c r="T83" s="14">
         <v>1</v>
       </c>
-      <c r="U82" s="14">
+      <c r="U83" s="14">
         <v>96127</v>
       </c>
-      <c r="V82" s="14">
+      <c r="V83" s="14">
         <v>3815</v>
       </c>
-      <c r="W82" s="14">
+      <c r="W83" s="14">
         <v>2658</v>
       </c>
-      <c r="X82" s="14">
+      <c r="X83" s="14">
         <v>352</v>
       </c>
-      <c r="Y82" s="14">
+      <c r="Y83" s="14">
         <v>11454</v>
       </c>
-      <c r="Z82" s="14">
+      <c r="Z83" s="14">
         <v>12</v>
       </c>
-      <c r="AA82" s="14">
+      <c r="AA83" s="14">
         <v>810</v>
       </c>
     </row>
-    <row r="83" spans="2:27" hidden="1">
-      <c r="B83" s="18">
+    <row r="84" spans="2:27" hidden="1">
+      <c r="B84" s="18">
         <v>2019</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C84" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D84" s="19">
         <v>497141</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E84" s="19">
         <v>488120</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F84" s="19">
         <v>452</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G84" s="19">
         <v>47859</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H84" s="19">
         <v>6968</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I84" s="19">
         <v>2504</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J84" s="19">
         <v>77</v>
       </c>
-      <c r="K83" s="19">
+      <c r="K84" s="19">
         <v>239</v>
       </c>
-      <c r="L83" s="19">
+      <c r="L84" s="19">
         <v>2565</v>
       </c>
-      <c r="M83" s="19">
+      <c r="M84" s="19">
         <v>38626</v>
       </c>
-      <c r="N83" s="19">
+      <c r="N84" s="19">
         <v>4150</v>
       </c>
-      <c r="O83" s="19">
+      <c r="O84" s="19">
         <v>26845</v>
       </c>
-      <c r="P83" s="19">
+      <c r="P84" s="19">
         <v>15304</v>
       </c>
-      <c r="Q83" s="19">
+      <c r="Q84" s="19">
         <v>34009</v>
       </c>
-      <c r="R83" s="19">
+      <c r="R84" s="19">
         <v>2246</v>
       </c>
-      <c r="S83" s="19">
+      <c r="S84" s="19">
         <v>30488</v>
       </c>
-      <c r="T83" s="19">
+      <c r="T84" s="19">
         <v>1</v>
       </c>
-      <c r="U83" s="19">
+      <c r="U84" s="19">
         <v>95504</v>
       </c>
-      <c r="V83" s="19">
+      <c r="V84" s="19">
         <v>3778</v>
       </c>
-      <c r="W83" s="19">
+      <c r="W84" s="19">
         <v>2638</v>
       </c>
-      <c r="X83" s="19">
+      <c r="X84" s="19">
         <v>344</v>
       </c>
-      <c r="Y83" s="19">
+      <c r="Y84" s="19">
         <v>11417</v>
       </c>
-      <c r="Z83" s="19">
+      <c r="Z84" s="19">
         <v>12</v>
       </c>
-      <c r="AA83" s="19">
+      <c r="AA84" s="19">
         <v>804</v>
       </c>
     </row>
-    <row r="84" spans="2:27" hidden="1">
-      <c r="B84" s="13">
+    <row r="85" spans="2:27" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <v>496057</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E85" s="14">
         <v>486335</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F85" s="14">
         <v>464</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <v>47780</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H85" s="14">
         <v>6994</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I85" s="14">
         <v>2508</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J85" s="14">
         <v>78</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K85" s="14">
         <v>239</v>
       </c>
-      <c r="L84" s="14">
+      <c r="L85" s="14">
         <v>2565</v>
       </c>
-      <c r="M84" s="14">
+      <c r="M85" s="14">
         <v>38415</v>
       </c>
-      <c r="N84" s="14">
+      <c r="N85" s="14">
         <v>4053</v>
       </c>
-      <c r="O84" s="14">
+      <c r="O85" s="14">
         <v>26683</v>
       </c>
-      <c r="P84" s="14">
+      <c r="P85" s="14">
         <v>15554</v>
       </c>
-      <c r="Q84" s="14">
+      <c r="Q85" s="14">
         <v>34018</v>
       </c>
-      <c r="R84" s="14">
+      <c r="R85" s="14">
         <v>2235</v>
       </c>
-      <c r="S84" s="14">
+      <c r="S85" s="14">
         <v>30111</v>
       </c>
-      <c r="T84" s="14">
+      <c r="T85" s="14">
         <v>1</v>
       </c>
-      <c r="U84" s="14">
+      <c r="U85" s="14">
         <v>94864</v>
       </c>
-      <c r="V84" s="14">
+      <c r="V85" s="14">
         <v>3723</v>
       </c>
-      <c r="W84" s="14">
+      <c r="W85" s="14">
         <v>2618</v>
       </c>
-      <c r="X84" s="14">
+      <c r="X85" s="14">
         <v>329</v>
       </c>
-      <c r="Y84" s="14">
+      <c r="Y85" s="14">
         <v>11369</v>
       </c>
-      <c r="Z84" s="14">
+      <c r="Z85" s="14">
         <v>12</v>
       </c>
-      <c r="AA84" s="14">
+      <c r="AA85" s="14">
         <v>804</v>
       </c>
     </row>
-    <row r="85" spans="2:27" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:27" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>493248</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>484343</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>467</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>47445</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H86" s="11">
         <v>6904</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I86" s="11">
         <v>2451</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J86" s="11">
         <v>78</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K86" s="11">
         <v>239</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L86" s="11">
         <v>2547</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M86" s="11">
         <v>38053</v>
       </c>
-      <c r="N85" s="11">
+      <c r="N86" s="11">
         <v>4033</v>
       </c>
-      <c r="O85" s="11">
+      <c r="O86" s="11">
         <v>26245</v>
       </c>
-      <c r="P85" s="11">
+      <c r="P86" s="11">
         <v>15368</v>
       </c>
-      <c r="Q85" s="11">
+      <c r="Q86" s="11">
         <v>34089</v>
       </c>
-      <c r="R85" s="11">
+      <c r="R86" s="11">
         <v>2228</v>
       </c>
-      <c r="S85" s="11">
+      <c r="S86" s="11">
         <v>29848</v>
       </c>
-      <c r="T85" s="11">
+      <c r="T86" s="11">
         <v>1</v>
       </c>
-      <c r="U85" s="11">
+      <c r="U86" s="11">
         <v>94351</v>
       </c>
-      <c r="V85" s="11">
+      <c r="V86" s="11">
         <v>3704</v>
       </c>
-      <c r="W85" s="11">
+      <c r="W86" s="11">
         <v>2563</v>
       </c>
-      <c r="X85" s="11">
+      <c r="X86" s="11">
         <v>326</v>
       </c>
-      <c r="Y85" s="11">
+      <c r="Y86" s="11">
         <v>11268</v>
       </c>
-      <c r="Z85" s="11">
+      <c r="Z86" s="11">
         <v>12</v>
       </c>
-      <c r="AA85" s="11">
+      <c r="AA86" s="11">
         <v>798</v>
       </c>
     </row>
-    <row r="86" spans="2:27" hidden="1">
-      <c r="B86" s="13">
+    <row r="87" spans="2:27" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <v>489853</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E87" s="14">
         <v>481195</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F87" s="14">
         <v>466</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <v>47019</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H87" s="14">
         <v>6820</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I87" s="14">
         <v>2443</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J87" s="14">
         <v>78</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K87" s="14">
         <v>239</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L87" s="14">
         <v>2529</v>
       </c>
-      <c r="M86" s="14">
+      <c r="M87" s="14">
         <v>37565</v>
       </c>
-      <c r="N86" s="14">
+      <c r="N87" s="14">
         <v>3997</v>
       </c>
-      <c r="O86" s="14">
+      <c r="O87" s="14">
         <v>25847</v>
       </c>
-      <c r="P86" s="14">
+      <c r="P87" s="14">
         <v>15208</v>
       </c>
-      <c r="Q86" s="14">
+      <c r="Q87" s="14">
         <v>33793</v>
       </c>
-      <c r="R86" s="14">
+      <c r="R87" s="14">
         <v>2228</v>
       </c>
-      <c r="S86" s="14">
+      <c r="S87" s="14">
         <v>29565</v>
       </c>
-      <c r="T86" s="14">
+      <c r="T87" s="14">
         <v>1</v>
       </c>
-      <c r="U86" s="14">
+      <c r="U87" s="14">
         <v>93792</v>
       </c>
-      <c r="V86" s="14">
+      <c r="V87" s="14">
         <v>3636</v>
       </c>
-      <c r="W86" s="14">
+      <c r="W87" s="14">
         <v>2514</v>
       </c>
-      <c r="X86" s="14">
+      <c r="X87" s="14">
         <v>326</v>
       </c>
-      <c r="Y86" s="14">
+      <c r="Y87" s="14">
         <v>11160</v>
       </c>
-      <c r="Z86" s="14">
+      <c r="Z87" s="14">
         <v>12</v>
       </c>
-      <c r="AA86" s="14">
+      <c r="AA87" s="14">
         <v>796</v>
       </c>
     </row>
-    <row r="87" spans="2:27" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:27" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>486879</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>478202</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>463</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>46939</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H88" s="11">
         <v>6767</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I88" s="11">
         <v>2420</v>
       </c>
-      <c r="J87" s="11">
+      <c r="J88" s="11">
         <v>78</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K88" s="11">
         <v>239</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L88" s="11">
         <v>2504</v>
       </c>
-      <c r="M87" s="11">
+      <c r="M88" s="11">
         <v>37159</v>
       </c>
-      <c r="N87" s="11">
+      <c r="N88" s="11">
         <v>3981</v>
       </c>
-      <c r="O87" s="11">
+      <c r="O88" s="11">
         <v>25505</v>
       </c>
-      <c r="P87" s="11">
+      <c r="P88" s="11">
         <v>15063</v>
       </c>
-      <c r="Q87" s="11">
+      <c r="Q88" s="11">
         <v>33501</v>
       </c>
-      <c r="R87" s="11">
+      <c r="R88" s="11">
         <v>2207</v>
       </c>
-      <c r="S87" s="11">
+      <c r="S88" s="11">
         <v>29169</v>
       </c>
-      <c r="T87" s="11">
+      <c r="T88" s="11">
         <v>1</v>
       </c>
-      <c r="U87" s="11">
+      <c r="U88" s="11">
         <v>92716</v>
       </c>
-      <c r="V87" s="11">
+      <c r="V88" s="11">
         <v>3571</v>
       </c>
-      <c r="W87" s="11">
+      <c r="W88" s="11">
         <v>2389</v>
       </c>
-      <c r="X87" s="11">
+      <c r="X88" s="11">
         <v>323</v>
       </c>
-      <c r="Y87" s="11">
+      <c r="Y88" s="11">
         <v>11118</v>
       </c>
-      <c r="Z87" s="11">
+      <c r="Z88" s="11">
         <v>12</v>
       </c>
-      <c r="AA87" s="11">
+      <c r="AA88" s="11">
         <v>793</v>
       </c>
     </row>
-    <row r="88" spans="2:27" hidden="1">
-      <c r="B88" s="13">
+    <row r="89" spans="2:27" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <v>483912</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E89" s="14">
         <v>475735</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F89" s="14">
         <v>464</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <v>46660</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="14">
         <v>6663</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I89" s="14">
         <v>2389</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J89" s="14">
         <v>78</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K89" s="14">
         <v>239</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L89" s="14">
         <v>2507</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M89" s="14">
         <v>36747</v>
       </c>
-      <c r="N88" s="14">
+      <c r="N89" s="14">
         <v>3969</v>
       </c>
-      <c r="O88" s="14">
+      <c r="O89" s="14">
         <v>25211</v>
       </c>
-      <c r="P88" s="14">
+      <c r="P89" s="14">
         <v>14925</v>
       </c>
-      <c r="Q88" s="14">
+      <c r="Q89" s="14">
         <v>33302</v>
       </c>
-      <c r="R88" s="14">
+      <c r="R89" s="14">
         <v>2187</v>
       </c>
-      <c r="S88" s="14">
+      <c r="S89" s="14">
         <v>28883</v>
       </c>
-      <c r="T88" s="14">
+      <c r="T89" s="14">
         <v>1</v>
       </c>
-      <c r="U88" s="14">
+      <c r="U89" s="14">
         <v>91723</v>
       </c>
-      <c r="V88" s="14">
+      <c r="V89" s="14">
         <v>3516</v>
       </c>
-      <c r="W88" s="14">
+      <c r="W89" s="14">
         <v>2314</v>
       </c>
-      <c r="X88" s="14">
+      <c r="X89" s="14">
         <v>311</v>
       </c>
-      <c r="Y88" s="14">
+      <c r="Y89" s="14">
         <v>11021</v>
       </c>
-      <c r="Z88" s="14">
+      <c r="Z89" s="14">
         <v>12</v>
       </c>
-      <c r="AA88" s="14">
+      <c r="AA89" s="14">
         <v>787</v>
       </c>
     </row>
-    <row r="89" spans="2:27" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:27" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>480495</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>472364</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>464</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G90" s="11">
         <v>46648</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H90" s="11">
         <v>6624</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I90" s="11">
         <v>2371</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J90" s="11">
         <v>78</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K90" s="11">
         <v>239</v>
       </c>
-      <c r="L89" s="11">
+      <c r="L90" s="11">
         <v>2485</v>
       </c>
-      <c r="M89" s="11">
+      <c r="M90" s="11">
         <v>36570</v>
       </c>
-      <c r="N89" s="11">
+      <c r="N90" s="11">
         <v>3920</v>
       </c>
-      <c r="O89" s="11">
+      <c r="O90" s="11">
         <v>24802</v>
       </c>
-      <c r="P89" s="11">
+      <c r="P90" s="11">
         <v>14924</v>
       </c>
-      <c r="Q89" s="11">
+      <c r="Q90" s="11">
         <v>33187</v>
       </c>
-      <c r="R89" s="11">
+      <c r="R90" s="11">
         <v>2173</v>
       </c>
-      <c r="S89" s="11">
+      <c r="S90" s="11">
         <v>28394</v>
       </c>
-      <c r="T89" s="11">
+      <c r="T90" s="11">
         <v>1</v>
       </c>
-      <c r="U89" s="11">
+      <c r="U90" s="11">
         <v>90924</v>
       </c>
-      <c r="V89" s="11">
+      <c r="V90" s="11">
         <v>3442</v>
       </c>
-      <c r="W89" s="11">
+      <c r="W90" s="11">
         <v>2249</v>
       </c>
-      <c r="X89" s="11">
+      <c r="X90" s="11">
         <v>304</v>
       </c>
-      <c r="Y89" s="11">
+      <c r="Y90" s="11">
         <v>10962</v>
       </c>
-      <c r="Z89" s="11">
+      <c r="Z90" s="11">
         <v>12</v>
       </c>
-      <c r="AA89" s="11">
+      <c r="AA90" s="11">
         <v>784</v>
       </c>
     </row>
-    <row r="90" spans="2:27" hidden="1">
-      <c r="B90" s="13">
+    <row r="91" spans="2:27" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <v>477880</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E91" s="14">
         <v>469513</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F91" s="14">
         <v>458</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G91" s="14">
         <v>46538</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H91" s="14">
         <v>6550</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I91" s="14">
         <v>2387</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J91" s="14">
         <v>78</v>
       </c>
-      <c r="K90" s="14">
+      <c r="K91" s="14">
         <v>237</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L91" s="14">
         <v>2479</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M91" s="14">
         <v>36256</v>
       </c>
-      <c r="N90" s="14">
+      <c r="N91" s="14">
         <v>3901</v>
       </c>
-      <c r="O90" s="14">
+      <c r="O91" s="14">
         <v>24520</v>
       </c>
-      <c r="P90" s="14">
+      <c r="P91" s="14">
         <v>14804</v>
       </c>
-      <c r="Q90" s="14">
+      <c r="Q91" s="14">
         <v>33150</v>
       </c>
-      <c r="R90" s="14">
+      <c r="R91" s="14">
         <v>2178</v>
       </c>
-      <c r="S90" s="14">
+      <c r="S91" s="14">
         <v>27975</v>
       </c>
-      <c r="T90" s="14">
+      <c r="T91" s="14">
         <v>0</v>
       </c>
-      <c r="U90" s="14">
+      <c r="U91" s="14">
         <v>89534</v>
       </c>
-      <c r="V90" s="14">
+      <c r="V91" s="14">
         <v>3365</v>
       </c>
-      <c r="W90" s="14">
+      <c r="W91" s="14">
         <v>2210</v>
       </c>
-      <c r="X90" s="14">
+      <c r="X91" s="14">
         <v>299</v>
       </c>
-      <c r="Y90" s="14">
+      <c r="Y91" s="14">
         <v>10862</v>
       </c>
-      <c r="Z90" s="14">
+      <c r="Z91" s="14">
         <v>12</v>
       </c>
-      <c r="AA90" s="14">
+      <c r="AA91" s="14">
         <v>783</v>
       </c>
     </row>
-    <row r="91" spans="2:27" hidden="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:27" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>476241</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E92" s="11">
         <v>467827</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F92" s="11">
         <v>459</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G92" s="11">
         <v>46438</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H92" s="11">
         <v>6498</v>
       </c>
-      <c r="I91" s="11">
+      <c r="I92" s="11">
         <v>2366</v>
       </c>
-      <c r="J91" s="11">
+      <c r="J92" s="11">
         <v>78</v>
       </c>
-      <c r="K91" s="11">
+      <c r="K92" s="11">
         <v>237</v>
       </c>
-      <c r="L91" s="11">
+      <c r="L92" s="11">
         <v>2474</v>
       </c>
-      <c r="M91" s="11">
+      <c r="M92" s="11">
         <v>35832</v>
       </c>
-      <c r="N91" s="11">
+      <c r="N92" s="11">
         <v>3883</v>
       </c>
-      <c r="O91" s="11">
+      <c r="O92" s="11">
         <v>24299</v>
       </c>
-      <c r="P91" s="11">
+      <c r="P92" s="11">
         <v>14847</v>
       </c>
-      <c r="Q91" s="11">
+      <c r="Q92" s="11">
         <v>33272</v>
       </c>
-      <c r="R91" s="11">
+      <c r="R92" s="11">
         <v>2165</v>
       </c>
-      <c r="S91" s="11">
+      <c r="S92" s="11">
         <v>27577</v>
       </c>
-      <c r="T91" s="11">
+      <c r="T92" s="11">
         <v>1</v>
       </c>
-      <c r="U91" s="11">
+      <c r="U92" s="11">
         <v>88473</v>
       </c>
-      <c r="V91" s="11">
+      <c r="V92" s="11">
         <v>3325</v>
       </c>
-      <c r="W91" s="11">
+      <c r="W92" s="11">
         <v>2133</v>
       </c>
-      <c r="X91" s="11">
+      <c r="X92" s="11">
         <v>301</v>
       </c>
-      <c r="Y91" s="11">
+      <c r="Y92" s="11">
         <v>10800</v>
       </c>
-      <c r="Z91" s="11">
+      <c r="Z92" s="11">
         <v>12</v>
       </c>
-      <c r="AA91" s="11">
+      <c r="AA92" s="11">
         <v>786</v>
       </c>
     </row>
-    <row r="92" spans="2:27" hidden="1">
-      <c r="B92" s="13">
+    <row r="93" spans="2:27" hidden="1">
+      <c r="B93" s="13">
         <v>2018</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D93" s="14">
         <v>472271</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E93" s="14">
         <v>463807</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F93" s="14">
         <v>455</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G93" s="14">
         <v>46120</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H93" s="14">
         <v>6441</v>
       </c>
-      <c r="I92" s="14">
+      <c r="I93" s="14">
         <v>2324</v>
       </c>
-      <c r="J92" s="14">
+      <c r="J93" s="14">
         <v>77</v>
       </c>
-      <c r="K92" s="14">
+      <c r="K93" s="14">
         <v>237</v>
       </c>
-      <c r="L92" s="14">
+      <c r="L93" s="14">
         <v>2458</v>
       </c>
-      <c r="M92" s="14">
+      <c r="M93" s="14">
         <v>35484</v>
       </c>
-      <c r="N92" s="14">
+      <c r="N93" s="14">
         <v>3859</v>
       </c>
-      <c r="O92" s="14">
+      <c r="O93" s="14">
         <v>24075</v>
       </c>
-      <c r="P92" s="14">
+      <c r="P93" s="14">
         <v>14872</v>
       </c>
-      <c r="Q92" s="14">
+      <c r="Q93" s="14">
         <v>33210</v>
       </c>
-      <c r="R92" s="14">
+      <c r="R93" s="14">
         <v>2154</v>
       </c>
-      <c r="S92" s="14">
+      <c r="S93" s="14">
         <v>27204</v>
       </c>
-      <c r="T92" s="14">
+      <c r="T93" s="14">
         <v>1</v>
       </c>
-      <c r="U92" s="14">
+      <c r="U93" s="14">
         <v>86985</v>
       </c>
-      <c r="V92" s="14">
+      <c r="V93" s="14">
         <v>3231</v>
       </c>
-      <c r="W92" s="14">
+      <c r="W93" s="14">
         <v>2040</v>
       </c>
-      <c r="X92" s="14">
+      <c r="X93" s="14">
         <v>294</v>
       </c>
-      <c r="Y92" s="14">
+      <c r="Y93" s="14">
         <v>10741</v>
       </c>
-      <c r="Z92" s="14">
+      <c r="Z93" s="14">
         <v>12</v>
       </c>
-      <c r="AA92" s="14">
+      <c r="AA93" s="14">
         <v>784</v>
       </c>
     </row>
-    <row r="93" spans="2:27" hidden="1">
-      <c r="B93" s="10">
+    <row r="94" spans="2:27" hidden="1">
+      <c r="B94" s="10">
         <v>2018</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D94" s="11">
         <v>469020</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E94" s="11">
         <v>460731</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F94" s="11">
         <v>454</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G94" s="11">
         <v>45917</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H94" s="11">
         <v>6371</v>
       </c>
-      <c r="I93" s="11">
+      <c r="I94" s="11">
         <v>2319</v>
       </c>
-      <c r="J93" s="11">
+      <c r="J94" s="11">
         <v>77</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K94" s="11">
         <v>237</v>
       </c>
-      <c r="L93" s="11">
+      <c r="L94" s="11">
         <v>2444</v>
       </c>
-      <c r="M93" s="11">
+      <c r="M94" s="11">
         <v>35184</v>
       </c>
-      <c r="N93" s="11">
+      <c r="N94" s="11">
         <v>3843</v>
       </c>
-      <c r="O93" s="11">
+      <c r="O94" s="11">
         <v>23647</v>
       </c>
-      <c r="P93" s="11">
+      <c r="P94" s="11">
         <v>14554</v>
       </c>
-      <c r="Q93" s="11">
+      <c r="Q94" s="11">
         <v>33107</v>
       </c>
-      <c r="R93" s="11">
+      <c r="R94" s="11">
         <v>2146</v>
       </c>
-      <c r="S93" s="11">
+      <c r="S94" s="11">
         <v>26742</v>
       </c>
-      <c r="T93" s="11">
+      <c r="T94" s="11">
         <v>1</v>
       </c>
-      <c r="U93" s="11">
+      <c r="U94" s="11">
         <v>86342</v>
       </c>
-      <c r="V93" s="11">
+      <c r="V94" s="11">
         <v>3169</v>
       </c>
-      <c r="W93" s="11">
+      <c r="W94" s="11">
         <v>2018</v>
       </c>
-      <c r="X93" s="11">
+      <c r="X94" s="11">
         <v>288</v>
       </c>
-      <c r="Y93" s="11">
+      <c r="Y94" s="11">
         <v>10741</v>
       </c>
-      <c r="Z93" s="11">
+      <c r="Z94" s="11">
         <v>12</v>
       </c>
-      <c r="AA93" s="11">
+      <c r="AA94" s="11">
         <v>781</v>
       </c>
     </row>
-    <row r="94" spans="2:27" hidden="1">
-      <c r="B94" s="13">
+    <row r="95" spans="2:27" hidden="1">
+      <c r="B95" s="13">
         <v>2018</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D95" s="14">
         <v>466319</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E95" s="14">
         <v>457242</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F95" s="14">
         <v>451</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G95" s="14">
         <v>45640</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H95" s="14">
         <v>6287</v>
       </c>
-      <c r="I94" s="14">
+      <c r="I95" s="14">
         <v>2262</v>
       </c>
-      <c r="J94" s="14">
+      <c r="J95" s="14">
         <v>77</v>
       </c>
-      <c r="K94" s="14">
+      <c r="K95" s="14">
         <v>237</v>
       </c>
-      <c r="L94" s="14">
+      <c r="L95" s="14">
         <v>2424</v>
       </c>
-      <c r="M94" s="14">
+      <c r="M95" s="14">
         <v>34703</v>
       </c>
-      <c r="N94" s="14">
+      <c r="N95" s="14">
         <v>3824</v>
       </c>
-      <c r="O94" s="14">
+      <c r="O95" s="14">
         <v>23309</v>
       </c>
-      <c r="P94" s="14">
+      <c r="P95" s="14">
         <v>14393</v>
       </c>
-      <c r="Q94" s="14">
+      <c r="Q95" s="14">
         <v>32986</v>
       </c>
-      <c r="R94" s="14">
+      <c r="R95" s="14">
         <v>2120</v>
       </c>
-      <c r="S94" s="14">
+      <c r="S95" s="14">
         <v>26331</v>
       </c>
-      <c r="T94" s="14">
+      <c r="T95" s="14">
         <v>1</v>
       </c>
-      <c r="U94" s="14">
+      <c r="U95" s="14">
         <v>85658</v>
       </c>
-      <c r="V94" s="14">
+      <c r="V95" s="14">
         <v>3120</v>
       </c>
-      <c r="W94" s="14">
+      <c r="W95" s="14">
         <v>1980</v>
       </c>
-      <c r="X94" s="14">
+      <c r="X95" s="14">
         <v>285</v>
       </c>
-      <c r="Y94" s="14">
+      <c r="Y95" s="14">
         <v>10688</v>
       </c>
-      <c r="Z94" s="14">
+      <c r="Z95" s="14">
         <v>12</v>
       </c>
-      <c r="AA94" s="14">
+      <c r="AA95" s="14">
         <v>779</v>
       </c>
     </row>
-    <row r="95" spans="2:27" hidden="1">
-      <c r="B95" s="18">
+    <row r="96" spans="2:27" hidden="1">
+      <c r="B96" s="18">
         <v>2018</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C96" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D96" s="19">
         <v>464622</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E96" s="19">
         <v>455453</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F96" s="19">
         <v>451</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G96" s="19">
         <v>45676</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H96" s="19">
         <v>6259</v>
       </c>
-      <c r="I95" s="19">
+      <c r="I96" s="19">
         <v>2255</v>
       </c>
-      <c r="J95" s="19">
+      <c r="J96" s="19">
         <v>77</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K96" s="19">
         <v>237</v>
       </c>
-      <c r="L95" s="19">
+      <c r="L96" s="19">
         <v>2406</v>
       </c>
-      <c r="M95" s="19">
+      <c r="M96" s="19">
         <v>34385</v>
       </c>
-      <c r="N95" s="19">
+      <c r="N96" s="19">
         <v>3836</v>
       </c>
-      <c r="O95" s="19">
+      <c r="O96" s="19">
         <v>23129</v>
       </c>
-      <c r="P95" s="19">
+      <c r="P96" s="19">
         <v>14404</v>
       </c>
-      <c r="Q95" s="19">
+      <c r="Q96" s="19">
         <v>32894</v>
       </c>
-      <c r="R95" s="19">
+      <c r="R96" s="19">
         <v>2092</v>
       </c>
-      <c r="S95" s="19">
+      <c r="S96" s="19">
         <v>26133</v>
       </c>
-      <c r="T95" s="19">
+      <c r="T96" s="19">
         <v>1</v>
       </c>
-      <c r="U95" s="19">
+      <c r="U96" s="19">
         <v>84912</v>
       </c>
-      <c r="V95" s="19">
+      <c r="V96" s="19">
         <v>3077</v>
       </c>
-      <c r="W95" s="19">
+      <c r="W96" s="19">
         <v>1949</v>
       </c>
-      <c r="X95" s="19">
+      <c r="X96" s="19">
         <v>278</v>
       </c>
-      <c r="Y95" s="19">
+      <c r="Y96" s="19">
         <v>10682</v>
       </c>
-      <c r="Z95" s="19">
+      <c r="Z96" s="19">
         <v>12</v>
       </c>
-      <c r="AA95" s="19">
+      <c r="AA96" s="19">
         <v>782</v>
       </c>
-    </row>
-    <row r="96" spans="2:27">
-      <c r="B96" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA96" s="21"/>
     </row>
     <row r="97" spans="2:27">
       <c r="B97" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA97" s="21"/>
+    </row>
+    <row r="98" spans="2:27">
+      <c r="B98" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA97" s="21"/>
+      <c r="AA98" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Parque_Vehicular_AF.xlsx
+++ b/Parque_Vehicular_AF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDABC85A-EB51-4FFC-8CC3-68584C543AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709B0B6-C680-4DFA-90F1-3DFF0A7E4E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
   <si>
     <t>Carga</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -923,8 +923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA96" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
-  <autoFilter ref="B5:AA96" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}" name="Tabla1" displayName="Tabla1" ref="B5:AA97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="B5:AA97" xr:uid="{AA98FC95-732D-4F71-A511-1CADCC839D68}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1186,9 +1186,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA98"/>
+  <dimension ref="B2:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1358,7176 +1358,7254 @@
       </c>
     </row>
     <row r="6" spans="2:27">
-      <c r="B6" s="9">
+      <c r="B6" s="13">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="14">
+        <v>747443</v>
+      </c>
+      <c r="E6" s="14">
+        <v>738131</v>
+      </c>
+      <c r="F6" s="14">
+        <v>702</v>
+      </c>
+      <c r="G6" s="14">
+        <v>57746</v>
+      </c>
+      <c r="H6" s="14">
+        <v>10830</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3783</v>
+      </c>
+      <c r="J6" s="14">
+        <v>78</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1424</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2916</v>
+      </c>
+      <c r="M6" s="14">
+        <v>65141</v>
+      </c>
+      <c r="N6" s="14">
+        <v>4007</v>
+      </c>
+      <c r="O6" s="14">
+        <v>44068</v>
+      </c>
+      <c r="P6" s="14">
+        <v>31043</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>44984</v>
+      </c>
+      <c r="R6" s="14">
+        <v>2769</v>
+      </c>
+      <c r="S6" s="14">
+        <v>55617</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14">
+        <v>134946</v>
+      </c>
+      <c r="V6" s="14">
+        <v>6711</v>
+      </c>
+      <c r="W6" s="14">
+        <v>6710</v>
+      </c>
+      <c r="X6" s="14">
+        <v>2343</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>13130</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>744719</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>735160</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>697</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>57687</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H7" s="11">
         <v>10797</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I7" s="11">
         <v>3774</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J7" s="11">
         <v>78</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K7" s="11">
         <v>1424</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L7" s="11">
         <v>2911</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M7" s="11">
         <v>65023</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N7" s="11">
         <v>3992</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O7" s="11">
         <v>43806</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P7" s="11">
         <v>31043</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q7" s="11">
         <v>44839</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R7" s="11">
         <v>2761</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S7" s="11">
         <v>55585</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11">
         <v>134670</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V7" s="11">
         <v>6666</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W7" s="11">
         <v>6663</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X7" s="11">
         <v>2313</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y7" s="11">
         <v>13088</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z7" s="11">
         <v>14</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA7" s="12">
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="13">
+    <row r="8" spans="2:27">
+      <c r="B8" s="13">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <v>744628</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E8" s="14">
         <v>732634</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="14">
         <v>691</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="14">
         <v>57797</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="14">
         <v>10778</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>3770</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="14">
         <v>78</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K8" s="14">
         <v>1424</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L8" s="14">
         <v>2906</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M8" s="14">
         <v>64731</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N8" s="14">
         <v>3976</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O8" s="14">
         <v>43507</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P8" s="14">
         <v>31315</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q8" s="14">
         <v>44950</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R8" s="14">
         <v>2752</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S8" s="14">
         <v>55819</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14">
         <v>135304</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V8" s="14">
         <v>6644</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W8" s="14">
         <v>6652</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X8" s="14">
         <v>2306</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y8" s="14">
         <v>13046</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z8" s="14">
         <v>14</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA8" s="14">
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="9">
+    <row r="9" spans="2:27">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>738785</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>728411</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>673</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>57768</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="11">
         <v>10778</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I9" s="11">
         <v>3743</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J9" s="11">
         <v>78</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K9" s="11">
         <v>1424</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L9" s="11">
         <v>2900</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M9" s="11">
         <v>64552</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N9" s="11">
         <v>3977</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O9" s="11">
         <v>43227</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P9" s="11">
         <v>31168</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q9" s="11">
         <v>44638</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R9" s="11">
         <v>2726</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S9" s="11">
         <v>55471</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11">
+      <c r="T9" s="11"/>
+      <c r="U9" s="11">
         <v>133642</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V9" s="11">
         <v>6613</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W9" s="11">
         <v>6631</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X9" s="11">
         <v>2290</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y9" s="11">
         <v>12971</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z9" s="11">
         <v>14</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA9" s="12">
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="13">
+    <row r="10" spans="2:27">
+      <c r="B10" s="13">
         <v>2025</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <v>736441</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="14">
         <v>725074</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="14">
         <v>675</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="14">
         <v>57912</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="14">
         <v>10700</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>3738</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="14">
         <v>78</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K10" s="14">
         <v>1424</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L10" s="14">
         <v>2876</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M10" s="14">
         <v>64444</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N10" s="14">
         <v>3963</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O10" s="14">
         <v>42996</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P10" s="14">
         <v>31071</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q10" s="14">
         <v>44453</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R10" s="14">
         <v>2723</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S10" s="14">
         <v>55345</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14">
         <v>133140</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V10" s="14">
         <v>6592</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W10" s="14">
         <v>6584</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X10" s="14">
         <v>2284</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y10" s="14">
         <v>12903</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z10" s="14">
         <v>14</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA10" s="14">
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="9">
+    <row r="11" spans="2:27">
+      <c r="B11" s="9">
         <v>2025</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>732842</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>721468</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>667</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>57847</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="11">
         <v>10668</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I11" s="11">
         <v>3721</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J11" s="11">
         <v>78</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="11">
         <v>1424</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L11" s="11">
         <v>2856</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M11" s="11">
         <v>64131</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N11" s="11">
         <v>3963</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O11" s="11">
         <v>42777</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P11" s="11">
         <v>31166</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q11" s="11">
         <v>44303</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R11" s="11">
         <v>2708</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S11" s="11">
         <v>55322</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11">
         <v>133084</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V11" s="11">
         <v>6579</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W11" s="11">
         <v>6562</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X11" s="11">
         <v>2285</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y11" s="11">
         <v>12870</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z11" s="11">
         <v>15</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA11" s="12">
         <v>733</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="13">
+    <row r="12" spans="2:27">
+      <c r="B12" s="13">
         <v>2025</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <v>729319</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="14">
         <v>718257</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F12" s="14">
         <v>663</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="14">
         <v>57759</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="14">
         <v>10612</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="14">
         <v>3697</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="14">
         <v>78</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="14">
         <v>1424</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L12" s="14">
         <v>2840</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M12" s="14">
         <v>63974</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N12" s="14">
         <v>3956</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O12" s="14">
         <v>42526</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P12" s="14">
         <v>30916</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q12" s="14">
         <v>44105</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R12" s="14">
         <v>2709</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S12" s="14">
         <v>55235</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
+      <c r="T12" s="14"/>
+      <c r="U12" s="14">
         <v>132317</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V12" s="14">
         <v>6550</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W12" s="14">
         <v>6513</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X12" s="14">
         <v>2270</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y12" s="14">
         <v>12792</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z12" s="14">
         <v>15</v>
       </c>
-      <c r="AA11" s="14">
+      <c r="AA12" s="14">
         <v>731</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="17">
+    <row r="13" spans="2:27">
+      <c r="B13" s="17">
         <v>2025</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="19">
         <v>726109</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E13" s="19">
         <v>714727</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F13" s="19">
         <v>656</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G13" s="19">
         <v>57695</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H13" s="19">
         <v>10586</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I13" s="19">
         <v>3675</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J13" s="19">
         <v>78</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K13" s="19">
         <v>1424</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L13" s="19">
         <v>2835</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M13" s="19">
         <v>63834</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N13" s="19">
         <v>3964</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O13" s="19">
         <v>42332</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P13" s="19">
         <v>30802</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q13" s="19">
         <v>44075</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R13" s="19">
         <v>2701</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S13" s="19">
         <v>55096</v>
       </c>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19">
+      <c r="T13" s="19"/>
+      <c r="U13" s="19">
         <v>131751</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V13" s="19">
         <v>6534</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W13" s="19">
         <v>6466</v>
       </c>
-      <c r="X12" s="19">
+      <c r="X13" s="19">
         <v>2244</v>
       </c>
-      <c r="Y12" s="19">
+      <c r="Y13" s="19">
         <v>12757</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z13" s="19">
         <v>15</v>
       </c>
-      <c r="AA12" s="20">
+      <c r="AA13" s="20">
         <v>730</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="13">
+    <row r="14" spans="2:27">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>723462</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="14">
         <v>711776</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F14" s="14">
         <v>646</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="14">
         <v>57703</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H14" s="14">
         <v>10583</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="14">
         <v>3665</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="14">
         <v>78</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K14" s="14">
         <v>1424</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L14" s="14">
         <v>2822</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M14" s="14">
         <v>63686</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N14" s="14">
         <v>3961</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O14" s="14">
         <v>42142</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P14" s="14">
         <v>30781</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q14" s="14">
         <v>44100</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R14" s="14">
         <v>2703</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S14" s="14">
         <v>55043</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14">
+      <c r="T14" s="14"/>
+      <c r="U14" s="14">
         <v>131335</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V14" s="14">
         <v>6513</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W14" s="14">
         <v>6439</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X14" s="14">
         <v>2237</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y14" s="14">
         <v>12704</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z14" s="14">
         <v>15</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA14" s="14">
         <v>730</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="9">
+    <row r="15" spans="2:27">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>719185</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>708450</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>630</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>57548</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <v>10520</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I15" s="11">
         <v>3634</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J15" s="11">
         <v>78</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="11">
         <v>1424</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="11">
         <v>2786</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M15" s="11">
         <v>63307</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N15" s="11">
         <v>3939</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O15" s="11">
         <v>41751</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P15" s="11">
         <v>30659</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q15" s="11">
         <v>43660</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R15" s="11">
         <v>2692</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S15" s="11">
         <v>54807</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11">
+      <c r="T15" s="11"/>
+      <c r="U15" s="11">
         <v>130783</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V15" s="11">
         <v>6476</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W15" s="11">
         <v>6362</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X15" s="11">
         <v>2229</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y15" s="11">
         <v>12572</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z15" s="11">
         <v>15</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA15" s="12">
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="13">
+    <row r="16" spans="2:27">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>714747</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="14">
         <v>704375</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="14">
         <v>622</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="14">
         <v>57602</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="14">
         <v>10485</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>3617</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J16" s="14">
         <v>78</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K16" s="14">
         <v>1424</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L16" s="14">
         <v>2767</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M16" s="14">
         <v>63040</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N16" s="14">
         <v>3930</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O16" s="14">
         <v>41410</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P16" s="14">
         <v>30328</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q16" s="14">
         <v>43596</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R16" s="14">
         <v>2697</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S16" s="14">
         <v>54722</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14">
+      <c r="T16" s="14"/>
+      <c r="U16" s="14">
         <v>130250</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V16" s="14">
         <v>6446</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W16" s="14">
         <v>6199</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X16" s="14">
         <v>2214</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y16" s="14">
         <v>12449</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="Z16" s="14">
         <v>15</v>
       </c>
-      <c r="AA15" s="14">
+      <c r="AA16" s="14">
         <v>727</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="9">
+    <row r="17" spans="2:27">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>709391</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>699945</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>611</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>57472</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <v>10407</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I17" s="11">
         <v>3578</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J17" s="11">
         <v>78</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="11">
         <v>1424</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L17" s="11">
         <v>2740</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M17" s="11">
         <v>62737</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N17" s="11">
         <v>3931</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O17" s="11">
         <v>41077</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P17" s="11">
         <v>23934</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q17" s="11">
         <v>43117</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R17" s="11">
         <v>2694</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S17" s="11">
         <v>54701</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11">
+      <c r="T17" s="11"/>
+      <c r="U17" s="11">
         <v>129830</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V17" s="11">
         <v>6417</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W17" s="11">
         <v>6046</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X17" s="11">
         <v>2192</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y17" s="11">
         <v>12349</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z17" s="11">
         <v>15</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA17" s="12">
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
-      <c r="B17" s="15">
+    <row r="18" spans="2:27">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>704941</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="14">
         <v>696064</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="14">
         <v>608</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="14">
         <v>57429</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="14">
         <v>10315</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>3562</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="14">
         <v>78</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="14">
         <v>1424</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L18" s="14">
         <v>2725</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M18" s="14">
         <v>62582</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N18" s="14">
         <v>3959</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O18" s="14">
         <v>40692</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P18" s="14">
         <v>23711</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q18" s="14">
         <v>42607</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R18" s="14">
         <v>2706</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S18" s="14">
         <v>54463</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14">
+      <c r="T18" s="14"/>
+      <c r="U18" s="14">
         <v>129480</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V18" s="14">
         <v>6405</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W18" s="14">
         <v>5956</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X18" s="14">
         <v>2159</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y18" s="14">
         <v>12295</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z18" s="14">
         <v>15</v>
       </c>
-      <c r="AA17" s="16">
+      <c r="AA18" s="16">
         <v>726</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
-      <c r="B18" s="9">
+    <row r="19" spans="2:27">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>700064</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>691573</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>594</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>57394</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="11">
         <v>10310</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I19" s="11">
         <v>3516</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J19" s="11">
         <v>78</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K19" s="11">
         <v>1424</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L19" s="11">
         <v>2697</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M19" s="11">
         <v>62263</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N19" s="11">
         <v>3963</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O19" s="11">
         <v>40451</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P19" s="11">
         <v>22543</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q19" s="11">
         <v>42013</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R19" s="11">
         <v>2714</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S19" s="11">
         <v>54287</v>
       </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11">
+      <c r="T19" s="11"/>
+      <c r="U19" s="11">
         <v>129145</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V19" s="11">
         <v>6391</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W19" s="11">
         <v>5917</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X19" s="11">
         <v>2148</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y19" s="11">
         <v>12231</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z19" s="11">
         <v>15</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="AA19" s="12">
         <v>724</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
-      <c r="B19" s="15">
+    <row r="20" spans="2:27">
+      <c r="B20" s="15">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <v>694997</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E20" s="14">
         <v>686081</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F20" s="14">
         <v>592</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="14">
         <v>57318</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H20" s="14">
         <v>10276</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I20" s="14">
         <v>3508</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J20" s="14">
         <v>78</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K20" s="14">
         <v>1424</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L20" s="14">
         <v>2665</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M20" s="14">
         <v>61927</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N20" s="14">
         <v>3963</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O20" s="14">
         <v>40050</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P20" s="14">
         <v>22350</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q20" s="14">
         <v>41750</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R20" s="14">
         <v>2698</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S20" s="14">
         <v>54175</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14">
+      <c r="T20" s="14"/>
+      <c r="U20" s="14">
         <v>128557</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V20" s="14">
         <v>6363</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W20" s="14">
         <v>5857</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X20" s="14">
         <v>2129</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="Y20" s="14">
         <v>12153</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="Z20" s="14">
         <v>15</v>
       </c>
-      <c r="AA19" s="16">
+      <c r="AA20" s="16">
         <v>724</v>
       </c>
     </row>
-    <row r="20" spans="2:27">
-      <c r="B20" s="9">
+    <row r="21" spans="2:27">
+      <c r="B21" s="9">
         <v>2024</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>686433</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>677060</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>583</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>57014</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <v>10191</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="11">
         <v>3490</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J21" s="11">
         <v>78</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="11">
         <v>1424</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L21" s="11">
         <v>2598</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M21" s="11">
         <v>61659</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N21" s="11">
         <v>3952</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O21" s="11">
         <v>39763</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P21" s="11">
         <v>22332</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q21" s="11">
         <v>41599</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R21" s="11">
         <v>2694</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S21" s="11">
         <v>54118</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11">
+      <c r="T21" s="11"/>
+      <c r="U21" s="11">
         <v>128107</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V21" s="11">
         <v>6329</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W21" s="11">
         <v>5765</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X21" s="11">
         <v>2112</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y21" s="11">
         <v>12080</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z21" s="11">
         <v>15</v>
       </c>
-      <c r="AA20" s="12">
+      <c r="AA21" s="12">
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
-      <c r="B21" s="15">
+    <row r="22" spans="2:27">
+      <c r="B22" s="15">
         <v>2024</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <v>685435</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>676046</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F22" s="14">
         <v>565</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="14">
         <v>56830</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="14">
         <v>10138</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>3511</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="14">
         <v>78</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="14">
         <v>1424</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L22" s="14">
         <v>2558</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M22" s="14">
         <v>61296</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N22" s="14">
         <v>3933</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O22" s="14">
         <v>39350</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P22" s="14">
         <v>23307</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q22" s="14">
         <v>41742</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R22" s="14">
         <v>2677</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S22" s="14">
         <v>53782</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14">
+      <c r="T22" s="14"/>
+      <c r="U22" s="14">
         <v>127521</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V22" s="14">
         <v>6305</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W22" s="14">
         <v>5651</v>
       </c>
-      <c r="X21" s="14">
+      <c r="X22" s="14">
         <v>2085</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="Y22" s="14">
         <v>12043</v>
       </c>
-      <c r="Z21" s="14">
+      <c r="Z22" s="14">
         <v>15</v>
       </c>
-      <c r="AA21" s="16">
+      <c r="AA22" s="16">
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
-      <c r="B22" s="9">
+    <row r="23" spans="2:27">
+      <c r="B23" s="9">
         <v>2024</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>681551</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>671878</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>559</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>56791</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="11">
         <v>10077</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="11">
         <v>3472</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J23" s="11">
         <v>78</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K23" s="11">
         <v>1424</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L23" s="11">
         <v>2515</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M23" s="11">
         <v>60940</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N23" s="11">
         <v>3927</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O23" s="11">
         <v>38916</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P23" s="11">
         <v>23100</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q23" s="11">
         <v>41499</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R23" s="11">
         <v>2662</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S23" s="11">
         <v>53501</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11">
+      <c r="T23" s="11"/>
+      <c r="U23" s="11">
         <v>127002</v>
       </c>
-      <c r="V22" s="11">
+      <c r="V23" s="11">
         <v>6283</v>
       </c>
-      <c r="W22" s="11">
+      <c r="W23" s="11">
         <v>5537</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X23" s="11">
         <v>2066</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="Y23" s="11">
         <v>12002</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z23" s="11">
         <v>15</v>
       </c>
-      <c r="AA22" s="12">
+      <c r="AA23" s="12">
         <v>716</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
-      <c r="B23" s="15">
+    <row r="24" spans="2:27">
+      <c r="B24" s="15">
         <v>2024</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <v>677153</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E24" s="14">
         <v>667343</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F24" s="14">
         <v>559</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="14">
         <v>56789</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H24" s="14">
         <v>10062</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="14">
         <v>3444</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J24" s="14">
         <v>78</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K24" s="14">
         <v>1424</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L24" s="14">
         <v>2486</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M24" s="14">
         <v>60780</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N24" s="14">
         <v>3929</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O24" s="14">
         <v>38626</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P24" s="14">
         <v>22931</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q24" s="14">
         <v>41445</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R24" s="14">
         <v>2656</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S24" s="14">
         <v>53234</v>
       </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14">
+      <c r="T24" s="14"/>
+      <c r="U24" s="14">
         <v>126653</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V24" s="14">
         <v>6260</v>
       </c>
-      <c r="W23" s="14">
+      <c r="W24" s="14">
         <v>5487</v>
       </c>
-      <c r="X23" s="14">
+      <c r="X24" s="14">
         <v>2055</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="Y24" s="14">
         <v>11945</v>
       </c>
-      <c r="Z23" s="14">
+      <c r="Z24" s="14">
         <v>15</v>
       </c>
-      <c r="AA23" s="16">
+      <c r="AA24" s="16">
         <v>718</v>
       </c>
     </row>
-    <row r="24" spans="2:27">
-      <c r="B24" s="17">
+    <row r="25" spans="2:27">
+      <c r="B25" s="17">
         <v>2024</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D25" s="19">
         <v>673757</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E25" s="19">
         <v>663646</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F25" s="19">
         <v>558</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G25" s="19">
         <v>56703</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H25" s="19">
         <v>10044</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I25" s="19">
         <v>3392</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J25" s="19">
         <v>78</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K25" s="19">
         <v>1424</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L25" s="19">
         <v>2444</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M25" s="19">
         <v>60551</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N25" s="19">
         <v>3920</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O25" s="19">
         <v>38302</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P25" s="19">
         <v>22717</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q25" s="19">
         <v>41276</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R25" s="19">
         <v>2661</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S25" s="19">
         <v>53153</v>
       </c>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19">
+      <c r="T25" s="19"/>
+      <c r="U25" s="19">
         <v>125984</v>
       </c>
-      <c r="V24" s="19">
+      <c r="V25" s="19">
         <v>6237</v>
       </c>
-      <c r="W24" s="19">
+      <c r="W25" s="19">
         <v>5478</v>
       </c>
-      <c r="X24" s="19">
+      <c r="X25" s="19">
         <v>2017</v>
       </c>
-      <c r="Y24" s="19">
+      <c r="Y25" s="19">
         <v>11916</v>
       </c>
-      <c r="Z24" s="19">
+      <c r="Z25" s="19">
         <v>15</v>
       </c>
-      <c r="AA24" s="20">
+      <c r="AA25" s="20">
         <v>717</v>
       </c>
     </row>
-    <row r="25" spans="2:27" hidden="1">
-      <c r="B25" s="13">
+    <row r="26" spans="2:27" hidden="1">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <v>671002</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>660365</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F26" s="14">
         <v>554</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="14">
         <v>56667</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <v>10017</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>3376</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="14">
         <v>78</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K26" s="14">
         <v>1424</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L26" s="14">
         <v>2414</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M26" s="14">
         <v>60296</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N26" s="14">
         <v>3916</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O26" s="14">
         <v>38063</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P26" s="14">
         <v>22721</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q26" s="14">
         <v>40963</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R26" s="14">
         <v>2664</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S26" s="14">
         <v>53074</v>
       </c>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14">
+      <c r="T26" s="14"/>
+      <c r="U26" s="14">
         <v>125341</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V26" s="14">
         <v>6227</v>
       </c>
-      <c r="W25" s="14">
+      <c r="W26" s="14">
         <v>5448</v>
       </c>
-      <c r="X25" s="14">
+      <c r="X26" s="14">
         <v>2008</v>
       </c>
-      <c r="Y25" s="14">
+      <c r="Y26" s="14">
         <v>11874</v>
       </c>
-      <c r="Z25" s="14">
+      <c r="Z26" s="14">
         <v>15</v>
       </c>
-      <c r="AA25" s="14">
+      <c r="AA26" s="14">
         <v>716</v>
       </c>
     </row>
-    <row r="26" spans="2:27" hidden="1">
-      <c r="B26" s="10">
+    <row r="27" spans="2:27" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>667021</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>657017</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>553</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>56501</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <v>10008</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="11">
         <v>3368</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <v>78</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <v>1424</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L27" s="11">
         <v>2373</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M27" s="11">
         <v>59864</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N27" s="11">
         <v>3939</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O27" s="11">
         <v>37756</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P27" s="11">
         <v>22668</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q27" s="11">
         <v>40739</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R27" s="11">
         <v>2663</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S27" s="11">
         <v>52920</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11">
         <v>124918</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V27" s="11">
         <v>6223</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W27" s="11">
         <v>5332</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X27" s="11">
         <v>1985</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Y27" s="11">
         <v>11762</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z27" s="11">
         <v>15</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AA27" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="27" spans="2:27" hidden="1">
-      <c r="B27" s="13">
+    <row r="28" spans="2:27" hidden="1">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <v>662911</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="14">
         <v>653227</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F28" s="14">
         <v>551</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="14">
         <v>56354</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <v>9936</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>3354</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="14">
         <v>78</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K28" s="14">
         <v>1424</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L28" s="14">
         <v>2325</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M28" s="14">
         <v>59524</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N28" s="14">
         <v>3949</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O28" s="14">
         <v>37449</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P28" s="14">
         <v>22518</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q28" s="14">
         <v>40540</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R28" s="14">
         <v>2659</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S28" s="14">
         <v>52779</v>
       </c>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14">
+      <c r="T28" s="14"/>
+      <c r="U28" s="14">
         <v>124007</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V28" s="14">
         <v>6157</v>
       </c>
-      <c r="W27" s="14">
+      <c r="W28" s="14">
         <v>5337</v>
       </c>
-      <c r="X27" s="14">
+      <c r="X28" s="14">
         <v>1958</v>
       </c>
-      <c r="Y27" s="14">
+      <c r="Y28" s="14">
         <v>11701</v>
       </c>
-      <c r="Z27" s="14">
+      <c r="Z28" s="14">
         <v>15</v>
       </c>
-      <c r="AA27" s="14">
+      <c r="AA28" s="14">
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="2:27" hidden="1">
-      <c r="B28" s="10">
+    <row r="29" spans="2:27" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>659020</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>649665</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>551</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>56273</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <v>9895</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="11">
         <v>3359</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="11">
         <v>78</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <v>1424</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="11">
         <v>2288</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M29" s="11">
         <v>59153</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N29" s="11">
         <v>3952</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O29" s="11">
         <v>37177</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P29" s="11">
         <v>22508</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q29" s="11">
         <v>40324</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R29" s="11">
         <v>2654</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S29" s="11">
         <v>52458</v>
       </c>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11">
+      <c r="T29" s="11"/>
+      <c r="U29" s="11">
         <v>123192</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V29" s="11">
         <v>6122</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W29" s="11">
         <v>5256</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X29" s="11">
         <v>1931</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y29" s="11">
         <v>11636</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z29" s="11">
         <v>15</v>
       </c>
-      <c r="AA28" s="11">
+      <c r="AA29" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="29" spans="2:27" hidden="1">
-      <c r="B29" s="13">
+    <row r="30" spans="2:27" hidden="1">
+      <c r="B30" s="13">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>655458</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>645999</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F30" s="14">
         <v>546</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="14">
         <v>56186</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <v>9835</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="14">
         <v>3310</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="14">
         <v>78</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K30" s="14">
         <v>1425</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L30" s="14">
         <v>2252</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M30" s="14">
         <v>58938</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N30" s="14">
         <v>3928</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O30" s="14">
         <v>36812</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P30" s="14">
         <v>22401</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q30" s="14">
         <v>40001</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R30" s="14">
         <v>2655</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S30" s="14">
         <v>52187</v>
       </c>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14">
+      <c r="T30" s="14"/>
+      <c r="U30" s="14">
         <v>122442</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V30" s="14">
         <v>6046</v>
       </c>
-      <c r="W29" s="14">
+      <c r="W30" s="14">
         <v>5239</v>
       </c>
-      <c r="X29" s="14">
+      <c r="X30" s="14">
         <v>1910</v>
       </c>
-      <c r="Y29" s="14">
+      <c r="Y30" s="14">
         <v>11600</v>
       </c>
-      <c r="Z29" s="14">
+      <c r="Z30" s="14">
         <v>15</v>
       </c>
-      <c r="AA29" s="14">
+      <c r="AA30" s="14">
         <v>719</v>
       </c>
     </row>
-    <row r="30" spans="2:27" hidden="1">
-      <c r="B30" s="10">
+    <row r="31" spans="2:27" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>651761</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>641907</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>541</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>56170</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H31" s="11">
         <v>9810</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I31" s="11">
         <v>3301</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J31" s="11">
         <v>78</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K31" s="11">
         <v>1424</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L31" s="11">
         <v>2219</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M31" s="11">
         <v>58734</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N31" s="11">
         <v>3934</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O31" s="11">
         <v>36467</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P31" s="11">
         <v>22206</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q31" s="11">
         <v>39383</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R31" s="11">
         <v>2640</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S31" s="11">
         <v>51887</v>
       </c>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11">
+      <c r="T31" s="11"/>
+      <c r="U31" s="11">
         <v>121511</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V31" s="11">
         <v>5992</v>
       </c>
-      <c r="W30" s="11">
+      <c r="W31" s="11">
         <v>5150</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X31" s="11">
         <v>1888</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="Y31" s="11">
         <v>11575</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="Z31" s="11">
         <v>15</v>
       </c>
-      <c r="AA30" s="11">
+      <c r="AA31" s="11">
         <v>716</v>
       </c>
     </row>
-    <row r="31" spans="2:27" hidden="1">
-      <c r="B31" s="13">
+    <row r="32" spans="2:27" hidden="1">
+      <c r="B32" s="13">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <v>647906</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="14">
         <v>637598</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F32" s="14">
         <v>538</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="14">
         <v>56139</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="14">
         <v>9752</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I32" s="14">
         <v>3280</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J32" s="14">
         <v>78</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K32" s="14">
         <v>1424</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L32" s="14">
         <v>2179</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M32" s="14">
         <v>58481</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N32" s="14">
         <v>3945</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O32" s="14">
         <v>36238</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P32" s="14">
         <v>21962</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q32" s="14">
         <v>38923</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R32" s="14">
         <v>2634</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S32" s="14">
         <v>51526</v>
       </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14">
+      <c r="T32" s="14"/>
+      <c r="U32" s="14">
         <v>120827</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V32" s="14">
         <v>5957</v>
       </c>
-      <c r="W31" s="14">
+      <c r="W32" s="14">
         <v>5099</v>
       </c>
-      <c r="X31" s="14">
+      <c r="X32" s="14">
         <v>1866</v>
       </c>
-      <c r="Y31" s="14">
+      <c r="Y32" s="14">
         <v>11503</v>
       </c>
-      <c r="Z31" s="14">
+      <c r="Z32" s="14">
         <v>15</v>
       </c>
-      <c r="AA31" s="14">
+      <c r="AA32" s="14">
         <v>715</v>
       </c>
     </row>
-    <row r="32" spans="2:27" hidden="1">
-      <c r="B32" s="10">
+    <row r="33" spans="2:27" hidden="1">
+      <c r="B33" s="10">
         <v>2023</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>645139</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>634226</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>537</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="11">
         <v>55988</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H33" s="11">
         <v>9716</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I33" s="11">
         <v>3277</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J33" s="11">
         <v>78</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K33" s="11">
         <v>1424</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L33" s="11">
         <v>2130</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M33" s="11">
         <v>58224</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N33" s="11">
         <v>3934</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O33" s="11">
         <v>35910</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P33" s="11">
         <v>21848</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q33" s="11">
         <v>38619</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R33" s="11">
         <v>2634</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S33" s="11">
         <v>51228</v>
       </c>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11">
+      <c r="T33" s="11"/>
+      <c r="U33" s="11">
         <v>120089</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V33" s="11">
         <v>5928</v>
       </c>
-      <c r="W32" s="11">
+      <c r="W33" s="11">
         <v>5046</v>
       </c>
-      <c r="X32" s="11">
+      <c r="X33" s="11">
         <v>1829</v>
       </c>
-      <c r="Y32" s="11">
+      <c r="Y33" s="11">
         <v>11484</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="Z33" s="11">
         <v>15</v>
       </c>
-      <c r="AA32" s="11">
+      <c r="AA33" s="11">
         <v>717</v>
       </c>
     </row>
-    <row r="33" spans="2:27" hidden="1">
-      <c r="B33" s="13">
+    <row r="34" spans="2:27" hidden="1">
+      <c r="B34" s="13">
         <v>2023</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>641751</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="14">
         <v>630955</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F34" s="14">
         <v>537</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="14">
         <v>55899</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <v>9670</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="14">
         <v>3264</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J34" s="14">
         <v>78</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K34" s="14">
         <v>1424</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L34" s="14">
         <v>2114</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M34" s="14">
         <v>58008</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N34" s="14">
         <v>3930</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O34" s="14">
         <v>35633</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P34" s="14">
         <v>21736</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q34" s="14">
         <v>38964</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R34" s="14">
         <v>2631</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S34" s="14">
         <v>50759</v>
       </c>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14">
+      <c r="T34" s="14"/>
+      <c r="U34" s="14">
         <v>119535</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V34" s="14">
         <v>5904</v>
       </c>
-      <c r="W33" s="14">
+      <c r="W34" s="14">
         <v>4993</v>
       </c>
-      <c r="X33" s="14">
+      <c r="X34" s="14">
         <v>1785</v>
       </c>
-      <c r="Y33" s="14">
+      <c r="Y34" s="14">
         <v>11422</v>
       </c>
-      <c r="Z33" s="14">
+      <c r="Z34" s="14">
         <v>15</v>
       </c>
-      <c r="AA33" s="14">
+      <c r="AA34" s="14">
         <v>713</v>
       </c>
     </row>
-    <row r="34" spans="2:27" hidden="1">
-      <c r="B34" s="10">
+    <row r="35" spans="2:27" hidden="1">
+      <c r="B35" s="10">
         <v>2023</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>639200</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>628078</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>535</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>55839</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="11">
         <v>9614</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I35" s="11">
         <v>3257</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J35" s="11">
         <v>78</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="11">
         <v>1424</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L35" s="11">
         <v>2091</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M35" s="11">
         <v>57753</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N35" s="11">
         <v>3924</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O35" s="11">
         <v>35418</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P35" s="11">
         <v>21601</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q35" s="11">
         <v>38737</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R35" s="11">
         <v>2613</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S35" s="11">
         <v>50312</v>
       </c>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11">
+      <c r="T35" s="11"/>
+      <c r="U35" s="11">
         <v>119109</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V35" s="11">
         <v>5878</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W35" s="11">
         <v>4974</v>
       </c>
-      <c r="X34" s="11">
+      <c r="X35" s="11">
         <v>1760</v>
       </c>
-      <c r="Y34" s="11">
+      <c r="Y35" s="11">
         <v>11402</v>
       </c>
-      <c r="Z34" s="11">
+      <c r="Z35" s="11">
         <v>15</v>
       </c>
-      <c r="AA34" s="11">
+      <c r="AA35" s="11">
         <v>713</v>
       </c>
     </row>
-    <row r="35" spans="2:27" hidden="1">
-      <c r="B35" s="13">
+    <row r="36" spans="2:27" hidden="1">
+      <c r="B36" s="13">
         <v>2023</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <v>636167</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E36" s="14">
         <v>625114</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="14">
         <v>535</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <v>55765</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H36" s="14">
         <v>9522</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I36" s="14">
         <v>3239</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J36" s="14">
         <v>78</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K36" s="14">
         <v>1424</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L36" s="14">
         <v>2039</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M36" s="14">
         <v>57425</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <v>3900</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O36" s="14">
         <v>34878</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P36" s="14">
         <v>21229</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q36" s="14">
         <v>38464</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R36" s="14">
         <v>2594</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S36" s="14">
         <v>49720</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T36" s="14">
         <v>1</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U36" s="14">
         <v>118529</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V36" s="14">
         <v>5852</v>
       </c>
-      <c r="W35" s="14">
+      <c r="W36" s="14">
         <v>4936</v>
       </c>
-      <c r="X35" s="14">
+      <c r="X36" s="14">
         <v>1736</v>
       </c>
-      <c r="Y35" s="14">
+      <c r="Y36" s="14">
         <v>11378</v>
       </c>
-      <c r="Z35" s="14">
+      <c r="Z36" s="14">
         <v>15</v>
       </c>
-      <c r="AA35" s="14">
+      <c r="AA36" s="14">
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="2:27" hidden="1">
-      <c r="B36" s="18">
+    <row r="37" spans="2:27" hidden="1">
+      <c r="B37" s="18">
         <v>2023</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>41</v>
    